--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D9F29-FD30-43D1-B808-EC4AC2396F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D27627-1653-450E-9B03-E76808B8C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="1292">
   <si>
     <t>封装厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2876,14 +2876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NM.SC1134UA-CI-00AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA.SC1138SO-N-Q-CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NF.SC1138UA-1138</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2912,10 +2904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NF.SC1645A1-1466</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC1645A1-AE-00HK-4601H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2996,10 +2984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NF.SC1945NB1(STC2899AJ)-N603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC2061SO-TR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3076,10 +3060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NM.SC2402UA-CJ-00AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC2432SO(STC9906M)-2432</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3206,10 +3186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NM.SC2442UA-Q-DB-60AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC2442UA(2943S1-1)-2442</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3426,10 +3402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC4011SO-N-C-B90NR-49E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NA.SC4011SO-N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3652,10 +3624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC4624DC-30A-D-F03C-R23030S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NF.SC4624SP30B5-CA-CA-IS23030S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3685,10 +3653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NF.SC4643VB-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC4643SA-A-4643</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3713,10 +3677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NF.SC4643VB-Q-DE-FFH-L43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NP.SC4643VB-FFH-L43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4001,10 +3961,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STC9910NC-Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC9625VB-CE-00CK-9625</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4141,10 +4097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC9675VB-Q-AB-4XCK-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC9675IM-TR-Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4409,10 +4361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NF.SC4624SP50B5-SC4624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC60221-D-256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4529,10 +4477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC9675VB-Q-AB-4XCK-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NP.2100-4643</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4705,10 +4649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STC11210G-Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC25791CUA-A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4753,10 +4693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NF.SC724SP30B5H(STC13103B)-SC724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NF.SC60340(STC9D05B)-60340</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4819,54 +4755,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC2402UA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STC9902J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC2402UA-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9642TS(9A001G)-9642</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STC9A001G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC9642TS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9642TS(STC9A001H)-E-9642</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9642TS-E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100-A-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STC9D03E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NR.SC4643VB-A-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC9314UA-17CA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4875,34 +4775,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC9314UA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC9314UA-2414</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC9314UA-94M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB-92143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STC9905G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC9634VB-SZ48/029X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC4671SW50B5-TR</t>
   </si>
   <si>
@@ -4985,14 +4865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC4015SO-N-CE-90NX</t>
   </si>
   <si>
@@ -5008,10 +4880,6 @@
     <t>STC11205B</t>
   </si>
   <si>
-    <t>江苏长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC1645A1-AE-00HK-65HA</t>
   </si>
   <si>
@@ -5092,6 +4960,14 @@
   </si>
   <si>
     <t>SC4001UA-4001</t>
+  </si>
+  <si>
+    <t>SC4624DC-30A-DF-03CR-23030S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4011SO-N-CB-90NR-49E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5260,7 +5136,877 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6330,8 +7076,8 @@
   <dimension ref="A1:V560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G292" sqref="G292"/>
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E564" sqref="E564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -6384,40 +7130,40 @@
         <v>465</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1">
@@ -7428,7 +8174,7 @@
         <v>59</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1295</v>
+        <v>62</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>158</v>
@@ -7456,7 +8202,7 @@
         <v>59</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1295</v>
+        <v>62</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>158</v>
@@ -8194,7 +8940,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>140</v>
       </c>
@@ -8222,7 +8968,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>141</v>
       </c>
@@ -8250,7 +8996,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -8278,7 +9024,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>143</v>
       </c>
@@ -8306,7 +9052,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
@@ -8334,7 +9080,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>145</v>
       </c>
@@ -8362,7 +9108,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>146</v>
       </c>
@@ -8390,7 +9136,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>149</v>
       </c>
@@ -8418,7 +9164,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>150</v>
       </c>
@@ -8446,7 +9192,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>151</v>
       </c>
@@ -8474,7 +9220,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
@@ -8502,7 +9248,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>153</v>
       </c>
@@ -8532,7 +9278,7 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>154</v>
       </c>
@@ -8560,7 +9306,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -8590,7 +9336,7 @@
       </c>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
@@ -8618,7 +9364,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>155</v>
       </c>
@@ -8645,6 +9391,15 @@
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
+      <c r="K80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="2" t="s">
@@ -9302,10 +10057,10 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="3" t="s">
-        <v>1274</v>
+        <v>1244</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>1273</v>
+        <v>1243</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>194</v>
@@ -9337,7 +10092,7 @@
         <v>6</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1285</v>
+        <v>1255</v>
       </c>
       <c r="J104" s="1"/>
     </row>
@@ -9468,10 +10223,10 @@
         <v>209</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1316</v>
+        <v>1283</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1315</v>
+        <v>1282</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>209</v>
@@ -9483,7 +10238,7 @@
         <v>6</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>1317</v>
+        <v>1284</v>
       </c>
       <c r="J109" s="1"/>
     </row>
@@ -10026,16 +10781,16 @@
         <v>217</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1267</v>
+        <v>1237</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1268</v>
+        <v>1238</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1269</v>
+        <v>1239</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1270</v>
+        <v>1240</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>217</v>
@@ -10056,16 +10811,16 @@
         <v>217</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1267</v>
+        <v>1237</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1268</v>
+        <v>1238</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1269</v>
+        <v>1239</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1270</v>
+        <v>1240</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>217</v>
@@ -10086,16 +10841,16 @@
         <v>217</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1267</v>
+        <v>1237</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1268</v>
+        <v>1238</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1269</v>
+        <v>1239</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1270</v>
+        <v>1240</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>217</v>
@@ -10107,7 +10862,7 @@
         <v>6</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1271</v>
+        <v>1241</v>
       </c>
       <c r="J131" s="1"/>
     </row>
@@ -10167,7 +10922,7 @@
         <v>6</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1286</v>
+        <v>1256</v>
       </c>
       <c r="J133" s="1"/>
     </row>
@@ -10627,10 +11382,10 @@
       </c>
       <c r="J149" s="1"/>
       <c r="K149" s="3" t="s">
-        <v>1279</v>
+        <v>1249</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="M149" s="3" t="s">
         <v>191</v>
@@ -11490,7 +12245,7 @@
         <v>6</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>750</v>
+        <v>225</v>
       </c>
       <c r="J179" s="1"/>
     </row>
@@ -11520,7 +12275,7 @@
         <v>6</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>750</v>
+        <v>225</v>
       </c>
       <c r="J180" s="1"/>
     </row>
@@ -11550,7 +12305,7 @@
         <v>6</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>751</v>
+        <v>357</v>
       </c>
       <c r="J181" s="1"/>
     </row>
@@ -11580,7 +12335,7 @@
         <v>6</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J182" s="1"/>
     </row>
@@ -11589,7 +12344,7 @@
         <v>623</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>184</v>
@@ -11610,7 +12365,7 @@
         <v>6</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J183" s="1"/>
     </row>
@@ -11647,16 +12402,16 @@
         <v>624</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>184</v>
@@ -11740,7 +12495,7 @@
         <v>172</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>209</v>
@@ -11752,7 +12507,7 @@
         <v>6</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>759</v>
+        <v>175</v>
       </c>
       <c r="J188" s="1"/>
     </row>
@@ -11764,7 +12519,7 @@
         <v>172</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>209</v>
@@ -11776,7 +12531,7 @@
         <v>6</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>469</v>
@@ -11787,7 +12542,7 @@
         <v>174</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>205</v>
@@ -11796,7 +12551,7 @@
         <v>172</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>209</v>
@@ -11808,14 +12563,14 @@
         <v>6</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="3" t="s">
-        <v>1297</v>
+        <v>1264</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>1296</v>
+        <v>1263</v>
       </c>
       <c r="M190" s="3" t="s">
         <v>209</v>
@@ -11826,7 +12581,7 @@
         <v>174</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>209</v>
@@ -11835,7 +12590,7 @@
         <v>172</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>209</v>
@@ -11847,7 +12602,7 @@
         <v>6</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J191" s="1"/>
     </row>
@@ -11859,7 +12614,7 @@
         <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>209</v>
@@ -11871,7 +12626,7 @@
         <v>6</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>469</v>
@@ -11882,7 +12637,7 @@
         <v>174</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>205</v>
@@ -11891,7 +12646,7 @@
         <v>172</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>209</v>
@@ -11903,7 +12658,7 @@
         <v>6</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J193" s="1"/>
     </row>
@@ -11912,7 +12667,7 @@
         <v>174</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>209</v>
@@ -11921,7 +12676,7 @@
         <v>172</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>209</v>
@@ -11933,7 +12688,7 @@
         <v>6</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J194" s="1"/>
     </row>
@@ -11942,7 +12697,7 @@
         <v>543</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>209</v>
@@ -11951,10 +12706,10 @@
         <v>405</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>620</v>
@@ -11963,7 +12718,7 @@
         <v>6</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J195" s="1"/>
     </row>
@@ -11978,10 +12733,10 @@
         <v>205</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>205</v>
@@ -11993,7 +12748,7 @@
         <v>6</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J196" s="1"/>
     </row>
@@ -12002,10 +12757,10 @@
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>205</v>
@@ -12017,7 +12772,7 @@
         <v>6</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>469</v>
@@ -12037,7 +12792,7 @@
         <v>177</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>205</v>
@@ -12049,7 +12804,7 @@
         <v>6</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J198" s="1"/>
     </row>
@@ -12067,7 +12822,7 @@
         <v>169</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>204</v>
@@ -12079,7 +12834,7 @@
         <v>6</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>780</v>
+        <v>170</v>
       </c>
       <c r="J199" s="1"/>
     </row>
@@ -12116,10 +12871,10 @@
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>471</v>
@@ -12140,10 +12895,10 @@
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>471</v>
@@ -12229,7 +12984,7 @@
         <v>370</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>186</v>
@@ -12276,16 +13031,16 @@
         <v>627</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>187</v>
@@ -12304,13 +13059,13 @@
         <v>293</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>295</v>
@@ -12332,7 +13087,7 @@
         <v>293</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>59</v>
@@ -12412,7 +13167,7 @@
         <v>600</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>188</v>
@@ -12495,7 +13250,7 @@
         <v>374</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>188</v>
@@ -12525,7 +13280,7 @@
         <v>374</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>188</v>
@@ -12539,10 +13294,10 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="3" t="s">
-        <v>1279</v>
+        <v>1249</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>1291</v>
+        <v>1259</v>
       </c>
       <c r="M216" s="3" t="s">
         <v>188</v>
@@ -12556,7 +13311,7 @@
         <v>374</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>188</v>
@@ -12574,10 +13329,10 @@
     </row>
     <row r="218" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>189</v>
@@ -12602,7 +13357,7 @@
     </row>
     <row r="219" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>603</v>
@@ -12658,7 +13413,7 @@
     </row>
     <row r="221" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>605</v>
@@ -12682,13 +13437,13 @@
         <v>359</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J221" s="1"/>
     </row>
     <row r="222" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>605</v>
@@ -12712,25 +13467,25 @@
         <v>359</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J222" s="1"/>
     </row>
     <row r="223" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>1240</v>
+        <v>256</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1242</v>
+        <v>22</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>188</v>
@@ -12742,7 +13497,7 @@
         <v>6</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>800</v>
+        <v>738</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>469</v>
@@ -12811,16 +13566,16 @@
         <v>628</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>200</v>
@@ -12848,7 +13603,7 @@
         <v>406</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>90</v>
@@ -12873,10 +13628,10 @@
         <v>90</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>90</v>
@@ -12895,16 +13650,16 @@
         <v>628</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>200</v>
@@ -12923,10 +13678,10 @@
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>200</v>
@@ -12949,10 +13704,10 @@
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>200</v>
@@ -12975,7 +13730,7 @@
         <v>278</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>90</v>
@@ -12984,7 +13739,7 @@
         <v>279</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>90</v>
@@ -13003,7 +13758,7 @@
         <v>278</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>200</v>
@@ -13056,7 +13811,7 @@
     </row>
     <row r="235" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>29</v>
@@ -13065,10 +13820,10 @@
         <v>90</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>90</v>
@@ -13143,7 +13898,7 @@
         <v>287</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>200</v>
@@ -13199,16 +13954,16 @@
         <v>629</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>200</v>
@@ -13227,16 +13982,16 @@
         <v>629</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>200</v>
@@ -13255,16 +14010,16 @@
         <v>630</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>199</v>
@@ -13317,10 +14072,10 @@
         <v>199</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>199</v>
@@ -13345,7 +14100,7 @@
         <v>199</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>409</v>
@@ -13364,19 +14119,19 @@
     </row>
     <row r="246" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>199</v>
@@ -13395,7 +14150,7 @@
         <v>551</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>198</v>
@@ -13404,7 +14159,7 @@
         <v>408</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>198</v>
@@ -13507,7 +14262,7 @@
         <v>262</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>198</v>
@@ -13528,7 +14283,7 @@
         <v>6</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>833</v>
+        <v>315</v>
       </c>
       <c r="J251" s="1"/>
     </row>
@@ -13565,16 +14320,16 @@
         <v>631</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>476</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>476</v>
@@ -13614,7 +14369,7 @@
         <v>6</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="J254" s="1"/>
     </row>
@@ -13632,7 +14387,7 @@
         <v>272</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>210</v>
@@ -13644,7 +14399,7 @@
         <v>6</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="J255" s="1"/>
     </row>
@@ -13709,7 +14464,7 @@
         <v>269</v>
       </c>
       <c r="L257" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="M257" s="2" t="s">
         <v>202</v>
@@ -13729,7 +14484,7 @@
         <v>269</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>202</v>
@@ -13750,16 +14505,16 @@
         <v>635</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>477</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>477</v>
@@ -13787,7 +14542,7 @@
         <v>412</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>201</v>
@@ -13812,10 +14567,10 @@
         <v>201</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>201</v>
@@ -13955,7 +14710,7 @@
         <v>310</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>212</v>
@@ -13977,7 +14732,7 @@
         <v>310</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>198</v>
@@ -14007,7 +14762,7 @@
         <v>310</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>198</v>
@@ -14057,7 +14812,7 @@
         <v>420</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>198</v>
@@ -14087,7 +14842,7 @@
         <v>422</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
       <c r="F271" s="9" t="s">
         <v>198</v>
@@ -14102,7 +14857,7 @@
         <v>636</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>212</v>
@@ -14111,7 +14866,7 @@
         <v>422</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1304</v>
+        <v>1271</v>
       </c>
       <c r="F272" s="9" t="s">
         <v>198</v>
@@ -14126,7 +14881,7 @@
         <v>636</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>212</v>
@@ -14157,7 +14912,7 @@
         <v>422</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>198</v>
@@ -14184,10 +14939,10 @@
         <v>55</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>55</v>
@@ -14206,10 +14961,10 @@
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>55</v>
@@ -14307,19 +15062,19 @@
     </row>
     <row r="280" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>478</v>
@@ -14335,19 +15090,19 @@
     </row>
     <row r="281" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>478</v>
@@ -14366,16 +15121,16 @@
         <v>637</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>198</v>
@@ -14400,10 +15155,10 @@
         <v>214</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>214</v>
@@ -14422,16 +15177,16 @@
         <v>638</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>1320</v>
+        <v>1287</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>214</v>
@@ -14443,7 +15198,7 @@
         <v>6</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>1318</v>
+        <v>1285</v>
       </c>
       <c r="J284" s="1"/>
     </row>
@@ -14480,16 +15235,16 @@
         <v>639</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>215</v>
@@ -14508,10 +15263,10 @@
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>215</v>
@@ -14532,16 +15287,16 @@
         <v>640</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>215</v>
@@ -14553,7 +15308,7 @@
         <v>6</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="J288" s="1"/>
     </row>
@@ -14562,16 +15317,16 @@
         <v>640</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>215</v>
@@ -14592,16 +15347,16 @@
         <v>641</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>481</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>481</v>
@@ -14622,16 +15377,16 @@
         <v>642</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>483</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>483</v>
@@ -14647,19 +15402,19 @@
     </row>
     <row r="292" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>484</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>888</v>
+        <v>1291</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>484</v>
@@ -14671,25 +15426,25 @@
         <v>359</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="J292" s="1"/>
     </row>
     <row r="293" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>484</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>484</v>
@@ -14701,7 +15456,7 @@
         <v>359</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="J293" s="1"/>
     </row>
@@ -14710,10 +15465,10 @@
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>484</v>
@@ -14725,7 +15480,7 @@
         <v>359</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>469</v>
@@ -14736,10 +15491,10 @@
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>484</v>
@@ -14751,7 +15506,7 @@
         <v>359</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>469</v>
@@ -14762,10 +15517,10 @@
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>466</v>
@@ -14777,7 +15532,7 @@
         <v>359</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>469</v>
@@ -14788,10 +15543,10 @@
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>466</v>
@@ -14803,7 +15558,7 @@
         <v>359</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>469</v>
@@ -14814,10 +15569,10 @@
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>466</v>
@@ -14829,7 +15584,7 @@
         <v>359</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>469</v>
@@ -14840,10 +15595,10 @@
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>466</v>
@@ -14855,7 +15610,7 @@
         <v>359</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>469</v>
@@ -14866,10 +15621,10 @@
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>466</v>
@@ -14881,7 +15636,7 @@
         <v>359</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>469</v>
@@ -14892,10 +15647,10 @@
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>466</v>
@@ -14907,7 +15662,7 @@
         <v>359</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>469</v>
@@ -14918,10 +15673,10 @@
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>466</v>
@@ -14933,7 +15688,7 @@
         <v>359</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>469</v>
@@ -14944,10 +15699,10 @@
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>905</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>466</v>
@@ -14959,7 +15714,7 @@
         <v>359</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>469</v>
@@ -14970,10 +15725,10 @@
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>485</v>
@@ -14996,10 +15751,10 @@
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>487</v>
@@ -15020,10 +15775,10 @@
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>488</v>
@@ -15035,7 +15790,7 @@
         <v>359</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>469</v>
@@ -15046,10 +15801,10 @@
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>489</v>
@@ -15070,10 +15825,10 @@
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>489</v>
@@ -15094,10 +15849,10 @@
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>489</v>
@@ -15118,16 +15873,16 @@
         <v>643</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>489</v>
@@ -15146,10 +15901,10 @@
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>489</v>
@@ -15198,10 +15953,10 @@
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>216</v>
@@ -15222,10 +15977,10 @@
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>490</v>
@@ -15237,7 +15992,7 @@
         <v>359</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>469</v>
@@ -15248,10 +16003,10 @@
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>490</v>
@@ -15263,7 +16018,7 @@
         <v>359</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>469</v>
@@ -15274,10 +16029,10 @@
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>490</v>
@@ -15298,10 +16053,10 @@
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>490</v>
@@ -15322,10 +16077,10 @@
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>490</v>
@@ -15346,10 +16101,10 @@
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>491</v>
@@ -15361,7 +16116,7 @@
         <v>6</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>469</v>
@@ -15372,10 +16127,10 @@
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>491</v>
@@ -15387,7 +16142,7 @@
         <v>6</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>469</v>
@@ -15404,7 +16159,7 @@
         <v>101</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>431</v>
@@ -15423,19 +16178,19 @@
     </row>
     <row r="322" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>945</v>
+        <v>1290</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>101</v>
@@ -15447,7 +16202,7 @@
         <v>6</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="J322" s="1"/>
     </row>
@@ -15462,7 +16217,7 @@
         <v>101</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>433</v>
@@ -15477,25 +16232,25 @@
         <v>6</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="J323" s="1"/>
     </row>
     <row r="324" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>43</v>
@@ -15514,7 +16269,7 @@
         <v>647</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>492</v>
@@ -15523,7 +16278,7 @@
         <v>453</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>43</v>
@@ -15535,16 +16290,16 @@
         <v>6</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>954</v>
+        <v>161</v>
       </c>
       <c r="J325" s="1"/>
     </row>
     <row r="326" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>43</v>
@@ -15553,7 +16308,7 @@
         <v>453</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>43</v>
@@ -15572,7 +16327,7 @@
         <v>42</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>492</v>
@@ -15593,7 +16348,7 @@
         <v>6</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="J327" s="1"/>
     </row>
@@ -15602,10 +16357,10 @@
         <v>2100</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1248</v>
+        <v>41</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1249</v>
+        <v>1226</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>453</v>
@@ -15653,7 +16408,7 @@
         <v>158</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J329" s="1"/>
     </row>
@@ -15683,7 +16438,7 @@
         <v>158</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J330" s="1"/>
     </row>
@@ -15707,7 +16462,7 @@
         <v>158</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>469</v>
@@ -15715,13 +16470,13 @@
     </row>
     <row r="332" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>1251</v>
+        <v>647</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1250</v>
+        <v>91</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>1249</v>
+        <v>1226</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>92</v>
@@ -15748,7 +16503,7 @@
         <v>647</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>43</v>
@@ -15769,7 +16524,7 @@
         <v>158</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>954</v>
+        <v>161</v>
       </c>
       <c r="J333" s="1"/>
     </row>
@@ -15778,7 +16533,7 @@
         <v>647</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>43</v>
@@ -15799,7 +16554,7 @@
         <v>158</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>954</v>
+        <v>161</v>
       </c>
       <c r="J334" s="1"/>
     </row>
@@ -15829,7 +16584,7 @@
         <v>158</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>961</v>
+        <v>159</v>
       </c>
       <c r="J335" s="1"/>
     </row>
@@ -15838,16 +16593,16 @@
         <v>647</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>492</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>43</v>
@@ -15859,7 +16614,7 @@
         <v>6</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>961</v>
+        <v>159</v>
       </c>
       <c r="J336" s="1"/>
     </row>
@@ -15868,7 +16623,7 @@
         <v>648</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>101</v>
@@ -15889,7 +16644,7 @@
         <v>6</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="J337" s="1"/>
     </row>
@@ -15898,7 +16653,7 @@
         <v>648</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>101</v>
@@ -15919,7 +16674,7 @@
         <v>158</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="J338" s="1"/>
     </row>
@@ -15934,10 +16689,10 @@
         <v>105</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>105</v>
@@ -15949,7 +16704,7 @@
         <v>158</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="J339" s="1"/>
     </row>
@@ -15964,10 +16719,10 @@
         <v>493</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2" t="s">
@@ -15977,7 +16732,7 @@
         <v>158</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="J340" s="1"/>
     </row>
@@ -16010,7 +16765,7 @@
         <v>611</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>206</v>
@@ -16019,7 +16774,7 @@
         <v>443</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>206</v>
@@ -16059,7 +16814,7 @@
         <v>158</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="J343" s="1"/>
     </row>
@@ -16152,16 +16907,16 @@
         <v>649</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>494</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>494</v>
@@ -16173,7 +16928,7 @@
         <v>6</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="J347" s="1"/>
     </row>
@@ -16182,16 +16937,16 @@
         <v>650</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>494</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>494</v>
@@ -16203,7 +16958,7 @@
         <v>158</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="J348" s="1"/>
     </row>
@@ -16212,10 +16967,10 @@
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>495</v>
@@ -16227,7 +16982,7 @@
         <v>359</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="J349" s="1" t="s">
         <v>469</v>
@@ -16238,10 +16993,10 @@
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>495</v>
@@ -16262,10 +17017,10 @@
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>495</v>
@@ -16286,10 +17041,10 @@
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>495</v>
@@ -16301,7 +17056,7 @@
         <v>359</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="J352" s="1" t="s">
         <v>469</v>
@@ -16312,10 +17067,10 @@
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>495</v>
@@ -16336,10 +17091,10 @@
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>495</v>
@@ -16360,10 +17115,10 @@
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>495</v>
@@ -16384,10 +17139,10 @@
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>495</v>
@@ -16408,10 +17163,10 @@
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>495</v>
@@ -16432,10 +17187,10 @@
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>483</v>
@@ -16456,10 +17211,10 @@
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>496</v>
@@ -16471,16 +17226,16 @@
         <v>359</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="J359" s="1" t="s">
         <v>469</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="L359" s="2" t="s">
-        <v>1287</v>
+        <v>1257</v>
       </c>
       <c r="M359" s="2" t="s">
         <v>496</v>
@@ -16491,10 +17246,10 @@
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>497</v>
@@ -16506,7 +17261,7 @@
         <v>359</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="J360" s="1" t="s">
         <v>469</v>
@@ -16517,10 +17272,10 @@
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>498</v>
@@ -16536,10 +17291,10 @@
         <v>469</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="L361" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="M361" s="2" t="s">
         <v>498</v>
@@ -16550,10 +17305,10 @@
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>498</v>
@@ -16577,7 +17332,7 @@
         <v>651</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>499</v>
@@ -16586,7 +17341,7 @@
         <v>651</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>499</v>
@@ -16605,16 +17360,16 @@
         <v>652</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>500</v>
@@ -16633,16 +17388,16 @@
         <v>652</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>500</v>
@@ -16661,7 +17416,7 @@
         <v>653</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>500</v>
@@ -16670,7 +17425,7 @@
         <v>653</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>500</v>
@@ -16689,16 +17444,16 @@
         <v>654</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>501</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>501</v>
@@ -16717,16 +17472,16 @@
         <v>655</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>501</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>501</v>
@@ -16748,16 +17503,16 @@
         <v>655</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>501</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>501</v>
@@ -16776,16 +17531,16 @@
         <v>655</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>501</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>501</v>
@@ -16807,7 +17562,7 @@
         <v>657</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>105</v>
@@ -16819,7 +17574,7 @@
         <v>158</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="J371" s="1" t="s">
         <v>469</v>
@@ -16830,16 +17585,16 @@
         <v>657</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>105</v>
@@ -16851,25 +17606,25 @@
         <v>6</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="J372" s="1"/>
     </row>
     <row r="373" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A373" s="2" t="s">
-        <v>1254</v>
+        <v>580</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1252</v>
+        <v>1227</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>438</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>218</v>
@@ -16890,16 +17645,16 @@
         <v>580</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1252</v>
+        <v>1227</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>438</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>218</v>
@@ -16911,7 +17666,7 @@
         <v>6</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>1286</v>
+        <v>1256</v>
       </c>
       <c r="J374" s="1"/>
     </row>
@@ -16920,16 +17675,16 @@
         <v>580</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1255</v>
+        <v>1229</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>658</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>218</v>
@@ -16941,25 +17696,25 @@
         <v>6</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>1286</v>
+        <v>1256</v>
       </c>
       <c r="J375" s="1"/>
     </row>
     <row r="376" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A376" s="2" t="s">
-        <v>1254</v>
+        <v>580</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1255</v>
+        <v>1229</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>658</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>218</v>
@@ -17001,7 +17756,7 @@
         <v>6</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="J377" s="1"/>
     </row>
@@ -17010,7 +17765,7 @@
         <v>580</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>218</v>
@@ -17019,7 +17774,7 @@
         <v>438</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>218</v>
@@ -17031,7 +17786,7 @@
         <v>6</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="J378" s="1"/>
     </row>
@@ -17040,7 +17795,7 @@
         <v>580</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>218</v>
@@ -17049,7 +17804,7 @@
         <v>438</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>218</v>
@@ -17061,25 +17816,25 @@
         <v>6</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="J379" s="1"/>
     </row>
     <row r="380" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A380" s="2" t="s">
-        <v>1254</v>
+        <v>580</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1256</v>
+        <v>1022</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>438</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>218</v>
@@ -17161,7 +17916,7 @@
         <v>63</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1033</v>
+        <v>450</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>64</v>
@@ -17170,7 +17925,7 @@
         <v>60</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1033</v>
+        <v>450</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>62</v>
@@ -17195,7 +17950,7 @@
         <v>73</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>74</v>
@@ -17248,10 +18003,10 @@
         <v>74</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>74</v>
@@ -17323,13 +18078,13 @@
     </row>
     <row r="389" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A389" s="2" t="s">
-        <v>1258</v>
+        <v>154</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1257</v>
+        <v>112</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>113</v>
@@ -17383,13 +18138,13 @@
     </row>
     <row r="391" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A391" s="2" t="s">
-        <v>1258</v>
+        <v>154</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1260</v>
+        <v>117</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>113</v>
@@ -17415,19 +18170,19 @@
     </row>
     <row r="392" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A392" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1283</v>
+        <v>1253</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>192</v>
@@ -17441,10 +18196,10 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
       <c r="K392" s="2" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="L392" s="2" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="M392" s="2" t="s">
         <v>192</v>
@@ -17452,19 +18207,19 @@
     </row>
     <row r="393" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A393" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1284</v>
+        <v>1254</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>192</v>
@@ -17478,10 +18233,10 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
       <c r="K393" s="2" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="L393" s="2" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="M393" s="2" t="s">
         <v>192</v>
@@ -17489,19 +18244,19 @@
     </row>
     <row r="394" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A394" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>192</v>
@@ -17515,10 +18270,10 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
       <c r="K394" s="2" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="L394" s="2" t="s">
-        <v>1283</v>
+        <v>1253</v>
       </c>
       <c r="M394" s="2" t="s">
         <v>192</v>
@@ -17526,19 +18281,19 @@
     </row>
     <row r="395" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A395" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>192</v>
@@ -17552,10 +18307,10 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
       <c r="K395" s="2" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="L395" s="2" t="s">
-        <v>1284</v>
+        <v>1254</v>
       </c>
       <c r="M395" s="2" t="s">
         <v>192</v>
@@ -17619,19 +18374,19 @@
     </row>
     <row r="398" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A398" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>192</v>
@@ -17703,19 +18458,19 @@
     </row>
     <row r="401" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A401" s="2" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>194</v>
@@ -17731,19 +18486,19 @@
     </row>
     <row r="402" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A402" s="2" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>194</v>
@@ -17759,19 +18514,19 @@
     </row>
     <row r="403" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A403" s="2" t="s">
-        <v>1247</v>
+        <v>1036</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1246</v>
+        <v>1041</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>194</v>
@@ -17789,19 +18544,19 @@
     </row>
     <row r="404" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A404" s="2" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>194</v>
@@ -17817,19 +18572,19 @@
     </row>
     <row r="405" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A405" s="2" t="s">
-        <v>1245</v>
+        <v>659</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1243</v>
+        <v>1045</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>1244</v>
+        <v>1225</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>504</v>
@@ -17845,10 +18600,10 @@
         <v>469</v>
       </c>
       <c r="K405" s="2" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="L405" s="2" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="M405" s="2" t="s">
         <v>504</v>
@@ -17859,16 +18614,16 @@
         <v>659</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>504</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>504</v>
@@ -17880,25 +18635,25 @@
         <v>6</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="J406" s="1"/>
     </row>
     <row r="407" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A407" s="2" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>192</v>
@@ -17914,19 +18669,19 @@
     </row>
     <row r="408" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A408" s="2" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>192</v>
@@ -17942,19 +18697,19 @@
     </row>
     <row r="409" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A409" s="2" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>192</v>
@@ -17970,19 +18725,19 @@
     </row>
     <row r="410" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A410" s="2" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>192</v>
@@ -18022,7 +18777,7 @@
         <v>6</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>1068</v>
+        <v>88</v>
       </c>
       <c r="J411" s="1"/>
     </row>
@@ -18052,7 +18807,7 @@
         <v>6</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>1068</v>
+        <v>88</v>
       </c>
       <c r="J412" s="1"/>
     </row>
@@ -18082,7 +18837,7 @@
         <v>6</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>1068</v>
+        <v>88</v>
       </c>
       <c r="J413" s="1"/>
     </row>
@@ -18097,10 +18852,10 @@
         <v>77</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>77</v>
@@ -18112,7 +18867,7 @@
         <v>6</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>1068</v>
+        <v>88</v>
       </c>
       <c r="J414" s="1"/>
     </row>
@@ -18142,25 +18897,25 @@
         <v>6</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>1068</v>
+        <v>88</v>
       </c>
       <c r="J415" s="1"/>
     </row>
     <row r="416" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A416" s="2" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>505</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>505</v>
@@ -18179,10 +18934,10 @@
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>505</v>
@@ -18203,10 +18958,10 @@
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>505</v>
@@ -18227,10 +18982,10 @@
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>505</v>
@@ -18251,10 +19006,10 @@
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>505</v>
@@ -18275,10 +19030,10 @@
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>505</v>
@@ -18299,10 +19054,10 @@
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>505</v>
@@ -18323,10 +19078,10 @@
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>505</v>
@@ -18347,10 +19102,10 @@
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>505</v>
@@ -18371,10 +19126,10 @@
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>505</v>
@@ -18404,7 +19159,7 @@
         <v>122</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>120</v>
@@ -18432,7 +19187,7 @@
         <v>122</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>120</v>
@@ -18454,7 +19209,7 @@
         <v>661</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>506</v>
@@ -18466,7 +19221,7 @@
         <v>158</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="J428" s="1" t="s">
         <v>469</v>
@@ -18474,7 +19229,7 @@
     </row>
     <row r="429" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A429" s="2" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>662</v>
@@ -18483,10 +19238,10 @@
         <v>507</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>508</v>
@@ -18502,19 +19257,19 @@
     </row>
     <row r="430" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A430" s="2" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>509</v>
@@ -18533,10 +19288,10 @@
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>484</v>
@@ -18557,10 +19312,10 @@
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>484</v>
@@ -18578,19 +19333,19 @@
     </row>
     <row r="433" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A433" s="2" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>510</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>510</v>
@@ -18609,7 +19364,7 @@
         <v>663</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>489</v>
@@ -18633,7 +19388,7 @@
         <v>664</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>489</v>
@@ -18654,10 +19409,10 @@
     </row>
     <row r="436" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A436" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>512</v>
@@ -18681,7 +19436,7 @@
         <v>637</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>513</v>
@@ -18705,7 +19460,7 @@
         <v>665</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>513</v>
@@ -18729,7 +19484,7 @@
         <v>666</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>514</v>
@@ -18753,7 +19508,7 @@
         <v>667</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>514</v>
@@ -18777,10 +19532,10 @@
         <v>668</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -18801,10 +19556,10 @@
         <v>669</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -18822,10 +19577,10 @@
     </row>
     <row r="443" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A443" s="2" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>515</v>
@@ -18873,7 +19628,7 @@
         <v>670</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>516</v>
@@ -18897,7 +19652,7 @@
         <v>671</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>484</v>
@@ -18921,7 +19676,7 @@
         <v>672</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>484</v>
@@ -18945,7 +19700,7 @@
         <v>673</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>484</v>
@@ -18966,10 +19721,10 @@
     </row>
     <row r="449" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A449" s="2" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>484</v>
@@ -18990,10 +19745,10 @@
     </row>
     <row r="450" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A450" s="2" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>485</v>
@@ -19017,7 +19772,7 @@
         <v>674</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>517</v>
@@ -19038,10 +19793,10 @@
     </row>
     <row r="452" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A452" s="2" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>517</v>
@@ -19065,7 +19820,7 @@
         <v>594</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>186</v>
@@ -19113,7 +19868,7 @@
         <v>600</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>189</v>
@@ -19137,7 +19892,7 @@
         <v>675</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>484</v>
@@ -19161,7 +19916,7 @@
         <v>676</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>484</v>
@@ -19182,10 +19937,10 @@
     </row>
     <row r="458" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A458" s="2" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>484</v>
@@ -19209,7 +19964,7 @@
         <v>677</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>484</v>
@@ -19233,7 +19988,7 @@
         <v>678</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>206</v>
@@ -19248,7 +20003,7 @@
         <v>359</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="J460" s="1" t="s">
         <v>511</v>
@@ -19259,7 +20014,7 @@
         <v>679</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>101</v>
@@ -19274,7 +20029,7 @@
         <v>6</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>1135</v>
+        <v>943</v>
       </c>
       <c r="J461" s="1" t="s">
         <v>511</v>
@@ -19282,10 +20037,10 @@
     </row>
     <row r="462" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A462" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>217</v>
@@ -19306,10 +20061,10 @@
     </row>
     <row r="463" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A463" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>217</v>
@@ -19381,7 +20136,7 @@
         <v>680</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>518</v>
@@ -19405,7 +20160,7 @@
         <v>681</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>518</v>
@@ -19429,7 +20184,7 @@
         <v>262</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>513</v>
@@ -19450,10 +20205,10 @@
     </row>
     <row r="469" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A469" s="2" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>198</v>
@@ -19474,10 +20229,10 @@
     </row>
     <row r="470" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A470" s="2" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>519</v>
@@ -19501,10 +20256,10 @@
         <v>682</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -19525,7 +20280,7 @@
         <v>683</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>55</v>
@@ -19546,10 +20301,10 @@
     </row>
     <row r="473" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A473" s="2" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>520</v>
@@ -19573,7 +20328,7 @@
         <v>539</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>184</v>
@@ -19621,7 +20376,7 @@
         <v>541</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>208</v>
@@ -19645,7 +20400,7 @@
         <v>684</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>521</v>
@@ -19669,7 +20424,7 @@
         <v>275</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>522</v>
@@ -19741,7 +20496,7 @@
         <v>628</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>90</v>
@@ -19765,7 +20520,7 @@
         <v>685</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>200</v>
@@ -19786,10 +20541,10 @@
     </row>
     <row r="483" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A483" s="2" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>491</v>
@@ -19815,7 +20570,7 @@
         <v>686</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>524</v>
@@ -19839,7 +20594,7 @@
         <v>687</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>525</v>
@@ -19863,7 +20618,7 @@
         <v>687</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>525</v>
@@ -19887,7 +20642,7 @@
         <v>688</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>526</v>
@@ -19911,7 +20666,7 @@
         <v>659</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>527</v>
@@ -19932,10 +20687,10 @@
     </row>
     <row r="489" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A489" s="2" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>77</v>
@@ -19950,7 +20705,7 @@
         <v>6</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>1165</v>
+        <v>88</v>
       </c>
       <c r="J489" s="1"/>
     </row>
@@ -19959,7 +20714,7 @@
         <v>42</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>492</v>
@@ -19980,10 +20735,10 @@
     </row>
     <row r="491" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A491" s="2" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>492</v>
@@ -20004,10 +20759,10 @@
     </row>
     <row r="492" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A492" s="2" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>43</v>
@@ -20031,7 +20786,7 @@
         <v>689</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>217</v>
@@ -20052,10 +20807,10 @@
     </row>
     <row r="494" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A494" s="2" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>217</v>
@@ -20070,7 +20825,7 @@
         <v>6</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="J494" s="1" t="s">
         <v>511</v>
@@ -20078,10 +20833,10 @@
     </row>
     <row r="495" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A495" s="2" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>217</v>
@@ -20096,7 +20851,7 @@
         <v>6</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="J495" s="1" t="s">
         <v>511</v>
@@ -20104,10 +20859,10 @@
     </row>
     <row r="496" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A496" s="2" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>217</v>
@@ -20122,7 +20877,7 @@
         <v>6</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="J496" s="1" t="s">
         <v>511</v>
@@ -20130,10 +20885,10 @@
     </row>
     <row r="497" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A497" s="2" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>217</v>
@@ -20148,7 +20903,7 @@
         <v>6</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="J497" s="1" t="s">
         <v>511</v>
@@ -20156,10 +20911,10 @@
     </row>
     <row r="498" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A498" s="2" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>217</v>
@@ -20174,7 +20929,7 @@
         <v>6</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="J498" s="1" t="s">
         <v>511</v>
@@ -20185,7 +20940,7 @@
         <v>690</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>217</v>
@@ -20209,7 +20964,7 @@
         <v>691</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>101</v>
@@ -20233,7 +20988,7 @@
         <v>692</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>101</v>
@@ -20257,7 +21012,7 @@
         <v>694</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>186</v>
@@ -20281,7 +21036,7 @@
         <v>695</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>189</v>
@@ -20305,7 +21060,7 @@
         <v>256</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>189</v>
@@ -20326,10 +21081,10 @@
     </row>
     <row r="505" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A505" s="2" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>189</v>
@@ -20350,10 +21105,10 @@
     </row>
     <row r="506" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A506" s="2" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>190</v>
@@ -20368,7 +21123,7 @@
         <v>6</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>1272</v>
+        <v>1242</v>
       </c>
       <c r="J506" s="1" t="s">
         <v>511</v>
@@ -20376,10 +21131,10 @@
     </row>
     <row r="507" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A507" s="2" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>190</v>
@@ -20394,7 +21149,7 @@
         <v>6</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>1272</v>
+        <v>1242</v>
       </c>
       <c r="J507" s="1" t="s">
         <v>511</v>
@@ -20402,10 +21157,10 @@
     </row>
     <row r="508" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A508" s="2" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>190</v>
@@ -20426,10 +21181,10 @@
     </row>
     <row r="509" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A509" s="2" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>191</v>
@@ -20450,10 +21205,10 @@
     </row>
     <row r="510" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A510" s="2" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>217</v>
@@ -20476,10 +21231,10 @@
     </row>
     <row r="511" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A511" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>217</v>
@@ -20502,10 +21257,10 @@
     </row>
     <row r="512" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A512" s="2" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>217</v>
@@ -20528,10 +21283,10 @@
     </row>
     <row r="513" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A513" s="2" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>217</v>
@@ -20554,10 +21309,10 @@
     </row>
     <row r="514" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A514" s="2" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>217</v>
@@ -20580,10 +21335,10 @@
     </row>
     <row r="515" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A515" s="2" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>217</v>
@@ -20606,10 +21361,10 @@
     </row>
     <row r="516" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A516" s="2" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>217</v>
@@ -20632,10 +21387,10 @@
     </row>
     <row r="517" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A517" s="2" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>217</v>
@@ -20661,7 +21416,7 @@
         <v>697</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>217</v>
@@ -20684,10 +21439,10 @@
     </row>
     <row r="519" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A519" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>217</v>
@@ -20710,10 +21465,10 @@
     </row>
     <row r="520" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A520" s="2" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>217</v>
@@ -20736,10 +21491,10 @@
     </row>
     <row r="521" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A521" s="2" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>217</v>
@@ -20762,10 +21517,10 @@
     </row>
     <row r="522" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A522" s="2" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>217</v>
@@ -20791,7 +21546,7 @@
         <v>698</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>43</v>
@@ -20815,7 +21570,7 @@
         <v>699</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>43</v>
@@ -20839,7 +21594,7 @@
         <v>700</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>528</v>
@@ -20865,7 +21620,7 @@
         <v>701</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>501</v>
@@ -20889,7 +21644,7 @@
         <v>702</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>185</v>
@@ -20909,7 +21664,7 @@
         <v>703</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>185</v>
@@ -20929,7 +21684,7 @@
         <v>562</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>530</v>
@@ -20953,7 +21708,7 @@
         <v>704</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>213</v>
@@ -20974,13 +21729,13 @@
     </row>
     <row r="531" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A531" s="2" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1209</v>
+        <v>851</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -20998,13 +21753,13 @@
     </row>
     <row r="532" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A532" s="2" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1209</v>
+        <v>851</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -21025,7 +21780,7 @@
         <v>705</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>531</v>
@@ -21049,7 +21804,7 @@
         <v>705</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>532</v>
@@ -21070,13 +21825,13 @@
     </row>
     <row r="535" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A535" s="2" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1209</v>
+        <v>851</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -21097,7 +21852,7 @@
         <v>706</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1218</v>
+        <v>1203</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>513</v>
@@ -21121,7 +21876,7 @@
         <v>707</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>513</v>
@@ -21145,7 +21900,7 @@
         <v>661</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>506</v>
@@ -21169,7 +21924,7 @@
         <v>657</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>105</v>
@@ -21184,7 +21939,7 @@
         <v>158</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>1221</v>
+        <v>1014</v>
       </c>
       <c r="J539" s="1" t="s">
         <v>511</v>
@@ -21195,7 +21950,7 @@
         <v>652</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>500</v>
@@ -21210,7 +21965,7 @@
         <v>158</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="J540" s="1" t="s">
         <v>511</v>
@@ -21221,7 +21976,7 @@
         <v>693</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>101</v>
@@ -21236,7 +21991,7 @@
         <v>158</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="J541" s="1" t="s">
         <v>511</v>
@@ -21349,16 +22104,16 @@
         <v>684</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>204</v>
@@ -21370,7 +22125,7 @@
         <v>6</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="J546" s="1"/>
     </row>
@@ -21379,10 +22134,10 @@
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2" t="s">
-        <v>1261</v>
+        <v>1231</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1262</v>
+        <v>1232</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>105</v>
@@ -21394,7 +22149,7 @@
         <v>158</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>1263</v>
+        <v>1233</v>
       </c>
       <c r="J547" s="1" t="s">
         <v>469</v>
@@ -21405,10 +22160,10 @@
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2" t="s">
-        <v>1264</v>
+        <v>1234</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1265</v>
+        <v>1235</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>101</v>
@@ -21420,7 +22175,7 @@
         <v>158</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>1266</v>
+        <v>1236</v>
       </c>
       <c r="J548" s="1" t="s">
         <v>469</v>
@@ -21428,19 +22183,19 @@
     </row>
     <row r="549" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A549" s="2" t="s">
-        <v>1277</v>
+        <v>1247</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1275</v>
+        <v>1245</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1278</v>
+        <v>1248</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>1276</v>
+        <v>1246</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>206</v>
@@ -21456,19 +22211,19 @@
     </row>
     <row r="550" spans="1:13">
       <c r="A550" s="3" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
       <c r="C550" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>1281</v>
+        <v>1251</v>
       </c>
       <c r="F550" s="3" t="s">
         <v>43</v>
@@ -21476,19 +22231,19 @@
     </row>
     <row r="551" spans="1:13">
       <c r="D551" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1287</v>
+        <v>1257</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>496</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>1288</v>
+        <v>535</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1289</v>
+        <v>6</v>
       </c>
       <c r="J551" s="1" t="s">
         <v>469</v>
@@ -21499,10 +22254,10 @@
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>1290</v>
+        <v>1258</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>466</v>
@@ -21514,7 +22269,7 @@
         <v>359</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J552" s="1" t="s">
         <v>469</v>
@@ -21525,13 +22280,13 @@
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2" t="s">
-        <v>1293</v>
+        <v>1261</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1292</v>
+        <v>1260</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>1294</v>
+        <v>1262</v>
       </c>
       <c r="G553" s="2" t="s">
         <v>591</v>
@@ -21546,10 +22301,10 @@
     </row>
     <row r="554" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A554" s="2" t="s">
-        <v>1299</v>
+        <v>1266</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1298</v>
+        <v>1265</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>184</v>
@@ -21564,7 +22319,7 @@
         <v>6</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>1300</v>
+        <v>1267</v>
       </c>
       <c r="J554" s="1"/>
     </row>
@@ -21573,7 +22328,7 @@
         <v>268</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>202</v>
@@ -21582,7 +22337,7 @@
         <v>269</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>202</v>
@@ -21600,19 +22355,19 @@
     </row>
     <row r="556" spans="1:13">
       <c r="A556" s="3" t="s">
-        <v>1306</v>
+        <v>1273</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1305</v>
+        <v>1272</v>
       </c>
       <c r="C556" s="3" t="s">
         <v>505</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1308</v>
+        <v>1275</v>
       </c>
       <c r="E556" s="3" t="s">
-        <v>1307</v>
+        <v>1274</v>
       </c>
       <c r="F556" s="3" t="s">
         <v>505</v>
@@ -21626,10 +22381,10 @@
     </row>
     <row r="557" spans="1:13">
       <c r="D557" s="3" t="s">
-        <v>1310</v>
+        <v>1277</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>1309</v>
+        <v>1276</v>
       </c>
       <c r="F557" s="3" t="s">
         <v>192</v>
@@ -21641,10 +22396,10 @@
         <v>6</v>
       </c>
       <c r="K557" s="3" t="s">
-        <v>1310</v>
+        <v>1277</v>
       </c>
       <c r="L557" s="3" t="s">
-        <v>1311</v>
+        <v>1278</v>
       </c>
       <c r="M557" s="3" t="s">
         <v>192</v>
@@ -21655,18 +22410,18 @@
         <v>183</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1312</v>
+        <v>1279</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1313</v>
+        <v>1280</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>1314</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="559" spans="1:13">
       <c r="A559" s="3" t="s">
-        <v>1319</v>
+        <v>1286</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>479</v>
@@ -21675,10 +22430,10 @@
         <v>214</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1321</v>
+        <v>1288</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>1318</v>
+        <v>1285</v>
       </c>
       <c r="F559" s="3" t="s">
         <v>214</v>
@@ -21692,140 +22447,146 @@
     </row>
     <row r="560" spans="1:13">
       <c r="B560" s="3" t="s">
-        <v>1322</v>
+        <v>1289</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A471:C471 B472:B1048576 B2:B470">
-    <cfRule type="duplicateValues" dxfId="78" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="76" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B392:B395">
-    <cfRule type="duplicateValues" dxfId="71" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="70" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108:D110 D125 D123 E2:E1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="66" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="duplicateValues" dxfId="61" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="duplicateValues" dxfId="60" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:I129">
-    <cfRule type="duplicateValues" dxfId="56" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:I131">
-    <cfRule type="duplicateValues" dxfId="52" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:I166 I168:I283 I1:I127 I285:I1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I167">
-    <cfRule type="duplicateValues" dxfId="48" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I284">
+    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="44" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:J13">
-    <cfRule type="duplicateValues" dxfId="43" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L257">
-    <cfRule type="duplicateValues" dxfId="41" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L359">
-    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L361">
-    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L362">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L368">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L392">
-    <cfRule type="duplicateValues" dxfId="21" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L393">
-    <cfRule type="duplicateValues" dxfId="17" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L394">
-    <cfRule type="duplicateValues" dxfId="13" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L395">
-    <cfRule type="duplicateValues" dxfId="9" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L405">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I284">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\0612\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B563EEE9-CB63-4827-B317-240B6C7909C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF1BAAA-240C-40B7-9DAC-5E8780EC1F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="692">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2128,6 +2128,12 @@
   </si>
   <si>
     <t>嘉豪</t>
+  </si>
+  <si>
+    <t>SC1645B1-AI-00HK-4601</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-CJ-90NR-6571</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2303,1237 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="183">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3178,7 +4414,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4333,6 +5569,15 @@
       <c r="I37" t="s">
         <v>186</v>
       </c>
+      <c r="K37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" t="s">
+        <v>184</v>
+      </c>
+      <c r="M37" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
@@ -5003,7 +6248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5">
+    <row r="65" spans="1:16" ht="16.5">
       <c r="D65" t="s">
         <v>257</v>
       </c>
@@ -5023,7 +6268,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5">
+    <row r="66" spans="1:16" ht="16.5">
       <c r="D66" t="s">
         <v>257</v>
       </c>
@@ -5043,7 +6288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5">
+    <row r="67" spans="1:16" ht="16.5">
       <c r="A67" t="s">
         <v>269</v>
       </c>
@@ -5070,7 +6315,7 @@
       </c>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:13" ht="16.5">
+    <row r="68" spans="1:16" ht="16.5">
       <c r="A68" t="s">
         <v>274</v>
       </c>
@@ -5099,7 +6344,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5">
+    <row r="69" spans="1:16" ht="16.5">
       <c r="A69" t="s">
         <v>274</v>
       </c>
@@ -5128,7 +6373,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5">
+    <row r="70" spans="1:16" ht="16.5">
       <c r="A70" t="s">
         <v>274</v>
       </c>
@@ -5157,7 +6402,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5">
+    <row r="71" spans="1:16" ht="16.5">
       <c r="A71" t="s">
         <v>274</v>
       </c>
@@ -5186,7 +6431,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5">
+    <row r="72" spans="1:16" ht="16.5">
       <c r="A72" t="s">
         <v>274</v>
       </c>
@@ -5215,7 +6460,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5">
+    <row r="73" spans="1:16" ht="16.5">
       <c r="A73" t="s">
         <v>274</v>
       </c>
@@ -5244,7 +6489,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>291</v>
       </c>
@@ -5270,7 +6515,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -5296,7 +6541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:16">
       <c r="D76" t="s">
         <v>302</v>
       </c>
@@ -5321,8 +6566,17 @@
       <c r="M76" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="s">
+        <v>302</v>
+      </c>
+      <c r="O76" t="s">
+        <v>303</v>
+      </c>
+      <c r="P76" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>302</v>
       </c>
@@ -5357,7 +6611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -5383,7 +6637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>302</v>
       </c>
@@ -5412,7 +6666,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>316</v>
       </c>
@@ -7967,113 +9221,117 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V174" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="59" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="54" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:C1048576 C1:C73 B74:C75 E74:F75 I74:K75">
-    <cfRule type="duplicateValues" dxfId="53" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="49" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="48" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F151 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="42" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F92 F94:F109 F111:F151 F1 F4:F73 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="39" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F92 F94:F109 F111:F151 F1:F73 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:F109 F1:F92 F111:F151 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="duplicateValues" dxfId="34" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="29" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I29">
-    <cfRule type="duplicateValues" dxfId="27" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="duplicateValues" dxfId="24" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I73">
-    <cfRule type="duplicateValues" dxfId="21" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:I151">
-    <cfRule type="duplicateValues" dxfId="18" priority="312"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I153:I163 I76:I145 I1:I73 I166:I1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164:I165">
-    <cfRule type="duplicateValues" dxfId="14" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="11" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="duplicateValues" dxfId="10" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="7" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="duplicateValues" dxfId="4" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="duplicateValues" dxfId="2" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\0612\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF1BAAA-240C-40B7-9DAC-5E8780EC1F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44523018-850C-4936-9FDD-8B69768C243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="697">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2134,6 +2134,21 @@
   </si>
   <si>
     <t>SC2402SO-N-CJ-90NR-6571</t>
+  </si>
+  <si>
+    <t>SC1645S1-BK</t>
+  </si>
+  <si>
+    <t>SC1645S1-AI-00AK-4601H</t>
+  </si>
+  <si>
+    <t>NF.SC4688SA-Q-DC-4688</t>
+  </si>
+  <si>
+    <t>SC4688SA-Q-DC-40CK-4688</t>
+  </si>
+  <si>
+    <t>SC1134UA-CI-00AK-43F</t>
   </si>
 </sst>
 </file>
@@ -2303,1077 +2318,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="183">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4410,11 +3355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4612,7 +3557,7 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>682</v>
@@ -4630,7 +3575,7 @@
         <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -5342,49 +4287,43 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>696</v>
       </c>
       <c r="G30" t="s">
         <v>681</v>
       </c>
       <c r="H30" t="s">
         <v>66</v>
+      </c>
+      <c r="I30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
         <v>681</v>
@@ -5398,10 +4337,10 @@
         <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
         <v>154</v>
@@ -5410,7 +4349,7 @@
         <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
         <v>681</v>
@@ -5421,115 +4360,103 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
         <v>681</v>
       </c>
       <c r="H33" t="s">
         <v>66</v>
-      </c>
-      <c r="I33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K33" t="s">
-        <v>166</v>
-      </c>
-      <c r="L33" t="s">
-        <v>167</v>
-      </c>
-      <c r="M33" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
         <v>162</v>
       </c>
       <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" t="s">
+        <v>681</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
         <v>171</v>
       </c>
-      <c r="F34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
       <c r="D35" t="s">
         <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>681</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
       </c>
-      <c r="I35" t="s">
-        <v>169</v>
-      </c>
-      <c r="K35" t="s">
-        <v>166</v>
-      </c>
-      <c r="L35" t="s">
-        <v>167</v>
-      </c>
-      <c r="M35" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" t="s">
-        <v>178</v>
-      </c>
       <c r="D36" t="s">
         <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G36" t="s">
         <v>681</v>
@@ -5538,27 +4465,45 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>169</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" t="s">
+        <v>167</v>
+      </c>
+      <c r="M36" t="s">
+        <v>168</v>
+      </c>
+      <c r="N36" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36" t="s">
+        <v>692</v>
+      </c>
+      <c r="P36" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G37" t="s">
         <v>681</v>
@@ -5567,45 +4512,45 @@
         <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
-      </c>
-      <c r="K37" t="s">
-        <v>162</v>
-      </c>
-      <c r="L37" t="s">
-        <v>184</v>
-      </c>
-      <c r="M37" t="s">
-        <v>690</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" t="s">
+        <v>681</v>
+      </c>
+      <c r="H38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" t="s">
+        <v>186</v>
+      </c>
+      <c r="K38" t="s">
         <v>162</v>
       </c>
-      <c r="B38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" t="s">
-        <v>681</v>
-      </c>
-      <c r="H38" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" t="s">
-        <v>165</v>
+      <c r="L38" t="s">
+        <v>184</v>
+      </c>
+      <c r="M38" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -5613,10 +4558,10 @@
         <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
         <v>162</v>
@@ -5625,7 +4570,7 @@
         <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
         <v>681</v>
@@ -5634,7 +4579,7 @@
         <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -5642,19 +4587,19 @@
         <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
         <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G40" t="s">
         <v>681</v>
@@ -5663,83 +4608,92 @@
         <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>193</v>
-      </c>
-      <c r="K40" t="s">
-        <v>166</v>
-      </c>
-      <c r="L40" t="s">
-        <v>167</v>
-      </c>
-      <c r="M40" t="s">
-        <v>196</v>
-      </c>
-      <c r="N40" t="s">
-        <v>166</v>
-      </c>
-      <c r="O40" t="s">
-        <v>171</v>
-      </c>
-      <c r="P40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>681</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K41" t="s">
         <v>166</v>
       </c>
       <c r="L41" t="s">
+        <v>167</v>
+      </c>
+      <c r="M41" t="s">
+        <v>196</v>
+      </c>
+      <c r="N41" t="s">
+        <v>166</v>
+      </c>
+      <c r="O41" t="s">
+        <v>171</v>
+      </c>
+      <c r="P41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
         <v>184</v>
       </c>
-      <c r="M41" t="s">
+      <c r="F42" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" t="s">
+        <v>166</v>
+      </c>
+      <c r="L42" t="s">
+        <v>184</v>
+      </c>
+      <c r="M42" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="D42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G42" t="s">
-        <v>681</v>
-      </c>
-      <c r="H42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -5747,10 +4701,10 @@
         <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G43" t="s">
         <v>681</v>
@@ -5759,79 +4713,73 @@
         <v>66</v>
       </c>
       <c r="I43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" t="s">
-        <v>209</v>
-      </c>
       <c r="D44" t="s">
         <v>201</v>
       </c>
       <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" t="s">
+        <v>681</v>
+      </c>
+      <c r="H44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
         <v>208</v>
       </c>
-      <c r="F44" t="s">
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" t="s">
         <v>210</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>65</v>
       </c>
-      <c r="H44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="D45" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G45" t="s">
-        <v>681</v>
-      </c>
       <c r="H45" t="s">
         <v>66</v>
       </c>
-      <c r="I45" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" t="s">
-        <v>216</v>
-      </c>
       <c r="D46" t="s">
         <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G46" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H46" t="s">
-        <v>689</v>
+        <v>66</v>
+      </c>
+      <c r="I46" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -5839,45 +4787,51 @@
         <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
         <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G47" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H47" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
       <c r="D48" t="s">
         <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G48" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" t="s">
-        <v>214</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -5885,54 +4839,39 @@
         <v>211</v>
       </c>
       <c r="E49" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" t="s">
+        <v>681</v>
+      </c>
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" t="s">
         <v>224</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>225</v>
       </c>
-      <c r="G49" t="s">
-        <v>681</v>
-      </c>
-      <c r="H49" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="G50" t="s">
+        <v>681</v>
+      </c>
+      <c r="H50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" t="s">
-        <v>229</v>
-      </c>
-      <c r="D50" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" t="s">
-        <v>230</v>
-      </c>
-      <c r="F50" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" t="s">
-        <v>679</v>
-      </c>
-      <c r="H50" t="s">
-        <v>689</v>
-      </c>
-      <c r="K50" t="s">
-        <v>227</v>
-      </c>
-      <c r="L50" t="s">
-        <v>230</v>
-      </c>
-      <c r="M50" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -5940,25 +4879,34 @@
         <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
         <v>227</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G51" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>689</v>
+      </c>
+      <c r="K51" t="s">
+        <v>227</v>
+      </c>
+      <c r="L51" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -5969,7 +4917,7 @@
         <v>233</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D52" t="s">
         <v>227</v>
@@ -5978,45 +4926,42 @@
         <v>235</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G52" t="s">
         <v>681</v>
       </c>
       <c r="H52" t="s">
         <v>66</v>
-      </c>
-      <c r="I52" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H53" t="s">
-        <v>688</v>
+        <v>66</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -6024,10 +4969,10 @@
         <v>239</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D54" t="s">
         <v>239</v>
@@ -6036,10 +4981,10 @@
         <v>242</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H54" t="s">
         <v>688</v>
@@ -6049,6 +4994,15 @@
       </c>
     </row>
     <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" t="s">
+        <v>245</v>
+      </c>
       <c r="D55" t="s">
         <v>239</v>
       </c>
@@ -6056,7 +5010,7 @@
         <v>242</v>
       </c>
       <c r="F55" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
         <v>686</v>
@@ -6076,7 +5030,7 @@
         <v>242</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G56" t="s">
         <v>686</v>
@@ -6090,22 +5044,22 @@
     </row>
     <row r="57" spans="1:13">
       <c r="D57" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F57" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="H57" t="s">
-        <v>66</v>
+        <v>688</v>
       </c>
       <c r="I57" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -6113,39 +5067,39 @@
         <v>248</v>
       </c>
       <c r="E58" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" t="s">
+        <v>681</v>
+      </c>
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="D59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" t="s">
         <v>252</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>253</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>680</v>
-      </c>
-      <c r="H58" t="s">
-        <v>688</v>
-      </c>
-      <c r="I58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="16.5">
-      <c r="D59" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" t="s">
-        <v>258</v>
-      </c>
-      <c r="F59" t="s">
-        <v>259</v>
-      </c>
-      <c r="G59" t="s">
-        <v>682</v>
       </c>
       <c r="H59" t="s">
         <v>688</v>
       </c>
-      <c r="I59" s="7" t="s">
-        <v>268</v>
+      <c r="I59" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16.5">
@@ -6153,10 +5107,10 @@
         <v>257</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G60" t="s">
         <v>682</v>
@@ -6176,7 +5130,7 @@
         <v>260</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G61" t="s">
         <v>682</v>
@@ -6196,7 +5150,7 @@
         <v>260</v>
       </c>
       <c r="F62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G62" t="s">
         <v>682</v>
@@ -6216,7 +5170,7 @@
         <v>260</v>
       </c>
       <c r="F63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G63" t="s">
         <v>682</v>
@@ -6236,7 +5190,7 @@
         <v>260</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G64" t="s">
         <v>682</v>
@@ -6256,7 +5210,7 @@
         <v>260</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G65" t="s">
         <v>682</v>
@@ -6276,7 +5230,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G66" t="s">
         <v>682</v>
@@ -6289,50 +5243,43 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="16.5">
-      <c r="A67" t="s">
-        <v>269</v>
-      </c>
-      <c r="B67" t="s">
-        <v>270</v>
-      </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G67" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H67" t="s">
-        <v>66</v>
-      </c>
-      <c r="I67" s="7"/>
+        <v>688</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="16.5">
       <c r="A68" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F68" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G68" t="s">
         <v>681</v>
@@ -6340,9 +5287,7 @@
       <c r="H68" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:16" ht="16.5">
       <c r="A69" t="s">
@@ -6352,7 +5297,7 @@
         <v>275</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D69" t="s">
         <v>274</v>
@@ -6361,10 +5306,10 @@
         <v>276</v>
       </c>
       <c r="F69" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G69" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H69" t="s">
         <v>66</v>
@@ -6381,7 +5326,7 @@
         <v>275</v>
       </c>
       <c r="C70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
         <v>274</v>
@@ -6390,10 +5335,10 @@
         <v>276</v>
       </c>
       <c r="F70" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G70" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="H70" t="s">
         <v>66</v>
@@ -6410,16 +5355,16 @@
         <v>275</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F71" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G71" t="s">
         <v>681</v>
@@ -6439,16 +5384,16 @@
         <v>275</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D72" t="s">
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F72" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G72" t="s">
         <v>681</v>
@@ -6468,7 +5413,7 @@
         <v>275</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
         <v>274</v>
@@ -6477,7 +5422,7 @@
         <v>276</v>
       </c>
       <c r="F73" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G73" t="s">
         <v>681</v>
@@ -6489,30 +5434,33 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" ht="16.5">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F74" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="G74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H74" t="s">
-        <v>688</v>
+        <v>66</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6520,72 +5468,54 @@
         <v>291</v>
       </c>
       <c r="B75" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
         <v>291</v>
       </c>
       <c r="E75" t="s">
+        <v>298</v>
+      </c>
+      <c r="F75" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" t="s">
+        <v>682</v>
+      </c>
+      <c r="H75" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" t="s">
         <v>300</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>301</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>684</v>
       </c>
-      <c r="H75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="D76" t="s">
-        <v>302</v>
-      </c>
-      <c r="E76" t="s">
-        <v>303</v>
-      </c>
-      <c r="F76" t="s">
-        <v>304</v>
-      </c>
-      <c r="G76" t="s">
-        <v>680</v>
-      </c>
       <c r="H76" t="s">
-        <v>688</v>
-      </c>
-      <c r="K76" t="s">
-        <v>302</v>
-      </c>
-      <c r="L76" t="s">
-        <v>303</v>
-      </c>
-      <c r="M76" t="s">
-        <v>305</v>
-      </c>
-      <c r="N76" t="s">
-        <v>302</v>
-      </c>
-      <c r="O76" t="s">
-        <v>303</v>
-      </c>
-      <c r="P76" t="s">
-        <v>691</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" t="s">
-        <v>302</v>
-      </c>
-      <c r="B77" t="s">
-        <v>307</v>
-      </c>
-      <c r="C77" t="s">
-        <v>308</v>
-      </c>
       <c r="D77" t="s">
         <v>302</v>
       </c>
@@ -6593,10 +5523,10 @@
         <v>303</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G77" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H77" t="s">
         <v>688</v>
@@ -6608,7 +5538,16 @@
         <v>303</v>
       </c>
       <c r="M77" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="N77" t="s">
+        <v>302</v>
+      </c>
+      <c r="O77" t="s">
+        <v>303</v>
+      </c>
+      <c r="P77" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6616,25 +5555,34 @@
         <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D78" t="s">
         <v>302</v>
       </c>
       <c r="E78" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G78" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H78" t="s">
-        <v>66</v>
+        <v>688</v>
+      </c>
+      <c r="K78" t="s">
+        <v>302</v>
+      </c>
+      <c r="L78" t="s">
+        <v>303</v>
+      </c>
+      <c r="M78" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -6645,7 +5593,7 @@
         <v>310</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D79" t="s">
         <v>302</v>
@@ -6654,62 +5602,62 @@
         <v>312</v>
       </c>
       <c r="F79" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G79" t="s">
         <v>681</v>
       </c>
       <c r="H79" t="s">
         <v>66</v>
-      </c>
-      <c r="I79" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C80" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D80" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E80" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F80" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G80" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H80" t="s">
-        <v>689</v>
+        <v>66</v>
+      </c>
+      <c r="I80" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E81" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G81" t="s">
         <v>679</v>
@@ -6720,28 +5668,28 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C82" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D82" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F82" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G82" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H82" t="s">
-        <v>66</v>
+        <v>689</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -6749,25 +5697,25 @@
         <v>326</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C83" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D83" t="s">
         <v>326</v>
       </c>
       <c r="E83" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F83" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G83" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H83" t="s">
-        <v>689</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -6775,10 +5723,10 @@
         <v>326</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C84" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D84" t="s">
         <v>326</v>
@@ -6787,7 +5735,7 @@
         <v>335</v>
       </c>
       <c r="F84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G84" t="s">
         <v>679</v>
@@ -6801,60 +5749,51 @@
         <v>326</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D85" t="s">
         <v>326</v>
       </c>
       <c r="E85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G85" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H85" t="s">
-        <v>66</v>
+        <v>689</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="C86" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="D86" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E86" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F86" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G86" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H86" t="s">
-        <v>689</v>
-      </c>
-      <c r="K86" t="s">
-        <v>340</v>
-      </c>
-      <c r="L86" t="s">
-        <v>343</v>
-      </c>
-      <c r="M86" t="s">
-        <v>345</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -6862,28 +5801,34 @@
         <v>340</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
         <v>340</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F87" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G87" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H87" t="s">
-        <v>66</v>
-      </c>
-      <c r="I87" t="s">
-        <v>382</v>
+        <v>689</v>
+      </c>
+      <c r="K87" t="s">
+        <v>340</v>
+      </c>
+      <c r="L87" t="s">
+        <v>343</v>
+      </c>
+      <c r="M87" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -6891,34 +5836,28 @@
         <v>340</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D88" t="s">
         <v>340</v>
       </c>
       <c r="E88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F88" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G88" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H88" t="s">
-        <v>689</v>
-      </c>
-      <c r="K88" t="s">
-        <v>340</v>
-      </c>
-      <c r="L88" t="s">
-        <v>352</v>
-      </c>
-      <c r="M88" t="s">
-        <v>354</v>
+        <v>66</v>
+      </c>
+      <c r="I88" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -6926,28 +5865,34 @@
         <v>340</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D89" t="s">
         <v>340</v>
       </c>
       <c r="E89" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F89" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G89" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H89" t="s">
-        <v>66</v>
-      </c>
-      <c r="I89" t="s">
-        <v>382</v>
+        <v>689</v>
+      </c>
+      <c r="K89" t="s">
+        <v>340</v>
+      </c>
+      <c r="L89" t="s">
+        <v>352</v>
+      </c>
+      <c r="M89" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -6955,25 +5900,28 @@
         <v>340</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C90" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
         <v>340</v>
       </c>
       <c r="E90" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="G90" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H90" t="s">
-        <v>689</v>
+        <v>66</v>
+      </c>
+      <c r="I90" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -6981,28 +5929,25 @@
         <v>340</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D91" t="s">
         <v>340</v>
       </c>
       <c r="E91" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F91" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="G91" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H91" t="s">
-        <v>66</v>
-      </c>
-      <c r="I91" t="s">
-        <v>382</v>
+        <v>689</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -7010,19 +5955,19 @@
         <v>340</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D92" t="s">
         <v>340</v>
       </c>
       <c r="E92" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F92" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G92" t="s">
         <v>681</v>
@@ -7039,25 +5984,28 @@
         <v>340</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D93" t="s">
         <v>340</v>
       </c>
       <c r="E93" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F93" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G93" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H93" t="s">
-        <v>689</v>
+        <v>66</v>
+      </c>
+      <c r="I93" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -7065,28 +6013,25 @@
         <v>340</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D94" t="s">
         <v>340</v>
       </c>
       <c r="E94" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F94" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G94" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H94" t="s">
-        <v>66</v>
-      </c>
-      <c r="I94" t="s">
-        <v>382</v>
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -7094,60 +6039,54 @@
         <v>340</v>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D95" t="s">
         <v>340</v>
       </c>
       <c r="E95" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F95" t="s">
+        <v>378</v>
+      </c>
+      <c r="G95" t="s">
+        <v>681</v>
+      </c>
+      <c r="H95" t="s">
+        <v>66</v>
+      </c>
+      <c r="I95" t="s">
         <v>382</v>
-      </c>
-      <c r="G95" t="s">
-        <v>681</v>
-      </c>
-      <c r="H95" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="B96" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C96" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D96" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="E96" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F96" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G96" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H96" t="s">
-        <v>689</v>
-      </c>
-      <c r="K96" t="s">
-        <v>383</v>
-      </c>
-      <c r="L96" t="s">
-        <v>386</v>
-      </c>
-      <c r="M96" t="s">
-        <v>388</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -7155,28 +6094,46 @@
         <v>383</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C97" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D97" t="s">
         <v>383</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F97" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G97" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H97" t="s">
-        <v>66</v>
+        <v>689</v>
+      </c>
+      <c r="K97" t="s">
+        <v>383</v>
+      </c>
+      <c r="L97" t="s">
+        <v>386</v>
+      </c>
+      <c r="M97" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>383</v>
+      </c>
+      <c r="B98" t="s">
+        <v>389</v>
+      </c>
+      <c r="C98" t="s">
+        <v>390</v>
+      </c>
       <c r="D98" t="s">
         <v>383</v>
       </c>
@@ -7184,7 +6141,7 @@
         <v>391</v>
       </c>
       <c r="F98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G98" t="s">
         <v>681</v>
@@ -7192,40 +6149,31 @@
       <c r="H98" t="s">
         <v>66</v>
       </c>
-      <c r="K98" t="s">
-        <v>383</v>
-      </c>
-      <c r="L98" t="s">
-        <v>391</v>
-      </c>
-      <c r="M98" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" t="s">
-        <v>383</v>
-      </c>
-      <c r="B99" t="s">
-        <v>395</v>
-      </c>
-      <c r="C99" t="s">
-        <v>396</v>
-      </c>
       <c r="D99" t="s">
         <v>383</v>
       </c>
       <c r="E99" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F99" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G99" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H99" t="s">
         <v>66</v>
+      </c>
+      <c r="K99" t="s">
+        <v>383</v>
+      </c>
+      <c r="L99" t="s">
+        <v>391</v>
+      </c>
+      <c r="M99" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -7233,22 +6181,22 @@
         <v>383</v>
       </c>
       <c r="B100" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C100" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D100" t="s">
         <v>383</v>
       </c>
       <c r="E100" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F100" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G100" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="H100" t="s">
         <v>66</v>
@@ -7256,48 +6204,48 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B101" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="E101" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G101" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H101" t="s">
-        <v>689</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B102" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C102" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D102" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E102" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F102" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G102" t="s">
         <v>679</v>
@@ -7311,19 +6259,19 @@
         <v>409</v>
       </c>
       <c r="B103" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C103" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D103" t="s">
         <v>409</v>
       </c>
       <c r="E103" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F103" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G103" t="s">
         <v>679</v>
@@ -7337,19 +6285,19 @@
         <v>409</v>
       </c>
       <c r="B104" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D104" t="s">
         <v>409</v>
       </c>
       <c r="E104" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F104" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G104" t="s">
         <v>679</v>
@@ -7363,19 +6311,19 @@
         <v>409</v>
       </c>
       <c r="B105" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="C105" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D105" t="s">
         <v>409</v>
       </c>
       <c r="E105" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="F105" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="G105" t="s">
         <v>679</v>
@@ -7389,19 +6337,19 @@
         <v>409</v>
       </c>
       <c r="B106" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D106" t="s">
         <v>409</v>
       </c>
       <c r="E106" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F106" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G106" t="s">
         <v>679</v>
@@ -7412,22 +6360,22 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="C107" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D107" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="F107" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="G107" t="s">
         <v>679</v>
@@ -7438,22 +6386,22 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D108" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E108" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F108" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G108" t="s">
         <v>679</v>
@@ -7467,25 +6415,25 @@
         <v>429</v>
       </c>
       <c r="B109" t="s">
-        <v>435</v>
+        <v>72</v>
       </c>
       <c r="C109" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D109" t="s">
         <v>429</v>
       </c>
       <c r="E109" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F109" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G109" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H109" t="s">
-        <v>66</v>
+        <v>689</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -7493,45 +6441,45 @@
         <v>429</v>
       </c>
       <c r="B110" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C110" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D110" t="s">
         <v>429</v>
       </c>
       <c r="E110" t="s">
-        <v>74</v>
+        <v>437</v>
       </c>
       <c r="F110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G110" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H110" t="s">
-        <v>689</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="C111" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D111" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E111" t="s">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G111" t="s">
         <v>679</v>
@@ -7542,37 +6490,28 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D112" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>442</v>
       </c>
       <c r="F112" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G112" t="s">
         <v>679</v>
       </c>
       <c r="H112" t="s">
         <v>689</v>
-      </c>
-      <c r="K112" t="s">
-        <v>444</v>
-      </c>
-      <c r="L112" t="s">
-        <v>86</v>
-      </c>
-      <c r="M112" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7580,19 +6519,19 @@
         <v>444</v>
       </c>
       <c r="B113" t="s">
-        <v>448</v>
+        <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D113" t="s">
         <v>444</v>
       </c>
       <c r="E113" t="s">
-        <v>450</v>
+        <v>86</v>
       </c>
       <c r="F113" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G113" t="s">
         <v>679</v>
@@ -7604,39 +6543,30 @@
         <v>444</v>
       </c>
       <c r="L113" t="s">
-        <v>450</v>
+        <v>86</v>
       </c>
       <c r="M113" t="s">
-        <v>452</v>
-      </c>
-      <c r="N113" t="s">
-        <v>444</v>
-      </c>
-      <c r="O113" t="s">
-        <v>450</v>
-      </c>
-      <c r="P113" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B114" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C114" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D114" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E114" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F114" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G114" t="s">
         <v>679</v>
@@ -7644,81 +6574,99 @@
       <c r="H114" t="s">
         <v>689</v>
       </c>
+      <c r="K114" t="s">
+        <v>444</v>
+      </c>
+      <c r="L114" t="s">
+        <v>450</v>
+      </c>
+      <c r="M114" t="s">
+        <v>452</v>
+      </c>
+      <c r="N114" t="s">
+        <v>444</v>
+      </c>
+      <c r="O114" t="s">
+        <v>450</v>
+      </c>
+      <c r="P114" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B115" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C115" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D115" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E115" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F115" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G115" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H115" t="s">
-        <v>66</v>
-      </c>
-      <c r="I115" t="s">
-        <v>465</v>
-      </c>
-      <c r="K115" t="s">
-        <v>459</v>
-      </c>
-      <c r="L115" t="s">
-        <v>462</v>
-      </c>
-      <c r="M115" t="s">
-        <v>464</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
+        <v>459</v>
+      </c>
+      <c r="B116" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" t="s">
+        <v>459</v>
+      </c>
+      <c r="E116" t="s">
+        <v>462</v>
+      </c>
+      <c r="F116" t="s">
+        <v>463</v>
+      </c>
+      <c r="G116" t="s">
+        <v>681</v>
+      </c>
+      <c r="H116" t="s">
+        <v>66</v>
+      </c>
+      <c r="I116" t="s">
+        <v>465</v>
+      </c>
+      <c r="K116" t="s">
+        <v>459</v>
+      </c>
+      <c r="L116" t="s">
+        <v>462</v>
+      </c>
+      <c r="M116" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
         <v>466</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>467</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>468</v>
       </c>
-      <c r="D116" t="s">
-        <v>466</v>
-      </c>
-      <c r="E116" t="s">
-        <v>469</v>
-      </c>
-      <c r="F116" t="s">
-        <v>470</v>
-      </c>
-      <c r="G116" t="s">
-        <v>680</v>
-      </c>
-      <c r="H116" t="s">
-        <v>688</v>
-      </c>
-      <c r="K116" t="s">
-        <v>466</v>
-      </c>
-      <c r="L116" t="s">
-        <v>469</v>
-      </c>
-      <c r="M116" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
       <c r="D117" t="s">
         <v>466</v>
       </c>
@@ -7726,10 +6674,10 @@
         <v>469</v>
       </c>
       <c r="F117" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G117" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H117" t="s">
         <v>688</v>
@@ -7741,47 +6689,44 @@
         <v>469</v>
       </c>
       <c r="M117" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="D118" t="s">
+        <v>466</v>
+      </c>
+      <c r="E118" t="s">
+        <v>469</v>
+      </c>
+      <c r="F118" t="s">
+        <v>472</v>
+      </c>
+      <c r="G118" t="s">
+        <v>687</v>
+      </c>
+      <c r="H118" t="s">
+        <v>688</v>
+      </c>
+      <c r="K118" t="s">
+        <v>466</v>
+      </c>
+      <c r="L118" t="s">
+        <v>469</v>
+      </c>
+      <c r="M118" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="D119" t="s">
         <v>474</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>475</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
         <v>476</v>
-      </c>
-      <c r="G118" t="s">
-        <v>679</v>
-      </c>
-      <c r="H118" t="s">
-        <v>689</v>
-      </c>
-      <c r="I118" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" t="s">
-        <v>478</v>
-      </c>
-      <c r="B119" t="s">
-        <v>479</v>
-      </c>
-      <c r="C119" t="s">
-        <v>480</v>
-      </c>
-      <c r="D119" t="s">
-        <v>478</v>
-      </c>
-      <c r="E119" t="s">
-        <v>481</v>
-      </c>
-      <c r="F119" t="s">
-        <v>482</v>
       </c>
       <c r="G119" t="s">
         <v>679</v>
@@ -7789,69 +6734,72 @@
       <c r="H119" t="s">
         <v>689</v>
       </c>
+      <c r="I119" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B120" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C120" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D120" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E120" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F120" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G120" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H120" t="s">
-        <v>66</v>
-      </c>
-      <c r="I120" t="s">
-        <v>489</v>
-      </c>
-      <c r="K120" t="s">
-        <v>483</v>
-      </c>
-      <c r="L120" t="s">
-        <v>486</v>
-      </c>
-      <c r="M120" t="s">
-        <v>488</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B121" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C121" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D121" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E121" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F121" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G121" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H121" t="s">
-        <v>688</v>
+        <v>66</v>
+      </c>
+      <c r="I121" t="s">
+        <v>489</v>
+      </c>
+      <c r="K121" t="s">
+        <v>483</v>
+      </c>
+      <c r="L121" t="s">
+        <v>486</v>
+      </c>
+      <c r="M121" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7859,19 +6807,19 @@
         <v>490</v>
       </c>
       <c r="B122" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C122" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D122" t="s">
         <v>490</v>
       </c>
       <c r="E122" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F122" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G122" t="s">
         <v>680</v>
@@ -7879,40 +6827,40 @@
       <c r="H122" t="s">
         <v>688</v>
       </c>
-      <c r="K122" t="s">
-        <v>490</v>
-      </c>
-      <c r="L122" t="s">
-        <v>495</v>
-      </c>
-      <c r="M122" t="s">
-        <v>497</v>
-      </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B123" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C123" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E123" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F123" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G123" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H123" t="s">
-        <v>66</v>
+        <v>688</v>
+      </c>
+      <c r="K123" t="s">
+        <v>490</v>
+      </c>
+      <c r="L123" t="s">
+        <v>495</v>
+      </c>
+      <c r="M123" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7920,19 +6868,19 @@
         <v>504</v>
       </c>
       <c r="B124" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C124" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D124" t="s">
         <v>504</v>
       </c>
       <c r="E124" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F124" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G124" t="s">
         <v>681</v>
@@ -7946,19 +6894,19 @@
         <v>504</v>
       </c>
       <c r="B125" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C125" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D125" t="s">
         <v>504</v>
       </c>
       <c r="E125" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F125" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G125" t="s">
         <v>681</v>
@@ -7972,25 +6920,25 @@
         <v>504</v>
       </c>
       <c r="B126" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C126" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D126" t="s">
         <v>504</v>
       </c>
       <c r="E126" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F126" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G126" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H126" t="s">
-        <v>689</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7998,25 +6946,25 @@
         <v>504</v>
       </c>
       <c r="B127" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C127" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D127" t="s">
         <v>504</v>
       </c>
       <c r="E127" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F127" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G127" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H127" t="s">
-        <v>66</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8024,19 +6972,19 @@
         <v>504</v>
       </c>
       <c r="B128" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C128" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D128" t="s">
         <v>504</v>
       </c>
       <c r="E128" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F128" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G128" t="s">
         <v>681</v>
@@ -8047,42 +6995,48 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
+        <v>504</v>
+      </c>
+      <c r="B129" t="s">
+        <v>525</v>
+      </c>
+      <c r="C129" t="s">
+        <v>526</v>
+      </c>
+      <c r="D129" t="s">
+        <v>504</v>
+      </c>
+      <c r="E129" t="s">
+        <v>523</v>
+      </c>
+      <c r="F129" t="s">
+        <v>524</v>
+      </c>
+      <c r="G129" t="s">
+        <v>681</v>
+      </c>
+      <c r="H129" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
         <v>529</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>530</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>531</v>
       </c>
-      <c r="D129" t="s">
-        <v>529</v>
-      </c>
-      <c r="E129" t="s">
-        <v>532</v>
-      </c>
-      <c r="F129" t="s">
-        <v>533</v>
-      </c>
-      <c r="G129" t="s">
-        <v>681</v>
-      </c>
-      <c r="H129" t="s">
-        <v>66</v>
-      </c>
-      <c r="I129" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
       <c r="D130" t="s">
         <v>529</v>
       </c>
       <c r="E130" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F130" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G130" t="s">
         <v>681</v>
@@ -8090,14 +7044,8 @@
       <c r="H130" t="s">
         <v>66</v>
       </c>
-      <c r="K130" t="s">
-        <v>529</v>
-      </c>
-      <c r="L130" t="s">
-        <v>537</v>
-      </c>
-      <c r="M130" t="s">
-        <v>538</v>
+      <c r="I130" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8105,10 +7053,10 @@
         <v>529</v>
       </c>
       <c r="E131" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F131" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G131" t="s">
         <v>681</v>
@@ -8123,56 +7071,44 @@
         <v>537</v>
       </c>
       <c r="M131" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="D132" t="s">
+        <v>529</v>
+      </c>
+      <c r="E132" t="s">
+        <v>537</v>
+      </c>
+      <c r="F132" t="s">
+        <v>539</v>
+      </c>
+      <c r="G132" t="s">
+        <v>681</v>
+      </c>
+      <c r="H132" t="s">
+        <v>66</v>
+      </c>
+      <c r="K132" t="s">
+        <v>529</v>
+      </c>
+      <c r="L132" t="s">
+        <v>537</v>
+      </c>
+      <c r="M132" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
-      <c r="A132" t="s">
-        <v>541</v>
-      </c>
-      <c r="B132" t="s">
-        <v>542</v>
-      </c>
-      <c r="C132" t="s">
-        <v>543</v>
-      </c>
-      <c r="D132" t="s">
-        <v>541</v>
-      </c>
-      <c r="E132" t="s">
-        <v>544</v>
-      </c>
-      <c r="F132" t="s">
-        <v>545</v>
-      </c>
-      <c r="G132" t="s">
-        <v>681</v>
-      </c>
-      <c r="H132" t="s">
-        <v>66</v>
-      </c>
-      <c r="I132" t="s">
-        <v>546</v>
-      </c>
-    </row>
     <row r="133" spans="1:14">
-      <c r="A133" t="s">
-        <v>547</v>
-      </c>
-      <c r="B133" t="s">
-        <v>552</v>
-      </c>
-      <c r="C133" t="s">
-        <v>553</v>
-      </c>
       <c r="D133" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E133" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="F133" t="s">
-        <v>551</v>
+        <v>695</v>
       </c>
       <c r="G133" t="s">
         <v>681</v>
@@ -8180,34 +7116,28 @@
       <c r="H133" t="s">
         <v>66</v>
       </c>
-      <c r="K133" t="s">
-        <v>547</v>
-      </c>
-      <c r="L133" t="s">
-        <v>552</v>
-      </c>
-      <c r="M133" t="s">
-        <v>561</v>
+      <c r="I133" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B134" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="C134" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="D134" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E134" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F134" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G134" t="s">
         <v>681</v>
@@ -8216,7 +7146,7 @@
         <v>66</v>
       </c>
       <c r="I134" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8224,25 +7154,34 @@
         <v>547</v>
       </c>
       <c r="B135" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D135" t="s">
         <v>547</v>
       </c>
       <c r="E135" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F135" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G135" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H135" t="s">
-        <v>689</v>
+        <v>66</v>
+      </c>
+      <c r="K135" t="s">
+        <v>547</v>
+      </c>
+      <c r="L135" t="s">
+        <v>552</v>
+      </c>
+      <c r="M135" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8250,25 +7189,28 @@
         <v>547</v>
       </c>
       <c r="B136" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C136" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D136" t="s">
         <v>547</v>
       </c>
       <c r="E136" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F136" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G136" t="s">
         <v>681</v>
       </c>
       <c r="H136" t="s">
         <v>66</v>
+      </c>
+      <c r="I136" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8276,28 +7218,25 @@
         <v>547</v>
       </c>
       <c r="B137" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C137" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D137" t="s">
         <v>547</v>
       </c>
       <c r="E137" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="F137" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G137" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
-      </c>
-      <c r="I137" t="s">
-        <v>564</v>
+        <v>689</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8305,28 +7244,25 @@
         <v>547</v>
       </c>
       <c r="B138" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C138" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D138" t="s">
         <v>547</v>
       </c>
       <c r="E138" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F138" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="G138" t="s">
         <v>681</v>
       </c>
       <c r="H138" t="s">
         <v>66</v>
-      </c>
-      <c r="I138" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8334,19 +7270,19 @@
         <v>547</v>
       </c>
       <c r="B139" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C139" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D139" t="s">
         <v>547</v>
       </c>
       <c r="E139" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F139" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G139" t="s">
         <v>681</v>
@@ -8355,18 +7291,27 @@
         <v>66</v>
       </c>
       <c r="I139" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:14">
+      <c r="A140" t="s">
+        <v>547</v>
+      </c>
+      <c r="B140" t="s">
+        <v>569</v>
+      </c>
+      <c r="C140" t="s">
+        <v>570</v>
+      </c>
       <c r="D140" t="s">
         <v>547</v>
       </c>
       <c r="E140" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F140" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G140" t="s">
         <v>681</v>
@@ -8375,18 +7320,27 @@
         <v>66</v>
       </c>
       <c r="I140" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>547</v>
+      </c>
+      <c r="B141" t="s">
+        <v>574</v>
+      </c>
+      <c r="C141" t="s">
+        <v>575</v>
+      </c>
       <c r="D141" t="s">
         <v>547</v>
       </c>
       <c r="E141" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F141" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G141" t="s">
         <v>681</v>
@@ -8395,19 +7349,10 @@
         <v>66</v>
       </c>
       <c r="I141" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" t="s">
-        <v>547</v>
-      </c>
-      <c r="B142" t="s">
-        <v>585</v>
-      </c>
-      <c r="C142" t="s">
-        <v>586</v>
-      </c>
       <c r="D142" t="s">
         <v>547</v>
       </c>
@@ -8415,7 +7360,7 @@
         <v>579</v>
       </c>
       <c r="F142" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G142" t="s">
         <v>681</v>
@@ -8424,88 +7369,85 @@
         <v>66</v>
       </c>
       <c r="I142" t="s">
-        <v>584</v>
-      </c>
-      <c r="L142" t="s">
-        <v>547</v>
-      </c>
-      <c r="M142" t="s">
-        <v>585</v>
-      </c>
-      <c r="N142" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" t="s">
-        <v>547</v>
-      </c>
-      <c r="B143" t="s">
-        <v>589</v>
-      </c>
-      <c r="C143" t="s">
-        <v>590</v>
-      </c>
       <c r="D143" t="s">
         <v>547</v>
       </c>
       <c r="E143" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="F143" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="G143" t="s">
         <v>681</v>
       </c>
       <c r="H143" t="s">
         <v>66</v>
+      </c>
+      <c r="I143" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="B144" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C144" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D144" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="E144" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F144" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G144" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H144" t="s">
         <v>66</v>
+      </c>
+      <c r="I144" t="s">
+        <v>584</v>
+      </c>
+      <c r="L144" t="s">
+        <v>547</v>
+      </c>
+      <c r="M144" t="s">
+        <v>585</v>
+      </c>
+      <c r="N144" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="B145" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C145" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D145" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="E145" t="s">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="F145" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G145" t="s">
         <v>681</v>
@@ -8514,15 +7456,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>592</v>
       </c>
       <c r="B146" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C146" t="s">
-        <v>601</v>
+        <v>594</v>
+      </c>
+      <c r="D146" t="s">
+        <v>592</v>
+      </c>
+      <c r="E146" t="s">
+        <v>595</v>
+      </c>
+      <c r="F146" t="s">
+        <v>596</v>
       </c>
       <c r="G146" t="s">
         <v>685</v>
@@ -8530,28 +7481,31 @@
       <c r="H146" t="s">
         <v>66</v>
       </c>
-      <c r="I146" s="10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="16.5">
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>592</v>
       </c>
       <c r="B147" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C147" t="s">
-        <v>602</v>
+        <v>598</v>
+      </c>
+      <c r="D147" t="s">
+        <v>592</v>
+      </c>
+      <c r="E147" t="s">
+        <v>599</v>
+      </c>
+      <c r="F147" t="s">
+        <v>600</v>
       </c>
       <c r="G147" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H147" t="s">
         <v>66</v>
-      </c>
-      <c r="I147" s="10" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8559,10 +7513,10 @@
         <v>592</v>
       </c>
       <c r="B148" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C148" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G148" t="s">
         <v>685</v>
@@ -8579,10 +7533,10 @@
         <v>592</v>
       </c>
       <c r="B149" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C149" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G149" t="s">
         <v>685</v>
@@ -8599,10 +7553,10 @@
         <v>592</v>
       </c>
       <c r="B150" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C150" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G150" t="s">
         <v>685</v>
@@ -8619,10 +7573,10 @@
         <v>592</v>
       </c>
       <c r="B151" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C151" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G151" t="s">
         <v>685</v>
@@ -8634,82 +7588,70 @@
         <v>609</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" t="s">
         <v>592</v>
       </c>
       <c r="B152" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C152" t="s">
-        <v>607</v>
-      </c>
-      <c r="D152" t="s">
+        <v>605</v>
+      </c>
+      <c r="G152" t="s">
+        <v>685</v>
+      </c>
+      <c r="H152" t="s">
+        <v>66</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.5">
+      <c r="A153" t="s">
         <v>592</v>
       </c>
-      <c r="E152" t="s">
-        <v>599</v>
-      </c>
-      <c r="F152" t="s">
-        <v>608</v>
-      </c>
-      <c r="G152" t="s">
-        <v>681</v>
-      </c>
-      <c r="H152" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" t="s">
-        <v>610</v>
-      </c>
       <c r="B153" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C153" t="s">
-        <v>612</v>
-      </c>
-      <c r="D153" t="s">
-        <v>610</v>
-      </c>
-      <c r="E153" t="s">
-        <v>617</v>
-      </c>
-      <c r="F153" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G153" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H153" t="s">
         <v>66</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B154" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C154" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D154" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="E154" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="F154" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G154" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H154" t="s">
-        <v>689</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8717,19 +7659,19 @@
         <v>610</v>
       </c>
       <c r="B155" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C155" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D155" t="s">
         <v>610</v>
       </c>
       <c r="E155" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F155" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G155" t="s">
         <v>681</v>
@@ -8739,23 +7681,29 @@
       </c>
     </row>
     <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>610</v>
+      </c>
+      <c r="B156" t="s">
+        <v>613</v>
+      </c>
+      <c r="C156" t="s">
+        <v>614</v>
+      </c>
       <c r="D156" t="s">
         <v>610</v>
       </c>
       <c r="E156" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F156" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G156" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H156" t="s">
-        <v>66</v>
-      </c>
-      <c r="I156" t="s">
-        <v>624</v>
+        <v>689</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -8763,19 +7711,19 @@
         <v>610</v>
       </c>
       <c r="B157" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C157" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D157" t="s">
         <v>610</v>
       </c>
       <c r="E157" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F157" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G157" t="s">
         <v>681</v>
@@ -8783,106 +7731,100 @@
       <c r="H157" t="s">
         <v>66</v>
       </c>
-      <c r="I157" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" t="s">
-        <v>630</v>
-      </c>
-      <c r="B158" t="s">
-        <v>631</v>
-      </c>
-      <c r="C158" t="s">
-        <v>632</v>
-      </c>
       <c r="D158" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E158" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F158" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G158" t="s">
         <v>681</v>
       </c>
       <c r="H158" t="s">
         <v>66</v>
+      </c>
+      <c r="I158" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B159" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C159" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="D159" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E159" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F159" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G159" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H159" t="s">
-        <v>688</v>
+        <v>66</v>
+      </c>
+      <c r="I159" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B160" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C160" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D160" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E160" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F160" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="G160" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H160" t="s">
-        <v>688</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>635</v>
       </c>
       <c r="C161" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D161" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>637</v>
       </c>
       <c r="F161" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G161" t="s">
         <v>682</v>
@@ -8890,74 +7832,86 @@
       <c r="H161" t="s">
         <v>688</v>
       </c>
-      <c r="K161" t="s">
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" t="s">
+        <v>639</v>
+      </c>
+      <c r="B162" t="s">
+        <v>640</v>
+      </c>
+      <c r="C162" t="s">
+        <v>641</v>
+      </c>
+      <c r="D162" t="s">
+        <v>639</v>
+      </c>
+      <c r="E162" t="s">
+        <v>642</v>
+      </c>
+      <c r="F162" t="s">
+        <v>643</v>
+      </c>
+      <c r="G162" t="s">
+        <v>682</v>
+      </c>
+      <c r="H162" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" t="s">
         <v>644</v>
       </c>
-      <c r="L161" t="s">
+      <c r="B163" t="s">
+        <v>307</v>
+      </c>
+      <c r="C163" t="s">
+        <v>645</v>
+      </c>
+      <c r="D163" t="s">
+        <v>644</v>
+      </c>
+      <c r="E163" t="s">
         <v>303</v>
       </c>
-      <c r="M161" t="s">
+      <c r="F163" t="s">
+        <v>646</v>
+      </c>
+      <c r="G163" t="s">
+        <v>682</v>
+      </c>
+      <c r="H163" t="s">
+        <v>688</v>
+      </c>
+      <c r="K163" t="s">
+        <v>644</v>
+      </c>
+      <c r="L163" t="s">
+        <v>303</v>
+      </c>
+      <c r="M163" t="s">
         <v>647</v>
       </c>
-      <c r="N161" t="s">
+      <c r="N163" t="s">
         <v>644</v>
       </c>
-      <c r="O161" t="s">
+      <c r="O163" t="s">
         <v>307</v>
       </c>
-      <c r="P161" t="s">
+      <c r="P163" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
-      <c r="D162" t="s">
-        <v>649</v>
-      </c>
-      <c r="E162" t="s">
-        <v>312</v>
-      </c>
-      <c r="F162" t="s">
-        <v>650</v>
-      </c>
-      <c r="G162" t="s">
-        <v>681</v>
-      </c>
-      <c r="H162" t="s">
-        <v>66</v>
-      </c>
-      <c r="I162" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
-      <c r="D163" t="s">
-        <v>649</v>
-      </c>
-      <c r="E163" t="s">
-        <v>312</v>
-      </c>
-      <c r="F163" t="s">
-        <v>652</v>
-      </c>
-      <c r="G163" t="s">
-        <v>681</v>
-      </c>
-      <c r="H163" t="s">
-        <v>66</v>
-      </c>
-      <c r="I163" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="16.5">
+    <row r="164" spans="1:16">
       <c r="D164" t="s">
         <v>649</v>
       </c>
       <c r="E164" t="s">
-        <v>653</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G164" t="s">
         <v>681</v>
@@ -8965,19 +7919,19 @@
       <c r="H164" t="s">
         <v>66</v>
       </c>
-      <c r="I164" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="16.5">
+      <c r="I164" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>649</v>
       </c>
       <c r="E165" t="s">
-        <v>653</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G165" t="s">
         <v>681</v>
@@ -8985,19 +7939,19 @@
       <c r="H165" t="s">
         <v>66</v>
       </c>
-      <c r="I165" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="I165" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="16.5">
       <c r="D166" t="s">
         <v>649</v>
       </c>
       <c r="E166" t="s">
-        <v>312</v>
+        <v>653</v>
       </c>
       <c r="F166" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G166" t="s">
         <v>681</v>
@@ -9005,19 +7959,19 @@
       <c r="H166" t="s">
         <v>66</v>
       </c>
-      <c r="I166" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="I166" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="16.5">
       <c r="D167" t="s">
         <v>649</v>
       </c>
       <c r="E167" t="s">
-        <v>312</v>
+        <v>653</v>
       </c>
       <c r="F167" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G167" t="s">
         <v>681</v>
@@ -9025,104 +7979,83 @@
       <c r="H167" t="s">
         <v>66</v>
       </c>
-      <c r="I167" t="s">
-        <v>651</v>
+      <c r="I167" s="7" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="168" spans="1:16">
-      <c r="A168" t="s">
-        <v>649</v>
-      </c>
-      <c r="B168" t="s">
-        <v>307</v>
-      </c>
-      <c r="C168" t="s">
-        <v>659</v>
-      </c>
       <c r="D168" t="s">
         <v>649</v>
       </c>
       <c r="E168" t="s">
+        <v>312</v>
+      </c>
+      <c r="F168" t="s">
+        <v>657</v>
+      </c>
+      <c r="G168" t="s">
+        <v>681</v>
+      </c>
+      <c r="H168" t="s">
+        <v>66</v>
+      </c>
+      <c r="I168" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="D169" t="s">
+        <v>649</v>
+      </c>
+      <c r="E169" t="s">
+        <v>312</v>
+      </c>
+      <c r="F169" t="s">
+        <v>658</v>
+      </c>
+      <c r="G169" t="s">
+        <v>681</v>
+      </c>
+      <c r="H169" t="s">
+        <v>66</v>
+      </c>
+      <c r="I169" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" t="s">
+        <v>649</v>
+      </c>
+      <c r="B170" t="s">
+        <v>307</v>
+      </c>
+      <c r="C170" t="s">
+        <v>659</v>
+      </c>
+      <c r="D170" t="s">
+        <v>649</v>
+      </c>
+      <c r="E170" t="s">
         <v>303</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F170" t="s">
         <v>660</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G170" t="s">
         <v>682</v>
-      </c>
-      <c r="H168" t="s">
-        <v>688</v>
-      </c>
-      <c r="K168" t="s">
-        <v>649</v>
-      </c>
-      <c r="L168" t="s">
-        <v>303</v>
-      </c>
-      <c r="M168" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169" t="s">
-        <v>500</v>
-      </c>
-      <c r="B169" t="s">
-        <v>662</v>
-      </c>
-      <c r="C169" t="s">
-        <v>663</v>
-      </c>
-      <c r="D169" t="s">
-        <v>500</v>
-      </c>
-      <c r="E169" t="s">
-        <v>501</v>
-      </c>
-      <c r="F169" t="s">
-        <v>502</v>
-      </c>
-      <c r="G169" t="s">
-        <v>681</v>
-      </c>
-      <c r="H169" t="s">
-        <v>66</v>
-      </c>
-      <c r="K169" t="s">
-        <v>500</v>
-      </c>
-      <c r="L169" t="s">
-        <v>501</v>
-      </c>
-      <c r="M169" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="D170" t="s">
-        <v>500</v>
-      </c>
-      <c r="E170" t="s">
-        <v>664</v>
-      </c>
-      <c r="F170" t="s">
-        <v>665</v>
-      </c>
-      <c r="G170" t="s">
-        <v>680</v>
       </c>
       <c r="H170" t="s">
         <v>688</v>
       </c>
       <c r="K170" t="s">
-        <v>500</v>
+        <v>649</v>
       </c>
       <c r="L170" t="s">
-        <v>664</v>
+        <v>303</v>
       </c>
       <c r="M170" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9130,77 +8063,98 @@
         <v>500</v>
       </c>
       <c r="B171" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C171" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D171" t="s">
         <v>500</v>
       </c>
       <c r="E171" t="s">
+        <v>501</v>
+      </c>
+      <c r="F171" t="s">
+        <v>502</v>
+      </c>
+      <c r="G171" t="s">
+        <v>681</v>
+      </c>
+      <c r="H171" t="s">
+        <v>66</v>
+      </c>
+      <c r="K171" t="s">
+        <v>500</v>
+      </c>
+      <c r="L171" t="s">
+        <v>501</v>
+      </c>
+      <c r="M171" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="D172" t="s">
+        <v>500</v>
+      </c>
+      <c r="E172" t="s">
+        <v>664</v>
+      </c>
+      <c r="F172" t="s">
+        <v>665</v>
+      </c>
+      <c r="G172" t="s">
+        <v>680</v>
+      </c>
+      <c r="H172" t="s">
+        <v>688</v>
+      </c>
+      <c r="K172" t="s">
+        <v>500</v>
+      </c>
+      <c r="L172" t="s">
+        <v>664</v>
+      </c>
+      <c r="M172" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" t="s">
+        <v>500</v>
+      </c>
+      <c r="B173" t="s">
+        <v>667</v>
+      </c>
+      <c r="C173" t="s">
+        <v>668</v>
+      </c>
+      <c r="D173" t="s">
+        <v>500</v>
+      </c>
+      <c r="E173" t="s">
         <v>669</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F173" t="s">
         <v>670</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G173" t="s">
         <v>680</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H173" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
-      <c r="A172" t="s">
+    <row r="174" spans="1:16">
+      <c r="A174" t="s">
         <v>672</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B174" t="s">
         <v>673</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C174" t="s">
         <v>671</v>
       </c>
-      <c r="D172" t="s">
-        <v>672</v>
-      </c>
-      <c r="E172" t="s">
-        <v>674</v>
-      </c>
-      <c r="F172" t="s">
-        <v>675</v>
-      </c>
-      <c r="G172" t="s">
-        <v>679</v>
-      </c>
-      <c r="H172" t="s">
-        <v>689</v>
-      </c>
-      <c r="I172" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
-      <c r="D173" t="s">
-        <v>672</v>
-      </c>
-      <c r="E173" t="s">
-        <v>674</v>
-      </c>
-      <c r="F173" t="s">
-        <v>677</v>
-      </c>
-      <c r="G173" t="s">
-        <v>681</v>
-      </c>
-      <c r="H173" t="s">
-        <v>66</v>
-      </c>
-      <c r="I173" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>672</v>
       </c>
@@ -9208,15 +8162,55 @@
         <v>674</v>
       </c>
       <c r="F174" t="s">
+        <v>675</v>
+      </c>
+      <c r="G174" t="s">
+        <v>679</v>
+      </c>
+      <c r="H174" t="s">
+        <v>689</v>
+      </c>
+      <c r="I174" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="D175" t="s">
+        <v>672</v>
+      </c>
+      <c r="E175" t="s">
+        <v>674</v>
+      </c>
+      <c r="F175" t="s">
+        <v>677</v>
+      </c>
+      <c r="G175" t="s">
+        <v>681</v>
+      </c>
+      <c r="H175" t="s">
+        <v>66</v>
+      </c>
+      <c r="I175" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="D176" t="s">
+        <v>672</v>
+      </c>
+      <c r="E176" t="s">
+        <v>674</v>
+      </c>
+      <c r="F176" t="s">
         <v>678</v>
       </c>
-      <c r="G174" t="s">
-        <v>681</v>
-      </c>
-      <c r="H174" t="s">
-        <v>66</v>
-      </c>
-      <c r="I174" t="s">
+      <c r="G176" t="s">
+        <v>681</v>
+      </c>
+      <c r="H176" t="s">
+        <v>66</v>
+      </c>
+      <c r="I176" t="s">
         <v>676</v>
       </c>
     </row>
@@ -9224,114 +8218,148 @@
   <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="122" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="214"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="117" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="2"/>
+  <conditionalFormatting sqref="C1:C4 C6:C1048576">
+    <cfRule type="duplicateValues" dxfId="70" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76:C1048576 C1:C73 B74:C75 E74:F75 I74:K75">
-    <cfRule type="duplicateValues" dxfId="115" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="174"/>
+  <conditionalFormatting sqref="C77:C1048576 C1:C4 B75:C76 E75:F76 I75:K76 C6:C74">
+    <cfRule type="duplicateValues" dxfId="68" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="111" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="110" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F151 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="105" priority="146"/>
+  <conditionalFormatting sqref="F1:F4 F6:F1048576">
+    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="104" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="183"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F92 F94:F109 F111:F151 F1 F4:F73 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="101" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="182"/>
+  <conditionalFormatting sqref="F154">
+    <cfRule type="duplicateValues" dxfId="54" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F92 F94:F109 F111:F151 F1:F73 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="98" priority="153"/>
+  <conditionalFormatting sqref="F155:F1048576 F1:F4 F6:F153">
+    <cfRule type="duplicateValues" dxfId="49" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F109 F1:F92 F111:F151 F153:F1048576">
-    <cfRule type="duplicateValues" dxfId="97" priority="147"/>
+  <conditionalFormatting sqref="F155:F1048576 F77:F93 F95:F110 F112:F153 F1 F4 F6:F74">
+    <cfRule type="duplicateValues" dxfId="48" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
-    <cfRule type="duplicateValues" dxfId="96" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="41"/>
+  <conditionalFormatting sqref="F155:F1048576 F77:F93 F95:F110 F112:F153 F1:F4 F6:F74">
+    <cfRule type="duplicateValues" dxfId="45" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155:F1048576 F95:F110 F1:F4 F112:F153 F6:F93">
+    <cfRule type="duplicateValues" dxfId="44" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="91" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I29">
-    <cfRule type="duplicateValues" dxfId="89" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="161"/>
+  <conditionalFormatting sqref="I27:I30">
+    <cfRule type="duplicateValues" dxfId="41" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="duplicateValues" dxfId="86" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="159"/>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="duplicateValues" dxfId="38" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:I73">
-    <cfRule type="duplicateValues" dxfId="83" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="224"/>
+  <conditionalFormatting sqref="I60:I74">
+    <cfRule type="duplicateValues" dxfId="35" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="238"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I146:I151">
-    <cfRule type="duplicateValues" dxfId="80" priority="314"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="312"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="313"/>
+  <conditionalFormatting sqref="I148:I153">
+    <cfRule type="duplicateValues" dxfId="32" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="328"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I153:I163 I76:I145 I1:I73 I166:I1048576">
-    <cfRule type="duplicateValues" dxfId="77" priority="152"/>
+  <conditionalFormatting sqref="I155:I165 I168:I1048576 I77:I147 I1:I74">
+    <cfRule type="duplicateValues" dxfId="29" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I164:I165">
-    <cfRule type="duplicateValues" dxfId="76" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="140"/>
+  <conditionalFormatting sqref="I166:I167">
+    <cfRule type="duplicateValues" dxfId="28" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="73" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="duplicateValues" dxfId="72" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="69" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="duplicateValues" dxfId="66" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="duplicateValues" dxfId="64" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44523018-850C-4936-9FDD-8B69768C243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C27BFF5-1463-4B6F-92FF-70CDDA7A71B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="708">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2149,6 +2149,41 @@
   </si>
   <si>
     <t>SC1134UA-CI-00AK-43F</t>
+  </si>
+  <si>
+    <t>HC2303C</t>
+  </si>
+  <si>
+    <t>VE2220P</t>
+  </si>
+  <si>
+    <t>CPHC2303C</t>
+  </si>
+  <si>
+    <t>HC2304C</t>
+  </si>
+  <si>
+    <t>VE2266P</t>
+  </si>
+  <si>
+    <t>CPHC2304C</t>
+  </si>
+  <si>
+    <t>HC2305C</t>
+  </si>
+  <si>
+    <t>VE8620P</t>
+  </si>
+  <si>
+    <t>CPHC2305C</t>
+  </si>
+  <si>
+    <t>长电先进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁文强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2318,7 +2353,857 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="161">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3355,11 +4240,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V176"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8214,152 +9099,190 @@
         <v>676</v>
       </c>
     </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>697</v>
+      </c>
+      <c r="B177" t="s">
+        <v>698</v>
+      </c>
+      <c r="C177" t="s">
+        <v>699</v>
+      </c>
+      <c r="G177" t="s">
+        <v>706</v>
+      </c>
+      <c r="H177" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>700</v>
+      </c>
+      <c r="B178" t="s">
+        <v>701</v>
+      </c>
+      <c r="C178" t="s">
+        <v>702</v>
+      </c>
+      <c r="G178" t="s">
+        <v>706</v>
+      </c>
+      <c r="H178" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>703</v>
+      </c>
+      <c r="B179" t="s">
+        <v>704</v>
+      </c>
+      <c r="C179" t="s">
+        <v>705</v>
+      </c>
+      <c r="G179" t="s">
+        <v>706</v>
+      </c>
+      <c r="H179" t="s">
+        <v>707</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="75" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C4 C6:C1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="153" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C1048576 C1:C4 B75:C76 E75:F76 I75:K76 C6:C74">
-    <cfRule type="duplicateValues" dxfId="68" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="64" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="63" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4 F6:F1048576">
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="57" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="duplicateValues" dxfId="54" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155:F1048576 F1:F4 F6:F153">
-    <cfRule type="duplicateValues" dxfId="49" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155:F1048576 F77:F93 F95:F110 F112:F153 F1 F4 F6:F74">
-    <cfRule type="duplicateValues" dxfId="48" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155:F1048576 F77:F93 F95:F110 F112:F153 F1:F4 F6:F74">
-    <cfRule type="duplicateValues" dxfId="45" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155:F1048576 F95:F110 F1:F4 F112:F153 F6:F93">
-    <cfRule type="duplicateValues" dxfId="44" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="43" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I30">
-    <cfRule type="duplicateValues" dxfId="41" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="duplicateValues" dxfId="38" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I74">
-    <cfRule type="duplicateValues" dxfId="35" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148:I153">
-    <cfRule type="duplicateValues" dxfId="32" priority="326"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="327"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155:I165 I168:I1048576 I77:I147 I1:I74">
-    <cfRule type="duplicateValues" dxfId="29" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I166:I167">
-    <cfRule type="duplicateValues" dxfId="28" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="25" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="duplicateValues" dxfId="24" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="duplicateValues" dxfId="21" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="96" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="duplicateValues" dxfId="18" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="duplicateValues" dxfId="16" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EFBC12-FAAB-4BF6-898A-00C97C9B4D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F232F5-EBF9-46C2-9497-D4C8CF398F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="843">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2068,9 +2068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绍兴千欣</t>
-  </si>
-  <si>
     <t>南通宁芯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2419,6 +2416,201 @@
   </si>
   <si>
     <t>SC2402UA-U18</t>
+  </si>
+  <si>
+    <t>STC11102A</t>
+  </si>
+  <si>
+    <t>SC2943SO</t>
+  </si>
+  <si>
+    <t>SC2943SO(STC11102A)-2943</t>
+  </si>
+  <si>
+    <t>SC2943SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2943SO-Q-DB-60CR-2943</t>
+  </si>
+  <si>
+    <t>SC4104SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B-T</t>
+  </si>
+  <si>
+    <t>SC4391S6-TR</t>
+  </si>
+  <si>
+    <t>SC4391S6-GB-00ZR-4391</t>
+  </si>
+  <si>
+    <t>SC4391S6-GB-00NR-4391</t>
+  </si>
+  <si>
+    <t>江苏尊阳</t>
+  </si>
+  <si>
+    <t>SOT23-6L</t>
+  </si>
+  <si>
+    <t>NA.SC4390S6-GB</t>
+  </si>
+  <si>
+    <t>STC9907D</t>
+  </si>
+  <si>
+    <t>SC4616UA-10.2NF-BK</t>
+  </si>
+  <si>
+    <t>SC4616UA-10.2NF-CD-90AK-4616</t>
+  </si>
+  <si>
+    <t>SC4616UA-10NV</t>
+  </si>
+  <si>
+    <t>SC4616UA-10NV-4616</t>
+  </si>
+  <si>
+    <t>NF.SC4616UA-4616</t>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CR-4643</t>
+  </si>
+  <si>
+    <t>STC13103B</t>
+  </si>
+  <si>
+    <t>SC4665VB</t>
+  </si>
+  <si>
+    <t>SC4665VB(STC13103B)-4665</t>
+  </si>
+  <si>
+    <t>SC4665VB-BK</t>
+  </si>
+  <si>
+    <t>SC4665VB-HB-33CK-4665</t>
+  </si>
+  <si>
+    <t>NF.SC4665VB(STC13103B)-4665</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;江苏长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;嘉豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-Q-HD-4XAR-69401</t>
+  </si>
+  <si>
+    <t>STC9910F</t>
+  </si>
+  <si>
+    <t>SC9621VB-BK</t>
+  </si>
+  <si>
+    <t>SC9621VB-CF-00CK-9621</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-Q-AI-10LR-9641P</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-Q-AI-10AR-9641P</t>
+  </si>
+  <si>
+    <t>SC9675IM-P-LRF00-9675</t>
+  </si>
+  <si>
+    <t>SC9675IM-P-LRF00</t>
+  </si>
+  <si>
+    <t>SC9675IM-LRF00-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9675IM-LRF00-Q-AB-4XAR-9675</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;上海胜磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC16100A</t>
+  </si>
+  <si>
+    <t>SL002147</t>
+  </si>
+  <si>
+    <t>SL002147-2147</t>
+  </si>
+  <si>
+    <t>SL002147DC-TR</t>
+  </si>
+  <si>
+    <t>SL002147DC-GB-00AR-2147</t>
+  </si>
+  <si>
+    <t>上海翔芯</t>
+  </si>
+  <si>
+    <t>STC16100B</t>
+  </si>
+  <si>
+    <t>SL54123APA1R</t>
+  </si>
+  <si>
+    <t>SL54123APA1R(STC16100B)(T)-54123A</t>
+  </si>
+  <si>
+    <t>SL54123ADC-TR</t>
+  </si>
+  <si>
+    <t>SL54123ADC-GB-00AR-54123A</t>
+  </si>
+  <si>
+    <t>SC60221-D-64</t>
+  </si>
+  <si>
+    <t>SC60224-D-1000</t>
+  </si>
+  <si>
+    <t>SC60224-D-1024-976-BSD-01</t>
+  </si>
+  <si>
+    <t>SC60224-D-1024-Z1</t>
+  </si>
+  <si>
+    <t>SC60224-D-16</t>
+  </si>
+  <si>
+    <t>SC60224-D-500</t>
+  </si>
+  <si>
+    <t>SC60221-D-50</t>
+  </si>
+  <si>
+    <t>SC60221-D-400</t>
+  </si>
+  <si>
+    <t>SC60224-D-200</t>
+  </si>
+  <si>
+    <t>SC60221-D-360</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2581,14 +2773,61 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="97">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3785,11 +4024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W188"/>
+  <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3842,7 +4081,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>6</v>
@@ -3913,7 +4152,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
@@ -3951,7 +4190,7 @@
         <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>20</v>
@@ -3989,7 +4228,7 @@
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4006,10 +4245,10 @@
         <v>667</v>
       </c>
       <c r="H5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -4038,10 +4277,10 @@
         <v>667</v>
       </c>
       <c r="H6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
@@ -4070,10 +4309,10 @@
         <v>664</v>
       </c>
       <c r="H7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L7" t="s">
         <v>43</v>
@@ -4111,7 +4350,7 @@
         <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L8" t="s">
         <v>43</v>
@@ -4155,10 +4394,10 @@
         <v>665</v>
       </c>
       <c r="H9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L9" t="s">
         <v>54</v>
@@ -4190,13 +4429,13 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J10" t="s">
         <v>67</v>
@@ -4213,13 +4452,13 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J11" t="s">
         <v>68</v>
@@ -4248,10 +4487,10 @@
         <v>664</v>
       </c>
       <c r="H12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L12" t="s">
         <v>46</v>
@@ -4286,10 +4525,10 @@
         <v>664</v>
       </c>
       <c r="H13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -4309,7 +4548,7 @@
         <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J14" t="s">
         <v>83</v>
@@ -4338,10 +4577,10 @@
         <v>664</v>
       </c>
       <c r="H15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -4367,10 +4606,10 @@
         <v>664</v>
       </c>
       <c r="H16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
@@ -4423,10 +4662,10 @@
         <v>664</v>
       </c>
       <c r="H17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4452,10 +4691,10 @@
         <v>665</v>
       </c>
       <c r="H18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4484,7 +4723,7 @@
         <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J19" t="s">
         <v>108</v>
@@ -4507,7 +4746,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G20" t="s">
         <v>666</v>
@@ -4516,7 +4755,7 @@
         <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4524,19 +4763,19 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
+        <v>752</v>
+      </c>
+      <c r="C21" t="s">
         <v>753</v>
-      </c>
-      <c r="C21" t="s">
-        <v>754</v>
       </c>
       <c r="D21" t="s">
         <v>115</v>
       </c>
       <c r="E21" t="s">
+        <v>754</v>
+      </c>
+      <c r="F21" t="s">
         <v>755</v>
-      </c>
-      <c r="F21" t="s">
-        <v>756</v>
       </c>
       <c r="G21" t="s">
         <v>666</v>
@@ -4545,10 +4784,10 @@
         <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4574,10 +4813,10 @@
         <v>664</v>
       </c>
       <c r="H22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4603,10 +4842,10 @@
         <v>667</v>
       </c>
       <c r="H23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4635,7 +4874,7 @@
         <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J24" t="s">
         <v>129</v>
@@ -4664,10 +4903,10 @@
         <v>664</v>
       </c>
       <c r="H25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L25" t="s">
         <v>124</v>
@@ -4702,10 +4941,10 @@
         <v>665</v>
       </c>
       <c r="H26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J26" t="s">
         <v>138</v>
@@ -4737,7 +4976,7 @@
         <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4766,7 +5005,7 @@
         <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J28" t="s">
         <v>142</v>
@@ -4798,7 +5037,7 @@
         <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J29" t="s">
         <v>142</v>
@@ -4830,7 +5069,7 @@
         <v>66</v>
       </c>
       <c r="I30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J30" t="s">
         <v>142</v>
@@ -4844,7 +5083,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G31" t="s">
         <v>666</v>
@@ -4853,7 +5092,7 @@
         <v>66</v>
       </c>
       <c r="I31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J31" t="s">
         <v>142</v>
@@ -4885,7 +5124,7 @@
         <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4914,7 +5153,7 @@
         <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4943,7 +5182,7 @@
         <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4963,7 +5202,7 @@
         <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G35" t="s">
         <v>666</v>
@@ -4972,7 +5211,7 @@
         <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J35" t="s">
         <v>171</v>
@@ -5013,7 +5252,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5033,7 +5272,7 @@
         <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J37" t="s">
         <v>168</v>
@@ -5051,10 +5290,10 @@
         <v>161</v>
       </c>
       <c r="P37" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q37" t="s">
         <v>677</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5083,7 +5322,7 @@
         <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J38" t="s">
         <v>179</v>
@@ -5106,7 +5345,7 @@
         <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G39" t="s">
         <v>666</v>
@@ -5115,7 +5354,7 @@
         <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J39" t="s">
         <v>183</v>
@@ -5127,7 +5366,7 @@
         <v>182</v>
       </c>
       <c r="N39" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5156,7 +5395,7 @@
         <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J40" t="s">
         <v>164</v>
@@ -5188,7 +5427,7 @@
         <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J41" t="s">
         <v>188</v>
@@ -5220,7 +5459,7 @@
         <v>66</v>
       </c>
       <c r="I42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J42" t="s">
         <v>190</v>
@@ -5270,7 +5509,7 @@
         <v>66</v>
       </c>
       <c r="I43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J43" t="s">
         <v>196</v>
@@ -5302,7 +5541,7 @@
         <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J44" t="s">
         <v>201</v>
@@ -5325,7 +5564,7 @@
         <v>66</v>
       </c>
       <c r="I45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J45" t="s">
         <v>204</v>
@@ -5348,7 +5587,7 @@
         <v>205</v>
       </c>
       <c r="F46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G46" t="s">
         <v>65</v>
@@ -5357,10 +5596,19 @@
         <v>66</v>
       </c>
       <c r="I46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
       <c r="D47" t="s">
         <v>207</v>
       </c>
@@ -5368,7 +5616,7 @@
         <v>208</v>
       </c>
       <c r="F47" t="s">
-        <v>720</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s">
         <v>666</v>
@@ -5377,39 +5625,30 @@
         <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>696</v>
-      </c>
-      <c r="J47" t="s">
-        <v>209</v>
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" t="s">
-        <v>211</v>
-      </c>
       <c r="D48" t="s">
         <v>207</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>719</v>
       </c>
       <c r="G48" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H48" t="s">
-        <v>674</v>
+        <v>66</v>
       </c>
       <c r="I48" t="s">
-        <v>705</v>
+        <v>695</v>
+      </c>
+      <c r="J48" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -5417,62 +5656,77 @@
         <v>207</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
         <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>721</v>
+        <v>212</v>
       </c>
       <c r="F49" t="s">
-        <v>722</v>
+        <v>213</v>
       </c>
       <c r="G49" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H49" t="s">
         <v>673</v>
       </c>
       <c r="I49" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
       <c r="D50" t="s">
         <v>207</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>720</v>
       </c>
       <c r="F50" t="s">
-        <v>216</v>
+        <v>721</v>
       </c>
       <c r="G50" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I50" t="s">
-        <v>698</v>
-      </c>
-      <c r="J50" t="s">
-        <v>209</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" t="s">
+        <v>218</v>
+      </c>
       <c r="D51" t="s">
         <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G51" t="s">
         <v>666</v>
@@ -5481,10 +5735,10 @@
         <v>66</v>
       </c>
       <c r="I51" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J51" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5510,10 +5764,10 @@
         <v>664</v>
       </c>
       <c r="H52" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L52" t="s">
         <v>220</v>
@@ -5551,7 +5805,7 @@
         <v>66</v>
       </c>
       <c r="I53" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5571,7 +5825,7 @@
         <v>228</v>
       </c>
       <c r="F54" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G54" t="s">
         <v>666</v>
@@ -5580,7 +5834,7 @@
         <v>66</v>
       </c>
       <c r="I54" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J54" t="s">
         <v>229</v>
@@ -5609,10 +5863,10 @@
         <v>667</v>
       </c>
       <c r="H55" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J55" t="s">
         <v>239</v>
@@ -5638,13 +5892,13 @@
         <v>238</v>
       </c>
       <c r="G56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H56" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I56" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J56" t="s">
         <v>239</v>
@@ -5661,13 +5915,13 @@
         <v>247</v>
       </c>
       <c r="G57" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H57" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J57" t="s">
         <v>239</v>
@@ -5681,16 +5935,16 @@
         <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G58" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I58" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J58" t="s">
         <v>239</v>
@@ -5713,7 +5967,7 @@
         <v>66</v>
       </c>
       <c r="I59" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J59" t="s">
         <v>243</v>
@@ -5733,10 +5987,10 @@
         <v>665</v>
       </c>
       <c r="H60" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J60" t="s">
         <v>246</v>
@@ -5756,10 +6010,10 @@
         <v>667</v>
       </c>
       <c r="H61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I61" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>259</v>
@@ -5779,10 +6033,10 @@
         <v>667</v>
       </c>
       <c r="H62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I62" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>259</v>
@@ -5802,10 +6056,10 @@
         <v>667</v>
       </c>
       <c r="H63" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>259</v>
@@ -5825,10 +6079,10 @@
         <v>667</v>
       </c>
       <c r="H64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I64" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>259</v>
@@ -5848,10 +6102,10 @@
         <v>667</v>
       </c>
       <c r="H65" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>259</v>
@@ -5871,10 +6125,10 @@
         <v>667</v>
       </c>
       <c r="H66" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I66" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>259</v>
@@ -5894,10 +6148,10 @@
         <v>667</v>
       </c>
       <c r="H67" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>259</v>
@@ -5917,10 +6171,10 @@
         <v>667</v>
       </c>
       <c r="H68" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I68" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>259</v>
@@ -5952,7 +6206,7 @@
         <v>66</v>
       </c>
       <c r="I69" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J69" s="7"/>
     </row>
@@ -5982,7 +6236,7 @@
         <v>66</v>
       </c>
       <c r="I70" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>268</v>
@@ -6014,7 +6268,7 @@
         <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>268</v>
@@ -6046,7 +6300,7 @@
         <v>66</v>
       </c>
       <c r="I72" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>268</v>
@@ -6078,7 +6332,7 @@
         <v>66</v>
       </c>
       <c r="I73" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>268</v>
@@ -6110,7 +6364,7 @@
         <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>268</v>
@@ -6142,7 +6396,7 @@
         <v>66</v>
       </c>
       <c r="I75" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>268</v>
@@ -6153,10 +6407,10 @@
         <v>265</v>
       </c>
       <c r="E76" t="s">
+        <v>734</v>
+      </c>
+      <c r="F76" t="s">
         <v>735</v>
-      </c>
-      <c r="F76" t="s">
-        <v>736</v>
       </c>
       <c r="G76" t="s">
         <v>666</v>
@@ -6165,7 +6419,7 @@
         <v>66</v>
       </c>
       <c r="I76" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>268</v>
@@ -6194,10 +6448,10 @@
         <v>667</v>
       </c>
       <c r="H77" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I77" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -6217,7 +6471,7 @@
         <v>291</v>
       </c>
       <c r="F78" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G78" t="s">
         <v>669</v>
@@ -6226,7 +6480,7 @@
         <v>66</v>
       </c>
       <c r="I78" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -6237,16 +6491,16 @@
         <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>675</v>
       </c>
       <c r="G79" t="s">
         <v>665</v>
       </c>
       <c r="H79" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L79" t="s">
         <v>292</v>
@@ -6255,7 +6509,7 @@
         <v>293</v>
       </c>
       <c r="N79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O79" t="s">
         <v>292</v>
@@ -6264,7 +6518,7 @@
         <v>293</v>
       </c>
       <c r="Q79" t="s">
-        <v>676</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -6290,10 +6544,10 @@
         <v>667</v>
       </c>
       <c r="H80" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I80" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L80" t="s">
         <v>292</v>
@@ -6331,7 +6585,7 @@
         <v>66</v>
       </c>
       <c r="I81" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -6351,7 +6605,7 @@
         <v>302</v>
       </c>
       <c r="F82" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G82" t="s">
         <v>666</v>
@@ -6360,7 +6614,7 @@
         <v>66</v>
       </c>
       <c r="I82" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J82" t="s">
         <v>303</v>
@@ -6372,7 +6626,7 @@
         <v>302</v>
       </c>
       <c r="N82" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -6398,10 +6652,10 @@
         <v>664</v>
       </c>
       <c r="H83" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I83" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -6427,10 +6681,10 @@
         <v>664</v>
       </c>
       <c r="H84" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I84" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -6450,7 +6704,7 @@
         <v>318</v>
       </c>
       <c r="F85" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G85" t="s">
         <v>666</v>
@@ -6459,36 +6713,36 @@
         <v>66</v>
       </c>
       <c r="I85" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
+        <v>738</v>
+      </c>
+      <c r="B86" t="s">
         <v>739</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>740</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>741</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>742</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>743</v>
-      </c>
-      <c r="F86" t="s">
-        <v>744</v>
       </c>
       <c r="G86" t="s">
         <v>664</v>
       </c>
       <c r="H86" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I86" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -6514,10 +6768,10 @@
         <v>664</v>
       </c>
       <c r="H87" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I87" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -6543,10 +6797,10 @@
         <v>664</v>
       </c>
       <c r="H88" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -6575,7 +6829,7 @@
         <v>66</v>
       </c>
       <c r="I89" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -6601,10 +6855,10 @@
         <v>664</v>
       </c>
       <c r="H90" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I90" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L90" t="s">
         <v>328</v>
@@ -6642,7 +6896,7 @@
         <v>66</v>
       </c>
       <c r="I91" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J91" t="s">
         <v>370</v>
@@ -6671,10 +6925,10 @@
         <v>664</v>
       </c>
       <c r="H92" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I92" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L92" t="s">
         <v>328</v>
@@ -6712,7 +6966,7 @@
         <v>66</v>
       </c>
       <c r="I93" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J93" t="s">
         <v>370</v>
@@ -6741,10 +6995,10 @@
         <v>668</v>
       </c>
       <c r="H94" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6773,7 +7027,7 @@
         <v>66</v>
       </c>
       <c r="I95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J95" t="s">
         <v>370</v>
@@ -6805,7 +7059,7 @@
         <v>66</v>
       </c>
       <c r="I96" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J96" t="s">
         <v>370</v>
@@ -6834,10 +7088,10 @@
         <v>668</v>
       </c>
       <c r="H97" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I97" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6866,7 +7120,7 @@
         <v>66</v>
       </c>
       <c r="I98" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J98" t="s">
         <v>370</v>
@@ -6898,7 +7152,7 @@
         <v>66</v>
       </c>
       <c r="I99" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6924,10 +7178,10 @@
         <v>664</v>
       </c>
       <c r="H100" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I100" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L100" t="s">
         <v>371</v>
@@ -6965,7 +7219,7 @@
         <v>66</v>
       </c>
       <c r="I101" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6985,7 +7239,7 @@
         <v>66</v>
       </c>
       <c r="I102" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L102" t="s">
         <v>371</v>
@@ -7023,7 +7277,7 @@
         <v>66</v>
       </c>
       <c r="I103" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -7052,7 +7306,7 @@
         <v>66</v>
       </c>
       <c r="I104" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -7078,10 +7332,10 @@
         <v>664</v>
       </c>
       <c r="H105" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I105" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -7107,10 +7361,10 @@
         <v>664</v>
       </c>
       <c r="H106" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I106" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -7127,22 +7381,22 @@
         <v>397</v>
       </c>
       <c r="E107" t="s">
+        <v>749</v>
+      </c>
+      <c r="F107" t="s">
         <v>750</v>
-      </c>
-      <c r="F107" t="s">
-        <v>751</v>
       </c>
       <c r="G107" t="s">
         <v>664</v>
       </c>
       <c r="H107" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I107" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J107" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -7168,10 +7422,10 @@
         <v>664</v>
       </c>
       <c r="H108" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I108" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -7197,10 +7451,10 @@
         <v>664</v>
       </c>
       <c r="H109" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -7226,10 +7480,10 @@
         <v>664</v>
       </c>
       <c r="H110" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L110" t="s">
         <v>328</v>
@@ -7264,10 +7518,10 @@
         <v>664</v>
       </c>
       <c r="H111" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7293,10 +7547,10 @@
         <v>664</v>
       </c>
       <c r="H112" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I112" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -7325,7 +7579,7 @@
         <v>66</v>
       </c>
       <c r="I113" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7351,10 +7605,10 @@
         <v>664</v>
       </c>
       <c r="H114" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I114" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7380,10 +7634,10 @@
         <v>664</v>
       </c>
       <c r="H115" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I115" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7409,10 +7663,10 @@
         <v>664</v>
       </c>
       <c r="H116" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I116" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L116" t="s">
         <v>430</v>
@@ -7447,10 +7701,10 @@
         <v>664</v>
       </c>
       <c r="H117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I117" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L117" t="s">
         <v>430</v>
@@ -7494,10 +7748,10 @@
         <v>664</v>
       </c>
       <c r="H118" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I118" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L118" t="s">
         <v>46</v>
@@ -7506,7 +7760,7 @@
         <v>443</v>
       </c>
       <c r="N118" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7535,7 +7789,7 @@
         <v>66</v>
       </c>
       <c r="I119" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J119" t="s">
         <v>451</v>
@@ -7556,7 +7810,7 @@
         <v>448</v>
       </c>
       <c r="Q119" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7582,10 +7836,10 @@
         <v>665</v>
       </c>
       <c r="H120" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I120" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L120" t="s">
         <v>452</v>
@@ -7605,16 +7859,16 @@
         <v>455</v>
       </c>
       <c r="F121" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G121" t="s">
+        <v>671</v>
+      </c>
+      <c r="H121" t="s">
         <v>672</v>
       </c>
-      <c r="H121" t="s">
-        <v>673</v>
-      </c>
       <c r="I121" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L121" t="s">
         <v>452</v>
@@ -7627,23 +7881,32 @@
       </c>
     </row>
     <row r="122" spans="1:17">
+      <c r="A122" t="s">
+        <v>459</v>
+      </c>
+      <c r="B122" t="s">
+        <v>460</v>
+      </c>
+      <c r="C122" t="s">
+        <v>461</v>
+      </c>
       <c r="D122" t="s">
-        <v>459</v>
+        <v>810</v>
       </c>
       <c r="E122" t="s">
-        <v>460</v>
+        <v>811</v>
       </c>
       <c r="F122" t="s">
-        <v>461</v>
+        <v>812</v>
       </c>
       <c r="G122" t="s">
         <v>664</v>
       </c>
       <c r="H122" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J122" t="s">
         <v>462</v>
@@ -7672,10 +7935,10 @@
         <v>664</v>
       </c>
       <c r="H123" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I123" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7704,7 +7967,7 @@
         <v>66</v>
       </c>
       <c r="I124" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J124" t="s">
         <v>474</v>
@@ -7742,19 +8005,19 @@
         <v>665</v>
       </c>
       <c r="H125" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I125" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L125" t="s">
         <v>475</v>
       </c>
       <c r="M125" t="s">
+        <v>776</v>
+      </c>
+      <c r="N125" t="s">
         <v>777</v>
-      </c>
-      <c r="N125" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7780,10 +8043,10 @@
         <v>665</v>
       </c>
       <c r="H126" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I126" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L126" t="s">
         <v>475</v>
@@ -7815,13 +8078,16 @@
         <v>493</v>
       </c>
       <c r="G127" t="s">
-        <v>666</v>
+        <v>820</v>
       </c>
       <c r="H127" t="s">
-        <v>66</v>
+        <v>821</v>
       </c>
       <c r="I127" t="s">
-        <v>697</v>
+        <v>696</v>
+      </c>
+      <c r="J127" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -7844,13 +8110,16 @@
         <v>497</v>
       </c>
       <c r="G128" t="s">
-        <v>666</v>
+        <v>820</v>
       </c>
       <c r="H128" t="s">
-        <v>66</v>
+        <v>821</v>
       </c>
       <c r="I128" t="s">
-        <v>697</v>
+        <v>696</v>
+      </c>
+      <c r="J128" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7873,13 +8142,16 @@
         <v>501</v>
       </c>
       <c r="G129" t="s">
-        <v>666</v>
+        <v>820</v>
       </c>
       <c r="H129" t="s">
-        <v>66</v>
+        <v>821</v>
       </c>
       <c r="I129" t="s">
-        <v>697</v>
+        <v>696</v>
+      </c>
+      <c r="J129" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7887,28 +8159,31 @@
         <v>489</v>
       </c>
       <c r="B130" t="s">
-        <v>502</v>
+        <v>817</v>
       </c>
       <c r="C130" t="s">
-        <v>503</v>
+        <v>816</v>
       </c>
       <c r="D130" t="s">
         <v>489</v>
       </c>
       <c r="E130" t="s">
-        <v>504</v>
+        <v>818</v>
       </c>
       <c r="F130" t="s">
-        <v>505</v>
+        <v>819</v>
       </c>
       <c r="G130" t="s">
-        <v>664</v>
+        <v>820</v>
       </c>
       <c r="H130" t="s">
-        <v>674</v>
+        <v>821</v>
       </c>
       <c r="I130" t="s">
-        <v>697</v>
+        <v>696</v>
+      </c>
+      <c r="J130" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7916,28 +8191,28 @@
         <v>489</v>
       </c>
       <c r="B131" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C131" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D131" t="s">
         <v>489</v>
       </c>
       <c r="E131" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F131" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G131" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H131" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I131" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7945,48 +8220,51 @@
         <v>489</v>
       </c>
       <c r="B132" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C132" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D132" t="s">
         <v>489</v>
       </c>
       <c r="E132" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F132" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G132" t="s">
-        <v>666</v>
+        <v>820</v>
       </c>
       <c r="H132" t="s">
-        <v>66</v>
+        <v>821</v>
       </c>
       <c r="I132" t="s">
-        <v>697</v>
+        <v>696</v>
+      </c>
+      <c r="J132" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="B133" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C133" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D133" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E133" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F133" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G133" t="s">
         <v>666</v>
@@ -7995,21 +8273,27 @@
         <v>66</v>
       </c>
       <c r="I133" t="s">
-        <v>712</v>
-      </c>
-      <c r="J133" t="s">
-        <v>519</v>
+        <v>696</v>
       </c>
     </row>
     <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>514</v>
+      </c>
+      <c r="B134" t="s">
+        <v>515</v>
+      </c>
+      <c r="C134" t="s">
+        <v>516</v>
+      </c>
       <c r="D134" t="s">
         <v>514</v>
       </c>
       <c r="E134" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F134" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G134" t="s">
         <v>666</v>
@@ -8018,16 +8302,10 @@
         <v>66</v>
       </c>
       <c r="I134" t="s">
-        <v>706</v>
-      </c>
-      <c r="L134" t="s">
-        <v>514</v>
-      </c>
-      <c r="M134" t="s">
-        <v>522</v>
-      </c>
-      <c r="N134" t="s">
-        <v>523</v>
+        <v>711</v>
+      </c>
+      <c r="J134" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8035,10 +8313,10 @@
         <v>514</v>
       </c>
       <c r="E135" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F135" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G135" t="s">
         <v>666</v>
@@ -8047,7 +8325,7 @@
         <v>66</v>
       </c>
       <c r="I135" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L135" t="s">
         <v>514</v>
@@ -8056,7 +8334,7 @@
         <v>522</v>
       </c>
       <c r="N135" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8067,7 +8345,7 @@
         <v>522</v>
       </c>
       <c r="F136" t="s">
-        <v>680</v>
+        <v>524</v>
       </c>
       <c r="G136" t="s">
         <v>666</v>
@@ -8076,30 +8354,27 @@
         <v>66</v>
       </c>
       <c r="I136" t="s">
-        <v>712</v>
-      </c>
-      <c r="J136" t="s">
+        <v>705</v>
+      </c>
+      <c r="L136" t="s">
+        <v>514</v>
+      </c>
+      <c r="M136" t="s">
+        <v>522</v>
+      </c>
+      <c r="N136" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="D137" t="s">
+        <v>514</v>
+      </c>
+      <c r="E137" t="s">
+        <v>522</v>
+      </c>
+      <c r="F137" t="s">
         <v>679</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" t="s">
-        <v>526</v>
-      </c>
-      <c r="B137" t="s">
-        <v>527</v>
-      </c>
-      <c r="C137" t="s">
-        <v>528</v>
-      </c>
-      <c r="D137" t="s">
-        <v>526</v>
-      </c>
-      <c r="E137" t="s">
-        <v>529</v>
-      </c>
-      <c r="F137" t="s">
-        <v>530</v>
       </c>
       <c r="G137" t="s">
         <v>666</v>
@@ -8108,30 +8383,30 @@
         <v>66</v>
       </c>
       <c r="I137" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J137" t="s">
-        <v>531</v>
+        <v>678</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B138" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C138" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D138" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E138" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F138" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G138" t="s">
         <v>666</v>
@@ -8140,16 +8415,10 @@
         <v>66</v>
       </c>
       <c r="I138" t="s">
-        <v>712</v>
-      </c>
-      <c r="L138" t="s">
-        <v>532</v>
-      </c>
-      <c r="M138" t="s">
-        <v>537</v>
-      </c>
-      <c r="N138" t="s">
-        <v>546</v>
+        <v>711</v>
+      </c>
+      <c r="J138" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8157,19 +8426,19 @@
         <v>532</v>
       </c>
       <c r="B139" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C139" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D139" t="s">
         <v>532</v>
       </c>
       <c r="E139" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F139" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G139" t="s">
         <v>666</v>
@@ -8178,10 +8447,16 @@
         <v>66</v>
       </c>
       <c r="I139" t="s">
-        <v>712</v>
-      </c>
-      <c r="J139" t="s">
-        <v>541</v>
+        <v>711</v>
+      </c>
+      <c r="L139" t="s">
+        <v>532</v>
+      </c>
+      <c r="M139" t="s">
+        <v>537</v>
+      </c>
+      <c r="N139" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8189,10 +8464,10 @@
         <v>532</v>
       </c>
       <c r="B140" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C140" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D140" t="s">
         <v>532</v>
@@ -8201,16 +8476,19 @@
         <v>539</v>
       </c>
       <c r="F140" t="s">
+        <v>540</v>
+      </c>
+      <c r="G140" t="s">
+        <v>666</v>
+      </c>
+      <c r="H140" t="s">
+        <v>66</v>
+      </c>
+      <c r="I140" t="s">
+        <v>711</v>
+      </c>
+      <c r="J140" t="s">
         <v>541</v>
-      </c>
-      <c r="G140" t="s">
-        <v>664</v>
-      </c>
-      <c r="H140" t="s">
-        <v>674</v>
-      </c>
-      <c r="I140" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -8218,28 +8496,28 @@
         <v>532</v>
       </c>
       <c r="B141" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C141" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D141" t="s">
         <v>532</v>
       </c>
       <c r="E141" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F141" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G141" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H141" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I141" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8247,19 +8525,19 @@
         <v>532</v>
       </c>
       <c r="B142" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="C142" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D142" t="s">
         <v>532</v>
       </c>
       <c r="E142" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F142" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G142" t="s">
         <v>666</v>
@@ -8268,30 +8546,18 @@
         <v>66</v>
       </c>
       <c r="I142" t="s">
-        <v>714</v>
-      </c>
-      <c r="J142" t="s">
-        <v>549</v>
+        <v>712</v>
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" t="s">
-        <v>532</v>
-      </c>
-      <c r="B143" t="s">
-        <v>554</v>
-      </c>
-      <c r="C143" t="s">
-        <v>555</v>
-      </c>
       <c r="D143" t="s">
         <v>532</v>
       </c>
       <c r="E143" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F143" t="s">
-        <v>558</v>
+        <v>799</v>
       </c>
       <c r="G143" t="s">
         <v>666</v>
@@ -8300,10 +8566,10 @@
         <v>66</v>
       </c>
       <c r="I143" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J143" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -8311,19 +8577,19 @@
         <v>532</v>
       </c>
       <c r="B144" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C144" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D144" t="s">
         <v>532</v>
       </c>
       <c r="E144" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F144" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G144" t="s">
         <v>666</v>
@@ -8332,21 +8598,30 @@
         <v>66</v>
       </c>
       <c r="I144" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J144" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" t="s">
+        <v>532</v>
+      </c>
+      <c r="B145" t="s">
+        <v>554</v>
+      </c>
+      <c r="C145" t="s">
+        <v>555</v>
+      </c>
       <c r="D145" t="s">
         <v>532</v>
       </c>
       <c r="E145" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F145" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G145" t="s">
         <v>666</v>
@@ -8355,21 +8630,30 @@
         <v>66</v>
       </c>
       <c r="I145" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J145" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" t="s">
+        <v>532</v>
+      </c>
+      <c r="B146" t="s">
+        <v>559</v>
+      </c>
+      <c r="C146" t="s">
+        <v>560</v>
+      </c>
       <c r="D146" t="s">
         <v>532</v>
       </c>
       <c r="E146" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F146" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G146" t="s">
         <v>666</v>
@@ -8378,22 +8662,13 @@
         <v>66</v>
       </c>
       <c r="I146" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J146" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" t="s">
-        <v>532</v>
-      </c>
-      <c r="B147" t="s">
-        <v>570</v>
-      </c>
-      <c r="C147" t="s">
-        <v>571</v>
-      </c>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="D147" t="s">
         <v>532</v>
       </c>
@@ -8401,7 +8676,7 @@
         <v>564</v>
       </c>
       <c r="F147" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G147" t="s">
         <v>666</v>
@@ -8410,39 +8685,21 @@
         <v>66</v>
       </c>
       <c r="I147" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J147" t="s">
-        <v>569</v>
-      </c>
-      <c r="M147" t="s">
-        <v>532</v>
-      </c>
-      <c r="N147" t="s">
-        <v>570</v>
-      </c>
-      <c r="O147" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" t="s">
-        <v>532</v>
-      </c>
-      <c r="B148" t="s">
-        <v>574</v>
-      </c>
-      <c r="C148" t="s">
-        <v>575</v>
-      </c>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="D148" t="s">
         <v>532</v>
       </c>
       <c r="E148" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="F148" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G148" t="s">
         <v>666</v>
@@ -8451,56 +8708,71 @@
         <v>66</v>
       </c>
       <c r="I148" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>714</v>
+      </c>
+      <c r="J148" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="B149" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C149" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D149" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="E149" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F149" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G149" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H149" t="s">
         <v>66</v>
       </c>
       <c r="I149" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>714</v>
+      </c>
+      <c r="J149" t="s">
+        <v>569</v>
+      </c>
+      <c r="L149" t="s">
+        <v>532</v>
+      </c>
+      <c r="M149" t="s">
+        <v>570</v>
+      </c>
+      <c r="N149" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="B150" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C150" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D150" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="E150" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="F150" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="G150" t="s">
         <v>666</v>
@@ -8509,281 +8781,332 @@
         <v>66</v>
       </c>
       <c r="I150" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
+        <v>744</v>
+      </c>
+      <c r="B151" t="s">
         <v>745</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>746</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>744</v>
+      </c>
+      <c r="E151" t="s">
         <v>747</v>
       </c>
-      <c r="D151" t="s">
-        <v>745</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>748</v>
-      </c>
-      <c r="F151" t="s">
-        <v>749</v>
       </c>
       <c r="G151" t="s">
         <v>664</v>
       </c>
       <c r="H151" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I151" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="16.5">
+        <v>705</v>
+      </c>
+      <c r="L151" t="s">
+        <v>744</v>
+      </c>
+      <c r="M151" t="s">
+        <v>747</v>
+      </c>
+      <c r="N151" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="B152" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C152" t="s">
-        <v>586</v>
+        <v>597</v>
+      </c>
+      <c r="D152" t="s">
+        <v>595</v>
+      </c>
+      <c r="E152" t="s">
+        <v>602</v>
+      </c>
+      <c r="F152" t="s">
+        <v>603</v>
       </c>
       <c r="G152" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H152" t="s">
         <v>66</v>
       </c>
       <c r="I152" t="s">
-        <v>716</v>
-      </c>
-      <c r="J152" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="16.5">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="B153" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C153" t="s">
-        <v>587</v>
+        <v>599</v>
+      </c>
+      <c r="D153" t="s">
+        <v>595</v>
+      </c>
+      <c r="E153" t="s">
+        <v>604</v>
+      </c>
+      <c r="F153" t="s">
+        <v>605</v>
       </c>
       <c r="G153" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="H153" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I153" t="s">
-        <v>716</v>
-      </c>
-      <c r="J153" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="16.5">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="B154" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="C154" t="s">
-        <v>588</v>
+        <v>601</v>
+      </c>
+      <c r="D154" t="s">
+        <v>595</v>
+      </c>
+      <c r="E154" t="s">
+        <v>606</v>
+      </c>
+      <c r="F154" t="s">
+        <v>607</v>
       </c>
       <c r="G154" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H154" t="s">
         <v>66</v>
       </c>
       <c r="I154" t="s">
-        <v>716</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="16.5">
-      <c r="A155" t="s">
-        <v>577</v>
-      </c>
-      <c r="B155" t="s">
-        <v>589</v>
-      </c>
-      <c r="C155" t="s">
-        <v>589</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="D155" t="s">
+        <v>595</v>
+      </c>
+      <c r="E155" t="s">
+        <v>606</v>
+      </c>
+      <c r="F155" t="s">
+        <v>608</v>
       </c>
       <c r="G155" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H155" t="s">
         <v>66</v>
       </c>
       <c r="I155" t="s">
-        <v>716</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="16.5">
+        <v>730</v>
+      </c>
+      <c r="J155" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="B156" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C156" t="s">
-        <v>590</v>
+        <v>611</v>
+      </c>
+      <c r="D156" t="s">
+        <v>595</v>
+      </c>
+      <c r="E156" t="s">
+        <v>612</v>
+      </c>
+      <c r="F156" t="s">
+        <v>613</v>
       </c>
       <c r="G156" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H156" t="s">
         <v>66</v>
       </c>
       <c r="I156" t="s">
-        <v>716</v>
-      </c>
-      <c r="J156" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="16.5">
+        <v>696</v>
+      </c>
+      <c r="J156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="B157" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="C157" t="s">
-        <v>591</v>
+        <v>617</v>
+      </c>
+      <c r="D157" t="s">
+        <v>615</v>
+      </c>
+      <c r="E157" t="s">
+        <v>618</v>
+      </c>
+      <c r="F157" t="s">
+        <v>619</v>
       </c>
       <c r="G157" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H157" t="s">
         <v>66</v>
       </c>
       <c r="I157" t="s">
-        <v>716</v>
-      </c>
-      <c r="J157" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="B158" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="C158" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="D158" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="E158" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="F158" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="G158" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H158" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I158" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="B159" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="C159" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="D159" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="E159" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="F159" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="G159" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H159" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I159" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="B160" t="s">
-        <v>598</v>
+        <v>297</v>
       </c>
       <c r="C160" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="D160" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="E160" t="s">
-        <v>604</v>
+        <v>293</v>
       </c>
       <c r="F160" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="G160" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H160" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I160" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="A161" t="s">
-        <v>595</v>
-      </c>
-      <c r="B161" t="s">
-        <v>600</v>
-      </c>
-      <c r="C161" t="s">
-        <v>601</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="L160" t="s">
+        <v>629</v>
+      </c>
+      <c r="M160" t="s">
+        <v>293</v>
+      </c>
+      <c r="N160" t="s">
+        <v>632</v>
+      </c>
+      <c r="O160" t="s">
+        <v>629</v>
+      </c>
+      <c r="P160" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="D161" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="E161" t="s">
-        <v>606</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="G161" t="s">
         <v>666</v>
@@ -8792,18 +9115,21 @@
         <v>66</v>
       </c>
       <c r="I161" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
+        <v>700</v>
+      </c>
+      <c r="J161" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="D162" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="E162" t="s">
-        <v>606</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="G162" t="s">
         <v>666</v>
@@ -8812,30 +9138,21 @@
         <v>66</v>
       </c>
       <c r="I162" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="J162" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
-      <c r="A163" t="s">
-        <v>595</v>
-      </c>
-      <c r="B163" t="s">
-        <v>610</v>
-      </c>
-      <c r="C163" t="s">
-        <v>611</v>
-      </c>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="16.5">
       <c r="D163" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="E163" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="F163" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="G163" t="s">
         <v>666</v>
@@ -8846,28 +9163,19 @@
       <c r="I163" t="s">
         <v>697</v>
       </c>
-      <c r="J163" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" t="s">
-        <v>615</v>
-      </c>
-      <c r="B164" t="s">
-        <v>616</v>
-      </c>
-      <c r="C164" t="s">
-        <v>617</v>
-      </c>
+      <c r="J163" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="16.5">
       <c r="D164" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="E164" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="F164" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="G164" t="s">
         <v>666</v>
@@ -8876,123 +9184,123 @@
         <v>66</v>
       </c>
       <c r="I164" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17">
+        <v>697</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>615</v>
+        <v>292</v>
       </c>
       <c r="B165" t="s">
-        <v>620</v>
+        <v>300</v>
       </c>
       <c r="C165" t="s">
-        <v>621</v>
+        <v>779</v>
       </c>
       <c r="D165" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="E165" t="s">
-        <v>622</v>
+        <v>302</v>
       </c>
       <c r="F165" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="G165" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H165" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I165" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
-      <c r="A166" t="s">
-        <v>624</v>
-      </c>
-      <c r="B166" t="s">
-        <v>625</v>
-      </c>
-      <c r="C166" t="s">
-        <v>626</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="J165" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="D166" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E166" t="s">
-        <v>627</v>
+        <v>302</v>
       </c>
       <c r="F166" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="G166" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H166" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I166" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17">
+        <v>697</v>
+      </c>
+      <c r="J166" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B167" t="s">
         <v>297</v>
       </c>
       <c r="C167" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="D167" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="E167" t="s">
         <v>293</v>
       </c>
       <c r="F167" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="G167" t="s">
         <v>667</v>
       </c>
       <c r="H167" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I167" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L167" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="M167" t="s">
         <v>293</v>
       </c>
       <c r="N167" t="s">
-        <v>632</v>
-      </c>
-      <c r="O167" t="s">
-        <v>629</v>
-      </c>
-      <c r="P167" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" t="s">
+        <v>485</v>
+      </c>
+      <c r="B168" t="s">
+        <v>647</v>
+      </c>
+      <c r="C168" t="s">
+        <v>648</v>
+      </c>
       <c r="D168" t="s">
-        <v>634</v>
+        <v>485</v>
       </c>
       <c r="E168" t="s">
-        <v>302</v>
+        <v>486</v>
       </c>
       <c r="F168" t="s">
-        <v>635</v>
+        <v>487</v>
       </c>
       <c r="G168" t="s">
         <v>666</v>
@@ -9001,99 +9309,117 @@
         <v>66</v>
       </c>
       <c r="I168" t="s">
-        <v>701</v>
-      </c>
-      <c r="J168" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17">
+        <v>710</v>
+      </c>
+      <c r="L168" t="s">
+        <v>485</v>
+      </c>
+      <c r="M168" t="s">
+        <v>486</v>
+      </c>
+      <c r="N168" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="D169" t="s">
-        <v>634</v>
+        <v>485</v>
       </c>
       <c r="E169" t="s">
-        <v>302</v>
+        <v>649</v>
       </c>
       <c r="F169" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="G169" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H169" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I169" t="s">
-        <v>701</v>
-      </c>
-      <c r="J169" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" ht="16.5">
+        <v>710</v>
+      </c>
+      <c r="L169" t="s">
+        <v>485</v>
+      </c>
+      <c r="M169" t="s">
+        <v>649</v>
+      </c>
+      <c r="N169" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" t="s">
+        <v>485</v>
+      </c>
+      <c r="B170" t="s">
+        <v>652</v>
+      </c>
+      <c r="C170" t="s">
+        <v>653</v>
+      </c>
       <c r="D170" t="s">
-        <v>634</v>
+        <v>485</v>
       </c>
       <c r="E170" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="F170" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="G170" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H170" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I170" t="s">
-        <v>698</v>
-      </c>
-      <c r="J170" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" ht="16.5">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" t="s">
+        <v>657</v>
+      </c>
+      <c r="B171" t="s">
+        <v>658</v>
+      </c>
+      <c r="C171" t="s">
+        <v>656</v>
+      </c>
       <c r="D171" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="E171" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="F171" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="G171" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H171" t="s">
-        <v>66</v>
+        <v>807</v>
       </c>
       <c r="I171" t="s">
-        <v>698</v>
-      </c>
-      <c r="J171" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17">
-      <c r="A172" t="s">
-        <v>292</v>
-      </c>
-      <c r="B172" t="s">
-        <v>300</v>
-      </c>
-      <c r="C172" t="s">
-        <v>780</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="J171" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="D172" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="E172" t="s">
-        <v>302</v>
+        <v>659</v>
       </c>
       <c r="F172" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="G172" t="s">
         <v>666</v>
@@ -9102,21 +9428,21 @@
         <v>66</v>
       </c>
       <c r="I172" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J172" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="D173" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="E173" t="s">
-        <v>302</v>
+        <v>659</v>
       </c>
       <c r="F173" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="G173" t="s">
         <v>666</v>
@@ -9125,239 +9451,209 @@
         <v>66</v>
       </c>
       <c r="I173" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J173" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>634</v>
+        <v>681</v>
       </c>
       <c r="B174" t="s">
-        <v>297</v>
+        <v>682</v>
       </c>
       <c r="C174" t="s">
-        <v>644</v>
-      </c>
-      <c r="D174" t="s">
-        <v>634</v>
-      </c>
-      <c r="E174" t="s">
-        <v>293</v>
-      </c>
-      <c r="F174" t="s">
-        <v>645</v>
+        <v>683</v>
       </c>
       <c r="G174" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="H174" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="I174" t="s">
-        <v>694</v>
-      </c>
-      <c r="L174" t="s">
-        <v>634</v>
-      </c>
-      <c r="M174" t="s">
-        <v>293</v>
-      </c>
-      <c r="N174" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="B175" t="s">
-        <v>647</v>
+        <v>685</v>
       </c>
       <c r="C175" t="s">
-        <v>648</v>
-      </c>
-      <c r="D175" t="s">
-        <v>485</v>
-      </c>
-      <c r="E175" t="s">
-        <v>486</v>
-      </c>
-      <c r="F175" t="s">
-        <v>487</v>
+        <v>686</v>
       </c>
       <c r="G175" t="s">
+        <v>690</v>
+      </c>
+      <c r="H175" t="s">
+        <v>691</v>
+      </c>
+      <c r="I175" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" t="s">
+        <v>687</v>
+      </c>
+      <c r="B176" t="s">
+        <v>688</v>
+      </c>
+      <c r="C176" t="s">
+        <v>689</v>
+      </c>
+      <c r="G176" t="s">
+        <v>690</v>
+      </c>
+      <c r="H176" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="D177" t="s">
+        <v>328</v>
+      </c>
+      <c r="E177" t="s">
+        <v>353</v>
+      </c>
+      <c r="F177" t="s">
+        <v>736</v>
+      </c>
+      <c r="G177" t="s">
         <v>666</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H177" t="s">
         <v>66</v>
       </c>
-      <c r="I175" t="s">
-        <v>711</v>
-      </c>
-      <c r="L175" t="s">
-        <v>485</v>
-      </c>
-      <c r="M175" t="s">
-        <v>486</v>
-      </c>
-      <c r="N175" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17">
-      <c r="D176" t="s">
-        <v>485</v>
-      </c>
-      <c r="E176" t="s">
-        <v>649</v>
-      </c>
-      <c r="F176" t="s">
-        <v>650</v>
-      </c>
-      <c r="G176" t="s">
-        <v>665</v>
-      </c>
-      <c r="H176" t="s">
-        <v>673</v>
-      </c>
-      <c r="I176" t="s">
-        <v>711</v>
-      </c>
-      <c r="L176" t="s">
-        <v>485</v>
-      </c>
-      <c r="M176" t="s">
-        <v>649</v>
-      </c>
-      <c r="N176" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
-      <c r="A177" t="s">
-        <v>485</v>
-      </c>
-      <c r="B177" t="s">
-        <v>652</v>
-      </c>
-      <c r="C177" t="s">
-        <v>653</v>
-      </c>
-      <c r="D177" t="s">
-        <v>485</v>
-      </c>
-      <c r="E177" t="s">
-        <v>654</v>
-      </c>
-      <c r="F177" t="s">
-        <v>655</v>
-      </c>
-      <c r="G177" t="s">
-        <v>665</v>
-      </c>
-      <c r="H177" t="s">
-        <v>673</v>
-      </c>
       <c r="I177" t="s">
-        <v>711</v>
+        <v>728</v>
+      </c>
+      <c r="L177" t="s">
+        <v>328</v>
+      </c>
+      <c r="M177" t="s">
+        <v>353</v>
+      </c>
+      <c r="N177" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="B178" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
       <c r="C178" t="s">
-        <v>656</v>
+        <v>758</v>
       </c>
       <c r="D178" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="E178" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
       <c r="F178" t="s">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="G178" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H178" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I178" t="s">
-        <v>697</v>
-      </c>
-      <c r="J178" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
     </row>
     <row r="179" spans="1:14">
+      <c r="A179" t="s">
+        <v>761</v>
+      </c>
+      <c r="B179" t="s">
+        <v>762</v>
+      </c>
+      <c r="C179" t="s">
+        <v>763</v>
+      </c>
       <c r="D179" t="s">
-        <v>657</v>
+        <v>761</v>
       </c>
       <c r="E179" t="s">
-        <v>659</v>
+        <v>764</v>
       </c>
       <c r="F179" t="s">
-        <v>662</v>
+        <v>765</v>
       </c>
       <c r="G179" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H179" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I179" t="s">
-        <v>697</v>
-      </c>
-      <c r="J179" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:14">
+      <c r="A180" t="s">
+        <v>766</v>
+      </c>
+      <c r="B180" t="s">
+        <v>767</v>
+      </c>
+      <c r="C180" t="s">
+        <v>768</v>
+      </c>
       <c r="D180" t="s">
-        <v>657</v>
+        <v>769</v>
       </c>
       <c r="E180" t="s">
-        <v>659</v>
+        <v>767</v>
       </c>
       <c r="F180" t="s">
-        <v>663</v>
+        <v>770</v>
       </c>
       <c r="G180" t="s">
-        <v>666</v>
+        <v>771</v>
       </c>
       <c r="H180" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I180" t="s">
-        <v>697</v>
-      </c>
-      <c r="J180" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>682</v>
+        <v>785</v>
       </c>
       <c r="B181" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="C181" t="s">
-        <v>684</v>
+        <v>773</v>
+      </c>
+      <c r="D181" t="s">
+        <v>769</v>
+      </c>
+      <c r="E181" t="s">
+        <v>774</v>
+      </c>
+      <c r="F181" t="s">
+        <v>775</v>
       </c>
       <c r="G181" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="H181" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="I181" t="s">
         <v>707</v>
@@ -9365,50 +9661,65 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="B182" t="s">
-        <v>686</v>
+        <v>781</v>
       </c>
       <c r="C182" t="s">
-        <v>687</v>
-      </c>
-      <c r="G182" t="s">
-        <v>691</v>
-      </c>
-      <c r="H182" t="s">
-        <v>692</v>
-      </c>
-      <c r="I182" t="s">
-        <v>707</v>
+        <v>782</v>
+      </c>
+      <c r="D182" t="s">
+        <v>780</v>
+      </c>
+      <c r="E182" t="s">
+        <v>783</v>
+      </c>
+      <c r="F182" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" t="s">
-        <v>688</v>
-      </c>
-      <c r="B183" t="s">
-        <v>689</v>
-      </c>
-      <c r="C183" t="s">
-        <v>690</v>
+      <c r="D183" t="s">
+        <v>786</v>
+      </c>
+      <c r="E183" t="s">
+        <v>787</v>
+      </c>
+      <c r="F183" t="s">
+        <v>788</v>
       </c>
       <c r="G183" t="s">
-        <v>691</v>
+        <v>790</v>
       </c>
       <c r="H183" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>672</v>
+      </c>
+      <c r="I183" t="s">
+        <v>791</v>
+      </c>
+      <c r="J183" t="s">
+        <v>792</v>
+      </c>
+      <c r="L183" t="s">
+        <v>786</v>
+      </c>
+      <c r="M183" t="s">
+        <v>787</v>
+      </c>
+      <c r="N183" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="16.5">
       <c r="D184" t="s">
-        <v>328</v>
+        <v>793</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>794</v>
       </c>
       <c r="F184" t="s">
-        <v>737</v>
+        <v>795</v>
       </c>
       <c r="G184" t="s">
         <v>666</v>
@@ -9416,297 +9727,790 @@
       <c r="H184" t="s">
         <v>66</v>
       </c>
-      <c r="I184" t="s">
-        <v>729</v>
-      </c>
-      <c r="L184" t="s">
-        <v>328</v>
-      </c>
-      <c r="M184" t="s">
-        <v>353</v>
-      </c>
-      <c r="N184" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
-      <c r="A185" t="s">
-        <v>615</v>
-      </c>
-      <c r="B185" t="s">
-        <v>758</v>
-      </c>
-      <c r="C185" t="s">
-        <v>759</v>
-      </c>
+      <c r="I184" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="J184" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="16.5">
       <c r="D185" t="s">
-        <v>615</v>
+        <v>793</v>
       </c>
       <c r="E185" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="F185" t="s">
-        <v>761</v>
+        <v>797</v>
       </c>
       <c r="G185" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H185" t="s">
-        <v>673</v>
-      </c>
-      <c r="I185" t="s">
-        <v>694</v>
+        <v>66</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="J185" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>762</v>
+        <v>800</v>
       </c>
       <c r="B186" t="s">
-        <v>763</v>
+        <v>801</v>
       </c>
       <c r="C186" t="s">
-        <v>764</v>
+        <v>802</v>
       </c>
       <c r="D186" t="s">
-        <v>762</v>
+        <v>800</v>
       </c>
       <c r="E186" t="s">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="F186" t="s">
-        <v>766</v>
+        <v>804</v>
       </c>
       <c r="G186" t="s">
-        <v>667</v>
+        <v>806</v>
       </c>
       <c r="H186" t="s">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="I186" t="s">
-        <v>694</v>
+        <v>696</v>
+      </c>
+      <c r="J186" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" t="s">
-        <v>767</v>
-      </c>
-      <c r="B187" t="s">
-        <v>768</v>
-      </c>
-      <c r="C187" t="s">
-        <v>769</v>
-      </c>
       <c r="D187" t="s">
-        <v>770</v>
+        <v>485</v>
       </c>
       <c r="E187" t="s">
-        <v>768</v>
+        <v>813</v>
       </c>
       <c r="F187" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="G187" t="s">
-        <v>772</v>
+        <v>665</v>
       </c>
       <c r="H187" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I187" t="s">
-        <v>694</v>
+        <v>710</v>
+      </c>
+      <c r="L187" t="s">
+        <v>485</v>
+      </c>
+      <c r="M187" t="s">
+        <v>813</v>
+      </c>
+      <c r="N187" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>773</v>
+        <v>822</v>
       </c>
       <c r="B188" t="s">
-        <v>773</v>
+        <v>823</v>
       </c>
       <c r="C188" t="s">
-        <v>774</v>
+        <v>824</v>
       </c>
       <c r="D188" t="s">
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="E188" t="s">
-        <v>775</v>
+        <v>825</v>
       </c>
       <c r="F188" t="s">
-        <v>776</v>
+        <v>826</v>
       </c>
       <c r="G188" t="s">
-        <v>665</v>
+        <v>827</v>
       </c>
       <c r="H188" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I188" t="s">
-        <v>708</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" t="s">
+        <v>828</v>
+      </c>
+      <c r="B189" t="s">
+        <v>829</v>
+      </c>
+      <c r="C189" t="s">
+        <v>830</v>
+      </c>
+      <c r="D189" t="s">
+        <v>828</v>
+      </c>
+      <c r="E189" t="s">
+        <v>831</v>
+      </c>
+      <c r="F189" t="s">
+        <v>832</v>
+      </c>
+      <c r="G189" t="s">
+        <v>666</v>
+      </c>
+      <c r="H189" t="s">
+        <v>66</v>
+      </c>
+      <c r="I189" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" t="s">
+        <v>577</v>
+      </c>
+      <c r="B190" t="s">
+        <v>578</v>
+      </c>
+      <c r="C190" t="s">
+        <v>579</v>
+      </c>
+      <c r="G190" t="s">
+        <v>806</v>
+      </c>
+      <c r="H190" t="s">
+        <v>808</v>
+      </c>
+      <c r="I190" t="s">
+        <v>715</v>
+      </c>
+      <c r="J190" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" t="s">
+        <v>577</v>
+      </c>
+      <c r="B191" t="s">
+        <v>586</v>
+      </c>
+      <c r="C191" t="s">
+        <v>586</v>
+      </c>
+      <c r="G191" t="s">
+        <v>806</v>
+      </c>
+      <c r="H191" t="s">
+        <v>808</v>
+      </c>
+      <c r="I191" t="s">
+        <v>715</v>
+      </c>
+      <c r="J191" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" t="s">
+        <v>577</v>
+      </c>
+      <c r="B192" t="s">
+        <v>834</v>
+      </c>
+      <c r="C192" t="s">
+        <v>834</v>
+      </c>
+      <c r="G192" t="s">
+        <v>806</v>
+      </c>
+      <c r="H192" t="s">
+        <v>808</v>
+      </c>
+      <c r="I192" t="s">
+        <v>715</v>
+      </c>
+      <c r="J192" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>577</v>
+      </c>
+      <c r="B193" t="s">
+        <v>835</v>
+      </c>
+      <c r="C193" t="s">
+        <v>835</v>
+      </c>
+      <c r="G193" t="s">
+        <v>806</v>
+      </c>
+      <c r="H193" t="s">
+        <v>808</v>
+      </c>
+      <c r="I193" t="s">
+        <v>715</v>
+      </c>
+      <c r="J193" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>577</v>
+      </c>
+      <c r="B194" t="s">
+        <v>836</v>
+      </c>
+      <c r="C194" t="s">
+        <v>836</v>
+      </c>
+      <c r="G194" t="s">
+        <v>806</v>
+      </c>
+      <c r="H194" t="s">
+        <v>808</v>
+      </c>
+      <c r="I194" t="s">
+        <v>715</v>
+      </c>
+      <c r="J194" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
+        <v>577</v>
+      </c>
+      <c r="B195" t="s">
+        <v>837</v>
+      </c>
+      <c r="C195" t="s">
+        <v>837</v>
+      </c>
+      <c r="G195" t="s">
+        <v>806</v>
+      </c>
+      <c r="H195" t="s">
+        <v>808</v>
+      </c>
+      <c r="I195" t="s">
+        <v>715</v>
+      </c>
+      <c r="J195" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
+        <v>577</v>
+      </c>
+      <c r="B196" t="s">
+        <v>838</v>
+      </c>
+      <c r="C196" t="s">
+        <v>838</v>
+      </c>
+      <c r="G196" t="s">
+        <v>806</v>
+      </c>
+      <c r="H196" t="s">
+        <v>808</v>
+      </c>
+      <c r="I196" t="s">
+        <v>715</v>
+      </c>
+      <c r="J196" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
+        <v>577</v>
+      </c>
+      <c r="B197" t="s">
+        <v>580</v>
+      </c>
+      <c r="C197" t="s">
+        <v>581</v>
+      </c>
+      <c r="G197" t="s">
+        <v>806</v>
+      </c>
+      <c r="H197" t="s">
+        <v>808</v>
+      </c>
+      <c r="I197" t="s">
+        <v>715</v>
+      </c>
+      <c r="J197" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
+        <v>577</v>
+      </c>
+      <c r="B198" t="s">
+        <v>839</v>
+      </c>
+      <c r="C198" t="s">
+        <v>839</v>
+      </c>
+      <c r="G198" t="s">
+        <v>806</v>
+      </c>
+      <c r="H198" t="s">
+        <v>808</v>
+      </c>
+      <c r="I198" t="s">
+        <v>715</v>
+      </c>
+      <c r="J198" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
+        <v>577</v>
+      </c>
+      <c r="B199" t="s">
+        <v>587</v>
+      </c>
+      <c r="C199" t="s">
+        <v>587</v>
+      </c>
+      <c r="G199" t="s">
+        <v>806</v>
+      </c>
+      <c r="H199" t="s">
+        <v>808</v>
+      </c>
+      <c r="I199" t="s">
+        <v>715</v>
+      </c>
+      <c r="J199" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
+        <v>577</v>
+      </c>
+      <c r="B200" t="s">
+        <v>588</v>
+      </c>
+      <c r="C200" t="s">
+        <v>588</v>
+      </c>
+      <c r="G200" t="s">
+        <v>806</v>
+      </c>
+      <c r="H200" t="s">
+        <v>808</v>
+      </c>
+      <c r="I200" t="s">
+        <v>715</v>
+      </c>
+      <c r="J200" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
+        <v>577</v>
+      </c>
+      <c r="B201" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" t="s">
+        <v>589</v>
+      </c>
+      <c r="G201" t="s">
+        <v>806</v>
+      </c>
+      <c r="H201" t="s">
+        <v>808</v>
+      </c>
+      <c r="I201" t="s">
+        <v>715</v>
+      </c>
+      <c r="J201" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
+        <v>577</v>
+      </c>
+      <c r="B202" t="s">
+        <v>840</v>
+      </c>
+      <c r="C202" t="s">
+        <v>840</v>
+      </c>
+      <c r="G202" t="s">
+        <v>806</v>
+      </c>
+      <c r="H202" t="s">
+        <v>808</v>
+      </c>
+      <c r="I202" t="s">
+        <v>715</v>
+      </c>
+      <c r="J202" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
+        <v>577</v>
+      </c>
+      <c r="B203" t="s">
+        <v>841</v>
+      </c>
+      <c r="C203" t="s">
+        <v>841</v>
+      </c>
+      <c r="G203" t="s">
+        <v>806</v>
+      </c>
+      <c r="H203" t="s">
+        <v>808</v>
+      </c>
+      <c r="I203" t="s">
+        <v>715</v>
+      </c>
+      <c r="J203" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
+        <v>577</v>
+      </c>
+      <c r="B204" t="s">
+        <v>842</v>
+      </c>
+      <c r="C204" t="s">
+        <v>842</v>
+      </c>
+      <c r="G204" t="s">
+        <v>806</v>
+      </c>
+      <c r="H204" t="s">
+        <v>808</v>
+      </c>
+      <c r="I204" t="s">
+        <v>715</v>
+      </c>
+      <c r="J204" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
+        <v>577</v>
+      </c>
+      <c r="B205" t="s">
+        <v>833</v>
+      </c>
+      <c r="C205" t="s">
+        <v>833</v>
+      </c>
+      <c r="G205" t="s">
+        <v>806</v>
+      </c>
+      <c r="H205" t="s">
+        <v>808</v>
+      </c>
+      <c r="I205" t="s">
+        <v>715</v>
+      </c>
+      <c r="J205" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
+        <v>577</v>
+      </c>
+      <c r="B206" t="s">
+        <v>590</v>
+      </c>
+      <c r="C206" t="s">
+        <v>590</v>
+      </c>
+      <c r="G206" t="s">
+        <v>806</v>
+      </c>
+      <c r="H206" t="s">
+        <v>808</v>
+      </c>
+      <c r="I206" t="s">
+        <v>715</v>
+      </c>
+      <c r="J206" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
+        <v>577</v>
+      </c>
+      <c r="B207" t="s">
+        <v>591</v>
+      </c>
+      <c r="C207" t="s">
+        <v>591</v>
+      </c>
+      <c r="G207" t="s">
+        <v>806</v>
+      </c>
+      <c r="H207" t="s">
+        <v>808</v>
+      </c>
+      <c r="I207" t="s">
+        <v>715</v>
+      </c>
+      <c r="J207" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" t="s">
+        <v>577</v>
+      </c>
+      <c r="B208" t="s">
+        <v>582</v>
+      </c>
+      <c r="C208" t="s">
+        <v>583</v>
+      </c>
+      <c r="D208" t="s">
+        <v>577</v>
+      </c>
+      <c r="E208" t="s">
+        <v>584</v>
+      </c>
+      <c r="F208" t="s">
+        <v>585</v>
+      </c>
+      <c r="G208" t="s">
+        <v>666</v>
+      </c>
+      <c r="H208" t="s">
+        <v>66</v>
+      </c>
+      <c r="I208" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B209" t="s">
+        <v>582</v>
+      </c>
+      <c r="C209" t="s">
+        <v>592</v>
+      </c>
+      <c r="D209" t="s">
+        <v>577</v>
+      </c>
+      <c r="E209" t="s">
+        <v>584</v>
+      </c>
+      <c r="F209" t="s">
+        <v>593</v>
+      </c>
+      <c r="G209" t="s">
+        <v>666</v>
+      </c>
+      <c r="H209" t="s">
+        <v>66</v>
+      </c>
+      <c r="I209" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="91" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="244"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4 C6:C1048576">
-    <cfRule type="duplicateValues" dxfId="86" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="178"/>
+  <conditionalFormatting sqref="C1:C4 C6:C50 C52:C1048576">
+    <cfRule type="duplicateValues" dxfId="91" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C50 C52:C1048576">
+    <cfRule type="duplicateValues" dxfId="89" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="84" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="77" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="76" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="232"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4 F6:F1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="70" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="213"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
-    <cfRule type="duplicateValues" dxfId="67" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="73"/>
+  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1 F4 F6:F76">
+    <cfRule type="duplicateValues" dxfId="65" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159:F1048576 F1:F4 F6:F157">
-    <cfRule type="duplicateValues" dxfId="62" priority="176"/>
+  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1:F4 F6:F76">
+    <cfRule type="duplicateValues" dxfId="62" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159:F1048576 F79:F96 F98:F113 F115:F157 F1 F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="61" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F159:F1048576 F79:F96 F98:F113 F115:F157 F1:F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="58" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F159:F1048576 F98:F113 F1:F4 F115:F157 F6:F96">
-    <cfRule type="duplicateValues" dxfId="57" priority="177"/>
+  <conditionalFormatting sqref="F98:F113 F1:F4 F115:F1048576 F6:F96">
+    <cfRule type="duplicateValues" dxfId="61" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="56" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="54" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="51" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J76">
-    <cfRule type="duplicateValues" dxfId="48" priority="252"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="268"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77:J78 C79:C1048576 C1:C4 B77:C78 E77:F78 C6:C76 L77:L78">
-    <cfRule type="duplicateValues" dxfId="45" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="213"/>
+  <conditionalFormatting sqref="J77:J78 C79:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
+    <cfRule type="duplicateValues" dxfId="49" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J152:J157">
-    <cfRule type="duplicateValues" dxfId="41" priority="342"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="344"/>
+  <conditionalFormatting sqref="J1:J76 J79:J162 J165:J1048576">
+    <cfRule type="duplicateValues" dxfId="45" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J159:J169 J172:J1048576 J79:J151 J1:J76">
-    <cfRule type="duplicateValues" dxfId="38" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J170:J171">
-    <cfRule type="duplicateValues" dxfId="37" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="172"/>
+  <conditionalFormatting sqref="J163:J164">
+    <cfRule type="duplicateValues" dxfId="44" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="34" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="33" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="30" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="20" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125">
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="18" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="221"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F232F5-EBF9-46C2-9497-D4C8CF398F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD083723-7D08-4D7C-BE99-AA58819418FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4027,8 +4027,8 @@
   <dimension ref="A1:W209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4582,6 +4582,15 @@
       <c r="I15" t="s">
         <v>693</v>
       </c>
+      <c r="L15" t="s">
+        <v>430</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
@@ -7667,15 +7676,6 @@
       </c>
       <c r="I116" t="s">
         <v>693</v>
-      </c>
-      <c r="L116" t="s">
-        <v>430</v>
-      </c>
-      <c r="M116" t="s">
-        <v>86</v>
-      </c>
-      <c r="N116" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -10355,162 +10355,152 @@
     <cfRule type="duplicateValues" dxfId="96" priority="237"/>
     <cfRule type="duplicateValues" dxfId="95" priority="238"/>
     <cfRule type="duplicateValues" dxfId="94" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C4 C6:C50 C52:C1048576">
-    <cfRule type="duplicateValues" dxfId="91" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C50 C52:C1048576">
-    <cfRule type="duplicateValues" dxfId="89" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="87" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="43"/>
     <cfRule type="duplicateValues" dxfId="84" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="80" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="79" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4 F6:F1048576">
-    <cfRule type="duplicateValues" dxfId="74" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="73" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="68" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1 F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="65" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1:F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="62" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:F113 F1:F4 F115:F1048576 F6:F96">
-    <cfRule type="duplicateValues" dxfId="61" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="60" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J76 J165:J1048576 J79:J162">
+    <cfRule type="duplicateValues" dxfId="46" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="58" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="55" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J76">
-    <cfRule type="duplicateValues" dxfId="52" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="267"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J78 C79:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
-    <cfRule type="duplicateValues" dxfId="49" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J76 J79:J162 J165:J1048576">
-    <cfRule type="duplicateValues" dxfId="45" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J164">
-    <cfRule type="duplicateValues" dxfId="44" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="41" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="40" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="37" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="27" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="14" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF05D3B-4A1A-46AB-A484-D89AF464A1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E99B5-B3AB-45DB-ADE1-80F98777F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="933">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2648,6 +2648,246 @@
   </si>
   <si>
     <t>天水华天</t>
+  </si>
+  <si>
+    <t>SC4015SO-N-CE-90NR-NM</t>
+  </si>
+  <si>
+    <t>SC4101DN</t>
+  </si>
+  <si>
+    <t>SC4101DN(STC11201B)-4101</t>
+  </si>
+  <si>
+    <t>DFN1616-6L(.5)</t>
+  </si>
+  <si>
+    <t>SC2402DN</t>
+  </si>
+  <si>
+    <t>SC2402DN-2402</t>
+  </si>
+  <si>
+    <t>STC11102C</t>
+  </si>
+  <si>
+    <t>SC2968S1-N-BK</t>
+  </si>
+  <si>
+    <t>SC2968S1-N-DC-4XAK-S21C</t>
+  </si>
+  <si>
+    <t>STC11131A</t>
+  </si>
+  <si>
+    <t>SC2526VB-SD-BK</t>
+  </si>
+  <si>
+    <t>SC2526VB-SD-DA-00AK-2526</t>
+  </si>
+  <si>
+    <t>STC9913D</t>
+  </si>
+  <si>
+    <t>SC1919UA-BK</t>
+  </si>
+  <si>
+    <t>SC1919UA-CD-90AK-919H</t>
+  </si>
+  <si>
+    <t>NM.SC9633VB</t>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLR-9642</t>
+  </si>
+  <si>
+    <t>SC9642TS-Q-AG-4XHK-9642</t>
+  </si>
+  <si>
+    <t>SC60226</t>
+  </si>
+  <si>
+    <t>NM.SC60226</t>
+  </si>
+  <si>
+    <t>STC9D02C</t>
+  </si>
+  <si>
+    <t>SC60104</t>
+  </si>
+  <si>
+    <t>NM.SC60104</t>
+  </si>
+  <si>
+    <t>STC9D05B</t>
+  </si>
+  <si>
+    <t>SC60370</t>
+  </si>
+  <si>
+    <t>SC60370(STC9D05C)-60370</t>
+  </si>
+  <si>
+    <t>STC9D06G</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>3100-3100</t>
+  </si>
+  <si>
+    <t>STC1898AJ</t>
+  </si>
+  <si>
+    <t>SC1133UA-BK</t>
+  </si>
+  <si>
+    <t>SC1133UA-CJ-00AK-1133</t>
+  </si>
+  <si>
+    <t>SC1845S1-BK</t>
+  </si>
+  <si>
+    <t>SC1845S1-AI-00AK-41F</t>
+  </si>
+  <si>
+    <t>SC2242UA-BK</t>
+  </si>
+  <si>
+    <t>SC2242UA-CE-00AK-2242</t>
+  </si>
+  <si>
+    <t>SC2432SO-N-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2432SO-N-Q-CI-10CR-2432</t>
+  </si>
+  <si>
+    <t>SC2432UA-CI-10AK-6232</t>
+  </si>
+  <si>
+    <t>SC2442UA-CP-10AK-U18</t>
+  </si>
+  <si>
+    <t>SC2443SO-H-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
+  </si>
+  <si>
+    <t>SC2448UA-N-Q-DB-60AK-2448</t>
+  </si>
+  <si>
+    <t>SC2527S6-SD-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2527S6-SD-Q-DA-40CR-2527</t>
+  </si>
+  <si>
+    <t>SC25791CUA-A</t>
+  </si>
+  <si>
+    <t>SC25791CUA-A(STC11210G-Q)-25791C</t>
+  </si>
+  <si>
+    <t>SC25891CUA-A</t>
+  </si>
+  <si>
+    <t>SC25891CUA-A-Q(STC11210G-Q)-25891C</t>
+  </si>
+  <si>
+    <t>SC4011DN</t>
+  </si>
+  <si>
+    <t>SC4011DN-4011</t>
+  </si>
+  <si>
+    <t>SC4616BU</t>
+  </si>
+  <si>
+    <t>SC4616BU-4616</t>
+  </si>
+  <si>
+    <t>SC4688DC-Q-DC-40AR-6388</t>
+  </si>
+  <si>
+    <t>SC69401DC-TR</t>
+  </si>
+  <si>
+    <t>SC69401DC-HD-4XCR-69401</t>
+  </si>
+  <si>
+    <t>SC69401HS-SPI-TR-Q</t>
+  </si>
+  <si>
+    <t>SC69401HS-SPI-Q-HD-4XTR-69401</t>
+  </si>
+  <si>
+    <t>SC69401HS-TR</t>
+  </si>
+  <si>
+    <t>SC69401HS-HD-4XTR-69401</t>
+  </si>
+  <si>
+    <t>SC9621VB-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9621VB-Q-CN-4XCR-9621</t>
+  </si>
+  <si>
+    <t>SC9625VB-TR</t>
+  </si>
+  <si>
+    <t>SC9625VB-CE-00CR-9625L</t>
+  </si>
+  <si>
+    <t>DFN1616-6L(.4)</t>
+  </si>
+  <si>
+    <t>QFN</t>
+  </si>
+  <si>
+    <t>南通优睿</t>
+  </si>
+  <si>
+    <t>SC60226SS-TB</t>
+  </si>
+  <si>
+    <t>NM.SC60226SS-DC-00CB</t>
+  </si>
+  <si>
+    <t>佛山蓝箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;佛山蓝箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海胜磁磁业有限公司</t>
+  </si>
+  <si>
+    <t>南通华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;南通华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4087,11 +4327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W211"/>
+  <dimension ref="A1:W244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4217,6 +4457,9 @@
       <c r="I2" t="s">
         <v>696</v>
       </c>
+      <c r="K2" t="s">
+        <v>706</v>
+      </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
@@ -4255,6 +4498,9 @@
       <c r="I3" t="s">
         <v>696</v>
       </c>
+      <c r="K3" t="s">
+        <v>706</v>
+      </c>
       <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
@@ -4293,6 +4539,9 @@
       <c r="I4" t="s">
         <v>696</v>
       </c>
+      <c r="K4" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="D5" t="s">
@@ -4316,6 +4565,9 @@
       <c r="J5" t="s">
         <v>42</v>
       </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
@@ -4348,6 +4600,9 @@
       <c r="J6" t="s">
         <v>41</v>
       </c>
+      <c r="K6" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
@@ -4377,6 +4632,9 @@
       <c r="I7" t="s">
         <v>693</v>
       </c>
+      <c r="K7" t="s">
+        <v>706</v>
+      </c>
       <c r="L7" t="s">
         <v>43</v>
       </c>
@@ -4415,6 +4673,9 @@
       <c r="I8" t="s">
         <v>697</v>
       </c>
+      <c r="K8" t="s">
+        <v>706</v>
+      </c>
       <c r="L8" t="s">
         <v>43</v>
       </c>
@@ -4462,6 +4723,9 @@
       <c r="I9" t="s">
         <v>693</v>
       </c>
+      <c r="K9" t="s">
+        <v>706</v>
+      </c>
       <c r="L9" t="s">
         <v>54</v>
       </c>
@@ -4503,6 +4767,9 @@
       <c r="J10" t="s">
         <v>67</v>
       </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="D11" t="s">
@@ -4526,6 +4793,9 @@
       <c r="J11" t="s">
         <v>68</v>
       </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -4555,6 +4825,9 @@
       <c r="I12" t="s">
         <v>693</v>
       </c>
+      <c r="K12" t="s">
+        <v>706</v>
+      </c>
       <c r="L12" t="s">
         <v>46</v>
       </c>
@@ -4593,6 +4866,9 @@
       <c r="I13" t="s">
         <v>693</v>
       </c>
+      <c r="K13" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="D14" t="s">
@@ -4616,6 +4892,9 @@
       <c r="J14" t="s">
         <v>83</v>
       </c>
+      <c r="K14" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
@@ -4645,6 +4924,9 @@
       <c r="I15" t="s">
         <v>693</v>
       </c>
+      <c r="K15" t="s">
+        <v>706</v>
+      </c>
       <c r="L15" t="s">
         <v>430</v>
       </c>
@@ -4701,6 +4983,9 @@
       <c r="I16" t="s">
         <v>701</v>
       </c>
+      <c r="K16" t="s">
+        <v>706</v>
+      </c>
       <c r="L16" t="s">
         <v>46</v>
       </c>
@@ -4757,6 +5042,9 @@
       <c r="I17" t="s">
         <v>693</v>
       </c>
+      <c r="K17" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -4786,6 +5074,9 @@
       <c r="I18" t="s">
         <v>693</v>
       </c>
+      <c r="K18" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -4807,16 +5098,19 @@
         <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>666</v>
+        <v>927</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>929</v>
       </c>
       <c r="I19" t="s">
         <v>693</v>
       </c>
       <c r="J19" t="s">
         <v>108</v>
+      </c>
+      <c r="K19" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4847,6 +5141,9 @@
       <c r="I20" t="s">
         <v>695</v>
       </c>
+      <c r="K20" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -4868,7 +5165,7 @@
         <v>755</v>
       </c>
       <c r="G21" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -4878,6 +5175,9 @@
       </c>
       <c r="J21" t="s">
         <v>756</v>
+      </c>
+      <c r="K21" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4908,6 +5208,9 @@
       <c r="I22" t="s">
         <v>702</v>
       </c>
+      <c r="K22" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -4932,10 +5235,13 @@
         <v>667</v>
       </c>
       <c r="H23" t="s">
-        <v>672</v>
+        <v>928</v>
       </c>
       <c r="I23" t="s">
         <v>693</v>
+      </c>
+      <c r="K23" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4958,7 +5264,7 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -4968,6 +5274,9 @@
       </c>
       <c r="J24" t="s">
         <v>129</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4998,6 +5307,9 @@
       <c r="I25" t="s">
         <v>704</v>
       </c>
+      <c r="K25" t="s">
+        <v>706</v>
+      </c>
       <c r="L25" t="s">
         <v>124</v>
       </c>
@@ -5039,6 +5351,9 @@
       <c r="J26" t="s">
         <v>138</v>
       </c>
+      <c r="K26" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
@@ -5068,6 +5383,9 @@
       <c r="I27" t="s">
         <v>700</v>
       </c>
+      <c r="K27" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -5100,6 +5418,9 @@
       <c r="J28" t="s">
         <v>142</v>
       </c>
+      <c r="K28" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
@@ -5132,6 +5453,9 @@
       <c r="J29" t="s">
         <v>142</v>
       </c>
+      <c r="K29" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -5164,6 +5488,9 @@
       <c r="J30" t="s">
         <v>142</v>
       </c>
+      <c r="K30" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="D31" t="s">
@@ -5187,6 +5514,9 @@
       <c r="J31" t="s">
         <v>142</v>
       </c>
+      <c r="K31" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
@@ -5216,6 +5546,9 @@
       <c r="I32" t="s">
         <v>705</v>
       </c>
+      <c r="K32" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
@@ -5245,6 +5578,9 @@
       <c r="I33" t="s">
         <v>696</v>
       </c>
+      <c r="K33" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
@@ -5274,6 +5610,9 @@
       <c r="I34" t="s">
         <v>696</v>
       </c>
+      <c r="K34" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
@@ -5295,7 +5634,7 @@
         <v>716</v>
       </c>
       <c r="G35" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -5305,6 +5644,9 @@
       </c>
       <c r="J35" t="s">
         <v>171</v>
+      </c>
+      <c r="K35" t="s">
+        <v>65</v>
       </c>
       <c r="L35" t="s">
         <v>165</v>
@@ -5344,6 +5686,9 @@
       <c r="I36" t="s">
         <v>699</v>
       </c>
+      <c r="K36" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="37" spans="1:17">
       <c r="D37" t="s">
@@ -5356,7 +5701,7 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -5366,6 +5711,9 @@
       </c>
       <c r="J37" t="s">
         <v>168</v>
+      </c>
+      <c r="K37" t="s">
+        <v>65</v>
       </c>
       <c r="L37" t="s">
         <v>165</v>
@@ -5406,7 +5754,7 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -5416,6 +5764,9 @@
       </c>
       <c r="J38" t="s">
         <v>179</v>
+      </c>
+      <c r="K38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5438,7 +5789,7 @@
         <v>717</v>
       </c>
       <c r="G39" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -5448,6 +5799,9 @@
       </c>
       <c r="J39" t="s">
         <v>183</v>
+      </c>
+      <c r="K39" t="s">
+        <v>65</v>
       </c>
       <c r="L39" t="s">
         <v>161</v>
@@ -5479,7 +5833,7 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -5489,6 +5843,9 @@
       </c>
       <c r="J40" t="s">
         <v>164</v>
+      </c>
+      <c r="K40" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5511,7 +5868,7 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -5521,6 +5878,9 @@
       </c>
       <c r="J41" t="s">
         <v>188</v>
+      </c>
+      <c r="K41" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5543,7 +5903,7 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -5553,6 +5913,9 @@
       </c>
       <c r="J42" t="s">
         <v>190</v>
+      </c>
+      <c r="K42" t="s">
+        <v>65</v>
       </c>
       <c r="L42" t="s">
         <v>165</v>
@@ -5593,7 +5956,7 @@
         <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>932</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -5603,6 +5966,9 @@
       </c>
       <c r="J43" t="s">
         <v>196</v>
+      </c>
+      <c r="K43" t="s">
+        <v>65</v>
       </c>
       <c r="L43" t="s">
         <v>165</v>
@@ -5625,7 +5991,7 @@
         <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H44" t="s">
         <v>66</v>
@@ -5635,6 +6001,9 @@
       </c>
       <c r="J44" t="s">
         <v>201</v>
+      </c>
+      <c r="K44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5648,7 +6017,7 @@
         <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -5658,6 +6027,9 @@
       </c>
       <c r="J45" t="s">
         <v>204</v>
+      </c>
+      <c r="K45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5688,6 +6060,9 @@
       <c r="I46" t="s">
         <v>703</v>
       </c>
+      <c r="K46" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
@@ -5717,6 +6092,9 @@
       <c r="I47" t="s">
         <v>697</v>
       </c>
+      <c r="K47" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="48" spans="1:17">
       <c r="D48" t="s">
@@ -5740,6 +6118,9 @@
       <c r="J48" t="s">
         <v>209</v>
       </c>
+      <c r="K48" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
@@ -5769,6 +6150,9 @@
       <c r="I49" t="s">
         <v>704</v>
       </c>
+      <c r="K49" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
@@ -5798,6 +6182,9 @@
       <c r="I50" t="s">
         <v>693</v>
       </c>
+      <c r="K50" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
@@ -5830,6 +6217,9 @@
       <c r="J51" t="s">
         <v>209</v>
       </c>
+      <c r="K51" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
@@ -5859,6 +6249,9 @@
       <c r="I52" t="s">
         <v>707</v>
       </c>
+      <c r="K52" t="s">
+        <v>706</v>
+      </c>
       <c r="L52" t="s">
         <v>220</v>
       </c>
@@ -5897,6 +6290,9 @@
       <c r="I53" t="s">
         <v>700</v>
       </c>
+      <c r="K53" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
@@ -5929,6 +6325,9 @@
       <c r="J54" t="s">
         <v>229</v>
       </c>
+      <c r="K54" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
@@ -5961,6 +6360,9 @@
       <c r="J55" t="s">
         <v>239</v>
       </c>
+      <c r="K55" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
@@ -5993,6 +6395,9 @@
       <c r="J56" t="s">
         <v>239</v>
       </c>
+      <c r="K56" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="D57" t="s">
@@ -6016,6 +6421,9 @@
       <c r="J57" t="s">
         <v>239</v>
       </c>
+      <c r="K57" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="D58" t="s">
@@ -6039,6 +6447,9 @@
       <c r="J58" t="s">
         <v>239</v>
       </c>
+      <c r="K58" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="D59" t="s">
@@ -6062,6 +6473,9 @@
       <c r="J59" t="s">
         <v>243</v>
       </c>
+      <c r="K59" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="D60" t="s">
@@ -6074,7 +6488,7 @@
         <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>665</v>
+        <v>926</v>
       </c>
       <c r="H60" t="s">
         <v>672</v>
@@ -6084,6 +6498,9 @@
       </c>
       <c r="J60" t="s">
         <v>246</v>
+      </c>
+      <c r="K60" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5">
@@ -6108,6 +6525,9 @@
       <c r="J61" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K61" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="16.5">
       <c r="D62" t="s">
@@ -6131,6 +6551,9 @@
       <c r="J62" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K62" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="16.5">
       <c r="D63" t="s">
@@ -6154,6 +6577,9 @@
       <c r="J63" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K63" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="16.5">
       <c r="D64" t="s">
@@ -6177,6 +6603,9 @@
       <c r="J64" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K64" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="65" spans="1:17" ht="16.5">
       <c r="D65" t="s">
@@ -6200,6 +6629,9 @@
       <c r="J65" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K65" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="66" spans="1:17" ht="16.5">
       <c r="D66" t="s">
@@ -6223,6 +6655,9 @@
       <c r="J66" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K66" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="67" spans="1:17" ht="16.5">
       <c r="D67" t="s">
@@ -6246,6 +6681,9 @@
       <c r="J67" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K67" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="68" spans="1:17" ht="16.5">
       <c r="D68" t="s">
@@ -6269,6 +6707,9 @@
       <c r="J68" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="K68" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="69" spans="1:17" ht="16.5">
       <c r="A69" t="s">
@@ -6299,6 +6740,9 @@
         <v>705</v>
       </c>
       <c r="J69" s="7"/>
+      <c r="K69" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="70" spans="1:17" ht="16.5">
       <c r="A70" t="s">
@@ -6331,6 +6775,9 @@
       <c r="J70" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="K70" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="71" spans="1:17" ht="16.5">
       <c r="A71" t="s">
@@ -6363,6 +6810,9 @@
       <c r="J71" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="K71" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="72" spans="1:17" ht="16.5">
       <c r="A72" t="s">
@@ -6395,6 +6845,9 @@
       <c r="J72" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="K72" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="73" spans="1:17" ht="16.5">
       <c r="A73" t="s">
@@ -6427,6 +6880,9 @@
       <c r="J73" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="K73" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="74" spans="1:17" ht="16.5">
       <c r="A74" t="s">
@@ -6459,6 +6915,9 @@
       <c r="J74" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="K74" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="75" spans="1:17" ht="16.5">
       <c r="A75" t="s">
@@ -6491,6 +6950,9 @@
       <c r="J75" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="K75" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="76" spans="1:17" ht="16.5">
       <c r="D76" t="s">
@@ -6514,6 +6976,9 @@
       <c r="J76" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="K76" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
@@ -6543,6 +7008,9 @@
       <c r="I77" t="s">
         <v>693</v>
       </c>
+      <c r="K77" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
@@ -6572,6 +7040,9 @@
       <c r="I78" t="s">
         <v>697</v>
       </c>
+      <c r="K78" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="79" spans="1:17">
       <c r="D79" t="s">
@@ -6592,6 +7063,9 @@
       <c r="I79" t="s">
         <v>693</v>
       </c>
+      <c r="K79" t="s">
+        <v>706</v>
+      </c>
       <c r="L79" t="s">
         <v>292</v>
       </c>
@@ -6639,6 +7113,9 @@
       <c r="I80" t="s">
         <v>693</v>
       </c>
+      <c r="K80" t="s">
+        <v>706</v>
+      </c>
       <c r="L80" t="s">
         <v>292</v>
       </c>
@@ -6677,6 +7154,9 @@
       <c r="I81" t="s">
         <v>700</v>
       </c>
+      <c r="K81" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
@@ -6709,6 +7189,9 @@
       <c r="J82" t="s">
         <v>303</v>
       </c>
+      <c r="K82" t="s">
+        <v>706</v>
+      </c>
       <c r="L82" t="s">
         <v>292</v>
       </c>
@@ -6747,6 +7230,9 @@
       <c r="I83" t="s">
         <v>696</v>
       </c>
+      <c r="K83" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
@@ -6776,6 +7262,9 @@
       <c r="I84" t="s">
         <v>696</v>
       </c>
+      <c r="K84" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
@@ -6805,6 +7294,9 @@
       <c r="I85" t="s">
         <v>696</v>
       </c>
+      <c r="K85" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
@@ -6834,6 +7326,9 @@
       <c r="I86" t="s">
         <v>693</v>
       </c>
+      <c r="K86" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
@@ -6863,6 +7358,9 @@
       <c r="I87" t="s">
         <v>693</v>
       </c>
+      <c r="K87" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
@@ -6892,6 +7390,9 @@
       <c r="I88" t="s">
         <v>693</v>
       </c>
+      <c r="K88" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
@@ -6921,6 +7422,9 @@
       <c r="I89" t="s">
         <v>700</v>
       </c>
+      <c r="K89" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
@@ -6950,6 +7454,9 @@
       <c r="I90" t="s">
         <v>693</v>
       </c>
+      <c r="K90" t="s">
+        <v>706</v>
+      </c>
       <c r="L90" t="s">
         <v>328</v>
       </c>
@@ -6991,6 +7498,9 @@
       <c r="J91" t="s">
         <v>370</v>
       </c>
+      <c r="K91" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
@@ -7020,6 +7530,9 @@
       <c r="I92" t="s">
         <v>693</v>
       </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
       <c r="L92" t="s">
         <v>328</v>
       </c>
@@ -7061,6 +7574,9 @@
       <c r="J93" t="s">
         <v>370</v>
       </c>
+      <c r="K93" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
@@ -7090,6 +7606,9 @@
       <c r="I94" t="s">
         <v>693</v>
       </c>
+      <c r="K94" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
@@ -7122,6 +7641,9 @@
       <c r="J95" t="s">
         <v>370</v>
       </c>
+      <c r="K95" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
@@ -7154,6 +7676,9 @@
       <c r="J96" t="s">
         <v>370</v>
       </c>
+      <c r="K96" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
@@ -7183,6 +7708,9 @@
       <c r="I97" t="s">
         <v>693</v>
       </c>
+      <c r="K97" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
@@ -7215,6 +7743,9 @@
       <c r="J98" t="s">
         <v>370</v>
       </c>
+      <c r="K98" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
@@ -7244,6 +7775,9 @@
       <c r="I99" t="s">
         <v>700</v>
       </c>
+      <c r="K99" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
@@ -7273,6 +7807,9 @@
       <c r="I100" t="s">
         <v>693</v>
       </c>
+      <c r="K100" t="s">
+        <v>706</v>
+      </c>
       <c r="L100" t="s">
         <v>371</v>
       </c>
@@ -7311,6 +7848,9 @@
       <c r="I101" t="s">
         <v>700</v>
       </c>
+      <c r="K101" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="D102" t="s">
@@ -7331,6 +7871,9 @@
       <c r="I102" t="s">
         <v>700</v>
       </c>
+      <c r="K102" t="s">
+        <v>706</v>
+      </c>
       <c r="L102" t="s">
         <v>371</v>
       </c>
@@ -7369,6 +7912,9 @@
       <c r="I103" t="s">
         <v>697</v>
       </c>
+      <c r="K103" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
@@ -7398,6 +7944,9 @@
       <c r="I104" t="s">
         <v>693</v>
       </c>
+      <c r="K104" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
@@ -7427,6 +7976,9 @@
       <c r="I105" t="s">
         <v>693</v>
       </c>
+      <c r="K105" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
@@ -7456,6 +8008,9 @@
       <c r="I106" t="s">
         <v>693</v>
       </c>
+      <c r="K106" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
@@ -7488,6 +8043,9 @@
       <c r="J107" t="s">
         <v>751</v>
       </c>
+      <c r="K107" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
@@ -7517,6 +8075,9 @@
       <c r="I108" t="s">
         <v>693</v>
       </c>
+      <c r="K108" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
@@ -7546,6 +8107,9 @@
       <c r="I109" t="s">
         <v>693</v>
       </c>
+      <c r="K109" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
@@ -7575,6 +8139,9 @@
       <c r="I110" t="s">
         <v>693</v>
       </c>
+      <c r="K110" t="s">
+        <v>706</v>
+      </c>
       <c r="L110" t="s">
         <v>328</v>
       </c>
@@ -7613,6 +8180,9 @@
       <c r="I111" t="s">
         <v>693</v>
       </c>
+      <c r="K111" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
@@ -7642,6 +8212,9 @@
       <c r="I112" t="s">
         <v>693</v>
       </c>
+      <c r="K112" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" t="s">
@@ -7671,6 +8244,9 @@
       <c r="I113" t="s">
         <v>695</v>
       </c>
+      <c r="K113" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" t="s">
@@ -7700,6 +8276,9 @@
       <c r="I114" t="s">
         <v>693</v>
       </c>
+      <c r="K114" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" t="s">
@@ -7729,6 +8308,9 @@
       <c r="I115" t="s">
         <v>693</v>
       </c>
+      <c r="K115" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
@@ -7758,6 +8340,9 @@
       <c r="I116" t="s">
         <v>702</v>
       </c>
+      <c r="K116" t="s">
+        <v>706</v>
+      </c>
       <c r="L116" t="s">
         <v>430</v>
       </c>
@@ -7805,6 +8390,9 @@
       <c r="I117" t="s">
         <v>693</v>
       </c>
+      <c r="K117" t="s">
+        <v>706</v>
+      </c>
       <c r="L117" t="s">
         <v>46</v>
       </c>
@@ -7835,7 +8423,7 @@
         <v>449</v>
       </c>
       <c r="G118" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H118" t="s">
         <v>66</v>
@@ -7845,6 +8433,9 @@
       </c>
       <c r="J118" t="s">
         <v>451</v>
+      </c>
+      <c r="K118" t="s">
+        <v>65</v>
       </c>
       <c r="L118" t="s">
         <v>445</v>
@@ -7893,6 +8484,9 @@
       <c r="I119" t="s">
         <v>710</v>
       </c>
+      <c r="K119" t="s">
+        <v>706</v>
+      </c>
       <c r="L119" t="s">
         <v>452</v>
       </c>
@@ -7922,6 +8516,9 @@
       <c r="I120" t="s">
         <v>710</v>
       </c>
+      <c r="K120" t="s">
+        <v>706</v>
+      </c>
       <c r="L120" t="s">
         <v>452</v>
       </c>
@@ -7963,6 +8560,9 @@
       <c r="J121" t="s">
         <v>462</v>
       </c>
+      <c r="K121" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" t="s">
@@ -7992,6 +8592,9 @@
       <c r="I122" t="s">
         <v>696</v>
       </c>
+      <c r="K122" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
@@ -8013,7 +8616,7 @@
         <v>472</v>
       </c>
       <c r="G123" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H123" t="s">
         <v>66</v>
@@ -8023,6 +8626,9 @@
       </c>
       <c r="J123" t="s">
         <v>474</v>
+      </c>
+      <c r="K123" t="s">
+        <v>65</v>
       </c>
       <c r="L123" t="s">
         <v>468</v>
@@ -8062,6 +8668,9 @@
       <c r="I124" t="s">
         <v>710</v>
       </c>
+      <c r="K124" t="s">
+        <v>706</v>
+      </c>
       <c r="L124" t="s">
         <v>475</v>
       </c>
@@ -8100,6 +8709,9 @@
       <c r="I125" t="s">
         <v>710</v>
       </c>
+      <c r="K125" t="s">
+        <v>706</v>
+      </c>
       <c r="L125" t="s">
         <v>475</v>
       </c>
@@ -8141,6 +8753,9 @@
       <c r="J126" t="s">
         <v>511</v>
       </c>
+      <c r="K126" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" t="s">
@@ -8173,6 +8788,9 @@
       <c r="J127" t="s">
         <v>511</v>
       </c>
+      <c r="K127" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128" t="s">
@@ -8205,6 +8823,9 @@
       <c r="J128" t="s">
         <v>511</v>
       </c>
+      <c r="K128" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
@@ -8237,6 +8858,9 @@
       <c r="J129" t="s">
         <v>511</v>
       </c>
+      <c r="K129" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
@@ -8266,6 +8890,9 @@
       <c r="I130" t="s">
         <v>696</v>
       </c>
+      <c r="K130" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
@@ -8298,6 +8925,9 @@
       <c r="J131" t="s">
         <v>511</v>
       </c>
+      <c r="K131" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
@@ -8327,6 +8957,9 @@
       <c r="I132" t="s">
         <v>696</v>
       </c>
+      <c r="K132" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
@@ -8348,16 +8981,19 @@
         <v>518</v>
       </c>
       <c r="G133" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H133" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I133" t="s">
         <v>711</v>
       </c>
       <c r="J133" t="s">
         <v>519</v>
+      </c>
+      <c r="K133" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8379,6 +9015,9 @@
       <c r="I134" t="s">
         <v>705</v>
       </c>
+      <c r="K134" t="s">
+        <v>706</v>
+      </c>
       <c r="L134" t="s">
         <v>514</v>
       </c>
@@ -8408,6 +9047,9 @@
       <c r="I135" t="s">
         <v>705</v>
       </c>
+      <c r="K135" t="s">
+        <v>706</v>
+      </c>
       <c r="L135" t="s">
         <v>514</v>
       </c>
@@ -8429,16 +9071,19 @@
         <v>679</v>
       </c>
       <c r="G136" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H136" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I136" t="s">
         <v>711</v>
       </c>
       <c r="J136" t="s">
         <v>678</v>
+      </c>
+      <c r="K136" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8461,16 +9106,19 @@
         <v>530</v>
       </c>
       <c r="G137" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I137" t="s">
         <v>711</v>
       </c>
       <c r="J137" t="s">
         <v>531</v>
+      </c>
+      <c r="K137" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8501,6 +9149,9 @@
       <c r="I138" t="s">
         <v>711</v>
       </c>
+      <c r="K138" t="s">
+        <v>706</v>
+      </c>
       <c r="L138" t="s">
         <v>532</v>
       </c>
@@ -8542,6 +9193,9 @@
       <c r="J139" t="s">
         <v>541</v>
       </c>
+      <c r="K139" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
@@ -8571,6 +9225,9 @@
       <c r="I140" t="s">
         <v>712</v>
       </c>
+      <c r="K140" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
@@ -8600,6 +9257,9 @@
       <c r="I141" t="s">
         <v>712</v>
       </c>
+      <c r="K141" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="D142" t="s">
@@ -8612,16 +9272,19 @@
         <v>799</v>
       </c>
       <c r="G142" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H142" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I142" t="s">
         <v>713</v>
       </c>
       <c r="J142" t="s">
         <v>549</v>
+      </c>
+      <c r="K142" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -8644,16 +9307,19 @@
         <v>553</v>
       </c>
       <c r="G143" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H143" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I143" t="s">
         <v>713</v>
       </c>
       <c r="J143" t="s">
         <v>549</v>
+      </c>
+      <c r="K143" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -8676,16 +9342,19 @@
         <v>558</v>
       </c>
       <c r="G144" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H144" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I144" t="s">
         <v>714</v>
       </c>
       <c r="J144" t="s">
         <v>556</v>
+      </c>
+      <c r="K144" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8708,16 +9377,19 @@
         <v>562</v>
       </c>
       <c r="G145" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H145" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I145" t="s">
         <v>714</v>
       </c>
       <c r="J145" t="s">
         <v>563</v>
+      </c>
+      <c r="K145" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -8731,16 +9403,19 @@
         <v>565</v>
       </c>
       <c r="G146" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H146" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I146" t="s">
         <v>714</v>
       </c>
       <c r="J146" t="s">
         <v>568</v>
+      </c>
+      <c r="K146" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -8754,16 +9429,19 @@
         <v>567</v>
       </c>
       <c r="G147" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H147" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I147" t="s">
         <v>714</v>
       </c>
       <c r="J147" t="s">
         <v>568</v>
+      </c>
+      <c r="K147" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -8786,16 +9464,19 @@
         <v>572</v>
       </c>
       <c r="G148" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H148" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I148" t="s">
         <v>714</v>
       </c>
       <c r="J148" t="s">
         <v>569</v>
+      </c>
+      <c r="K148" t="s">
+        <v>664</v>
       </c>
       <c r="L148" t="s">
         <v>532</v>
@@ -8835,6 +9516,9 @@
       <c r="I149" t="s">
         <v>696</v>
       </c>
+      <c r="K149" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" t="s">
@@ -8864,6 +9548,9 @@
       <c r="I150" t="s">
         <v>705</v>
       </c>
+      <c r="K150" t="s">
+        <v>706</v>
+      </c>
       <c r="L150" t="s">
         <v>744</v>
       </c>
@@ -8902,6 +9589,9 @@
       <c r="I151" t="s">
         <v>729</v>
       </c>
+      <c r="K151" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" t="s">
@@ -8931,6 +9621,9 @@
       <c r="I152" t="s">
         <v>729</v>
       </c>
+      <c r="K152" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" t="s">
@@ -8960,6 +9653,9 @@
       <c r="I153" t="s">
         <v>729</v>
       </c>
+      <c r="K153" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="154" spans="1:17">
       <c r="D154" t="s">
@@ -8983,6 +9679,9 @@
       <c r="J154" t="s">
         <v>609</v>
       </c>
+      <c r="K154" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="155" spans="1:17">
       <c r="A155" t="s">
@@ -9004,16 +9703,19 @@
         <v>613</v>
       </c>
       <c r="G155" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H155" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I155" t="s">
         <v>696</v>
       </c>
       <c r="J155" t="s">
         <v>614</v>
+      </c>
+      <c r="K155" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -9044,6 +9746,9 @@
       <c r="I156" t="s">
         <v>700</v>
       </c>
+      <c r="K156" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="157" spans="1:17">
       <c r="A157" t="s">
@@ -9073,6 +9778,9 @@
       <c r="I157" t="s">
         <v>693</v>
       </c>
+      <c r="K157" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" t="s">
@@ -9102,6 +9810,9 @@
       <c r="I158" t="s">
         <v>693</v>
       </c>
+      <c r="K158" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" t="s">
@@ -9131,6 +9842,9 @@
       <c r="I159" t="s">
         <v>693</v>
       </c>
+      <c r="K159" t="s">
+        <v>706</v>
+      </c>
       <c r="L159" t="s">
         <v>629</v>
       </c>
@@ -9172,6 +9886,9 @@
       <c r="J160" t="s">
         <v>636</v>
       </c>
+      <c r="K160" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="161" spans="1:17">
       <c r="D161" t="s">
@@ -9195,6 +9912,9 @@
       <c r="J161" t="s">
         <v>636</v>
       </c>
+      <c r="K161" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="162" spans="1:17" ht="16.5">
       <c r="D162" t="s">
@@ -9218,6 +9938,9 @@
       <c r="J162" s="7" t="s">
         <v>641</v>
       </c>
+      <c r="K162" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="163" spans="1:17" ht="16.5">
       <c r="D163" t="s">
@@ -9241,6 +9964,9 @@
       <c r="J163" s="7" t="s">
         <v>641</v>
       </c>
+      <c r="K163" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="164" spans="1:17">
       <c r="A164" t="s">
@@ -9273,6 +9999,9 @@
       <c r="J164" t="s">
         <v>636</v>
       </c>
+      <c r="K164" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="165" spans="1:17">
       <c r="D165" t="s">
@@ -9296,6 +10025,9 @@
       <c r="J165" t="s">
         <v>636</v>
       </c>
+      <c r="K165" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="166" spans="1:17">
       <c r="A166" t="s">
@@ -9325,6 +10057,9 @@
       <c r="I166" t="s">
         <v>693</v>
       </c>
+      <c r="K166" t="s">
+        <v>706</v>
+      </c>
       <c r="L166" t="s">
         <v>634</v>
       </c>
@@ -9363,6 +10098,9 @@
       <c r="I167" t="s">
         <v>710</v>
       </c>
+      <c r="K167" t="s">
+        <v>706</v>
+      </c>
       <c r="L167" t="s">
         <v>485</v>
       </c>
@@ -9401,6 +10139,9 @@
       <c r="I168" t="s">
         <v>710</v>
       </c>
+      <c r="K168" t="s">
+        <v>706</v>
+      </c>
       <c r="L168" t="s">
         <v>485</v>
       </c>
@@ -9439,6 +10180,9 @@
       <c r="I169" t="s">
         <v>710</v>
       </c>
+      <c r="K169" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="170" spans="1:17">
       <c r="A170" t="s">
@@ -9471,6 +10215,9 @@
       <c r="J170" t="s">
         <v>661</v>
       </c>
+      <c r="K170" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="171" spans="1:17">
       <c r="D171" t="s">
@@ -9483,16 +10230,19 @@
         <v>662</v>
       </c>
       <c r="G171" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H171" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I171" t="s">
         <v>696</v>
       </c>
       <c r="J171" t="s">
         <v>661</v>
+      </c>
+      <c r="K171" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -9506,16 +10256,19 @@
         <v>663</v>
       </c>
       <c r="G172" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H172" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I172" t="s">
         <v>696</v>
       </c>
       <c r="J172" t="s">
         <v>661</v>
+      </c>
+      <c r="K172" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="173" spans="1:17">
@@ -9537,6 +10290,9 @@
       <c r="I173" t="s">
         <v>706</v>
       </c>
+      <c r="K173" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="174" spans="1:17">
       <c r="A174" t="s">
@@ -9557,6 +10313,9 @@
       <c r="I174" t="s">
         <v>706</v>
       </c>
+      <c r="K174" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="175" spans="1:17">
       <c r="A175" t="s">
@@ -9574,6 +10333,9 @@
       <c r="H175" t="s">
         <v>691</v>
       </c>
+      <c r="K175" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="176" spans="1:17">
       <c r="D176" t="s">
@@ -9594,6 +10356,9 @@
       <c r="I176" t="s">
         <v>728</v>
       </c>
+      <c r="K176" t="s">
+        <v>706</v>
+      </c>
       <c r="L176" t="s">
         <v>328</v>
       </c>
@@ -9632,6 +10397,9 @@
       <c r="I177" t="s">
         <v>693</v>
       </c>
+      <c r="K177" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" t="s">
@@ -9661,6 +10429,9 @@
       <c r="I178" t="s">
         <v>693</v>
       </c>
+      <c r="K178" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" t="s">
@@ -9690,6 +10461,9 @@
       <c r="I179" t="s">
         <v>693</v>
       </c>
+      <c r="K179" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
@@ -9719,6 +10493,9 @@
       <c r="I180" t="s">
         <v>707</v>
       </c>
+      <c r="K180" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
@@ -9739,6 +10516,18 @@
       <c r="F181" t="s">
         <v>784</v>
       </c>
+      <c r="G181" t="s">
+        <v>790</v>
+      </c>
+      <c r="H181" t="s">
+        <v>672</v>
+      </c>
+      <c r="I181" t="s">
+        <v>693</v>
+      </c>
+      <c r="K181" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="D182" t="s">
@@ -9762,6 +10551,9 @@
       <c r="J182" t="s">
         <v>792</v>
       </c>
+      <c r="K182" t="s">
+        <v>790</v>
+      </c>
       <c r="L182" t="s">
         <v>786</v>
       </c>
@@ -9783,7 +10575,7 @@
         <v>795</v>
       </c>
       <c r="G183" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H183" t="s">
         <v>66</v>
@@ -9793,6 +10585,9 @@
       </c>
       <c r="J183" t="s">
         <v>798</v>
+      </c>
+      <c r="K183" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="16.5">
@@ -9806,7 +10601,7 @@
         <v>797</v>
       </c>
       <c r="G184" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="H184" t="s">
         <v>66</v>
@@ -9816,6 +10611,9 @@
       </c>
       <c r="J184" t="s">
         <v>798</v>
+      </c>
+      <c r="K184" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9849,6 +10647,9 @@
       <c r="J185" t="s">
         <v>805</v>
       </c>
+      <c r="K185" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="D186" t="s">
@@ -9869,6 +10670,9 @@
       <c r="I186" t="s">
         <v>710</v>
       </c>
+      <c r="K186" t="s">
+        <v>706</v>
+      </c>
       <c r="L186" t="s">
         <v>485</v>
       </c>
@@ -9907,6 +10711,9 @@
       <c r="I187" t="s">
         <v>705</v>
       </c>
+      <c r="K187" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" t="s">
@@ -9936,6 +10743,9 @@
       <c r="I188" t="s">
         <v>705</v>
       </c>
+      <c r="K188" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
@@ -9959,6 +10769,9 @@
       <c r="J189" t="s">
         <v>594</v>
       </c>
+      <c r="K189" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
@@ -9982,6 +10795,9 @@
       <c r="J190" t="s">
         <v>594</v>
       </c>
+      <c r="K190" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
@@ -10005,6 +10821,9 @@
       <c r="J191" t="s">
         <v>594</v>
       </c>
+      <c r="K191" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
@@ -10028,8 +10847,11 @@
       <c r="J192" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>577</v>
       </c>
@@ -10051,8 +10873,11 @@
       <c r="J193" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>577</v>
       </c>
@@ -10074,8 +10899,11 @@
       <c r="J194" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>577</v>
       </c>
@@ -10097,8 +10925,11 @@
       <c r="J195" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>577</v>
       </c>
@@ -10120,8 +10951,11 @@
       <c r="J196" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>577</v>
       </c>
@@ -10143,8 +10977,11 @@
       <c r="J197" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>577</v>
       </c>
@@ -10166,8 +11003,11 @@
       <c r="J198" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>577</v>
       </c>
@@ -10189,8 +11029,11 @@
       <c r="J199" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>577</v>
       </c>
@@ -10212,8 +11055,11 @@
       <c r="J200" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>577</v>
       </c>
@@ -10235,8 +11081,11 @@
       <c r="J201" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>577</v>
       </c>
@@ -10258,8 +11107,11 @@
       <c r="J202" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>577</v>
       </c>
@@ -10281,8 +11133,11 @@
       <c r="J203" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>577</v>
       </c>
@@ -10304,8 +11159,11 @@
       <c r="J204" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>577</v>
       </c>
@@ -10327,8 +11185,11 @@
       <c r="J205" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>577</v>
       </c>
@@ -10350,37 +11211,46 @@
       <c r="J206" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>577</v>
       </c>
       <c r="B207" t="s">
-        <v>582</v>
+        <v>873</v>
       </c>
       <c r="C207" t="s">
-        <v>583</v>
+        <v>874</v>
       </c>
       <c r="D207" t="s">
         <v>577</v>
       </c>
       <c r="E207" t="s">
-        <v>584</v>
+        <v>924</v>
       </c>
       <c r="F207" t="s">
-        <v>585</v>
+        <v>925</v>
       </c>
       <c r="G207" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H207" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I207" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+        <v>715</v>
+      </c>
+      <c r="J207" t="s">
+        <v>594</v>
+      </c>
+      <c r="K207" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>577</v>
       </c>
@@ -10388,7 +11258,7 @@
         <v>582</v>
       </c>
       <c r="C208" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D208" t="s">
         <v>577</v>
@@ -10397,7 +11267,7 @@
         <v>584</v>
       </c>
       <c r="F208" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G208" t="s">
         <v>666</v>
@@ -10408,16 +11278,28 @@
       <c r="I208" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B209" t="s">
+        <v>582</v>
+      </c>
+      <c r="C209" t="s">
+        <v>592</v>
+      </c>
       <c r="D209" t="s">
-        <v>124</v>
+        <v>577</v>
       </c>
       <c r="E209" t="s">
-        <v>844</v>
+        <v>584</v>
       </c>
       <c r="F209" t="s">
-        <v>845</v>
+        <v>593</v>
       </c>
       <c r="G209" t="s">
         <v>666</v>
@@ -10426,62 +11308,830 @@
         <v>66</v>
       </c>
       <c r="I209" t="s">
+        <v>705</v>
+      </c>
+      <c r="K209" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="D210" t="s">
+        <v>124</v>
+      </c>
+      <c r="E210" t="s">
+        <v>844</v>
+      </c>
+      <c r="F210" t="s">
+        <v>845</v>
+      </c>
+      <c r="G210" t="s">
+        <v>666</v>
+      </c>
+      <c r="H210" t="s">
+        <v>66</v>
+      </c>
+      <c r="I210" t="s">
         <v>697</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J210" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" t="s">
+      <c r="K210" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" t="s">
         <v>595</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>846</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>847</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G211" t="s">
         <v>806</v>
       </c>
-      <c r="H210" t="s">
+      <c r="H211" t="s">
         <v>808</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I211" t="s">
         <v>705</v>
       </c>
-      <c r="J210" t="s">
+      <c r="J211" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" t="s">
+      <c r="K211" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" t="s">
         <v>849</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>850</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>851</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>744</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E212" t="s">
         <v>850</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F212" t="s">
         <v>852</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G212" t="s">
         <v>854</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H212" t="s">
         <v>672</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I212" t="s">
         <v>853</v>
+      </c>
+      <c r="K212" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="D213" t="s">
+        <v>248</v>
+      </c>
+      <c r="E213" t="s">
+        <v>251</v>
+      </c>
+      <c r="F213" t="s">
+        <v>855</v>
+      </c>
+      <c r="G213" t="s">
+        <v>667</v>
+      </c>
+      <c r="H213" t="s">
+        <v>672</v>
+      </c>
+      <c r="I213" t="s">
+        <v>693</v>
+      </c>
+      <c r="K213" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
+        <v>766</v>
+      </c>
+      <c r="B214" t="s">
+        <v>856</v>
+      </c>
+      <c r="C214" t="s">
+        <v>857</v>
+      </c>
+      <c r="G214" t="s">
+        <v>771</v>
+      </c>
+      <c r="H214" t="s">
+        <v>672</v>
+      </c>
+      <c r="I214" t="s">
+        <v>858</v>
+      </c>
+      <c r="K214" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" t="s">
+        <v>634</v>
+      </c>
+      <c r="B215" t="s">
+        <v>859</v>
+      </c>
+      <c r="C215" t="s">
+        <v>860</v>
+      </c>
+      <c r="G215" t="s">
+        <v>771</v>
+      </c>
+      <c r="H215" t="s">
+        <v>672</v>
+      </c>
+      <c r="I215" t="s">
+        <v>921</v>
+      </c>
+      <c r="K215" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="D216" t="s">
+        <v>861</v>
+      </c>
+      <c r="E216" t="s">
+        <v>862</v>
+      </c>
+      <c r="F216" t="s">
+        <v>863</v>
+      </c>
+      <c r="G216" t="s">
+        <v>666</v>
+      </c>
+      <c r="H216" t="s">
+        <v>66</v>
+      </c>
+      <c r="I216" t="s">
+        <v>693</v>
+      </c>
+      <c r="K216" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="D217" t="s">
+        <v>864</v>
+      </c>
+      <c r="E217" t="s">
+        <v>865</v>
+      </c>
+      <c r="F217" t="s">
+        <v>866</v>
+      </c>
+      <c r="G217" t="s">
+        <v>666</v>
+      </c>
+      <c r="H217" t="s">
+        <v>66</v>
+      </c>
+      <c r="I217" t="s">
+        <v>696</v>
+      </c>
+      <c r="K217" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="D218" t="s">
+        <v>867</v>
+      </c>
+      <c r="E218" t="s">
+        <v>868</v>
+      </c>
+      <c r="F218" t="s">
+        <v>869</v>
+      </c>
+      <c r="G218" t="s">
+        <v>666</v>
+      </c>
+      <c r="H218" t="s">
+        <v>66</v>
+      </c>
+      <c r="I218" t="s">
+        <v>700</v>
+      </c>
+      <c r="K218" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" t="s">
+        <v>310</v>
+      </c>
+      <c r="B219" t="s">
+        <v>311</v>
+      </c>
+      <c r="C219" t="s">
+        <v>870</v>
+      </c>
+      <c r="G219" t="s">
+        <v>664</v>
+      </c>
+      <c r="H219" t="s">
+        <v>807</v>
+      </c>
+      <c r="I219" t="s">
+        <v>696</v>
+      </c>
+      <c r="K219" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="D220" t="s">
+        <v>475</v>
+      </c>
+      <c r="E220" t="s">
+        <v>478</v>
+      </c>
+      <c r="F220" t="s">
+        <v>871</v>
+      </c>
+      <c r="G220" t="s">
+        <v>665</v>
+      </c>
+      <c r="H220" t="s">
+        <v>672</v>
+      </c>
+      <c r="I220" t="s">
+        <v>710</v>
+      </c>
+      <c r="K220" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="D221" t="s">
+        <v>468</v>
+      </c>
+      <c r="E221" t="s">
+        <v>471</v>
+      </c>
+      <c r="F221" t="s">
+        <v>872</v>
+      </c>
+      <c r="G221" t="s">
+        <v>666</v>
+      </c>
+      <c r="H221" t="s">
+        <v>66</v>
+      </c>
+      <c r="I221" t="s">
+        <v>710</v>
+      </c>
+      <c r="K221" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" t="s">
+        <v>875</v>
+      </c>
+      <c r="B222" t="s">
+        <v>876</v>
+      </c>
+      <c r="C222" t="s">
+        <v>877</v>
+      </c>
+      <c r="G222" t="s">
+        <v>666</v>
+      </c>
+      <c r="H222" t="s">
+        <v>66</v>
+      </c>
+      <c r="I222" t="s">
+        <v>715</v>
+      </c>
+      <c r="K222" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" t="s">
+        <v>878</v>
+      </c>
+      <c r="B223" t="s">
+        <v>879</v>
+      </c>
+      <c r="C223" t="s">
+        <v>880</v>
+      </c>
+      <c r="G223" t="s">
+        <v>666</v>
+      </c>
+      <c r="H223" t="s">
+        <v>66</v>
+      </c>
+      <c r="I223" t="s">
+        <v>922</v>
+      </c>
+      <c r="K223" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" t="s">
+        <v>881</v>
+      </c>
+      <c r="B224" t="s">
+        <v>882</v>
+      </c>
+      <c r="C224" t="s">
+        <v>883</v>
+      </c>
+      <c r="G224" t="s">
+        <v>664</v>
+      </c>
+      <c r="H224" t="s">
+        <v>807</v>
+      </c>
+      <c r="I224" t="s">
+        <v>714</v>
+      </c>
+      <c r="K224" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="D225" t="s">
+        <v>884</v>
+      </c>
+      <c r="E225" t="s">
+        <v>885</v>
+      </c>
+      <c r="F225" t="s">
+        <v>886</v>
+      </c>
+      <c r="G225" t="s">
+        <v>666</v>
+      </c>
+      <c r="H225" t="s">
+        <v>66</v>
+      </c>
+      <c r="I225" t="s">
+        <v>702</v>
+      </c>
+      <c r="K225" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="D226" t="s">
+        <v>161</v>
+      </c>
+      <c r="E226" t="s">
+        <v>887</v>
+      </c>
+      <c r="F226" t="s">
+        <v>888</v>
+      </c>
+      <c r="G226" t="s">
+        <v>666</v>
+      </c>
+      <c r="H226" t="s">
+        <v>66</v>
+      </c>
+      <c r="I226" t="s">
+        <v>697</v>
+      </c>
+      <c r="K226" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="D227" t="s">
+        <v>282</v>
+      </c>
+      <c r="E227" t="s">
+        <v>889</v>
+      </c>
+      <c r="F227" t="s">
+        <v>890</v>
+      </c>
+      <c r="G227" t="s">
+        <v>666</v>
+      </c>
+      <c r="H227" t="s">
+        <v>66</v>
+      </c>
+      <c r="I227" t="s">
+        <v>693</v>
+      </c>
+      <c r="K227" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="D228" t="s">
+        <v>328</v>
+      </c>
+      <c r="E228" t="s">
+        <v>891</v>
+      </c>
+      <c r="F228" t="s">
+        <v>892</v>
+      </c>
+      <c r="G228" t="s">
+        <v>664</v>
+      </c>
+      <c r="H228" t="s">
+        <v>807</v>
+      </c>
+      <c r="I228" t="s">
+        <v>693</v>
+      </c>
+      <c r="K228" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="D229" t="s">
+        <v>328</v>
+      </c>
+      <c r="E229" t="s">
+        <v>345</v>
+      </c>
+      <c r="F229" t="s">
+        <v>893</v>
+      </c>
+      <c r="G229" t="s">
+        <v>666</v>
+      </c>
+      <c r="H229" t="s">
+        <v>66</v>
+      </c>
+      <c r="I229" t="s">
+        <v>693</v>
+      </c>
+      <c r="K229" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="D230" t="s">
+        <v>415</v>
+      </c>
+      <c r="E230" t="s">
+        <v>423</v>
+      </c>
+      <c r="F230" t="s">
+        <v>894</v>
+      </c>
+      <c r="G230" t="s">
+        <v>666</v>
+      </c>
+      <c r="H230" t="s">
+        <v>66</v>
+      </c>
+      <c r="I230" t="s">
+        <v>693</v>
+      </c>
+      <c r="K230" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="D231" t="s">
+        <v>46</v>
+      </c>
+      <c r="E231" t="s">
+        <v>895</v>
+      </c>
+      <c r="F231" t="s">
+        <v>896</v>
+      </c>
+      <c r="G231" t="s">
+        <v>664</v>
+      </c>
+      <c r="H231" t="s">
+        <v>807</v>
+      </c>
+      <c r="I231" t="s">
+        <v>702</v>
+      </c>
+      <c r="K231" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="D232" t="s">
+        <v>46</v>
+      </c>
+      <c r="E232" t="s">
+        <v>897</v>
+      </c>
+      <c r="F232" t="s">
+        <v>898</v>
+      </c>
+      <c r="G232" t="s">
+        <v>664</v>
+      </c>
+      <c r="H232" t="s">
+        <v>807</v>
+      </c>
+      <c r="I232" t="s">
+        <v>693</v>
+      </c>
+      <c r="K232" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="D233" t="s">
+        <v>46</v>
+      </c>
+      <c r="E233" t="s">
+        <v>436</v>
+      </c>
+      <c r="F233" t="s">
+        <v>899</v>
+      </c>
+      <c r="G233" t="s">
+        <v>666</v>
+      </c>
+      <c r="H233" t="s">
+        <v>66</v>
+      </c>
+      <c r="I233" t="s">
+        <v>697</v>
+      </c>
+      <c r="K233" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="D234" t="s">
+        <v>864</v>
+      </c>
+      <c r="E234" t="s">
+        <v>900</v>
+      </c>
+      <c r="F234" t="s">
+        <v>901</v>
+      </c>
+      <c r="G234" t="s">
+        <v>923</v>
+      </c>
+      <c r="H234" t="s">
+        <v>672</v>
+      </c>
+      <c r="I234" t="s">
+        <v>791</v>
+      </c>
+      <c r="K234" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="D235" t="s">
+        <v>738</v>
+      </c>
+      <c r="E235" t="s">
+        <v>902</v>
+      </c>
+      <c r="F235" t="s">
+        <v>903</v>
+      </c>
+      <c r="G235" t="s">
+        <v>664</v>
+      </c>
+      <c r="H235" t="s">
+        <v>807</v>
+      </c>
+      <c r="I235" t="s">
+        <v>702</v>
+      </c>
+      <c r="K235" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="D236" t="s">
+        <v>738</v>
+      </c>
+      <c r="E236" t="s">
+        <v>904</v>
+      </c>
+      <c r="F236" t="s">
+        <v>905</v>
+      </c>
+      <c r="G236" t="s">
+        <v>664</v>
+      </c>
+      <c r="H236" t="s">
+        <v>807</v>
+      </c>
+      <c r="I236" t="s">
+        <v>702</v>
+      </c>
+      <c r="K236" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" t="s">
+        <v>906</v>
+      </c>
+      <c r="C237" t="s">
+        <v>907</v>
+      </c>
+      <c r="G237" t="s">
+        <v>771</v>
+      </c>
+      <c r="H237" t="s">
+        <v>672</v>
+      </c>
+      <c r="I237" t="s">
+        <v>921</v>
+      </c>
+      <c r="K237" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" t="s">
+        <v>793</v>
+      </c>
+      <c r="B238" t="s">
+        <v>908</v>
+      </c>
+      <c r="C238" t="s">
+        <v>909</v>
+      </c>
+      <c r="G238" t="s">
+        <v>664</v>
+      </c>
+      <c r="H238" t="s">
+        <v>807</v>
+      </c>
+      <c r="I238" t="s">
+        <v>704</v>
+      </c>
+      <c r="K238" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="D239" t="s">
+        <v>514</v>
+      </c>
+      <c r="E239" t="s">
+        <v>522</v>
+      </c>
+      <c r="F239" t="s">
+        <v>910</v>
+      </c>
+      <c r="G239" t="s">
+        <v>666</v>
+      </c>
+      <c r="H239" t="s">
+        <v>66</v>
+      </c>
+      <c r="I239" t="s">
+        <v>705</v>
+      </c>
+      <c r="K239" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="D240" t="s">
+        <v>744</v>
+      </c>
+      <c r="E240" t="s">
+        <v>911</v>
+      </c>
+      <c r="F240" t="s">
+        <v>912</v>
+      </c>
+      <c r="G240" t="s">
+        <v>664</v>
+      </c>
+      <c r="H240" t="s">
+        <v>807</v>
+      </c>
+      <c r="I240" t="s">
+        <v>705</v>
+      </c>
+      <c r="K240" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="241" spans="4:11">
+      <c r="D241" t="s">
+        <v>744</v>
+      </c>
+      <c r="E241" t="s">
+        <v>913</v>
+      </c>
+      <c r="F241" t="s">
+        <v>914</v>
+      </c>
+      <c r="G241" t="s">
+        <v>854</v>
+      </c>
+      <c r="H241" t="s">
+        <v>672</v>
+      </c>
+      <c r="I241" t="s">
+        <v>705</v>
+      </c>
+      <c r="K241" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="242" spans="4:11">
+      <c r="D242" t="s">
+        <v>744</v>
+      </c>
+      <c r="E242" t="s">
+        <v>915</v>
+      </c>
+      <c r="F242" t="s">
+        <v>916</v>
+      </c>
+      <c r="G242" t="s">
+        <v>664</v>
+      </c>
+      <c r="H242" t="s">
+        <v>807</v>
+      </c>
+      <c r="I242" t="s">
+        <v>705</v>
+      </c>
+      <c r="K242" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="243" spans="4:11">
+      <c r="D243" t="s">
+        <v>810</v>
+      </c>
+      <c r="E243" t="s">
+        <v>917</v>
+      </c>
+      <c r="F243" t="s">
+        <v>918</v>
+      </c>
+      <c r="G243" t="s">
+        <v>664</v>
+      </c>
+      <c r="H243" t="s">
+        <v>807</v>
+      </c>
+      <c r="I243" t="s">
+        <v>696</v>
+      </c>
+      <c r="K243" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="244" spans="4:11">
+      <c r="D244" t="s">
+        <v>463</v>
+      </c>
+      <c r="E244" t="s">
+        <v>919</v>
+      </c>
+      <c r="F244" t="s">
+        <v>920</v>
+      </c>
+      <c r="G244" t="s">
+        <v>664</v>
+      </c>
+      <c r="H244" t="s">
+        <v>807</v>
+      </c>
+      <c r="I244" t="s">
+        <v>696</v>
+      </c>
+      <c r="K244" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -10494,11 +12144,11 @@
     <cfRule type="duplicateValues" dxfId="95" priority="244"/>
     <cfRule type="duplicateValues" dxfId="94" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4 C6:C50 C52:C1048576">
+  <conditionalFormatting sqref="C1:C4 C6:C50 C52:C236 C239:C1048576">
     <cfRule type="duplicateValues" dxfId="93" priority="48"/>
     <cfRule type="duplicateValues" dxfId="92" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C50 C52:C1048576">
+  <conditionalFormatting sqref="C1:C50 C52:C236 C239:C1048576">
     <cfRule type="duplicateValues" dxfId="91" priority="16"/>
     <cfRule type="duplicateValues" dxfId="90" priority="29"/>
   </conditionalFormatting>
@@ -10535,10 +12185,10 @@
     <cfRule type="duplicateValues" dxfId="66" priority="248"/>
     <cfRule type="duplicateValues" dxfId="65" priority="249"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F4 F6:F1048576">
+  <conditionalFormatting sqref="F1:F4 F6:F236 F239:F1048576 C237:C238">
     <cfRule type="duplicateValues" dxfId="64" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F236 F239:F1048576 C237:C238">
     <cfRule type="duplicateValues" dxfId="63" priority="15"/>
     <cfRule type="duplicateValues" dxfId="62" priority="28"/>
     <cfRule type="duplicateValues" dxfId="61" priority="30"/>
@@ -10550,49 +12200,49 @@
     <cfRule type="duplicateValues" dxfId="57" priority="214"/>
     <cfRule type="duplicateValues" dxfId="56" priority="215"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1 F4 F6:F76">
+  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F236 F239:F1048576 C237:C238 F1 F4 F6:F76">
     <cfRule type="duplicateValues" dxfId="55" priority="219"/>
     <cfRule type="duplicateValues" dxfId="54" priority="226"/>
     <cfRule type="duplicateValues" dxfId="53" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1:F4 F6:F76">
+  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F236 F239:F1048576 C237:C238 F1:F4 F6:F76">
     <cfRule type="duplicateValues" dxfId="52" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F113 F1:F4 F115:F1048576 F6:F96">
+  <conditionalFormatting sqref="F98:F113 F1:F4 F115:F236 F239:F1048576 C237:C238 F6:F96">
     <cfRule type="duplicateValues" dxfId="51" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
     <cfRule type="duplicateValues" dxfId="50" priority="236"/>
     <cfRule type="duplicateValues" dxfId="49" priority="237"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J164:J1048576 J1:J76 J79:J161">
-    <cfRule type="duplicateValues" dxfId="48" priority="198"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="47" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="44" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J76">
-    <cfRule type="duplicateValues" dxfId="41" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77:J78 C79:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
-    <cfRule type="duplicateValues" dxfId="38" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="229"/>
+  <conditionalFormatting sqref="J77:J78 C79:C236 C239:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
+    <cfRule type="duplicateValues" dxfId="39" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162:J163">
-    <cfRule type="duplicateValues" dxfId="34" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J76 J79:J161 J164:J1048576">
+    <cfRule type="duplicateValues" dxfId="32" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="duplicateValues" dxfId="31" priority="241"/>
@@ -10643,5 +12293,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E99B5-B3AB-45DB-ADE1-80F98777F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17625C3-2535-467A-9FB9-5EF672E3B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="934">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2888,6 +2888,9 @@
   <si>
     <t>浙江赛扬&amp;南通华达</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1645A1-4601H</t>
   </si>
 </sst>
 </file>
@@ -3060,7 +3063,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4330,8 +4353,8 @@
   <dimension ref="A1:W244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5550,7 +5573,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5582,7 +5605,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5614,7 +5637,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -5658,7 +5681,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -5690,7 +5713,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:20" ht="16.5">
       <c r="D37" t="s">
         <v>161</v>
       </c>
@@ -5733,8 +5756,17 @@
       <c r="Q37" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -5769,7 +5801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -5813,7 +5845,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -5848,7 +5880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -5883,7 +5915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -5936,7 +5968,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -5980,7 +6012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:20">
       <c r="D44" t="s">
         <v>198</v>
       </c>
@@ -6006,7 +6038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:20">
       <c r="D45" t="s">
         <v>198</v>
       </c>
@@ -6032,7 +6064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -6064,7 +6096,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -6096,7 +6128,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:20">
       <c r="D48" t="s">
         <v>207</v>
       </c>
@@ -12138,159 +12170,163 @@
   <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="98" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C4 C6:C50 C52:C236 C239:C1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C50 C52:C236 C239:C1048576">
-    <cfRule type="duplicateValues" dxfId="91" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="89" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="70" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="69" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="251"/>
     <cfRule type="duplicateValues" dxfId="68" priority="245"/>
     <cfRule type="duplicateValues" dxfId="67" priority="247"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="248"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4 F6:F236 F239:F1048576 C237:C238">
-    <cfRule type="duplicateValues" dxfId="64" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F236 F239:F1048576 C237:C238">
-    <cfRule type="duplicateValues" dxfId="63" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="58" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F236 F239:F1048576 C237:C238 F1 F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="55" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F236 F239:F1048576 C237:C238 F1:F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="52" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:F113 F1:F4 F115:F236 F239:F1048576 C237:C238 F6:F96">
-    <cfRule type="duplicateValues" dxfId="51" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="50" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J76 J79:J161 J164:J1048576">
+    <cfRule type="duplicateValues" dxfId="50" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="48" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="45" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J76">
-    <cfRule type="duplicateValues" dxfId="42" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J78 C79:C236 C239:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
-    <cfRule type="duplicateValues" dxfId="39" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162:J163">
-    <cfRule type="duplicateValues" dxfId="35" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J76 J79:J161 J164:J1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="31" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="30" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="27" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="24" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="17" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N124">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="4" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q167">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17625C3-2535-467A-9FB9-5EF672E3B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD083723-7D08-4D7C-BE99-AA58819418FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="843">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2611,286 +2611,6 @@
   </si>
   <si>
     <t>SC60221-D-360</t>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-9999-41CPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1134S1-BK</t>
-  </si>
-  <si>
-    <t>SC1134S1-CI-00AK-43F</t>
-  </si>
-  <si>
-    <t>SC724SP30B5</t>
-  </si>
-  <si>
-    <t>SC4624SP30B5-SC724</t>
-  </si>
-  <si>
-    <t>NF.SC4624SP30B5-SC724</t>
-  </si>
-  <si>
-    <t>STC9H002D</t>
-  </si>
-  <si>
-    <t>SC69401D</t>
-  </si>
-  <si>
-    <t>SC69401D(STC9H002D)-69401</t>
-  </si>
-  <si>
-    <t>SC69401D(STC9H002DQ)-69401</t>
-  </si>
-  <si>
-    <t>eTSSOP16</t>
-  </si>
-  <si>
-    <t>天水华天</t>
-  </si>
-  <si>
-    <t>SC4015SO-N-CE-90NR-NM</t>
-  </si>
-  <si>
-    <t>SC4101DN</t>
-  </si>
-  <si>
-    <t>SC4101DN(STC11201B)-4101</t>
-  </si>
-  <si>
-    <t>DFN1616-6L(.5)</t>
-  </si>
-  <si>
-    <t>SC2402DN</t>
-  </si>
-  <si>
-    <t>SC2402DN-2402</t>
-  </si>
-  <si>
-    <t>STC11102C</t>
-  </si>
-  <si>
-    <t>SC2968S1-N-BK</t>
-  </si>
-  <si>
-    <t>SC2968S1-N-DC-4XAK-S21C</t>
-  </si>
-  <si>
-    <t>STC11131A</t>
-  </si>
-  <si>
-    <t>SC2526VB-SD-BK</t>
-  </si>
-  <si>
-    <t>SC2526VB-SD-DA-00AK-2526</t>
-  </si>
-  <si>
-    <t>STC9913D</t>
-  </si>
-  <si>
-    <t>SC1919UA-BK</t>
-  </si>
-  <si>
-    <t>SC1919UA-CD-90AK-919H</t>
-  </si>
-  <si>
-    <t>NM.SC9633VB</t>
-  </si>
-  <si>
-    <t>SC9642TS-E362-Q-AH-4XLR-9642</t>
-  </si>
-  <si>
-    <t>SC9642TS-Q-AG-4XHK-9642</t>
-  </si>
-  <si>
-    <t>SC60226</t>
-  </si>
-  <si>
-    <t>NM.SC60226</t>
-  </si>
-  <si>
-    <t>STC9D02C</t>
-  </si>
-  <si>
-    <t>SC60104</t>
-  </si>
-  <si>
-    <t>NM.SC60104</t>
-  </si>
-  <si>
-    <t>STC9D05B</t>
-  </si>
-  <si>
-    <t>SC60370</t>
-  </si>
-  <si>
-    <t>SC60370(STC9D05C)-60370</t>
-  </si>
-  <si>
-    <t>STC9D06G</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>3100-3100</t>
-  </si>
-  <si>
-    <t>STC1898AJ</t>
-  </si>
-  <si>
-    <t>SC1133UA-BK</t>
-  </si>
-  <si>
-    <t>SC1133UA-CJ-00AK-1133</t>
-  </si>
-  <si>
-    <t>SC1845S1-BK</t>
-  </si>
-  <si>
-    <t>SC1845S1-AI-00AK-41F</t>
-  </si>
-  <si>
-    <t>SC2242UA-BK</t>
-  </si>
-  <si>
-    <t>SC2242UA-CE-00AK-2242</t>
-  </si>
-  <si>
-    <t>SC2432SO-N-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2432SO-N-Q-CI-10CR-2432</t>
-  </si>
-  <si>
-    <t>SC2432UA-CI-10AK-6232</t>
-  </si>
-  <si>
-    <t>SC2442UA-CP-10AK-U18</t>
-  </si>
-  <si>
-    <t>SC2443SO-H-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
-  </si>
-  <si>
-    <t>SC2448SO-H-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
-  </si>
-  <si>
-    <t>SC2448UA-N-Q-DB-60AK-2448</t>
-  </si>
-  <si>
-    <t>SC2527S6-SD-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2527S6-SD-Q-DA-40CR-2527</t>
-  </si>
-  <si>
-    <t>SC25791CUA-A</t>
-  </si>
-  <si>
-    <t>SC25791CUA-A(STC11210G-Q)-25791C</t>
-  </si>
-  <si>
-    <t>SC25891CUA-A</t>
-  </si>
-  <si>
-    <t>SC25891CUA-A-Q(STC11210G-Q)-25891C</t>
-  </si>
-  <si>
-    <t>SC4011DN</t>
-  </si>
-  <si>
-    <t>SC4011DN-4011</t>
-  </si>
-  <si>
-    <t>SC4616BU</t>
-  </si>
-  <si>
-    <t>SC4616BU-4616</t>
-  </si>
-  <si>
-    <t>SC4688DC-Q-DC-40AR-6388</t>
-  </si>
-  <si>
-    <t>SC69401DC-TR</t>
-  </si>
-  <si>
-    <t>SC69401DC-HD-4XCR-69401</t>
-  </si>
-  <si>
-    <t>SC69401HS-SPI-TR-Q</t>
-  </si>
-  <si>
-    <t>SC69401HS-SPI-Q-HD-4XTR-69401</t>
-  </si>
-  <si>
-    <t>SC69401HS-TR</t>
-  </si>
-  <si>
-    <t>SC69401HS-HD-4XTR-69401</t>
-  </si>
-  <si>
-    <t>SC9621VB-TR-Q</t>
-  </si>
-  <si>
-    <t>SC9621VB-Q-CN-4XCR-9621</t>
-  </si>
-  <si>
-    <t>SC9625VB-TR</t>
-  </si>
-  <si>
-    <t>SC9625VB-CE-00CR-9625L</t>
-  </si>
-  <si>
-    <t>DFN1616-6L(.4)</t>
-  </si>
-  <si>
-    <t>QFN</t>
-  </si>
-  <si>
-    <t>南通优睿</t>
-  </si>
-  <si>
-    <t>SC60226SS-TB</t>
-  </si>
-  <si>
-    <t>NM.SC60226SS-DC-00CB</t>
-  </si>
-  <si>
-    <t>佛山蓝箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;佛山蓝箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海胜磁磁业有限公司</t>
-  </si>
-  <si>
-    <t>南通华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;南通华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1645A1-4601H</t>
   </si>
 </sst>
 </file>
@@ -3024,7 +2744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3053,57 +2773,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="97">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4350,11 +4024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W244"/>
+  <dimension ref="A1:W209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4480,9 +4154,6 @@
       <c r="I2" t="s">
         <v>696</v>
       </c>
-      <c r="K2" t="s">
-        <v>706</v>
-      </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
@@ -4521,9 +4192,6 @@
       <c r="I3" t="s">
         <v>696</v>
       </c>
-      <c r="K3" t="s">
-        <v>706</v>
-      </c>
       <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
@@ -4562,9 +4230,6 @@
       <c r="I4" t="s">
         <v>696</v>
       </c>
-      <c r="K4" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="D5" t="s">
@@ -4588,9 +4253,6 @@
       <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
@@ -4623,9 +4285,6 @@
       <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
@@ -4655,9 +4314,6 @@
       <c r="I7" t="s">
         <v>693</v>
       </c>
-      <c r="K7" t="s">
-        <v>706</v>
-      </c>
       <c r="L7" t="s">
         <v>43</v>
       </c>
@@ -4696,9 +4352,6 @@
       <c r="I8" t="s">
         <v>697</v>
       </c>
-      <c r="K8" t="s">
-        <v>706</v>
-      </c>
       <c r="L8" t="s">
         <v>43</v>
       </c>
@@ -4746,9 +4399,6 @@
       <c r="I9" t="s">
         <v>693</v>
       </c>
-      <c r="K9" t="s">
-        <v>706</v>
-      </c>
       <c r="L9" t="s">
         <v>54</v>
       </c>
@@ -4790,9 +4440,6 @@
       <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="D11" t="s">
@@ -4816,9 +4463,6 @@
       <c r="J11" t="s">
         <v>68</v>
       </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -4848,9 +4492,6 @@
       <c r="I12" t="s">
         <v>693</v>
       </c>
-      <c r="K12" t="s">
-        <v>706</v>
-      </c>
       <c r="L12" t="s">
         <v>46</v>
       </c>
@@ -4889,9 +4530,6 @@
       <c r="I13" t="s">
         <v>693</v>
       </c>
-      <c r="K13" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="D14" t="s">
@@ -4915,9 +4553,6 @@
       <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="K14" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
@@ -4947,9 +4582,6 @@
       <c r="I15" t="s">
         <v>693</v>
       </c>
-      <c r="K15" t="s">
-        <v>706</v>
-      </c>
       <c r="L15" t="s">
         <v>430</v>
       </c>
@@ -4958,24 +4590,6 @@
       </c>
       <c r="N15" t="s">
         <v>433</v>
-      </c>
-      <c r="O15" t="s">
-        <v>430</v>
-      </c>
-      <c r="P15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>432</v>
-      </c>
-      <c r="R15" t="s">
-        <v>430</v>
-      </c>
-      <c r="S15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5006,9 +4620,6 @@
       <c r="I16" t="s">
         <v>701</v>
       </c>
-      <c r="K16" t="s">
-        <v>706</v>
-      </c>
       <c r="L16" t="s">
         <v>46</v>
       </c>
@@ -5065,9 +4676,6 @@
       <c r="I17" t="s">
         <v>693</v>
       </c>
-      <c r="K17" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -5097,9 +4705,6 @@
       <c r="I18" t="s">
         <v>693</v>
       </c>
-      <c r="K18" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -5121,19 +4726,16 @@
         <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>927</v>
+        <v>666</v>
       </c>
       <c r="H19" t="s">
-        <v>929</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
         <v>693</v>
       </c>
       <c r="J19" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5164,9 +4766,6 @@
       <c r="I20" t="s">
         <v>695</v>
       </c>
-      <c r="K20" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -5188,7 +4787,7 @@
         <v>755</v>
       </c>
       <c r="G21" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5198,9 +4797,6 @@
       </c>
       <c r="J21" t="s">
         <v>756</v>
-      </c>
-      <c r="K21" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5231,9 +4827,6 @@
       <c r="I22" t="s">
         <v>702</v>
       </c>
-      <c r="K22" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -5258,13 +4851,10 @@
         <v>667</v>
       </c>
       <c r="H23" t="s">
-        <v>928</v>
+        <v>672</v>
       </c>
       <c r="I23" t="s">
         <v>693</v>
-      </c>
-      <c r="K23" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5287,7 +4877,7 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -5297,9 +4887,6 @@
       </c>
       <c r="J24" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5330,9 +4917,6 @@
       <c r="I25" t="s">
         <v>704</v>
       </c>
-      <c r="K25" t="s">
-        <v>706</v>
-      </c>
       <c r="L25" t="s">
         <v>124</v>
       </c>
@@ -5374,9 +4958,6 @@
       <c r="J26" t="s">
         <v>138</v>
       </c>
-      <c r="K26" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
@@ -5406,9 +4987,6 @@
       <c r="I27" t="s">
         <v>700</v>
       </c>
-      <c r="K27" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -5441,9 +5019,6 @@
       <c r="J28" t="s">
         <v>142</v>
       </c>
-      <c r="K28" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
@@ -5476,9 +5051,6 @@
       <c r="J29" t="s">
         <v>142</v>
       </c>
-      <c r="K29" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -5511,9 +5083,6 @@
       <c r="J30" t="s">
         <v>142</v>
       </c>
-      <c r="K30" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="D31" t="s">
@@ -5537,9 +5106,6 @@
       <c r="J31" t="s">
         <v>142</v>
       </c>
-      <c r="K31" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
@@ -5569,11 +5135,8 @@
       <c r="I32" t="s">
         <v>705</v>
       </c>
-      <c r="K32" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5601,11 +5164,8 @@
       <c r="I33" t="s">
         <v>696</v>
       </c>
-      <c r="K33" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5633,11 +5193,8 @@
       <c r="I34" t="s">
         <v>696</v>
       </c>
-      <c r="K34" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -5657,7 +5214,7 @@
         <v>716</v>
       </c>
       <c r="G35" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -5668,9 +5225,6 @@
       <c r="J35" t="s">
         <v>171</v>
       </c>
-      <c r="K35" t="s">
-        <v>65</v>
-      </c>
       <c r="L35" t="s">
         <v>165</v>
       </c>
@@ -5681,7 +5235,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -5709,11 +5263,8 @@
       <c r="I36" t="s">
         <v>699</v>
       </c>
-      <c r="K36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="16.5">
+    </row>
+    <row r="37" spans="1:17">
       <c r="D37" t="s">
         <v>161</v>
       </c>
@@ -5724,7 +5275,7 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -5735,9 +5286,6 @@
       <c r="J37" t="s">
         <v>168</v>
       </c>
-      <c r="K37" t="s">
-        <v>65</v>
-      </c>
       <c r="L37" t="s">
         <v>165</v>
       </c>
@@ -5756,17 +5304,8 @@
       <c r="Q37" t="s">
         <v>677</v>
       </c>
-      <c r="R37" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -5786,7 +5325,7 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -5797,11 +5336,8 @@
       <c r="J38" t="s">
         <v>179</v>
       </c>
-      <c r="K38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -5821,7 +5357,7 @@
         <v>717</v>
       </c>
       <c r="G39" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -5832,9 +5368,6 @@
       <c r="J39" t="s">
         <v>183</v>
       </c>
-      <c r="K39" t="s">
-        <v>65</v>
-      </c>
       <c r="L39" t="s">
         <v>161</v>
       </c>
@@ -5845,7 +5378,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -5865,7 +5398,7 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -5876,11 +5409,8 @@
       <c r="J40" t="s">
         <v>164</v>
       </c>
-      <c r="K40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -5900,7 +5430,7 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -5911,11 +5441,8 @@
       <c r="J41" t="s">
         <v>188</v>
       </c>
-      <c r="K41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -5935,7 +5462,7 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -5946,9 +5473,6 @@
       <c r="J42" t="s">
         <v>190</v>
       </c>
-      <c r="K42" t="s">
-        <v>65</v>
-      </c>
       <c r="L42" t="s">
         <v>165</v>
       </c>
@@ -5968,7 +5492,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -5988,7 +5512,7 @@
         <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>932</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -5999,9 +5523,6 @@
       <c r="J43" t="s">
         <v>196</v>
       </c>
-      <c r="K43" t="s">
-        <v>65</v>
-      </c>
       <c r="L43" t="s">
         <v>165</v>
       </c>
@@ -6012,7 +5533,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:17">
       <c r="D44" t="s">
         <v>198</v>
       </c>
@@ -6023,7 +5544,7 @@
         <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H44" t="s">
         <v>66</v>
@@ -6034,11 +5555,8 @@
       <c r="J44" t="s">
         <v>201</v>
       </c>
-      <c r="K44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+    </row>
+    <row r="45" spans="1:17">
       <c r="D45" t="s">
         <v>198</v>
       </c>
@@ -6049,7 +5567,7 @@
         <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6060,11 +5578,8 @@
       <c r="J45" t="s">
         <v>204</v>
       </c>
-      <c r="K45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -6092,11 +5607,8 @@
       <c r="I46" t="s">
         <v>703</v>
       </c>
-      <c r="K46" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -6124,11 +5636,8 @@
       <c r="I47" t="s">
         <v>697</v>
       </c>
-      <c r="K47" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+    </row>
+    <row r="48" spans="1:17">
       <c r="D48" t="s">
         <v>207</v>
       </c>
@@ -6149,9 +5658,6 @@
       </c>
       <c r="J48" t="s">
         <v>209</v>
-      </c>
-      <c r="K48" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -6182,9 +5688,6 @@
       <c r="I49" t="s">
         <v>704</v>
       </c>
-      <c r="K49" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
@@ -6214,9 +5717,6 @@
       <c r="I50" t="s">
         <v>693</v>
       </c>
-      <c r="K50" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
@@ -6249,9 +5749,6 @@
       <c r="J51" t="s">
         <v>209</v>
       </c>
-      <c r="K51" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
@@ -6281,9 +5778,6 @@
       <c r="I52" t="s">
         <v>707</v>
       </c>
-      <c r="K52" t="s">
-        <v>706</v>
-      </c>
       <c r="L52" t="s">
         <v>220</v>
       </c>
@@ -6322,9 +5816,6 @@
       <c r="I53" t="s">
         <v>700</v>
       </c>
-      <c r="K53" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
@@ -6357,9 +5848,6 @@
       <c r="J54" t="s">
         <v>229</v>
       </c>
-      <c r="K54" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
@@ -6392,9 +5880,6 @@
       <c r="J55" t="s">
         <v>239</v>
       </c>
-      <c r="K55" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
@@ -6427,9 +5912,6 @@
       <c r="J56" t="s">
         <v>239</v>
       </c>
-      <c r="K56" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="D57" t="s">
@@ -6453,9 +5935,6 @@
       <c r="J57" t="s">
         <v>239</v>
       </c>
-      <c r="K57" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="D58" t="s">
@@ -6479,9 +5958,6 @@
       <c r="J58" t="s">
         <v>239</v>
       </c>
-      <c r="K58" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="D59" t="s">
@@ -6505,9 +5981,6 @@
       <c r="J59" t="s">
         <v>243</v>
       </c>
-      <c r="K59" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="D60" t="s">
@@ -6520,7 +5993,7 @@
         <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>926</v>
+        <v>665</v>
       </c>
       <c r="H60" t="s">
         <v>672</v>
@@ -6530,9 +6003,6 @@
       </c>
       <c r="J60" t="s">
         <v>246</v>
-      </c>
-      <c r="K60" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5">
@@ -6557,9 +6027,6 @@
       <c r="J61" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K61" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="16.5">
       <c r="D62" t="s">
@@ -6583,9 +6050,6 @@
       <c r="J62" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K62" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="63" spans="1:14" ht="16.5">
       <c r="D63" t="s">
@@ -6609,9 +6073,6 @@
       <c r="J63" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K63" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="64" spans="1:14" ht="16.5">
       <c r="D64" t="s">
@@ -6635,9 +6096,6 @@
       <c r="J64" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K64" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="65" spans="1:17" ht="16.5">
       <c r="D65" t="s">
@@ -6661,9 +6119,6 @@
       <c r="J65" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K65" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="66" spans="1:17" ht="16.5">
       <c r="D66" t="s">
@@ -6687,9 +6142,6 @@
       <c r="J66" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K66" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="67" spans="1:17" ht="16.5">
       <c r="D67" t="s">
@@ -6713,9 +6165,6 @@
       <c r="J67" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K67" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="68" spans="1:17" ht="16.5">
       <c r="D68" t="s">
@@ -6739,9 +6188,6 @@
       <c r="J68" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K68" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="69" spans="1:17" ht="16.5">
       <c r="A69" t="s">
@@ -6772,9 +6218,6 @@
         <v>705</v>
       </c>
       <c r="J69" s="7"/>
-      <c r="K69" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="70" spans="1:17" ht="16.5">
       <c r="A70" t="s">
@@ -6807,9 +6250,6 @@
       <c r="J70" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K70" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="71" spans="1:17" ht="16.5">
       <c r="A71" t="s">
@@ -6842,9 +6282,6 @@
       <c r="J71" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K71" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="72" spans="1:17" ht="16.5">
       <c r="A72" t="s">
@@ -6877,9 +6314,6 @@
       <c r="J72" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K72" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="73" spans="1:17" ht="16.5">
       <c r="A73" t="s">
@@ -6912,9 +6346,6 @@
       <c r="J73" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K73" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="74" spans="1:17" ht="16.5">
       <c r="A74" t="s">
@@ -6947,9 +6378,6 @@
       <c r="J74" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K74" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="75" spans="1:17" ht="16.5">
       <c r="A75" t="s">
@@ -6982,9 +6410,6 @@
       <c r="J75" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K75" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="76" spans="1:17" ht="16.5">
       <c r="D76" t="s">
@@ -7008,9 +6433,6 @@
       <c r="J76" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K76" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
@@ -7040,9 +6462,6 @@
       <c r="I77" t="s">
         <v>693</v>
       </c>
-      <c r="K77" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
@@ -7072,9 +6491,6 @@
       <c r="I78" t="s">
         <v>697</v>
       </c>
-      <c r="K78" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="79" spans="1:17">
       <c r="D79" t="s">
@@ -7095,9 +6511,6 @@
       <c r="I79" t="s">
         <v>693</v>
       </c>
-      <c r="K79" t="s">
-        <v>706</v>
-      </c>
       <c r="L79" t="s">
         <v>292</v>
       </c>
@@ -7145,9 +6558,6 @@
       <c r="I80" t="s">
         <v>693</v>
       </c>
-      <c r="K80" t="s">
-        <v>706</v>
-      </c>
       <c r="L80" t="s">
         <v>292</v>
       </c>
@@ -7186,9 +6596,6 @@
       <c r="I81" t="s">
         <v>700</v>
       </c>
-      <c r="K81" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
@@ -7221,9 +6628,6 @@
       <c r="J82" t="s">
         <v>303</v>
       </c>
-      <c r="K82" t="s">
-        <v>706</v>
-      </c>
       <c r="L82" t="s">
         <v>292</v>
       </c>
@@ -7262,9 +6666,6 @@
       <c r="I83" t="s">
         <v>696</v>
       </c>
-      <c r="K83" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
@@ -7294,9 +6695,6 @@
       <c r="I84" t="s">
         <v>696</v>
       </c>
-      <c r="K84" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
@@ -7326,9 +6724,6 @@
       <c r="I85" t="s">
         <v>696</v>
       </c>
-      <c r="K85" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
@@ -7358,9 +6753,6 @@
       <c r="I86" t="s">
         <v>693</v>
       </c>
-      <c r="K86" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
@@ -7390,9 +6782,6 @@
       <c r="I87" t="s">
         <v>693</v>
       </c>
-      <c r="K87" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
@@ -7422,9 +6811,6 @@
       <c r="I88" t="s">
         <v>693</v>
       </c>
-      <c r="K88" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
@@ -7454,9 +6840,6 @@
       <c r="I89" t="s">
         <v>700</v>
       </c>
-      <c r="K89" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
@@ -7486,9 +6869,6 @@
       <c r="I90" t="s">
         <v>693</v>
       </c>
-      <c r="K90" t="s">
-        <v>706</v>
-      </c>
       <c r="L90" t="s">
         <v>328</v>
       </c>
@@ -7530,9 +6910,6 @@
       <c r="J91" t="s">
         <v>370</v>
       </c>
-      <c r="K91" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
@@ -7562,9 +6939,6 @@
       <c r="I92" t="s">
         <v>693</v>
       </c>
-      <c r="K92" t="s">
-        <v>706</v>
-      </c>
       <c r="L92" t="s">
         <v>328</v>
       </c>
@@ -7606,9 +6980,6 @@
       <c r="J93" t="s">
         <v>370</v>
       </c>
-      <c r="K93" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
@@ -7638,9 +7009,6 @@
       <c r="I94" t="s">
         <v>693</v>
       </c>
-      <c r="K94" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
@@ -7673,9 +7041,6 @@
       <c r="J95" t="s">
         <v>370</v>
       </c>
-      <c r="K95" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
@@ -7708,9 +7073,6 @@
       <c r="J96" t="s">
         <v>370</v>
       </c>
-      <c r="K96" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
@@ -7740,9 +7102,6 @@
       <c r="I97" t="s">
         <v>693</v>
       </c>
-      <c r="K97" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
@@ -7775,9 +7134,6 @@
       <c r="J98" t="s">
         <v>370</v>
       </c>
-      <c r="K98" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
@@ -7807,9 +7163,6 @@
       <c r="I99" t="s">
         <v>700</v>
       </c>
-      <c r="K99" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
@@ -7839,9 +7192,6 @@
       <c r="I100" t="s">
         <v>693</v>
       </c>
-      <c r="K100" t="s">
-        <v>706</v>
-      </c>
       <c r="L100" t="s">
         <v>371</v>
       </c>
@@ -7880,9 +7230,6 @@
       <c r="I101" t="s">
         <v>700</v>
       </c>
-      <c r="K101" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="D102" t="s">
@@ -7903,9 +7250,6 @@
       <c r="I102" t="s">
         <v>700</v>
       </c>
-      <c r="K102" t="s">
-        <v>706</v>
-      </c>
       <c r="L102" t="s">
         <v>371</v>
       </c>
@@ -7944,9 +7288,6 @@
       <c r="I103" t="s">
         <v>697</v>
       </c>
-      <c r="K103" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
@@ -7976,9 +7317,6 @@
       <c r="I104" t="s">
         <v>693</v>
       </c>
-      <c r="K104" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
@@ -8008,9 +7346,6 @@
       <c r="I105" t="s">
         <v>693</v>
       </c>
-      <c r="K105" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
@@ -8040,9 +7375,6 @@
       <c r="I106" t="s">
         <v>693</v>
       </c>
-      <c r="K106" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
@@ -8075,9 +7407,6 @@
       <c r="J107" t="s">
         <v>751</v>
       </c>
-      <c r="K107" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
@@ -8107,9 +7436,6 @@
       <c r="I108" t="s">
         <v>693</v>
       </c>
-      <c r="K108" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
@@ -8139,9 +7465,6 @@
       <c r="I109" t="s">
         <v>693</v>
       </c>
-      <c r="K109" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
@@ -8171,9 +7494,6 @@
       <c r="I110" t="s">
         <v>693</v>
       </c>
-      <c r="K110" t="s">
-        <v>706</v>
-      </c>
       <c r="L110" t="s">
         <v>328</v>
       </c>
@@ -8212,9 +7532,6 @@
       <c r="I111" t="s">
         <v>693</v>
       </c>
-      <c r="K111" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
@@ -8244,9 +7561,6 @@
       <c r="I112" t="s">
         <v>693</v>
       </c>
-      <c r="K112" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" t="s">
@@ -8276,9 +7590,6 @@
       <c r="I113" t="s">
         <v>695</v>
       </c>
-      <c r="K113" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" t="s">
@@ -8308,9 +7619,6 @@
       <c r="I114" t="s">
         <v>693</v>
       </c>
-      <c r="K114" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" t="s">
@@ -8340,28 +7648,25 @@
       <c r="I115" t="s">
         <v>693</v>
       </c>
-      <c r="K115" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>430</v>
       </c>
       <c r="B116" t="s">
-        <v>434</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D116" t="s">
         <v>430</v>
       </c>
       <c r="E116" t="s">
-        <v>436</v>
+        <v>86</v>
       </c>
       <c r="F116" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G116" t="s">
         <v>664</v>
@@ -8370,48 +7675,27 @@
         <v>673</v>
       </c>
       <c r="I116" t="s">
-        <v>702</v>
-      </c>
-      <c r="K116" t="s">
-        <v>706</v>
-      </c>
-      <c r="L116" t="s">
-        <v>430</v>
-      </c>
-      <c r="M116" t="s">
-        <v>436</v>
-      </c>
-      <c r="N116" t="s">
-        <v>438</v>
-      </c>
-      <c r="O116" t="s">
-        <v>430</v>
-      </c>
-      <c r="P116" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>439</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B117" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C117" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D117" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E117" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F117" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G117" t="s">
         <v>664</v>
@@ -8420,116 +7704,125 @@
         <v>673</v>
       </c>
       <c r="I117" t="s">
-        <v>693</v>
-      </c>
-      <c r="K117" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L117" t="s">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="M117" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N117" t="s">
-        <v>733</v>
+        <v>438</v>
+      </c>
+      <c r="O117" t="s">
+        <v>430</v>
+      </c>
+      <c r="P117" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B118" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C118" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D118" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E118" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F118" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G118" t="s">
-        <v>932</v>
+        <v>664</v>
       </c>
       <c r="H118" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I118" t="s">
-        <v>700</v>
-      </c>
-      <c r="J118" t="s">
-        <v>451</v>
-      </c>
-      <c r="K118" t="s">
-        <v>65</v>
+        <v>693</v>
       </c>
       <c r="L118" t="s">
-        <v>445</v>
+        <v>46</v>
       </c>
       <c r="M118" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="N118" t="s">
-        <v>450</v>
-      </c>
-      <c r="O118" t="s">
-        <v>46</v>
-      </c>
-      <c r="P118" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" t="s">
+        <v>445</v>
+      </c>
+      <c r="B119" t="s">
+        <v>446</v>
+      </c>
+      <c r="C119" t="s">
+        <v>447</v>
+      </c>
+      <c r="D119" t="s">
+        <v>445</v>
+      </c>
+      <c r="E119" t="s">
+        <v>448</v>
+      </c>
+      <c r="F119" t="s">
+        <v>449</v>
+      </c>
+      <c r="G119" t="s">
+        <v>666</v>
+      </c>
+      <c r="H119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119" t="s">
+        <v>700</v>
+      </c>
+      <c r="J119" t="s">
+        <v>451</v>
+      </c>
+      <c r="L119" t="s">
+        <v>445</v>
+      </c>
+      <c r="M119" t="s">
+        <v>448</v>
+      </c>
+      <c r="N119" t="s">
+        <v>450</v>
+      </c>
+      <c r="O119" t="s">
+        <v>46</v>
+      </c>
+      <c r="P119" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" t="s">
         <v>452</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>453</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>454</v>
       </c>
-      <c r="D119" t="s">
-        <v>452</v>
-      </c>
-      <c r="E119" t="s">
-        <v>455</v>
-      </c>
-      <c r="F119" t="s">
-        <v>456</v>
-      </c>
-      <c r="G119" t="s">
-        <v>665</v>
-      </c>
-      <c r="H119" t="s">
-        <v>672</v>
-      </c>
-      <c r="I119" t="s">
-        <v>710</v>
-      </c>
-      <c r="K119" t="s">
-        <v>706</v>
-      </c>
-      <c r="L119" t="s">
-        <v>452</v>
-      </c>
-      <c r="M119" t="s">
-        <v>455</v>
-      </c>
-      <c r="N119" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17">
       <c r="D120" t="s">
         <v>452</v>
       </c>
@@ -8537,10 +7830,10 @@
         <v>455</v>
       </c>
       <c r="F120" t="s">
-        <v>727</v>
+        <v>456</v>
       </c>
       <c r="G120" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="H120" t="s">
         <v>672</v>
@@ -8548,9 +7841,6 @@
       <c r="I120" t="s">
         <v>710</v>
       </c>
-      <c r="K120" t="s">
-        <v>706</v>
-      </c>
       <c r="L120" t="s">
         <v>452</v>
       </c>
@@ -8558,62 +7848,56 @@
         <v>455</v>
       </c>
       <c r="N120" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="D121" t="s">
+        <v>452</v>
+      </c>
+      <c r="E121" t="s">
+        <v>455</v>
+      </c>
+      <c r="F121" t="s">
+        <v>727</v>
+      </c>
+      <c r="G121" t="s">
+        <v>671</v>
+      </c>
+      <c r="H121" t="s">
+        <v>672</v>
+      </c>
+      <c r="I121" t="s">
+        <v>710</v>
+      </c>
+      <c r="L121" t="s">
+        <v>452</v>
+      </c>
+      <c r="M121" t="s">
+        <v>455</v>
+      </c>
+      <c r="N121" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
-      <c r="A121" t="s">
-        <v>459</v>
-      </c>
-      <c r="B121" t="s">
-        <v>460</v>
-      </c>
-      <c r="C121" t="s">
-        <v>461</v>
-      </c>
-      <c r="D121" t="s">
-        <v>810</v>
-      </c>
-      <c r="E121" t="s">
-        <v>811</v>
-      </c>
-      <c r="F121" t="s">
-        <v>812</v>
-      </c>
-      <c r="G121" t="s">
-        <v>664</v>
-      </c>
-      <c r="H121" t="s">
-        <v>673</v>
-      </c>
-      <c r="I121" t="s">
-        <v>696</v>
-      </c>
-      <c r="J121" t="s">
-        <v>462</v>
-      </c>
-      <c r="K121" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B122" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C122" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D122" t="s">
-        <v>463</v>
+        <v>810</v>
       </c>
       <c r="E122" t="s">
-        <v>466</v>
+        <v>811</v>
       </c>
       <c r="F122" t="s">
-        <v>467</v>
+        <v>812</v>
       </c>
       <c r="G122" t="s">
         <v>664</v>
@@ -8624,93 +7908,78 @@
       <c r="I122" t="s">
         <v>696</v>
       </c>
-      <c r="K122" t="s">
-        <v>706</v>
+      <c r="J122" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B123" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C123" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D123" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E123" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F123" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G123" t="s">
-        <v>932</v>
+        <v>664</v>
       </c>
       <c r="H123" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I123" t="s">
-        <v>710</v>
-      </c>
-      <c r="J123" t="s">
-        <v>474</v>
-      </c>
-      <c r="K123" t="s">
-        <v>65</v>
-      </c>
-      <c r="L123" t="s">
-        <v>468</v>
-      </c>
-      <c r="M123" t="s">
-        <v>471</v>
-      </c>
-      <c r="N123" t="s">
-        <v>473</v>
+        <v>696</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B124" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C124" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D124" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E124" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F124" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G124" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H124" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="I124" t="s">
         <v>710</v>
       </c>
-      <c r="K124" t="s">
-        <v>706</v>
+      <c r="J124" t="s">
+        <v>474</v>
       </c>
       <c r="L124" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M124" t="s">
-        <v>776</v>
+        <v>471</v>
       </c>
       <c r="N124" t="s">
-        <v>777</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -8718,19 +7987,19 @@
         <v>475</v>
       </c>
       <c r="B125" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C125" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D125" t="s">
         <v>475</v>
       </c>
       <c r="E125" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F125" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G125" t="s">
         <v>665</v>
@@ -8741,52 +8010,52 @@
       <c r="I125" t="s">
         <v>710</v>
       </c>
-      <c r="K125" t="s">
-        <v>706</v>
-      </c>
       <c r="L125" t="s">
         <v>475</v>
       </c>
       <c r="M125" t="s">
-        <v>480</v>
+        <v>776</v>
       </c>
       <c r="N125" t="s">
-        <v>482</v>
+        <v>777</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B126" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C126" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D126" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E126" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="F126" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="G126" t="s">
-        <v>820</v>
+        <v>665</v>
       </c>
       <c r="H126" t="s">
-        <v>821</v>
+        <v>672</v>
       </c>
       <c r="I126" t="s">
-        <v>696</v>
-      </c>
-      <c r="J126" t="s">
-        <v>511</v>
-      </c>
-      <c r="K126" t="s">
-        <v>930</v>
+        <v>710</v>
+      </c>
+      <c r="L126" t="s">
+        <v>475</v>
+      </c>
+      <c r="M126" t="s">
+        <v>480</v>
+      </c>
+      <c r="N126" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8794,19 +8063,19 @@
         <v>489</v>
       </c>
       <c r="B127" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C127" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D127" t="s">
         <v>489</v>
       </c>
       <c r="E127" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F127" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G127" t="s">
         <v>820</v>
@@ -8819,9 +8088,6 @@
       </c>
       <c r="J127" t="s">
         <v>511</v>
-      </c>
-      <c r="K127" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -8829,19 +8095,19 @@
         <v>489</v>
       </c>
       <c r="B128" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C128" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D128" t="s">
         <v>489</v>
       </c>
       <c r="E128" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F128" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G128" t="s">
         <v>820</v>
@@ -8854,9 +8120,6 @@
       </c>
       <c r="J128" t="s">
         <v>511</v>
-      </c>
-      <c r="K128" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8864,19 +8127,19 @@
         <v>489</v>
       </c>
       <c r="B129" t="s">
-        <v>817</v>
+        <v>498</v>
       </c>
       <c r="C129" t="s">
-        <v>816</v>
+        <v>499</v>
       </c>
       <c r="D129" t="s">
         <v>489</v>
       </c>
       <c r="E129" t="s">
-        <v>818</v>
+        <v>500</v>
       </c>
       <c r="F129" t="s">
-        <v>819</v>
+        <v>501</v>
       </c>
       <c r="G129" t="s">
         <v>820</v>
@@ -8889,9 +8152,6 @@
       </c>
       <c r="J129" t="s">
         <v>511</v>
-      </c>
-      <c r="K129" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8899,31 +8159,31 @@
         <v>489</v>
       </c>
       <c r="B130" t="s">
-        <v>502</v>
+        <v>817</v>
       </c>
       <c r="C130" t="s">
-        <v>503</v>
+        <v>816</v>
       </c>
       <c r="D130" t="s">
         <v>489</v>
       </c>
       <c r="E130" t="s">
-        <v>504</v>
+        <v>818</v>
       </c>
       <c r="F130" t="s">
-        <v>505</v>
+        <v>819</v>
       </c>
       <c r="G130" t="s">
-        <v>664</v>
+        <v>820</v>
       </c>
       <c r="H130" t="s">
-        <v>673</v>
+        <v>821</v>
       </c>
       <c r="I130" t="s">
         <v>696</v>
       </c>
-      <c r="K130" t="s">
-        <v>706</v>
+      <c r="J130" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8931,34 +8191,28 @@
         <v>489</v>
       </c>
       <c r="B131" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C131" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D131" t="s">
         <v>489</v>
       </c>
       <c r="E131" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F131" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G131" t="s">
-        <v>820</v>
+        <v>664</v>
       </c>
       <c r="H131" t="s">
-        <v>821</v>
+        <v>673</v>
       </c>
       <c r="I131" t="s">
         <v>696</v>
-      </c>
-      <c r="J131" t="s">
-        <v>511</v>
-      </c>
-      <c r="K131" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8966,77 +8220,80 @@
         <v>489</v>
       </c>
       <c r="B132" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C132" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D132" t="s">
         <v>489</v>
       </c>
       <c r="E132" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F132" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G132" t="s">
-        <v>666</v>
+        <v>820</v>
       </c>
       <c r="H132" t="s">
-        <v>66</v>
+        <v>821</v>
       </c>
       <c r="I132" t="s">
         <v>696</v>
       </c>
-      <c r="K132" t="s">
-        <v>706</v>
+      <c r="J132" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
+        <v>489</v>
+      </c>
+      <c r="B133" t="s">
+        <v>510</v>
+      </c>
+      <c r="C133" t="s">
+        <v>511</v>
+      </c>
+      <c r="D133" t="s">
+        <v>489</v>
+      </c>
+      <c r="E133" t="s">
+        <v>508</v>
+      </c>
+      <c r="F133" t="s">
+        <v>509</v>
+      </c>
+      <c r="G133" t="s">
+        <v>666</v>
+      </c>
+      <c r="H133" t="s">
+        <v>66</v>
+      </c>
+      <c r="I133" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
         <v>514</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>515</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>516</v>
       </c>
-      <c r="D133" t="s">
-        <v>514</v>
-      </c>
-      <c r="E133" t="s">
-        <v>517</v>
-      </c>
-      <c r="F133" t="s">
-        <v>518</v>
-      </c>
-      <c r="G133" t="s">
-        <v>806</v>
-      </c>
-      <c r="H133" t="s">
-        <v>808</v>
-      </c>
-      <c r="I133" t="s">
-        <v>711</v>
-      </c>
-      <c r="J133" t="s">
-        <v>519</v>
-      </c>
-      <c r="K133" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
       <c r="D134" t="s">
         <v>514</v>
       </c>
       <c r="E134" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F134" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G134" t="s">
         <v>666</v>
@@ -9045,19 +8302,10 @@
         <v>66</v>
       </c>
       <c r="I134" t="s">
-        <v>705</v>
-      </c>
-      <c r="K134" t="s">
-        <v>706</v>
-      </c>
-      <c r="L134" t="s">
-        <v>514</v>
-      </c>
-      <c r="M134" t="s">
-        <v>522</v>
-      </c>
-      <c r="N134" t="s">
-        <v>523</v>
+        <v>711</v>
+      </c>
+      <c r="J134" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -9065,10 +8313,10 @@
         <v>514</v>
       </c>
       <c r="E135" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F135" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G135" t="s">
         <v>666</v>
@@ -9079,9 +8327,6 @@
       <c r="I135" t="s">
         <v>705</v>
       </c>
-      <c r="K135" t="s">
-        <v>706</v>
-      </c>
       <c r="L135" t="s">
         <v>514</v>
       </c>
@@ -9089,7 +8334,7 @@
         <v>522</v>
       </c>
       <c r="N135" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -9100,77 +8345,68 @@
         <v>522</v>
       </c>
       <c r="F136" t="s">
+        <v>524</v>
+      </c>
+      <c r="G136" t="s">
+        <v>666</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136" t="s">
+        <v>705</v>
+      </c>
+      <c r="L136" t="s">
+        <v>514</v>
+      </c>
+      <c r="M136" t="s">
+        <v>522</v>
+      </c>
+      <c r="N136" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="D137" t="s">
+        <v>514</v>
+      </c>
+      <c r="E137" t="s">
+        <v>522</v>
+      </c>
+      <c r="F137" t="s">
         <v>679</v>
       </c>
-      <c r="G136" t="s">
-        <v>806</v>
-      </c>
-      <c r="H136" t="s">
-        <v>808</v>
-      </c>
-      <c r="I136" t="s">
-        <v>711</v>
-      </c>
-      <c r="J136" t="s">
-        <v>678</v>
-      </c>
-      <c r="K136" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" t="s">
-        <v>526</v>
-      </c>
-      <c r="B137" t="s">
-        <v>527</v>
-      </c>
-      <c r="C137" t="s">
-        <v>528</v>
-      </c>
-      <c r="D137" t="s">
-        <v>526</v>
-      </c>
-      <c r="E137" t="s">
-        <v>529</v>
-      </c>
-      <c r="F137" t="s">
-        <v>530</v>
-      </c>
       <c r="G137" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H137" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I137" t="s">
         <v>711</v>
       </c>
       <c r="J137" t="s">
-        <v>531</v>
-      </c>
-      <c r="K137" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B138" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C138" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D138" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E138" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F138" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G138" t="s">
         <v>666</v>
@@ -9181,17 +8417,8 @@
       <c r="I138" t="s">
         <v>711</v>
       </c>
-      <c r="K138" t="s">
-        <v>706</v>
-      </c>
-      <c r="L138" t="s">
-        <v>532</v>
-      </c>
-      <c r="M138" t="s">
-        <v>537</v>
-      </c>
-      <c r="N138" t="s">
-        <v>546</v>
+      <c r="J138" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -9199,19 +8426,19 @@
         <v>532</v>
       </c>
       <c r="B139" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C139" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D139" t="s">
         <v>532</v>
       </c>
       <c r="E139" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F139" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G139" t="s">
         <v>666</v>
@@ -9222,11 +8449,14 @@
       <c r="I139" t="s">
         <v>711</v>
       </c>
-      <c r="J139" t="s">
-        <v>541</v>
-      </c>
-      <c r="K139" t="s">
-        <v>706</v>
+      <c r="L139" t="s">
+        <v>532</v>
+      </c>
+      <c r="M139" t="s">
+        <v>537</v>
+      </c>
+      <c r="N139" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -9234,10 +8464,10 @@
         <v>532</v>
       </c>
       <c r="B140" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C140" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D140" t="s">
         <v>532</v>
@@ -9246,19 +8476,19 @@
         <v>539</v>
       </c>
       <c r="F140" t="s">
+        <v>540</v>
+      </c>
+      <c r="G140" t="s">
+        <v>666</v>
+      </c>
+      <c r="H140" t="s">
+        <v>66</v>
+      </c>
+      <c r="I140" t="s">
+        <v>711</v>
+      </c>
+      <c r="J140" t="s">
         <v>541</v>
-      </c>
-      <c r="G140" t="s">
-        <v>664</v>
-      </c>
-      <c r="H140" t="s">
-        <v>673</v>
-      </c>
-      <c r="I140" t="s">
-        <v>712</v>
-      </c>
-      <c r="K140" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9266,69 +8496,60 @@
         <v>532</v>
       </c>
       <c r="B141" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C141" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D141" t="s">
         <v>532</v>
       </c>
       <c r="E141" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F141" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G141" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H141" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I141" t="s">
         <v>712</v>
       </c>
-      <c r="K141" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>532</v>
+      </c>
+      <c r="B142" t="s">
+        <v>533</v>
+      </c>
+      <c r="C142" t="s">
+        <v>534</v>
+      </c>
       <c r="D142" t="s">
         <v>532</v>
       </c>
       <c r="E142" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F142" t="s">
-        <v>799</v>
+        <v>548</v>
       </c>
       <c r="G142" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H142" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I142" t="s">
-        <v>713</v>
-      </c>
-      <c r="J142" t="s">
-        <v>549</v>
-      </c>
-      <c r="K142" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" t="s">
-        <v>532</v>
-      </c>
-      <c r="B143" t="s">
-        <v>550</v>
-      </c>
-      <c r="C143" t="s">
-        <v>551</v>
-      </c>
       <c r="D143" t="s">
         <v>532</v>
       </c>
@@ -9336,22 +8557,19 @@
         <v>552</v>
       </c>
       <c r="F143" t="s">
-        <v>553</v>
+        <v>799</v>
       </c>
       <c r="G143" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H143" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I143" t="s">
         <v>713</v>
       </c>
       <c r="J143" t="s">
         <v>549</v>
-      </c>
-      <c r="K143" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -9359,34 +8577,31 @@
         <v>532</v>
       </c>
       <c r="B144" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C144" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D144" t="s">
         <v>532</v>
       </c>
       <c r="E144" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F144" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G144" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H144" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I144" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J144" t="s">
-        <v>556</v>
-      </c>
-      <c r="K144" t="s">
-        <v>664</v>
+        <v>549</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -9394,60 +8609,63 @@
         <v>532</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C145" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D145" t="s">
         <v>532</v>
       </c>
       <c r="E145" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F145" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G145" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H145" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I145" t="s">
         <v>714</v>
       </c>
       <c r="J145" t="s">
-        <v>563</v>
-      </c>
-      <c r="K145" t="s">
-        <v>664</v>
+        <v>556</v>
       </c>
     </row>
     <row r="146" spans="1:17">
+      <c r="A146" t="s">
+        <v>532</v>
+      </c>
+      <c r="B146" t="s">
+        <v>559</v>
+      </c>
+      <c r="C146" t="s">
+        <v>560</v>
+      </c>
       <c r="D146" t="s">
         <v>532</v>
       </c>
       <c r="E146" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F146" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G146" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H146" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I146" t="s">
         <v>714</v>
       </c>
       <c r="J146" t="s">
-        <v>568</v>
-      </c>
-      <c r="K146" t="s">
-        <v>664</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -9455,16 +8673,16 @@
         <v>532</v>
       </c>
       <c r="E147" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F147" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G147" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H147" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I147" t="s">
         <v>714</v>
@@ -9472,52 +8690,28 @@
       <c r="J147" t="s">
         <v>568</v>
       </c>
-      <c r="K147" t="s">
-        <v>664</v>
-      </c>
     </row>
     <row r="148" spans="1:17">
-      <c r="A148" t="s">
-        <v>532</v>
-      </c>
-      <c r="B148" t="s">
-        <v>570</v>
-      </c>
-      <c r="C148" t="s">
-        <v>571</v>
-      </c>
       <c r="D148" t="s">
         <v>532</v>
       </c>
       <c r="E148" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F148" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G148" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H148" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I148" t="s">
         <v>714</v>
       </c>
       <c r="J148" t="s">
-        <v>569</v>
-      </c>
-      <c r="K148" t="s">
-        <v>664</v>
-      </c>
-      <c r="L148" t="s">
-        <v>532</v>
-      </c>
-      <c r="M148" t="s">
-        <v>570</v>
-      </c>
-      <c r="N148" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -9525,19 +8719,19 @@
         <v>532</v>
       </c>
       <c r="B149" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C149" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D149" t="s">
         <v>532</v>
       </c>
       <c r="E149" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="F149" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G149" t="s">
         <v>666</v>
@@ -9546,83 +8740,86 @@
         <v>66</v>
       </c>
       <c r="I149" t="s">
-        <v>696</v>
-      </c>
-      <c r="K149" t="s">
-        <v>706</v>
+        <v>714</v>
+      </c>
+      <c r="J149" t="s">
+        <v>569</v>
+      </c>
+      <c r="L149" t="s">
+        <v>532</v>
+      </c>
+      <c r="M149" t="s">
+        <v>570</v>
+      </c>
+      <c r="N149" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" t="s">
-        <v>744</v>
+        <v>532</v>
       </c>
       <c r="B150" t="s">
-        <v>745</v>
+        <v>574</v>
       </c>
       <c r="C150" t="s">
-        <v>746</v>
+        <v>575</v>
       </c>
       <c r="D150" t="s">
-        <v>744</v>
+        <v>532</v>
       </c>
       <c r="E150" t="s">
-        <v>747</v>
+        <v>539</v>
       </c>
       <c r="F150" t="s">
-        <v>748</v>
+        <v>576</v>
       </c>
       <c r="G150" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H150" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I150" t="s">
-        <v>705</v>
-      </c>
-      <c r="K150" t="s">
-        <v>706</v>
-      </c>
-      <c r="L150" t="s">
-        <v>744</v>
-      </c>
-      <c r="M150" t="s">
-        <v>747</v>
-      </c>
-      <c r="N150" t="s">
-        <v>809</v>
+        <v>696</v>
       </c>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" t="s">
-        <v>595</v>
+        <v>744</v>
       </c>
       <c r="B151" t="s">
-        <v>596</v>
+        <v>745</v>
       </c>
       <c r="C151" t="s">
-        <v>597</v>
+        <v>746</v>
       </c>
       <c r="D151" t="s">
-        <v>595</v>
+        <v>744</v>
       </c>
       <c r="E151" t="s">
-        <v>602</v>
+        <v>747</v>
       </c>
       <c r="F151" t="s">
-        <v>603</v>
+        <v>748</v>
       </c>
       <c r="G151" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H151" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I151" t="s">
-        <v>729</v>
-      </c>
-      <c r="K151" t="s">
-        <v>706</v>
+        <v>705</v>
+      </c>
+      <c r="L151" t="s">
+        <v>744</v>
+      </c>
+      <c r="M151" t="s">
+        <v>747</v>
+      </c>
+      <c r="N151" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -9630,31 +8827,28 @@
         <v>595</v>
       </c>
       <c r="B152" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C152" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D152" t="s">
         <v>595</v>
       </c>
       <c r="E152" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F152" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G152" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H152" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I152" t="s">
         <v>729</v>
-      </c>
-      <c r="K152" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -9662,34 +8856,40 @@
         <v>595</v>
       </c>
       <c r="B153" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C153" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D153" t="s">
         <v>595</v>
       </c>
       <c r="E153" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F153" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G153" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H153" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I153" t="s">
         <v>729</v>
       </c>
-      <c r="K153" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="154" spans="1:17">
+      <c r="A154" t="s">
+        <v>595</v>
+      </c>
+      <c r="B154" t="s">
+        <v>600</v>
+      </c>
+      <c r="C154" t="s">
+        <v>601</v>
+      </c>
       <c r="D154" t="s">
         <v>595</v>
       </c>
@@ -9697,7 +8897,7 @@
         <v>606</v>
       </c>
       <c r="F154" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G154" t="s">
         <v>666</v>
@@ -9706,68 +8906,50 @@
         <v>66</v>
       </c>
       <c r="I154" t="s">
-        <v>730</v>
-      </c>
-      <c r="J154" t="s">
-        <v>609</v>
-      </c>
-      <c r="K154" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" t="s">
-        <v>595</v>
-      </c>
-      <c r="B155" t="s">
-        <v>610</v>
-      </c>
-      <c r="C155" t="s">
-        <v>611</v>
-      </c>
       <c r="D155" t="s">
         <v>595</v>
       </c>
       <c r="E155" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F155" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G155" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H155" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I155" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="J155" t="s">
-        <v>614</v>
-      </c>
-      <c r="K155" t="s">
-        <v>664</v>
+        <v>609</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="B156" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C156" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D156" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="E156" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F156" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G156" t="s">
         <v>666</v>
@@ -9776,10 +8958,10 @@
         <v>66</v>
       </c>
       <c r="I156" t="s">
-        <v>700</v>
-      </c>
-      <c r="K156" t="s">
-        <v>706</v>
+        <v>696</v>
+      </c>
+      <c r="J156" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -9787,51 +8969,48 @@
         <v>615</v>
       </c>
       <c r="B157" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C157" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D157" t="s">
         <v>615</v>
       </c>
       <c r="E157" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F157" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G157" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H157" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="I157" t="s">
-        <v>693</v>
-      </c>
-      <c r="K157" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B158" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C158" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D158" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E158" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F158" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G158" t="s">
         <v>667</v>
@@ -9842,28 +9021,25 @@
       <c r="I158" t="s">
         <v>693</v>
       </c>
-      <c r="K158" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>625</v>
       </c>
       <c r="C159" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D159" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>627</v>
       </c>
       <c r="F159" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G159" t="s">
         <v>667</v>
@@ -9874,55 +9050,55 @@
       <c r="I159" t="s">
         <v>693</v>
       </c>
-      <c r="K159" t="s">
-        <v>706</v>
-      </c>
-      <c r="L159" t="s">
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" t="s">
         <v>629</v>
       </c>
-      <c r="M159" t="s">
+      <c r="B160" t="s">
+        <v>297</v>
+      </c>
+      <c r="C160" t="s">
+        <v>630</v>
+      </c>
+      <c r="D160" t="s">
+        <v>629</v>
+      </c>
+      <c r="E160" t="s">
         <v>293</v>
       </c>
-      <c r="N159" t="s">
+      <c r="F160" t="s">
+        <v>631</v>
+      </c>
+      <c r="G160" t="s">
+        <v>667</v>
+      </c>
+      <c r="H160" t="s">
+        <v>672</v>
+      </c>
+      <c r="I160" t="s">
+        <v>693</v>
+      </c>
+      <c r="L160" t="s">
+        <v>629</v>
+      </c>
+      <c r="M160" t="s">
+        <v>293</v>
+      </c>
+      <c r="N160" t="s">
         <v>632</v>
       </c>
-      <c r="O159" t="s">
+      <c r="O160" t="s">
         <v>629</v>
       </c>
-      <c r="P159" t="s">
+      <c r="P160" t="s">
         <v>297</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="Q160" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
-      <c r="D160" t="s">
-        <v>634</v>
-      </c>
-      <c r="E160" t="s">
-        <v>302</v>
-      </c>
-      <c r="F160" t="s">
-        <v>635</v>
-      </c>
-      <c r="G160" t="s">
-        <v>666</v>
-      </c>
-      <c r="H160" t="s">
-        <v>66</v>
-      </c>
-      <c r="I160" t="s">
-        <v>700</v>
-      </c>
-      <c r="J160" t="s">
-        <v>636</v>
-      </c>
-      <c r="K160" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:14">
       <c r="D161" t="s">
         <v>634</v>
       </c>
@@ -9930,7 +9106,7 @@
         <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G161" t="s">
         <v>666</v>
@@ -9944,19 +9120,16 @@
       <c r="J161" t="s">
         <v>636</v>
       </c>
-      <c r="K161" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" ht="16.5">
+    </row>
+    <row r="162" spans="1:14">
       <c r="D162" t="s">
         <v>634</v>
       </c>
       <c r="E162" t="s">
-        <v>638</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G162" t="s">
         <v>666</v>
@@ -9965,16 +9138,13 @@
         <v>66</v>
       </c>
       <c r="I162" t="s">
-        <v>697</v>
-      </c>
-      <c r="J162" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="K162" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="16.5">
+        <v>700</v>
+      </c>
+      <c r="J162" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="16.5">
       <c r="D163" t="s">
         <v>634</v>
       </c>
@@ -9982,7 +9152,7 @@
         <v>638</v>
       </c>
       <c r="F163" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G163" t="s">
         <v>666</v>
@@ -9996,28 +9166,16 @@
       <c r="J163" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="K163" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" t="s">
-        <v>292</v>
-      </c>
-      <c r="B164" t="s">
-        <v>300</v>
-      </c>
-      <c r="C164" t="s">
-        <v>779</v>
-      </c>
+    </row>
+    <row r="164" spans="1:14" ht="16.5">
       <c r="D164" t="s">
         <v>634</v>
       </c>
       <c r="E164" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="F164" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G164" t="s">
         <v>666</v>
@@ -10028,14 +9186,20 @@
       <c r="I164" t="s">
         <v>697</v>
       </c>
-      <c r="J164" t="s">
-        <v>636</v>
-      </c>
-      <c r="K164" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17">
+      <c r="J164" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" t="s">
+        <v>292</v>
+      </c>
+      <c r="B165" t="s">
+        <v>300</v>
+      </c>
+      <c r="C165" t="s">
+        <v>779</v>
+      </c>
       <c r="D165" t="s">
         <v>634</v>
       </c>
@@ -10043,7 +9207,7 @@
         <v>302</v>
       </c>
       <c r="F165" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G165" t="s">
         <v>666</v>
@@ -10057,151 +9221,115 @@
       <c r="J165" t="s">
         <v>636</v>
       </c>
-      <c r="K165" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
-      <c r="A166" t="s">
-        <v>634</v>
-      </c>
-      <c r="B166" t="s">
-        <v>297</v>
-      </c>
-      <c r="C166" t="s">
-        <v>644</v>
-      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="D166" t="s">
         <v>634</v>
       </c>
       <c r="E166" t="s">
+        <v>302</v>
+      </c>
+      <c r="F166" t="s">
+        <v>643</v>
+      </c>
+      <c r="G166" t="s">
+        <v>666</v>
+      </c>
+      <c r="H166" t="s">
+        <v>66</v>
+      </c>
+      <c r="I166" t="s">
+        <v>697</v>
+      </c>
+      <c r="J166" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" t="s">
+        <v>634</v>
+      </c>
+      <c r="B167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" t="s">
+        <v>644</v>
+      </c>
+      <c r="D167" t="s">
+        <v>634</v>
+      </c>
+      <c r="E167" t="s">
         <v>293</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F167" t="s">
         <v>645</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G167" t="s">
         <v>667</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H167" t="s">
         <v>672</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I167" t="s">
         <v>693</v>
       </c>
-      <c r="K166" t="s">
-        <v>706</v>
-      </c>
-      <c r="L166" t="s">
+      <c r="L167" t="s">
         <v>634</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M167" t="s">
         <v>293</v>
       </c>
-      <c r="N166" t="s">
+      <c r="N167" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="16.5">
-      <c r="A167" t="s">
+    <row r="168" spans="1:14">
+      <c r="A168" t="s">
         <v>485</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>647</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>648</v>
       </c>
-      <c r="D167" t="s">
-        <v>485</v>
-      </c>
-      <c r="E167" t="s">
-        <v>486</v>
-      </c>
-      <c r="F167" t="s">
-        <v>487</v>
-      </c>
-      <c r="G167" t="s">
-        <v>666</v>
-      </c>
-      <c r="H167" t="s">
-        <v>66</v>
-      </c>
-      <c r="I167" t="s">
-        <v>710</v>
-      </c>
-      <c r="K167" t="s">
-        <v>706</v>
-      </c>
-      <c r="L167" t="s">
-        <v>485</v>
-      </c>
-      <c r="M167" t="s">
-        <v>486</v>
-      </c>
-      <c r="N167" t="s">
-        <v>488</v>
-      </c>
-      <c r="O167" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="P167" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q167" s="11" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17">
       <c r="D168" t="s">
         <v>485</v>
       </c>
       <c r="E168" t="s">
-        <v>649</v>
+        <v>486</v>
       </c>
       <c r="F168" t="s">
-        <v>650</v>
+        <v>487</v>
       </c>
       <c r="G168" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H168" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="I168" t="s">
         <v>710</v>
       </c>
-      <c r="K168" t="s">
-        <v>706</v>
-      </c>
       <c r="L168" t="s">
         <v>485</v>
       </c>
       <c r="M168" t="s">
-        <v>649</v>
+        <v>486</v>
       </c>
       <c r="N168" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17">
-      <c r="A169" t="s">
-        <v>485</v>
-      </c>
-      <c r="B169" t="s">
-        <v>652</v>
-      </c>
-      <c r="C169" t="s">
-        <v>653</v>
-      </c>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="D169" t="s">
         <v>485</v>
       </c>
       <c r="E169" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F169" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G169" t="s">
         <v>665</v>
@@ -10212,46 +9340,55 @@
       <c r="I169" t="s">
         <v>710</v>
       </c>
-      <c r="K169" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17">
+      <c r="L169" t="s">
+        <v>485</v>
+      </c>
+      <c r="M169" t="s">
+        <v>649</v>
+      </c>
+      <c r="N169" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
+        <v>485</v>
+      </c>
+      <c r="B170" t="s">
+        <v>652</v>
+      </c>
+      <c r="C170" t="s">
+        <v>653</v>
+      </c>
+      <c r="D170" t="s">
+        <v>485</v>
+      </c>
+      <c r="E170" t="s">
+        <v>654</v>
+      </c>
+      <c r="F170" t="s">
+        <v>655</v>
+      </c>
+      <c r="G170" t="s">
+        <v>665</v>
+      </c>
+      <c r="H170" t="s">
+        <v>672</v>
+      </c>
+      <c r="I170" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" t="s">
         <v>657</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>658</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>656</v>
       </c>
-      <c r="D170" t="s">
-        <v>657</v>
-      </c>
-      <c r="E170" t="s">
-        <v>659</v>
-      </c>
-      <c r="F170" t="s">
-        <v>660</v>
-      </c>
-      <c r="G170" t="s">
-        <v>664</v>
-      </c>
-      <c r="H170" t="s">
-        <v>807</v>
-      </c>
-      <c r="I170" t="s">
-        <v>696</v>
-      </c>
-      <c r="J170" t="s">
-        <v>661</v>
-      </c>
-      <c r="K170" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17">
       <c r="D171" t="s">
         <v>657</v>
       </c>
@@ -10259,13 +9396,13 @@
         <v>659</v>
       </c>
       <c r="F171" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G171" t="s">
-        <v>806</v>
+        <v>664</v>
       </c>
       <c r="H171" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I171" t="s">
         <v>696</v>
@@ -10273,11 +9410,8 @@
       <c r="J171" t="s">
         <v>661</v>
       </c>
-      <c r="K171" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17">
+    </row>
+    <row r="172" spans="1:14">
       <c r="D172" t="s">
         <v>657</v>
       </c>
@@ -10285,13 +9419,13 @@
         <v>659</v>
       </c>
       <c r="F172" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G172" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H172" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I172" t="s">
         <v>696</v>
@@ -10299,42 +9433,39 @@
       <c r="J172" t="s">
         <v>661</v>
       </c>
-      <c r="K172" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
-      <c r="A173" t="s">
+    </row>
+    <row r="173" spans="1:14">
+      <c r="D173" t="s">
+        <v>657</v>
+      </c>
+      <c r="E173" t="s">
+        <v>659</v>
+      </c>
+      <c r="F173" t="s">
+        <v>663</v>
+      </c>
+      <c r="G173" t="s">
+        <v>666</v>
+      </c>
+      <c r="H173" t="s">
+        <v>66</v>
+      </c>
+      <c r="I173" t="s">
+        <v>696</v>
+      </c>
+      <c r="J173" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" t="s">
         <v>681</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>682</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>683</v>
-      </c>
-      <c r="G173" t="s">
-        <v>690</v>
-      </c>
-      <c r="H173" t="s">
-        <v>691</v>
-      </c>
-      <c r="I173" t="s">
-        <v>706</v>
-      </c>
-      <c r="K173" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17">
-      <c r="A174" t="s">
-        <v>684</v>
-      </c>
-      <c r="B174" t="s">
-        <v>685</v>
-      </c>
-      <c r="C174" t="s">
-        <v>686</v>
       </c>
       <c r="G174" t="s">
         <v>690</v>
@@ -10345,19 +9476,16 @@
       <c r="I174" t="s">
         <v>706</v>
       </c>
-      <c r="K174" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17">
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B175" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C175" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G175" t="s">
         <v>690</v>
@@ -10365,92 +9493,74 @@
       <c r="H175" t="s">
         <v>691</v>
       </c>
-      <c r="K175" t="s">
+      <c r="I175" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
-      <c r="D176" t="s">
+    <row r="176" spans="1:14">
+      <c r="A176" t="s">
+        <v>687</v>
+      </c>
+      <c r="B176" t="s">
+        <v>688</v>
+      </c>
+      <c r="C176" t="s">
+        <v>689</v>
+      </c>
+      <c r="G176" t="s">
+        <v>690</v>
+      </c>
+      <c r="H176" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="D177" t="s">
         <v>328</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E177" t="s">
         <v>353</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>736</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G177" t="s">
         <v>666</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H177" t="s">
         <v>66</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I177" t="s">
         <v>728</v>
       </c>
-      <c r="K176" t="s">
-        <v>706</v>
-      </c>
-      <c r="L176" t="s">
+      <c r="L177" t="s">
         <v>328</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M177" t="s">
         <v>353</v>
       </c>
-      <c r="N176" t="s">
+      <c r="N177" t="s">
         <v>737</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
-      <c r="A177" t="s">
-        <v>615</v>
-      </c>
-      <c r="B177" t="s">
-        <v>757</v>
-      </c>
-      <c r="C177" t="s">
-        <v>758</v>
-      </c>
-      <c r="D177" t="s">
-        <v>615</v>
-      </c>
-      <c r="E177" t="s">
-        <v>759</v>
-      </c>
-      <c r="F177" t="s">
-        <v>760</v>
-      </c>
-      <c r="G177" t="s">
-        <v>667</v>
-      </c>
-      <c r="H177" t="s">
-        <v>672</v>
-      </c>
-      <c r="I177" t="s">
-        <v>693</v>
-      </c>
-      <c r="K177" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>761</v>
+        <v>615</v>
       </c>
       <c r="B178" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C178" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D178" t="s">
-        <v>761</v>
+        <v>615</v>
       </c>
       <c r="E178" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F178" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G178" t="s">
         <v>667</v>
@@ -10461,31 +9571,28 @@
       <c r="I178" t="s">
         <v>693</v>
       </c>
-      <c r="K178" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B179" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C179" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D179" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E179" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F179" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G179" t="s">
-        <v>771</v>
+        <v>667</v>
       </c>
       <c r="H179" t="s">
         <v>672</v>
@@ -10493,133 +9600,115 @@
       <c r="I179" t="s">
         <v>693</v>
       </c>
-      <c r="K179" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="B180" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C180" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D180" t="s">
         <v>769</v>
       </c>
       <c r="E180" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="F180" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G180" t="s">
-        <v>665</v>
+        <v>771</v>
       </c>
       <c r="H180" t="s">
         <v>672</v>
       </c>
       <c r="I180" t="s">
-        <v>707</v>
-      </c>
-      <c r="K180" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="B181" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C181" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D181" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="E181" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F181" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G181" t="s">
-        <v>790</v>
+        <v>665</v>
       </c>
       <c r="H181" t="s">
         <v>672</v>
       </c>
       <c r="I181" t="s">
-        <v>693</v>
-      </c>
-      <c r="K181" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="182" spans="1:14">
+      <c r="A182" t="s">
+        <v>780</v>
+      </c>
+      <c r="B182" t="s">
+        <v>781</v>
+      </c>
+      <c r="C182" t="s">
+        <v>782</v>
+      </c>
       <c r="D182" t="s">
+        <v>780</v>
+      </c>
+      <c r="E182" t="s">
+        <v>783</v>
+      </c>
+      <c r="F182" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="D183" t="s">
         <v>786</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E183" t="s">
         <v>787</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>788</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G183" t="s">
         <v>790</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H183" t="s">
         <v>672</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I183" t="s">
         <v>791</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J183" t="s">
         <v>792</v>
       </c>
-      <c r="K182" t="s">
-        <v>790</v>
-      </c>
-      <c r="L182" t="s">
+      <c r="L183" t="s">
         <v>786</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M183" t="s">
         <v>787</v>
       </c>
-      <c r="N182" t="s">
+      <c r="N183" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" ht="16.5">
-      <c r="D183" t="s">
-        <v>793</v>
-      </c>
-      <c r="E183" t="s">
-        <v>794</v>
-      </c>
-      <c r="F183" t="s">
-        <v>795</v>
-      </c>
-      <c r="G183" t="s">
-        <v>932</v>
-      </c>
-      <c r="H183" t="s">
-        <v>66</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="J183" t="s">
-        <v>798</v>
-      </c>
-      <c r="K183" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="16.5">
@@ -10627,13 +9716,13 @@
         <v>793</v>
       </c>
       <c r="E184" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F184" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G184" t="s">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="H184" t="s">
         <v>66</v>
@@ -10644,165 +9733,147 @@
       <c r="J184" t="s">
         <v>798</v>
       </c>
-      <c r="K184" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
-      <c r="A185" t="s">
+    </row>
+    <row r="185" spans="1:14" ht="16.5">
+      <c r="D185" t="s">
+        <v>793</v>
+      </c>
+      <c r="E185" t="s">
+        <v>796</v>
+      </c>
+      <c r="F185" t="s">
+        <v>797</v>
+      </c>
+      <c r="G185" t="s">
+        <v>666</v>
+      </c>
+      <c r="H185" t="s">
+        <v>66</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="J185" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" t="s">
         <v>800</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>801</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>802</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>800</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E186" t="s">
         <v>803</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F186" t="s">
         <v>804</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G186" t="s">
         <v>806</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H186" t="s">
         <v>808</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I186" t="s">
         <v>696</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J186" t="s">
         <v>805</v>
       </c>
-      <c r="K185" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
-      <c r="D186" t="s">
+    </row>
+    <row r="187" spans="1:14">
+      <c r="D187" t="s">
         <v>485</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E187" t="s">
         <v>813</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F187" t="s">
         <v>814</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G187" t="s">
         <v>665</v>
-      </c>
-      <c r="H186" t="s">
-        <v>672</v>
-      </c>
-      <c r="I186" t="s">
-        <v>710</v>
-      </c>
-      <c r="K186" t="s">
-        <v>706</v>
-      </c>
-      <c r="L186" t="s">
-        <v>485</v>
-      </c>
-      <c r="M186" t="s">
-        <v>813</v>
-      </c>
-      <c r="N186" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
-      <c r="A187" t="s">
-        <v>822</v>
-      </c>
-      <c r="B187" t="s">
-        <v>823</v>
-      </c>
-      <c r="C187" t="s">
-        <v>824</v>
-      </c>
-      <c r="D187" t="s">
-        <v>822</v>
-      </c>
-      <c r="E187" t="s">
-        <v>825</v>
-      </c>
-      <c r="F187" t="s">
-        <v>826</v>
-      </c>
-      <c r="G187" t="s">
-        <v>827</v>
       </c>
       <c r="H187" t="s">
         <v>672</v>
       </c>
       <c r="I187" t="s">
-        <v>705</v>
-      </c>
-      <c r="K187" t="s">
-        <v>706</v>
+        <v>710</v>
+      </c>
+      <c r="L187" t="s">
+        <v>485</v>
+      </c>
+      <c r="M187" t="s">
+        <v>813</v>
+      </c>
+      <c r="N187" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B188" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C188" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D188" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E188" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F188" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G188" t="s">
-        <v>666</v>
+        <v>827</v>
       </c>
       <c r="H188" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I188" t="s">
         <v>705</v>
       </c>
-      <c r="K188" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>577</v>
+        <v>828</v>
       </c>
       <c r="B189" t="s">
-        <v>578</v>
+        <v>829</v>
       </c>
       <c r="C189" t="s">
-        <v>579</v>
+        <v>830</v>
+      </c>
+      <c r="D189" t="s">
+        <v>828</v>
+      </c>
+      <c r="E189" t="s">
+        <v>831</v>
+      </c>
+      <c r="F189" t="s">
+        <v>832</v>
       </c>
       <c r="G189" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H189" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I189" t="s">
-        <v>715</v>
-      </c>
-      <c r="J189" t="s">
-        <v>594</v>
-      </c>
-      <c r="K189" t="s">
-        <v>664</v>
+        <v>705</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10810,10 +9881,10 @@
         <v>577</v>
       </c>
       <c r="B190" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C190" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G190" t="s">
         <v>806</v>
@@ -10826,9 +9897,6 @@
       </c>
       <c r="J190" t="s">
         <v>594</v>
-      </c>
-      <c r="K190" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10836,10 +9904,10 @@
         <v>577</v>
       </c>
       <c r="B191" t="s">
-        <v>834</v>
+        <v>586</v>
       </c>
       <c r="C191" t="s">
-        <v>834</v>
+        <v>586</v>
       </c>
       <c r="G191" t="s">
         <v>806</v>
@@ -10852,9 +9920,6 @@
       </c>
       <c r="J191" t="s">
         <v>594</v>
-      </c>
-      <c r="K191" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10862,10 +9927,10 @@
         <v>577</v>
       </c>
       <c r="B192" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C192" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G192" t="s">
         <v>806</v>
@@ -10879,19 +9944,16 @@
       <c r="J192" t="s">
         <v>594</v>
       </c>
-      <c r="K192" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>577</v>
       </c>
       <c r="B193" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C193" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G193" t="s">
         <v>806</v>
@@ -10905,19 +9967,16 @@
       <c r="J193" t="s">
         <v>594</v>
       </c>
-      <c r="K193" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>577</v>
       </c>
       <c r="B194" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C194" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G194" t="s">
         <v>806</v>
@@ -10931,19 +9990,16 @@
       <c r="J194" t="s">
         <v>594</v>
       </c>
-      <c r="K194" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>577</v>
       </c>
       <c r="B195" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C195" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G195" t="s">
         <v>806</v>
@@ -10957,19 +10013,16 @@
       <c r="J195" t="s">
         <v>594</v>
       </c>
-      <c r="K195" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>577</v>
       </c>
       <c r="B196" t="s">
-        <v>580</v>
+        <v>838</v>
       </c>
       <c r="C196" t="s">
-        <v>581</v>
+        <v>838</v>
       </c>
       <c r="G196" t="s">
         <v>806</v>
@@ -10983,19 +10036,16 @@
       <c r="J196" t="s">
         <v>594</v>
       </c>
-      <c r="K196" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>577</v>
       </c>
       <c r="B197" t="s">
-        <v>839</v>
+        <v>580</v>
       </c>
       <c r="C197" t="s">
-        <v>839</v>
+        <v>581</v>
       </c>
       <c r="G197" t="s">
         <v>806</v>
@@ -11009,19 +10059,16 @@
       <c r="J197" t="s">
         <v>594</v>
       </c>
-      <c r="K197" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>577</v>
       </c>
       <c r="B198" t="s">
-        <v>587</v>
+        <v>839</v>
       </c>
       <c r="C198" t="s">
-        <v>587</v>
+        <v>839</v>
       </c>
       <c r="G198" t="s">
         <v>806</v>
@@ -11035,19 +10082,16 @@
       <c r="J198" t="s">
         <v>594</v>
       </c>
-      <c r="K198" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>577</v>
       </c>
       <c r="B199" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C199" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G199" t="s">
         <v>806</v>
@@ -11061,19 +10105,16 @@
       <c r="J199" t="s">
         <v>594</v>
       </c>
-      <c r="K199" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>577</v>
       </c>
       <c r="B200" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C200" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G200" t="s">
         <v>806</v>
@@ -11087,19 +10128,16 @@
       <c r="J200" t="s">
         <v>594</v>
       </c>
-      <c r="K200" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>577</v>
       </c>
       <c r="B201" t="s">
-        <v>840</v>
+        <v>589</v>
       </c>
       <c r="C201" t="s">
-        <v>840</v>
+        <v>589</v>
       </c>
       <c r="G201" t="s">
         <v>806</v>
@@ -11113,19 +10151,16 @@
       <c r="J201" t="s">
         <v>594</v>
       </c>
-      <c r="K201" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>577</v>
       </c>
       <c r="B202" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C202" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G202" t="s">
         <v>806</v>
@@ -11139,19 +10174,16 @@
       <c r="J202" t="s">
         <v>594</v>
       </c>
-      <c r="K202" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>577</v>
       </c>
       <c r="B203" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C203" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G203" t="s">
         <v>806</v>
@@ -11165,19 +10197,16 @@
       <c r="J203" t="s">
         <v>594</v>
       </c>
-      <c r="K203" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>577</v>
       </c>
       <c r="B204" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C204" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="G204" t="s">
         <v>806</v>
@@ -11191,19 +10220,16 @@
       <c r="J204" t="s">
         <v>594</v>
       </c>
-      <c r="K204" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>577</v>
       </c>
       <c r="B205" t="s">
-        <v>590</v>
+        <v>833</v>
       </c>
       <c r="C205" t="s">
-        <v>590</v>
+        <v>833</v>
       </c>
       <c r="G205" t="s">
         <v>806</v>
@@ -11217,19 +10243,16 @@
       <c r="J205" t="s">
         <v>594</v>
       </c>
-      <c r="K205" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>577</v>
       </c>
       <c r="B206" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C206" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G206" t="s">
         <v>806</v>
@@ -11243,28 +10266,16 @@
       <c r="J206" t="s">
         <v>594</v>
       </c>
-      <c r="K206" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>577</v>
       </c>
       <c r="B207" t="s">
-        <v>873</v>
+        <v>591</v>
       </c>
       <c r="C207" t="s">
-        <v>874</v>
-      </c>
-      <c r="D207" t="s">
-        <v>577</v>
-      </c>
-      <c r="E207" t="s">
-        <v>924</v>
-      </c>
-      <c r="F207" t="s">
-        <v>925</v>
+        <v>591</v>
       </c>
       <c r="G207" t="s">
         <v>806</v>
@@ -11278,11 +10289,8 @@
       <c r="J207" t="s">
         <v>594</v>
       </c>
-      <c r="K207" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>577</v>
       </c>
@@ -11310,11 +10318,8 @@
       <c r="I208" t="s">
         <v>705</v>
       </c>
-      <c r="K208" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>577</v>
       </c>
@@ -11341,994 +10346,162 @@
       </c>
       <c r="I209" t="s">
         <v>705</v>
-      </c>
-      <c r="K209" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="D210" t="s">
-        <v>124</v>
-      </c>
-      <c r="E210" t="s">
-        <v>844</v>
-      </c>
-      <c r="F210" t="s">
-        <v>845</v>
-      </c>
-      <c r="G210" t="s">
-        <v>666</v>
-      </c>
-      <c r="H210" t="s">
-        <v>66</v>
-      </c>
-      <c r="I210" t="s">
-        <v>697</v>
-      </c>
-      <c r="J210" t="s">
-        <v>142</v>
-      </c>
-      <c r="K210" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211" t="s">
-        <v>595</v>
-      </c>
-      <c r="B211" t="s">
-        <v>846</v>
-      </c>
-      <c r="C211" t="s">
-        <v>847</v>
-      </c>
-      <c r="G211" t="s">
-        <v>806</v>
-      </c>
-      <c r="H211" t="s">
-        <v>808</v>
-      </c>
-      <c r="I211" t="s">
-        <v>705</v>
-      </c>
-      <c r="J211" t="s">
-        <v>848</v>
-      </c>
-      <c r="K211" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212" t="s">
-        <v>849</v>
-      </c>
-      <c r="B212" t="s">
-        <v>850</v>
-      </c>
-      <c r="C212" t="s">
-        <v>851</v>
-      </c>
-      <c r="D212" t="s">
-        <v>744</v>
-      </c>
-      <c r="E212" t="s">
-        <v>850</v>
-      </c>
-      <c r="F212" t="s">
-        <v>852</v>
-      </c>
-      <c r="G212" t="s">
-        <v>854</v>
-      </c>
-      <c r="H212" t="s">
-        <v>672</v>
-      </c>
-      <c r="I212" t="s">
-        <v>853</v>
-      </c>
-      <c r="K212" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="D213" t="s">
-        <v>248</v>
-      </c>
-      <c r="E213" t="s">
-        <v>251</v>
-      </c>
-      <c r="F213" t="s">
-        <v>855</v>
-      </c>
-      <c r="G213" t="s">
-        <v>667</v>
-      </c>
-      <c r="H213" t="s">
-        <v>672</v>
-      </c>
-      <c r="I213" t="s">
-        <v>693</v>
-      </c>
-      <c r="K213" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
-      <c r="A214" t="s">
-        <v>766</v>
-      </c>
-      <c r="B214" t="s">
-        <v>856</v>
-      </c>
-      <c r="C214" t="s">
-        <v>857</v>
-      </c>
-      <c r="G214" t="s">
-        <v>771</v>
-      </c>
-      <c r="H214" t="s">
-        <v>672</v>
-      </c>
-      <c r="I214" t="s">
-        <v>858</v>
-      </c>
-      <c r="K214" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
-      <c r="A215" t="s">
-        <v>634</v>
-      </c>
-      <c r="B215" t="s">
-        <v>859</v>
-      </c>
-      <c r="C215" t="s">
-        <v>860</v>
-      </c>
-      <c r="G215" t="s">
-        <v>771</v>
-      </c>
-      <c r="H215" t="s">
-        <v>672</v>
-      </c>
-      <c r="I215" t="s">
-        <v>921</v>
-      </c>
-      <c r="K215" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11">
-      <c r="D216" t="s">
-        <v>861</v>
-      </c>
-      <c r="E216" t="s">
-        <v>862</v>
-      </c>
-      <c r="F216" t="s">
-        <v>863</v>
-      </c>
-      <c r="G216" t="s">
-        <v>666</v>
-      </c>
-      <c r="H216" t="s">
-        <v>66</v>
-      </c>
-      <c r="I216" t="s">
-        <v>693</v>
-      </c>
-      <c r="K216" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
-      <c r="D217" t="s">
-        <v>864</v>
-      </c>
-      <c r="E217" t="s">
-        <v>865</v>
-      </c>
-      <c r="F217" t="s">
-        <v>866</v>
-      </c>
-      <c r="G217" t="s">
-        <v>666</v>
-      </c>
-      <c r="H217" t="s">
-        <v>66</v>
-      </c>
-      <c r="I217" t="s">
-        <v>696</v>
-      </c>
-      <c r="K217" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
-      <c r="D218" t="s">
-        <v>867</v>
-      </c>
-      <c r="E218" t="s">
-        <v>868</v>
-      </c>
-      <c r="F218" t="s">
-        <v>869</v>
-      </c>
-      <c r="G218" t="s">
-        <v>666</v>
-      </c>
-      <c r="H218" t="s">
-        <v>66</v>
-      </c>
-      <c r="I218" t="s">
-        <v>700</v>
-      </c>
-      <c r="K218" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
-      <c r="A219" t="s">
-        <v>310</v>
-      </c>
-      <c r="B219" t="s">
-        <v>311</v>
-      </c>
-      <c r="C219" t="s">
-        <v>870</v>
-      </c>
-      <c r="G219" t="s">
-        <v>664</v>
-      </c>
-      <c r="H219" t="s">
-        <v>807</v>
-      </c>
-      <c r="I219" t="s">
-        <v>696</v>
-      </c>
-      <c r="K219" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="D220" t="s">
-        <v>475</v>
-      </c>
-      <c r="E220" t="s">
-        <v>478</v>
-      </c>
-      <c r="F220" t="s">
-        <v>871</v>
-      </c>
-      <c r="G220" t="s">
-        <v>665</v>
-      </c>
-      <c r="H220" t="s">
-        <v>672</v>
-      </c>
-      <c r="I220" t="s">
-        <v>710</v>
-      </c>
-      <c r="K220" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
-      <c r="D221" t="s">
-        <v>468</v>
-      </c>
-      <c r="E221" t="s">
-        <v>471</v>
-      </c>
-      <c r="F221" t="s">
-        <v>872</v>
-      </c>
-      <c r="G221" t="s">
-        <v>666</v>
-      </c>
-      <c r="H221" t="s">
-        <v>66</v>
-      </c>
-      <c r="I221" t="s">
-        <v>710</v>
-      </c>
-      <c r="K221" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
-      <c r="A222" t="s">
-        <v>875</v>
-      </c>
-      <c r="B222" t="s">
-        <v>876</v>
-      </c>
-      <c r="C222" t="s">
-        <v>877</v>
-      </c>
-      <c r="G222" t="s">
-        <v>666</v>
-      </c>
-      <c r="H222" t="s">
-        <v>66</v>
-      </c>
-      <c r="I222" t="s">
-        <v>715</v>
-      </c>
-      <c r="K222" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
-      <c r="A223" t="s">
-        <v>878</v>
-      </c>
-      <c r="B223" t="s">
-        <v>879</v>
-      </c>
-      <c r="C223" t="s">
-        <v>880</v>
-      </c>
-      <c r="G223" t="s">
-        <v>666</v>
-      </c>
-      <c r="H223" t="s">
-        <v>66</v>
-      </c>
-      <c r="I223" t="s">
-        <v>922</v>
-      </c>
-      <c r="K223" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="A224" t="s">
-        <v>881</v>
-      </c>
-      <c r="B224" t="s">
-        <v>882</v>
-      </c>
-      <c r="C224" t="s">
-        <v>883</v>
-      </c>
-      <c r="G224" t="s">
-        <v>664</v>
-      </c>
-      <c r="H224" t="s">
-        <v>807</v>
-      </c>
-      <c r="I224" t="s">
-        <v>714</v>
-      </c>
-      <c r="K224" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="D225" t="s">
-        <v>884</v>
-      </c>
-      <c r="E225" t="s">
-        <v>885</v>
-      </c>
-      <c r="F225" t="s">
-        <v>886</v>
-      </c>
-      <c r="G225" t="s">
-        <v>666</v>
-      </c>
-      <c r="H225" t="s">
-        <v>66</v>
-      </c>
-      <c r="I225" t="s">
-        <v>702</v>
-      </c>
-      <c r="K225" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="D226" t="s">
-        <v>161</v>
-      </c>
-      <c r="E226" t="s">
-        <v>887</v>
-      </c>
-      <c r="F226" t="s">
-        <v>888</v>
-      </c>
-      <c r="G226" t="s">
-        <v>666</v>
-      </c>
-      <c r="H226" t="s">
-        <v>66</v>
-      </c>
-      <c r="I226" t="s">
-        <v>697</v>
-      </c>
-      <c r="K226" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
-      <c r="D227" t="s">
-        <v>282</v>
-      </c>
-      <c r="E227" t="s">
-        <v>889</v>
-      </c>
-      <c r="F227" t="s">
-        <v>890</v>
-      </c>
-      <c r="G227" t="s">
-        <v>666</v>
-      </c>
-      <c r="H227" t="s">
-        <v>66</v>
-      </c>
-      <c r="I227" t="s">
-        <v>693</v>
-      </c>
-      <c r="K227" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
-      <c r="D228" t="s">
-        <v>328</v>
-      </c>
-      <c r="E228" t="s">
-        <v>891</v>
-      </c>
-      <c r="F228" t="s">
-        <v>892</v>
-      </c>
-      <c r="G228" t="s">
-        <v>664</v>
-      </c>
-      <c r="H228" t="s">
-        <v>807</v>
-      </c>
-      <c r="I228" t="s">
-        <v>693</v>
-      </c>
-      <c r="K228" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
-      <c r="D229" t="s">
-        <v>328</v>
-      </c>
-      <c r="E229" t="s">
-        <v>345</v>
-      </c>
-      <c r="F229" t="s">
-        <v>893</v>
-      </c>
-      <c r="G229" t="s">
-        <v>666</v>
-      </c>
-      <c r="H229" t="s">
-        <v>66</v>
-      </c>
-      <c r="I229" t="s">
-        <v>693</v>
-      </c>
-      <c r="K229" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
-      <c r="D230" t="s">
-        <v>415</v>
-      </c>
-      <c r="E230" t="s">
-        <v>423</v>
-      </c>
-      <c r="F230" t="s">
-        <v>894</v>
-      </c>
-      <c r="G230" t="s">
-        <v>666</v>
-      </c>
-      <c r="H230" t="s">
-        <v>66</v>
-      </c>
-      <c r="I230" t="s">
-        <v>693</v>
-      </c>
-      <c r="K230" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
-      <c r="D231" t="s">
-        <v>46</v>
-      </c>
-      <c r="E231" t="s">
-        <v>895</v>
-      </c>
-      <c r="F231" t="s">
-        <v>896</v>
-      </c>
-      <c r="G231" t="s">
-        <v>664</v>
-      </c>
-      <c r="H231" t="s">
-        <v>807</v>
-      </c>
-      <c r="I231" t="s">
-        <v>702</v>
-      </c>
-      <c r="K231" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
-      <c r="D232" t="s">
-        <v>46</v>
-      </c>
-      <c r="E232" t="s">
-        <v>897</v>
-      </c>
-      <c r="F232" t="s">
-        <v>898</v>
-      </c>
-      <c r="G232" t="s">
-        <v>664</v>
-      </c>
-      <c r="H232" t="s">
-        <v>807</v>
-      </c>
-      <c r="I232" t="s">
-        <v>693</v>
-      </c>
-      <c r="K232" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
-      <c r="D233" t="s">
-        <v>46</v>
-      </c>
-      <c r="E233" t="s">
-        <v>436</v>
-      </c>
-      <c r="F233" t="s">
-        <v>899</v>
-      </c>
-      <c r="G233" t="s">
-        <v>666</v>
-      </c>
-      <c r="H233" t="s">
-        <v>66</v>
-      </c>
-      <c r="I233" t="s">
-        <v>697</v>
-      </c>
-      <c r="K233" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
-      <c r="D234" t="s">
-        <v>864</v>
-      </c>
-      <c r="E234" t="s">
-        <v>900</v>
-      </c>
-      <c r="F234" t="s">
-        <v>901</v>
-      </c>
-      <c r="G234" t="s">
-        <v>923</v>
-      </c>
-      <c r="H234" t="s">
-        <v>672</v>
-      </c>
-      <c r="I234" t="s">
-        <v>791</v>
-      </c>
-      <c r="K234" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
-      <c r="D235" t="s">
-        <v>738</v>
-      </c>
-      <c r="E235" t="s">
-        <v>902</v>
-      </c>
-      <c r="F235" t="s">
-        <v>903</v>
-      </c>
-      <c r="G235" t="s">
-        <v>664</v>
-      </c>
-      <c r="H235" t="s">
-        <v>807</v>
-      </c>
-      <c r="I235" t="s">
-        <v>702</v>
-      </c>
-      <c r="K235" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="D236" t="s">
-        <v>738</v>
-      </c>
-      <c r="E236" t="s">
-        <v>904</v>
-      </c>
-      <c r="F236" t="s">
-        <v>905</v>
-      </c>
-      <c r="G236" t="s">
-        <v>664</v>
-      </c>
-      <c r="H236" t="s">
-        <v>807</v>
-      </c>
-      <c r="I236" t="s">
-        <v>702</v>
-      </c>
-      <c r="K236" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
-      <c r="A237" t="s">
-        <v>231</v>
-      </c>
-      <c r="B237" t="s">
-        <v>906</v>
-      </c>
-      <c r="C237" t="s">
-        <v>907</v>
-      </c>
-      <c r="G237" t="s">
-        <v>771</v>
-      </c>
-      <c r="H237" t="s">
-        <v>672</v>
-      </c>
-      <c r="I237" t="s">
-        <v>921</v>
-      </c>
-      <c r="K237" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" t="s">
-        <v>793</v>
-      </c>
-      <c r="B238" t="s">
-        <v>908</v>
-      </c>
-      <c r="C238" t="s">
-        <v>909</v>
-      </c>
-      <c r="G238" t="s">
-        <v>664</v>
-      </c>
-      <c r="H238" t="s">
-        <v>807</v>
-      </c>
-      <c r="I238" t="s">
-        <v>704</v>
-      </c>
-      <c r="K238" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
-      <c r="D239" t="s">
-        <v>514</v>
-      </c>
-      <c r="E239" t="s">
-        <v>522</v>
-      </c>
-      <c r="F239" t="s">
-        <v>910</v>
-      </c>
-      <c r="G239" t="s">
-        <v>666</v>
-      </c>
-      <c r="H239" t="s">
-        <v>66</v>
-      </c>
-      <c r="I239" t="s">
-        <v>705</v>
-      </c>
-      <c r="K239" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
-      <c r="D240" t="s">
-        <v>744</v>
-      </c>
-      <c r="E240" t="s">
-        <v>911</v>
-      </c>
-      <c r="F240" t="s">
-        <v>912</v>
-      </c>
-      <c r="G240" t="s">
-        <v>664</v>
-      </c>
-      <c r="H240" t="s">
-        <v>807</v>
-      </c>
-      <c r="I240" t="s">
-        <v>705</v>
-      </c>
-      <c r="K240" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="241" spans="4:11">
-      <c r="D241" t="s">
-        <v>744</v>
-      </c>
-      <c r="E241" t="s">
-        <v>913</v>
-      </c>
-      <c r="F241" t="s">
-        <v>914</v>
-      </c>
-      <c r="G241" t="s">
-        <v>854</v>
-      </c>
-      <c r="H241" t="s">
-        <v>672</v>
-      </c>
-      <c r="I241" t="s">
-        <v>705</v>
-      </c>
-      <c r="K241" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="242" spans="4:11">
-      <c r="D242" t="s">
-        <v>744</v>
-      </c>
-      <c r="E242" t="s">
-        <v>915</v>
-      </c>
-      <c r="F242" t="s">
-        <v>916</v>
-      </c>
-      <c r="G242" t="s">
-        <v>664</v>
-      </c>
-      <c r="H242" t="s">
-        <v>807</v>
-      </c>
-      <c r="I242" t="s">
-        <v>705</v>
-      </c>
-      <c r="K242" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="243" spans="4:11">
-      <c r="D243" t="s">
-        <v>810</v>
-      </c>
-      <c r="E243" t="s">
-        <v>917</v>
-      </c>
-      <c r="F243" t="s">
-        <v>918</v>
-      </c>
-      <c r="G243" t="s">
-        <v>664</v>
-      </c>
-      <c r="H243" t="s">
-        <v>807</v>
-      </c>
-      <c r="I243" t="s">
-        <v>696</v>
-      </c>
-      <c r="K243" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="244" spans="4:11">
-      <c r="D244" t="s">
-        <v>463</v>
-      </c>
-      <c r="E244" t="s">
-        <v>919</v>
-      </c>
-      <c r="F244" t="s">
-        <v>920</v>
-      </c>
-      <c r="G244" t="s">
-        <v>664</v>
-      </c>
-      <c r="H244" t="s">
-        <v>807</v>
-      </c>
-      <c r="I244" t="s">
-        <v>696</v>
-      </c>
-      <c r="K244" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="100" priority="248"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4 C6:C50 C52:C236 C239:C1048576">
-    <cfRule type="duplicateValues" dxfId="95" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="50"/>
+  <conditionalFormatting sqref="C1:C4 C6:C50 C52:C1048576">
+    <cfRule type="duplicateValues" dxfId="91" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C50 C52:C236 C239:C1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="18"/>
+  <conditionalFormatting sqref="C1:C50 C52:C1048576">
+    <cfRule type="duplicateValues" dxfId="89" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
     <cfRule type="duplicateValues" dxfId="85" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="84" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="72" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="71" priority="249"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="251"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="247"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F4 F6:F236 F239:F1048576 C237:C238">
-    <cfRule type="duplicateValues" dxfId="66" priority="49"/>
+  <conditionalFormatting sqref="F1:F4 F6:F1048576">
+    <cfRule type="duplicateValues" dxfId="62" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F236 F239:F1048576 C237:C238">
-    <cfRule type="duplicateValues" dxfId="65" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="34"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="60" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="213"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F236 F239:F1048576 C237:C238 F1 F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="57" priority="230"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="228"/>
+  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1 F4 F6:F76">
+    <cfRule type="duplicateValues" dxfId="53" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F236 F239:F1048576 C237:C238 F1:F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="54" priority="201"/>
+  <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1:F4 F6:F76">
+    <cfRule type="duplicateValues" dxfId="50" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F113 F1:F4 F115:F236 F239:F1048576 C237:C238 F6:F96">
-    <cfRule type="duplicateValues" dxfId="53" priority="195"/>
+  <conditionalFormatting sqref="F98:F113 F1:F4 F115:F1048576 F6:F96">
+    <cfRule type="duplicateValues" dxfId="49" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="52" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="235"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J76 J79:J161 J164:J1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="200"/>
+  <conditionalFormatting sqref="J1:J76 J165:J1048576 J79:J162">
+    <cfRule type="duplicateValues" dxfId="46" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="49" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="46" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J76">
-    <cfRule type="duplicateValues" dxfId="43" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="267"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77:J78 C79:C236 C239:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
-    <cfRule type="duplicateValues" dxfId="40" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="202"/>
+  <conditionalFormatting sqref="J77:J78 C79:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
+    <cfRule type="duplicateValues" dxfId="36" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="198"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J162:J163">
-    <cfRule type="duplicateValues" dxfId="36" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="189"/>
+  <conditionalFormatting sqref="J163:J164">
+    <cfRule type="duplicateValues" dxfId="32" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="33" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="32" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="29" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="26" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="19" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="223"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N124">
-    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="26"/>
+  <conditionalFormatting sqref="N125">
+    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="6" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q167">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T37">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF5A72C-D1D4-41EE-A791-FAC41B57FCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67207DEB-5EA0-44CD-86DB-9D27BECA3EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$246</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$245</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="944">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2913,6 +2913,18 @@
   <si>
     <t>Jaynie&amp;方芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60370-60370</t>
+  </si>
+  <si>
+    <t>STC12100B</t>
+  </si>
+  <si>
+    <t>SC9684TS-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9684TS-Q-DB-4XAR-9684</t>
   </si>
 </sst>
 </file>
@@ -3085,7 +3097,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="116">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4515,8 +4537,8 @@
   <dimension ref="A1:W246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11834,6 +11856,15 @@
       <c r="C224" t="s">
         <v>877</v>
       </c>
+      <c r="D224" t="s">
+        <v>875</v>
+      </c>
+      <c r="E224" t="s">
+        <v>876</v>
+      </c>
+      <c r="F224" t="s">
+        <v>940</v>
+      </c>
       <c r="G224" t="s">
         <v>664</v>
       </c>
@@ -12332,194 +12363,206 @@
     </row>
     <row r="246" spans="4:11">
       <c r="D246" t="s">
-        <v>395</v>
+        <v>941</v>
       </c>
       <c r="E246" t="s">
-        <v>404</v>
+        <v>942</v>
       </c>
       <c r="F246" t="s">
-        <v>405</v>
+        <v>943</v>
+      </c>
+      <c r="G246" t="s">
+        <v>664</v>
+      </c>
+      <c r="H246" t="s">
+        <v>66</v>
+      </c>
+      <c r="I246" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W246" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W245" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="114" priority="262"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="109" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="58"/>
     <cfRule type="duplicateValues" dxfId="108" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="102" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240:C1048576 C1:C4 C6:C50 C81:C237 C52:C79">
-    <cfRule type="duplicateValues" dxfId="90" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240:C1048576 C1:C50 C81:C237 C52:C79">
-    <cfRule type="duplicateValues" dxfId="88" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240:C1048576 J76:J77 C81:C237 C78:C79 C1:C4 B76:C77 E76:F77 C6:C50 L76:L77 C52:C75">
-    <cfRule type="duplicateValues" dxfId="86" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="82" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="81" priority="265"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="76" priority="230"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
+    <cfRule type="duplicateValues" dxfId="74" priority="13"/>
     <cfRule type="duplicateValues" dxfId="73" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F116:F237 F1:F4 F240:F1048576 C238:C239 F6:F38 F98:F107 F109:F114 F40:F96">
-    <cfRule type="duplicateValues" dxfId="70" priority="209"/>
+  <conditionalFormatting sqref="F1:F4 F240:F1048576 C238:C239 F6:F38 F98:F107 F109:F114 F40:F96 F116:F237">
+    <cfRule type="duplicateValues" dxfId="71" priority="210"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F116:F237 F78:F96 F240:F1048576 C238:C239 F1 F4 F6:F38 F98:F107 F109:F114 F40:F75">
-    <cfRule type="duplicateValues" dxfId="69" priority="235"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="244"/>
+  <conditionalFormatting sqref="F78:F96 F240:F1048576 C238:C239 F1 F4 F6:F38 F98:F107 F109:F114 F40:F75 F116:F237">
+    <cfRule type="duplicateValues" dxfId="70" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="245"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F116:F237 F78:F96 F240:F1048576 C238:C239 F1:F4 F6:F38 F98:F107 F109:F114 F40:F75">
-    <cfRule type="duplicateValues" dxfId="66" priority="215"/>
+  <conditionalFormatting sqref="F78:F96 F240:F1048576 C238:C239 F1:F4 F6:F38 F98:F107 F109:F114 F40:F75 F116:F237">
+    <cfRule type="duplicateValues" dxfId="67" priority="216"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F240:F1048576 C238:C239 F1:F38 F109:F237 F40:F107">
-    <cfRule type="duplicateValues" dxfId="65" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
+  <conditionalFormatting sqref="F240:F1048576 C238:C239 F1:F38 F40:F107 F109:F237">
+    <cfRule type="duplicateValues" dxfId="66" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F240:F1048576 F1:F4 C238:C239 F6:F38 F109:F237 F40:F107">
-    <cfRule type="duplicateValues" dxfId="60" priority="63"/>
+  <conditionalFormatting sqref="F240:F1048576 F1:F4 C238:C239 F6:F38 F40:F107 F109:F237">
+    <cfRule type="duplicateValues" dxfId="61" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="59" priority="252"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
+    <cfRule type="duplicateValues" dxfId="58" priority="224"/>
     <cfRule type="duplicateValues" dxfId="57" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
+    <cfRule type="duplicateValues" dxfId="55" priority="221"/>
     <cfRule type="duplicateValues" dxfId="54" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J75">
+    <cfRule type="duplicateValues" dxfId="52" priority="424"/>
     <cfRule type="duplicateValues" dxfId="51" priority="425"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="423"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J164">
+    <cfRule type="duplicateValues" dxfId="49" priority="203"/>
     <cfRule type="duplicateValues" dxfId="48" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J165:J1048576 J1:J75 J78:J162">
-    <cfRule type="duplicateValues" dxfId="45" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="44" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="43" priority="233"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="40" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="37" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="53"/>
     <cfRule type="duplicateValues" dxfId="34" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="30" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:N40">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
     <cfRule type="duplicateValues" dxfId="20" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="17" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="6" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q168">
-    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G246">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67207DEB-5EA0-44CD-86DB-9D27BECA3EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081D2E22-100F-4567-AE32-8EBF8A8711C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$246</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="946">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2901,9 +2901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA.SC9642TS-E362-Q-AH</t>
-  </si>
-  <si>
     <t>SC9641TS-362-Q-CB-10LK-9641</t>
   </si>
   <si>
@@ -2925,6 +2922,17 @@
   </si>
   <si>
     <t>SC9684TS-Q-DB-4XAR-9684</t>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
+  </si>
+  <si>
+    <t>Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁文强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4537,8 +4545,8 @@
   <dimension ref="A1:W246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F245" sqref="F245"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8688,16 +8696,16 @@
         <v>454</v>
       </c>
       <c r="G120" t="s">
+        <v>937</v>
+      </c>
+      <c r="H120" t="s">
         <v>938</v>
-      </c>
-      <c r="H120" t="s">
-        <v>939</v>
       </c>
       <c r="I120" t="s">
         <v>708</v>
       </c>
       <c r="J120" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K120" t="s">
         <v>704</v>
@@ -8731,6 +8739,9 @@
       <c r="I121" t="s">
         <v>708</v>
       </c>
+      <c r="J121" t="s">
+        <v>936</v>
+      </c>
       <c r="K121" t="s">
         <v>704</v>
       </c>
@@ -8883,6 +8894,9 @@
       <c r="I125" t="s">
         <v>708</v>
       </c>
+      <c r="J125" t="s">
+        <v>943</v>
+      </c>
       <c r="K125" t="s">
         <v>704</v>
       </c>
@@ -11673,7 +11687,7 @@
         <v>768</v>
       </c>
       <c r="H216" t="s">
-        <v>670</v>
+        <v>944</v>
       </c>
       <c r="I216" t="s">
         <v>918</v>
@@ -11788,13 +11802,13 @@
         <v>935</v>
       </c>
       <c r="H221" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="I221" t="s">
         <v>708</v>
       </c>
       <c r="J221" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="K221" t="s">
         <v>704</v>
@@ -11863,7 +11877,7 @@
         <v>876</v>
       </c>
       <c r="F224" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G224" t="s">
         <v>664</v>
@@ -12122,7 +12136,7 @@
         <v>920</v>
       </c>
       <c r="H235" t="s">
-        <v>670</v>
+        <v>945</v>
       </c>
       <c r="I235" t="s">
         <v>788</v>
@@ -12363,13 +12377,13 @@
     </row>
     <row r="246" spans="4:11">
       <c r="D246" t="s">
+        <v>940</v>
+      </c>
+      <c r="E246" t="s">
         <v>941</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>942</v>
-      </c>
-      <c r="F246" t="s">
-        <v>943</v>
       </c>
       <c r="G246" t="s">
         <v>664</v>
@@ -12382,41 +12396,41 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W245" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W246" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="115" priority="256"/>
     <cfRule type="duplicateValues" dxfId="114" priority="257"/>
     <cfRule type="duplicateValues" dxfId="113" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="110" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="103" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240:C1048576 C1:C4 C6:C50 C81:C237 C52:C79">
-    <cfRule type="duplicateValues" dxfId="91" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240:C1048576 C1:C50 C81:C237 C52:C79">
     <cfRule type="duplicateValues" dxfId="89" priority="33"/>
@@ -12424,145 +12438,145 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C240:C1048576 J76:J77 C81:C237 C78:C79 C1:C4 B76:C77 E76:F77 C6:C50 L76:L77 C52:C75">
     <cfRule type="duplicateValues" dxfId="87" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="246"/>
     <cfRule type="duplicateValues" dxfId="85" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="83" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="82" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="260"/>
     <cfRule type="duplicateValues" dxfId="80" priority="264"/>
     <cfRule type="duplicateValues" dxfId="79" priority="265"/>
     <cfRule type="duplicateValues" dxfId="78" priority="266"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F4 F240:F1048576 C238:C239 F6:F38 F98:F107 F109:F114 F40:F96 F116:F237">
+    <cfRule type="duplicateValues" dxfId="77" priority="210"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="77" priority="230"/>
     <cfRule type="duplicateValues" dxfId="76" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:F96 F240:F1048576 C238:C239 F1 F4 F6:F38 F98:F107 F109:F114 F40:F75 F116:F237">
+    <cfRule type="duplicateValues" dxfId="73" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:F96 F240:F1048576 C238:C239 F1:F4 F6:F38 F98:F107 F109:F114 F40:F75 F116:F237">
+    <cfRule type="duplicateValues" dxfId="70" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="74" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F4 F240:F1048576 C238:C239 F6:F38 F98:F107 F109:F114 F40:F96 F116:F237">
-    <cfRule type="duplicateValues" dxfId="71" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F96 F240:F1048576 C238:C239 F1 F4 F6:F38 F98:F107 F109:F114 F40:F75 F116:F237">
-    <cfRule type="duplicateValues" dxfId="70" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F96 F240:F1048576 C238:C239 F1:F4 F6:F38 F98:F107 F109:F114 F40:F75 F116:F237">
-    <cfRule type="duplicateValues" dxfId="67" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F240:F1048576 C238:C239 F1:F38 F40:F107 F109:F237">
-    <cfRule type="duplicateValues" dxfId="66" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="48"/>
     <cfRule type="duplicateValues" dxfId="64" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="32"/>
     <cfRule type="duplicateValues" dxfId="62" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F240:F1048576 F1:F4 C238:C239 F6:F38 F40:F107 F109:F237">
     <cfRule type="duplicateValues" dxfId="61" priority="64"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G246">
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="60" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="58" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="55" priority="221"/>
     <cfRule type="duplicateValues" dxfId="54" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J75">
-    <cfRule type="duplicateValues" dxfId="52" priority="424"/>
     <cfRule type="duplicateValues" dxfId="51" priority="425"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J164">
-    <cfRule type="duplicateValues" dxfId="49" priority="203"/>
     <cfRule type="duplicateValues" dxfId="48" priority="204"/>
     <cfRule type="duplicateValues" dxfId="47" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J165:J1048576 J1:J75 J78:J162">
-    <cfRule type="duplicateValues" dxfId="46" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="45" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="44" priority="233"/>
     <cfRule type="duplicateValues" dxfId="43" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="41" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="38" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
     <cfRule type="duplicateValues" dxfId="34" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="31" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:N40">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
     <cfRule type="duplicateValues" dxfId="28" priority="3"/>
     <cfRule type="duplicateValues" dxfId="27" priority="4"/>
     <cfRule type="duplicateValues" dxfId="26" priority="5"/>
     <cfRule type="duplicateValues" dxfId="25" priority="6"/>
     <cfRule type="duplicateValues" dxfId="24" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="18" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="39"/>
     <cfRule type="duplicateValues" dxfId="16" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="34"/>
     <cfRule type="duplicateValues" dxfId="12" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="7" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="238"/>
     <cfRule type="duplicateValues" dxfId="5" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q168">
-    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
     <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
     <cfRule type="duplicateValues" dxfId="1" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G246">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081D2E22-100F-4567-AE32-8EBF8A8711C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A998C87-6A71-47F7-AAD4-27A92BE496D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2707,9 +2707,6 @@
     <t>SC60104</t>
   </si>
   <si>
-    <t>NM.SC60104</t>
-  </si>
-  <si>
     <t>STC9D05B</t>
   </si>
   <si>
@@ -2932,6 +2929,10 @@
   </si>
   <si>
     <t>丁文强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC60104</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4545,8 +4546,8 @@
   <dimension ref="A1:W246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4880,10 +4881,10 @@
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>671</v>
       </c>
       <c r="I8" t="s">
         <v>695</v>
@@ -5313,10 +5314,10 @@
         <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I19" t="s">
         <v>691</v>
@@ -5380,7 +5381,7 @@
         <v>752</v>
       </c>
       <c r="G21" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5392,7 +5393,7 @@
         <v>753</v>
       </c>
       <c r="K21" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5450,7 +5451,7 @@
         <v>665</v>
       </c>
       <c r="H23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I23" t="s">
         <v>691</v>
@@ -5479,7 +5480,7 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -5849,7 +5850,7 @@
         <v>714</v>
       </c>
       <c r="G35" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -5916,7 +5917,7 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -5955,7 +5956,7 @@
         <v>169</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5978,7 +5979,7 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -6013,7 +6014,7 @@
         <v>672</v>
       </c>
       <c r="G39" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -6057,7 +6058,7 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -6092,7 +6093,7 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -6127,7 +6128,7 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -6180,7 +6181,7 @@
         <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -6215,7 +6216,7 @@
         <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H44" t="s">
         <v>66</v>
@@ -6241,7 +6242,7 @@
         <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6712,7 +6713,7 @@
         <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H60" t="s">
         <v>670</v>
@@ -8136,10 +8137,10 @@
         <v>388</v>
       </c>
       <c r="G104" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H104" t="s">
-        <v>66</v>
+        <v>671</v>
       </c>
       <c r="I104" t="s">
         <v>691</v>
@@ -8246,10 +8247,10 @@
         <v>395</v>
       </c>
       <c r="E108" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="F108" s="11" t="s">
         <v>932</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>933</v>
       </c>
       <c r="G108" t="s">
         <v>662</v>
@@ -8261,7 +8262,7 @@
         <v>691</v>
       </c>
       <c r="J108" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K108" t="s">
         <v>704</v>
@@ -8643,7 +8644,7 @@
         <v>447</v>
       </c>
       <c r="G119" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H119" t="s">
         <v>66</v>
@@ -8696,16 +8697,16 @@
         <v>454</v>
       </c>
       <c r="G120" t="s">
+        <v>936</v>
+      </c>
+      <c r="H120" t="s">
         <v>937</v>
-      </c>
-      <c r="H120" t="s">
-        <v>938</v>
       </c>
       <c r="I120" t="s">
         <v>708</v>
       </c>
       <c r="J120" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K120" t="s">
         <v>704</v>
@@ -8740,7 +8741,7 @@
         <v>708</v>
       </c>
       <c r="J121" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K121" t="s">
         <v>704</v>
@@ -8842,7 +8843,7 @@
         <v>470</v>
       </c>
       <c r="G124" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H124" t="s">
         <v>66</v>
@@ -8895,7 +8896,7 @@
         <v>708</v>
       </c>
       <c r="J125" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K125" t="s">
         <v>704</v>
@@ -8983,7 +8984,7 @@
         <v>509</v>
       </c>
       <c r="K127" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9018,7 +9019,7 @@
         <v>509</v>
       </c>
       <c r="K128" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -9053,7 +9054,7 @@
         <v>509</v>
       </c>
       <c r="K129" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -9088,7 +9089,7 @@
         <v>509</v>
       </c>
       <c r="K130" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -9155,7 +9156,7 @@
         <v>509</v>
       </c>
       <c r="K132" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -10804,7 +10805,7 @@
         <v>792</v>
       </c>
       <c r="G184" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H184" t="s">
         <v>66</v>
@@ -10830,7 +10831,7 @@
         <v>794</v>
       </c>
       <c r="G185" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H185" t="s">
         <v>66</v>
@@ -11458,10 +11459,10 @@
         <v>575</v>
       </c>
       <c r="E208" t="s">
+        <v>920</v>
+      </c>
+      <c r="F208" t="s">
         <v>921</v>
-      </c>
-      <c r="F208" t="s">
-        <v>922</v>
       </c>
       <c r="G208" t="s">
         <v>803</v>
@@ -11687,10 +11688,10 @@
         <v>768</v>
       </c>
       <c r="H216" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I216" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K216" t="s">
         <v>704</v>
@@ -11753,7 +11754,7 @@
         <v>866</v>
       </c>
       <c r="G219" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H219" t="s">
         <v>66</v>
@@ -11799,7 +11800,7 @@
         <v>868</v>
       </c>
       <c r="G221" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H221" t="s">
         <v>818</v>
@@ -11808,7 +11809,7 @@
         <v>708</v>
       </c>
       <c r="J221" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K221" t="s">
         <v>704</v>
@@ -11845,13 +11846,13 @@
         <v>873</v>
       </c>
       <c r="C223" t="s">
-        <v>874</v>
+        <v>945</v>
       </c>
       <c r="G223" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H223" t="s">
-        <v>66</v>
+        <v>804</v>
       </c>
       <c r="I223" t="s">
         <v>713</v>
@@ -11862,22 +11863,22 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" t="s">
+        <v>874</v>
+      </c>
+      <c r="B224" t="s">
         <v>875</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>876</v>
       </c>
-      <c r="C224" t="s">
-        <v>877</v>
-      </c>
       <c r="D224" t="s">
+        <v>874</v>
+      </c>
+      <c r="E224" t="s">
         <v>875</v>
       </c>
-      <c r="E224" t="s">
-        <v>876</v>
-      </c>
       <c r="F224" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G224" t="s">
         <v>664</v>
@@ -11886,7 +11887,7 @@
         <v>66</v>
       </c>
       <c r="I224" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K224" t="s">
         <v>704</v>
@@ -11894,13 +11895,13 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" t="s">
+        <v>877</v>
+      </c>
+      <c r="B225" t="s">
         <v>878</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>879</v>
-      </c>
-      <c r="C225" t="s">
-        <v>880</v>
       </c>
       <c r="G225" t="s">
         <v>662</v>
@@ -11917,13 +11918,13 @@
     </row>
     <row r="226" spans="1:11">
       <c r="D226" t="s">
+        <v>880</v>
+      </c>
+      <c r="E226" t="s">
         <v>881</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>882</v>
-      </c>
-      <c r="F226" t="s">
-        <v>883</v>
       </c>
       <c r="G226" t="s">
         <v>664</v>
@@ -11943,10 +11944,10 @@
         <v>161</v>
       </c>
       <c r="E227" t="s">
+        <v>883</v>
+      </c>
+      <c r="F227" t="s">
         <v>884</v>
-      </c>
-      <c r="F227" t="s">
-        <v>885</v>
       </c>
       <c r="G227" t="s">
         <v>664</v>
@@ -11966,10 +11967,10 @@
         <v>280</v>
       </c>
       <c r="E228" t="s">
+        <v>885</v>
+      </c>
+      <c r="F228" t="s">
         <v>886</v>
-      </c>
-      <c r="F228" t="s">
-        <v>887</v>
       </c>
       <c r="G228" t="s">
         <v>664</v>
@@ -11989,10 +11990,10 @@
         <v>326</v>
       </c>
       <c r="E229" t="s">
+        <v>887</v>
+      </c>
+      <c r="F229" t="s">
         <v>888</v>
-      </c>
-      <c r="F229" t="s">
-        <v>889</v>
       </c>
       <c r="G229" t="s">
         <v>662</v>
@@ -12015,7 +12016,7 @@
         <v>343</v>
       </c>
       <c r="F230" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G230" t="s">
         <v>664</v>
@@ -12038,7 +12039,7 @@
         <v>421</v>
       </c>
       <c r="F231" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G231" t="s">
         <v>664</v>
@@ -12058,10 +12059,10 @@
         <v>46</v>
       </c>
       <c r="E232" t="s">
+        <v>891</v>
+      </c>
+      <c r="F232" t="s">
         <v>892</v>
-      </c>
-      <c r="F232" t="s">
-        <v>893</v>
       </c>
       <c r="G232" t="s">
         <v>662</v>
@@ -12081,10 +12082,10 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
+        <v>893</v>
+      </c>
+      <c r="F233" t="s">
         <v>894</v>
-      </c>
-      <c r="F233" t="s">
-        <v>895</v>
       </c>
       <c r="G233" t="s">
         <v>662</v>
@@ -12107,7 +12108,7 @@
         <v>434</v>
       </c>
       <c r="F234" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G234" t="s">
         <v>664</v>
@@ -12127,16 +12128,16 @@
         <v>861</v>
       </c>
       <c r="E235" t="s">
+        <v>896</v>
+      </c>
+      <c r="F235" t="s">
         <v>897</v>
       </c>
-      <c r="F235" t="s">
-        <v>898</v>
-      </c>
       <c r="G235" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H235" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I235" t="s">
         <v>788</v>
@@ -12150,10 +12151,10 @@
         <v>736</v>
       </c>
       <c r="E236" t="s">
+        <v>898</v>
+      </c>
+      <c r="F236" t="s">
         <v>899</v>
-      </c>
-      <c r="F236" t="s">
-        <v>900</v>
       </c>
       <c r="G236" t="s">
         <v>662</v>
@@ -12173,10 +12174,10 @@
         <v>736</v>
       </c>
       <c r="E237" t="s">
+        <v>900</v>
+      </c>
+      <c r="F237" t="s">
         <v>901</v>
-      </c>
-      <c r="F237" t="s">
-        <v>902</v>
       </c>
       <c r="G237" t="s">
         <v>662</v>
@@ -12196,10 +12197,10 @@
         <v>231</v>
       </c>
       <c r="B238" t="s">
+        <v>902</v>
+      </c>
+      <c r="C238" t="s">
         <v>903</v>
-      </c>
-      <c r="C238" t="s">
-        <v>904</v>
       </c>
       <c r="G238" t="s">
         <v>768</v>
@@ -12208,7 +12209,7 @@
         <v>670</v>
       </c>
       <c r="I238" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K238" t="s">
         <v>704</v>
@@ -12219,10 +12220,10 @@
         <v>790</v>
       </c>
       <c r="B239" t="s">
+        <v>904</v>
+      </c>
+      <c r="C239" t="s">
         <v>905</v>
-      </c>
-      <c r="C239" t="s">
-        <v>906</v>
       </c>
       <c r="G239" t="s">
         <v>662</v>
@@ -12245,7 +12246,7 @@
         <v>520</v>
       </c>
       <c r="F240" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G240" t="s">
         <v>664</v>
@@ -12265,10 +12266,10 @@
         <v>742</v>
       </c>
       <c r="E241" t="s">
+        <v>907</v>
+      </c>
+      <c r="F241" t="s">
         <v>908</v>
-      </c>
-      <c r="F241" t="s">
-        <v>909</v>
       </c>
       <c r="G241" t="s">
         <v>662</v>
@@ -12288,10 +12289,10 @@
         <v>742</v>
       </c>
       <c r="E242" t="s">
+        <v>909</v>
+      </c>
+      <c r="F242" t="s">
         <v>910</v>
-      </c>
-      <c r="F242" t="s">
-        <v>911</v>
       </c>
       <c r="G242" t="s">
         <v>851</v>
@@ -12311,10 +12312,10 @@
         <v>742</v>
       </c>
       <c r="E243" t="s">
+        <v>911</v>
+      </c>
+      <c r="F243" t="s">
         <v>912</v>
-      </c>
-      <c r="F243" t="s">
-        <v>913</v>
       </c>
       <c r="G243" t="s">
         <v>662</v>
@@ -12334,10 +12335,10 @@
         <v>807</v>
       </c>
       <c r="E244" t="s">
+        <v>913</v>
+      </c>
+      <c r="F244" t="s">
         <v>914</v>
-      </c>
-      <c r="F244" t="s">
-        <v>915</v>
       </c>
       <c r="G244" t="s">
         <v>662</v>
@@ -12357,10 +12358,10 @@
         <v>461</v>
       </c>
       <c r="E245" t="s">
+        <v>915</v>
+      </c>
+      <c r="F245" t="s">
         <v>916</v>
-      </c>
-      <c r="F245" t="s">
-        <v>917</v>
       </c>
       <c r="G245" t="s">
         <v>662</v>
@@ -12377,13 +12378,13 @@
     </row>
     <row r="246" spans="4:11">
       <c r="D246" t="s">
+        <v>939</v>
+      </c>
+      <c r="E246" t="s">
         <v>940</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>941</v>
-      </c>
-      <c r="F246" t="s">
-        <v>942</v>
       </c>
       <c r="G246" t="s">
         <v>664</v>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A998C87-6A71-47F7-AAD4-27A92BE496D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA2D9C-45A6-410F-BEA0-40898AA8DD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="948">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2934,6 +2934,12 @@
   <si>
     <t>NM.SC60104</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC60104</t>
+  </si>
+  <si>
+    <t>NA.SC60104</t>
   </si>
 </sst>
 </file>
@@ -4543,11 +4549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W246"/>
+  <dimension ref="A1:W247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F220" sqref="F220"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H258" sqref="H258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12394,6 +12400,29 @@
       </c>
       <c r="I246" t="s">
         <v>708</v>
+      </c>
+    </row>
+    <row r="247" spans="4:11">
+      <c r="D247" t="s">
+        <v>872</v>
+      </c>
+      <c r="E247" t="s">
+        <v>873</v>
+      </c>
+      <c r="F247" t="s">
+        <v>946</v>
+      </c>
+      <c r="G247" t="s">
+        <v>803</v>
+      </c>
+      <c r="H247" t="s">
+        <v>805</v>
+      </c>
+      <c r="I247" t="s">
+        <v>713</v>
+      </c>
+      <c r="J247" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87473202-BB93-452B-A4AA-04A1EC147F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CEEC69-863F-4059-85CF-1B933F88097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$258</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="984">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2855,9 +2855,6 @@
     <t>SC2413SO-N-CD-00LR-44E</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>HC2304C-S-TR</t>
   </si>
   <si>
@@ -2880,10 +2877,6 @@
     <t>SC1445A2-713B</t>
   </si>
   <si>
-    <t>TO-92S-B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC1945B1</t>
   </si>
   <si>
@@ -2924,6 +2917,101 @@
   <si>
     <t>NA.SC4015SO-N-CE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402S1-BK</t>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+  </si>
+  <si>
+    <t>SC2438SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2438SO-Q-CM-10CR-2438</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-TR-Q</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40CR-4643</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10AR-G1630</t>
+  </si>
+  <si>
+    <t>SC2546VB-AB-CH-10CK-2546</t>
+  </si>
+  <si>
+    <t>SC4689SA</t>
+  </si>
+  <si>
+    <t>SC4689SA-4689</t>
+  </si>
+  <si>
+    <t>SC2462SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2462SO-Q-CJ-10CR-2462</t>
+  </si>
+  <si>
+    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
+  </si>
+  <si>
+    <t>SC2527S6-AB-TR-Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2948S2-BK</t>
+  </si>
+  <si>
+    <t>SC2948S2-DB-60AK-61H</t>
+  </si>
+  <si>
+    <t>SC4643VB-U-BK-Q</t>
+  </si>
+  <si>
+    <t>SC4643VB-U-Q-DE-40CK-4643</t>
+  </si>
+  <si>
+    <t>新光扬</t>
+  </si>
+  <si>
+    <t>SC1445A1</t>
+  </si>
+  <si>
+    <t>SC1445A1-41F</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402SO-N-GC-00NR-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC9G002C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445B2</t>
+  </si>
+  <si>
+    <t>SC1445B2-713</t>
+  </si>
+  <si>
+    <t>赛扬&amp;华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445B2-713</t>
+  </si>
+  <si>
+    <t>TO-92S-A2</t>
+  </si>
+  <si>
+    <t>SC4101DN(STC11201B1)-4101</t>
   </si>
 </sst>
 </file>
@@ -3081,7 +3169,137 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3788,11 +4006,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W258"/>
+  <dimension ref="A1:W259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J232" sqref="J232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5480,10 +5698,10 @@
         <v>198</v>
       </c>
       <c r="M44" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -6185,7 +6403,7 @@
         <v>681</v>
       </c>
       <c r="J68" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K68" t="s">
         <v>661</v>
@@ -6211,7 +6429,7 @@
         <v>681</v>
       </c>
       <c r="J69" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K69" t="s">
         <v>693</v>
@@ -6575,15 +6793,15 @@
         <v>681</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:17">
       <c r="D81" t="s">
-        <v>288</v>
+        <v>977</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>975</v>
       </c>
       <c r="F81" t="s">
-        <v>292</v>
+        <v>976</v>
       </c>
       <c r="G81" t="s">
         <v>661</v>
@@ -6606,8 +6824,17 @@
       <c r="N81" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" t="s">
+        <v>288</v>
+      </c>
+      <c r="P81" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>288</v>
       </c>
@@ -6639,7 +6866,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -6683,7 +6910,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>301</v>
       </c>
@@ -6715,7 +6942,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>306</v>
       </c>
@@ -6747,7 +6974,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>712</v>
       </c>
@@ -6779,7 +7006,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>311</v>
       </c>
@@ -6811,7 +7038,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>311</v>
       </c>
@@ -6843,7 +7070,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>311</v>
       </c>
@@ -6875,7 +7102,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>324</v>
       </c>
@@ -6916,7 +7143,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -6951,7 +7178,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>324</v>
       </c>
@@ -6992,7 +7219,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>324</v>
       </c>
@@ -7027,7 +7254,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>324</v>
       </c>
@@ -7059,7 +7286,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>324</v>
       </c>
@@ -7094,7 +7321,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>324</v>
       </c>
@@ -8068,7 +8295,7 @@
         <v>683</v>
       </c>
       <c r="J123" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K123" t="s">
         <v>693</v>
@@ -8094,7 +8321,7 @@
         <v>683</v>
       </c>
       <c r="J124" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K124" t="s">
         <v>693</v>
@@ -8105,10 +8332,10 @@
         <v>457</v>
       </c>
       <c r="E125" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F125" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G125" t="s">
         <v>658</v>
@@ -8120,7 +8347,7 @@
         <v>683</v>
       </c>
       <c r="J125" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -8650,6 +8877,15 @@
       <c r="K140" t="s">
         <v>658</v>
       </c>
+      <c r="L140" t="s">
+        <v>520</v>
+      </c>
+      <c r="M140" t="s">
+        <v>962</v>
+      </c>
+      <c r="N140" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
@@ -10749,7 +10985,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
         <v>571</v>
       </c>
@@ -10784,7 +11020,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>571</v>
       </c>
@@ -10816,7 +11052,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>571</v>
       </c>
@@ -10848,7 +11084,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:14">
       <c r="D212" t="s">
         <v>124</v>
       </c>
@@ -10874,7 +11110,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:14">
       <c r="A213" t="s">
         <v>589</v>
       </c>
@@ -10900,7 +11136,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
         <v>813</v>
       </c>
@@ -10932,7 +11168,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>738</v>
       </c>
@@ -10954,8 +11190,17 @@
       <c r="K215" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215" t="s">
+        <v>820</v>
+      </c>
+      <c r="M215" t="s">
+        <v>741</v>
+      </c>
+      <c r="N215" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>628</v>
       </c>
@@ -10978,7 +11223,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:14">
       <c r="D217" t="s">
         <v>825</v>
       </c>
@@ -11001,7 +11246,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:14">
       <c r="D218" t="s">
         <v>828</v>
       </c>
@@ -11024,7 +11269,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:14">
       <c r="D219" t="s">
         <v>831</v>
       </c>
@@ -11047,7 +11292,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:14">
       <c r="A220" t="s">
         <v>306</v>
       </c>
@@ -11070,7 +11315,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:14">
       <c r="D221" t="s">
         <v>469</v>
       </c>
@@ -11096,7 +11341,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:14">
       <c r="D222" t="s">
         <v>462</v>
       </c>
@@ -11119,7 +11364,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:14">
       <c r="A223" t="s">
         <v>841</v>
       </c>
@@ -11151,7 +11396,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
         <v>844</v>
       </c>
@@ -11174,7 +11419,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:14">
       <c r="D225" t="s">
         <v>847</v>
       </c>
@@ -11197,7 +11442,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:14">
       <c r="D226" t="s">
         <v>161</v>
       </c>
@@ -11220,7 +11465,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:14">
       <c r="D227" t="s">
         <v>278</v>
       </c>
@@ -11243,7 +11488,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:14">
       <c r="D228" t="s">
         <v>324</v>
       </c>
@@ -11266,7 +11511,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:14">
       <c r="D229" t="s">
         <v>324</v>
       </c>
@@ -11289,7 +11534,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:14">
       <c r="D230" t="s">
         <v>409</v>
       </c>
@@ -11312,7 +11557,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:14">
       <c r="D231" t="s">
         <v>46</v>
       </c>
@@ -11335,7 +11580,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:14">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -11358,7 +11603,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:14">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -11381,18 +11626,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:14">
       <c r="D234" t="s">
         <v>828</v>
       </c>
       <c r="E234" t="s">
-        <v>863</v>
+        <v>967</v>
       </c>
       <c r="F234" t="s">
-        <v>864</v>
+        <v>966</v>
+      </c>
+      <c r="G234" t="s">
+        <v>658</v>
       </c>
       <c r="H234" t="s">
-        <v>932</v>
+        <v>663</v>
       </c>
       <c r="I234" t="s">
         <v>761</v>
@@ -11400,8 +11648,17 @@
       <c r="K234" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234" t="s">
+        <v>828</v>
+      </c>
+      <c r="M234" t="s">
+        <v>863</v>
+      </c>
+      <c r="N234" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="D235" t="s">
         <v>712</v>
       </c>
@@ -11424,7 +11681,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:14">
       <c r="D236" t="s">
         <v>712</v>
       </c>
@@ -11447,7 +11704,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
         <v>231</v>
       </c>
@@ -11470,7 +11727,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
         <v>763</v>
       </c>
@@ -11493,7 +11750,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:14">
       <c r="D239" t="s">
         <v>508</v>
       </c>
@@ -11516,7 +11773,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:14">
       <c r="D240" t="s">
         <v>718</v>
       </c>
@@ -11539,7 +11796,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:17">
       <c r="D241" t="s">
         <v>718</v>
       </c>
@@ -11562,7 +11819,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:17">
       <c r="D242" t="s">
         <v>718</v>
       </c>
@@ -11585,7 +11842,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:17">
       <c r="D243" t="s">
         <v>777</v>
       </c>
@@ -11608,7 +11865,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:17">
       <c r="D244" t="s">
         <v>895</v>
       </c>
@@ -11628,7 +11885,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:17">
       <c r="D245" t="s">
         <v>839</v>
       </c>
@@ -11651,7 +11908,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:17">
       <c r="D246" t="s">
         <v>902</v>
       </c>
@@ -11671,70 +11928,70 @@
         <v>885</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:17">
       <c r="D247" t="s">
         <v>674</v>
       </c>
       <c r="E247" t="s">
+        <v>934</v>
+      </c>
+      <c r="F247" t="s">
         <v>935</v>
-      </c>
-      <c r="F247" t="s">
-        <v>936</v>
       </c>
       <c r="G247" t="s">
         <v>931</v>
       </c>
       <c r="H247" t="s">
+        <v>937</v>
+      </c>
+      <c r="I247" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="D248" t="s">
         <v>938</v>
       </c>
-      <c r="I247" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>939</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>940</v>
       </c>
-      <c r="F248" t="s">
-        <v>941</v>
-      </c>
       <c r="G248" t="s">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="H248" t="s">
-        <v>942</v>
+        <v>66</v>
       </c>
       <c r="I248" t="s">
+        <v>982</v>
+      </c>
+      <c r="J248" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" ht="16.5">
+      <c r="D249" t="s">
+        <v>943</v>
+      </c>
+      <c r="E249" t="s">
+        <v>944</v>
+      </c>
+      <c r="F249" t="s">
+        <v>945</v>
+      </c>
+      <c r="G249" t="s">
+        <v>951</v>
+      </c>
+      <c r="H249" t="s">
         <v>66</v>
       </c>
-      <c r="J248" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" ht="16.5">
-      <c r="D249" t="s">
-        <v>945</v>
-      </c>
-      <c r="E249" t="s">
+      <c r="I249" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="F249" t="s">
-        <v>947</v>
-      </c>
-      <c r="G249" t="s">
-        <v>953</v>
-      </c>
-      <c r="H249" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="I249" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14">
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" t="s">
         <v>311</v>
       </c>
@@ -11745,13 +12002,13 @@
         <v>313</v>
       </c>
       <c r="D250" t="s">
-        <v>311</v>
+        <v>828</v>
       </c>
       <c r="E250" t="s">
         <v>314</v>
       </c>
       <c r="F250" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G250" t="s">
         <v>658</v>
@@ -11763,7 +12020,7 @@
         <v>683</v>
       </c>
       <c r="L250" t="s">
-        <v>311</v>
+        <v>828</v>
       </c>
       <c r="M250" t="s">
         <v>314</v>
@@ -11771,84 +12028,304 @@
       <c r="N250" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="258" spans="7:7">
+      <c r="O250" t="s">
+        <v>311</v>
+      </c>
+      <c r="P250" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="D251" t="s">
+        <v>288</v>
+      </c>
+      <c r="E251" t="s">
+        <v>954</v>
+      </c>
+      <c r="F251" t="s">
+        <v>955</v>
+      </c>
+      <c r="G251" t="s">
+        <v>951</v>
+      </c>
+      <c r="H251" t="s">
+        <v>66</v>
+      </c>
+      <c r="I251" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" ht="16.5">
+      <c r="D252" t="s">
+        <v>391</v>
+      </c>
+      <c r="E252" t="s">
+        <v>956</v>
+      </c>
+      <c r="F252" t="s">
+        <v>957</v>
+      </c>
+      <c r="G252" t="s">
+        <v>658</v>
+      </c>
+      <c r="H252" t="s">
+        <v>663</v>
+      </c>
+      <c r="I252" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="D253" t="s">
+        <v>526</v>
+      </c>
+      <c r="E253" t="s">
+        <v>958</v>
+      </c>
+      <c r="F253" t="s">
+        <v>959</v>
+      </c>
+      <c r="G253" t="s">
+        <v>927</v>
+      </c>
+      <c r="H253" t="s">
+        <v>928</v>
+      </c>
+      <c r="I253" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="D254" t="s">
+        <v>479</v>
+      </c>
+      <c r="E254" t="s">
+        <v>480</v>
+      </c>
+      <c r="F254" t="s">
+        <v>960</v>
+      </c>
+      <c r="G254" t="s">
+        <v>951</v>
+      </c>
+      <c r="H254" t="s">
+        <v>66</v>
+      </c>
+      <c r="I254" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="D255" t="s">
+        <v>366</v>
+      </c>
+      <c r="E255" t="s">
+        <v>964</v>
+      </c>
+      <c r="F255" t="s">
+        <v>965</v>
+      </c>
+      <c r="G255" t="s">
+        <v>660</v>
+      </c>
+      <c r="H255" t="s">
+        <v>66</v>
+      </c>
+      <c r="I255" t="s">
+        <v>687</v>
+      </c>
+      <c r="J255" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
+      <c r="D256" t="s">
+        <v>46</v>
+      </c>
+      <c r="E256" t="s">
+        <v>968</v>
+      </c>
+      <c r="F256" t="s">
+        <v>969</v>
+      </c>
+      <c r="G256" t="s">
+        <v>660</v>
+      </c>
+      <c r="H256" t="s">
+        <v>66</v>
+      </c>
+      <c r="I256" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="257" spans="4:10">
+      <c r="D257" t="s">
+        <v>526</v>
+      </c>
+      <c r="E257" t="s">
+        <v>970</v>
+      </c>
+      <c r="F257" t="s">
+        <v>971</v>
+      </c>
+      <c r="G257" t="s">
+        <v>972</v>
+      </c>
+      <c r="H257" t="s">
+        <v>66</v>
+      </c>
+      <c r="I257" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="258" spans="4:10">
+      <c r="D258" t="s">
+        <v>938</v>
+      </c>
+      <c r="E258" t="s">
+        <v>973</v>
+      </c>
+      <c r="F258" t="s">
+        <v>974</v>
+      </c>
       <c r="G258" t="s">
-        <v>934</v>
+        <v>660</v>
+      </c>
+      <c r="H258" t="s">
+        <v>66</v>
+      </c>
+      <c r="I258" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="259" spans="4:10">
+      <c r="D259" t="s">
+        <v>938</v>
+      </c>
+      <c r="E259" t="s">
+        <v>978</v>
+      </c>
+      <c r="F259" t="s">
+        <v>979</v>
+      </c>
+      <c r="G259" t="s">
+        <v>980</v>
+      </c>
+      <c r="H259" t="s">
+        <v>66</v>
+      </c>
+      <c r="I259" t="s">
+        <v>682</v>
+      </c>
+      <c r="J259" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W258" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="42" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576 F1:F244 F246:F1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+  <conditionalFormatting sqref="C1:C1048576 F1:F244 F246:F255 F258 F260:F1048576">
+    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F244 F246:F1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  <conditionalFormatting sqref="F1:F244 F246:F255 F258 F260:F1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F256 F258 F260:F1048576">
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F258 F260:F1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F245">
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F256">
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F257">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J246 J248:J1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  <conditionalFormatting sqref="J1:J246 J248:J254 J256:J1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="4" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F245">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="N234">
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q81">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CEEC69-863F-4059-85CF-1B933F88097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D19A67-6F02-4FE9-9642-DB755D52B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="985">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3012,6 +3012,9 @@
   </si>
   <si>
     <t>SC4101DN(STC11201B1)-4101</t>
+  </si>
+  <si>
+    <t>NF.SC1645B1(STC2899AI)-615HA</t>
   </si>
 </sst>
 </file>
@@ -4006,11 +4009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W259"/>
+  <dimension ref="A1:W260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J232" sqref="J232"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5636,10 +5639,10 @@
         <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
         <v>194</v>
@@ -5670,38 +5673,32 @@
       </c>
     </row>
     <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>984</v>
+      </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G44" t="s">
-        <v>905</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
         <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>686</v>
-      </c>
-      <c r="J44" t="s">
-        <v>201</v>
-      </c>
-      <c r="K44" t="s">
-        <v>65</v>
-      </c>
-      <c r="L44" t="s">
-        <v>198</v>
-      </c>
-      <c r="M44" t="s">
-        <v>941</v>
-      </c>
-      <c r="N44" t="s">
-        <v>942</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -5709,10 +5706,10 @@
         <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
         <v>905</v>
@@ -5721,36 +5718,36 @@
         <v>66</v>
       </c>
       <c r="I45" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K45" t="s">
         <v>65</v>
       </c>
+      <c r="L45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" t="s">
+        <v>941</v>
+      </c>
+      <c r="N45" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" t="s">
-        <v>206</v>
-      </c>
       <c r="D46" t="s">
         <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>911</v>
+        <v>203</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>905</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -5758,43 +5755,55 @@
       <c r="I46" t="s">
         <v>690</v>
       </c>
+      <c r="J46" t="s">
+        <v>204</v>
+      </c>
       <c r="K46" t="s">
-        <v>693</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>911</v>
       </c>
       <c r="G47" t="s">
-        <v>660</v>
+        <v>65</v>
       </c>
       <c r="H47" t="s">
         <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="K47" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
       <c r="D48" t="s">
         <v>207</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>912</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
         <v>660</v>
@@ -5811,45 +5820,36 @@
         <v>66</v>
       </c>
       <c r="I48" t="s">
-        <v>682</v>
-      </c>
-      <c r="J48" t="s">
-        <v>209</v>
+        <v>684</v>
       </c>
       <c r="K48" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" t="s">
-        <v>211</v>
-      </c>
       <c r="D49" t="s">
         <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>912</v>
       </c>
       <c r="G49" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H49" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I49" t="s">
-        <v>691</v>
+        <v>682</v>
+      </c>
+      <c r="J49" t="s">
+        <v>209</v>
       </c>
       <c r="K49" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5857,28 +5857,28 @@
         <v>207</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
       </c>
       <c r="E50" t="s">
-        <v>913</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>914</v>
+        <v>213</v>
       </c>
       <c r="G50" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H50" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I50" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="K50" t="s">
         <v>693</v>
@@ -5889,75 +5889,66 @@
         <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
         <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>913</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>914</v>
       </c>
       <c r="G51" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I51" t="s">
-        <v>684</v>
-      </c>
-      <c r="J51" t="s">
-        <v>209</v>
+        <v>681</v>
       </c>
       <c r="K51" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H52" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I52" t="s">
-        <v>694</v>
+        <v>684</v>
+      </c>
+      <c r="J52" t="s">
+        <v>209</v>
       </c>
       <c r="K52" t="s">
-        <v>693</v>
-      </c>
-      <c r="L52" t="s">
-        <v>220</v>
-      </c>
-      <c r="M52" t="s">
-        <v>223</v>
-      </c>
-      <c r="N52" t="s">
-        <v>225</v>
+        <v>660</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5965,31 +5956,40 @@
         <v>220</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
         <v>220</v>
       </c>
       <c r="E53" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G53" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I53" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="K53" t="s">
         <v>693</v>
+      </c>
+      <c r="L53" t="s">
+        <v>220</v>
+      </c>
+      <c r="M53" t="s">
+        <v>223</v>
+      </c>
+      <c r="N53" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -6000,7 +6000,7 @@
         <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
         <v>220</v>
@@ -6009,7 +6009,7 @@
         <v>228</v>
       </c>
       <c r="F54" t="s">
-        <v>915</v>
+        <v>229</v>
       </c>
       <c r="G54" t="s">
         <v>660</v>
@@ -6020,46 +6020,43 @@
       <c r="I54" t="s">
         <v>687</v>
       </c>
-      <c r="J54" t="s">
-        <v>229</v>
-      </c>
       <c r="K54" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
+        <v>915</v>
       </c>
       <c r="G55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H55" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I55" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="J55" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -6067,10 +6064,10 @@
         <v>231</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
         <v>231</v>
@@ -6079,7 +6076,7 @@
         <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G56" t="s">
         <v>661</v>
@@ -6088,7 +6085,7 @@
         <v>662</v>
       </c>
       <c r="I56" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="J56" t="s">
         <v>239</v>
@@ -6098,6 +6095,15 @@
       </c>
     </row>
     <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
       <c r="D57" t="s">
         <v>231</v>
       </c>
@@ -6105,7 +6111,7 @@
         <v>234</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G57" t="s">
         <v>661</v>
@@ -6131,7 +6137,7 @@
         <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>916</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
         <v>661</v>
@@ -6151,28 +6157,28 @@
     </row>
     <row r="59" spans="1:14">
       <c r="D59" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>916</v>
       </c>
       <c r="G59" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H59" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I59" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="J59" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K59" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -6180,39 +6186,39 @@
         <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G60" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H60" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I60" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="J60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K60" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="D61" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F61" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H61" t="s">
         <v>662</v>
@@ -6221,10 +6227,10 @@
         <v>681</v>
       </c>
       <c r="J61" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -6232,10 +6238,10 @@
         <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s">
         <v>661</v>
@@ -6261,7 +6267,7 @@
         <v>251</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G63" t="s">
         <v>661</v>
@@ -6287,7 +6293,7 @@
         <v>251</v>
       </c>
       <c r="F64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G64" t="s">
         <v>661</v>
@@ -6313,7 +6319,7 @@
         <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
         <v>661</v>
@@ -6339,7 +6345,7 @@
         <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G66" t="s">
         <v>661</v>
@@ -6348,7 +6354,7 @@
         <v>662</v>
       </c>
       <c r="I66" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="J66" t="s">
         <v>259</v>
@@ -6365,7 +6371,7 @@
         <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G67" t="s">
         <v>661</v>
@@ -6374,7 +6380,7 @@
         <v>662</v>
       </c>
       <c r="I67" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="J67" t="s">
         <v>259</v>
@@ -6391,7 +6397,7 @@
         <v>251</v>
       </c>
       <c r="F68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G68" t="s">
         <v>661</v>
@@ -6403,7 +6409,7 @@
         <v>681</v>
       </c>
       <c r="J68" t="s">
-        <v>953</v>
+        <v>259</v>
       </c>
       <c r="K68" t="s">
         <v>661</v>
@@ -6417,7 +6423,7 @@
         <v>251</v>
       </c>
       <c r="F69" t="s">
-        <v>819</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
         <v>661</v>
@@ -6432,36 +6438,30 @@
         <v>953</v>
       </c>
       <c r="K69" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" t="s">
-        <v>261</v>
-      </c>
-      <c r="C70" t="s">
-        <v>917</v>
-      </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>263</v>
+        <v>819</v>
       </c>
       <c r="G70" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H70" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I70" t="s">
-        <v>692</v>
+        <v>681</v>
+      </c>
+      <c r="J70" t="s">
+        <v>953</v>
       </c>
       <c r="K70" t="s">
         <v>693</v>
@@ -6469,22 +6469,22 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>917</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G71" t="s">
         <v>660</v>
@@ -6493,13 +6493,10 @@
         <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>687</v>
-      </c>
-      <c r="J71" t="s">
-        <v>267</v>
+        <v>692</v>
       </c>
       <c r="K71" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -6510,7 +6507,7 @@
         <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D72" t="s">
         <v>264</v>
@@ -6519,7 +6516,7 @@
         <v>266</v>
       </c>
       <c r="F72" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G72" t="s">
         <v>660</v>
@@ -6545,7 +6542,7 @@
         <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s">
         <v>264</v>
@@ -6554,7 +6551,7 @@
         <v>266</v>
       </c>
       <c r="F73" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G73" t="s">
         <v>660</v>
@@ -6580,7 +6577,7 @@
         <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s">
         <v>264</v>
@@ -6589,7 +6586,7 @@
         <v>266</v>
       </c>
       <c r="F74" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G74" t="s">
         <v>660</v>
@@ -6615,7 +6612,7 @@
         <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D75" t="s">
         <v>264</v>
@@ -6624,7 +6621,7 @@
         <v>266</v>
       </c>
       <c r="F75" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G75" t="s">
         <v>660</v>
@@ -6643,14 +6640,23 @@
       </c>
     </row>
     <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" t="s">
+        <v>271</v>
+      </c>
       <c r="D76" t="s">
         <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>708</v>
+        <v>266</v>
       </c>
       <c r="F76" t="s">
-        <v>709</v>
+        <v>272</v>
       </c>
       <c r="G76" t="s">
         <v>660</v>
@@ -6669,35 +6675,29 @@
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" t="s">
-        <v>283</v>
-      </c>
-      <c r="C77" t="s">
-        <v>284</v>
-      </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>708</v>
       </c>
       <c r="F77" t="s">
-        <v>286</v>
+        <v>709</v>
       </c>
       <c r="G77" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H77" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I77" t="s">
-        <v>681</v>
+        <v>687</v>
+      </c>
+      <c r="J77" t="s">
+        <v>267</v>
       </c>
       <c r="K77" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -6705,86 +6705,77 @@
         <v>278</v>
       </c>
       <c r="B78" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
         <v>278</v>
       </c>
       <c r="E78" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H78" t="s">
+        <v>662</v>
+      </c>
+      <c r="I78" t="s">
+        <v>681</v>
+      </c>
+      <c r="K78" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" t="s">
         <v>287</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>918</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>660</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H79" t="s">
         <v>66</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I79" t="s">
         <v>684</v>
       </c>
-      <c r="K78" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="D79" t="s">
+      <c r="K79" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="D80" t="s">
         <v>288</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>289</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>665</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>661</v>
-      </c>
-      <c r="H79" t="s">
-        <v>662</v>
-      </c>
-      <c r="I79" t="s">
-        <v>681</v>
-      </c>
-      <c r="K79" t="s">
-        <v>693</v>
-      </c>
-      <c r="L79" t="s">
-        <v>288</v>
-      </c>
-      <c r="M79" t="s">
-        <v>289</v>
-      </c>
-      <c r="N79" t="s">
-        <v>290</v>
-      </c>
-      <c r="O79" t="s">
-        <v>288</v>
-      </c>
-      <c r="P79" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" t="s">
-        <v>288</v>
-      </c>
-      <c r="B80" t="s">
-        <v>293</v>
-      </c>
-      <c r="C80" t="s">
-        <v>294</v>
-      </c>
-      <c r="G80" t="s">
-        <v>760</v>
       </c>
       <c r="H80" t="s">
         <v>662</v>
@@ -6792,19 +6783,40 @@
       <c r="I80" t="s">
         <v>681</v>
       </c>
+      <c r="K80" t="s">
+        <v>693</v>
+      </c>
+      <c r="L80" t="s">
+        <v>288</v>
+      </c>
+      <c r="M80" t="s">
+        <v>289</v>
+      </c>
+      <c r="N80" t="s">
+        <v>290</v>
+      </c>
+      <c r="O80" t="s">
+        <v>288</v>
+      </c>
+      <c r="P80" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="81" spans="1:17">
-      <c r="D81" t="s">
-        <v>977</v>
-      </c>
-      <c r="E81" t="s">
-        <v>975</v>
-      </c>
-      <c r="F81" t="s">
-        <v>976</v>
+      <c r="A81" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" t="s">
+        <v>294</v>
       </c>
       <c r="G81" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="H81" t="s">
         <v>662</v>
@@ -6812,58 +6824,46 @@
       <c r="I81" t="s">
         <v>681</v>
       </c>
-      <c r="K81" t="s">
-        <v>693</v>
-      </c>
-      <c r="L81" t="s">
+    </row>
+    <row r="82" spans="1:17">
+      <c r="D82" t="s">
+        <v>977</v>
+      </c>
+      <c r="E82" t="s">
+        <v>975</v>
+      </c>
+      <c r="F82" t="s">
+        <v>976</v>
+      </c>
+      <c r="G82" t="s">
+        <v>661</v>
+      </c>
+      <c r="H82" t="s">
+        <v>662</v>
+      </c>
+      <c r="I82" t="s">
+        <v>681</v>
+      </c>
+      <c r="K82" t="s">
+        <v>693</v>
+      </c>
+      <c r="L82" t="s">
         <v>288</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M82" t="s">
         <v>289</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N82" t="s">
         <v>295</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O82" t="s">
         <v>288</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P82" t="s">
         <v>289</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="Q82" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" t="s">
-        <v>288</v>
-      </c>
-      <c r="B82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C82" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" t="s">
-        <v>298</v>
-      </c>
-      <c r="F82" t="s">
-        <v>299</v>
-      </c>
-      <c r="G82" t="s">
-        <v>660</v>
-      </c>
-      <c r="H82" t="s">
-        <v>66</v>
-      </c>
-      <c r="I82" t="s">
-        <v>687</v>
-      </c>
-      <c r="K82" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -6874,7 +6874,7 @@
         <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
         <v>288</v>
@@ -6883,7 +6883,7 @@
         <v>298</v>
       </c>
       <c r="F83" t="s">
-        <v>919</v>
+        <v>299</v>
       </c>
       <c r="G83" t="s">
         <v>660</v>
@@ -6894,72 +6894,72 @@
       <c r="I83" t="s">
         <v>687</v>
       </c>
-      <c r="J83" t="s">
-        <v>299</v>
-      </c>
       <c r="K83" t="s">
         <v>693</v>
-      </c>
-      <c r="L83" t="s">
-        <v>288</v>
-      </c>
-      <c r="M83" t="s">
-        <v>298</v>
-      </c>
-      <c r="N83" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C84" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>305</v>
+        <v>919</v>
       </c>
       <c r="G84" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H84" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I84" t="s">
-        <v>683</v>
+        <v>687</v>
+      </c>
+      <c r="J84" t="s">
+        <v>299</v>
       </c>
       <c r="K84" t="s">
         <v>693</v>
+      </c>
+      <c r="L84" t="s">
+        <v>288</v>
+      </c>
+      <c r="M84" t="s">
+        <v>298</v>
+      </c>
+      <c r="N84" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C85" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F85" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G85" t="s">
         <v>658</v>
@@ -6976,22 +6976,22 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>712</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s">
-        <v>713</v>
+        <v>307</v>
       </c>
       <c r="C86" t="s">
-        <v>714</v>
+        <v>308</v>
       </c>
       <c r="D86" t="s">
-        <v>715</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s">
-        <v>716</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>717</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
         <v>658</v>
@@ -7000,7 +7000,7 @@
         <v>663</v>
       </c>
       <c r="I86" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K86" t="s">
         <v>693</v>
@@ -7008,22 +7008,22 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>712</v>
       </c>
       <c r="B87" t="s">
-        <v>315</v>
+        <v>713</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>714</v>
       </c>
       <c r="D87" t="s">
-        <v>311</v>
+        <v>715</v>
       </c>
       <c r="E87" t="s">
-        <v>319</v>
+        <v>716</v>
       </c>
       <c r="F87" t="s">
-        <v>320</v>
+        <v>717</v>
       </c>
       <c r="G87" t="s">
         <v>658</v>
@@ -7043,10 +7043,10 @@
         <v>311</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D88" t="s">
         <v>311</v>
@@ -7055,7 +7055,7 @@
         <v>319</v>
       </c>
       <c r="F88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G88" t="s">
         <v>658</v>
@@ -7075,28 +7075,28 @@
         <v>311</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="D89" t="s">
         <v>311</v>
       </c>
       <c r="E89" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H89" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I89" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="K89" t="s">
         <v>693</v>
@@ -7104,43 +7104,34 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B90" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F90" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G90" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H90" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I90" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K90" t="s">
         <v>693</v>
-      </c>
-      <c r="L90" t="s">
-        <v>324</v>
-      </c>
-      <c r="M90" t="s">
-        <v>327</v>
-      </c>
-      <c r="N90" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -7148,34 +7139,40 @@
         <v>324</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D91" t="s">
         <v>324</v>
       </c>
       <c r="E91" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F91" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G91" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H91" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I91" t="s">
-        <v>682</v>
-      </c>
-      <c r="J91" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K91" t="s">
         <v>693</v>
+      </c>
+      <c r="L91" t="s">
+        <v>324</v>
+      </c>
+      <c r="M91" t="s">
+        <v>327</v>
+      </c>
+      <c r="N91" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -7183,40 +7180,34 @@
         <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s">
         <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F92" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H92" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I92" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="J92" t="s">
+        <v>365</v>
       </c>
       <c r="K92" t="s">
         <v>693</v>
-      </c>
-      <c r="L92" t="s">
-        <v>324</v>
-      </c>
-      <c r="M92" t="s">
-        <v>336</v>
-      </c>
-      <c r="N92" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -7224,34 +7215,40 @@
         <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C93" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D93" t="s">
         <v>324</v>
       </c>
       <c r="E93" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F93" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G93" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H93" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I93" t="s">
-        <v>682</v>
-      </c>
-      <c r="J93" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K93" t="s">
         <v>693</v>
+      </c>
+      <c r="L93" t="s">
+        <v>324</v>
+      </c>
+      <c r="M93" t="s">
+        <v>336</v>
+      </c>
+      <c r="N93" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -7259,28 +7256,31 @@
         <v>324</v>
       </c>
       <c r="B94" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D94" t="s">
         <v>324</v>
       </c>
       <c r="E94" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F94" t="s">
-        <v>921</v>
+        <v>342</v>
       </c>
       <c r="G94" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H94" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I94" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="J94" t="s">
+        <v>365</v>
       </c>
       <c r="K94" t="s">
         <v>693</v>
@@ -7291,31 +7291,28 @@
         <v>324</v>
       </c>
       <c r="B95" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C95" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D95" t="s">
         <v>324</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F95" t="s">
-        <v>350</v>
+        <v>921</v>
       </c>
       <c r="G95" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H95" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I95" t="s">
-        <v>703</v>
-      </c>
-      <c r="J95" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K95" t="s">
         <v>693</v>
@@ -7326,19 +7323,19 @@
         <v>324</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C96" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
         <v>324</v>
       </c>
       <c r="E96" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F96" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G96" t="s">
         <v>660</v>
@@ -7347,7 +7344,7 @@
         <v>66</v>
       </c>
       <c r="I96" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="J96" t="s">
         <v>365</v>
@@ -7361,28 +7358,31 @@
         <v>324</v>
       </c>
       <c r="B97" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D97" t="s">
         <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F97" t="s">
-        <v>922</v>
+        <v>354</v>
       </c>
       <c r="G97" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H97" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I97" t="s">
-        <v>681</v>
+        <v>684</v>
+      </c>
+      <c r="J97" t="s">
+        <v>365</v>
       </c>
       <c r="K97" t="s">
         <v>693</v>
@@ -7393,31 +7393,28 @@
         <v>324</v>
       </c>
       <c r="B98" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D98" t="s">
         <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F98" t="s">
-        <v>361</v>
+        <v>922</v>
       </c>
       <c r="G98" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H98" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I98" t="s">
-        <v>684</v>
-      </c>
-      <c r="J98" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K98" t="s">
         <v>693</v>
@@ -7428,19 +7425,19 @@
         <v>324</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D99" t="s">
         <v>324</v>
       </c>
       <c r="E99" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F99" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G99" t="s">
         <v>660</v>
@@ -7449,7 +7446,10 @@
         <v>66</v>
       </c>
       <c r="I99" t="s">
-        <v>687</v>
+        <v>684</v>
+      </c>
+      <c r="J99" t="s">
+        <v>365</v>
       </c>
       <c r="K99" t="s">
         <v>693</v>
@@ -7457,43 +7457,34 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="B100" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D100" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="E100" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F100" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G100" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H100" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I100" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K100" t="s">
         <v>693</v>
-      </c>
-      <c r="L100" t="s">
-        <v>366</v>
-      </c>
-      <c r="M100" t="s">
-        <v>369</v>
-      </c>
-      <c r="N100" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -7501,34 +7492,52 @@
         <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D101" t="s">
         <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F101" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G101" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H101" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I101" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="K101" t="s">
         <v>693</v>
       </c>
+      <c r="L101" t="s">
+        <v>366</v>
+      </c>
+      <c r="M101" t="s">
+        <v>369</v>
+      </c>
+      <c r="N101" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>366</v>
+      </c>
+      <c r="B102" t="s">
+        <v>372</v>
+      </c>
+      <c r="C102" t="s">
+        <v>373</v>
+      </c>
       <c r="D102" t="s">
         <v>366</v>
       </c>
@@ -7536,7 +7545,7 @@
         <v>374</v>
       </c>
       <c r="F102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G102" t="s">
         <v>660</v>
@@ -7550,34 +7559,16 @@
       <c r="K102" t="s">
         <v>693</v>
       </c>
-      <c r="L102" t="s">
-        <v>366</v>
-      </c>
-      <c r="M102" t="s">
-        <v>374</v>
-      </c>
-      <c r="N102" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" t="s">
-        <v>366</v>
-      </c>
-      <c r="B103" t="s">
-        <v>378</v>
-      </c>
-      <c r="C103" t="s">
-        <v>379</v>
-      </c>
       <c r="D103" t="s">
         <v>366</v>
       </c>
       <c r="E103" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F103" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G103" t="s">
         <v>660</v>
@@ -7586,10 +7577,19 @@
         <v>66</v>
       </c>
       <c r="I103" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K103" t="s">
         <v>693</v>
+      </c>
+      <c r="L103" t="s">
+        <v>366</v>
+      </c>
+      <c r="M103" t="s">
+        <v>374</v>
+      </c>
+      <c r="N103" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -7597,28 +7597,28 @@
         <v>366</v>
       </c>
       <c r="B104" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D104" t="s">
         <v>366</v>
       </c>
       <c r="E104" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F104" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G104" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H104" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I104" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K104" t="s">
         <v>693</v>
@@ -7626,22 +7626,22 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B105" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C105" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D105" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="E105" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F105" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G105" t="s">
         <v>658</v>
@@ -7658,22 +7658,22 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B106" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D106" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E106" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F106" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G106" t="s">
         <v>658</v>
@@ -7689,14 +7689,23 @@
       </c>
     </row>
     <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>391</v>
+      </c>
+      <c r="B107" t="s">
+        <v>392</v>
+      </c>
+      <c r="C107" t="s">
+        <v>393</v>
+      </c>
       <c r="D107" t="s">
         <v>391</v>
       </c>
       <c r="E107" t="s">
-        <v>723</v>
+        <v>394</v>
       </c>
       <c r="F107" t="s">
-        <v>724</v>
+        <v>395</v>
       </c>
       <c r="G107" t="s">
         <v>658</v>
@@ -7707,25 +7716,19 @@
       <c r="I107" t="s">
         <v>681</v>
       </c>
+      <c r="K107" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" t="s">
-        <v>391</v>
-      </c>
-      <c r="B108" t="s">
-        <v>400</v>
-      </c>
-      <c r="C108" t="s">
-        <v>401</v>
-      </c>
       <c r="D108" t="s">
         <v>391</v>
       </c>
       <c r="E108" t="s">
-        <v>891</v>
+        <v>723</v>
       </c>
       <c r="F108" t="s">
-        <v>892</v>
+        <v>724</v>
       </c>
       <c r="G108" t="s">
         <v>658</v>
@@ -7735,12 +7738,6 @@
       </c>
       <c r="I108" t="s">
         <v>681</v>
-      </c>
-      <c r="J108" t="s">
-        <v>890</v>
-      </c>
-      <c r="K108" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -7748,19 +7745,19 @@
         <v>391</v>
       </c>
       <c r="B109" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
         <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>398</v>
+        <v>891</v>
       </c>
       <c r="F109" t="s">
-        <v>399</v>
+        <v>892</v>
       </c>
       <c r="G109" t="s">
         <v>658</v>
@@ -7770,6 +7767,9 @@
       </c>
       <c r="I109" t="s">
         <v>681</v>
+      </c>
+      <c r="J109" t="s">
+        <v>890</v>
       </c>
       <c r="K109" t="s">
         <v>693</v>
@@ -7780,19 +7780,19 @@
         <v>391</v>
       </c>
       <c r="B110" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D110" t="s">
         <v>391</v>
       </c>
       <c r="E110" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="F110" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="G110" t="s">
         <v>658</v>
@@ -7812,19 +7812,19 @@
         <v>391</v>
       </c>
       <c r="B111" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C111" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D111" t="s">
         <v>391</v>
       </c>
       <c r="E111" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F111" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G111" t="s">
         <v>658</v>
@@ -7838,34 +7838,25 @@
       <c r="K111" t="s">
         <v>693</v>
       </c>
-      <c r="L111" t="s">
-        <v>324</v>
-      </c>
-      <c r="M111" t="s">
-        <v>351</v>
-      </c>
-      <c r="N111" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D112" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E112" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="F112" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="G112" t="s">
         <v>658</v>
@@ -7879,25 +7870,34 @@
       <c r="K112" t="s">
         <v>693</v>
       </c>
+      <c r="L112" t="s">
+        <v>324</v>
+      </c>
+      <c r="M112" t="s">
+        <v>351</v>
+      </c>
+      <c r="N112" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>405</v>
       </c>
       <c r="C113" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E113" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F113" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G113" t="s">
         <v>658</v>
@@ -7917,28 +7917,28 @@
         <v>409</v>
       </c>
       <c r="B114" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D114" t="s">
         <v>409</v>
       </c>
       <c r="E114" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F114" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G114" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H114" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I114" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s">
         <v>693</v>
@@ -7949,28 +7949,28 @@
         <v>409</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C115" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D115" t="s">
         <v>409</v>
       </c>
       <c r="E115" t="s">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="F115" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G115" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H115" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I115" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K115" t="s">
         <v>693</v>
@@ -7978,22 +7978,22 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="C116" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E116" t="s">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="F116" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G116" t="s">
         <v>658</v>
@@ -8010,22 +8010,22 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E117" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F117" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G117" t="s">
         <v>658</v>
@@ -8034,48 +8034,30 @@
         <v>663</v>
       </c>
       <c r="I117" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K117" t="s">
         <v>693</v>
-      </c>
-      <c r="L117" t="s">
-        <v>424</v>
-      </c>
-      <c r="M117" t="s">
-        <v>430</v>
-      </c>
-      <c r="N117" t="s">
-        <v>432</v>
-      </c>
-      <c r="O117" t="s">
-        <v>424</v>
-      </c>
-      <c r="P117" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B118" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C118" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D118" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E118" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F118" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G118" t="s">
         <v>658</v>
@@ -8084,119 +8066,134 @@
         <v>663</v>
       </c>
       <c r="I118" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K118" t="s">
         <v>693</v>
       </c>
       <c r="L118" t="s">
-        <v>46</v>
+        <v>424</v>
       </c>
       <c r="M118" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="N118" t="s">
-        <v>707</v>
+        <v>432</v>
+      </c>
+      <c r="O118" t="s">
+        <v>424</v>
+      </c>
+      <c r="P118" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C119" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D119" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E119" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F119" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G119" t="s">
-        <v>905</v>
+        <v>658</v>
       </c>
       <c r="H119" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I119" t="s">
-        <v>687</v>
-      </c>
-      <c r="J119" t="s">
-        <v>445</v>
+        <v>681</v>
       </c>
       <c r="K119" t="s">
-        <v>65</v>
+        <v>693</v>
       </c>
       <c r="L119" t="s">
-        <v>439</v>
+        <v>46</v>
       </c>
       <c r="M119" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N119" t="s">
-        <v>444</v>
-      </c>
-      <c r="O119" t="s">
-        <v>46</v>
-      </c>
-      <c r="P119" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" t="s">
+        <v>439</v>
+      </c>
+      <c r="B120" t="s">
+        <v>440</v>
+      </c>
+      <c r="C120" t="s">
+        <v>441</v>
+      </c>
+      <c r="D120" t="s">
+        <v>439</v>
+      </c>
+      <c r="E120" t="s">
+        <v>442</v>
+      </c>
+      <c r="F120" t="s">
+        <v>443</v>
+      </c>
+      <c r="G120" t="s">
+        <v>905</v>
+      </c>
+      <c r="H120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120" t="s">
+        <v>687</v>
+      </c>
+      <c r="J120" t="s">
+        <v>445</v>
+      </c>
+      <c r="K120" t="s">
+        <v>65</v>
+      </c>
+      <c r="L120" t="s">
+        <v>439</v>
+      </c>
+      <c r="M120" t="s">
+        <v>442</v>
+      </c>
+      <c r="N120" t="s">
+        <v>444</v>
+      </c>
+      <c r="O120" t="s">
+        <v>46</v>
+      </c>
+      <c r="P120" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" t="s">
         <v>446</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>447</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>448</v>
       </c>
-      <c r="D120" t="s">
-        <v>446</v>
-      </c>
-      <c r="E120" t="s">
-        <v>449</v>
-      </c>
-      <c r="F120" t="s">
-        <v>450</v>
-      </c>
-      <c r="G120" t="s">
-        <v>659</v>
-      </c>
-      <c r="H120" t="s">
-        <v>923</v>
-      </c>
-      <c r="I120" t="s">
-        <v>697</v>
-      </c>
-      <c r="J120" t="s">
-        <v>893</v>
-      </c>
-      <c r="K120" t="s">
-        <v>693</v>
-      </c>
-      <c r="L120" t="s">
-        <v>446</v>
-      </c>
-      <c r="M120" t="s">
-        <v>449</v>
-      </c>
-      <c r="N120" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
       <c r="D121" t="s">
         <v>446</v>
       </c>
@@ -8204,13 +8201,13 @@
         <v>449</v>
       </c>
       <c r="F121" t="s">
-        <v>924</v>
+        <v>450</v>
       </c>
       <c r="G121" t="s">
         <v>659</v>
       </c>
       <c r="H121" t="s">
-        <v>662</v>
+        <v>923</v>
       </c>
       <c r="I121" t="s">
         <v>697</v>
@@ -8228,62 +8225,62 @@
         <v>449</v>
       </c>
       <c r="N121" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="D122" t="s">
+        <v>446</v>
+      </c>
+      <c r="E122" t="s">
+        <v>449</v>
+      </c>
+      <c r="F122" t="s">
+        <v>924</v>
+      </c>
+      <c r="G122" t="s">
+        <v>659</v>
+      </c>
+      <c r="H122" t="s">
+        <v>662</v>
+      </c>
+      <c r="I122" t="s">
+        <v>697</v>
+      </c>
+      <c r="J122" t="s">
+        <v>893</v>
+      </c>
+      <c r="K122" t="s">
+        <v>693</v>
+      </c>
+      <c r="L122" t="s">
+        <v>446</v>
+      </c>
+      <c r="M122" t="s">
+        <v>449</v>
+      </c>
+      <c r="N122" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
-      <c r="A122" t="s">
-        <v>453</v>
-      </c>
-      <c r="B122" t="s">
-        <v>454</v>
-      </c>
-      <c r="C122" t="s">
-        <v>455</v>
-      </c>
-      <c r="D122" t="s">
-        <v>777</v>
-      </c>
-      <c r="E122" t="s">
-        <v>778</v>
-      </c>
-      <c r="F122" t="s">
-        <v>779</v>
-      </c>
-      <c r="G122" t="s">
-        <v>658</v>
-      </c>
-      <c r="H122" t="s">
-        <v>663</v>
-      </c>
-      <c r="I122" t="s">
-        <v>683</v>
-      </c>
-      <c r="J122" t="s">
-        <v>456</v>
-      </c>
-      <c r="K122" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B123" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C123" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D123" t="s">
-        <v>457</v>
+        <v>777</v>
       </c>
       <c r="E123" t="s">
-        <v>460</v>
+        <v>778</v>
       </c>
       <c r="F123" t="s">
-        <v>461</v>
+        <v>779</v>
       </c>
       <c r="G123" t="s">
         <v>658</v>
@@ -8295,21 +8292,30 @@
         <v>683</v>
       </c>
       <c r="J123" t="s">
-        <v>949</v>
+        <v>456</v>
       </c>
       <c r="K123" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="124" spans="1:17">
+      <c r="A124" t="s">
+        <v>457</v>
+      </c>
+      <c r="B124" t="s">
+        <v>458</v>
+      </c>
+      <c r="C124" t="s">
+        <v>459</v>
+      </c>
       <c r="D124" t="s">
         <v>457</v>
       </c>
       <c r="E124" t="s">
-        <v>882</v>
+        <v>460</v>
       </c>
       <c r="F124" t="s">
-        <v>883</v>
+        <v>461</v>
       </c>
       <c r="G124" t="s">
         <v>658</v>
@@ -8332,10 +8338,10 @@
         <v>457</v>
       </c>
       <c r="E125" t="s">
-        <v>947</v>
+        <v>882</v>
       </c>
       <c r="F125" t="s">
-        <v>948</v>
+        <v>883</v>
       </c>
       <c r="G125" t="s">
         <v>658</v>
@@ -8349,93 +8355,75 @@
       <c r="J125" t="s">
         <v>949</v>
       </c>
+      <c r="K125" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" t="s">
-        <v>462</v>
-      </c>
-      <c r="B126" t="s">
-        <v>463</v>
-      </c>
-      <c r="C126" t="s">
-        <v>464</v>
-      </c>
       <c r="D126" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E126" t="s">
-        <v>465</v>
+        <v>947</v>
       </c>
       <c r="F126" t="s">
-        <v>466</v>
+        <v>948</v>
       </c>
       <c r="G126" t="s">
-        <v>905</v>
+        <v>658</v>
       </c>
       <c r="H126" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I126" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="J126" t="s">
-        <v>468</v>
-      </c>
-      <c r="K126" t="s">
-        <v>65</v>
-      </c>
-      <c r="L126" t="s">
-        <v>462</v>
-      </c>
-      <c r="M126" t="s">
-        <v>465</v>
-      </c>
-      <c r="N126" t="s">
-        <v>467</v>
+        <v>949</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B127" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C127" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D127" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E127" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F127" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G127" t="s">
-        <v>659</v>
+        <v>905</v>
       </c>
       <c r="H127" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I127" t="s">
         <v>697</v>
       </c>
       <c r="J127" t="s">
-        <v>898</v>
+        <v>468</v>
       </c>
       <c r="K127" t="s">
-        <v>693</v>
+        <v>65</v>
       </c>
       <c r="L127" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M127" t="s">
-        <v>748</v>
+        <v>465</v>
       </c>
       <c r="N127" t="s">
-        <v>925</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -8443,19 +8431,19 @@
         <v>469</v>
       </c>
       <c r="B128" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C128" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D128" t="s">
         <v>469</v>
       </c>
       <c r="E128" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F128" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G128" t="s">
         <v>659</v>
@@ -8466,6 +8454,9 @@
       <c r="I128" t="s">
         <v>697</v>
       </c>
+      <c r="J128" t="s">
+        <v>898</v>
+      </c>
       <c r="K128" t="s">
         <v>693</v>
       </c>
@@ -8473,45 +8464,51 @@
         <v>469</v>
       </c>
       <c r="M128" t="s">
-        <v>474</v>
+        <v>748</v>
       </c>
       <c r="N128" t="s">
-        <v>476</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B129" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C129" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D129" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="E129" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F129" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G129" t="s">
-        <v>926</v>
+        <v>659</v>
       </c>
       <c r="H129" t="s">
-        <v>907</v>
+        <v>662</v>
       </c>
       <c r="I129" t="s">
-        <v>683</v>
-      </c>
-      <c r="J129" t="s">
-        <v>505</v>
+        <v>697</v>
       </c>
       <c r="K129" t="s">
-        <v>888</v>
+        <v>693</v>
+      </c>
+      <c r="L129" t="s">
+        <v>469</v>
+      </c>
+      <c r="M129" t="s">
+        <v>474</v>
+      </c>
+      <c r="N129" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8519,19 +8516,19 @@
         <v>483</v>
       </c>
       <c r="B130" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C130" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D130" t="s">
         <v>483</v>
       </c>
       <c r="E130" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F130" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G130" t="s">
         <v>926</v>
@@ -8554,19 +8551,19 @@
         <v>483</v>
       </c>
       <c r="B131" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C131" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D131" t="s">
         <v>483</v>
       </c>
       <c r="E131" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F131" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G131" t="s">
         <v>926</v>
@@ -8589,19 +8586,19 @@
         <v>483</v>
       </c>
       <c r="B132" t="s">
-        <v>784</v>
+        <v>492</v>
       </c>
       <c r="C132" t="s">
-        <v>783</v>
+        <v>493</v>
       </c>
       <c r="D132" t="s">
         <v>483</v>
       </c>
       <c r="E132" t="s">
-        <v>785</v>
+        <v>494</v>
       </c>
       <c r="F132" t="s">
-        <v>786</v>
+        <v>495</v>
       </c>
       <c r="G132" t="s">
         <v>926</v>
@@ -8624,31 +8621,34 @@
         <v>483</v>
       </c>
       <c r="B133" t="s">
-        <v>496</v>
+        <v>784</v>
       </c>
       <c r="C133" t="s">
-        <v>497</v>
+        <v>783</v>
       </c>
       <c r="D133" t="s">
         <v>483</v>
       </c>
       <c r="E133" t="s">
-        <v>498</v>
+        <v>785</v>
       </c>
       <c r="F133" t="s">
-        <v>499</v>
+        <v>786</v>
       </c>
       <c r="G133" t="s">
-        <v>658</v>
+        <v>926</v>
       </c>
       <c r="H133" t="s">
-        <v>663</v>
+        <v>907</v>
       </c>
       <c r="I133" t="s">
         <v>683</v>
       </c>
+      <c r="J133" t="s">
+        <v>505</v>
+      </c>
       <c r="K133" t="s">
-        <v>693</v>
+        <v>888</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8656,34 +8656,31 @@
         <v>483</v>
       </c>
       <c r="B134" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C134" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D134" t="s">
         <v>483</v>
       </c>
       <c r="E134" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F134" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G134" t="s">
-        <v>926</v>
+        <v>658</v>
       </c>
       <c r="H134" t="s">
-        <v>907</v>
+        <v>663</v>
       </c>
       <c r="I134" t="s">
         <v>683</v>
       </c>
-      <c r="J134" t="s">
-        <v>505</v>
-      </c>
       <c r="K134" t="s">
-        <v>888</v>
+        <v>693</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8691,98 +8688,101 @@
         <v>483</v>
       </c>
       <c r="B135" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C135" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D135" t="s">
         <v>483</v>
       </c>
       <c r="E135" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F135" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G135" t="s">
-        <v>660</v>
+        <v>926</v>
       </c>
       <c r="H135" t="s">
-        <v>66</v>
+        <v>907</v>
       </c>
       <c r="I135" t="s">
         <v>683</v>
       </c>
+      <c r="J135" t="s">
+        <v>505</v>
+      </c>
       <c r="K135" t="s">
-        <v>693</v>
+        <v>888</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
+        <v>483</v>
+      </c>
+      <c r="B136" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" t="s">
+        <v>505</v>
+      </c>
+      <c r="D136" t="s">
+        <v>483</v>
+      </c>
+      <c r="E136" t="s">
+        <v>502</v>
+      </c>
+      <c r="F136" t="s">
+        <v>503</v>
+      </c>
+      <c r="G136" t="s">
+        <v>660</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136" t="s">
+        <v>683</v>
+      </c>
+      <c r="K136" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="s">
         <v>508</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>509</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>510</v>
       </c>
-      <c r="D136" t="s">
-        <v>508</v>
-      </c>
-      <c r="E136" t="s">
-        <v>511</v>
-      </c>
-      <c r="F136" t="s">
-        <v>512</v>
-      </c>
-      <c r="G136" t="s">
-        <v>927</v>
-      </c>
-      <c r="H136" t="s">
-        <v>928</v>
-      </c>
-      <c r="I136" t="s">
-        <v>698</v>
-      </c>
-      <c r="J136" t="s">
-        <v>513</v>
-      </c>
-      <c r="K136" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
       <c r="D137" t="s">
         <v>508</v>
       </c>
       <c r="E137" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F137" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G137" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I137" t="s">
-        <v>692</v>
+        <v>698</v>
+      </c>
+      <c r="J137" t="s">
+        <v>513</v>
       </c>
       <c r="K137" t="s">
-        <v>693</v>
-      </c>
-      <c r="L137" t="s">
-        <v>508</v>
-      </c>
-      <c r="M137" t="s">
-        <v>516</v>
-      </c>
-      <c r="N137" t="s">
-        <v>517</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8790,10 +8790,10 @@
         <v>508</v>
       </c>
       <c r="E138" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F138" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G138" t="s">
         <v>660</v>
@@ -8814,7 +8814,7 @@
         <v>516</v>
       </c>
       <c r="N138" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8825,42 +8825,39 @@
         <v>516</v>
       </c>
       <c r="F139" t="s">
+        <v>518</v>
+      </c>
+      <c r="G139" t="s">
+        <v>660</v>
+      </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
+      <c r="I139" t="s">
+        <v>692</v>
+      </c>
+      <c r="K139" t="s">
+        <v>693</v>
+      </c>
+      <c r="L139" t="s">
+        <v>508</v>
+      </c>
+      <c r="M139" t="s">
+        <v>516</v>
+      </c>
+      <c r="N139" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="D140" t="s">
+        <v>508</v>
+      </c>
+      <c r="E140" t="s">
+        <v>516</v>
+      </c>
+      <c r="F140" t="s">
         <v>669</v>
-      </c>
-      <c r="G139" t="s">
-        <v>927</v>
-      </c>
-      <c r="H139" t="s">
-        <v>928</v>
-      </c>
-      <c r="I139" t="s">
-        <v>698</v>
-      </c>
-      <c r="J139" t="s">
-        <v>668</v>
-      </c>
-      <c r="K139" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" t="s">
-        <v>520</v>
-      </c>
-      <c r="B140" t="s">
-        <v>521</v>
-      </c>
-      <c r="C140" t="s">
-        <v>522</v>
-      </c>
-      <c r="D140" t="s">
-        <v>520</v>
-      </c>
-      <c r="E140" t="s">
-        <v>523</v>
-      </c>
-      <c r="F140" t="s">
-        <v>524</v>
       </c>
       <c r="G140" t="s">
         <v>927</v>
@@ -8872,60 +8869,54 @@
         <v>698</v>
       </c>
       <c r="J140" t="s">
-        <v>525</v>
+        <v>668</v>
       </c>
       <c r="K140" t="s">
         <v>658</v>
       </c>
-      <c r="L140" t="s">
-        <v>520</v>
-      </c>
-      <c r="M140" t="s">
-        <v>962</v>
-      </c>
-      <c r="N140" t="s">
-        <v>963</v>
-      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B141" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C141" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D141" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E141" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F141" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G141" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H141" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I141" t="s">
         <v>698</v>
       </c>
+      <c r="J141" t="s">
+        <v>525</v>
+      </c>
       <c r="K141" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="L141" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M141" t="s">
-        <v>531</v>
+        <v>962</v>
       </c>
       <c r="N141" t="s">
-        <v>540</v>
+        <v>963</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8933,19 +8924,19 @@
         <v>526</v>
       </c>
       <c r="B142" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C142" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D142" t="s">
         <v>526</v>
       </c>
       <c r="E142" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F142" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G142" t="s">
         <v>660</v>
@@ -8956,11 +8947,17 @@
       <c r="I142" t="s">
         <v>698</v>
       </c>
-      <c r="J142" t="s">
-        <v>535</v>
-      </c>
       <c r="K142" t="s">
         <v>693</v>
+      </c>
+      <c r="L142" t="s">
+        <v>526</v>
+      </c>
+      <c r="M142" t="s">
+        <v>531</v>
+      </c>
+      <c r="N142" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -8968,10 +8965,10 @@
         <v>526</v>
       </c>
       <c r="B143" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C143" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D143" t="s">
         <v>526</v>
@@ -8980,16 +8977,19 @@
         <v>533</v>
       </c>
       <c r="F143" t="s">
+        <v>534</v>
+      </c>
+      <c r="G143" t="s">
+        <v>660</v>
+      </c>
+      <c r="H143" t="s">
+        <v>66</v>
+      </c>
+      <c r="I143" t="s">
+        <v>698</v>
+      </c>
+      <c r="J143" t="s">
         <v>535</v>
-      </c>
-      <c r="G143" t="s">
-        <v>658</v>
-      </c>
-      <c r="H143" t="s">
-        <v>663</v>
-      </c>
-      <c r="I143" t="s">
-        <v>699</v>
       </c>
       <c r="K143" t="s">
         <v>693</v>
@@ -9000,25 +9000,25 @@
         <v>526</v>
       </c>
       <c r="B144" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C144" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D144" t="s">
         <v>526</v>
       </c>
       <c r="E144" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F144" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G144" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H144" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I144" t="s">
         <v>699</v>
@@ -9028,41 +9028,38 @@
       </c>
     </row>
     <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>526</v>
+      </c>
+      <c r="B145" t="s">
+        <v>527</v>
+      </c>
+      <c r="C145" t="s">
+        <v>528</v>
+      </c>
       <c r="D145" t="s">
         <v>526</v>
       </c>
       <c r="E145" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F145" t="s">
-        <v>769</v>
+        <v>542</v>
       </c>
       <c r="G145" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H145" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I145" t="s">
-        <v>700</v>
-      </c>
-      <c r="J145" t="s">
-        <v>543</v>
+        <v>699</v>
       </c>
       <c r="K145" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" t="s">
-        <v>526</v>
-      </c>
-      <c r="B146" t="s">
-        <v>544</v>
-      </c>
-      <c r="C146" t="s">
-        <v>545</v>
-      </c>
       <c r="D146" t="s">
         <v>526</v>
       </c>
@@ -9070,7 +9067,7 @@
         <v>546</v>
       </c>
       <c r="F146" t="s">
-        <v>547</v>
+        <v>769</v>
       </c>
       <c r="G146" t="s">
         <v>927</v>
@@ -9093,19 +9090,19 @@
         <v>526</v>
       </c>
       <c r="B147" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C147" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D147" t="s">
         <v>526</v>
       </c>
       <c r="E147" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F147" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G147" t="s">
         <v>927</v>
@@ -9114,10 +9111,10 @@
         <v>928</v>
       </c>
       <c r="I147" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J147" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K147" t="s">
         <v>658</v>
@@ -9128,19 +9125,19 @@
         <v>526</v>
       </c>
       <c r="B148" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D148" t="s">
         <v>526</v>
       </c>
       <c r="E148" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F148" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G148" t="s">
         <v>927</v>
@@ -9152,21 +9149,30 @@
         <v>701</v>
       </c>
       <c r="J148" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K148" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:14">
+      <c r="A149" t="s">
+        <v>526</v>
+      </c>
+      <c r="B149" t="s">
+        <v>553</v>
+      </c>
+      <c r="C149" t="s">
+        <v>554</v>
+      </c>
       <c r="D149" t="s">
         <v>526</v>
       </c>
       <c r="E149" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F149" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G149" t="s">
         <v>927</v>
@@ -9178,7 +9184,7 @@
         <v>701</v>
       </c>
       <c r="J149" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K149" t="s">
         <v>658</v>
@@ -9189,10 +9195,10 @@
         <v>526</v>
       </c>
       <c r="E150" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F150" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G150" t="s">
         <v>927</v>
@@ -9211,23 +9217,14 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" t="s">
-        <v>526</v>
-      </c>
-      <c r="B151" t="s">
-        <v>564</v>
-      </c>
-      <c r="C151" t="s">
-        <v>565</v>
-      </c>
       <c r="D151" t="s">
         <v>526</v>
       </c>
       <c r="E151" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F151" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G151" t="s">
         <v>927</v>
@@ -9239,19 +9236,10 @@
         <v>701</v>
       </c>
       <c r="J151" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K151" t="s">
         <v>658</v>
-      </c>
-      <c r="L151" t="s">
-        <v>526</v>
-      </c>
-      <c r="M151" t="s">
-        <v>564</v>
-      </c>
-      <c r="N151" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -9259,104 +9247,116 @@
         <v>526</v>
       </c>
       <c r="B152" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C152" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D152" t="s">
         <v>526</v>
       </c>
       <c r="E152" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="F152" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G152" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H152" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I152" t="s">
-        <v>683</v>
+        <v>701</v>
+      </c>
+      <c r="J152" t="s">
+        <v>563</v>
       </c>
       <c r="K152" t="s">
-        <v>693</v>
+        <v>658</v>
+      </c>
+      <c r="L152" t="s">
+        <v>526</v>
+      </c>
+      <c r="M152" t="s">
+        <v>564</v>
+      </c>
+      <c r="N152" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
       <c r="B153" t="s">
-        <v>719</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>720</v>
+        <v>569</v>
       </c>
       <c r="D153" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
       <c r="E153" t="s">
-        <v>721</v>
+        <v>533</v>
       </c>
       <c r="F153" t="s">
-        <v>722</v>
+        <v>570</v>
       </c>
       <c r="G153" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H153" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I153" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K153" t="s">
         <v>693</v>
-      </c>
-      <c r="L153" t="s">
-        <v>718</v>
-      </c>
-      <c r="M153" t="s">
-        <v>721</v>
-      </c>
-      <c r="N153" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="B154" t="s">
-        <v>590</v>
+        <v>719</v>
       </c>
       <c r="C154" t="s">
-        <v>591</v>
+        <v>720</v>
       </c>
       <c r="D154" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="E154" t="s">
-        <v>596</v>
+        <v>721</v>
       </c>
       <c r="F154" t="s">
-        <v>597</v>
+        <v>722</v>
       </c>
       <c r="G154" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H154" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I154" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="K154" t="s">
         <v>693</v>
+      </c>
+      <c r="L154" t="s">
+        <v>718</v>
+      </c>
+      <c r="M154" t="s">
+        <v>721</v>
+      </c>
+      <c r="N154" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -9364,25 +9364,25 @@
         <v>589</v>
       </c>
       <c r="B155" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C155" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D155" t="s">
         <v>589</v>
       </c>
       <c r="E155" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F155" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G155" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H155" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I155" t="s">
         <v>704</v>
@@ -9396,25 +9396,25 @@
         <v>589</v>
       </c>
       <c r="B156" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C156" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D156" t="s">
         <v>589</v>
       </c>
       <c r="E156" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F156" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G156" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H156" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I156" t="s">
         <v>704</v>
@@ -9424,6 +9424,15 @@
       </c>
     </row>
     <row r="157" spans="1:14">
+      <c r="A157" t="s">
+        <v>589</v>
+      </c>
+      <c r="B157" t="s">
+        <v>594</v>
+      </c>
+      <c r="C157" t="s">
+        <v>595</v>
+      </c>
       <c r="D157" t="s">
         <v>589</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G157" t="s">
         <v>660</v>
@@ -9440,80 +9449,71 @@
         <v>66</v>
       </c>
       <c r="I157" t="s">
-        <v>705</v>
-      </c>
-      <c r="J157" t="s">
-        <v>603</v>
+        <v>704</v>
       </c>
       <c r="K157" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" t="s">
-        <v>589</v>
-      </c>
-      <c r="B158" t="s">
-        <v>604</v>
-      </c>
-      <c r="C158" t="s">
-        <v>605</v>
-      </c>
       <c r="D158" t="s">
         <v>589</v>
       </c>
       <c r="E158" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F158" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G158" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H158" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I158" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="J158" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K158" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B159" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C159" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D159" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E159" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F159" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G159" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H159" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I159" t="s">
-        <v>687</v>
+        <v>683</v>
+      </c>
+      <c r="J159" t="s">
+        <v>608</v>
       </c>
       <c r="K159" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9521,28 +9521,28 @@
         <v>609</v>
       </c>
       <c r="B160" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C160" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D160" t="s">
         <v>609</v>
       </c>
       <c r="E160" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F160" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G160" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H160" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I160" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K160" t="s">
         <v>693</v>
@@ -9550,22 +9550,22 @@
     </row>
     <row r="161" spans="1:17">
       <c r="A161" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B161" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C161" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D161" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E161" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F161" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G161" t="s">
         <v>661</v>
@@ -9582,22 +9582,22 @@
     </row>
     <row r="162" spans="1:17">
       <c r="A162" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>619</v>
       </c>
       <c r="C162" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D162" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>621</v>
       </c>
       <c r="F162" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G162" t="s">
         <v>661</v>
@@ -9611,61 +9611,67 @@
       <c r="K162" t="s">
         <v>693</v>
       </c>
-      <c r="L162" t="s">
-        <v>623</v>
-      </c>
-      <c r="M162" t="s">
-        <v>289</v>
-      </c>
-      <c r="N162" t="s">
-        <v>626</v>
-      </c>
-      <c r="O162" t="s">
-        <v>623</v>
-      </c>
-      <c r="P162" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>627</v>
-      </c>
     </row>
     <row r="163" spans="1:17">
       <c r="A163" t="s">
+        <v>623</v>
+      </c>
+      <c r="B163" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" t="s">
+        <v>624</v>
+      </c>
+      <c r="D163" t="s">
+        <v>623</v>
+      </c>
+      <c r="E163" t="s">
+        <v>289</v>
+      </c>
+      <c r="F163" t="s">
+        <v>625</v>
+      </c>
+      <c r="G163" t="s">
+        <v>661</v>
+      </c>
+      <c r="H163" t="s">
+        <v>662</v>
+      </c>
+      <c r="I163" t="s">
+        <v>681</v>
+      </c>
+      <c r="K163" t="s">
+        <v>693</v>
+      </c>
+      <c r="L163" t="s">
+        <v>623</v>
+      </c>
+      <c r="M163" t="s">
+        <v>289</v>
+      </c>
+      <c r="N163" t="s">
+        <v>626</v>
+      </c>
+      <c r="O163" t="s">
+        <v>623</v>
+      </c>
+      <c r="P163" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" t="s">
         <v>628</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>632</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>633</v>
       </c>
-      <c r="D163" t="s">
-        <v>628</v>
-      </c>
-      <c r="E163" t="s">
-        <v>298</v>
-      </c>
-      <c r="F163" t="s">
-        <v>629</v>
-      </c>
-      <c r="G163" t="s">
-        <v>660</v>
-      </c>
-      <c r="H163" t="s">
-        <v>66</v>
-      </c>
-      <c r="I163" t="s">
-        <v>687</v>
-      </c>
-      <c r="J163" t="s">
-        <v>630</v>
-      </c>
-      <c r="K163" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
       <c r="D164" t="s">
         <v>628</v>
       </c>
@@ -9673,7 +9679,7 @@
         <v>298</v>
       </c>
       <c r="F164" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G164" t="s">
         <v>660</v>
@@ -9692,15 +9698,6 @@
       </c>
     </row>
     <row r="165" spans="1:17">
-      <c r="A165" t="s">
-        <v>628</v>
-      </c>
-      <c r="B165" t="s">
-        <v>298</v>
-      </c>
-      <c r="C165" t="s">
-        <v>635</v>
-      </c>
       <c r="D165" t="s">
         <v>628</v>
       </c>
@@ -9708,7 +9705,7 @@
         <v>298</v>
       </c>
       <c r="F165" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G165" t="s">
         <v>660</v>
@@ -9717,18 +9714,24 @@
         <v>66</v>
       </c>
       <c r="I165" t="s">
-        <v>684</v>
+        <v>687</v>
+      </c>
+      <c r="J165" t="s">
+        <v>630</v>
+      </c>
+      <c r="K165" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="166" spans="1:17">
       <c r="A166" t="s">
-        <v>288</v>
+        <v>628</v>
       </c>
       <c r="B166" t="s">
         <v>298</v>
       </c>
       <c r="C166" t="s">
-        <v>750</v>
+        <v>635</v>
       </c>
       <c r="D166" t="s">
         <v>628</v>
@@ -9737,7 +9740,7 @@
         <v>298</v>
       </c>
       <c r="F166" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G166" t="s">
         <v>660</v>
@@ -9748,22 +9751,16 @@
       <c r="I166" t="s">
         <v>684</v>
       </c>
-      <c r="J166" t="s">
-        <v>630</v>
-      </c>
-      <c r="K166" t="s">
-        <v>693</v>
-      </c>
     </row>
     <row r="167" spans="1:17">
       <c r="A167" t="s">
-        <v>628</v>
+        <v>288</v>
       </c>
       <c r="B167" t="s">
         <v>298</v>
       </c>
       <c r="C167" t="s">
-        <v>634</v>
+        <v>750</v>
       </c>
       <c r="D167" t="s">
         <v>628</v>
@@ -9772,7 +9769,7 @@
         <v>298</v>
       </c>
       <c r="F167" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G167" t="s">
         <v>660</v>
@@ -9795,107 +9792,101 @@
         <v>628</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C168" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D168" t="s">
         <v>628</v>
       </c>
       <c r="E168" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F168" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G168" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H168" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I168" t="s">
-        <v>681</v>
+        <v>684</v>
+      </c>
+      <c r="J168" t="s">
+        <v>630</v>
       </c>
       <c r="K168" t="s">
         <v>693</v>
-      </c>
-      <c r="L168" t="s">
-        <v>628</v>
-      </c>
-      <c r="M168" t="s">
-        <v>289</v>
-      </c>
-      <c r="N168" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="169" spans="1:17">
       <c r="A169" t="s">
+        <v>628</v>
+      </c>
+      <c r="B169" t="s">
+        <v>293</v>
+      </c>
+      <c r="C169" t="s">
+        <v>638</v>
+      </c>
+      <c r="D169" t="s">
+        <v>628</v>
+      </c>
+      <c r="E169" t="s">
+        <v>289</v>
+      </c>
+      <c r="F169" t="s">
+        <v>639</v>
+      </c>
+      <c r="G169" t="s">
+        <v>661</v>
+      </c>
+      <c r="H169" t="s">
+        <v>662</v>
+      </c>
+      <c r="I169" t="s">
+        <v>681</v>
+      </c>
+      <c r="K169" t="s">
+        <v>693</v>
+      </c>
+      <c r="L169" t="s">
+        <v>628</v>
+      </c>
+      <c r="M169" t="s">
+        <v>289</v>
+      </c>
+      <c r="N169" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" t="s">
         <v>479</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>641</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>642</v>
       </c>
-      <c r="D169" t="s">
-        <v>479</v>
-      </c>
-      <c r="E169" t="s">
-        <v>480</v>
-      </c>
-      <c r="F169" t="s">
-        <v>481</v>
-      </c>
-      <c r="G169" t="s">
-        <v>660</v>
-      </c>
-      <c r="H169" t="s">
-        <v>66</v>
-      </c>
-      <c r="I169" t="s">
-        <v>697</v>
-      </c>
-      <c r="K169" t="s">
-        <v>693</v>
-      </c>
-      <c r="L169" t="s">
-        <v>479</v>
-      </c>
-      <c r="M169" t="s">
-        <v>480</v>
-      </c>
-      <c r="N169" t="s">
-        <v>482</v>
-      </c>
-      <c r="O169" t="s">
-        <v>479</v>
-      </c>
-      <c r="P169" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17">
       <c r="D170" t="s">
         <v>479</v>
       </c>
       <c r="E170" t="s">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="F170" t="s">
-        <v>644</v>
+        <v>481</v>
       </c>
       <c r="G170" t="s">
-        <v>930</v>
+        <v>660</v>
       </c>
       <c r="H170" t="s">
-        <v>923</v>
+        <v>66</v>
       </c>
       <c r="I170" t="s">
         <v>697</v>
@@ -9907,36 +9898,36 @@
         <v>479</v>
       </c>
       <c r="M170" t="s">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="N170" t="s">
-        <v>645</v>
+        <v>482</v>
+      </c>
+      <c r="O170" t="s">
+        <v>479</v>
+      </c>
+      <c r="P170" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="171" spans="1:17">
-      <c r="A171" t="s">
-        <v>479</v>
-      </c>
-      <c r="B171" t="s">
-        <v>646</v>
-      </c>
-      <c r="C171" t="s">
-        <v>647</v>
-      </c>
       <c r="D171" t="s">
         <v>479</v>
       </c>
       <c r="E171" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F171" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G171" t="s">
-        <v>659</v>
+        <v>930</v>
       </c>
       <c r="H171" t="s">
-        <v>662</v>
+        <v>923</v>
       </c>
       <c r="I171" t="s">
         <v>697</v>
@@ -9944,43 +9935,58 @@
       <c r="K171" t="s">
         <v>693</v>
       </c>
+      <c r="L171" t="s">
+        <v>479</v>
+      </c>
+      <c r="M171" t="s">
+        <v>643</v>
+      </c>
+      <c r="N171" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="172" spans="1:17">
       <c r="A172" t="s">
+        <v>479</v>
+      </c>
+      <c r="B172" t="s">
+        <v>646</v>
+      </c>
+      <c r="C172" t="s">
+        <v>647</v>
+      </c>
+      <c r="D172" t="s">
+        <v>479</v>
+      </c>
+      <c r="E172" t="s">
+        <v>648</v>
+      </c>
+      <c r="F172" t="s">
+        <v>649</v>
+      </c>
+      <c r="G172" t="s">
+        <v>659</v>
+      </c>
+      <c r="H172" t="s">
+        <v>662</v>
+      </c>
+      <c r="I172" t="s">
+        <v>697</v>
+      </c>
+      <c r="K172" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" t="s">
         <v>651</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>652</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>650</v>
       </c>
-      <c r="D172" t="s">
-        <v>651</v>
-      </c>
-      <c r="E172" t="s">
-        <v>653</v>
-      </c>
-      <c r="F172" t="s">
-        <v>654</v>
-      </c>
-      <c r="G172" t="s">
-        <v>658</v>
-      </c>
-      <c r="H172" t="s">
-        <v>663</v>
-      </c>
-      <c r="I172" t="s">
-        <v>683</v>
-      </c>
-      <c r="J172" t="s">
-        <v>655</v>
-      </c>
-      <c r="K172" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
       <c r="D173" t="s">
         <v>651</v>
       </c>
@@ -9988,13 +9994,13 @@
         <v>653</v>
       </c>
       <c r="F173" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G173" t="s">
-        <v>927</v>
+        <v>658</v>
       </c>
       <c r="H173" t="s">
-        <v>928</v>
+        <v>663</v>
       </c>
       <c r="I173" t="s">
         <v>683</v>
@@ -10014,7 +10020,7 @@
         <v>653</v>
       </c>
       <c r="F174" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G174" t="s">
         <v>927</v>
@@ -10033,37 +10039,40 @@
       </c>
     </row>
     <row r="175" spans="1:17">
-      <c r="A175" t="s">
-        <v>671</v>
-      </c>
-      <c r="B175" t="s">
-        <v>672</v>
-      </c>
-      <c r="C175" t="s">
-        <v>673</v>
+      <c r="D175" t="s">
+        <v>651</v>
+      </c>
+      <c r="E175" t="s">
+        <v>653</v>
+      </c>
+      <c r="F175" t="s">
+        <v>657</v>
       </c>
       <c r="G175" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="H175" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I175" t="s">
-        <v>693</v>
+        <v>683</v>
+      </c>
+      <c r="J175" t="s">
+        <v>655</v>
       </c>
       <c r="K175" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="176" spans="1:17">
       <c r="A176" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B176" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C176" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G176" t="s">
         <v>931</v>
@@ -10080,13 +10089,13 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B177" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C177" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G177" t="s">
         <v>931</v>
@@ -10094,92 +10103,83 @@
       <c r="H177" t="s">
         <v>932</v>
       </c>
+      <c r="I177" t="s">
+        <v>693</v>
+      </c>
       <c r="K177" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="D178" t="s">
+      <c r="A178" t="s">
+        <v>677</v>
+      </c>
+      <c r="B178" t="s">
+        <v>678</v>
+      </c>
+      <c r="C178" t="s">
+        <v>679</v>
+      </c>
+      <c r="G178" t="s">
+        <v>931</v>
+      </c>
+      <c r="H178" t="s">
+        <v>932</v>
+      </c>
+      <c r="K178" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="D179" t="s">
         <v>324</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>349</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>710</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>660</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H179" t="s">
         <v>66</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I179" t="s">
         <v>703</v>
       </c>
-      <c r="K178" t="s">
-        <v>693</v>
-      </c>
-      <c r="L178" t="s">
+      <c r="K179" t="s">
+        <v>693</v>
+      </c>
+      <c r="L179" t="s">
         <v>324</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M179" t="s">
         <v>349</v>
       </c>
-      <c r="N178" t="s">
+      <c r="N179" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
-      <c r="A179" t="s">
-        <v>609</v>
-      </c>
-      <c r="B179" t="s">
-        <v>730</v>
-      </c>
-      <c r="C179" t="s">
-        <v>731</v>
-      </c>
-      <c r="D179" t="s">
-        <v>609</v>
-      </c>
-      <c r="E179" t="s">
-        <v>732</v>
-      </c>
-      <c r="F179" t="s">
-        <v>733</v>
-      </c>
-      <c r="G179" t="s">
-        <v>661</v>
-      </c>
-      <c r="H179" t="s">
-        <v>662</v>
-      </c>
-      <c r="I179" t="s">
-        <v>681</v>
-      </c>
-      <c r="K179" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>734</v>
+        <v>609</v>
       </c>
       <c r="B180" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C180" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D180" t="s">
-        <v>734</v>
+        <v>609</v>
       </c>
       <c r="E180" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F180" t="s">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="G180" t="s">
         <v>661</v>
@@ -10193,37 +10193,28 @@
       <c r="K180" t="s">
         <v>693</v>
       </c>
-      <c r="L180" t="s">
-        <v>734</v>
-      </c>
-      <c r="M180" t="s">
-        <v>737</v>
-      </c>
-      <c r="N180" t="s">
-        <v>904</v>
-      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B181" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C181" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D181" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E181" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F181" t="s">
-        <v>742</v>
+        <v>933</v>
       </c>
       <c r="G181" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="H181" t="s">
         <v>662</v>
@@ -10234,34 +10225,43 @@
       <c r="K181" t="s">
         <v>693</v>
       </c>
+      <c r="L181" t="s">
+        <v>734</v>
+      </c>
+      <c r="M181" t="s">
+        <v>737</v>
+      </c>
+      <c r="N181" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B182" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C182" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D182" t="s">
         <v>741</v>
       </c>
       <c r="E182" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F182" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G182" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
       <c r="H182" t="s">
         <v>662</v>
       </c>
       <c r="I182" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K182" t="s">
         <v>693</v>
@@ -10269,45 +10269,54 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B183" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C183" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D183" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E183" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F183" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="G183" t="s">
-        <v>760</v>
+        <v>659</v>
       </c>
       <c r="H183" t="s">
         <v>662</v>
       </c>
       <c r="I183" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="K183" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:14">
+      <c r="A184" t="s">
+        <v>751</v>
+      </c>
+      <c r="B184" t="s">
+        <v>752</v>
+      </c>
+      <c r="C184" t="s">
+        <v>753</v>
+      </c>
       <c r="D184" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E184" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F184" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G184" t="s">
         <v>760</v>
@@ -10316,48 +10325,45 @@
         <v>662</v>
       </c>
       <c r="I184" t="s">
-        <v>761</v>
-      </c>
-      <c r="J184" t="s">
-        <v>762</v>
+        <v>681</v>
       </c>
       <c r="K184" t="s">
-        <v>760</v>
-      </c>
-      <c r="L184" t="s">
-        <v>756</v>
-      </c>
-      <c r="M184" t="s">
-        <v>757</v>
-      </c>
-      <c r="N184" t="s">
-        <v>759</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" spans="1:14">
       <c r="D185" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E185" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F185" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="G185" t="s">
-        <v>905</v>
+        <v>760</v>
       </c>
       <c r="H185" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I185" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="J185" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="K185" t="s">
-        <v>65</v>
+        <v>760</v>
+      </c>
+      <c r="L185" t="s">
+        <v>756</v>
+      </c>
+      <c r="M185" t="s">
+        <v>757</v>
+      </c>
+      <c r="N185" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -10365,10 +10371,10 @@
         <v>763</v>
       </c>
       <c r="E186" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F186" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G186" t="s">
         <v>905</v>
@@ -10387,128 +10393,122 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" t="s">
+      <c r="D187" t="s">
+        <v>763</v>
+      </c>
+      <c r="E187" t="s">
+        <v>766</v>
+      </c>
+      <c r="F187" t="s">
+        <v>767</v>
+      </c>
+      <c r="G187" t="s">
+        <v>905</v>
+      </c>
+      <c r="H187" t="s">
+        <v>66</v>
+      </c>
+      <c r="I187" t="s">
+        <v>682</v>
+      </c>
+      <c r="J187" t="s">
+        <v>768</v>
+      </c>
+      <c r="K187" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" t="s">
         <v>770</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>771</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>772</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>770</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E188" t="s">
         <v>773</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>774</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G188" t="s">
         <v>927</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H188" t="s">
         <v>928</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I188" t="s">
         <v>683</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J188" t="s">
         <v>775</v>
       </c>
-      <c r="K187" t="s">
+      <c r="K188" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
-      <c r="D188" t="s">
+    <row r="189" spans="1:14">
+      <c r="D189" t="s">
         <v>479</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E189" t="s">
         <v>780</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F189" t="s">
         <v>781</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G189" t="s">
         <v>659</v>
-      </c>
-      <c r="H188" t="s">
-        <v>662</v>
-      </c>
-      <c r="I188" t="s">
-        <v>697</v>
-      </c>
-      <c r="K188" t="s">
-        <v>693</v>
-      </c>
-      <c r="L188" t="s">
-        <v>479</v>
-      </c>
-      <c r="M188" t="s">
-        <v>780</v>
-      </c>
-      <c r="N188" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
-      <c r="A189" t="s">
-        <v>787</v>
-      </c>
-      <c r="B189" t="s">
-        <v>788</v>
-      </c>
-      <c r="C189" t="s">
-        <v>789</v>
-      </c>
-      <c r="D189" t="s">
-        <v>787</v>
-      </c>
-      <c r="E189" t="s">
-        <v>790</v>
-      </c>
-      <c r="F189" t="s">
-        <v>791</v>
-      </c>
-      <c r="G189" t="s">
-        <v>792</v>
       </c>
       <c r="H189" t="s">
         <v>662</v>
       </c>
       <c r="I189" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K189" t="s">
         <v>693</v>
+      </c>
+      <c r="L189" t="s">
+        <v>479</v>
+      </c>
+      <c r="M189" t="s">
+        <v>780</v>
+      </c>
+      <c r="N189" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B190" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C190" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D190" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E190" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F190" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G190" t="s">
-        <v>660</v>
+        <v>792</v>
       </c>
       <c r="H190" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I190" t="s">
         <v>692</v>
@@ -10519,28 +10519,34 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>571</v>
+        <v>793</v>
       </c>
       <c r="B191" t="s">
-        <v>572</v>
+        <v>794</v>
       </c>
       <c r="C191" t="s">
-        <v>573</v>
+        <v>795</v>
+      </c>
+      <c r="D191" t="s">
+        <v>793</v>
+      </c>
+      <c r="E191" t="s">
+        <v>796</v>
+      </c>
+      <c r="F191" t="s">
+        <v>797</v>
       </c>
       <c r="G191" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H191" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I191" t="s">
-        <v>702</v>
-      </c>
-      <c r="J191" t="s">
-        <v>588</v>
+        <v>692</v>
       </c>
       <c r="K191" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10548,10 +10554,10 @@
         <v>571</v>
       </c>
       <c r="B192" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C192" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G192" t="s">
         <v>927</v>
@@ -10574,10 +10580,10 @@
         <v>571</v>
       </c>
       <c r="B193" t="s">
-        <v>799</v>
+        <v>580</v>
       </c>
       <c r="C193" t="s">
-        <v>799</v>
+        <v>580</v>
       </c>
       <c r="G193" t="s">
         <v>927</v>
@@ -10600,10 +10606,10 @@
         <v>571</v>
       </c>
       <c r="B194" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C194" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G194" t="s">
         <v>927</v>
@@ -10626,10 +10632,10 @@
         <v>571</v>
       </c>
       <c r="B195" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C195" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G195" t="s">
         <v>927</v>
@@ -10652,10 +10658,10 @@
         <v>571</v>
       </c>
       <c r="B196" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C196" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G196" t="s">
         <v>927</v>
@@ -10678,10 +10684,10 @@
         <v>571</v>
       </c>
       <c r="B197" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C197" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G197" t="s">
         <v>927</v>
@@ -10704,10 +10710,10 @@
         <v>571</v>
       </c>
       <c r="B198" t="s">
-        <v>574</v>
+        <v>803</v>
       </c>
       <c r="C198" t="s">
-        <v>575</v>
+        <v>803</v>
       </c>
       <c r="G198" t="s">
         <v>927</v>
@@ -10730,10 +10736,10 @@
         <v>571</v>
       </c>
       <c r="B199" t="s">
-        <v>804</v>
+        <v>574</v>
       </c>
       <c r="C199" t="s">
-        <v>804</v>
+        <v>575</v>
       </c>
       <c r="G199" t="s">
         <v>927</v>
@@ -10756,10 +10762,10 @@
         <v>571</v>
       </c>
       <c r="B200" t="s">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="C200" t="s">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="G200" t="s">
         <v>927</v>
@@ -10782,10 +10788,10 @@
         <v>571</v>
       </c>
       <c r="B201" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C201" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G201" t="s">
         <v>927</v>
@@ -10808,10 +10814,10 @@
         <v>571</v>
       </c>
       <c r="B202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G202" t="s">
         <v>927</v>
@@ -10834,10 +10840,10 @@
         <v>571</v>
       </c>
       <c r="B203" t="s">
-        <v>805</v>
+        <v>583</v>
       </c>
       <c r="C203" t="s">
-        <v>805</v>
+        <v>583</v>
       </c>
       <c r="G203" t="s">
         <v>927</v>
@@ -10860,10 +10866,10 @@
         <v>571</v>
       </c>
       <c r="B204" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C204" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G204" t="s">
         <v>927</v>
@@ -10886,10 +10892,10 @@
         <v>571</v>
       </c>
       <c r="B205" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C205" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G205" t="s">
         <v>927</v>
@@ -10912,10 +10918,10 @@
         <v>571</v>
       </c>
       <c r="B206" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C206" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="G206" t="s">
         <v>927</v>
@@ -10938,10 +10944,10 @@
         <v>571</v>
       </c>
       <c r="B207" t="s">
-        <v>584</v>
+        <v>798</v>
       </c>
       <c r="C207" t="s">
-        <v>584</v>
+        <v>798</v>
       </c>
       <c r="G207" t="s">
         <v>927</v>
@@ -10964,10 +10970,10 @@
         <v>571</v>
       </c>
       <c r="B208" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C208" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G208" t="s">
         <v>927</v>
@@ -10990,19 +10996,10 @@
         <v>571</v>
       </c>
       <c r="B209" t="s">
-        <v>837</v>
+        <v>585</v>
       </c>
       <c r="C209" t="s">
-        <v>838</v>
-      </c>
-      <c r="D209" t="s">
-        <v>571</v>
-      </c>
-      <c r="E209" t="s">
-        <v>886</v>
-      </c>
-      <c r="F209" t="s">
-        <v>887</v>
+        <v>585</v>
       </c>
       <c r="G209" t="s">
         <v>927</v>
@@ -11025,31 +11022,34 @@
         <v>571</v>
       </c>
       <c r="B210" t="s">
-        <v>576</v>
+        <v>837</v>
       </c>
       <c r="C210" t="s">
-        <v>577</v>
+        <v>838</v>
       </c>
       <c r="D210" t="s">
         <v>571</v>
       </c>
       <c r="E210" t="s">
-        <v>578</v>
+        <v>886</v>
       </c>
       <c r="F210" t="s">
-        <v>579</v>
+        <v>887</v>
       </c>
       <c r="G210" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H210" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I210" t="s">
-        <v>692</v>
+        <v>702</v>
+      </c>
+      <c r="J210" t="s">
+        <v>588</v>
       </c>
       <c r="K210" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11060,7 +11060,7 @@
         <v>576</v>
       </c>
       <c r="C211" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D211" t="s">
         <v>571</v>
@@ -11069,7 +11069,7 @@
         <v>578</v>
       </c>
       <c r="F211" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G211" t="s">
         <v>660</v>
@@ -11085,14 +11085,23 @@
       </c>
     </row>
     <row r="212" spans="1:14">
+      <c r="A212" t="s">
+        <v>571</v>
+      </c>
+      <c r="B212" t="s">
+        <v>576</v>
+      </c>
+      <c r="C212" t="s">
+        <v>586</v>
+      </c>
       <c r="D212" t="s">
-        <v>124</v>
+        <v>571</v>
       </c>
       <c r="E212" t="s">
-        <v>808</v>
+        <v>578</v>
       </c>
       <c r="F212" t="s">
-        <v>809</v>
+        <v>587</v>
       </c>
       <c r="G212" t="s">
         <v>660</v>
@@ -11101,68 +11110,59 @@
         <v>66</v>
       </c>
       <c r="I212" t="s">
+        <v>692</v>
+      </c>
+      <c r="K212" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="D213" t="s">
+        <v>124</v>
+      </c>
+      <c r="E213" t="s">
+        <v>808</v>
+      </c>
+      <c r="F213" t="s">
+        <v>809</v>
+      </c>
+      <c r="G213" t="s">
+        <v>660</v>
+      </c>
+      <c r="H213" t="s">
+        <v>66</v>
+      </c>
+      <c r="I213" t="s">
         <v>684</v>
       </c>
-      <c r="J212" t="s">
+      <c r="J213" t="s">
         <v>142</v>
       </c>
-      <c r="K212" t="s">
+      <c r="K213" t="s">
         <v>660</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
-      <c r="A213" t="s">
-        <v>589</v>
-      </c>
-      <c r="B213" t="s">
-        <v>810</v>
-      </c>
-      <c r="C213" t="s">
-        <v>811</v>
-      </c>
-      <c r="G213" t="s">
-        <v>927</v>
-      </c>
-      <c r="H213" t="s">
-        <v>928</v>
-      </c>
-      <c r="I213" t="s">
-        <v>692</v>
-      </c>
-      <c r="J213" t="s">
-        <v>812</v>
-      </c>
-      <c r="K213" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>813</v>
+        <v>589</v>
       </c>
       <c r="B214" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C214" t="s">
-        <v>815</v>
-      </c>
-      <c r="D214" t="s">
-        <v>718</v>
-      </c>
-      <c r="E214" t="s">
-        <v>814</v>
-      </c>
-      <c r="F214" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G214" t="s">
-        <v>818</v>
+        <v>927</v>
       </c>
       <c r="H214" t="s">
-        <v>662</v>
+        <v>928</v>
       </c>
       <c r="I214" t="s">
-        <v>817</v>
+        <v>692</v>
+      </c>
+      <c r="J214" t="s">
+        <v>812</v>
       </c>
       <c r="K214" t="s">
         <v>693</v>
@@ -11170,45 +11170,45 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>738</v>
+        <v>813</v>
       </c>
       <c r="B215" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C215" t="s">
-        <v>821</v>
+        <v>815</v>
+      </c>
+      <c r="D215" t="s">
+        <v>718</v>
+      </c>
+      <c r="E215" t="s">
+        <v>814</v>
+      </c>
+      <c r="F215" t="s">
+        <v>816</v>
       </c>
       <c r="G215" t="s">
-        <v>743</v>
+        <v>818</v>
       </c>
       <c r="H215" t="s">
         <v>662</v>
       </c>
       <c r="I215" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="K215" t="s">
         <v>693</v>
-      </c>
-      <c r="L215" t="s">
-        <v>820</v>
-      </c>
-      <c r="M215" t="s">
-        <v>741</v>
-      </c>
-      <c r="N215" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>628</v>
+        <v>738</v>
       </c>
       <c r="B216" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C216" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G216" t="s">
         <v>743</v>
@@ -11217,30 +11217,39 @@
         <v>662</v>
       </c>
       <c r="I216" t="s">
+        <v>822</v>
+      </c>
+      <c r="K216" t="s">
+        <v>693</v>
+      </c>
+      <c r="L216" t="s">
+        <v>820</v>
+      </c>
+      <c r="M216" t="s">
+        <v>741</v>
+      </c>
+      <c r="N216" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" t="s">
+        <v>628</v>
+      </c>
+      <c r="B217" t="s">
+        <v>823</v>
+      </c>
+      <c r="C217" t="s">
+        <v>824</v>
+      </c>
+      <c r="G217" t="s">
+        <v>743</v>
+      </c>
+      <c r="H217" t="s">
+        <v>662</v>
+      </c>
+      <c r="I217" t="s">
         <v>884</v>
-      </c>
-      <c r="K216" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
-      <c r="D217" t="s">
-        <v>825</v>
-      </c>
-      <c r="E217" t="s">
-        <v>826</v>
-      </c>
-      <c r="F217" t="s">
-        <v>827</v>
-      </c>
-      <c r="G217" t="s">
-        <v>660</v>
-      </c>
-      <c r="H217" t="s">
-        <v>66</v>
-      </c>
-      <c r="I217" t="s">
-        <v>681</v>
       </c>
       <c r="K217" t="s">
         <v>693</v>
@@ -11248,13 +11257,13 @@
     </row>
     <row r="218" spans="1:14">
       <c r="D218" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E218" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F218" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G218" t="s">
         <v>660</v>
@@ -11263,7 +11272,7 @@
         <v>66</v>
       </c>
       <c r="I218" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K218" t="s">
         <v>693</v>
@@ -11271,13 +11280,13 @@
     </row>
     <row r="219" spans="1:14">
       <c r="D219" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E219" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F219" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G219" t="s">
         <v>660</v>
@@ -11286,56 +11295,53 @@
         <v>66</v>
       </c>
       <c r="I219" t="s">
+        <v>683</v>
+      </c>
+      <c r="K219" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="D220" t="s">
+        <v>831</v>
+      </c>
+      <c r="E220" t="s">
+        <v>832</v>
+      </c>
+      <c r="F220" t="s">
+        <v>833</v>
+      </c>
+      <c r="G220" t="s">
+        <v>660</v>
+      </c>
+      <c r="H220" t="s">
+        <v>66</v>
+      </c>
+      <c r="I220" t="s">
         <v>687</v>
       </c>
-      <c r="K219" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14">
-      <c r="A220" t="s">
+      <c r="K220" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" t="s">
         <v>306</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>307</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>834</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>658</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H221" t="s">
         <v>663</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I221" t="s">
         <v>683</v>
-      </c>
-      <c r="K220" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
-      <c r="D221" t="s">
-        <v>469</v>
-      </c>
-      <c r="E221" t="s">
-        <v>472</v>
-      </c>
-      <c r="F221" t="s">
-        <v>835</v>
-      </c>
-      <c r="G221" t="s">
-        <v>906</v>
-      </c>
-      <c r="H221" t="s">
-        <v>907</v>
-      </c>
-      <c r="I221" t="s">
-        <v>697</v>
-      </c>
-      <c r="J221" t="s">
-        <v>898</v>
       </c>
       <c r="K221" t="s">
         <v>693</v>
@@ -11343,45 +11349,39 @@
     </row>
     <row r="222" spans="1:14">
       <c r="D222" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E222" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F222" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G222" t="s">
-        <v>660</v>
+        <v>906</v>
       </c>
       <c r="H222" t="s">
-        <v>66</v>
+        <v>907</v>
       </c>
       <c r="I222" t="s">
         <v>697</v>
       </c>
+      <c r="J222" t="s">
+        <v>898</v>
+      </c>
       <c r="K222" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" t="s">
-        <v>841</v>
-      </c>
-      <c r="B223" t="s">
-        <v>842</v>
-      </c>
-      <c r="C223" t="s">
-        <v>843</v>
-      </c>
       <c r="D223" t="s">
-        <v>841</v>
+        <v>462</v>
       </c>
       <c r="E223" t="s">
-        <v>842</v>
+        <v>465</v>
       </c>
       <c r="F223" t="s">
-        <v>894</v>
+        <v>836</v>
       </c>
       <c r="G223" t="s">
         <v>660</v>
@@ -11390,7 +11390,7 @@
         <v>66</v>
       </c>
       <c r="I223" t="s">
-        <v>885</v>
+        <v>697</v>
       </c>
       <c r="K223" t="s">
         <v>693</v>
@@ -11398,45 +11398,54 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" t="s">
+        <v>841</v>
+      </c>
+      <c r="B224" t="s">
+        <v>842</v>
+      </c>
+      <c r="C224" t="s">
+        <v>843</v>
+      </c>
+      <c r="D224" t="s">
+        <v>841</v>
+      </c>
+      <c r="E224" t="s">
+        <v>842</v>
+      </c>
+      <c r="F224" t="s">
+        <v>894</v>
+      </c>
+      <c r="G224" t="s">
+        <v>660</v>
+      </c>
+      <c r="H224" t="s">
+        <v>66</v>
+      </c>
+      <c r="I224" t="s">
+        <v>885</v>
+      </c>
+      <c r="K224" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" t="s">
         <v>844</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>845</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>846</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G225" t="s">
         <v>658</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H225" t="s">
         <v>663</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I225" t="s">
         <v>701</v>
-      </c>
-      <c r="K224" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14">
-      <c r="D225" t="s">
-        <v>847</v>
-      </c>
-      <c r="E225" t="s">
-        <v>848</v>
-      </c>
-      <c r="F225" t="s">
-        <v>849</v>
-      </c>
-      <c r="G225" t="s">
-        <v>660</v>
-      </c>
-      <c r="H225" t="s">
-        <v>66</v>
-      </c>
-      <c r="I225" t="s">
-        <v>689</v>
       </c>
       <c r="K225" t="s">
         <v>693</v>
@@ -11444,13 +11453,13 @@
     </row>
     <row r="226" spans="1:14">
       <c r="D226" t="s">
-        <v>161</v>
+        <v>847</v>
       </c>
       <c r="E226" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F226" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G226" t="s">
         <v>660</v>
@@ -11459,7 +11468,7 @@
         <v>66</v>
       </c>
       <c r="I226" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="K226" t="s">
         <v>693</v>
@@ -11467,13 +11476,13 @@
     </row>
     <row r="227" spans="1:14">
       <c r="D227" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="E227" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F227" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G227" t="s">
         <v>660</v>
@@ -11482,7 +11491,7 @@
         <v>66</v>
       </c>
       <c r="I227" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K227" t="s">
         <v>693</v>
@@ -11490,19 +11499,19 @@
     </row>
     <row r="228" spans="1:14">
       <c r="D228" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="E228" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F228" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G228" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H228" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I228" t="s">
         <v>681</v>
@@ -11516,16 +11525,16 @@
         <v>324</v>
       </c>
       <c r="E229" t="s">
-        <v>341</v>
+        <v>854</v>
       </c>
       <c r="F229" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G229" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H229" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I229" t="s">
         <v>681</v>
@@ -11536,13 +11545,13 @@
     </row>
     <row r="230" spans="1:14">
       <c r="D230" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="E230" t="s">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="F230" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G230" t="s">
         <v>660</v>
@@ -11559,22 +11568,22 @@
     </row>
     <row r="231" spans="1:14">
       <c r="D231" t="s">
-        <v>46</v>
+        <v>409</v>
       </c>
       <c r="E231" t="s">
-        <v>858</v>
+        <v>417</v>
       </c>
       <c r="F231" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G231" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H231" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I231" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K231" t="s">
         <v>693</v>
@@ -11585,10 +11594,10 @@
         <v>46</v>
       </c>
       <c r="E232" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F232" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G232" t="s">
         <v>658</v>
@@ -11597,7 +11606,7 @@
         <v>663</v>
       </c>
       <c r="I232" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K232" t="s">
         <v>693</v>
@@ -11608,19 +11617,19 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>430</v>
+        <v>860</v>
       </c>
       <c r="F233" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G233" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H233" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I233" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K233" t="s">
         <v>693</v>
@@ -11628,45 +11637,36 @@
     </row>
     <row r="234" spans="1:14">
       <c r="D234" t="s">
-        <v>828</v>
+        <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>967</v>
+        <v>430</v>
       </c>
       <c r="F234" t="s">
-        <v>966</v>
+        <v>862</v>
       </c>
       <c r="G234" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H234" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I234" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
       <c r="K234" t="s">
         <v>693</v>
-      </c>
-      <c r="L234" t="s">
-        <v>828</v>
-      </c>
-      <c r="M234" t="s">
-        <v>863</v>
-      </c>
-      <c r="N234" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="235" spans="1:14">
       <c r="D235" t="s">
-        <v>712</v>
+        <v>828</v>
       </c>
       <c r="E235" t="s">
-        <v>865</v>
+        <v>967</v>
       </c>
       <c r="F235" t="s">
-        <v>866</v>
+        <v>966</v>
       </c>
       <c r="G235" t="s">
         <v>658</v>
@@ -11675,10 +11675,19 @@
         <v>663</v>
       </c>
       <c r="I235" t="s">
-        <v>689</v>
+        <v>761</v>
       </c>
       <c r="K235" t="s">
         <v>693</v>
+      </c>
+      <c r="L235" t="s">
+        <v>828</v>
+      </c>
+      <c r="M235" t="s">
+        <v>863</v>
+      </c>
+      <c r="N235" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11686,10 +11695,10 @@
         <v>712</v>
       </c>
       <c r="E236" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F236" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G236" t="s">
         <v>658</v>
@@ -11705,23 +11714,23 @@
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" t="s">
-        <v>231</v>
-      </c>
-      <c r="B237" t="s">
-        <v>869</v>
-      </c>
-      <c r="C237" t="s">
-        <v>870</v>
+      <c r="D237" t="s">
+        <v>712</v>
+      </c>
+      <c r="E237" t="s">
+        <v>867</v>
+      </c>
+      <c r="F237" t="s">
+        <v>868</v>
       </c>
       <c r="G237" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="H237" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I237" t="s">
-        <v>884</v>
+        <v>689</v>
       </c>
       <c r="K237" t="s">
         <v>693</v>
@@ -11729,45 +11738,45 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" t="s">
+        <v>231</v>
+      </c>
+      <c r="B238" t="s">
+        <v>869</v>
+      </c>
+      <c r="C238" t="s">
+        <v>870</v>
+      </c>
+      <c r="G238" t="s">
+        <v>743</v>
+      </c>
+      <c r="H238" t="s">
+        <v>662</v>
+      </c>
+      <c r="I238" t="s">
+        <v>884</v>
+      </c>
+      <c r="K238" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" t="s">
         <v>763</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>871</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>872</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G239" t="s">
         <v>658</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H239" t="s">
         <v>663</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I239" t="s">
         <v>691</v>
-      </c>
-      <c r="K238" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14">
-      <c r="D239" t="s">
-        <v>508</v>
-      </c>
-      <c r="E239" t="s">
-        <v>516</v>
-      </c>
-      <c r="F239" t="s">
-        <v>873</v>
-      </c>
-      <c r="G239" t="s">
-        <v>660</v>
-      </c>
-      <c r="H239" t="s">
-        <v>66</v>
-      </c>
-      <c r="I239" t="s">
-        <v>692</v>
       </c>
       <c r="K239" t="s">
         <v>693</v>
@@ -11775,19 +11784,19 @@
     </row>
     <row r="240" spans="1:14">
       <c r="D240" t="s">
-        <v>718</v>
+        <v>508</v>
       </c>
       <c r="E240" t="s">
-        <v>874</v>
+        <v>516</v>
       </c>
       <c r="F240" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G240" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H240" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I240" t="s">
         <v>692</v>
@@ -11801,16 +11810,16 @@
         <v>718</v>
       </c>
       <c r="E241" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F241" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G241" t="s">
-        <v>818</v>
+        <v>658</v>
       </c>
       <c r="H241" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I241" t="s">
         <v>692</v>
@@ -11824,16 +11833,16 @@
         <v>718</v>
       </c>
       <c r="E242" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F242" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G242" t="s">
-        <v>658</v>
+        <v>818</v>
       </c>
       <c r="H242" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I242" t="s">
         <v>692</v>
@@ -11844,13 +11853,13 @@
     </row>
     <row r="243" spans="1:17">
       <c r="D243" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
       <c r="E243" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F243" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G243" t="s">
         <v>658</v>
@@ -11859,7 +11868,7 @@
         <v>663</v>
       </c>
       <c r="I243" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="K243" t="s">
         <v>693</v>
@@ -11867,289 +11876,289 @@
     </row>
     <row r="244" spans="1:17">
       <c r="D244" t="s">
-        <v>895</v>
+        <v>777</v>
       </c>
       <c r="E244" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="F244" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="G244" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H244" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I244" t="s">
-        <v>697</v>
+        <v>683</v>
+      </c>
+      <c r="K244" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="245" spans="1:17">
       <c r="D245" t="s">
-        <v>839</v>
+        <v>895</v>
       </c>
       <c r="E245" t="s">
-        <v>840</v>
+        <v>896</v>
       </c>
       <c r="F245" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G245" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H245" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I245" t="s">
-        <v>702</v>
-      </c>
-      <c r="J245" t="s">
-        <v>900</v>
+        <v>697</v>
       </c>
     </row>
     <row r="246" spans="1:17">
       <c r="D246" t="s">
-        <v>902</v>
+        <v>839</v>
       </c>
       <c r="E246" t="s">
-        <v>903</v>
+        <v>840</v>
       </c>
       <c r="F246" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G246" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H246" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I246" t="s">
-        <v>885</v>
+        <v>702</v>
+      </c>
+      <c r="J246" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
-        <v>674</v>
+        <v>902</v>
       </c>
       <c r="E247" t="s">
-        <v>934</v>
+        <v>903</v>
       </c>
       <c r="F247" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="G247" t="s">
-        <v>931</v>
+        <v>660</v>
       </c>
       <c r="H247" t="s">
-        <v>937</v>
+        <v>66</v>
       </c>
       <c r="I247" t="s">
-        <v>936</v>
+        <v>885</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="D248" t="s">
+        <v>674</v>
+      </c>
+      <c r="E248" t="s">
+        <v>934</v>
+      </c>
+      <c r="F248" t="s">
+        <v>935</v>
+      </c>
+      <c r="G248" t="s">
+        <v>931</v>
+      </c>
+      <c r="H248" t="s">
+        <v>937</v>
+      </c>
+      <c r="I248" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="D249" t="s">
         <v>938</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E249" t="s">
         <v>939</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F249" t="s">
         <v>940</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G249" t="s">
         <v>980</v>
-      </c>
-      <c r="H248" t="s">
-        <v>66</v>
-      </c>
-      <c r="I248" t="s">
-        <v>982</v>
-      </c>
-      <c r="J248" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17" ht="16.5">
-      <c r="D249" t="s">
-        <v>943</v>
-      </c>
-      <c r="E249" t="s">
-        <v>944</v>
-      </c>
-      <c r="F249" t="s">
-        <v>945</v>
-      </c>
-      <c r="G249" t="s">
-        <v>951</v>
       </c>
       <c r="H249" t="s">
         <v>66</v>
       </c>
-      <c r="I249" s="8" t="s">
+      <c r="I249" t="s">
+        <v>982</v>
+      </c>
+      <c r="J249" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" ht="16.5">
+      <c r="D250" t="s">
+        <v>943</v>
+      </c>
+      <c r="E250" t="s">
+        <v>944</v>
+      </c>
+      <c r="F250" t="s">
+        <v>945</v>
+      </c>
+      <c r="G250" t="s">
+        <v>951</v>
+      </c>
+      <c r="H250" t="s">
+        <v>66</v>
+      </c>
+      <c r="I250" s="8" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
-      <c r="A250" t="s">
+    <row r="251" spans="1:17">
+      <c r="A251" t="s">
         <v>311</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>312</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C251" t="s">
         <v>313</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
         <v>828</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E251" t="s">
         <v>314</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F251" t="s">
         <v>952</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G251" t="s">
         <v>658</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H251" t="s">
         <v>663</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I251" t="s">
         <v>683</v>
       </c>
-      <c r="L250" t="s">
+      <c r="L251" t="s">
         <v>828</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M251" t="s">
         <v>314</v>
       </c>
-      <c r="N250" t="s">
+      <c r="N251" t="s">
         <v>920</v>
       </c>
-      <c r="O250" t="s">
+      <c r="O251" t="s">
         <v>311</v>
       </c>
-      <c r="P250" t="s">
+      <c r="P251" t="s">
         <v>314</v>
       </c>
-      <c r="Q250" t="s">
+      <c r="Q251" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
-      <c r="D251" t="s">
+    <row r="252" spans="1:17">
+      <c r="D252" t="s">
         <v>288</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E252" t="s">
         <v>954</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F252" t="s">
         <v>955</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G252" t="s">
         <v>951</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H252" t="s">
         <v>66</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I252" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="16.5">
-      <c r="D252" t="s">
+    <row r="253" spans="1:17" ht="16.5">
+      <c r="D253" t="s">
         <v>391</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E253" t="s">
         <v>956</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F253" t="s">
         <v>957</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G253" t="s">
         <v>658</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H253" t="s">
         <v>663</v>
       </c>
-      <c r="I252" s="8" t="s">
+      <c r="I253" s="8" t="s">
         <v>681</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17">
-      <c r="D253" t="s">
-        <v>526</v>
-      </c>
-      <c r="E253" t="s">
-        <v>958</v>
-      </c>
-      <c r="F253" t="s">
-        <v>959</v>
-      </c>
-      <c r="G253" t="s">
-        <v>927</v>
-      </c>
-      <c r="H253" t="s">
-        <v>928</v>
-      </c>
-      <c r="I253" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="254" spans="1:17">
       <c r="D254" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="E254" t="s">
-        <v>480</v>
+        <v>958</v>
       </c>
       <c r="F254" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G254" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="H254" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I254" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="255" spans="1:17">
       <c r="D255" t="s">
-        <v>366</v>
+        <v>479</v>
       </c>
       <c r="E255" t="s">
-        <v>964</v>
+        <v>480</v>
       </c>
       <c r="F255" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G255" t="s">
-        <v>660</v>
+        <v>951</v>
       </c>
       <c r="H255" t="s">
         <v>66</v>
       </c>
       <c r="I255" t="s">
-        <v>687</v>
-      </c>
-      <c r="J255" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="256" spans="1:17">
       <c r="D256" t="s">
-        <v>46</v>
+        <v>366</v>
       </c>
       <c r="E256" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F256" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G256" t="s">
         <v>660</v>
@@ -12158,47 +12167,50 @@
         <v>66</v>
       </c>
       <c r="I256" t="s">
-        <v>689</v>
+        <v>687</v>
+      </c>
+      <c r="J256" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="257" spans="4:10">
       <c r="D257" t="s">
-        <v>526</v>
+        <v>46</v>
       </c>
       <c r="E257" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F257" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G257" t="s">
-        <v>972</v>
+        <v>660</v>
       </c>
       <c r="H257" t="s">
         <v>66</v>
       </c>
       <c r="I257" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="258" spans="4:10">
       <c r="D258" t="s">
-        <v>938</v>
+        <v>526</v>
       </c>
       <c r="E258" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F258" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G258" t="s">
-        <v>660</v>
+        <v>972</v>
       </c>
       <c r="H258" t="s">
         <v>66</v>
       </c>
       <c r="I258" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="259" spans="4:10">
@@ -12206,45 +12218,65 @@
         <v>938</v>
       </c>
       <c r="E259" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F259" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="G259" t="s">
-        <v>980</v>
+        <v>660</v>
       </c>
       <c r="H259" t="s">
         <v>66</v>
       </c>
       <c r="I259" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="260" spans="4:10">
+      <c r="D260" t="s">
+        <v>938</v>
+      </c>
+      <c r="E260" t="s">
+        <v>978</v>
+      </c>
+      <c r="F260" t="s">
+        <v>979</v>
+      </c>
+      <c r="G260" t="s">
+        <v>980</v>
+      </c>
+      <c r="H260" t="s">
+        <v>66</v>
+      </c>
+      <c r="I260" t="s">
         <v>682</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J260" t="s">
         <v>981</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W258" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W259" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="50" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="26"/>
     <cfRule type="duplicateValues" dxfId="48" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="33"/>
     <cfRule type="duplicateValues" dxfId="46" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576 F1:F244 F246:F255 F258 F260:F1048576">
+  <conditionalFormatting sqref="F247:F256 F1:F245 F259 F261:F1048576 C1:C1048576">
     <cfRule type="duplicateValues" dxfId="42" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
@@ -12255,75 +12287,75 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="39" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="52"/>
     <cfRule type="duplicateValues" dxfId="37" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F244 F246:F255 F258 F260:F1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+  <conditionalFormatting sqref="F247:F256 F1:F245 F259 F261:F1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F256 F258 F260:F1048576">
+  <conditionalFormatting sqref="F259 F1:F257 F261:F1048576">
     <cfRule type="duplicateValues" dxfId="21" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F258 F260:F1048576">
+  <conditionalFormatting sqref="F261:F1048576 F1:F259">
     <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F245">
+  <conditionalFormatting sqref="F246">
     <cfRule type="duplicateValues" dxfId="18" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F256">
+  <conditionalFormatting sqref="F257">
     <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F257">
+  <conditionalFormatting sqref="F258">
     <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
+  <conditionalFormatting sqref="F260">
     <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="14" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J246 J248:J254 J256:J1048576">
+  <conditionalFormatting sqref="J249:J255 J1:J247 J257:J1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="duplicateValues" dxfId="10" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44">
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+  <conditionalFormatting sqref="N45">
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
     <cfRule type="duplicateValues" dxfId="7" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N234">
+  <conditionalFormatting sqref="N235">
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>
     <cfRule type="duplicateValues" dxfId="5" priority="12"/>
     <cfRule type="duplicateValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q81">
+  <conditionalFormatting sqref="Q82">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24261CDF-C5A7-4F5C-B9F6-7D5AA9BB6898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827B871C-540D-4803-B282-B593488E898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1002">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2393,9 +2393,6 @@
     <t>SC9641TS-P-TR-Q</t>
   </si>
   <si>
-    <t>SC9641TS-P-Q-AI-10LR-9641P</t>
-  </si>
-  <si>
     <t>SC9641TS-P-Q-AI-10AR-9641P</t>
   </si>
   <si>
@@ -3029,6 +3026,50 @@
   <si>
     <t>SOT23</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-Q-AI-10LR-9641P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245A1</t>
+  </si>
+  <si>
+    <t>SC1245A1-41F</t>
+  </si>
+  <si>
+    <t>华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2943SO(2943N1-1)-2943</t>
+  </si>
+  <si>
+    <t>SC3100VB-BK-Q</t>
+  </si>
+  <si>
+    <t>SC3100VB-DG-00CK-3100</t>
+  </si>
+  <si>
+    <t>STC3011E</t>
+  </si>
+  <si>
+    <t>SC4012SO-N-TR</t>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
+  </si>
+  <si>
+    <t>SC4616UA-CD-90AK-4616</t>
+  </si>
+  <si>
+    <t>SC4616UA-BK</t>
+  </si>
+  <si>
+    <t>STC4011B-DS</t>
+  </si>
+  <si>
+    <t>SC1138SO-N-Q-CC-00AR-1138</t>
   </si>
 </sst>
 </file>
@@ -3186,7 +3227,327 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4023,11 +4384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W261"/>
+  <dimension ref="A1:W269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4453,7 +4814,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -4479,7 +4840,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -4792,13 +5153,13 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>1001</v>
       </c>
       <c r="G19" t="s">
+        <v>904</v>
+      </c>
+      <c r="H19" t="s">
         <v>905</v>
-      </c>
-      <c r="H19" t="s">
-        <v>906</v>
       </c>
       <c r="I19" t="s">
         <v>680</v>
@@ -4808,6 +5169,15 @@
       </c>
       <c r="K19" t="s">
         <v>658</v>
+      </c>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4827,7 +5197,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G20" t="s">
         <v>659</v>
@@ -4862,7 +5232,7 @@
         <v>727</v>
       </c>
       <c r="G21" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -4961,7 +5331,7 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -5328,10 +5698,10 @@
         <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -5398,7 +5768,7 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -5437,7 +5807,7 @@
         <v>169</v>
       </c>
       <c r="T37" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5460,7 +5830,7 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -5495,7 +5865,7 @@
         <v>663</v>
       </c>
       <c r="G39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -5516,7 +5886,7 @@
         <v>182</v>
       </c>
       <c r="N39" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5539,7 +5909,7 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -5574,7 +5944,7 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -5609,7 +5979,7 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -5659,10 +6029,10 @@
         <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G43" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -5694,7 +6064,7 @@
         <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D44" t="s">
         <v>161</v>
@@ -5726,7 +6096,7 @@
         <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -5744,10 +6114,10 @@
         <v>197</v>
       </c>
       <c r="M45" t="s">
+        <v>939</v>
+      </c>
+      <c r="N45" t="s">
         <v>940</v>
-      </c>
-      <c r="N45" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -5761,7 +6131,7 @@
         <v>202</v>
       </c>
       <c r="G46" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -5793,7 +6163,7 @@
         <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G47" t="s">
         <v>65</v>
@@ -5848,7 +6218,7 @@
         <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G49" t="s">
         <v>659</v>
@@ -5912,10 +6282,10 @@
         <v>206</v>
       </c>
       <c r="E51" t="s">
+        <v>911</v>
+      </c>
+      <c r="F51" t="s">
         <v>912</v>
-      </c>
-      <c r="F51" t="s">
-        <v>913</v>
       </c>
       <c r="G51" t="s">
         <v>660</v>
@@ -6055,7 +6425,7 @@
         <v>227</v>
       </c>
       <c r="F55" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G55" t="s">
         <v>659</v>
@@ -6177,7 +6547,7 @@
         <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G59" t="s">
         <v>660</v>
@@ -6449,7 +6819,7 @@
         <v>680</v>
       </c>
       <c r="J69" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K69" t="s">
         <v>660</v>
@@ -6463,7 +6833,7 @@
         <v>250</v>
       </c>
       <c r="F70" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G70" t="s">
         <v>660</v>
@@ -6475,7 +6845,7 @@
         <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K70" t="s">
         <v>692</v>
@@ -6489,7 +6859,7 @@
         <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D71" t="s">
         <v>261</v>
@@ -6763,7 +7133,7 @@
         <v>286</v>
       </c>
       <c r="F79" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G79" t="s">
         <v>659</v>
@@ -6841,13 +7211,13 @@
     </row>
     <row r="82" spans="1:17">
       <c r="D82" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E82" t="s">
+        <v>973</v>
+      </c>
+      <c r="F82" t="s">
         <v>974</v>
-      </c>
-      <c r="F82" t="s">
-        <v>975</v>
       </c>
       <c r="G82" t="s">
         <v>660</v>
@@ -6929,7 +7299,7 @@
         <v>297</v>
       </c>
       <c r="F84" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G84" t="s">
         <v>659</v>
@@ -7046,7 +7416,7 @@
         <v>662</v>
       </c>
       <c r="I87" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K87" t="s">
         <v>692</v>
@@ -7317,7 +7687,7 @@
         <v>344</v>
       </c>
       <c r="F95" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G95" t="s">
         <v>657</v>
@@ -7419,7 +7789,7 @@
         <v>356</v>
       </c>
       <c r="F98" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G98" t="s">
         <v>657</v>
@@ -7768,10 +8138,10 @@
         <v>390</v>
       </c>
       <c r="E109" t="s">
+        <v>889</v>
+      </c>
+      <c r="F109" t="s">
         <v>890</v>
-      </c>
-      <c r="F109" t="s">
-        <v>891</v>
       </c>
       <c r="G109" t="s">
         <v>657</v>
@@ -7783,7 +8153,7 @@
         <v>680</v>
       </c>
       <c r="J109" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K109" t="s">
         <v>692</v>
@@ -8165,7 +8535,7 @@
         <v>442</v>
       </c>
       <c r="G120" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H120" t="s">
         <v>66</v>
@@ -8221,13 +8591,13 @@
         <v>658</v>
       </c>
       <c r="H121" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I121" t="s">
         <v>696</v>
       </c>
       <c r="J121" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K121" t="s">
         <v>692</v>
@@ -8250,7 +8620,7 @@
         <v>448</v>
       </c>
       <c r="F122" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G122" t="s">
         <v>658</v>
@@ -8262,7 +8632,7 @@
         <v>696</v>
       </c>
       <c r="J122" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K122" t="s">
         <v>692</v>
@@ -8341,7 +8711,7 @@
         <v>682</v>
       </c>
       <c r="J124" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K124" t="s">
         <v>692</v>
@@ -8352,10 +8722,10 @@
         <v>456</v>
       </c>
       <c r="E125" t="s">
+        <v>880</v>
+      </c>
+      <c r="F125" t="s">
         <v>881</v>
-      </c>
-      <c r="F125" t="s">
-        <v>882</v>
       </c>
       <c r="G125" t="s">
         <v>657</v>
@@ -8367,7 +8737,7 @@
         <v>682</v>
       </c>
       <c r="J125" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K125" t="s">
         <v>692</v>
@@ -8378,10 +8748,10 @@
         <v>456</v>
       </c>
       <c r="E126" t="s">
+        <v>945</v>
+      </c>
+      <c r="F126" t="s">
         <v>946</v>
-      </c>
-      <c r="F126" t="s">
-        <v>947</v>
       </c>
       <c r="G126" t="s">
         <v>657</v>
@@ -8393,7 +8763,7 @@
         <v>682</v>
       </c>
       <c r="J126" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8416,7 +8786,7 @@
         <v>465</v>
       </c>
       <c r="G127" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H127" t="s">
         <v>66</v>
@@ -8469,7 +8839,7 @@
         <v>696</v>
       </c>
       <c r="J128" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K128" t="s">
         <v>692</v>
@@ -8481,7 +8851,7 @@
         <v>747</v>
       </c>
       <c r="N128" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8545,10 +8915,10 @@
         <v>486</v>
       </c>
       <c r="G130" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H130" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I130" t="s">
         <v>682</v>
@@ -8557,7 +8927,7 @@
         <v>504</v>
       </c>
       <c r="K130" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8580,10 +8950,10 @@
         <v>490</v>
       </c>
       <c r="G131" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H131" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I131" t="s">
         <v>682</v>
@@ -8592,7 +8962,7 @@
         <v>504</v>
       </c>
       <c r="K131" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8615,10 +8985,10 @@
         <v>494</v>
       </c>
       <c r="G132" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H132" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I132" t="s">
         <v>682</v>
@@ -8627,7 +8997,7 @@
         <v>504</v>
       </c>
       <c r="K132" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -8635,25 +9005,25 @@
         <v>482</v>
       </c>
       <c r="B133" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C133" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D133" t="s">
         <v>482</v>
       </c>
       <c r="E133" t="s">
+        <v>783</v>
+      </c>
+      <c r="F133" t="s">
         <v>784</v>
       </c>
-      <c r="F133" t="s">
-        <v>785</v>
-      </c>
       <c r="G133" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H133" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I133" t="s">
         <v>682</v>
@@ -8662,7 +9032,7 @@
         <v>504</v>
       </c>
       <c r="K133" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8717,10 +9087,10 @@
         <v>500</v>
       </c>
       <c r="G135" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H135" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I135" t="s">
         <v>682</v>
@@ -8729,7 +9099,7 @@
         <v>504</v>
       </c>
       <c r="K135" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8784,10 +9154,10 @@
         <v>511</v>
       </c>
       <c r="G137" t="s">
+        <v>925</v>
+      </c>
+      <c r="H137" t="s">
         <v>926</v>
-      </c>
-      <c r="H137" t="s">
-        <v>927</v>
       </c>
       <c r="I137" t="s">
         <v>697</v>
@@ -8874,10 +9244,10 @@
         <v>668</v>
       </c>
       <c r="G140" t="s">
+        <v>925</v>
+      </c>
+      <c r="H140" t="s">
         <v>926</v>
-      </c>
-      <c r="H140" t="s">
-        <v>927</v>
       </c>
       <c r="I140" t="s">
         <v>697</v>
@@ -8909,10 +9279,10 @@
         <v>523</v>
       </c>
       <c r="G141" t="s">
+        <v>925</v>
+      </c>
+      <c r="H141" t="s">
         <v>926</v>
-      </c>
-      <c r="H141" t="s">
-        <v>927</v>
       </c>
       <c r="I141" t="s">
         <v>697</v>
@@ -8927,10 +9297,10 @@
         <v>519</v>
       </c>
       <c r="M141" t="s">
+        <v>960</v>
+      </c>
+      <c r="N141" t="s">
         <v>961</v>
-      </c>
-      <c r="N141" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -9084,10 +9454,10 @@
         <v>768</v>
       </c>
       <c r="G146" t="s">
+        <v>925</v>
+      </c>
+      <c r="H146" t="s">
         <v>926</v>
-      </c>
-      <c r="H146" t="s">
-        <v>927</v>
       </c>
       <c r="I146" t="s">
         <v>699</v>
@@ -9119,10 +9489,10 @@
         <v>546</v>
       </c>
       <c r="G147" t="s">
+        <v>925</v>
+      </c>
+      <c r="H147" t="s">
         <v>926</v>
-      </c>
-      <c r="H147" t="s">
-        <v>927</v>
       </c>
       <c r="I147" t="s">
         <v>699</v>
@@ -9154,10 +9524,10 @@
         <v>551</v>
       </c>
       <c r="G148" t="s">
+        <v>925</v>
+      </c>
+      <c r="H148" t="s">
         <v>926</v>
-      </c>
-      <c r="H148" t="s">
-        <v>927</v>
       </c>
       <c r="I148" t="s">
         <v>700</v>
@@ -9189,10 +9559,10 @@
         <v>555</v>
       </c>
       <c r="G149" t="s">
+        <v>925</v>
+      </c>
+      <c r="H149" t="s">
         <v>926</v>
-      </c>
-      <c r="H149" t="s">
-        <v>927</v>
       </c>
       <c r="I149" t="s">
         <v>700</v>
@@ -9215,10 +9585,10 @@
         <v>558</v>
       </c>
       <c r="G150" t="s">
+        <v>925</v>
+      </c>
+      <c r="H150" t="s">
         <v>926</v>
-      </c>
-      <c r="H150" t="s">
-        <v>927</v>
       </c>
       <c r="I150" t="s">
         <v>700</v>
@@ -9241,10 +9611,10 @@
         <v>560</v>
       </c>
       <c r="G151" t="s">
+        <v>925</v>
+      </c>
+      <c r="H151" t="s">
         <v>926</v>
-      </c>
-      <c r="H151" t="s">
-        <v>927</v>
       </c>
       <c r="I151" t="s">
         <v>700</v>
@@ -9276,10 +9646,10 @@
         <v>565</v>
       </c>
       <c r="G152" t="s">
+        <v>925</v>
+      </c>
+      <c r="H152" t="s">
         <v>926</v>
-      </c>
-      <c r="H152" t="s">
-        <v>927</v>
       </c>
       <c r="I152" t="s">
         <v>700</v>
@@ -9515,10 +9885,10 @@
         <v>606</v>
       </c>
       <c r="G159" t="s">
+        <v>925</v>
+      </c>
+      <c r="H159" t="s">
         <v>926</v>
-      </c>
-      <c r="H159" t="s">
-        <v>927</v>
       </c>
       <c r="I159" t="s">
         <v>682</v>
@@ -9924,7 +10294,7 @@
         <v>479</v>
       </c>
       <c r="Q170" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -9938,10 +10308,10 @@
         <v>643</v>
       </c>
       <c r="G171" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H171" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I171" t="s">
         <v>696</v>
@@ -10037,10 +10407,10 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
+        <v>925</v>
+      </c>
+      <c r="H174" t="s">
         <v>926</v>
-      </c>
-      <c r="H174" t="s">
-        <v>927</v>
       </c>
       <c r="I174" t="s">
         <v>682</v>
@@ -10063,10 +10433,10 @@
         <v>656</v>
       </c>
       <c r="G175" t="s">
+        <v>925</v>
+      </c>
+      <c r="H175" t="s">
         <v>926</v>
-      </c>
-      <c r="H175" t="s">
-        <v>927</v>
       </c>
       <c r="I175" t="s">
         <v>682</v>
@@ -10089,10 +10459,10 @@
         <v>672</v>
       </c>
       <c r="G176" t="s">
+        <v>929</v>
+      </c>
+      <c r="H176" t="s">
         <v>930</v>
-      </c>
-      <c r="H176" t="s">
-        <v>931</v>
       </c>
       <c r="I176" t="s">
         <v>692</v>
@@ -10112,10 +10482,10 @@
         <v>675</v>
       </c>
       <c r="G177" t="s">
+        <v>929</v>
+      </c>
+      <c r="H177" t="s">
         <v>930</v>
-      </c>
-      <c r="H177" t="s">
-        <v>931</v>
       </c>
       <c r="I177" t="s">
         <v>692</v>
@@ -10135,10 +10505,10 @@
         <v>678</v>
       </c>
       <c r="G178" t="s">
+        <v>929</v>
+      </c>
+      <c r="H178" t="s">
         <v>930</v>
-      </c>
-      <c r="H178" t="s">
-        <v>931</v>
       </c>
       <c r="K178" t="s">
         <v>692</v>
@@ -10225,7 +10595,7 @@
         <v>736</v>
       </c>
       <c r="F181" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G181" t="s">
         <v>660</v>
@@ -10246,7 +10616,7 @@
         <v>736</v>
       </c>
       <c r="N181" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -10391,7 +10761,7 @@
         <v>764</v>
       </c>
       <c r="G186" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H186" t="s">
         <v>66</v>
@@ -10417,7 +10787,7 @@
         <v>766</v>
       </c>
       <c r="G187" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H187" t="s">
         <v>66</v>
@@ -10433,122 +10803,92 @@
       </c>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" t="s">
-        <v>769</v>
-      </c>
-      <c r="B188" t="s">
-        <v>770</v>
-      </c>
-      <c r="C188" t="s">
-        <v>771</v>
-      </c>
       <c r="D188" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E188" t="s">
-        <v>772</v>
+        <v>999</v>
       </c>
       <c r="F188" t="s">
-        <v>773</v>
+        <v>998</v>
       </c>
       <c r="G188" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="H188" t="s">
-        <v>927</v>
+        <v>66</v>
       </c>
       <c r="I188" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J188" t="s">
-        <v>774</v>
-      </c>
-      <c r="K188" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" t="s">
+        <v>762</v>
+      </c>
+      <c r="B189" t="s">
+        <v>869</v>
+      </c>
+      <c r="C189" t="s">
+        <v>870</v>
+      </c>
+      <c r="G189" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="189" spans="1:14">
-      <c r="D189" t="s">
-        <v>478</v>
-      </c>
-      <c r="E189" t="s">
-        <v>779</v>
-      </c>
-      <c r="F189" t="s">
-        <v>780</v>
-      </c>
-      <c r="G189" t="s">
-        <v>658</v>
-      </c>
       <c r="H189" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I189" t="s">
-        <v>696</v>
-      </c>
-      <c r="K189" t="s">
-        <v>692</v>
-      </c>
-      <c r="L189" t="s">
-        <v>478</v>
-      </c>
-      <c r="M189" t="s">
-        <v>779</v>
-      </c>
-      <c r="N189" t="s">
-        <v>781</v>
+        <v>690</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="B190" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="C190" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="D190" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="E190" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F190" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G190" t="s">
-        <v>791</v>
+        <v>925</v>
       </c>
       <c r="H190" t="s">
-        <v>661</v>
+        <v>926</v>
       </c>
       <c r="I190" t="s">
-        <v>691</v>
+        <v>682</v>
+      </c>
+      <c r="J190" t="s">
+        <v>774</v>
       </c>
       <c r="K190" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" t="s">
-        <v>792</v>
-      </c>
-      <c r="B191" t="s">
-        <v>793</v>
-      </c>
-      <c r="C191" t="s">
-        <v>794</v>
-      </c>
       <c r="D191" t="s">
-        <v>792</v>
+        <v>478</v>
       </c>
       <c r="E191" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="F191" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="G191" t="s">
         <v>659</v>
@@ -10557,79 +10897,100 @@
         <v>66</v>
       </c>
       <c r="I191" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="K191" t="s">
         <v>692</v>
+      </c>
+      <c r="L191" t="s">
+        <v>478</v>
+      </c>
+      <c r="M191" t="s">
+        <v>779</v>
+      </c>
+      <c r="N191" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>570</v>
+        <v>785</v>
       </c>
       <c r="B192" t="s">
-        <v>571</v>
+        <v>786</v>
       </c>
       <c r="C192" t="s">
-        <v>572</v>
+        <v>787</v>
+      </c>
+      <c r="D192" t="s">
+        <v>785</v>
+      </c>
+      <c r="E192" t="s">
+        <v>788</v>
+      </c>
+      <c r="F192" t="s">
+        <v>789</v>
       </c>
       <c r="G192" t="s">
-        <v>926</v>
+        <v>790</v>
       </c>
       <c r="H192" t="s">
-        <v>927</v>
+        <v>661</v>
       </c>
       <c r="I192" t="s">
-        <v>701</v>
-      </c>
-      <c r="J192" t="s">
-        <v>587</v>
+        <v>691</v>
       </c>
       <c r="K192" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
+        <v>791</v>
+      </c>
+      <c r="B193" t="s">
+        <v>792</v>
+      </c>
+      <c r="C193" t="s">
+        <v>793</v>
+      </c>
+      <c r="D193" t="s">
+        <v>791</v>
+      </c>
+      <c r="E193" t="s">
+        <v>794</v>
+      </c>
+      <c r="F193" t="s">
+        <v>795</v>
+      </c>
+      <c r="G193" t="s">
+        <v>659</v>
+      </c>
+      <c r="H193" t="s">
+        <v>66</v>
+      </c>
+      <c r="I193" t="s">
+        <v>691</v>
+      </c>
+      <c r="K193" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="D194" t="s">
         <v>570</v>
       </c>
-      <c r="B193" t="s">
-        <v>579</v>
-      </c>
-      <c r="C193" t="s">
-        <v>579</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="E194" t="s">
+        <v>571</v>
+      </c>
+      <c r="F194" t="s">
+        <v>572</v>
+      </c>
+      <c r="G194" t="s">
+        <v>925</v>
+      </c>
+      <c r="H194" t="s">
         <v>926</v>
-      </c>
-      <c r="H193" t="s">
-        <v>927</v>
-      </c>
-      <c r="I193" t="s">
-        <v>701</v>
-      </c>
-      <c r="J193" t="s">
-        <v>587</v>
-      </c>
-      <c r="K193" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194" t="s">
-        <v>570</v>
-      </c>
-      <c r="B194" t="s">
-        <v>798</v>
-      </c>
-      <c r="C194" t="s">
-        <v>798</v>
-      </c>
-      <c r="G194" t="s">
-        <v>926</v>
-      </c>
-      <c r="H194" t="s">
-        <v>927</v>
       </c>
       <c r="I194" t="s">
         <v>701</v>
@@ -10642,20 +11003,20 @@
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" t="s">
+      <c r="D195" t="s">
         <v>570</v>
       </c>
-      <c r="B195" t="s">
-        <v>799</v>
-      </c>
-      <c r="C195" t="s">
-        <v>799</v>
+      <c r="E195" t="s">
+        <v>579</v>
+      </c>
+      <c r="F195" t="s">
+        <v>579</v>
       </c>
       <c r="G195" t="s">
+        <v>925</v>
+      </c>
+      <c r="H195" t="s">
         <v>926</v>
-      </c>
-      <c r="H195" t="s">
-        <v>927</v>
       </c>
       <c r="I195" t="s">
         <v>701</v>
@@ -10668,20 +11029,20 @@
       </c>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" t="s">
+      <c r="D196" t="s">
         <v>570</v>
       </c>
-      <c r="B196" t="s">
-        <v>800</v>
-      </c>
-      <c r="C196" t="s">
-        <v>800</v>
+      <c r="E196" t="s">
+        <v>797</v>
+      </c>
+      <c r="F196" t="s">
+        <v>797</v>
       </c>
       <c r="G196" t="s">
+        <v>925</v>
+      </c>
+      <c r="H196" t="s">
         <v>926</v>
-      </c>
-      <c r="H196" t="s">
-        <v>927</v>
       </c>
       <c r="I196" t="s">
         <v>701</v>
@@ -10694,20 +11055,20 @@
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" t="s">
+      <c r="D197" t="s">
         <v>570</v>
       </c>
-      <c r="B197" t="s">
-        <v>801</v>
-      </c>
-      <c r="C197" t="s">
-        <v>801</v>
+      <c r="E197" t="s">
+        <v>798</v>
+      </c>
+      <c r="F197" t="s">
+        <v>798</v>
       </c>
       <c r="G197" t="s">
+        <v>925</v>
+      </c>
+      <c r="H197" t="s">
         <v>926</v>
-      </c>
-      <c r="H197" t="s">
-        <v>927</v>
       </c>
       <c r="I197" t="s">
         <v>701</v>
@@ -10720,20 +11081,20 @@
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" t="s">
+      <c r="D198" t="s">
         <v>570</v>
       </c>
-      <c r="B198" t="s">
-        <v>802</v>
-      </c>
-      <c r="C198" t="s">
-        <v>802</v>
+      <c r="E198" t="s">
+        <v>799</v>
+      </c>
+      <c r="F198" t="s">
+        <v>799</v>
       </c>
       <c r="G198" t="s">
+        <v>925</v>
+      </c>
+      <c r="H198" t="s">
         <v>926</v>
-      </c>
-      <c r="H198" t="s">
-        <v>927</v>
       </c>
       <c r="I198" t="s">
         <v>701</v>
@@ -10746,20 +11107,20 @@
       </c>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" t="s">
+      <c r="D199" t="s">
         <v>570</v>
       </c>
-      <c r="B199" t="s">
-        <v>573</v>
-      </c>
-      <c r="C199" t="s">
-        <v>574</v>
+      <c r="E199" t="s">
+        <v>800</v>
+      </c>
+      <c r="F199" t="s">
+        <v>800</v>
       </c>
       <c r="G199" t="s">
+        <v>925</v>
+      </c>
+      <c r="H199" t="s">
         <v>926</v>
-      </c>
-      <c r="H199" t="s">
-        <v>927</v>
       </c>
       <c r="I199" t="s">
         <v>701</v>
@@ -10772,20 +11133,20 @@
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" t="s">
+      <c r="D200" t="s">
         <v>570</v>
       </c>
-      <c r="B200" t="s">
-        <v>803</v>
-      </c>
-      <c r="C200" t="s">
-        <v>803</v>
+      <c r="E200" t="s">
+        <v>801</v>
+      </c>
+      <c r="F200" t="s">
+        <v>801</v>
       </c>
       <c r="G200" t="s">
+        <v>925</v>
+      </c>
+      <c r="H200" t="s">
         <v>926</v>
-      </c>
-      <c r="H200" t="s">
-        <v>927</v>
       </c>
       <c r="I200" t="s">
         <v>701</v>
@@ -10798,20 +11159,20 @@
       </c>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" t="s">
+      <c r="D201" t="s">
         <v>570</v>
       </c>
-      <c r="B201" t="s">
-        <v>580</v>
-      </c>
-      <c r="C201" t="s">
-        <v>580</v>
+      <c r="E201" t="s">
+        <v>573</v>
+      </c>
+      <c r="F201" t="s">
+        <v>574</v>
       </c>
       <c r="G201" t="s">
+        <v>925</v>
+      </c>
+      <c r="H201" t="s">
         <v>926</v>
-      </c>
-      <c r="H201" t="s">
-        <v>927</v>
       </c>
       <c r="I201" t="s">
         <v>701</v>
@@ -10824,20 +11185,20 @@
       </c>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" t="s">
+      <c r="D202" t="s">
         <v>570</v>
       </c>
-      <c r="B202" t="s">
-        <v>581</v>
-      </c>
-      <c r="C202" t="s">
-        <v>581</v>
+      <c r="E202" t="s">
+        <v>802</v>
+      </c>
+      <c r="F202" t="s">
+        <v>802</v>
       </c>
       <c r="G202" t="s">
+        <v>925</v>
+      </c>
+      <c r="H202" t="s">
         <v>926</v>
-      </c>
-      <c r="H202" t="s">
-        <v>927</v>
       </c>
       <c r="I202" t="s">
         <v>701</v>
@@ -10850,20 +11211,20 @@
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" t="s">
+      <c r="D203" t="s">
         <v>570</v>
       </c>
-      <c r="B203" t="s">
-        <v>582</v>
-      </c>
-      <c r="C203" t="s">
-        <v>582</v>
+      <c r="E203" t="s">
+        <v>580</v>
+      </c>
+      <c r="F203" t="s">
+        <v>580</v>
       </c>
       <c r="G203" t="s">
+        <v>925</v>
+      </c>
+      <c r="H203" t="s">
         <v>926</v>
-      </c>
-      <c r="H203" t="s">
-        <v>927</v>
       </c>
       <c r="I203" t="s">
         <v>701</v>
@@ -10876,20 +11237,20 @@
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" t="s">
+      <c r="D204" t="s">
         <v>570</v>
       </c>
-      <c r="B204" t="s">
-        <v>804</v>
-      </c>
-      <c r="C204" t="s">
-        <v>804</v>
+      <c r="E204" t="s">
+        <v>581</v>
+      </c>
+      <c r="F204" t="s">
+        <v>581</v>
       </c>
       <c r="G204" t="s">
+        <v>925</v>
+      </c>
+      <c r="H204" t="s">
         <v>926</v>
-      </c>
-      <c r="H204" t="s">
-        <v>927</v>
       </c>
       <c r="I204" t="s">
         <v>701</v>
@@ -10902,20 +11263,20 @@
       </c>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" t="s">
+      <c r="D205" t="s">
         <v>570</v>
       </c>
-      <c r="B205" t="s">
-        <v>805</v>
-      </c>
-      <c r="C205" t="s">
-        <v>805</v>
+      <c r="E205" t="s">
+        <v>582</v>
+      </c>
+      <c r="F205" t="s">
+        <v>582</v>
       </c>
       <c r="G205" t="s">
+        <v>925</v>
+      </c>
+      <c r="H205" t="s">
         <v>926</v>
-      </c>
-      <c r="H205" t="s">
-        <v>927</v>
       </c>
       <c r="I205" t="s">
         <v>701</v>
@@ -10928,20 +11289,20 @@
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" t="s">
+      <c r="D206" t="s">
         <v>570</v>
       </c>
-      <c r="B206" t="s">
-        <v>806</v>
-      </c>
-      <c r="C206" t="s">
-        <v>806</v>
+      <c r="E206" t="s">
+        <v>803</v>
+      </c>
+      <c r="F206" t="s">
+        <v>803</v>
       </c>
       <c r="G206" t="s">
+        <v>925</v>
+      </c>
+      <c r="H206" t="s">
         <v>926</v>
-      </c>
-      <c r="H206" t="s">
-        <v>927</v>
       </c>
       <c r="I206" t="s">
         <v>701</v>
@@ -10954,20 +11315,20 @@
       </c>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" t="s">
+      <c r="D207" t="s">
         <v>570</v>
       </c>
-      <c r="B207" t="s">
-        <v>797</v>
-      </c>
-      <c r="C207" t="s">
-        <v>797</v>
+      <c r="E207" t="s">
+        <v>804</v>
+      </c>
+      <c r="F207" t="s">
+        <v>804</v>
       </c>
       <c r="G207" t="s">
+        <v>925</v>
+      </c>
+      <c r="H207" t="s">
         <v>926</v>
-      </c>
-      <c r="H207" t="s">
-        <v>927</v>
       </c>
       <c r="I207" t="s">
         <v>701</v>
@@ -10980,20 +11341,20 @@
       </c>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" t="s">
+      <c r="D208" t="s">
         <v>570</v>
       </c>
-      <c r="B208" t="s">
-        <v>583</v>
-      </c>
-      <c r="C208" t="s">
-        <v>583</v>
+      <c r="E208" t="s">
+        <v>805</v>
+      </c>
+      <c r="F208" t="s">
+        <v>805</v>
       </c>
       <c r="G208" t="s">
+        <v>925</v>
+      </c>
+      <c r="H208" t="s">
         <v>926</v>
-      </c>
-      <c r="H208" t="s">
-        <v>927</v>
       </c>
       <c r="I208" t="s">
         <v>701</v>
@@ -11006,20 +11367,20 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" t="s">
+      <c r="D209" t="s">
         <v>570</v>
       </c>
-      <c r="B209" t="s">
-        <v>584</v>
-      </c>
-      <c r="C209" t="s">
-        <v>584</v>
+      <c r="E209" t="s">
+        <v>796</v>
+      </c>
+      <c r="F209" t="s">
+        <v>796</v>
       </c>
       <c r="G209" t="s">
+        <v>925</v>
+      </c>
+      <c r="H209" t="s">
         <v>926</v>
-      </c>
-      <c r="H209" t="s">
-        <v>927</v>
       </c>
       <c r="I209" t="s">
         <v>701</v>
@@ -11032,29 +11393,20 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" t="s">
-        <v>570</v>
-      </c>
-      <c r="B210" t="s">
-        <v>836</v>
-      </c>
-      <c r="C210" t="s">
-        <v>837</v>
-      </c>
       <c r="D210" t="s">
         <v>570</v>
       </c>
       <c r="E210" t="s">
-        <v>885</v>
+        <v>583</v>
       </c>
       <c r="F210" t="s">
-        <v>886</v>
+        <v>583</v>
       </c>
       <c r="G210" t="s">
+        <v>925</v>
+      </c>
+      <c r="H210" t="s">
         <v>926</v>
-      </c>
-      <c r="H210" t="s">
-        <v>927</v>
       </c>
       <c r="I210" t="s">
         <v>701</v>
@@ -11067,35 +11419,29 @@
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" t="s">
-        <v>570</v>
-      </c>
-      <c r="B211" t="s">
-        <v>575</v>
-      </c>
-      <c r="C211" t="s">
-        <v>576</v>
-      </c>
       <c r="D211" t="s">
         <v>570</v>
       </c>
       <c r="E211" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F211" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="G211" t="s">
-        <v>659</v>
+        <v>925</v>
       </c>
       <c r="H211" t="s">
-        <v>66</v>
+        <v>926</v>
       </c>
       <c r="I211" t="s">
-        <v>691</v>
+        <v>701</v>
+      </c>
+      <c r="J211" t="s">
+        <v>587</v>
       </c>
       <c r="K211" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11103,42 +11449,54 @@
         <v>570</v>
       </c>
       <c r="B212" t="s">
-        <v>575</v>
+        <v>835</v>
       </c>
       <c r="C212" t="s">
-        <v>585</v>
+        <v>836</v>
       </c>
       <c r="D212" t="s">
         <v>570</v>
       </c>
       <c r="E212" t="s">
+        <v>884</v>
+      </c>
+      <c r="F212" t="s">
+        <v>885</v>
+      </c>
+      <c r="G212" t="s">
+        <v>925</v>
+      </c>
+      <c r="H212" t="s">
+        <v>926</v>
+      </c>
+      <c r="I212" t="s">
+        <v>701</v>
+      </c>
+      <c r="J212" t="s">
+        <v>587</v>
+      </c>
+      <c r="K212" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" t="s">
+        <v>570</v>
+      </c>
+      <c r="B213" t="s">
+        <v>575</v>
+      </c>
+      <c r="C213" t="s">
+        <v>576</v>
+      </c>
+      <c r="D213" t="s">
+        <v>570</v>
+      </c>
+      <c r="E213" t="s">
         <v>577</v>
       </c>
-      <c r="F212" t="s">
-        <v>586</v>
-      </c>
-      <c r="G212" t="s">
-        <v>659</v>
-      </c>
-      <c r="H212" t="s">
-        <v>66</v>
-      </c>
-      <c r="I212" t="s">
-        <v>691</v>
-      </c>
-      <c r="K212" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
-      <c r="D213" t="s">
-        <v>124</v>
-      </c>
-      <c r="E213" t="s">
-        <v>807</v>
-      </c>
       <c r="F213" t="s">
-        <v>808</v>
+        <v>578</v>
       </c>
       <c r="G213" t="s">
         <v>659</v>
@@ -11147,169 +11505,178 @@
         <v>66</v>
       </c>
       <c r="I213" t="s">
-        <v>683</v>
-      </c>
-      <c r="J213" t="s">
-        <v>142</v>
+        <v>691</v>
       </c>
       <c r="K213" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="B214" t="s">
-        <v>809</v>
+        <v>575</v>
       </c>
       <c r="C214" t="s">
-        <v>810</v>
+        <v>585</v>
+      </c>
+      <c r="D214" t="s">
+        <v>570</v>
+      </c>
+      <c r="E214" t="s">
+        <v>577</v>
+      </c>
+      <c r="F214" t="s">
+        <v>586</v>
       </c>
       <c r="G214" t="s">
-        <v>926</v>
+        <v>659</v>
       </c>
       <c r="H214" t="s">
-        <v>927</v>
+        <v>66</v>
       </c>
       <c r="I214" t="s">
         <v>691</v>
       </c>
-      <c r="J214" t="s">
-        <v>811</v>
-      </c>
       <c r="K214" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" t="s">
-        <v>812</v>
-      </c>
-      <c r="B215" t="s">
-        <v>813</v>
-      </c>
-      <c r="C215" t="s">
-        <v>814</v>
-      </c>
       <c r="D215" t="s">
-        <v>717</v>
+        <v>124</v>
       </c>
       <c r="E215" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F215" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="G215" t="s">
-        <v>817</v>
+        <v>659</v>
       </c>
       <c r="H215" t="s">
-        <v>661</v>
+        <v>66</v>
       </c>
       <c r="I215" t="s">
-        <v>816</v>
+        <v>683</v>
+      </c>
+      <c r="J215" t="s">
+        <v>142</v>
       </c>
       <c r="K215" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>737</v>
+        <v>588</v>
       </c>
       <c r="B216" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C216" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="G216" t="s">
-        <v>742</v>
+        <v>925</v>
       </c>
       <c r="H216" t="s">
-        <v>661</v>
+        <v>926</v>
       </c>
       <c r="I216" t="s">
-        <v>821</v>
+        <v>691</v>
+      </c>
+      <c r="J216" t="s">
+        <v>810</v>
       </c>
       <c r="K216" t="s">
         <v>692</v>
-      </c>
-      <c r="L216" t="s">
-        <v>819</v>
-      </c>
-      <c r="M216" t="s">
-        <v>740</v>
-      </c>
-      <c r="N216" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>627</v>
+        <v>811</v>
       </c>
       <c r="B217" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C217" t="s">
-        <v>823</v>
+        <v>813</v>
+      </c>
+      <c r="D217" t="s">
+        <v>717</v>
+      </c>
+      <c r="E217" t="s">
+        <v>812</v>
+      </c>
+      <c r="F217" t="s">
+        <v>814</v>
       </c>
       <c r="G217" t="s">
-        <v>742</v>
+        <v>816</v>
       </c>
       <c r="H217" t="s">
         <v>661</v>
       </c>
       <c r="I217" t="s">
-        <v>883</v>
+        <v>815</v>
       </c>
       <c r="K217" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="D218" t="s">
-        <v>824</v>
-      </c>
-      <c r="E218" t="s">
-        <v>825</v>
-      </c>
-      <c r="F218" t="s">
-        <v>826</v>
+      <c r="A218" t="s">
+        <v>737</v>
+      </c>
+      <c r="B218" t="s">
+        <v>818</v>
+      </c>
+      <c r="C218" t="s">
+        <v>819</v>
       </c>
       <c r="G218" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="H218" t="s">
-        <v>66</v>
+        <v>661</v>
       </c>
       <c r="I218" t="s">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="K218" t="s">
         <v>692</v>
       </c>
+      <c r="L218" t="s">
+        <v>818</v>
+      </c>
+      <c r="M218" t="s">
+        <v>740</v>
+      </c>
+      <c r="N218" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="D219" t="s">
-        <v>827</v>
-      </c>
-      <c r="E219" t="s">
-        <v>828</v>
-      </c>
-      <c r="F219" t="s">
-        <v>829</v>
+      <c r="A219" t="s">
+        <v>627</v>
+      </c>
+      <c r="B219" t="s">
+        <v>821</v>
+      </c>
+      <c r="C219" t="s">
+        <v>822</v>
       </c>
       <c r="G219" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="H219" t="s">
-        <v>66</v>
+        <v>661</v>
       </c>
       <c r="I219" t="s">
-        <v>682</v>
+        <v>882</v>
       </c>
       <c r="K219" t="s">
         <v>692</v>
@@ -11317,13 +11684,13 @@
     </row>
     <row r="220" spans="1:14">
       <c r="D220" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="E220" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F220" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G220" t="s">
         <v>659</v>
@@ -11332,27 +11699,27 @@
         <v>66</v>
       </c>
       <c r="I220" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K220" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" t="s">
-        <v>305</v>
-      </c>
-      <c r="B221" t="s">
-        <v>306</v>
-      </c>
-      <c r="C221" t="s">
-        <v>833</v>
+      <c r="D221" t="s">
+        <v>826</v>
+      </c>
+      <c r="E221" t="s">
+        <v>827</v>
+      </c>
+      <c r="F221" t="s">
+        <v>828</v>
       </c>
       <c r="G221" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H221" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I221" t="s">
         <v>682</v>
@@ -11363,117 +11730,117 @@
     </row>
     <row r="222" spans="1:14">
       <c r="D222" t="s">
+        <v>829</v>
+      </c>
+      <c r="E222" t="s">
+        <v>830</v>
+      </c>
+      <c r="F222" t="s">
+        <v>831</v>
+      </c>
+      <c r="G222" t="s">
+        <v>659</v>
+      </c>
+      <c r="H222" t="s">
+        <v>66</v>
+      </c>
+      <c r="I222" t="s">
+        <v>686</v>
+      </c>
+      <c r="K222" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" t="s">
+        <v>305</v>
+      </c>
+      <c r="B223" t="s">
+        <v>306</v>
+      </c>
+      <c r="C223" t="s">
+        <v>832</v>
+      </c>
+      <c r="G223" t="s">
+        <v>657</v>
+      </c>
+      <c r="H223" t="s">
+        <v>662</v>
+      </c>
+      <c r="I223" t="s">
+        <v>682</v>
+      </c>
+      <c r="K223" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="D224" t="s">
         <v>468</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E224" t="s">
         <v>471</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F224" t="s">
+        <v>833</v>
+      </c>
+      <c r="G224" t="s">
+        <v>904</v>
+      </c>
+      <c r="H224" t="s">
+        <v>905</v>
+      </c>
+      <c r="I224" t="s">
+        <v>696</v>
+      </c>
+      <c r="J224" t="s">
+        <v>896</v>
+      </c>
+      <c r="K224" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="D225" t="s">
+        <v>461</v>
+      </c>
+      <c r="E225" t="s">
+        <v>464</v>
+      </c>
+      <c r="F225" t="s">
         <v>834</v>
       </c>
-      <c r="G222" t="s">
-        <v>905</v>
-      </c>
-      <c r="H222" t="s">
-        <v>906</v>
-      </c>
-      <c r="I222" t="s">
+      <c r="G225" t="s">
+        <v>659</v>
+      </c>
+      <c r="H225" t="s">
+        <v>66</v>
+      </c>
+      <c r="I225" t="s">
         <v>696</v>
       </c>
-      <c r="J222" t="s">
-        <v>897</v>
-      </c>
-      <c r="K222" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
-      <c r="D223" t="s">
-        <v>461</v>
-      </c>
-      <c r="E223" t="s">
-        <v>464</v>
-      </c>
-      <c r="F223" t="s">
-        <v>835</v>
-      </c>
-      <c r="G223" t="s">
-        <v>659</v>
-      </c>
-      <c r="H223" t="s">
-        <v>66</v>
-      </c>
-      <c r="I223" t="s">
-        <v>696</v>
-      </c>
-      <c r="K223" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14">
-      <c r="A224" t="s">
+      <c r="K225" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" t="s">
+        <v>839</v>
+      </c>
+      <c r="B226" t="s">
         <v>840</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C226" t="s">
         <v>841</v>
       </c>
-      <c r="C224" t="s">
-        <v>842</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="D226" t="s">
+        <v>839</v>
+      </c>
+      <c r="E226" t="s">
         <v>840</v>
       </c>
-      <c r="E224" t="s">
-        <v>841</v>
-      </c>
-      <c r="F224" t="s">
-        <v>893</v>
-      </c>
-      <c r="G224" t="s">
-        <v>659</v>
-      </c>
-      <c r="H224" t="s">
-        <v>66</v>
-      </c>
-      <c r="I224" t="s">
-        <v>884</v>
-      </c>
-      <c r="K224" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14">
-      <c r="A225" t="s">
-        <v>843</v>
-      </c>
-      <c r="B225" t="s">
-        <v>844</v>
-      </c>
-      <c r="C225" t="s">
-        <v>845</v>
-      </c>
-      <c r="G225" t="s">
-        <v>657</v>
-      </c>
-      <c r="H225" t="s">
-        <v>662</v>
-      </c>
-      <c r="I225" t="s">
-        <v>700</v>
-      </c>
-      <c r="K225" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14">
-      <c r="D226" t="s">
-        <v>846</v>
-      </c>
-      <c r="E226" t="s">
-        <v>847</v>
-      </c>
       <c r="F226" t="s">
-        <v>848</v>
+        <v>892</v>
       </c>
       <c r="G226" t="s">
         <v>659</v>
@@ -11482,30 +11849,30 @@
         <v>66</v>
       </c>
       <c r="I226" t="s">
-        <v>688</v>
+        <v>883</v>
       </c>
       <c r="K226" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="D227" t="s">
-        <v>161</v>
-      </c>
-      <c r="E227" t="s">
-        <v>849</v>
-      </c>
-      <c r="F227" t="s">
-        <v>850</v>
+      <c r="A227" t="s">
+        <v>842</v>
+      </c>
+      <c r="B227" t="s">
+        <v>843</v>
+      </c>
+      <c r="C227" t="s">
+        <v>844</v>
       </c>
       <c r="G227" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H227" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I227" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="K227" t="s">
         <v>692</v>
@@ -11513,13 +11880,13 @@
     </row>
     <row r="228" spans="1:14">
       <c r="D228" t="s">
-        <v>277</v>
+        <v>845</v>
       </c>
       <c r="E228" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F228" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G228" t="s">
         <v>659</v>
@@ -11528,7 +11895,7 @@
         <v>66</v>
       </c>
       <c r="I228" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="K228" t="s">
         <v>692</v>
@@ -11536,22 +11903,22 @@
     </row>
     <row r="229" spans="1:14">
       <c r="D229" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="E229" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F229" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G229" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H229" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I229" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="K229" t="s">
         <v>692</v>
@@ -11559,13 +11926,13 @@
     </row>
     <row r="230" spans="1:14">
       <c r="D230" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="E230" t="s">
-        <v>340</v>
+        <v>850</v>
       </c>
       <c r="F230" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="G230" t="s">
         <v>659</v>
@@ -11582,19 +11949,19 @@
     </row>
     <row r="231" spans="1:14">
       <c r="D231" t="s">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="E231" t="s">
-        <v>416</v>
+        <v>852</v>
       </c>
       <c r="F231" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G231" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H231" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I231" t="s">
         <v>680</v>
@@ -11605,22 +11972,22 @@
     </row>
     <row r="232" spans="1:14">
       <c r="D232" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="E232" t="s">
-        <v>857</v>
+        <v>340</v>
       </c>
       <c r="F232" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G232" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H232" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I232" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="K232" t="s">
         <v>692</v>
@@ -11628,19 +11995,19 @@
     </row>
     <row r="233" spans="1:14">
       <c r="D233" t="s">
-        <v>46</v>
+        <v>408</v>
       </c>
       <c r="E233" t="s">
-        <v>859</v>
+        <v>416</v>
       </c>
       <c r="F233" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G233" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H233" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I233" t="s">
         <v>680</v>
@@ -11654,19 +12021,19 @@
         <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>856</v>
       </c>
       <c r="F234" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="G234" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H234" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I234" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="K234" t="s">
         <v>692</v>
@@ -11674,13 +12041,13 @@
     </row>
     <row r="235" spans="1:14">
       <c r="D235" t="s">
-        <v>827</v>
+        <v>46</v>
       </c>
       <c r="E235" t="s">
-        <v>966</v>
+        <v>858</v>
       </c>
       <c r="F235" t="s">
-        <v>965</v>
+        <v>859</v>
       </c>
       <c r="G235" t="s">
         <v>657</v>
@@ -11689,39 +12056,30 @@
         <v>662</v>
       </c>
       <c r="I235" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="K235" t="s">
         <v>692</v>
-      </c>
-      <c r="L235" t="s">
-        <v>827</v>
-      </c>
-      <c r="M235" t="s">
-        <v>862</v>
-      </c>
-      <c r="N235" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="D236" t="s">
-        <v>711</v>
+        <v>46</v>
       </c>
       <c r="E236" t="s">
-        <v>864</v>
+        <v>429</v>
       </c>
       <c r="F236" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G236" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H236" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I236" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K236" t="s">
         <v>692</v>
@@ -11729,13 +12087,13 @@
     </row>
     <row r="237" spans="1:14">
       <c r="D237" t="s">
-        <v>711</v>
+        <v>826</v>
       </c>
       <c r="E237" t="s">
-        <v>866</v>
+        <v>965</v>
       </c>
       <c r="F237" t="s">
-        <v>867</v>
+        <v>964</v>
       </c>
       <c r="G237" t="s">
         <v>657</v>
@@ -11744,44 +12102,53 @@
         <v>662</v>
       </c>
       <c r="I237" t="s">
+        <v>760</v>
+      </c>
+      <c r="K237" t="s">
+        <v>692</v>
+      </c>
+      <c r="L237" t="s">
+        <v>826</v>
+      </c>
+      <c r="M237" t="s">
+        <v>861</v>
+      </c>
+      <c r="N237" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="D238" t="s">
+        <v>711</v>
+      </c>
+      <c r="E238" t="s">
+        <v>863</v>
+      </c>
+      <c r="F238" t="s">
+        <v>864</v>
+      </c>
+      <c r="G238" t="s">
+        <v>657</v>
+      </c>
+      <c r="H238" t="s">
+        <v>662</v>
+      </c>
+      <c r="I238" t="s">
         <v>688</v>
       </c>
-      <c r="K237" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14">
-      <c r="A238" t="s">
-        <v>230</v>
-      </c>
-      <c r="B238" t="s">
-        <v>868</v>
-      </c>
-      <c r="C238" t="s">
-        <v>869</v>
-      </c>
-      <c r="G238" t="s">
-        <v>742</v>
-      </c>
-      <c r="H238" t="s">
-        <v>661</v>
-      </c>
-      <c r="I238" t="s">
-        <v>883</v>
-      </c>
       <c r="K238" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" t="s">
-        <v>762</v>
-      </c>
-      <c r="B239" t="s">
-        <v>870</v>
-      </c>
-      <c r="C239" t="s">
-        <v>871</v>
+      <c r="D239" t="s">
+        <v>711</v>
+      </c>
+      <c r="E239" t="s">
+        <v>865</v>
+      </c>
+      <c r="F239" t="s">
+        <v>866</v>
       </c>
       <c r="G239" t="s">
         <v>657</v>
@@ -11790,44 +12157,44 @@
         <v>662</v>
       </c>
       <c r="I239" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K239" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="D240" t="s">
-        <v>507</v>
-      </c>
-      <c r="E240" t="s">
-        <v>515</v>
-      </c>
-      <c r="F240" t="s">
-        <v>872</v>
+      <c r="A240" t="s">
+        <v>230</v>
+      </c>
+      <c r="B240" t="s">
+        <v>867</v>
+      </c>
+      <c r="C240" t="s">
+        <v>868</v>
       </c>
       <c r="G240" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="H240" t="s">
-        <v>66</v>
+        <v>661</v>
       </c>
       <c r="I240" t="s">
-        <v>691</v>
+        <v>882</v>
       </c>
       <c r="K240" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="241" spans="1:17">
-      <c r="D241" t="s">
-        <v>717</v>
-      </c>
-      <c r="E241" t="s">
-        <v>873</v>
-      </c>
-      <c r="F241" t="s">
-        <v>874</v>
+      <c r="A241" t="s">
+        <v>762</v>
+      </c>
+      <c r="B241" t="s">
+        <v>869</v>
+      </c>
+      <c r="C241" t="s">
+        <v>870</v>
       </c>
       <c r="G241" t="s">
         <v>657</v>
@@ -11836,7 +12203,7 @@
         <v>662</v>
       </c>
       <c r="I241" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K241" t="s">
         <v>692</v>
@@ -11844,19 +12211,19 @@
     </row>
     <row r="242" spans="1:17">
       <c r="D242" t="s">
-        <v>717</v>
+        <v>507</v>
       </c>
       <c r="E242" t="s">
-        <v>875</v>
+        <v>515</v>
       </c>
       <c r="F242" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G242" t="s">
-        <v>817</v>
+        <v>659</v>
       </c>
       <c r="H242" t="s">
-        <v>661</v>
+        <v>66</v>
       </c>
       <c r="I242" t="s">
         <v>691</v>
@@ -11870,10 +12237,10 @@
         <v>717</v>
       </c>
       <c r="E243" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F243" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G243" t="s">
         <v>657</v>
@@ -11890,22 +12257,22 @@
     </row>
     <row r="244" spans="1:17">
       <c r="D244" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
       <c r="E244" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F244" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G244" t="s">
-        <v>657</v>
+        <v>816</v>
       </c>
       <c r="H244" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I244" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="K244" t="s">
         <v>692</v>
@@ -11913,56 +12280,59 @@
     </row>
     <row r="245" spans="1:17">
       <c r="D245" t="s">
-        <v>894</v>
+        <v>717</v>
       </c>
       <c r="E245" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="F245" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="G245" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H245" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I245" t="s">
-        <v>696</v>
+        <v>691</v>
+      </c>
+      <c r="K245" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="246" spans="1:17">
       <c r="D246" t="s">
-        <v>838</v>
+        <v>776</v>
       </c>
       <c r="E246" t="s">
-        <v>839</v>
+        <v>878</v>
       </c>
       <c r="F246" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="G246" t="s">
-        <v>926</v>
+        <v>657</v>
       </c>
       <c r="H246" t="s">
-        <v>927</v>
+        <v>662</v>
       </c>
       <c r="I246" t="s">
-        <v>701</v>
-      </c>
-      <c r="J246" t="s">
-        <v>899</v>
+        <v>682</v>
+      </c>
+      <c r="K246" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="E247" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="F247" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G247" t="s">
         <v>659</v>
@@ -11971,148 +12341,133 @@
         <v>66</v>
       </c>
       <c r="I247" t="s">
-        <v>884</v>
+        <v>696</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="D248" t="s">
-        <v>673</v>
+        <v>837</v>
       </c>
       <c r="E248" t="s">
-        <v>933</v>
+        <v>838</v>
       </c>
       <c r="F248" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
       <c r="G248" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="H248" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="I248" t="s">
-        <v>935</v>
+        <v>701</v>
+      </c>
+      <c r="J248" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="D249" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="E249" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="F249" t="s">
-        <v>939</v>
+        <v>899</v>
       </c>
       <c r="G249" t="s">
-        <v>979</v>
+        <v>659</v>
       </c>
       <c r="H249" t="s">
         <v>66</v>
       </c>
       <c r="I249" t="s">
-        <v>981</v>
-      </c>
-      <c r="J249" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="D250" t="s">
+        <v>673</v>
+      </c>
+      <c r="E250" t="s">
+        <v>932</v>
+      </c>
+      <c r="F250" t="s">
+        <v>933</v>
+      </c>
+      <c r="G250" t="s">
+        <v>929</v>
+      </c>
+      <c r="H250" t="s">
+        <v>935</v>
+      </c>
+      <c r="I250" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="D251" t="s">
+        <v>936</v>
+      </c>
+      <c r="E251" t="s">
+        <v>937</v>
+      </c>
+      <c r="F251" t="s">
+        <v>938</v>
+      </c>
+      <c r="G251" t="s">
+        <v>978</v>
+      </c>
+      <c r="H251" t="s">
+        <v>66</v>
+      </c>
+      <c r="I251" t="s">
+        <v>980</v>
+      </c>
+      <c r="J251" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" ht="16.5">
+      <c r="D252" t="s">
+        <v>941</v>
+      </c>
+      <c r="E252" t="s">
+        <v>942</v>
+      </c>
+      <c r="F252" t="s">
+        <v>943</v>
+      </c>
+      <c r="G252" t="s">
         <v>949</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" ht="16.5">
-      <c r="D250" t="s">
-        <v>942</v>
-      </c>
-      <c r="E250" t="s">
-        <v>943</v>
-      </c>
-      <c r="F250" t="s">
-        <v>944</v>
-      </c>
-      <c r="G250" t="s">
-        <v>950</v>
-      </c>
-      <c r="H250" t="s">
-        <v>66</v>
-      </c>
-      <c r="I250" s="8" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
-      <c r="A251" t="s">
-        <v>310</v>
-      </c>
-      <c r="B251" t="s">
-        <v>311</v>
-      </c>
-      <c r="C251" t="s">
-        <v>312</v>
-      </c>
-      <c r="D251" t="s">
-        <v>827</v>
-      </c>
-      <c r="E251" t="s">
-        <v>313</v>
-      </c>
-      <c r="F251" t="s">
-        <v>951</v>
-      </c>
-      <c r="G251" t="s">
-        <v>657</v>
-      </c>
-      <c r="H251" t="s">
-        <v>662</v>
-      </c>
-      <c r="I251" t="s">
-        <v>682</v>
-      </c>
-      <c r="L251" t="s">
-        <v>827</v>
-      </c>
-      <c r="M251" t="s">
-        <v>313</v>
-      </c>
-      <c r="N251" t="s">
-        <v>919</v>
-      </c>
-      <c r="O251" t="s">
-        <v>310</v>
-      </c>
-      <c r="P251" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q251" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17">
-      <c r="D252" t="s">
-        <v>287</v>
-      </c>
-      <c r="E252" t="s">
-        <v>953</v>
-      </c>
-      <c r="F252" t="s">
-        <v>954</v>
-      </c>
-      <c r="G252" t="s">
-        <v>950</v>
       </c>
       <c r="H252" t="s">
         <v>66</v>
       </c>
-      <c r="I252" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17" ht="16.5">
+      <c r="I252" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="A253" t="s">
+        <v>310</v>
+      </c>
+      <c r="B253" t="s">
+        <v>311</v>
+      </c>
+      <c r="C253" t="s">
+        <v>312</v>
+      </c>
       <c r="D253" t="s">
-        <v>390</v>
+        <v>826</v>
       </c>
       <c r="E253" t="s">
-        <v>955</v>
+        <v>313</v>
       </c>
       <c r="F253" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="G253" t="s">
         <v>657</v>
@@ -12120,122 +12475,140 @@
       <c r="H253" t="s">
         <v>662</v>
       </c>
-      <c r="I253" s="8" t="s">
-        <v>680</v>
+      <c r="I253" t="s">
+        <v>682</v>
+      </c>
+      <c r="L253" t="s">
+        <v>826</v>
+      </c>
+      <c r="M253" t="s">
+        <v>313</v>
+      </c>
+      <c r="N253" t="s">
+        <v>918</v>
+      </c>
+      <c r="O253" t="s">
+        <v>310</v>
+      </c>
+      <c r="P253" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="254" spans="1:17">
       <c r="D254" t="s">
-        <v>525</v>
+        <v>287</v>
       </c>
       <c r="E254" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F254" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G254" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="H254" t="s">
-        <v>927</v>
+        <v>66</v>
       </c>
       <c r="I254" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" ht="16.5">
       <c r="D255" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>954</v>
       </c>
       <c r="F255" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G255" t="s">
-        <v>950</v>
+        <v>657</v>
       </c>
       <c r="H255" t="s">
-        <v>66</v>
-      </c>
-      <c r="I255" t="s">
-        <v>696</v>
+        <v>662</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="256" spans="1:17">
       <c r="D256" t="s">
-        <v>365</v>
+        <v>525</v>
       </c>
       <c r="E256" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F256" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="G256" t="s">
-        <v>659</v>
+        <v>925</v>
       </c>
       <c r="H256" t="s">
-        <v>66</v>
+        <v>926</v>
       </c>
       <c r="I256" t="s">
-        <v>686</v>
-      </c>
-      <c r="J256" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="257" spans="4:10">
       <c r="D257" t="s">
-        <v>46</v>
+        <v>478</v>
       </c>
       <c r="E257" t="s">
-        <v>967</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="G257" t="s">
-        <v>659</v>
+        <v>949</v>
       </c>
       <c r="H257" t="s">
         <v>66</v>
       </c>
       <c r="I257" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="258" spans="4:10">
       <c r="D258" t="s">
-        <v>525</v>
+        <v>365</v>
       </c>
       <c r="E258" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F258" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="G258" t="s">
-        <v>971</v>
+        <v>657</v>
       </c>
       <c r="H258" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I258" t="s">
-        <v>700</v>
+        <v>686</v>
+      </c>
+      <c r="J258" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="259" spans="4:10">
       <c r="D259" t="s">
-        <v>937</v>
+        <v>46</v>
       </c>
       <c r="E259" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F259" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="G259" t="s">
         <v>659</v>
@@ -12249,150 +12622,382 @@
     </row>
     <row r="260" spans="4:10">
       <c r="D260" t="s">
-        <v>937</v>
+        <v>525</v>
       </c>
       <c r="E260" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F260" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="G260" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="H260" t="s">
         <v>66</v>
       </c>
       <c r="I260" t="s">
-        <v>681</v>
-      </c>
-      <c r="J260" t="s">
-        <v>980</v>
+        <v>700</v>
       </c>
     </row>
     <row r="261" spans="4:10">
       <c r="D261" t="s">
-        <v>60</v>
+        <v>936</v>
       </c>
       <c r="E261" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="F261" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="G261" t="s">
-        <v>979</v>
+        <v>659</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
       </c>
       <c r="I261" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="262" spans="4:10">
+      <c r="D262" t="s">
+        <v>936</v>
+      </c>
+      <c r="E262" t="s">
+        <v>976</v>
+      </c>
+      <c r="F262" t="s">
+        <v>977</v>
+      </c>
+      <c r="G262" t="s">
+        <v>978</v>
+      </c>
+      <c r="H262" t="s">
+        <v>66</v>
+      </c>
+      <c r="I262" t="s">
+        <v>681</v>
+      </c>
+      <c r="J262" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="263" spans="4:10">
+      <c r="D263" t="s">
+        <v>60</v>
+      </c>
+      <c r="E263" t="s">
+        <v>983</v>
+      </c>
+      <c r="F263" t="s">
+        <v>984</v>
+      </c>
+      <c r="G263" t="s">
+        <v>978</v>
+      </c>
+      <c r="H263" t="s">
+        <v>66</v>
+      </c>
+      <c r="I263" t="s">
         <v>685</v>
       </c>
-      <c r="J261" t="s">
-        <v>986</v>
+      <c r="J263" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="264" spans="4:10">
+      <c r="D264" t="s">
+        <v>115</v>
+      </c>
+      <c r="E264" t="s">
+        <v>989</v>
+      </c>
+      <c r="F264" t="s">
+        <v>990</v>
+      </c>
+      <c r="G264" t="s">
+        <v>991</v>
+      </c>
+      <c r="H264" t="s">
+        <v>66</v>
+      </c>
+      <c r="I264" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="265" spans="4:10">
+      <c r="D265" t="s">
+        <v>46</v>
+      </c>
+      <c r="E265" t="s">
+        <v>751</v>
+      </c>
+      <c r="F265" t="s">
+        <v>992</v>
+      </c>
+      <c r="G265" t="s">
+        <v>657</v>
+      </c>
+      <c r="H265" t="s">
+        <v>662</v>
+      </c>
+      <c r="I265" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="266" spans="4:10">
+      <c r="D266" t="s">
+        <v>842</v>
+      </c>
+      <c r="E266" t="s">
+        <v>993</v>
+      </c>
+      <c r="F266" t="s">
+        <v>994</v>
+      </c>
+      <c r="G266" t="s">
+        <v>657</v>
+      </c>
+      <c r="H266" t="s">
+        <v>662</v>
+      </c>
+      <c r="I266" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="267" spans="4:10">
+      <c r="D267" t="s">
+        <v>995</v>
+      </c>
+      <c r="E267" t="s">
+        <v>996</v>
+      </c>
+      <c r="F267" t="s">
+        <v>997</v>
+      </c>
+      <c r="G267" t="s">
+        <v>949</v>
+      </c>
+      <c r="H267" t="s">
+        <v>66</v>
+      </c>
+      <c r="I267" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="268" spans="4:10">
+      <c r="D268" t="s">
+        <v>570</v>
+      </c>
+      <c r="E268" t="s">
+        <v>800</v>
+      </c>
+      <c r="F268" t="s">
+        <v>800</v>
+      </c>
+      <c r="G268" t="s">
+        <v>925</v>
+      </c>
+      <c r="H268" t="s">
+        <v>926</v>
+      </c>
+      <c r="I268" t="s">
+        <v>701</v>
+      </c>
+      <c r="J268" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="269" spans="4:10">
+      <c r="D269" t="s">
+        <v>230</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G269" t="s">
+        <v>660</v>
+      </c>
+      <c r="H269" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W259" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W261" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="55" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="50" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="20"/>
+  <conditionalFormatting sqref="C188:C189">
+    <cfRule type="duplicateValues" dxfId="74" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190 C1:C187 C269:C1048576 C192:C193 C212:C267 F194:F211">
+    <cfRule type="duplicateValues" dxfId="73" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="40" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  <conditionalFormatting sqref="F1:F18 F212:F267 F269:F1048576 F20:F193">
+    <cfRule type="duplicateValues" dxfId="49" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+  <conditionalFormatting sqref="F248">
+    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F247:F256 F1:F245 F259 F261:F1048576 C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+  <conditionalFormatting sqref="F249:F258 F261 F263 C1:C187 F266 F269:F1048576 C269:C1048576 C190:C193 C212:C267 F1:F18 F20:F247">
+    <cfRule type="duplicateValues" dxfId="47" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F247:F256 F1:F245 F259 F261:F1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+  <conditionalFormatting sqref="F249:F258 F261 F263 F266 F269:F1048576 F1:F18 F212:F247 F20:F193">
+    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F259 F1:F257 F261:F1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F261:F1048576 F1:F259">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  <conditionalFormatting sqref="F261 F263 F266 F269:F1048576 F1:F18 F212:F259 F20:F193">
+    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F266 F269:F1048576 F1:F18 F212:F261 F20:F193">
+    <cfRule type="duplicateValues" dxfId="40" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F266 F269:F1048576 F1:F18 F212:F263 F20:F193">
+    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F267">
+    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F268">
+    <cfRule type="duplicateValues" dxfId="36" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F264:G264">
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J249:J255 J1:J247 J257:J1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
+  <conditionalFormatting sqref="J251:J257 J1:J249 J259:J1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="10" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+  <conditionalFormatting sqref="N191:N192">
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N237">
+    <cfRule type="duplicateValues" dxfId="20" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04FF926-3E8F-4BA2-99F0-2777030704A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CB8F5-5141-4C0D-8B81-9676AEE28FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1013">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3261,67 +3261,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="89">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4488,11 +4428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:Y270"/>
+  <dimension ref="A1:W270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4503,26 +4443,24 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="23.25" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -4541,65 +4479,59 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="N1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4619,31 +4551,25 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>682</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>659</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>682</v>
-      </c>
       <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4663,31 +4589,25 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
+        <v>659</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>682</v>
+      </c>
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>659</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>682</v>
-      </c>
       <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4707,22 +4627,16 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>659</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>659</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:23">
       <c r="D5" t="s">
         <v>35</v>
       </c>
@@ -4733,34 +4647,28 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H5" t="s">
+        <v>661</v>
+      </c>
+      <c r="I5" t="s">
+        <v>680</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>660</v>
-      </c>
-      <c r="J5" t="s">
-        <v>661</v>
-      </c>
-      <c r="K5" t="s">
-        <v>680</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
       <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:23">
       <c r="D6" t="s">
         <v>39</v>
       </c>
@@ -4771,25 +4679,19 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>660</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>661</v>
       </c>
       <c r="I6" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J6" t="s">
-        <v>661</v>
-      </c>
-      <c r="K6" t="s">
-        <v>680</v>
-      </c>
-      <c r="L6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4809,31 +4711,25 @@
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>657</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>662</v>
       </c>
       <c r="I7" t="s">
-        <v>657</v>
-      </c>
-      <c r="J7" t="s">
-        <v>662</v>
-      </c>
-      <c r="K7" t="s">
         <v>680</v>
       </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
       <c r="N7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4853,40 +4749,34 @@
         <v>88</v>
       </c>
       <c r="G8" t="s">
+        <v>657</v>
+      </c>
+      <c r="H8" t="s">
+        <v>662</v>
+      </c>
+      <c r="I8" t="s">
+        <v>683</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
+      <c r="P8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
-        <v>657</v>
-      </c>
-      <c r="J8" t="s">
-        <v>662</v>
-      </c>
-      <c r="K8" t="s">
-        <v>683</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -4906,31 +4796,25 @@
         <v>58</v>
       </c>
       <c r="G9" t="s">
+        <v>658</v>
+      </c>
+      <c r="H9" t="s">
+        <v>661</v>
+      </c>
+      <c r="I9" t="s">
+        <v>680</v>
+      </c>
+      <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
-        <v>658</v>
-      </c>
-      <c r="J9" t="s">
-        <v>661</v>
-      </c>
-      <c r="K9" t="s">
-        <v>680</v>
-      </c>
       <c r="N9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -4950,25 +4834,19 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>902</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>902</v>
+        <v>684</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>684</v>
-      </c>
-      <c r="L10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:23">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -4979,25 +4857,19 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>902</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>902</v>
+        <v>685</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>685</v>
-      </c>
-      <c r="L11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -5017,31 +4889,25 @@
         <v>75</v>
       </c>
       <c r="G12" t="s">
+        <v>657</v>
+      </c>
+      <c r="H12" t="s">
+        <v>662</v>
+      </c>
+      <c r="I12" t="s">
+        <v>680</v>
+      </c>
+      <c r="L12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="I12" t="s">
-        <v>657</v>
-      </c>
-      <c r="J12" t="s">
-        <v>662</v>
-      </c>
-      <c r="K12" t="s">
-        <v>680</v>
-      </c>
       <c r="N12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -5061,22 +4927,16 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>657</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>662</v>
       </c>
       <c r="I13" t="s">
-        <v>657</v>
-      </c>
-      <c r="J13" t="s">
-        <v>662</v>
-      </c>
-      <c r="K13" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -5096,25 +4956,19 @@
         <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>659</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" t="s">
-        <v>686</v>
-      </c>
-      <c r="L14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -5134,49 +4988,43 @@
         <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>657</v>
       </c>
       <c r="H15" t="s">
+        <v>662</v>
+      </c>
+      <c r="I15" t="s">
+        <v>680</v>
+      </c>
+      <c r="L15" t="s">
+        <v>423</v>
+      </c>
+      <c r="M15" t="s">
         <v>86</v>
       </c>
-      <c r="I15" t="s">
-        <v>657</v>
-      </c>
-      <c r="J15" t="s">
-        <v>662</v>
-      </c>
-      <c r="K15" t="s">
-        <v>680</v>
-      </c>
       <c r="N15" t="s">
+        <v>426</v>
+      </c>
+      <c r="O15" t="s">
         <v>423</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>86</v>
       </c>
-      <c r="P15" t="s">
-        <v>426</v>
-      </c>
       <c r="Q15" t="s">
+        <v>425</v>
+      </c>
+      <c r="R15" t="s">
         <v>423</v>
       </c>
-      <c r="R15" t="s">
-        <v>86</v>
-      </c>
       <c r="S15" t="s">
-        <v>425</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s">
-        <v>423</v>
-      </c>
-      <c r="U15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5196,49 +5044,43 @@
         <v>93</v>
       </c>
       <c r="G16" t="s">
+        <v>657</v>
+      </c>
+      <c r="H16" t="s">
+        <v>662</v>
+      </c>
+      <c r="I16" t="s">
+        <v>687</v>
+      </c>
+      <c r="L16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
+      <c r="M16" t="s">
         <v>92</v>
       </c>
-      <c r="I16" t="s">
-        <v>657</v>
-      </c>
-      <c r="J16" t="s">
-        <v>662</v>
-      </c>
-      <c r="K16" t="s">
-        <v>687</v>
-      </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>92</v>
       </c>
-      <c r="P16" t="s">
-        <v>94</v>
-      </c>
       <c r="Q16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" t="s">
         <v>43</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>92</v>
       </c>
-      <c r="S16" t="s">
-        <v>95</v>
-      </c>
       <c r="T16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U16" t="s">
-        <v>92</v>
-      </c>
-      <c r="V16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -5258,22 +5100,16 @@
         <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>657</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>662</v>
       </c>
       <c r="I17" t="s">
-        <v>657</v>
-      </c>
-      <c r="J17" t="s">
-        <v>662</v>
-      </c>
-      <c r="K17" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -5293,22 +5129,16 @@
         <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>658</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>661</v>
       </c>
       <c r="I18" t="s">
-        <v>658</v>
-      </c>
-      <c r="J18" t="s">
-        <v>661</v>
-      </c>
-      <c r="K18" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -5328,34 +5158,28 @@
         <v>1000</v>
       </c>
       <c r="G19" t="s">
+        <v>903</v>
+      </c>
+      <c r="H19" t="s">
+        <v>904</v>
+      </c>
+      <c r="I19" t="s">
+        <v>680</v>
+      </c>
+      <c r="J19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" t="s">
         <v>104</v>
       </c>
-      <c r="H19" t="s">
+      <c r="M19" t="s">
         <v>109</v>
       </c>
-      <c r="I19" t="s">
-        <v>903</v>
-      </c>
-      <c r="J19" t="s">
-        <v>904</v>
-      </c>
-      <c r="K19" t="s">
-        <v>680</v>
-      </c>
-      <c r="L19" t="s">
-        <v>108</v>
-      </c>
       <c r="N19" t="s">
-        <v>104</v>
-      </c>
-      <c r="O19" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -5375,22 +5199,16 @@
         <v>905</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>659</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>659</v>
-      </c>
-      <c r="J20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -5410,25 +5228,19 @@
         <v>727</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>902</v>
       </c>
       <c r="H21" t="s">
-        <v>726</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>902</v>
+        <v>686</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s">
-        <v>686</v>
-      </c>
-      <c r="L21" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5448,22 +5260,16 @@
         <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>657</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>662</v>
       </c>
       <c r="I22" t="s">
-        <v>657</v>
-      </c>
-      <c r="J22" t="s">
-        <v>662</v>
-      </c>
-      <c r="K22" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -5483,22 +5289,16 @@
         <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>660</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>661</v>
       </c>
       <c r="I23" t="s">
-        <v>660</v>
-      </c>
-      <c r="J23" t="s">
-        <v>661</v>
-      </c>
-      <c r="K23" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -5518,25 +5318,19 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>902</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>902</v>
+        <v>689</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" t="s">
-        <v>689</v>
-      </c>
-      <c r="L24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -5556,31 +5350,25 @@
         <v>133</v>
       </c>
       <c r="G25" t="s">
+        <v>657</v>
+      </c>
+      <c r="H25" t="s">
+        <v>662</v>
+      </c>
+      <c r="I25" t="s">
+        <v>690</v>
+      </c>
+      <c r="L25" t="s">
         <v>124</v>
       </c>
-      <c r="H25" t="s">
+      <c r="M25" t="s">
         <v>132</v>
       </c>
-      <c r="I25" t="s">
-        <v>657</v>
-      </c>
-      <c r="J25" t="s">
-        <v>662</v>
-      </c>
-      <c r="K25" t="s">
-        <v>690</v>
-      </c>
       <c r="N25" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" t="s">
-        <v>132</v>
-      </c>
-      <c r="P25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -5600,34 +5388,28 @@
         <v>137</v>
       </c>
       <c r="G26" t="s">
+        <v>658</v>
+      </c>
+      <c r="H26" t="s">
+        <v>661</v>
+      </c>
+      <c r="I26" t="s">
+        <v>680</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" t="s">
         <v>124</v>
       </c>
-      <c r="H26" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" t="s">
-        <v>658</v>
-      </c>
-      <c r="J26" t="s">
-        <v>661</v>
-      </c>
-      <c r="K26" t="s">
-        <v>680</v>
-      </c>
-      <c r="L26" t="s">
-        <v>138</v>
+      <c r="M26" t="s">
+        <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>124</v>
-      </c>
-      <c r="O26" t="s">
-        <v>55</v>
-      </c>
-      <c r="P26" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -5647,22 +5429,16 @@
         <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>659</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>659</v>
-      </c>
-      <c r="J27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -5682,25 +5458,19 @@
         <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>659</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" t="s">
-        <v>686</v>
-      </c>
-      <c r="L28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -5720,25 +5490,19 @@
         <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>659</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" t="s">
-        <v>686</v>
-      </c>
-      <c r="L29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5758,25 +5522,19 @@
         <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>659</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="I30" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" t="s">
-        <v>686</v>
-      </c>
-      <c r="L30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:14">
       <c r="D31" t="s">
         <v>124</v>
       </c>
@@ -5787,25 +5545,19 @@
         <v>669</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>659</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" t="s">
-        <v>686</v>
-      </c>
-      <c r="L31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -5825,22 +5577,16 @@
         <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>659</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>659</v>
-      </c>
-      <c r="J32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5860,22 +5606,16 @@
         <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>659</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>659</v>
-      </c>
-      <c r="J33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5895,22 +5635,16 @@
         <v>160</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>659</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>659</v>
-      </c>
-      <c r="J34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -5930,34 +5664,28 @@
         <v>906</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>902</v>
       </c>
       <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
+        <v>685</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35" t="s">
         <v>166</v>
       </c>
-      <c r="I35" t="s">
-        <v>902</v>
-      </c>
-      <c r="J35" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" t="s">
-        <v>685</v>
-      </c>
-      <c r="L35" t="s">
-        <v>171</v>
-      </c>
       <c r="N35" t="s">
-        <v>165</v>
-      </c>
-      <c r="O35" t="s">
-        <v>166</v>
-      </c>
-      <c r="P35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -5977,22 +5705,16 @@
         <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K36" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:20">
       <c r="D37" t="s">
         <v>161</v>
       </c>
@@ -6003,52 +5725,46 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
+        <v>902</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" t="s">
+        <v>685</v>
+      </c>
+      <c r="J37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" t="s">
         <v>161</v>
       </c>
-      <c r="H37" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" t="s">
-        <v>902</v>
-      </c>
-      <c r="J37" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" t="s">
-        <v>685</v>
-      </c>
-      <c r="L37" t="s">
-        <v>168</v>
-      </c>
-      <c r="N37" t="s">
-        <v>165</v>
-      </c>
-      <c r="O37" t="s">
-        <v>166</v>
-      </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>665</v>
       </c>
       <c r="Q37" t="s">
+        <v>666</v>
+      </c>
+      <c r="R37" t="s">
         <v>161</v>
       </c>
-      <c r="R37" t="s">
-        <v>665</v>
-      </c>
       <c r="S37" t="s">
-        <v>666</v>
+        <v>169</v>
       </c>
       <c r="T37" t="s">
-        <v>161</v>
-      </c>
-      <c r="U37" t="s">
-        <v>169</v>
-      </c>
-      <c r="V37" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -6068,25 +5784,19 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>902</v>
       </c>
       <c r="H38" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>902</v>
+        <v>681</v>
       </c>
       <c r="J38" t="s">
-        <v>66</v>
-      </c>
-      <c r="K38" t="s">
-        <v>681</v>
-      </c>
-      <c r="L38" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -6106,34 +5816,28 @@
         <v>663</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>902</v>
       </c>
       <c r="H39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s">
+        <v>689</v>
+      </c>
+      <c r="J39" t="s">
+        <v>183</v>
+      </c>
+      <c r="L39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M39" t="s">
         <v>182</v>
       </c>
-      <c r="I39" t="s">
-        <v>902</v>
-      </c>
-      <c r="J39" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" t="s">
-        <v>689</v>
-      </c>
-      <c r="L39" t="s">
-        <v>183</v>
-      </c>
       <c r="N39" t="s">
-        <v>165</v>
-      </c>
-      <c r="O39" t="s">
-        <v>182</v>
-      </c>
-      <c r="P39" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -6153,25 +5857,19 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>902</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>902</v>
+        <v>684</v>
       </c>
       <c r="J40" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" t="s">
-        <v>684</v>
-      </c>
-      <c r="L40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -6191,25 +5889,19 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>902</v>
       </c>
       <c r="H41" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>902</v>
+        <v>684</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" t="s">
-        <v>684</v>
-      </c>
-      <c r="L41" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -6229,43 +5921,37 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>902</v>
       </c>
       <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>685</v>
+      </c>
+      <c r="J42" t="s">
+        <v>190</v>
+      </c>
+      <c r="L42" t="s">
+        <v>165</v>
+      </c>
+      <c r="M42" t="s">
         <v>166</v>
       </c>
-      <c r="I42" t="s">
-        <v>902</v>
-      </c>
-      <c r="J42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K42" t="s">
-        <v>685</v>
-      </c>
-      <c r="L42" t="s">
-        <v>190</v>
-      </c>
       <c r="N42" t="s">
+        <v>193</v>
+      </c>
+      <c r="O42" t="s">
         <v>165</v>
       </c>
-      <c r="O42" t="s">
-        <v>166</v>
-      </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="Q42" t="s">
-        <v>165</v>
-      </c>
-      <c r="R42" t="s">
-        <v>169</v>
-      </c>
-      <c r="S42" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -6285,34 +5971,28 @@
         <v>985</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
+        <v>902</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="I43" t="s">
-        <v>902</v>
+        <v>685</v>
       </c>
       <c r="J43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43" t="s">
-        <v>685</v>
+        <v>195</v>
       </c>
       <c r="L43" t="s">
-        <v>195</v>
+        <v>165</v>
+      </c>
+      <c r="M43" t="s">
+        <v>182</v>
       </c>
       <c r="N43" t="s">
-        <v>165</v>
-      </c>
-      <c r="O43" t="s">
-        <v>182</v>
-      </c>
-      <c r="P43" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -6332,22 +6012,16 @@
         <v>195</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:20">
       <c r="D45" t="s">
         <v>197</v>
       </c>
@@ -6358,34 +6032,28 @@
         <v>199</v>
       </c>
       <c r="G45" t="s">
+        <v>902</v>
+      </c>
+      <c r="H45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" t="s">
+        <v>685</v>
+      </c>
+      <c r="J45" t="s">
+        <v>200</v>
+      </c>
+      <c r="L45" t="s">
         <v>197</v>
       </c>
-      <c r="H45" t="s">
-        <v>198</v>
-      </c>
-      <c r="I45" t="s">
-        <v>902</v>
-      </c>
-      <c r="J45" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" t="s">
-        <v>685</v>
-      </c>
-      <c r="L45" t="s">
-        <v>200</v>
+      <c r="M45" t="s">
+        <v>938</v>
       </c>
       <c r="N45" t="s">
-        <v>197</v>
-      </c>
-      <c r="O45" t="s">
-        <v>938</v>
-      </c>
-      <c r="P45" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:20">
       <c r="D46" t="s">
         <v>197</v>
       </c>
@@ -6396,25 +6064,19 @@
         <v>202</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>902</v>
       </c>
       <c r="H46" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="I46" t="s">
-        <v>902</v>
+        <v>689</v>
       </c>
       <c r="J46" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" t="s">
-        <v>689</v>
-      </c>
-      <c r="L46" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -6434,22 +6096,16 @@
         <v>908</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" t="s">
-        <v>66</v>
-      </c>
-      <c r="K47" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -6469,22 +6125,16 @@
         <v>208</v>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>659</v>
       </c>
       <c r="H48" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="I48" t="s">
-        <v>659</v>
-      </c>
-      <c r="J48" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -6504,25 +6154,19 @@
         <v>909</v>
       </c>
       <c r="G49" t="s">
-        <v>206</v>
+        <v>659</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="I49" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="J49" t="s">
-        <v>66</v>
-      </c>
-      <c r="K49" t="s">
-        <v>681</v>
-      </c>
-      <c r="L49" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -6542,22 +6186,16 @@
         <v>212</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>657</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>662</v>
       </c>
       <c r="I50" t="s">
-        <v>657</v>
-      </c>
-      <c r="J50" t="s">
-        <v>662</v>
-      </c>
-      <c r="K50" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -6577,22 +6215,16 @@
         <v>911</v>
       </c>
       <c r="G51" t="s">
-        <v>206</v>
+        <v>660</v>
       </c>
       <c r="H51" t="s">
-        <v>910</v>
+        <v>661</v>
       </c>
       <c r="I51" t="s">
-        <v>660</v>
-      </c>
-      <c r="J51" t="s">
-        <v>661</v>
-      </c>
-      <c r="K51" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -6612,25 +6244,19 @@
         <v>215</v>
       </c>
       <c r="G52" t="s">
-        <v>206</v>
+        <v>659</v>
       </c>
       <c r="H52" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="I52" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="J52" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" t="s">
-        <v>683</v>
-      </c>
-      <c r="L52" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -6650,31 +6276,25 @@
         <v>223</v>
       </c>
       <c r="G53" t="s">
+        <v>657</v>
+      </c>
+      <c r="H53" t="s">
+        <v>662</v>
+      </c>
+      <c r="I53" t="s">
+        <v>693</v>
+      </c>
+      <c r="L53" t="s">
         <v>219</v>
       </c>
-      <c r="H53" t="s">
+      <c r="M53" t="s">
         <v>222</v>
       </c>
-      <c r="I53" t="s">
-        <v>657</v>
-      </c>
-      <c r="J53" t="s">
-        <v>662</v>
-      </c>
-      <c r="K53" t="s">
-        <v>693</v>
-      </c>
       <c r="N53" t="s">
-        <v>219</v>
-      </c>
-      <c r="O53" t="s">
-        <v>222</v>
-      </c>
-      <c r="P53" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -6694,22 +6314,16 @@
         <v>228</v>
       </c>
       <c r="G54" t="s">
-        <v>219</v>
+        <v>659</v>
       </c>
       <c r="H54" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="I54" t="s">
-        <v>659</v>
-      </c>
-      <c r="J54" t="s">
-        <v>66</v>
-      </c>
-      <c r="K54" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>219</v>
       </c>
@@ -6729,25 +6343,19 @@
         <v>912</v>
       </c>
       <c r="G55" t="s">
-        <v>219</v>
+        <v>659</v>
       </c>
       <c r="H55" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="I55" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J55" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" t="s">
-        <v>686</v>
-      </c>
-      <c r="L55" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -6767,25 +6375,19 @@
         <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>661</v>
       </c>
       <c r="I56" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="J56" t="s">
-        <v>661</v>
-      </c>
-      <c r="K56" t="s">
-        <v>694</v>
-      </c>
-      <c r="L56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>230</v>
       </c>
@@ -6805,25 +6407,19 @@
         <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="H57" t="s">
-        <v>233</v>
+        <v>661</v>
       </c>
       <c r="I57" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J57" t="s">
-        <v>661</v>
-      </c>
-      <c r="K57" t="s">
-        <v>680</v>
-      </c>
-      <c r="L57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:14">
       <c r="D58" t="s">
         <v>230</v>
       </c>
@@ -6834,25 +6430,19 @@
         <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="H58" t="s">
-        <v>233</v>
+        <v>661</v>
       </c>
       <c r="I58" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J58" t="s">
-        <v>661</v>
-      </c>
-      <c r="K58" t="s">
-        <v>680</v>
-      </c>
-      <c r="L58" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:14">
       <c r="D59" t="s">
         <v>230</v>
       </c>
@@ -6863,25 +6453,19 @@
         <v>913</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>661</v>
       </c>
       <c r="I59" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J59" t="s">
-        <v>661</v>
-      </c>
-      <c r="K59" t="s">
-        <v>680</v>
-      </c>
-      <c r="L59" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:14">
       <c r="D60" t="s">
         <v>239</v>
       </c>
@@ -6892,25 +6476,19 @@
         <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>659</v>
       </c>
       <c r="H60" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="I60" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="J60" t="s">
-        <v>66</v>
-      </c>
-      <c r="K60" t="s">
-        <v>695</v>
-      </c>
-      <c r="L60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:14">
       <c r="D61" t="s">
         <v>239</v>
       </c>
@@ -6921,25 +6499,19 @@
         <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>658</v>
       </c>
       <c r="H61" t="s">
-        <v>243</v>
+        <v>661</v>
       </c>
       <c r="I61" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="J61" t="s">
-        <v>661</v>
-      </c>
-      <c r="K61" t="s">
-        <v>680</v>
-      </c>
-      <c r="L61" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:14">
       <c r="D62" t="s">
         <v>247</v>
       </c>
@@ -6950,25 +6522,19 @@
         <v>249</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H62" t="s">
-        <v>248</v>
+        <v>661</v>
       </c>
       <c r="I62" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J62" t="s">
-        <v>661</v>
-      </c>
-      <c r="K62" t="s">
-        <v>680</v>
-      </c>
-      <c r="L62" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:14">
       <c r="D63" t="s">
         <v>247</v>
       </c>
@@ -6979,25 +6545,19 @@
         <v>251</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I63" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J63" t="s">
-        <v>661</v>
-      </c>
-      <c r="K63" t="s">
-        <v>680</v>
-      </c>
-      <c r="L63" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:14">
       <c r="D64" t="s">
         <v>247</v>
       </c>
@@ -7008,25 +6568,19 @@
         <v>252</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H64" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I64" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J64" t="s">
-        <v>661</v>
-      </c>
-      <c r="K64" t="s">
-        <v>680</v>
-      </c>
-      <c r="L64" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:17">
       <c r="D65" t="s">
         <v>247</v>
       </c>
@@ -7037,25 +6591,19 @@
         <v>253</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H65" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I65" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J65" t="s">
-        <v>661</v>
-      </c>
-      <c r="K65" t="s">
-        <v>680</v>
-      </c>
-      <c r="L65" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:17">
       <c r="D66" t="s">
         <v>247</v>
       </c>
@@ -7066,25 +6614,19 @@
         <v>254</v>
       </c>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H66" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I66" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J66" t="s">
-        <v>661</v>
-      </c>
-      <c r="K66" t="s">
-        <v>680</v>
-      </c>
-      <c r="L66" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:17">
       <c r="D67" t="s">
         <v>247</v>
       </c>
@@ -7095,25 +6637,19 @@
         <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I67" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="J67" t="s">
-        <v>661</v>
-      </c>
-      <c r="K67" t="s">
-        <v>694</v>
-      </c>
-      <c r="L67" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:17">
       <c r="D68" t="s">
         <v>247</v>
       </c>
@@ -7124,25 +6660,19 @@
         <v>256</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H68" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I68" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J68" t="s">
-        <v>661</v>
-      </c>
-      <c r="K68" t="s">
-        <v>680</v>
-      </c>
-      <c r="L68" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:17">
       <c r="D69" t="s">
         <v>247</v>
       </c>
@@ -7153,25 +6683,19 @@
         <v>257</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H69" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I69" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J69" t="s">
-        <v>661</v>
-      </c>
-      <c r="K69" t="s">
-        <v>680</v>
-      </c>
-      <c r="L69" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:17">
       <c r="D70" t="s">
         <v>247</v>
       </c>
@@ -7182,25 +6706,19 @@
         <v>817</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>660</v>
       </c>
       <c r="H70" t="s">
-        <v>250</v>
+        <v>661</v>
       </c>
       <c r="I70" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>661</v>
-      </c>
-      <c r="K70" t="s">
-        <v>680</v>
-      </c>
-      <c r="L70" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -7220,22 +6738,16 @@
         <v>262</v>
       </c>
       <c r="G71" t="s">
-        <v>261</v>
+        <v>659</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>659</v>
-      </c>
-      <c r="J71" t="s">
-        <v>66</v>
-      </c>
-      <c r="K71" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>263</v>
       </c>
@@ -7255,25 +6767,19 @@
         <v>268</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>659</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="I72" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J72" t="s">
-        <v>66</v>
-      </c>
-      <c r="K72" t="s">
-        <v>686</v>
-      </c>
-      <c r="L72" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -7293,25 +6799,19 @@
         <v>275</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>659</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="I73" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J73" t="s">
-        <v>66</v>
-      </c>
-      <c r="K73" t="s">
-        <v>686</v>
-      </c>
-      <c r="L73" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>263</v>
       </c>
@@ -7331,25 +6831,19 @@
         <v>267</v>
       </c>
       <c r="G74" t="s">
-        <v>263</v>
+        <v>659</v>
       </c>
       <c r="H74" t="s">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J74" t="s">
-        <v>66</v>
-      </c>
-      <c r="K74" t="s">
-        <v>686</v>
-      </c>
-      <c r="L74" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -7369,25 +6863,19 @@
         <v>269</v>
       </c>
       <c r="G75" t="s">
-        <v>263</v>
+        <v>659</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="I75" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J75" t="s">
-        <v>66</v>
-      </c>
-      <c r="K75" t="s">
-        <v>686</v>
-      </c>
-      <c r="L75" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -7407,25 +6895,19 @@
         <v>271</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>659</v>
       </c>
       <c r="H76" t="s">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="I76" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J76" t="s">
-        <v>66</v>
-      </c>
-      <c r="K76" t="s">
-        <v>686</v>
-      </c>
-      <c r="L76" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:17">
       <c r="D77" t="s">
         <v>263</v>
       </c>
@@ -7436,25 +6918,19 @@
         <v>708</v>
       </c>
       <c r="G77" t="s">
-        <v>263</v>
+        <v>659</v>
       </c>
       <c r="H77" t="s">
-        <v>707</v>
+        <v>66</v>
       </c>
       <c r="I77" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J77" t="s">
-        <v>66</v>
-      </c>
-      <c r="K77" t="s">
-        <v>686</v>
-      </c>
-      <c r="L77" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>277</v>
       </c>
@@ -7474,22 +6950,16 @@
         <v>285</v>
       </c>
       <c r="G78" t="s">
-        <v>277</v>
+        <v>660</v>
       </c>
       <c r="H78" t="s">
-        <v>284</v>
+        <v>661</v>
       </c>
       <c r="I78" t="s">
-        <v>660</v>
-      </c>
-      <c r="J78" t="s">
-        <v>661</v>
-      </c>
-      <c r="K78" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>277</v>
       </c>
@@ -7509,22 +6979,16 @@
         <v>915</v>
       </c>
       <c r="G79" t="s">
-        <v>277</v>
+        <v>659</v>
       </c>
       <c r="H79" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="I79" t="s">
-        <v>659</v>
-      </c>
-      <c r="J79" t="s">
-        <v>66</v>
-      </c>
-      <c r="K79" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:17">
       <c r="D80" t="s">
         <v>287</v>
       </c>
@@ -7535,40 +6999,34 @@
         <v>664</v>
       </c>
       <c r="G80" t="s">
+        <v>660</v>
+      </c>
+      <c r="H80" t="s">
+        <v>661</v>
+      </c>
+      <c r="I80" t="s">
+        <v>680</v>
+      </c>
+      <c r="L80" t="s">
         <v>287</v>
       </c>
-      <c r="H80" t="s">
+      <c r="M80" t="s">
         <v>288</v>
       </c>
-      <c r="I80" t="s">
-        <v>660</v>
-      </c>
-      <c r="J80" t="s">
-        <v>661</v>
-      </c>
-      <c r="K80" t="s">
-        <v>680</v>
-      </c>
       <c r="N80" t="s">
+        <v>289</v>
+      </c>
+      <c r="O80" t="s">
         <v>287</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>288</v>
       </c>
-      <c r="P80" t="s">
-        <v>289</v>
-      </c>
       <c r="Q80" t="s">
-        <v>287</v>
-      </c>
-      <c r="R80" t="s">
-        <v>288</v>
-      </c>
-      <c r="S80" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>287</v>
       </c>
@@ -7578,17 +7036,17 @@
       <c r="C81" t="s">
         <v>293</v>
       </c>
+      <c r="G81" t="s">
+        <v>759</v>
+      </c>
+      <c r="H81" t="s">
+        <v>661</v>
+      </c>
       <c r="I81" t="s">
-        <v>759</v>
-      </c>
-      <c r="J81" t="s">
-        <v>661</v>
-      </c>
-      <c r="K81" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>287</v>
       </c>
@@ -7608,40 +7066,34 @@
         <v>973</v>
       </c>
       <c r="G82" t="s">
-        <v>974</v>
+        <v>660</v>
       </c>
       <c r="H82" t="s">
-        <v>972</v>
+        <v>661</v>
       </c>
       <c r="I82" t="s">
-        <v>660</v>
-      </c>
-      <c r="J82" t="s">
-        <v>661</v>
-      </c>
-      <c r="K82" t="s">
         <v>680</v>
       </c>
+      <c r="L82" t="s">
+        <v>287</v>
+      </c>
+      <c r="M82" t="s">
+        <v>288</v>
+      </c>
       <c r="N82" t="s">
+        <v>294</v>
+      </c>
+      <c r="O82" t="s">
         <v>287</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>288</v>
       </c>
-      <c r="P82" t="s">
-        <v>294</v>
-      </c>
       <c r="Q82" t="s">
-        <v>287</v>
-      </c>
-      <c r="R82" t="s">
-        <v>288</v>
-      </c>
-      <c r="S82" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>287</v>
       </c>
@@ -7661,22 +7113,16 @@
         <v>298</v>
       </c>
       <c r="G83" t="s">
-        <v>287</v>
+        <v>659</v>
       </c>
       <c r="H83" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I83" t="s">
-        <v>659</v>
-      </c>
-      <c r="J83" t="s">
-        <v>66</v>
-      </c>
-      <c r="K83" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>287</v>
       </c>
@@ -7696,34 +7142,28 @@
         <v>916</v>
       </c>
       <c r="G84" t="s">
+        <v>659</v>
+      </c>
+      <c r="H84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84" t="s">
+        <v>686</v>
+      </c>
+      <c r="J84" t="s">
+        <v>298</v>
+      </c>
+      <c r="L84" t="s">
         <v>287</v>
       </c>
-      <c r="H84" t="s">
+      <c r="M84" t="s">
         <v>297</v>
       </c>
-      <c r="I84" t="s">
-        <v>659</v>
-      </c>
-      <c r="J84" t="s">
-        <v>66</v>
-      </c>
-      <c r="K84" t="s">
-        <v>686</v>
-      </c>
-      <c r="L84" t="s">
-        <v>298</v>
-      </c>
       <c r="N84" t="s">
-        <v>287</v>
-      </c>
-      <c r="O84" t="s">
-        <v>297</v>
-      </c>
-      <c r="P84" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>300</v>
       </c>
@@ -7743,22 +7183,16 @@
         <v>304</v>
       </c>
       <c r="G85" t="s">
-        <v>300</v>
+        <v>657</v>
       </c>
       <c r="H85" t="s">
-        <v>303</v>
+        <v>662</v>
       </c>
       <c r="I85" t="s">
-        <v>657</v>
-      </c>
-      <c r="J85" t="s">
-        <v>662</v>
-      </c>
-      <c r="K85" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>305</v>
       </c>
@@ -7778,22 +7212,16 @@
         <v>309</v>
       </c>
       <c r="G86" t="s">
-        <v>305</v>
+        <v>657</v>
       </c>
       <c r="H86" t="s">
-        <v>308</v>
+        <v>662</v>
       </c>
       <c r="I86" t="s">
-        <v>657</v>
-      </c>
-      <c r="J86" t="s">
-        <v>662</v>
-      </c>
-      <c r="K86" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>711</v>
       </c>
@@ -7813,22 +7241,16 @@
         <v>716</v>
       </c>
       <c r="G87" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
       <c r="H87" t="s">
-        <v>715</v>
+        <v>662</v>
       </c>
       <c r="I87" t="s">
-        <v>657</v>
-      </c>
-      <c r="J87" t="s">
-        <v>662</v>
-      </c>
-      <c r="K87" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>310</v>
       </c>
@@ -7848,22 +7270,16 @@
         <v>319</v>
       </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>657</v>
       </c>
       <c r="H88" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="I88" t="s">
-        <v>657</v>
-      </c>
-      <c r="J88" t="s">
-        <v>662</v>
-      </c>
-      <c r="K88" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>310</v>
       </c>
@@ -7883,22 +7299,16 @@
         <v>320</v>
       </c>
       <c r="G89" t="s">
-        <v>310</v>
+        <v>657</v>
       </c>
       <c r="H89" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="I89" t="s">
-        <v>657</v>
-      </c>
-      <c r="J89" t="s">
-        <v>662</v>
-      </c>
-      <c r="K89" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>310</v>
       </c>
@@ -7918,22 +7328,16 @@
         <v>322</v>
       </c>
       <c r="G90" t="s">
-        <v>310</v>
+        <v>659</v>
       </c>
       <c r="H90" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="I90" t="s">
-        <v>659</v>
-      </c>
-      <c r="J90" t="s">
-        <v>66</v>
-      </c>
-      <c r="K90" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>323</v>
       </c>
@@ -7953,31 +7357,25 @@
         <v>327</v>
       </c>
       <c r="G91" t="s">
+        <v>657</v>
+      </c>
+      <c r="H91" t="s">
+        <v>662</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="L91" t="s">
         <v>323</v>
       </c>
-      <c r="H91" t="s">
+      <c r="M91" t="s">
         <v>326</v>
       </c>
-      <c r="I91" t="s">
-        <v>657</v>
-      </c>
-      <c r="J91" t="s">
-        <v>662</v>
-      </c>
-      <c r="K91" t="s">
-        <v>680</v>
-      </c>
       <c r="N91" t="s">
-        <v>323</v>
-      </c>
-      <c r="O91" t="s">
-        <v>326</v>
-      </c>
-      <c r="P91" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>323</v>
       </c>
@@ -7997,25 +7395,19 @@
         <v>334</v>
       </c>
       <c r="G92" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H92" t="s">
-        <v>333</v>
+        <v>66</v>
       </c>
       <c r="I92" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="J92" t="s">
-        <v>66</v>
-      </c>
-      <c r="K92" t="s">
-        <v>681</v>
-      </c>
-      <c r="L92" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>323</v>
       </c>
@@ -8035,31 +7427,25 @@
         <v>336</v>
       </c>
       <c r="G93" t="s">
+        <v>657</v>
+      </c>
+      <c r="H93" t="s">
+        <v>662</v>
+      </c>
+      <c r="I93" t="s">
+        <v>680</v>
+      </c>
+      <c r="L93" t="s">
         <v>323</v>
       </c>
-      <c r="H93" t="s">
+      <c r="M93" t="s">
         <v>335</v>
       </c>
-      <c r="I93" t="s">
-        <v>657</v>
-      </c>
-      <c r="J93" t="s">
-        <v>662</v>
-      </c>
-      <c r="K93" t="s">
-        <v>680</v>
-      </c>
       <c r="N93" t="s">
-        <v>323</v>
-      </c>
-      <c r="O93" t="s">
-        <v>335</v>
-      </c>
-      <c r="P93" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>323</v>
       </c>
@@ -8079,25 +7465,19 @@
         <v>341</v>
       </c>
       <c r="G94" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H94" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="I94" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="J94" t="s">
-        <v>66</v>
-      </c>
-      <c r="K94" t="s">
-        <v>681</v>
-      </c>
-      <c r="L94" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>323</v>
       </c>
@@ -8117,22 +7497,16 @@
         <v>918</v>
       </c>
       <c r="G95" t="s">
-        <v>323</v>
+        <v>657</v>
       </c>
       <c r="H95" t="s">
-        <v>344</v>
+        <v>662</v>
       </c>
       <c r="I95" t="s">
-        <v>657</v>
-      </c>
-      <c r="J95" t="s">
-        <v>662</v>
-      </c>
-      <c r="K95" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>323</v>
       </c>
@@ -8152,25 +7526,19 @@
         <v>349</v>
       </c>
       <c r="G96" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H96" t="s">
-        <v>348</v>
+        <v>66</v>
       </c>
       <c r="I96" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="J96" t="s">
-        <v>66</v>
-      </c>
-      <c r="K96" t="s">
-        <v>702</v>
-      </c>
-      <c r="L96" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>323</v>
       </c>
@@ -8190,25 +7558,19 @@
         <v>353</v>
       </c>
       <c r="G97" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H97" t="s">
-        <v>352</v>
+        <v>66</v>
       </c>
       <c r="I97" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="J97" t="s">
-        <v>66</v>
-      </c>
-      <c r="K97" t="s">
-        <v>683</v>
-      </c>
-      <c r="L97" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>323</v>
       </c>
@@ -8228,22 +7590,16 @@
         <v>919</v>
       </c>
       <c r="G98" t="s">
-        <v>323</v>
+        <v>657</v>
       </c>
       <c r="H98" t="s">
-        <v>356</v>
+        <v>662</v>
       </c>
       <c r="I98" t="s">
-        <v>657</v>
-      </c>
-      <c r="J98" t="s">
-        <v>662</v>
-      </c>
-      <c r="K98" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>323</v>
       </c>
@@ -8263,25 +7619,19 @@
         <v>360</v>
       </c>
       <c r="G99" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H99" t="s">
-        <v>358</v>
+        <v>66</v>
       </c>
       <c r="I99" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="J99" t="s">
-        <v>66</v>
-      </c>
-      <c r="K99" t="s">
-        <v>683</v>
-      </c>
-      <c r="L99" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>323</v>
       </c>
@@ -8301,22 +7651,16 @@
         <v>364</v>
       </c>
       <c r="G100" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H100" t="s">
-        <v>363</v>
+        <v>66</v>
       </c>
       <c r="I100" t="s">
-        <v>659</v>
-      </c>
-      <c r="J100" t="s">
-        <v>66</v>
-      </c>
-      <c r="K100" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>365</v>
       </c>
@@ -8336,31 +7680,25 @@
         <v>369</v>
       </c>
       <c r="G101" t="s">
+        <v>657</v>
+      </c>
+      <c r="H101" t="s">
+        <v>662</v>
+      </c>
+      <c r="I101" t="s">
+        <v>680</v>
+      </c>
+      <c r="L101" t="s">
         <v>365</v>
       </c>
-      <c r="H101" t="s">
+      <c r="M101" t="s">
         <v>368</v>
       </c>
-      <c r="I101" t="s">
-        <v>657</v>
-      </c>
-      <c r="J101" t="s">
-        <v>662</v>
-      </c>
-      <c r="K101" t="s">
-        <v>680</v>
-      </c>
       <c r="N101" t="s">
-        <v>365</v>
-      </c>
-      <c r="O101" t="s">
-        <v>368</v>
-      </c>
-      <c r="P101" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>365</v>
       </c>
@@ -8380,22 +7718,16 @@
         <v>374</v>
       </c>
       <c r="G102" t="s">
-        <v>365</v>
+        <v>659</v>
       </c>
       <c r="H102" t="s">
-        <v>373</v>
+        <v>66</v>
       </c>
       <c r="I102" t="s">
-        <v>659</v>
-      </c>
-      <c r="J102" t="s">
-        <v>66</v>
-      </c>
-      <c r="K102" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:14">
       <c r="D103" t="s">
         <v>365</v>
       </c>
@@ -8406,31 +7738,25 @@
         <v>375</v>
       </c>
       <c r="G103" t="s">
+        <v>659</v>
+      </c>
+      <c r="H103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I103" t="s">
+        <v>686</v>
+      </c>
+      <c r="L103" t="s">
         <v>365</v>
       </c>
-      <c r="H103" t="s">
+      <c r="M103" t="s">
         <v>373</v>
       </c>
-      <c r="I103" t="s">
-        <v>659</v>
-      </c>
-      <c r="J103" t="s">
-        <v>66</v>
-      </c>
-      <c r="K103" t="s">
-        <v>686</v>
-      </c>
       <c r="N103" t="s">
-        <v>365</v>
-      </c>
-      <c r="O103" t="s">
-        <v>373</v>
-      </c>
-      <c r="P103" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>365</v>
       </c>
@@ -8450,22 +7776,16 @@
         <v>380</v>
       </c>
       <c r="G104" t="s">
-        <v>365</v>
+        <v>659</v>
       </c>
       <c r="H104" t="s">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="I104" t="s">
-        <v>659</v>
-      </c>
-      <c r="J104" t="s">
-        <v>66</v>
-      </c>
-      <c r="K104" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>365</v>
       </c>
@@ -8485,22 +7805,16 @@
         <v>384</v>
       </c>
       <c r="G105" t="s">
-        <v>365</v>
+        <v>657</v>
       </c>
       <c r="H105" t="s">
-        <v>383</v>
+        <v>662</v>
       </c>
       <c r="I105" t="s">
-        <v>657</v>
-      </c>
-      <c r="J105" t="s">
-        <v>662</v>
-      </c>
-      <c r="K105" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>385</v>
       </c>
@@ -8520,22 +7834,16 @@
         <v>389</v>
       </c>
       <c r="G106" t="s">
-        <v>385</v>
+        <v>657</v>
       </c>
       <c r="H106" t="s">
-        <v>388</v>
+        <v>662</v>
       </c>
       <c r="I106" t="s">
-        <v>657</v>
-      </c>
-      <c r="J106" t="s">
-        <v>662</v>
-      </c>
-      <c r="K106" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>390</v>
       </c>
@@ -8555,22 +7863,16 @@
         <v>394</v>
       </c>
       <c r="G107" t="s">
-        <v>390</v>
+        <v>657</v>
       </c>
       <c r="H107" t="s">
-        <v>393</v>
+        <v>662</v>
       </c>
       <c r="I107" t="s">
-        <v>657</v>
-      </c>
-      <c r="J107" t="s">
-        <v>662</v>
-      </c>
-      <c r="K107" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:14">
       <c r="D108" t="s">
         <v>390</v>
       </c>
@@ -8581,22 +7883,16 @@
         <v>723</v>
       </c>
       <c r="G108" t="s">
-        <v>390</v>
+        <v>657</v>
       </c>
       <c r="H108" t="s">
-        <v>722</v>
+        <v>662</v>
       </c>
       <c r="I108" t="s">
-        <v>657</v>
-      </c>
-      <c r="J108" t="s">
-        <v>662</v>
-      </c>
-      <c r="K108" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>390</v>
       </c>
@@ -8616,25 +7912,19 @@
         <v>889</v>
       </c>
       <c r="G109" t="s">
-        <v>390</v>
+        <v>657</v>
       </c>
       <c r="H109" t="s">
-        <v>888</v>
+        <v>662</v>
       </c>
       <c r="I109" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="J109" t="s">
-        <v>662</v>
-      </c>
-      <c r="K109" t="s">
-        <v>680</v>
-      </c>
-      <c r="L109" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>390</v>
       </c>
@@ -8654,22 +7944,16 @@
         <v>398</v>
       </c>
       <c r="G110" t="s">
-        <v>390</v>
+        <v>657</v>
       </c>
       <c r="H110" t="s">
-        <v>397</v>
+        <v>662</v>
       </c>
       <c r="I110" t="s">
-        <v>657</v>
-      </c>
-      <c r="J110" t="s">
-        <v>662</v>
-      </c>
-      <c r="K110" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>390</v>
       </c>
@@ -8689,22 +7973,16 @@
         <v>345</v>
       </c>
       <c r="G111" t="s">
-        <v>390</v>
+        <v>657</v>
       </c>
       <c r="H111" t="s">
-        <v>344</v>
+        <v>662</v>
       </c>
       <c r="I111" t="s">
-        <v>657</v>
-      </c>
-      <c r="J111" t="s">
-        <v>662</v>
-      </c>
-      <c r="K111" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>390</v>
       </c>
@@ -8724,22 +8002,16 @@
         <v>954</v>
       </c>
       <c r="G112" t="s">
-        <v>390</v>
+        <v>657</v>
       </c>
       <c r="H112" t="s">
-        <v>953</v>
+        <v>662</v>
       </c>
       <c r="I112" t="s">
-        <v>657</v>
-      </c>
-      <c r="J112" t="s">
-        <v>662</v>
-      </c>
-      <c r="K112" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>403</v>
       </c>
@@ -8759,22 +8031,16 @@
         <v>407</v>
       </c>
       <c r="G113" t="s">
-        <v>403</v>
+        <v>657</v>
       </c>
       <c r="H113" t="s">
-        <v>406</v>
+        <v>662</v>
       </c>
       <c r="I113" t="s">
-        <v>657</v>
-      </c>
-      <c r="J113" t="s">
-        <v>662</v>
-      </c>
-      <c r="K113" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>408</v>
       </c>
@@ -8794,31 +8060,25 @@
         <v>411</v>
       </c>
       <c r="G114" t="s">
+        <v>657</v>
+      </c>
+      <c r="H114" t="s">
+        <v>662</v>
+      </c>
+      <c r="I114" t="s">
+        <v>680</v>
+      </c>
+      <c r="L114" t="s">
         <v>408</v>
       </c>
-      <c r="H114" t="s">
-        <v>410</v>
-      </c>
-      <c r="I114" t="s">
-        <v>657</v>
-      </c>
-      <c r="J114" t="s">
-        <v>662</v>
-      </c>
-      <c r="K114" t="s">
-        <v>680</v>
+      <c r="M114" t="s">
+        <v>72</v>
       </c>
       <c r="N114" t="s">
-        <v>408</v>
-      </c>
-      <c r="O114" t="s">
-        <v>72</v>
-      </c>
-      <c r="P114" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>408</v>
       </c>
@@ -8838,22 +8098,16 @@
         <v>417</v>
       </c>
       <c r="G115" t="s">
-        <v>408</v>
+        <v>659</v>
       </c>
       <c r="H115" t="s">
-        <v>416</v>
+        <v>66</v>
       </c>
       <c r="I115" t="s">
-        <v>659</v>
-      </c>
-      <c r="J115" t="s">
-        <v>66</v>
-      </c>
-      <c r="K115" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>408</v>
       </c>
@@ -8873,22 +8127,16 @@
         <v>418</v>
       </c>
       <c r="G116" t="s">
-        <v>408</v>
+        <v>657</v>
       </c>
       <c r="H116" t="s">
-        <v>74</v>
+        <v>662</v>
       </c>
       <c r="I116" t="s">
-        <v>657</v>
-      </c>
-      <c r="J116" t="s">
-        <v>662</v>
-      </c>
-      <c r="K116" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>419</v>
       </c>
@@ -8908,31 +8156,25 @@
         <v>422</v>
       </c>
       <c r="G117" t="s">
+        <v>657</v>
+      </c>
+      <c r="H117" t="s">
+        <v>662</v>
+      </c>
+      <c r="I117" t="s">
+        <v>680</v>
+      </c>
+      <c r="L117" t="s">
         <v>419</v>
       </c>
-      <c r="H117" t="s">
+      <c r="M117" t="s">
         <v>421</v>
       </c>
-      <c r="I117" t="s">
-        <v>657</v>
-      </c>
-      <c r="J117" t="s">
-        <v>662</v>
-      </c>
-      <c r="K117" t="s">
-        <v>680</v>
-      </c>
       <c r="N117" t="s">
-        <v>419</v>
-      </c>
-      <c r="O117" t="s">
-        <v>421</v>
-      </c>
-      <c r="P117" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>423</v>
       </c>
@@ -8952,40 +8194,34 @@
         <v>430</v>
       </c>
       <c r="G118" t="s">
+        <v>657</v>
+      </c>
+      <c r="H118" t="s">
+        <v>662</v>
+      </c>
+      <c r="I118" t="s">
+        <v>688</v>
+      </c>
+      <c r="L118" t="s">
         <v>423</v>
       </c>
-      <c r="H118" t="s">
+      <c r="M118" t="s">
         <v>429</v>
       </c>
-      <c r="I118" t="s">
-        <v>657</v>
-      </c>
-      <c r="J118" t="s">
-        <v>662</v>
-      </c>
-      <c r="K118" t="s">
-        <v>688</v>
-      </c>
       <c r="N118" t="s">
+        <v>431</v>
+      </c>
+      <c r="O118" t="s">
         <v>423</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>429</v>
       </c>
-      <c r="P118" t="s">
-        <v>431</v>
-      </c>
       <c r="Q118" t="s">
-        <v>423</v>
-      </c>
-      <c r="R118" t="s">
-        <v>429</v>
-      </c>
-      <c r="S118" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>433</v>
       </c>
@@ -9005,31 +8241,25 @@
         <v>437</v>
       </c>
       <c r="G119" t="s">
-        <v>433</v>
+        <v>657</v>
       </c>
       <c r="H119" t="s">
+        <v>662</v>
+      </c>
+      <c r="I119" t="s">
+        <v>680</v>
+      </c>
+      <c r="L119" t="s">
+        <v>46</v>
+      </c>
+      <c r="M119" t="s">
         <v>436</v>
       </c>
-      <c r="I119" t="s">
-        <v>657</v>
-      </c>
-      <c r="J119" t="s">
-        <v>662</v>
-      </c>
-      <c r="K119" t="s">
-        <v>680</v>
-      </c>
       <c r="N119" t="s">
-        <v>46</v>
-      </c>
-      <c r="O119" t="s">
-        <v>436</v>
-      </c>
-      <c r="P119" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -9049,43 +8279,37 @@
         <v>442</v>
       </c>
       <c r="G120" t="s">
+        <v>902</v>
+      </c>
+      <c r="H120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120" t="s">
+        <v>686</v>
+      </c>
+      <c r="J120" t="s">
+        <v>444</v>
+      </c>
+      <c r="L120" t="s">
         <v>438</v>
       </c>
-      <c r="H120" t="s">
+      <c r="M120" t="s">
         <v>441</v>
       </c>
-      <c r="I120" t="s">
-        <v>902</v>
-      </c>
-      <c r="J120" t="s">
-        <v>66</v>
-      </c>
-      <c r="K120" t="s">
-        <v>686</v>
-      </c>
-      <c r="L120" t="s">
-        <v>444</v>
-      </c>
       <c r="N120" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="O120" t="s">
+        <v>46</v>
+      </c>
+      <c r="P120" t="s">
         <v>441</v>
       </c>
-      <c r="P120" t="s">
-        <v>443</v>
-      </c>
       <c r="Q120" t="s">
-        <v>46</v>
-      </c>
-      <c r="R120" t="s">
-        <v>441</v>
-      </c>
-      <c r="S120" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
         <v>445</v>
       </c>
@@ -9105,34 +8329,28 @@
         <v>449</v>
       </c>
       <c r="G121" t="s">
+        <v>658</v>
+      </c>
+      <c r="H121" t="s">
+        <v>920</v>
+      </c>
+      <c r="I121" t="s">
+        <v>696</v>
+      </c>
+      <c r="J121" t="s">
+        <v>890</v>
+      </c>
+      <c r="L121" t="s">
         <v>445</v>
       </c>
-      <c r="H121" t="s">
+      <c r="M121" t="s">
         <v>448</v>
       </c>
-      <c r="I121" t="s">
-        <v>658</v>
-      </c>
-      <c r="J121" t="s">
-        <v>920</v>
-      </c>
-      <c r="K121" t="s">
-        <v>696</v>
-      </c>
-      <c r="L121" t="s">
-        <v>890</v>
-      </c>
       <c r="N121" t="s">
-        <v>445</v>
-      </c>
-      <c r="O121" t="s">
-        <v>448</v>
-      </c>
-      <c r="P121" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:17">
       <c r="D122" t="s">
         <v>445</v>
       </c>
@@ -9143,34 +8361,28 @@
         <v>921</v>
       </c>
       <c r="G122" t="s">
+        <v>658</v>
+      </c>
+      <c r="H122" t="s">
+        <v>661</v>
+      </c>
+      <c r="I122" t="s">
+        <v>696</v>
+      </c>
+      <c r="J122" t="s">
+        <v>890</v>
+      </c>
+      <c r="L122" t="s">
         <v>445</v>
       </c>
-      <c r="H122" t="s">
+      <c r="M122" t="s">
         <v>448</v>
       </c>
-      <c r="I122" t="s">
-        <v>658</v>
-      </c>
-      <c r="J122" t="s">
-        <v>661</v>
-      </c>
-      <c r="K122" t="s">
-        <v>696</v>
-      </c>
-      <c r="L122" t="s">
-        <v>890</v>
-      </c>
       <c r="N122" t="s">
-        <v>445</v>
-      </c>
-      <c r="O122" t="s">
-        <v>448</v>
-      </c>
-      <c r="P122" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>452</v>
       </c>
@@ -9190,25 +8402,19 @@
         <v>778</v>
       </c>
       <c r="G123" t="s">
-        <v>776</v>
+        <v>657</v>
       </c>
       <c r="H123" t="s">
-        <v>777</v>
+        <v>662</v>
       </c>
       <c r="I123" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="J123" t="s">
-        <v>662</v>
-      </c>
-      <c r="K123" t="s">
-        <v>682</v>
-      </c>
-      <c r="L123" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
         <v>456</v>
       </c>
@@ -9228,25 +8434,19 @@
         <v>460</v>
       </c>
       <c r="G124" t="s">
-        <v>456</v>
+        <v>657</v>
       </c>
       <c r="H124" t="s">
-        <v>459</v>
+        <v>662</v>
       </c>
       <c r="I124" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="J124" t="s">
-        <v>662</v>
-      </c>
-      <c r="K124" t="s">
-        <v>682</v>
-      </c>
-      <c r="L124" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:17">
       <c r="D125" t="s">
         <v>456</v>
       </c>
@@ -9257,25 +8457,19 @@
         <v>881</v>
       </c>
       <c r="G125" t="s">
-        <v>456</v>
+        <v>657</v>
       </c>
       <c r="H125" t="s">
-        <v>880</v>
+        <v>662</v>
       </c>
       <c r="I125" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="J125" t="s">
-        <v>662</v>
-      </c>
-      <c r="K125" t="s">
-        <v>682</v>
-      </c>
-      <c r="L125" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:17">
       <c r="D126" t="s">
         <v>456</v>
       </c>
@@ -9286,25 +8480,19 @@
         <v>945</v>
       </c>
       <c r="G126" t="s">
-        <v>456</v>
+        <v>657</v>
       </c>
       <c r="H126" t="s">
-        <v>944</v>
+        <v>662</v>
       </c>
       <c r="I126" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="J126" t="s">
-        <v>662</v>
-      </c>
-      <c r="K126" t="s">
-        <v>682</v>
-      </c>
-      <c r="L126" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>461</v>
       </c>
@@ -9324,34 +8512,28 @@
         <v>465</v>
       </c>
       <c r="G127" t="s">
+        <v>902</v>
+      </c>
+      <c r="H127" t="s">
+        <v>66</v>
+      </c>
+      <c r="I127" t="s">
+        <v>696</v>
+      </c>
+      <c r="J127" t="s">
+        <v>467</v>
+      </c>
+      <c r="L127" t="s">
         <v>461</v>
       </c>
-      <c r="H127" t="s">
+      <c r="M127" t="s">
         <v>464</v>
       </c>
-      <c r="I127" t="s">
-        <v>902</v>
-      </c>
-      <c r="J127" t="s">
-        <v>66</v>
-      </c>
-      <c r="K127" t="s">
-        <v>696</v>
-      </c>
-      <c r="L127" t="s">
-        <v>467</v>
-      </c>
       <c r="N127" t="s">
-        <v>461</v>
-      </c>
-      <c r="O127" t="s">
-        <v>464</v>
-      </c>
-      <c r="P127" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
         <v>468</v>
       </c>
@@ -9371,34 +8553,28 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
+        <v>658</v>
+      </c>
+      <c r="H128" t="s">
+        <v>661</v>
+      </c>
+      <c r="I128" t="s">
+        <v>696</v>
+      </c>
+      <c r="J128" t="s">
+        <v>895</v>
+      </c>
+      <c r="L128" t="s">
         <v>468</v>
       </c>
-      <c r="H128" t="s">
-        <v>471</v>
-      </c>
-      <c r="I128" t="s">
-        <v>658</v>
-      </c>
-      <c r="J128" t="s">
-        <v>661</v>
-      </c>
-      <c r="K128" t="s">
-        <v>696</v>
-      </c>
-      <c r="L128" t="s">
-        <v>895</v>
+      <c r="M128" t="s">
+        <v>747</v>
       </c>
       <c r="N128" t="s">
-        <v>468</v>
-      </c>
-      <c r="O128" t="s">
-        <v>747</v>
-      </c>
-      <c r="P128" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>468</v>
       </c>
@@ -9418,31 +8594,25 @@
         <v>474</v>
       </c>
       <c r="G129" t="s">
+        <v>658</v>
+      </c>
+      <c r="H129" t="s">
+        <v>661</v>
+      </c>
+      <c r="I129" t="s">
+        <v>696</v>
+      </c>
+      <c r="L129" t="s">
         <v>468</v>
       </c>
-      <c r="H129" t="s">
+      <c r="M129" t="s">
         <v>473</v>
       </c>
-      <c r="I129" t="s">
-        <v>658</v>
-      </c>
-      <c r="J129" t="s">
-        <v>661</v>
-      </c>
-      <c r="K129" t="s">
-        <v>696</v>
-      </c>
       <c r="N129" t="s">
-        <v>468</v>
-      </c>
-      <c r="O129" t="s">
-        <v>473</v>
-      </c>
-      <c r="P129" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>482</v>
       </c>
@@ -9462,25 +8632,19 @@
         <v>486</v>
       </c>
       <c r="G130" t="s">
-        <v>482</v>
+        <v>923</v>
       </c>
       <c r="H130" t="s">
-        <v>485</v>
+        <v>904</v>
       </c>
       <c r="I130" t="s">
-        <v>923</v>
+        <v>682</v>
       </c>
       <c r="J130" t="s">
-        <v>904</v>
-      </c>
-      <c r="K130" t="s">
-        <v>682</v>
-      </c>
-      <c r="L130" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>482</v>
       </c>
@@ -9500,25 +8664,19 @@
         <v>490</v>
       </c>
       <c r="G131" t="s">
-        <v>482</v>
+        <v>923</v>
       </c>
       <c r="H131" t="s">
-        <v>489</v>
+        <v>904</v>
       </c>
       <c r="I131" t="s">
-        <v>923</v>
+        <v>682</v>
       </c>
       <c r="J131" t="s">
-        <v>904</v>
-      </c>
-      <c r="K131" t="s">
-        <v>682</v>
-      </c>
-      <c r="L131" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>482</v>
       </c>
@@ -9538,25 +8696,19 @@
         <v>494</v>
       </c>
       <c r="G132" t="s">
-        <v>482</v>
+        <v>923</v>
       </c>
       <c r="H132" t="s">
-        <v>493</v>
+        <v>904</v>
       </c>
       <c r="I132" t="s">
-        <v>923</v>
+        <v>682</v>
       </c>
       <c r="J132" t="s">
-        <v>904</v>
-      </c>
-      <c r="K132" t="s">
-        <v>682</v>
-      </c>
-      <c r="L132" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>482</v>
       </c>
@@ -9576,25 +8728,19 @@
         <v>784</v>
       </c>
       <c r="G133" t="s">
-        <v>482</v>
+        <v>923</v>
       </c>
       <c r="H133" t="s">
-        <v>783</v>
+        <v>904</v>
       </c>
       <c r="I133" t="s">
-        <v>923</v>
+        <v>682</v>
       </c>
       <c r="J133" t="s">
-        <v>904</v>
-      </c>
-      <c r="K133" t="s">
-        <v>682</v>
-      </c>
-      <c r="L133" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>482</v>
       </c>
@@ -9614,22 +8760,16 @@
         <v>498</v>
       </c>
       <c r="G134" t="s">
-        <v>482</v>
+        <v>657</v>
       </c>
       <c r="H134" t="s">
-        <v>497</v>
+        <v>662</v>
       </c>
       <c r="I134" t="s">
-        <v>657</v>
-      </c>
-      <c r="J134" t="s">
-        <v>662</v>
-      </c>
-      <c r="K134" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>482</v>
       </c>
@@ -9649,25 +8789,19 @@
         <v>500</v>
       </c>
       <c r="G135" t="s">
-        <v>482</v>
+        <v>923</v>
       </c>
       <c r="H135" t="s">
-        <v>499</v>
+        <v>904</v>
       </c>
       <c r="I135" t="s">
-        <v>923</v>
+        <v>682</v>
       </c>
       <c r="J135" t="s">
-        <v>904</v>
-      </c>
-      <c r="K135" t="s">
-        <v>682</v>
-      </c>
-      <c r="L135" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>482</v>
       </c>
@@ -9687,22 +8821,16 @@
         <v>502</v>
       </c>
       <c r="G136" t="s">
-        <v>482</v>
+        <v>659</v>
       </c>
       <c r="H136" t="s">
-        <v>501</v>
+        <v>66</v>
       </c>
       <c r="I136" t="s">
-        <v>659</v>
-      </c>
-      <c r="J136" t="s">
-        <v>66</v>
-      </c>
-      <c r="K136" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>507</v>
       </c>
@@ -9722,25 +8850,19 @@
         <v>511</v>
       </c>
       <c r="G137" t="s">
-        <v>507</v>
+        <v>924</v>
       </c>
       <c r="H137" t="s">
-        <v>510</v>
+        <v>925</v>
       </c>
       <c r="I137" t="s">
-        <v>924</v>
+        <v>697</v>
       </c>
       <c r="J137" t="s">
-        <v>925</v>
-      </c>
-      <c r="K137" t="s">
-        <v>697</v>
-      </c>
-      <c r="L137" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:14">
       <c r="D138" t="s">
         <v>507</v>
       </c>
@@ -9751,31 +8873,25 @@
         <v>514</v>
       </c>
       <c r="G138" t="s">
+        <v>659</v>
+      </c>
+      <c r="H138" t="s">
+        <v>66</v>
+      </c>
+      <c r="I138" t="s">
+        <v>691</v>
+      </c>
+      <c r="L138" t="s">
         <v>507</v>
       </c>
-      <c r="H138" t="s">
-        <v>513</v>
-      </c>
-      <c r="I138" t="s">
-        <v>659</v>
-      </c>
-      <c r="J138" t="s">
-        <v>66</v>
-      </c>
-      <c r="K138" t="s">
-        <v>691</v>
+      <c r="M138" t="s">
+        <v>515</v>
       </c>
       <c r="N138" t="s">
-        <v>507</v>
-      </c>
-      <c r="O138" t="s">
-        <v>515</v>
-      </c>
-      <c r="P138" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>507</v>
       </c>
@@ -9795,31 +8911,25 @@
         <v>517</v>
       </c>
       <c r="G139" t="s">
+        <v>659</v>
+      </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
+      <c r="I139" t="s">
+        <v>691</v>
+      </c>
+      <c r="L139" t="s">
         <v>507</v>
       </c>
-      <c r="H139" t="s">
+      <c r="M139" t="s">
         <v>515</v>
       </c>
-      <c r="I139" t="s">
-        <v>659</v>
-      </c>
-      <c r="J139" t="s">
-        <v>66</v>
-      </c>
-      <c r="K139" t="s">
-        <v>691</v>
-      </c>
       <c r="N139" t="s">
-        <v>507</v>
-      </c>
-      <c r="O139" t="s">
-        <v>515</v>
-      </c>
-      <c r="P139" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:14">
       <c r="D140" t="s">
         <v>507</v>
       </c>
@@ -9830,25 +8940,19 @@
         <v>668</v>
       </c>
       <c r="G140" t="s">
-        <v>507</v>
+        <v>924</v>
       </c>
       <c r="H140" t="s">
-        <v>515</v>
+        <v>925</v>
       </c>
       <c r="I140" t="s">
-        <v>924</v>
+        <v>697</v>
       </c>
       <c r="J140" t="s">
-        <v>925</v>
-      </c>
-      <c r="K140" t="s">
-        <v>697</v>
-      </c>
-      <c r="L140" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>519</v>
       </c>
@@ -9868,34 +8972,28 @@
         <v>523</v>
       </c>
       <c r="G141" t="s">
+        <v>924</v>
+      </c>
+      <c r="H141" t="s">
+        <v>925</v>
+      </c>
+      <c r="I141" t="s">
+        <v>697</v>
+      </c>
+      <c r="J141" t="s">
+        <v>524</v>
+      </c>
+      <c r="L141" t="s">
         <v>519</v>
       </c>
-      <c r="H141" t="s">
-        <v>522</v>
-      </c>
-      <c r="I141" t="s">
-        <v>924</v>
-      </c>
-      <c r="J141" t="s">
-        <v>925</v>
-      </c>
-      <c r="K141" t="s">
-        <v>697</v>
-      </c>
-      <c r="L141" t="s">
-        <v>524</v>
+      <c r="M141" t="s">
+        <v>959</v>
       </c>
       <c r="N141" t="s">
-        <v>519</v>
-      </c>
-      <c r="O141" t="s">
-        <v>959</v>
-      </c>
-      <c r="P141" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>525</v>
       </c>
@@ -9915,31 +9013,25 @@
         <v>529</v>
       </c>
       <c r="G142" t="s">
+        <v>659</v>
+      </c>
+      <c r="H142" t="s">
+        <v>66</v>
+      </c>
+      <c r="I142" t="s">
+        <v>697</v>
+      </c>
+      <c r="L142" t="s">
         <v>525</v>
       </c>
-      <c r="H142" t="s">
-        <v>528</v>
-      </c>
-      <c r="I142" t="s">
-        <v>659</v>
-      </c>
-      <c r="J142" t="s">
-        <v>66</v>
-      </c>
-      <c r="K142" t="s">
-        <v>697</v>
+      <c r="M142" t="s">
+        <v>530</v>
       </c>
       <c r="N142" t="s">
-        <v>525</v>
-      </c>
-      <c r="O142" t="s">
-        <v>530</v>
-      </c>
-      <c r="P142" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>525</v>
       </c>
@@ -9959,25 +9051,19 @@
         <v>533</v>
       </c>
       <c r="G143" t="s">
-        <v>525</v>
+        <v>659</v>
       </c>
       <c r="H143" t="s">
-        <v>532</v>
+        <v>66</v>
       </c>
       <c r="I143" t="s">
-        <v>659</v>
+        <v>697</v>
       </c>
       <c r="J143" t="s">
-        <v>66</v>
-      </c>
-      <c r="K143" t="s">
-        <v>697</v>
-      </c>
-      <c r="L143" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>525</v>
       </c>
@@ -9997,22 +9083,16 @@
         <v>534</v>
       </c>
       <c r="G144" t="s">
-        <v>525</v>
+        <v>657</v>
       </c>
       <c r="H144" t="s">
-        <v>532</v>
+        <v>662</v>
       </c>
       <c r="I144" t="s">
-        <v>657</v>
-      </c>
-      <c r="J144" t="s">
-        <v>662</v>
-      </c>
-      <c r="K144" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>525</v>
       </c>
@@ -10032,22 +9112,16 @@
         <v>541</v>
       </c>
       <c r="G145" t="s">
-        <v>525</v>
+        <v>659</v>
       </c>
       <c r="H145" t="s">
-        <v>540</v>
+        <v>66</v>
       </c>
       <c r="I145" t="s">
-        <v>659</v>
-      </c>
-      <c r="J145" t="s">
-        <v>66</v>
-      </c>
-      <c r="K145" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:14">
       <c r="D146" t="s">
         <v>525</v>
       </c>
@@ -10058,25 +9132,19 @@
         <v>768</v>
       </c>
       <c r="G146" t="s">
-        <v>525</v>
+        <v>924</v>
       </c>
       <c r="H146" t="s">
-        <v>545</v>
+        <v>925</v>
       </c>
       <c r="I146" t="s">
-        <v>924</v>
+        <v>699</v>
       </c>
       <c r="J146" t="s">
-        <v>925</v>
-      </c>
-      <c r="K146" t="s">
-        <v>699</v>
-      </c>
-      <c r="L146" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>525</v>
       </c>
@@ -10096,25 +9164,19 @@
         <v>546</v>
       </c>
       <c r="G147" t="s">
-        <v>525</v>
+        <v>924</v>
       </c>
       <c r="H147" t="s">
-        <v>545</v>
+        <v>925</v>
       </c>
       <c r="I147" t="s">
-        <v>924</v>
+        <v>699</v>
       </c>
       <c r="J147" t="s">
-        <v>925</v>
-      </c>
-      <c r="K147" t="s">
-        <v>699</v>
-      </c>
-      <c r="L147" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>525</v>
       </c>
@@ -10134,25 +9196,19 @@
         <v>551</v>
       </c>
       <c r="G148" t="s">
-        <v>525</v>
+        <v>924</v>
       </c>
       <c r="H148" t="s">
-        <v>550</v>
+        <v>925</v>
       </c>
       <c r="I148" t="s">
-        <v>924</v>
+        <v>700</v>
       </c>
       <c r="J148" t="s">
-        <v>925</v>
-      </c>
-      <c r="K148" t="s">
-        <v>700</v>
-      </c>
-      <c r="L148" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>525</v>
       </c>
@@ -10172,25 +9228,19 @@
         <v>555</v>
       </c>
       <c r="G149" t="s">
-        <v>525</v>
+        <v>924</v>
       </c>
       <c r="H149" t="s">
-        <v>554</v>
+        <v>925</v>
       </c>
       <c r="I149" t="s">
-        <v>924</v>
+        <v>700</v>
       </c>
       <c r="J149" t="s">
-        <v>925</v>
-      </c>
-      <c r="K149" t="s">
-        <v>700</v>
-      </c>
-      <c r="L149" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:14">
       <c r="D150" t="s">
         <v>525</v>
       </c>
@@ -10201,25 +9251,19 @@
         <v>558</v>
       </c>
       <c r="G150" t="s">
-        <v>525</v>
+        <v>924</v>
       </c>
       <c r="H150" t="s">
-        <v>557</v>
+        <v>925</v>
       </c>
       <c r="I150" t="s">
-        <v>924</v>
+        <v>700</v>
       </c>
       <c r="J150" t="s">
-        <v>925</v>
-      </c>
-      <c r="K150" t="s">
-        <v>700</v>
-      </c>
-      <c r="L150" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:14">
       <c r="D151" t="s">
         <v>525</v>
       </c>
@@ -10230,25 +9274,19 @@
         <v>560</v>
       </c>
       <c r="G151" t="s">
-        <v>525</v>
+        <v>924</v>
       </c>
       <c r="H151" t="s">
-        <v>559</v>
+        <v>925</v>
       </c>
       <c r="I151" t="s">
-        <v>924</v>
+        <v>700</v>
       </c>
       <c r="J151" t="s">
-        <v>925</v>
-      </c>
-      <c r="K151" t="s">
-        <v>700</v>
-      </c>
-      <c r="L151" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>525</v>
       </c>
@@ -10268,34 +9306,28 @@
         <v>565</v>
       </c>
       <c r="G152" t="s">
+        <v>924</v>
+      </c>
+      <c r="H152" t="s">
+        <v>925</v>
+      </c>
+      <c r="I152" t="s">
+        <v>700</v>
+      </c>
+      <c r="J152" t="s">
+        <v>562</v>
+      </c>
+      <c r="L152" t="s">
         <v>525</v>
       </c>
-      <c r="H152" t="s">
-        <v>557</v>
-      </c>
-      <c r="I152" t="s">
-        <v>924</v>
-      </c>
-      <c r="J152" t="s">
-        <v>925</v>
-      </c>
-      <c r="K152" t="s">
-        <v>700</v>
-      </c>
-      <c r="L152" t="s">
-        <v>562</v>
+      <c r="M152" t="s">
+        <v>563</v>
       </c>
       <c r="N152" t="s">
-        <v>525</v>
-      </c>
-      <c r="O152" t="s">
-        <v>563</v>
-      </c>
-      <c r="P152" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>525</v>
       </c>
@@ -10315,22 +9347,16 @@
         <v>569</v>
       </c>
       <c r="G153" t="s">
-        <v>525</v>
+        <v>659</v>
       </c>
       <c r="H153" t="s">
-        <v>532</v>
+        <v>66</v>
       </c>
       <c r="I153" t="s">
-        <v>659</v>
-      </c>
-      <c r="J153" t="s">
-        <v>66</v>
-      </c>
-      <c r="K153" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>717</v>
       </c>
@@ -10350,31 +9376,25 @@
         <v>721</v>
       </c>
       <c r="G154" t="s">
+        <v>657</v>
+      </c>
+      <c r="H154" t="s">
+        <v>662</v>
+      </c>
+      <c r="I154" t="s">
+        <v>691</v>
+      </c>
+      <c r="L154" t="s">
         <v>717</v>
       </c>
-      <c r="H154" t="s">
+      <c r="M154" t="s">
         <v>720</v>
       </c>
-      <c r="I154" t="s">
-        <v>657</v>
-      </c>
-      <c r="J154" t="s">
-        <v>662</v>
-      </c>
-      <c r="K154" t="s">
-        <v>691</v>
-      </c>
       <c r="N154" t="s">
-        <v>717</v>
-      </c>
-      <c r="O154" t="s">
-        <v>720</v>
-      </c>
-      <c r="P154" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>588</v>
       </c>
@@ -10394,22 +9414,16 @@
         <v>596</v>
       </c>
       <c r="G155" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="H155" t="s">
-        <v>595</v>
+        <v>66</v>
       </c>
       <c r="I155" t="s">
-        <v>659</v>
-      </c>
-      <c r="J155" t="s">
-        <v>66</v>
-      </c>
-      <c r="K155" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>588</v>
       </c>
@@ -10429,22 +9443,16 @@
         <v>598</v>
       </c>
       <c r="G156" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="H156" t="s">
-        <v>597</v>
+        <v>662</v>
       </c>
       <c r="I156" t="s">
-        <v>657</v>
-      </c>
-      <c r="J156" t="s">
-        <v>662</v>
-      </c>
-      <c r="K156" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>588</v>
       </c>
@@ -10464,22 +9472,16 @@
         <v>600</v>
       </c>
       <c r="G157" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="H157" t="s">
-        <v>599</v>
+        <v>66</v>
       </c>
       <c r="I157" t="s">
-        <v>659</v>
-      </c>
-      <c r="J157" t="s">
-        <v>66</v>
-      </c>
-      <c r="K157" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:14">
       <c r="D158" t="s">
         <v>588</v>
       </c>
@@ -10490,25 +9492,19 @@
         <v>601</v>
       </c>
       <c r="G158" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="H158" t="s">
-        <v>599</v>
+        <v>66</v>
       </c>
       <c r="I158" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="J158" t="s">
-        <v>66</v>
-      </c>
-      <c r="K158" t="s">
-        <v>704</v>
-      </c>
-      <c r="L158" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>588</v>
       </c>
@@ -10528,25 +9524,19 @@
         <v>606</v>
       </c>
       <c r="G159" t="s">
-        <v>588</v>
+        <v>924</v>
       </c>
       <c r="H159" t="s">
-        <v>605</v>
+        <v>925</v>
       </c>
       <c r="I159" t="s">
-        <v>924</v>
+        <v>682</v>
       </c>
       <c r="J159" t="s">
-        <v>925</v>
-      </c>
-      <c r="K159" t="s">
-        <v>682</v>
-      </c>
-      <c r="L159" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>608</v>
       </c>
@@ -10566,22 +9556,16 @@
         <v>612</v>
       </c>
       <c r="G160" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="H160" t="s">
-        <v>611</v>
+        <v>66</v>
       </c>
       <c r="I160" t="s">
-        <v>659</v>
-      </c>
-      <c r="J160" t="s">
-        <v>66</v>
-      </c>
-      <c r="K160" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>608</v>
       </c>
@@ -10601,22 +9585,16 @@
         <v>616</v>
       </c>
       <c r="G161" t="s">
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="H161" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="I161" t="s">
-        <v>660</v>
-      </c>
-      <c r="J161" t="s">
-        <v>661</v>
-      </c>
-      <c r="K161" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>617</v>
       </c>
@@ -10636,22 +9614,16 @@
         <v>621</v>
       </c>
       <c r="G162" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="H162" t="s">
-        <v>620</v>
+        <v>661</v>
       </c>
       <c r="I162" t="s">
-        <v>660</v>
-      </c>
-      <c r="J162" t="s">
-        <v>661</v>
-      </c>
-      <c r="K162" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>622</v>
       </c>
@@ -10671,49 +9643,43 @@
         <v>624</v>
       </c>
       <c r="G163" t="s">
+        <v>660</v>
+      </c>
+      <c r="H163" t="s">
+        <v>661</v>
+      </c>
+      <c r="I163" t="s">
+        <v>680</v>
+      </c>
+      <c r="L163" t="s">
         <v>622</v>
       </c>
-      <c r="H163" t="s">
+      <c r="M163" t="s">
         <v>288</v>
       </c>
-      <c r="I163" t="s">
-        <v>660</v>
-      </c>
-      <c r="J163" t="s">
-        <v>661</v>
-      </c>
-      <c r="K163" t="s">
-        <v>680</v>
-      </c>
       <c r="N163" t="s">
+        <v>625</v>
+      </c>
+      <c r="O163" t="s">
         <v>622</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>626</v>
+      </c>
+      <c r="R163" t="s">
+        <v>622</v>
+      </c>
+      <c r="S163" t="s">
         <v>288</v>
       </c>
-      <c r="P163" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>622</v>
-      </c>
-      <c r="R163" t="s">
-        <v>292</v>
-      </c>
-      <c r="S163" t="s">
-        <v>626</v>
-      </c>
       <c r="T163" t="s">
-        <v>622</v>
-      </c>
-      <c r="U163" t="s">
-        <v>288</v>
-      </c>
-      <c r="V163" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>627</v>
       </c>
@@ -10733,25 +9699,19 @@
         <v>628</v>
       </c>
       <c r="G164" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="H164" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I164" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J164" t="s">
-        <v>66</v>
-      </c>
-      <c r="K164" t="s">
-        <v>686</v>
-      </c>
-      <c r="L164" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:20">
       <c r="D165" t="s">
         <v>627</v>
       </c>
@@ -10762,25 +9722,19 @@
         <v>630</v>
       </c>
       <c r="G165" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="H165" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I165" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="J165" t="s">
-        <v>66</v>
-      </c>
-      <c r="K165" t="s">
-        <v>686</v>
-      </c>
-      <c r="L165" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>627</v>
       </c>
@@ -10800,22 +9754,16 @@
         <v>629</v>
       </c>
       <c r="G166" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="H166" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I166" t="s">
-        <v>659</v>
-      </c>
-      <c r="J166" t="s">
-        <v>66</v>
-      </c>
-      <c r="K166" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>287</v>
       </c>
@@ -10835,25 +9783,19 @@
         <v>635</v>
       </c>
       <c r="G167" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="H167" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I167" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="J167" t="s">
-        <v>66</v>
-      </c>
-      <c r="K167" t="s">
-        <v>683</v>
-      </c>
-      <c r="L167" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>627</v>
       </c>
@@ -10873,25 +9815,19 @@
         <v>636</v>
       </c>
       <c r="G168" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="H168" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="I168" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="J168" t="s">
-        <v>66</v>
-      </c>
-      <c r="K168" t="s">
-        <v>683</v>
-      </c>
-      <c r="L168" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>627</v>
       </c>
@@ -10911,31 +9847,25 @@
         <v>638</v>
       </c>
       <c r="G169" t="s">
+        <v>660</v>
+      </c>
+      <c r="H169" t="s">
+        <v>661</v>
+      </c>
+      <c r="I169" t="s">
+        <v>680</v>
+      </c>
+      <c r="L169" t="s">
         <v>627</v>
       </c>
-      <c r="H169" t="s">
+      <c r="M169" t="s">
         <v>288</v>
       </c>
-      <c r="I169" t="s">
-        <v>660</v>
-      </c>
-      <c r="J169" t="s">
-        <v>661</v>
-      </c>
-      <c r="K169" t="s">
-        <v>680</v>
-      </c>
       <c r="N169" t="s">
-        <v>627</v>
-      </c>
-      <c r="O169" t="s">
-        <v>288</v>
-      </c>
-      <c r="P169" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>478</v>
       </c>
@@ -10955,40 +9885,34 @@
         <v>480</v>
       </c>
       <c r="G170" t="s">
+        <v>659</v>
+      </c>
+      <c r="H170" t="s">
+        <v>66</v>
+      </c>
+      <c r="I170" t="s">
+        <v>696</v>
+      </c>
+      <c r="L170" t="s">
         <v>478</v>
       </c>
-      <c r="H170" t="s">
+      <c r="M170" t="s">
         <v>479</v>
       </c>
-      <c r="I170" t="s">
-        <v>659</v>
-      </c>
-      <c r="J170" t="s">
-        <v>66</v>
-      </c>
-      <c r="K170" t="s">
-        <v>696</v>
-      </c>
       <c r="N170" t="s">
+        <v>481</v>
+      </c>
+      <c r="O170" t="s">
         <v>478</v>
       </c>
-      <c r="O170" t="s">
+      <c r="P170" t="s">
         <v>479</v>
       </c>
-      <c r="P170" t="s">
-        <v>481</v>
-      </c>
       <c r="Q170" t="s">
-        <v>478</v>
-      </c>
-      <c r="R170" t="s">
-        <v>479</v>
-      </c>
-      <c r="S170" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:20">
       <c r="D171" t="s">
         <v>478</v>
       </c>
@@ -10999,31 +9923,25 @@
         <v>643</v>
       </c>
       <c r="G171" t="s">
+        <v>927</v>
+      </c>
+      <c r="H171" t="s">
+        <v>920</v>
+      </c>
+      <c r="I171" t="s">
+        <v>696</v>
+      </c>
+      <c r="L171" t="s">
         <v>478</v>
       </c>
-      <c r="H171" t="s">
+      <c r="M171" t="s">
         <v>642</v>
       </c>
-      <c r="I171" t="s">
-        <v>927</v>
-      </c>
-      <c r="J171" t="s">
-        <v>920</v>
-      </c>
-      <c r="K171" t="s">
-        <v>696</v>
-      </c>
       <c r="N171" t="s">
-        <v>478</v>
-      </c>
-      <c r="O171" t="s">
-        <v>642</v>
-      </c>
-      <c r="P171" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>478</v>
       </c>
@@ -11043,22 +9961,16 @@
         <v>648</v>
       </c>
       <c r="G172" t="s">
-        <v>478</v>
+        <v>658</v>
       </c>
       <c r="H172" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="I172" t="s">
-        <v>658</v>
-      </c>
-      <c r="J172" t="s">
-        <v>661</v>
-      </c>
-      <c r="K172" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>650</v>
       </c>
@@ -11078,25 +9990,19 @@
         <v>653</v>
       </c>
       <c r="G173" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H173" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="I173" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="J173" t="s">
-        <v>662</v>
-      </c>
-      <c r="K173" t="s">
-        <v>682</v>
-      </c>
-      <c r="L173" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:20">
       <c r="D174" t="s">
         <v>650</v>
       </c>
@@ -11107,25 +10013,19 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
-        <v>650</v>
+        <v>924</v>
       </c>
       <c r="H174" t="s">
-        <v>652</v>
+        <v>925</v>
       </c>
       <c r="I174" t="s">
-        <v>924</v>
+        <v>682</v>
       </c>
       <c r="J174" t="s">
-        <v>925</v>
-      </c>
-      <c r="K174" t="s">
-        <v>682</v>
-      </c>
-      <c r="L174" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:20">
       <c r="D175" t="s">
         <v>650</v>
       </c>
@@ -11136,25 +10036,19 @@
         <v>656</v>
       </c>
       <c r="G175" t="s">
-        <v>650</v>
+        <v>924</v>
       </c>
       <c r="H175" t="s">
-        <v>652</v>
+        <v>925</v>
       </c>
       <c r="I175" t="s">
-        <v>924</v>
+        <v>682</v>
       </c>
       <c r="J175" t="s">
-        <v>925</v>
-      </c>
-      <c r="K175" t="s">
-        <v>682</v>
-      </c>
-      <c r="L175" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>670</v>
       </c>
@@ -11164,17 +10058,17 @@
       <c r="C176" t="s">
         <v>672</v>
       </c>
+      <c r="G176" t="s">
+        <v>928</v>
+      </c>
+      <c r="H176" t="s">
+        <v>929</v>
+      </c>
       <c r="I176" t="s">
-        <v>928</v>
-      </c>
-      <c r="J176" t="s">
-        <v>929</v>
-      </c>
-      <c r="K176" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>673</v>
       </c>
@@ -11184,17 +10078,17 @@
       <c r="C177" t="s">
         <v>675</v>
       </c>
+      <c r="G177" t="s">
+        <v>928</v>
+      </c>
+      <c r="H177" t="s">
+        <v>929</v>
+      </c>
       <c r="I177" t="s">
-        <v>928</v>
-      </c>
-      <c r="J177" t="s">
-        <v>929</v>
-      </c>
-      <c r="K177" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>676</v>
       </c>
@@ -11204,14 +10098,14 @@
       <c r="C178" t="s">
         <v>678</v>
       </c>
-      <c r="I178" t="s">
+      <c r="G178" t="s">
         <v>928</v>
       </c>
-      <c r="J178" t="s">
+      <c r="H178" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:14">
       <c r="D179" t="s">
         <v>323</v>
       </c>
@@ -11222,31 +10116,25 @@
         <v>709</v>
       </c>
       <c r="G179" t="s">
+        <v>659</v>
+      </c>
+      <c r="H179" t="s">
+        <v>66</v>
+      </c>
+      <c r="I179" t="s">
+        <v>702</v>
+      </c>
+      <c r="L179" t="s">
         <v>323</v>
       </c>
-      <c r="H179" t="s">
+      <c r="M179" t="s">
         <v>348</v>
       </c>
-      <c r="I179" t="s">
-        <v>659</v>
-      </c>
-      <c r="J179" t="s">
-        <v>66</v>
-      </c>
-      <c r="K179" t="s">
-        <v>702</v>
-      </c>
       <c r="N179" t="s">
-        <v>323</v>
-      </c>
-      <c r="O179" t="s">
-        <v>348</v>
-      </c>
-      <c r="P179" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>608</v>
       </c>
@@ -11266,22 +10154,16 @@
         <v>732</v>
       </c>
       <c r="G180" t="s">
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="H180" t="s">
-        <v>731</v>
+        <v>661</v>
       </c>
       <c r="I180" t="s">
-        <v>660</v>
-      </c>
-      <c r="J180" t="s">
-        <v>661</v>
-      </c>
-      <c r="K180" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>733</v>
       </c>
@@ -11301,31 +10183,25 @@
         <v>930</v>
       </c>
       <c r="G181" t="s">
+        <v>660</v>
+      </c>
+      <c r="H181" t="s">
+        <v>661</v>
+      </c>
+      <c r="I181" t="s">
+        <v>680</v>
+      </c>
+      <c r="L181" t="s">
         <v>733</v>
       </c>
-      <c r="H181" t="s">
+      <c r="M181" t="s">
         <v>736</v>
       </c>
-      <c r="I181" t="s">
-        <v>660</v>
-      </c>
-      <c r="J181" t="s">
-        <v>661</v>
-      </c>
-      <c r="K181" t="s">
-        <v>680</v>
-      </c>
       <c r="N181" t="s">
-        <v>733</v>
-      </c>
-      <c r="O181" t="s">
-        <v>736</v>
-      </c>
-      <c r="P181" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>737</v>
       </c>
@@ -11345,22 +10221,16 @@
         <v>741</v>
       </c>
       <c r="G182" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H182" t="s">
-        <v>738</v>
+        <v>661</v>
       </c>
       <c r="I182" t="s">
-        <v>742</v>
-      </c>
-      <c r="J182" t="s">
-        <v>661</v>
-      </c>
-      <c r="K182" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>743</v>
       </c>
@@ -11380,22 +10250,16 @@
         <v>746</v>
       </c>
       <c r="G183" t="s">
-        <v>740</v>
+        <v>658</v>
       </c>
       <c r="H183" t="s">
-        <v>745</v>
+        <v>661</v>
       </c>
       <c r="I183" t="s">
-        <v>658</v>
-      </c>
-      <c r="J183" t="s">
-        <v>661</v>
-      </c>
-      <c r="K183" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
         <v>750</v>
       </c>
@@ -11415,22 +10279,16 @@
         <v>754</v>
       </c>
       <c r="G184" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="H184" t="s">
-        <v>753</v>
+        <v>661</v>
       </c>
       <c r="I184" t="s">
-        <v>759</v>
-      </c>
-      <c r="J184" t="s">
-        <v>661</v>
-      </c>
-      <c r="K184" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:14">
       <c r="D185" t="s">
         <v>755</v>
       </c>
@@ -11441,34 +10299,28 @@
         <v>757</v>
       </c>
       <c r="G185" t="s">
+        <v>759</v>
+      </c>
+      <c r="H185" t="s">
+        <v>661</v>
+      </c>
+      <c r="I185" t="s">
+        <v>760</v>
+      </c>
+      <c r="J185" t="s">
+        <v>761</v>
+      </c>
+      <c r="L185" t="s">
         <v>755</v>
       </c>
-      <c r="H185" t="s">
+      <c r="M185" t="s">
         <v>756</v>
       </c>
-      <c r="I185" t="s">
-        <v>759</v>
-      </c>
-      <c r="J185" t="s">
-        <v>661</v>
-      </c>
-      <c r="K185" t="s">
-        <v>760</v>
-      </c>
-      <c r="L185" t="s">
-        <v>761</v>
-      </c>
       <c r="N185" t="s">
-        <v>755</v>
-      </c>
-      <c r="O185" t="s">
-        <v>756</v>
-      </c>
-      <c r="P185" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:14">
       <c r="D186" t="s">
         <v>762</v>
       </c>
@@ -11479,25 +10331,19 @@
         <v>764</v>
       </c>
       <c r="G186" t="s">
-        <v>762</v>
+        <v>902</v>
       </c>
       <c r="H186" t="s">
-        <v>763</v>
+        <v>66</v>
       </c>
       <c r="I186" t="s">
-        <v>902</v>
+        <v>681</v>
       </c>
       <c r="J186" t="s">
-        <v>66</v>
-      </c>
-      <c r="K186" t="s">
-        <v>681</v>
-      </c>
-      <c r="L186" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:14">
       <c r="D187" t="s">
         <v>762</v>
       </c>
@@ -11508,25 +10354,19 @@
         <v>766</v>
       </c>
       <c r="G187" t="s">
-        <v>762</v>
+        <v>902</v>
       </c>
       <c r="H187" t="s">
-        <v>765</v>
+        <v>66</v>
       </c>
       <c r="I187" t="s">
-        <v>902</v>
+        <v>681</v>
       </c>
       <c r="J187" t="s">
-        <v>66</v>
-      </c>
-      <c r="K187" t="s">
-        <v>681</v>
-      </c>
-      <c r="L187" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:14">
       <c r="D188" t="s">
         <v>762</v>
       </c>
@@ -11537,25 +10377,19 @@
         <v>997</v>
       </c>
       <c r="G188" t="s">
-        <v>762</v>
+        <v>902</v>
       </c>
       <c r="H188" t="s">
-        <v>998</v>
+        <v>66</v>
       </c>
       <c r="I188" t="s">
-        <v>902</v>
+        <v>681</v>
       </c>
       <c r="J188" t="s">
-        <v>66</v>
-      </c>
-      <c r="K188" t="s">
-        <v>681</v>
-      </c>
-      <c r="L188" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
         <v>769</v>
       </c>
@@ -11575,25 +10409,19 @@
         <v>773</v>
       </c>
       <c r="G189" t="s">
-        <v>769</v>
+        <v>924</v>
       </c>
       <c r="H189" t="s">
-        <v>772</v>
+        <v>925</v>
       </c>
       <c r="I189" t="s">
-        <v>924</v>
+        <v>682</v>
       </c>
       <c r="J189" t="s">
-        <v>925</v>
-      </c>
-      <c r="K189" t="s">
-        <v>682</v>
-      </c>
-      <c r="L189" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:14">
       <c r="D190" t="s">
         <v>478</v>
       </c>
@@ -11604,31 +10432,25 @@
         <v>780</v>
       </c>
       <c r="G190" t="s">
+        <v>659</v>
+      </c>
+      <c r="H190" t="s">
+        <v>66</v>
+      </c>
+      <c r="I190" t="s">
+        <v>696</v>
+      </c>
+      <c r="L190" t="s">
         <v>478</v>
       </c>
-      <c r="H190" t="s">
+      <c r="M190" t="s">
         <v>779</v>
       </c>
-      <c r="I190" t="s">
-        <v>659</v>
-      </c>
-      <c r="J190" t="s">
-        <v>66</v>
-      </c>
-      <c r="K190" t="s">
-        <v>696</v>
-      </c>
       <c r="N190" t="s">
-        <v>478</v>
-      </c>
-      <c r="O190" t="s">
-        <v>779</v>
-      </c>
-      <c r="P190" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>785</v>
       </c>
@@ -11648,22 +10470,16 @@
         <v>789</v>
       </c>
       <c r="G191" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="H191" t="s">
-        <v>788</v>
+        <v>661</v>
       </c>
       <c r="I191" t="s">
-        <v>790</v>
-      </c>
-      <c r="J191" t="s">
-        <v>661</v>
-      </c>
-      <c r="K191" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
         <v>791</v>
       </c>
@@ -11683,22 +10499,16 @@
         <v>795</v>
       </c>
       <c r="G192" t="s">
-        <v>791</v>
+        <v>659</v>
       </c>
       <c r="H192" t="s">
-        <v>794</v>
+        <v>66</v>
       </c>
       <c r="I192" t="s">
-        <v>659</v>
-      </c>
-      <c r="J192" t="s">
-        <v>66</v>
-      </c>
-      <c r="K192" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="4:12">
+    <row r="193" spans="4:10">
       <c r="D193" t="s">
         <v>570</v>
       </c>
@@ -11709,25 +10519,19 @@
         <v>572</v>
       </c>
       <c r="G193" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H193" t="s">
-        <v>571</v>
+        <v>925</v>
       </c>
       <c r="I193" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J193" t="s">
-        <v>925</v>
-      </c>
-      <c r="K193" t="s">
-        <v>701</v>
-      </c>
-      <c r="L193" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="194" spans="4:12">
+    <row r="194" spans="4:10">
       <c r="D194" t="s">
         <v>570</v>
       </c>
@@ -11738,25 +10542,19 @@
         <v>579</v>
       </c>
       <c r="G194" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H194" t="s">
-        <v>579</v>
+        <v>925</v>
       </c>
       <c r="I194" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J194" t="s">
-        <v>925</v>
-      </c>
-      <c r="K194" t="s">
-        <v>701</v>
-      </c>
-      <c r="L194" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="4:12">
+    <row r="195" spans="4:10">
       <c r="D195" t="s">
         <v>570</v>
       </c>
@@ -11767,25 +10565,19 @@
         <v>797</v>
       </c>
       <c r="G195" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H195" t="s">
-        <v>797</v>
+        <v>925</v>
       </c>
       <c r="I195" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J195" t="s">
-        <v>925</v>
-      </c>
-      <c r="K195" t="s">
-        <v>701</v>
-      </c>
-      <c r="L195" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="196" spans="4:12">
+    <row r="196" spans="4:10">
       <c r="D196" t="s">
         <v>570</v>
       </c>
@@ -11796,25 +10588,19 @@
         <v>798</v>
       </c>
       <c r="G196" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H196" t="s">
-        <v>798</v>
+        <v>925</v>
       </c>
       <c r="I196" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J196" t="s">
-        <v>925</v>
-      </c>
-      <c r="K196" t="s">
-        <v>701</v>
-      </c>
-      <c r="L196" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="4:12">
+    <row r="197" spans="4:10">
       <c r="D197" t="s">
         <v>570</v>
       </c>
@@ -11825,25 +10611,19 @@
         <v>799</v>
       </c>
       <c r="G197" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H197" t="s">
-        <v>799</v>
+        <v>925</v>
       </c>
       <c r="I197" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J197" t="s">
-        <v>925</v>
-      </c>
-      <c r="K197" t="s">
-        <v>701</v>
-      </c>
-      <c r="L197" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="198" spans="4:12">
+    <row r="198" spans="4:10">
       <c r="D198" t="s">
         <v>570</v>
       </c>
@@ -11854,25 +10634,19 @@
         <v>800</v>
       </c>
       <c r="G198" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H198" t="s">
-        <v>800</v>
+        <v>925</v>
       </c>
       <c r="I198" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J198" t="s">
-        <v>925</v>
-      </c>
-      <c r="K198" t="s">
-        <v>701</v>
-      </c>
-      <c r="L198" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="199" spans="4:12">
+    <row r="199" spans="4:10">
       <c r="D199" t="s">
         <v>570</v>
       </c>
@@ -11883,25 +10657,19 @@
         <v>801</v>
       </c>
       <c r="G199" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H199" t="s">
-        <v>801</v>
+        <v>925</v>
       </c>
       <c r="I199" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J199" t="s">
-        <v>925</v>
-      </c>
-      <c r="K199" t="s">
-        <v>701</v>
-      </c>
-      <c r="L199" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="200" spans="4:12">
+    <row r="200" spans="4:10">
       <c r="D200" t="s">
         <v>570</v>
       </c>
@@ -11912,25 +10680,19 @@
         <v>574</v>
       </c>
       <c r="G200" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H200" t="s">
-        <v>573</v>
+        <v>925</v>
       </c>
       <c r="I200" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J200" t="s">
-        <v>925</v>
-      </c>
-      <c r="K200" t="s">
-        <v>701</v>
-      </c>
-      <c r="L200" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="201" spans="4:12">
+    <row r="201" spans="4:10">
       <c r="D201" t="s">
         <v>570</v>
       </c>
@@ -11941,25 +10703,19 @@
         <v>802</v>
       </c>
       <c r="G201" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H201" t="s">
-        <v>802</v>
+        <v>925</v>
       </c>
       <c r="I201" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J201" t="s">
-        <v>925</v>
-      </c>
-      <c r="K201" t="s">
-        <v>701</v>
-      </c>
-      <c r="L201" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="4:12">
+    <row r="202" spans="4:10">
       <c r="D202" t="s">
         <v>570</v>
       </c>
@@ -11970,25 +10726,19 @@
         <v>580</v>
       </c>
       <c r="G202" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H202" t="s">
-        <v>580</v>
+        <v>925</v>
       </c>
       <c r="I202" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J202" t="s">
-        <v>925</v>
-      </c>
-      <c r="K202" t="s">
-        <v>701</v>
-      </c>
-      <c r="L202" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="203" spans="4:12">
+    <row r="203" spans="4:10">
       <c r="D203" t="s">
         <v>570</v>
       </c>
@@ -11999,25 +10749,19 @@
         <v>581</v>
       </c>
       <c r="G203" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H203" t="s">
-        <v>581</v>
+        <v>925</v>
       </c>
       <c r="I203" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J203" t="s">
-        <v>925</v>
-      </c>
-      <c r="K203" t="s">
-        <v>701</v>
-      </c>
-      <c r="L203" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="204" spans="4:12">
+    <row r="204" spans="4:10">
       <c r="D204" t="s">
         <v>570</v>
       </c>
@@ -12028,25 +10772,19 @@
         <v>582</v>
       </c>
       <c r="G204" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H204" t="s">
-        <v>582</v>
+        <v>925</v>
       </c>
       <c r="I204" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J204" t="s">
-        <v>925</v>
-      </c>
-      <c r="K204" t="s">
-        <v>701</v>
-      </c>
-      <c r="L204" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="205" spans="4:12">
+    <row r="205" spans="4:10">
       <c r="D205" t="s">
         <v>570</v>
       </c>
@@ -12057,25 +10795,19 @@
         <v>803</v>
       </c>
       <c r="G205" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H205" t="s">
-        <v>803</v>
+        <v>925</v>
       </c>
       <c r="I205" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J205" t="s">
-        <v>925</v>
-      </c>
-      <c r="K205" t="s">
-        <v>701</v>
-      </c>
-      <c r="L205" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="206" spans="4:12">
+    <row r="206" spans="4:10">
       <c r="D206" t="s">
         <v>570</v>
       </c>
@@ -12086,25 +10818,19 @@
         <v>804</v>
       </c>
       <c r="G206" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H206" t="s">
-        <v>804</v>
+        <v>925</v>
       </c>
       <c r="I206" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J206" t="s">
-        <v>925</v>
-      </c>
-      <c r="K206" t="s">
-        <v>701</v>
-      </c>
-      <c r="L206" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="207" spans="4:12">
+    <row r="207" spans="4:10">
       <c r="D207" t="s">
         <v>570</v>
       </c>
@@ -12115,25 +10841,19 @@
         <v>805</v>
       </c>
       <c r="G207" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H207" t="s">
-        <v>805</v>
+        <v>925</v>
       </c>
       <c r="I207" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J207" t="s">
-        <v>925</v>
-      </c>
-      <c r="K207" t="s">
-        <v>701</v>
-      </c>
-      <c r="L207" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="208" spans="4:12">
+    <row r="208" spans="4:10">
       <c r="D208" t="s">
         <v>570</v>
       </c>
@@ -12144,25 +10864,19 @@
         <v>796</v>
       </c>
       <c r="G208" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H208" t="s">
-        <v>796</v>
+        <v>925</v>
       </c>
       <c r="I208" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J208" t="s">
-        <v>925</v>
-      </c>
-      <c r="K208" t="s">
-        <v>701</v>
-      </c>
-      <c r="L208" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:14">
       <c r="D209" t="s">
         <v>570</v>
       </c>
@@ -12173,25 +10887,19 @@
         <v>583</v>
       </c>
       <c r="G209" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H209" t="s">
-        <v>583</v>
+        <v>925</v>
       </c>
       <c r="I209" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J209" t="s">
-        <v>925</v>
-      </c>
-      <c r="K209" t="s">
-        <v>701</v>
-      </c>
-      <c r="L209" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:14">
       <c r="D210" t="s">
         <v>570</v>
       </c>
@@ -12202,25 +10910,19 @@
         <v>584</v>
       </c>
       <c r="G210" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H210" t="s">
-        <v>584</v>
+        <v>925</v>
       </c>
       <c r="I210" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J210" t="s">
-        <v>925</v>
-      </c>
-      <c r="K210" t="s">
-        <v>701</v>
-      </c>
-      <c r="L210" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>570</v>
       </c>
@@ -12240,25 +10942,19 @@
         <v>885</v>
       </c>
       <c r="G211" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H211" t="s">
-        <v>884</v>
+        <v>925</v>
       </c>
       <c r="I211" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J211" t="s">
-        <v>925</v>
-      </c>
-      <c r="K211" t="s">
-        <v>701</v>
-      </c>
-      <c r="L211" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
         <v>570</v>
       </c>
@@ -12278,22 +10974,16 @@
         <v>578</v>
       </c>
       <c r="G212" t="s">
-        <v>570</v>
+        <v>659</v>
       </c>
       <c r="H212" t="s">
-        <v>577</v>
+        <v>66</v>
       </c>
       <c r="I212" t="s">
-        <v>659</v>
-      </c>
-      <c r="J212" t="s">
-        <v>66</v>
-      </c>
-      <c r="K212" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:14">
       <c r="A213" t="s">
         <v>570</v>
       </c>
@@ -12313,22 +11003,16 @@
         <v>586</v>
       </c>
       <c r="G213" t="s">
-        <v>570</v>
+        <v>659</v>
       </c>
       <c r="H213" t="s">
-        <v>577</v>
+        <v>66</v>
       </c>
       <c r="I213" t="s">
-        <v>659</v>
-      </c>
-      <c r="J213" t="s">
-        <v>66</v>
-      </c>
-      <c r="K213" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:14">
       <c r="D214" t="s">
         <v>124</v>
       </c>
@@ -12339,25 +11023,19 @@
         <v>807</v>
       </c>
       <c r="G214" t="s">
-        <v>124</v>
+        <v>659</v>
       </c>
       <c r="H214" t="s">
-        <v>806</v>
+        <v>66</v>
       </c>
       <c r="I214" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="J214" t="s">
-        <v>66</v>
-      </c>
-      <c r="K214" t="s">
-        <v>683</v>
-      </c>
-      <c r="L214" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>588</v>
       </c>
@@ -12367,20 +11045,20 @@
       <c r="C215" t="s">
         <v>809</v>
       </c>
+      <c r="G215" t="s">
+        <v>924</v>
+      </c>
+      <c r="H215" t="s">
+        <v>925</v>
+      </c>
       <c r="I215" t="s">
-        <v>924</v>
+        <v>691</v>
       </c>
       <c r="J215" t="s">
-        <v>925</v>
-      </c>
-      <c r="K215" t="s">
-        <v>691</v>
-      </c>
-      <c r="L215" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>811</v>
       </c>
@@ -12400,22 +11078,16 @@
         <v>814</v>
       </c>
       <c r="G216" t="s">
-        <v>717</v>
+        <v>816</v>
       </c>
       <c r="H216" t="s">
-        <v>812</v>
+        <v>661</v>
       </c>
       <c r="I216" t="s">
-        <v>816</v>
-      </c>
-      <c r="J216" t="s">
-        <v>661</v>
-      </c>
-      <c r="K216" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
         <v>737</v>
       </c>
@@ -12425,26 +11097,26 @@
       <c r="C217" t="s">
         <v>819</v>
       </c>
+      <c r="G217" t="s">
+        <v>742</v>
+      </c>
+      <c r="H217" t="s">
+        <v>661</v>
+      </c>
       <c r="I217" t="s">
-        <v>742</v>
-      </c>
-      <c r="J217" t="s">
-        <v>661</v>
-      </c>
-      <c r="K217" t="s">
         <v>820</v>
       </c>
+      <c r="L217" t="s">
+        <v>818</v>
+      </c>
+      <c r="M217" t="s">
+        <v>740</v>
+      </c>
       <c r="N217" t="s">
-        <v>818</v>
-      </c>
-      <c r="O217" t="s">
-        <v>740</v>
-      </c>
-      <c r="P217" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:14">
       <c r="A218" t="s">
         <v>627</v>
       </c>
@@ -12454,17 +11126,17 @@
       <c r="C218" t="s">
         <v>822</v>
       </c>
+      <c r="G218" t="s">
+        <v>742</v>
+      </c>
+      <c r="H218" t="s">
+        <v>661</v>
+      </c>
       <c r="I218" t="s">
-        <v>742</v>
-      </c>
-      <c r="J218" t="s">
-        <v>661</v>
-      </c>
-      <c r="K218" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:14">
       <c r="D219" t="s">
         <v>823</v>
       </c>
@@ -12475,22 +11147,16 @@
         <v>825</v>
       </c>
       <c r="G219" t="s">
-        <v>823</v>
+        <v>659</v>
       </c>
       <c r="H219" t="s">
-        <v>824</v>
+        <v>66</v>
       </c>
       <c r="I219" t="s">
-        <v>659</v>
-      </c>
-      <c r="J219" t="s">
-        <v>66</v>
-      </c>
-      <c r="K219" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:14">
       <c r="D220" t="s">
         <v>826</v>
       </c>
@@ -12501,22 +11167,16 @@
         <v>828</v>
       </c>
       <c r="G220" t="s">
-        <v>826</v>
+        <v>659</v>
       </c>
       <c r="H220" t="s">
-        <v>827</v>
+        <v>66</v>
       </c>
       <c r="I220" t="s">
-        <v>659</v>
-      </c>
-      <c r="J220" t="s">
-        <v>66</v>
-      </c>
-      <c r="K220" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:14">
       <c r="D221" t="s">
         <v>829</v>
       </c>
@@ -12527,22 +11187,16 @@
         <v>831</v>
       </c>
       <c r="G221" t="s">
-        <v>829</v>
+        <v>659</v>
       </c>
       <c r="H221" t="s">
-        <v>830</v>
+        <v>66</v>
       </c>
       <c r="I221" t="s">
-        <v>659</v>
-      </c>
-      <c r="J221" t="s">
-        <v>66</v>
-      </c>
-      <c r="K221" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:14">
       <c r="A222" t="s">
         <v>305</v>
       </c>
@@ -12552,17 +11206,17 @@
       <c r="C222" t="s">
         <v>832</v>
       </c>
+      <c r="G222" t="s">
+        <v>657</v>
+      </c>
+      <c r="H222" t="s">
+        <v>662</v>
+      </c>
       <c r="I222" t="s">
-        <v>657</v>
-      </c>
-      <c r="J222" t="s">
-        <v>662</v>
-      </c>
-      <c r="K222" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:14">
       <c r="D223" t="s">
         <v>468</v>
       </c>
@@ -12573,25 +11227,19 @@
         <v>833</v>
       </c>
       <c r="G223" t="s">
-        <v>468</v>
+        <v>903</v>
       </c>
       <c r="H223" t="s">
-        <v>471</v>
+        <v>904</v>
       </c>
       <c r="I223" t="s">
-        <v>903</v>
+        <v>696</v>
       </c>
       <c r="J223" t="s">
-        <v>904</v>
-      </c>
-      <c r="K223" t="s">
-        <v>696</v>
-      </c>
-      <c r="L223" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:14">
       <c r="D224" t="s">
         <v>461</v>
       </c>
@@ -12602,22 +11250,16 @@
         <v>834</v>
       </c>
       <c r="G224" t="s">
-        <v>461</v>
+        <v>659</v>
       </c>
       <c r="H224" t="s">
-        <v>464</v>
+        <v>66</v>
       </c>
       <c r="I224" t="s">
-        <v>659</v>
-      </c>
-      <c r="J224" t="s">
-        <v>66</v>
-      </c>
-      <c r="K224" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
         <v>839</v>
       </c>
@@ -12637,22 +11279,16 @@
         <v>891</v>
       </c>
       <c r="G225" t="s">
-        <v>839</v>
+        <v>659</v>
       </c>
       <c r="H225" t="s">
-        <v>840</v>
+        <v>66</v>
       </c>
       <c r="I225" t="s">
-        <v>659</v>
-      </c>
-      <c r="J225" t="s">
-        <v>66</v>
-      </c>
-      <c r="K225" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
         <v>842</v>
       </c>
@@ -12662,17 +11298,17 @@
       <c r="C226" t="s">
         <v>844</v>
       </c>
+      <c r="G226" t="s">
+        <v>657</v>
+      </c>
+      <c r="H226" t="s">
+        <v>662</v>
+      </c>
       <c r="I226" t="s">
-        <v>657</v>
-      </c>
-      <c r="J226" t="s">
-        <v>662</v>
-      </c>
-      <c r="K226" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:14">
       <c r="D227" t="s">
         <v>845</v>
       </c>
@@ -12683,22 +11319,16 @@
         <v>847</v>
       </c>
       <c r="G227" t="s">
-        <v>845</v>
+        <v>659</v>
       </c>
       <c r="H227" t="s">
-        <v>846</v>
+        <v>66</v>
       </c>
       <c r="I227" t="s">
-        <v>659</v>
-      </c>
-      <c r="J227" t="s">
-        <v>66</v>
-      </c>
-      <c r="K227" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:14">
       <c r="D228" t="s">
         <v>161</v>
       </c>
@@ -12709,22 +11339,16 @@
         <v>849</v>
       </c>
       <c r="G228" t="s">
-        <v>161</v>
+        <v>659</v>
       </c>
       <c r="H228" t="s">
-        <v>848</v>
+        <v>66</v>
       </c>
       <c r="I228" t="s">
-        <v>659</v>
-      </c>
-      <c r="J228" t="s">
-        <v>66</v>
-      </c>
-      <c r="K228" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:14">
       <c r="D229" t="s">
         <v>277</v>
       </c>
@@ -12735,22 +11359,16 @@
         <v>851</v>
       </c>
       <c r="G229" t="s">
-        <v>277</v>
+        <v>659</v>
       </c>
       <c r="H229" t="s">
-        <v>850</v>
+        <v>66</v>
       </c>
       <c r="I229" t="s">
-        <v>659</v>
-      </c>
-      <c r="J229" t="s">
-        <v>66</v>
-      </c>
-      <c r="K229" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:14">
       <c r="D230" t="s">
         <v>323</v>
       </c>
@@ -12761,22 +11379,16 @@
         <v>853</v>
       </c>
       <c r="G230" t="s">
-        <v>323</v>
+        <v>657</v>
       </c>
       <c r="H230" t="s">
-        <v>852</v>
+        <v>662</v>
       </c>
       <c r="I230" t="s">
-        <v>657</v>
-      </c>
-      <c r="J230" t="s">
-        <v>662</v>
-      </c>
-      <c r="K230" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:14">
       <c r="D231" t="s">
         <v>323</v>
       </c>
@@ -12787,22 +11399,16 @@
         <v>854</v>
       </c>
       <c r="G231" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="H231" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="I231" t="s">
-        <v>659</v>
-      </c>
-      <c r="J231" t="s">
-        <v>66</v>
-      </c>
-      <c r="K231" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:14">
       <c r="D232" t="s">
         <v>408</v>
       </c>
@@ -12813,22 +11419,16 @@
         <v>855</v>
       </c>
       <c r="G232" t="s">
-        <v>408</v>
+        <v>659</v>
       </c>
       <c r="H232" t="s">
-        <v>416</v>
+        <v>66</v>
       </c>
       <c r="I232" t="s">
-        <v>659</v>
-      </c>
-      <c r="J232" t="s">
-        <v>66</v>
-      </c>
-      <c r="K232" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:14">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -12839,22 +11439,16 @@
         <v>857</v>
       </c>
       <c r="G233" t="s">
-        <v>46</v>
+        <v>657</v>
       </c>
       <c r="H233" t="s">
-        <v>856</v>
+        <v>662</v>
       </c>
       <c r="I233" t="s">
-        <v>657</v>
-      </c>
-      <c r="J233" t="s">
-        <v>662</v>
-      </c>
-      <c r="K233" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:14">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -12865,22 +11459,16 @@
         <v>859</v>
       </c>
       <c r="G234" t="s">
-        <v>46</v>
+        <v>657</v>
       </c>
       <c r="H234" t="s">
-        <v>858</v>
+        <v>662</v>
       </c>
       <c r="I234" t="s">
-        <v>657</v>
-      </c>
-      <c r="J234" t="s">
-        <v>662</v>
-      </c>
-      <c r="K234" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:14">
       <c r="D235" t="s">
         <v>46</v>
       </c>
@@ -12891,22 +11479,16 @@
         <v>860</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>659</v>
       </c>
       <c r="H235" t="s">
-        <v>429</v>
+        <v>66</v>
       </c>
       <c r="I235" t="s">
-        <v>659</v>
-      </c>
-      <c r="J235" t="s">
-        <v>66</v>
-      </c>
-      <c r="K235" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:14">
       <c r="D236" t="s">
         <v>826</v>
       </c>
@@ -12917,31 +11499,25 @@
         <v>963</v>
       </c>
       <c r="G236" t="s">
+        <v>657</v>
+      </c>
+      <c r="H236" t="s">
+        <v>662</v>
+      </c>
+      <c r="I236" t="s">
+        <v>760</v>
+      </c>
+      <c r="L236" t="s">
         <v>826</v>
       </c>
-      <c r="H236" t="s">
-        <v>964</v>
-      </c>
-      <c r="I236" t="s">
-        <v>657</v>
-      </c>
-      <c r="J236" t="s">
-        <v>662</v>
-      </c>
-      <c r="K236" t="s">
-        <v>760</v>
+      <c r="M236" t="s">
+        <v>861</v>
       </c>
       <c r="N236" t="s">
-        <v>826</v>
-      </c>
-      <c r="O236" t="s">
-        <v>861</v>
-      </c>
-      <c r="P236" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:14">
       <c r="D237" t="s">
         <v>711</v>
       </c>
@@ -12952,22 +11528,16 @@
         <v>864</v>
       </c>
       <c r="G237" t="s">
-        <v>711</v>
+        <v>657</v>
       </c>
       <c r="H237" t="s">
-        <v>863</v>
+        <v>662</v>
       </c>
       <c r="I237" t="s">
-        <v>657</v>
-      </c>
-      <c r="J237" t="s">
-        <v>662</v>
-      </c>
-      <c r="K237" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:14">
       <c r="D238" t="s">
         <v>711</v>
       </c>
@@ -12978,22 +11548,16 @@
         <v>866</v>
       </c>
       <c r="G238" t="s">
-        <v>711</v>
+        <v>657</v>
       </c>
       <c r="H238" t="s">
-        <v>865</v>
+        <v>662</v>
       </c>
       <c r="I238" t="s">
-        <v>657</v>
-      </c>
-      <c r="J238" t="s">
-        <v>662</v>
-      </c>
-      <c r="K238" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
         <v>230</v>
       </c>
@@ -13003,17 +11567,17 @@
       <c r="C239" t="s">
         <v>868</v>
       </c>
+      <c r="G239" t="s">
+        <v>742</v>
+      </c>
+      <c r="H239" t="s">
+        <v>661</v>
+      </c>
       <c r="I239" t="s">
-        <v>742</v>
-      </c>
-      <c r="J239" t="s">
-        <v>661</v>
-      </c>
-      <c r="K239" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
         <v>762</v>
       </c>
@@ -13023,17 +11587,17 @@
       <c r="C240" t="s">
         <v>870</v>
       </c>
+      <c r="G240" t="s">
+        <v>657</v>
+      </c>
+      <c r="H240" t="s">
+        <v>662</v>
+      </c>
       <c r="I240" t="s">
-        <v>657</v>
-      </c>
-      <c r="J240" t="s">
-        <v>662</v>
-      </c>
-      <c r="K240" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:17">
       <c r="D241" t="s">
         <v>507</v>
       </c>
@@ -13044,22 +11608,16 @@
         <v>871</v>
       </c>
       <c r="G241" t="s">
-        <v>507</v>
+        <v>659</v>
       </c>
       <c r="H241" t="s">
-        <v>515</v>
+        <v>66</v>
       </c>
       <c r="I241" t="s">
-        <v>659</v>
-      </c>
-      <c r="J241" t="s">
-        <v>66</v>
-      </c>
-      <c r="K241" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:17">
       <c r="D242" t="s">
         <v>717</v>
       </c>
@@ -13070,22 +11628,16 @@
         <v>873</v>
       </c>
       <c r="G242" t="s">
-        <v>717</v>
+        <v>657</v>
       </c>
       <c r="H242" t="s">
-        <v>872</v>
+        <v>662</v>
       </c>
       <c r="I242" t="s">
-        <v>657</v>
-      </c>
-      <c r="J242" t="s">
-        <v>662</v>
-      </c>
-      <c r="K242" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:17">
       <c r="D243" t="s">
         <v>717</v>
       </c>
@@ -13096,22 +11648,16 @@
         <v>875</v>
       </c>
       <c r="G243" t="s">
-        <v>717</v>
+        <v>816</v>
       </c>
       <c r="H243" t="s">
-        <v>874</v>
+        <v>661</v>
       </c>
       <c r="I243" t="s">
-        <v>816</v>
-      </c>
-      <c r="J243" t="s">
-        <v>661</v>
-      </c>
-      <c r="K243" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:17">
       <c r="D244" t="s">
         <v>717</v>
       </c>
@@ -13122,22 +11668,16 @@
         <v>877</v>
       </c>
       <c r="G244" t="s">
-        <v>717</v>
+        <v>657</v>
       </c>
       <c r="H244" t="s">
-        <v>876</v>
+        <v>662</v>
       </c>
       <c r="I244" t="s">
-        <v>657</v>
-      </c>
-      <c r="J244" t="s">
-        <v>662</v>
-      </c>
-      <c r="K244" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:17">
       <c r="D245" t="s">
         <v>776</v>
       </c>
@@ -13148,22 +11688,16 @@
         <v>879</v>
       </c>
       <c r="G245" t="s">
-        <v>776</v>
+        <v>657</v>
       </c>
       <c r="H245" t="s">
-        <v>878</v>
+        <v>662</v>
       </c>
       <c r="I245" t="s">
-        <v>657</v>
-      </c>
-      <c r="J245" t="s">
-        <v>662</v>
-      </c>
-      <c r="K245" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:17">
       <c r="D246" t="s">
         <v>892</v>
       </c>
@@ -13174,22 +11708,16 @@
         <v>894</v>
       </c>
       <c r="G246" t="s">
-        <v>892</v>
+        <v>659</v>
       </c>
       <c r="H246" t="s">
-        <v>893</v>
+        <v>66</v>
       </c>
       <c r="I246" t="s">
-        <v>659</v>
-      </c>
-      <c r="J246" t="s">
-        <v>66</v>
-      </c>
-      <c r="K246" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:17">
       <c r="D247" t="s">
         <v>837</v>
       </c>
@@ -13200,25 +11728,19 @@
         <v>896</v>
       </c>
       <c r="G247" t="s">
-        <v>837</v>
+        <v>924</v>
       </c>
       <c r="H247" t="s">
-        <v>838</v>
+        <v>925</v>
       </c>
       <c r="I247" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J247" t="s">
-        <v>925</v>
-      </c>
-      <c r="K247" t="s">
-        <v>701</v>
-      </c>
-      <c r="L247" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:17">
       <c r="D248" t="s">
         <v>899</v>
       </c>
@@ -13229,22 +11751,16 @@
         <v>898</v>
       </c>
       <c r="G248" t="s">
-        <v>899</v>
+        <v>659</v>
       </c>
       <c r="H248" t="s">
-        <v>900</v>
+        <v>66</v>
       </c>
       <c r="I248" t="s">
-        <v>659</v>
-      </c>
-      <c r="J248" t="s">
-        <v>66</v>
-      </c>
-      <c r="K248" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:17">
       <c r="D249" t="s">
         <v>673</v>
       </c>
@@ -13255,22 +11771,16 @@
         <v>932</v>
       </c>
       <c r="G249" t="s">
-        <v>673</v>
+        <v>928</v>
       </c>
       <c r="H249" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="I249" t="s">
-        <v>928</v>
-      </c>
-      <c r="J249" t="s">
-        <v>934</v>
-      </c>
-      <c r="K249" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:17">
       <c r="D250" t="s">
         <v>935</v>
       </c>
@@ -13281,25 +11791,19 @@
         <v>937</v>
       </c>
       <c r="G250" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
       <c r="H250" t="s">
-        <v>936</v>
+        <v>66</v>
       </c>
       <c r="I250" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="J250" t="s">
-        <v>66</v>
-      </c>
-      <c r="K250" t="s">
-        <v>979</v>
-      </c>
-      <c r="L250" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="16.5">
+    <row r="251" spans="1:17" ht="16.5">
       <c r="D251" t="s">
         <v>940</v>
       </c>
@@ -13310,22 +11814,16 @@
         <v>942</v>
       </c>
       <c r="G251" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="H251" t="s">
-        <v>941</v>
-      </c>
-      <c r="I251" t="s">
-        <v>948</v>
-      </c>
-      <c r="J251" t="s">
         <v>66</v>
       </c>
-      <c r="K251" s="8" t="s">
+      <c r="I251" s="8" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:17">
       <c r="A252" t="s">
         <v>310</v>
       </c>
@@ -13345,40 +11843,34 @@
         <v>949</v>
       </c>
       <c r="G252" t="s">
+        <v>657</v>
+      </c>
+      <c r="H252" t="s">
+        <v>662</v>
+      </c>
+      <c r="I252" t="s">
+        <v>682</v>
+      </c>
+      <c r="L252" t="s">
         <v>826</v>
       </c>
-      <c r="H252" t="s">
+      <c r="M252" t="s">
         <v>313</v>
       </c>
-      <c r="I252" t="s">
-        <v>657</v>
-      </c>
-      <c r="J252" t="s">
-        <v>662</v>
-      </c>
-      <c r="K252" t="s">
-        <v>682</v>
-      </c>
       <c r="N252" t="s">
-        <v>826</v>
+        <v>917</v>
       </c>
       <c r="O252" t="s">
+        <v>310</v>
+      </c>
+      <c r="P252" t="s">
         <v>313</v>
       </c>
-      <c r="P252" t="s">
-        <v>917</v>
-      </c>
       <c r="Q252" t="s">
-        <v>310</v>
-      </c>
-      <c r="R252" t="s">
-        <v>313</v>
-      </c>
-      <c r="S252" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:17">
       <c r="D253" t="s">
         <v>287</v>
       </c>
@@ -13389,22 +11881,16 @@
         <v>952</v>
       </c>
       <c r="G253" t="s">
-        <v>287</v>
+        <v>948</v>
       </c>
       <c r="H253" t="s">
-        <v>951</v>
+        <v>66</v>
       </c>
       <c r="I253" t="s">
-        <v>948</v>
-      </c>
-      <c r="J253" t="s">
-        <v>66</v>
-      </c>
-      <c r="K253" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="16.5">
+    <row r="254" spans="1:17" ht="16.5">
       <c r="D254" t="s">
         <v>390</v>
       </c>
@@ -13415,22 +11901,16 @@
         <v>357</v>
       </c>
       <c r="G254" t="s">
-        <v>390</v>
+        <v>657</v>
       </c>
       <c r="H254" t="s">
-        <v>356</v>
-      </c>
-      <c r="I254" t="s">
-        <v>657</v>
-      </c>
-      <c r="J254" t="s">
         <v>662</v>
       </c>
-      <c r="K254" s="8" t="s">
+      <c r="I254" s="8" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" spans="1:17">
       <c r="D255" t="s">
         <v>525</v>
       </c>
@@ -13441,22 +11921,16 @@
         <v>956</v>
       </c>
       <c r="G255" t="s">
-        <v>525</v>
+        <v>924</v>
       </c>
       <c r="H255" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
       <c r="I255" t="s">
-        <v>924</v>
-      </c>
-      <c r="J255" t="s">
-        <v>925</v>
-      </c>
-      <c r="K255" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:17">
       <c r="D256" t="s">
         <v>478</v>
       </c>
@@ -13467,22 +11941,16 @@
         <v>957</v>
       </c>
       <c r="G256" t="s">
-        <v>478</v>
+        <v>948</v>
       </c>
       <c r="H256" t="s">
-        <v>479</v>
+        <v>66</v>
       </c>
       <c r="I256" t="s">
-        <v>948</v>
-      </c>
-      <c r="J256" t="s">
-        <v>66</v>
-      </c>
-      <c r="K256" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:10">
       <c r="D257" t="s">
         <v>365</v>
       </c>
@@ -13493,25 +11961,19 @@
         <v>962</v>
       </c>
       <c r="G257" t="s">
-        <v>365</v>
+        <v>657</v>
       </c>
       <c r="H257" t="s">
-        <v>961</v>
+        <v>662</v>
       </c>
       <c r="I257" t="s">
-        <v>657</v>
+        <v>686</v>
       </c>
       <c r="J257" t="s">
-        <v>662</v>
-      </c>
-      <c r="K257" t="s">
         <v>686</v>
       </c>
-      <c r="L257" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12">
+    </row>
+    <row r="258" spans="1:10">
       <c r="D258" t="s">
         <v>46</v>
       </c>
@@ -13522,22 +11984,16 @@
         <v>966</v>
       </c>
       <c r="G258" t="s">
-        <v>46</v>
+        <v>659</v>
       </c>
       <c r="H258" t="s">
-        <v>965</v>
+        <v>66</v>
       </c>
       <c r="I258" t="s">
-        <v>659</v>
-      </c>
-      <c r="J258" t="s">
-        <v>66</v>
-      </c>
-      <c r="K258" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:10">
       <c r="D259" t="s">
         <v>525</v>
       </c>
@@ -13548,22 +12004,16 @@
         <v>968</v>
       </c>
       <c r="G259" t="s">
-        <v>525</v>
+        <v>969</v>
       </c>
       <c r="H259" t="s">
-        <v>967</v>
+        <v>66</v>
       </c>
       <c r="I259" t="s">
-        <v>969</v>
-      </c>
-      <c r="J259" t="s">
-        <v>66</v>
-      </c>
-      <c r="K259" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:10">
       <c r="D260" t="s">
         <v>935</v>
       </c>
@@ -13574,22 +12024,16 @@
         <v>971</v>
       </c>
       <c r="G260" t="s">
-        <v>935</v>
+        <v>659</v>
       </c>
       <c r="H260" t="s">
-        <v>970</v>
+        <v>66</v>
       </c>
       <c r="I260" t="s">
-        <v>659</v>
-      </c>
-      <c r="J260" t="s">
-        <v>66</v>
-      </c>
-      <c r="K260" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:10">
       <c r="D261" t="s">
         <v>935</v>
       </c>
@@ -13600,25 +12044,19 @@
         <v>976</v>
       </c>
       <c r="G261" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
       <c r="H261" t="s">
-        <v>975</v>
+        <v>66</v>
       </c>
       <c r="I261" t="s">
-        <v>977</v>
+        <v>681</v>
       </c>
       <c r="J261" t="s">
-        <v>66</v>
-      </c>
-      <c r="K261" t="s">
-        <v>681</v>
-      </c>
-      <c r="L261" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:10">
       <c r="D262" t="s">
         <v>60</v>
       </c>
@@ -13629,25 +12067,19 @@
         <v>983</v>
       </c>
       <c r="G262" t="s">
-        <v>60</v>
+        <v>977</v>
       </c>
       <c r="H262" t="s">
-        <v>982</v>
+        <v>66</v>
       </c>
       <c r="I262" t="s">
-        <v>977</v>
+        <v>685</v>
       </c>
       <c r="J262" t="s">
-        <v>66</v>
-      </c>
-      <c r="K262" t="s">
-        <v>685</v>
-      </c>
-      <c r="L262" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:10">
       <c r="D263" t="s">
         <v>115</v>
       </c>
@@ -13658,22 +12090,16 @@
         <v>989</v>
       </c>
       <c r="G263" t="s">
-        <v>115</v>
+        <v>990</v>
       </c>
       <c r="H263" t="s">
-        <v>988</v>
+        <v>66</v>
       </c>
       <c r="I263" t="s">
-        <v>990</v>
-      </c>
-      <c r="J263" t="s">
-        <v>66</v>
-      </c>
-      <c r="K263" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:10">
       <c r="D264" t="s">
         <v>46</v>
       </c>
@@ -13684,22 +12110,16 @@
         <v>991</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>657</v>
       </c>
       <c r="H264" t="s">
-        <v>751</v>
+        <v>662</v>
       </c>
       <c r="I264" t="s">
-        <v>657</v>
-      </c>
-      <c r="J264" t="s">
-        <v>662</v>
-      </c>
-      <c r="K264" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:10">
       <c r="D265" t="s">
         <v>842</v>
       </c>
@@ -13710,22 +12130,16 @@
         <v>993</v>
       </c>
       <c r="G265" t="s">
-        <v>842</v>
+        <v>657</v>
       </c>
       <c r="H265" t="s">
-        <v>992</v>
+        <v>662</v>
       </c>
       <c r="I265" t="s">
-        <v>657</v>
-      </c>
-      <c r="J265" t="s">
-        <v>662</v>
-      </c>
-      <c r="K265" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:10">
       <c r="D266" t="s">
         <v>994</v>
       </c>
@@ -13736,22 +12150,16 @@
         <v>996</v>
       </c>
       <c r="G266" t="s">
-        <v>994</v>
+        <v>948</v>
       </c>
       <c r="H266" t="s">
-        <v>995</v>
+        <v>66</v>
       </c>
       <c r="I266" t="s">
-        <v>948</v>
-      </c>
-      <c r="J266" t="s">
-        <v>66</v>
-      </c>
-      <c r="K266" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:10">
       <c r="D267" t="s">
         <v>570</v>
       </c>
@@ -13762,25 +12170,19 @@
         <v>800</v>
       </c>
       <c r="G267" t="s">
-        <v>570</v>
+        <v>924</v>
       </c>
       <c r="H267" t="s">
-        <v>800</v>
+        <v>925</v>
       </c>
       <c r="I267" t="s">
-        <v>924</v>
+        <v>701</v>
       </c>
       <c r="J267" t="s">
-        <v>925</v>
-      </c>
-      <c r="K267" t="s">
-        <v>701</v>
-      </c>
-      <c r="L267" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:10">
       <c r="D268" t="s">
         <v>230</v>
       </c>
@@ -13791,19 +12193,13 @@
         <v>999</v>
       </c>
       <c r="G268" t="s">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="H268" t="s">
-        <v>999</v>
-      </c>
-      <c r="I268" t="s">
-        <v>660</v>
-      </c>
-      <c r="J268" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>323</v>
       </c>
@@ -13823,22 +12219,16 @@
         <v>1002</v>
       </c>
       <c r="G269" t="s">
-        <v>323</v>
+        <v>657</v>
       </c>
       <c r="H269" t="s">
-        <v>361</v>
+        <v>662</v>
       </c>
       <c r="I269" t="s">
-        <v>657</v>
-      </c>
-      <c r="J269" t="s">
-        <v>662</v>
-      </c>
-      <c r="K269" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:10">
       <c r="D270" t="s">
         <v>419</v>
       </c>
@@ -13849,186 +12239,170 @@
         <v>1010</v>
       </c>
       <c r="G270" t="s">
-        <v>419</v>
+        <v>657</v>
       </c>
       <c r="H270" t="s">
-        <v>79</v>
+        <v>662</v>
       </c>
       <c r="I270" t="s">
-        <v>657</v>
-      </c>
-      <c r="J270" t="s">
-        <v>662</v>
-      </c>
-      <c r="K270" t="s">
         <v>680</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="94" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="89" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188">
-    <cfRule type="duplicateValues" dxfId="80" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190">
-    <cfRule type="duplicateValues" dxfId="79" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="73" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="72" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="67" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F18 F268:F1048576 F20:F192 F211:F266">
-    <cfRule type="duplicateValues" dxfId="56" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193:F210 C189 C1:C187 C268:C1048576 C191:C192 C211:C266">
-    <cfRule type="duplicateValues" dxfId="55" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="duplicateValues" dxfId="54" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="53" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F259">
-    <cfRule type="duplicateValues" dxfId="52" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260 F262 C1:C187 F265 C189:C192 C211:C266 F1:F18 C268:C1048576 F268:F1048576 F20:F246 F248:F257">
-    <cfRule type="duplicateValues" dxfId="51" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260 F262 F265 F1:F18 F211:F246 F268:F1048576 F20:F192 F248:F257">
-    <cfRule type="duplicateValues" dxfId="50" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260 F262 F265 F1:F18 F268:F1048576 F20:F192 F211:F258">
-    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="47" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262 F265 F1:F18 F268:F1048576 F20:F192 F211:F260">
-    <cfRule type="duplicateValues" dxfId="46" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263:G263">
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265 F1:F18 F268:F1048576 F20:F192 F211:F262">
-    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="duplicateValues" dxfId="43" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F267">
-    <cfRule type="duplicateValues" dxfId="42" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 I263">
-    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="34" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="duplicateValues" dxfId="40" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="84"/>
+  <conditionalFormatting sqref="J250:J256 J1:J248 J258:J1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L250:L256 L1:L248 L258:L1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="61"/>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="duplicateValues" dxfId="30" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1">
-    <cfRule type="duplicateValues" dxfId="36" priority="88"/>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
-    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
+  <conditionalFormatting sqref="N45">
+    <cfRule type="duplicateValues" dxfId="22" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45">
-    <cfRule type="duplicateValues" dxfId="28" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="57"/>
+  <conditionalFormatting sqref="N190:N191">
+    <cfRule type="duplicateValues" dxfId="19" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P190:P191">
-    <cfRule type="duplicateValues" dxfId="25" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="40"/>
+  <conditionalFormatting sqref="N236">
+    <cfRule type="duplicateValues" dxfId="13" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P236">
-    <cfRule type="duplicateValues" dxfId="19" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="53"/>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S82">
-    <cfRule type="duplicateValues" dxfId="9" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="Q82">
+    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\723\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CB8F5-5141-4C0D-8B81-9676AEE28FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D028D-563B-478B-BB1F-49086A60FA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1015">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2318,9 +2318,6 @@
     <t>SC2943SO-Q-DB-60CR-2943</t>
   </si>
   <si>
-    <t>STC11202B-T</t>
-  </si>
-  <si>
     <t>SC4391S6-TR</t>
   </si>
   <si>
@@ -2520,9 +2517,6 @@
   </si>
   <si>
     <t>SC2402DN-2402</t>
-  </si>
-  <si>
-    <t>STC11102C</t>
   </si>
   <si>
     <t>SC2968S1-N-BK</t>
@@ -2874,9 +2868,6 @@
     <t>SC1945B1(STC2899AJ)-N13</t>
   </si>
   <si>
-    <t>STC2899AM</t>
-  </si>
-  <si>
     <t>SC1945S1-BK</t>
   </si>
   <si>
@@ -3103,6 +3094,26 @@
   </si>
   <si>
     <t>SC2442UA(2943S1-1)-2442</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11102B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC2899AJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4431,8 +4442,8 @@
   <dimension ref="A1:W270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4834,7 +4845,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -4857,7 +4868,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -4944,7 +4955,7 @@
         <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -5155,13 +5166,13 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G19" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I19" t="s">
         <v>680</v>
@@ -5196,7 +5207,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G20" t="s">
         <v>659</v>
@@ -5228,7 +5239,7 @@
         <v>727</v>
       </c>
       <c r="G21" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5318,7 +5329,7 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -5406,7 +5417,7 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5661,10 +5672,10 @@
         <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G35" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -5725,7 +5736,7 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -5761,7 +5772,7 @@
         <v>169</v>
       </c>
       <c r="T37" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5784,7 +5795,7 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -5816,7 +5827,7 @@
         <v>663</v>
       </c>
       <c r="G39" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -5834,7 +5845,7 @@
         <v>182</v>
       </c>
       <c r="N39" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5857,7 +5868,7 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -5889,7 +5900,7 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -5921,7 +5932,7 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -5968,10 +5979,10 @@
         <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G43" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -6000,7 +6011,7 @@
         <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D44" t="s">
         <v>161</v>
@@ -6032,7 +6043,7 @@
         <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6047,10 +6058,10 @@
         <v>197</v>
       </c>
       <c r="M45" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="N45" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6064,7 +6075,7 @@
         <v>202</v>
       </c>
       <c r="G46" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -6093,7 +6104,7 @@
         <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G47" t="s">
         <v>65</v>
@@ -6142,7 +6153,7 @@
         <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D49" t="s">
         <v>206</v>
@@ -6151,7 +6162,7 @@
         <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G49" t="s">
         <v>659</v>
@@ -6209,10 +6220,10 @@
         <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F51" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G51" t="s">
         <v>660</v>
@@ -6340,7 +6351,7 @@
         <v>227</v>
       </c>
       <c r="F55" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G55" t="s">
         <v>659</v>
@@ -6450,7 +6461,7 @@
         <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G59" t="s">
         <v>660</v>
@@ -6692,7 +6703,7 @@
         <v>680</v>
       </c>
       <c r="J69" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -6703,7 +6714,7 @@
         <v>250</v>
       </c>
       <c r="F70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G70" t="s">
         <v>660</v>
@@ -6715,7 +6726,7 @@
         <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -6726,7 +6737,7 @@
         <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D71" t="s">
         <v>261</v>
@@ -6976,7 +6987,7 @@
         <v>286</v>
       </c>
       <c r="F79" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G79" t="s">
         <v>659</v>
@@ -7037,7 +7048,7 @@
         <v>293</v>
       </c>
       <c r="G81" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H81" t="s">
         <v>661</v>
@@ -7054,16 +7065,16 @@
         <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D82" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E82" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F82" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G82" t="s">
         <v>660</v>
@@ -7139,7 +7150,7 @@
         <v>297</v>
       </c>
       <c r="F84" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G84" t="s">
         <v>659</v>
@@ -7247,7 +7258,7 @@
         <v>662</v>
       </c>
       <c r="I87" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7494,7 +7505,7 @@
         <v>344</v>
       </c>
       <c r="F95" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G95" t="s">
         <v>657</v>
@@ -7587,7 +7598,7 @@
         <v>356</v>
       </c>
       <c r="F98" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G98" t="s">
         <v>657</v>
@@ -7906,10 +7917,10 @@
         <v>390</v>
       </c>
       <c r="E109" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F109" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G109" t="s">
         <v>657</v>
@@ -7921,7 +7932,7 @@
         <v>680</v>
       </c>
       <c r="J109" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -7996,10 +8007,10 @@
         <v>390</v>
       </c>
       <c r="E112" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F112" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G112" t="s">
         <v>657</v>
@@ -8075,7 +8086,7 @@
         <v>72</v>
       </c>
       <c r="N114" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -8171,7 +8182,7 @@
         <v>421</v>
       </c>
       <c r="N117" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -8279,7 +8290,7 @@
         <v>442</v>
       </c>
       <c r="G120" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H120" t="s">
         <v>66</v>
@@ -8332,13 +8343,13 @@
         <v>658</v>
       </c>
       <c r="H121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I121" t="s">
         <v>696</v>
       </c>
       <c r="J121" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L121" t="s">
         <v>445</v>
@@ -8358,7 +8369,7 @@
         <v>448</v>
       </c>
       <c r="F122" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G122" t="s">
         <v>658</v>
@@ -8370,7 +8381,7 @@
         <v>696</v>
       </c>
       <c r="J122" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L122" t="s">
         <v>445</v>
@@ -8393,13 +8404,13 @@
         <v>454</v>
       </c>
       <c r="D123" t="s">
+        <v>775</v>
+      </c>
+      <c r="E123" t="s">
         <v>776</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>777</v>
-      </c>
-      <c r="F123" t="s">
-        <v>778</v>
       </c>
       <c r="G123" t="s">
         <v>657</v>
@@ -8434,16 +8445,16 @@
         <v>460</v>
       </c>
       <c r="G124" t="s">
-        <v>657</v>
+        <v>1010</v>
       </c>
       <c r="H124" t="s">
-        <v>662</v>
+        <v>1011</v>
       </c>
       <c r="I124" t="s">
         <v>682</v>
       </c>
       <c r="J124" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -8451,22 +8462,22 @@
         <v>456</v>
       </c>
       <c r="E125" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F125" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G125" t="s">
-        <v>657</v>
+        <v>1010</v>
       </c>
       <c r="H125" t="s">
-        <v>662</v>
+        <v>1011</v>
       </c>
       <c r="I125" t="s">
         <v>682</v>
       </c>
       <c r="J125" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -8474,22 +8485,22 @@
         <v>456</v>
       </c>
       <c r="E126" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F126" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G126" t="s">
-        <v>657</v>
+        <v>1010</v>
       </c>
       <c r="H126" t="s">
-        <v>662</v>
+        <v>1011</v>
       </c>
       <c r="I126" t="s">
         <v>682</v>
       </c>
       <c r="J126" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8512,7 +8523,7 @@
         <v>465</v>
       </c>
       <c r="G127" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H127" t="s">
         <v>66</v>
@@ -8562,7 +8573,7 @@
         <v>696</v>
       </c>
       <c r="J128" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L128" t="s">
         <v>468</v>
@@ -8571,7 +8582,7 @@
         <v>747</v>
       </c>
       <c r="N128" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8632,10 +8643,10 @@
         <v>486</v>
       </c>
       <c r="G130" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H130" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I130" t="s">
         <v>682</v>
@@ -8664,10 +8675,10 @@
         <v>490</v>
       </c>
       <c r="G131" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H131" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I131" t="s">
         <v>682</v>
@@ -8696,10 +8707,10 @@
         <v>494</v>
       </c>
       <c r="G132" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H132" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I132" t="s">
         <v>682</v>
@@ -8713,25 +8724,25 @@
         <v>482</v>
       </c>
       <c r="B133" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C133" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D133" t="s">
         <v>482</v>
       </c>
       <c r="E133" t="s">
+        <v>782</v>
+      </c>
+      <c r="F133" t="s">
         <v>783</v>
       </c>
-      <c r="F133" t="s">
-        <v>784</v>
-      </c>
       <c r="G133" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H133" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I133" t="s">
         <v>682</v>
@@ -8789,10 +8800,10 @@
         <v>500</v>
       </c>
       <c r="G135" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H135" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I135" t="s">
         <v>682</v>
@@ -8850,10 +8861,10 @@
         <v>511</v>
       </c>
       <c r="G137" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H137" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I137" t="s">
         <v>697</v>
@@ -8896,10 +8907,10 @@
         <v>507</v>
       </c>
       <c r="B139" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C139" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D139" t="s">
         <v>507</v>
@@ -8940,10 +8951,10 @@
         <v>668</v>
       </c>
       <c r="G140" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H140" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I140" t="s">
         <v>697</v>
@@ -8972,10 +8983,10 @@
         <v>523</v>
       </c>
       <c r="G141" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H141" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I141" t="s">
         <v>697</v>
@@ -8987,10 +8998,10 @@
         <v>519</v>
       </c>
       <c r="M141" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="N141" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -9129,13 +9140,13 @@
         <v>545</v>
       </c>
       <c r="F146" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G146" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H146" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I146" t="s">
         <v>699</v>
@@ -9164,10 +9175,10 @@
         <v>546</v>
       </c>
       <c r="G147" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H147" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I147" t="s">
         <v>699</v>
@@ -9196,10 +9207,10 @@
         <v>551</v>
       </c>
       <c r="G148" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H148" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I148" t="s">
         <v>700</v>
@@ -9228,10 +9239,10 @@
         <v>555</v>
       </c>
       <c r="G149" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H149" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I149" t="s">
         <v>700</v>
@@ -9251,10 +9262,10 @@
         <v>558</v>
       </c>
       <c r="G150" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H150" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I150" t="s">
         <v>700</v>
@@ -9274,10 +9285,10 @@
         <v>560</v>
       </c>
       <c r="G151" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H151" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I151" t="s">
         <v>700</v>
@@ -9306,10 +9317,10 @@
         <v>565</v>
       </c>
       <c r="G152" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H152" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I152" t="s">
         <v>700</v>
@@ -9391,7 +9402,7 @@
         <v>720</v>
       </c>
       <c r="N154" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -9524,10 +9535,10 @@
         <v>606</v>
       </c>
       <c r="G159" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H159" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I159" t="s">
         <v>682</v>
@@ -9676,7 +9687,7 @@
         <v>288</v>
       </c>
       <c r="T163" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -9909,7 +9920,7 @@
         <v>479</v>
       </c>
       <c r="Q170" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -9923,10 +9934,10 @@
         <v>643</v>
       </c>
       <c r="G171" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H171" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I171" t="s">
         <v>696</v>
@@ -10013,10 +10024,10 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H174" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I174" t="s">
         <v>682</v>
@@ -10036,10 +10047,10 @@
         <v>656</v>
       </c>
       <c r="G175" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H175" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I175" t="s">
         <v>682</v>
@@ -10059,10 +10070,10 @@
         <v>672</v>
       </c>
       <c r="G176" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H176" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I176" t="s">
         <v>692</v>
@@ -10079,10 +10090,10 @@
         <v>675</v>
       </c>
       <c r="G177" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H177" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I177" t="s">
         <v>692</v>
@@ -10099,10 +10110,10 @@
         <v>678</v>
       </c>
       <c r="G178" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H178" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -10180,7 +10191,7 @@
         <v>736</v>
       </c>
       <c r="F181" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G181" t="s">
         <v>660</v>
@@ -10198,7 +10209,7 @@
         <v>736</v>
       </c>
       <c r="N181" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -10270,7 +10281,7 @@
         <v>752</v>
       </c>
       <c r="D184" t="s">
-        <v>750</v>
+        <v>1012</v>
       </c>
       <c r="E184" t="s">
         <v>753</v>
@@ -10279,7 +10290,7 @@
         <v>754</v>
       </c>
       <c r="G184" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H184" t="s">
         <v>661</v>
@@ -10290,48 +10301,48 @@
     </row>
     <row r="185" spans="1:14">
       <c r="D185" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E185" t="s">
         <v>755</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>756</v>
       </c>
-      <c r="F185" t="s">
-        <v>757</v>
-      </c>
       <c r="G185" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H185" t="s">
         <v>661</v>
       </c>
       <c r="I185" t="s">
+        <v>759</v>
+      </c>
+      <c r="J185" t="s">
         <v>760</v>
       </c>
-      <c r="J185" t="s">
-        <v>761</v>
-      </c>
       <c r="L185" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M185" t="s">
         <v>755</v>
       </c>
-      <c r="M185" t="s">
-        <v>756</v>
-      </c>
       <c r="N185" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="D186" t="s">
+        <v>761</v>
+      </c>
+      <c r="E186" t="s">
         <v>762</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>763</v>
       </c>
-      <c r="F186" t="s">
-        <v>764</v>
-      </c>
       <c r="G186" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H186" t="s">
         <v>66</v>
@@ -10340,21 +10351,21 @@
         <v>681</v>
       </c>
       <c r="J186" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="187" spans="1:14">
       <c r="D187" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E187" t="s">
+        <v>764</v>
+      </c>
+      <c r="F187" t="s">
         <v>765</v>
       </c>
-      <c r="F187" t="s">
-        <v>766</v>
-      </c>
       <c r="G187" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H187" t="s">
         <v>66</v>
@@ -10363,21 +10374,21 @@
         <v>681</v>
       </c>
       <c r="J187" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="D188" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E188" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F188" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G188" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H188" t="s">
         <v>66</v>
@@ -10386,39 +10397,39 @@
         <v>681</v>
       </c>
       <c r="J188" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
+        <v>768</v>
+      </c>
+      <c r="B189" t="s">
         <v>769</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>770</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
+        <v>768</v>
+      </c>
+      <c r="E189" t="s">
         <v>771</v>
       </c>
-      <c r="D189" t="s">
-        <v>769</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>772</v>
       </c>
-      <c r="F189" t="s">
-        <v>773</v>
-      </c>
       <c r="G189" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H189" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I189" t="s">
         <v>682</v>
       </c>
       <c r="J189" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10426,10 +10437,10 @@
         <v>478</v>
       </c>
       <c r="E190" t="s">
+        <v>778</v>
+      </c>
+      <c r="F190" t="s">
         <v>779</v>
-      </c>
-      <c r="F190" t="s">
-        <v>780</v>
       </c>
       <c r="G190" t="s">
         <v>659</v>
@@ -10444,33 +10455,33 @@
         <v>478</v>
       </c>
       <c r="M190" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N190" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
+        <v>784</v>
+      </c>
+      <c r="B191" t="s">
         <v>785</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>786</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>790</v>
+      </c>
+      <c r="E191" t="s">
         <v>787</v>
       </c>
-      <c r="D191" t="s">
-        <v>785</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>788</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>789</v>
-      </c>
-      <c r="G191" t="s">
-        <v>790</v>
       </c>
       <c r="H191" t="s">
         <v>661</v>
@@ -10481,22 +10492,22 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
+        <v>790</v>
+      </c>
+      <c r="B192" t="s">
         <v>791</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>792</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>790</v>
+      </c>
+      <c r="E192" t="s">
         <v>793</v>
       </c>
-      <c r="D192" t="s">
-        <v>791</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>794</v>
-      </c>
-      <c r="F192" t="s">
-        <v>795</v>
       </c>
       <c r="G192" t="s">
         <v>659</v>
@@ -10519,10 +10530,10 @@
         <v>572</v>
       </c>
       <c r="G193" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H193" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I193" t="s">
         <v>701</v>
@@ -10542,10 +10553,10 @@
         <v>579</v>
       </c>
       <c r="G194" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H194" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I194" t="s">
         <v>701</v>
@@ -10559,16 +10570,16 @@
         <v>570</v>
       </c>
       <c r="E195" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F195" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G195" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H195" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I195" t="s">
         <v>701</v>
@@ -10582,16 +10593,16 @@
         <v>570</v>
       </c>
       <c r="E196" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F196" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G196" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H196" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I196" t="s">
         <v>701</v>
@@ -10605,16 +10616,16 @@
         <v>570</v>
       </c>
       <c r="E197" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F197" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G197" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H197" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I197" t="s">
         <v>701</v>
@@ -10628,16 +10639,16 @@
         <v>570</v>
       </c>
       <c r="E198" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F198" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G198" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H198" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I198" t="s">
         <v>701</v>
@@ -10651,16 +10662,16 @@
         <v>570</v>
       </c>
       <c r="E199" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F199" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G199" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H199" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I199" t="s">
         <v>701</v>
@@ -10680,10 +10691,10 @@
         <v>574</v>
       </c>
       <c r="G200" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H200" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I200" t="s">
         <v>701</v>
@@ -10697,16 +10708,16 @@
         <v>570</v>
       </c>
       <c r="E201" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F201" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G201" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H201" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I201" t="s">
         <v>701</v>
@@ -10726,10 +10737,10 @@
         <v>580</v>
       </c>
       <c r="G202" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H202" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I202" t="s">
         <v>701</v>
@@ -10749,10 +10760,10 @@
         <v>581</v>
       </c>
       <c r="G203" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H203" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I203" t="s">
         <v>701</v>
@@ -10772,10 +10783,10 @@
         <v>582</v>
       </c>
       <c r="G204" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H204" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I204" t="s">
         <v>701</v>
@@ -10789,16 +10800,16 @@
         <v>570</v>
       </c>
       <c r="E205" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F205" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G205" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H205" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I205" t="s">
         <v>701</v>
@@ -10812,16 +10823,16 @@
         <v>570</v>
       </c>
       <c r="E206" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F206" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G206" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H206" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I206" t="s">
         <v>701</v>
@@ -10835,16 +10846,16 @@
         <v>570</v>
       </c>
       <c r="E207" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F207" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G207" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H207" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I207" t="s">
         <v>701</v>
@@ -10858,16 +10869,16 @@
         <v>570</v>
       </c>
       <c r="E208" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F208" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G208" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H208" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I208" t="s">
         <v>701</v>
@@ -10887,10 +10898,10 @@
         <v>583</v>
       </c>
       <c r="G209" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H209" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I209" t="s">
         <v>701</v>
@@ -10910,10 +10921,10 @@
         <v>584</v>
       </c>
       <c r="G210" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H210" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I210" t="s">
         <v>701</v>
@@ -10927,25 +10938,25 @@
         <v>570</v>
       </c>
       <c r="B211" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C211" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D211" t="s">
         <v>570</v>
       </c>
       <c r="E211" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F211" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G211" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H211" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I211" t="s">
         <v>701</v>
@@ -11017,10 +11028,10 @@
         <v>124</v>
       </c>
       <c r="E214" t="s">
+        <v>805</v>
+      </c>
+      <c r="F214" t="s">
         <v>806</v>
-      </c>
-      <c r="F214" t="s">
-        <v>807</v>
       </c>
       <c r="G214" t="s">
         <v>659</v>
@@ -11040,51 +11051,51 @@
         <v>588</v>
       </c>
       <c r="B215" t="s">
+        <v>807</v>
+      </c>
+      <c r="C215" t="s">
         <v>808</v>
       </c>
-      <c r="C215" t="s">
-        <v>809</v>
-      </c>
       <c r="G215" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H215" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I215" t="s">
         <v>691</v>
       </c>
       <c r="J215" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
+        <v>810</v>
+      </c>
+      <c r="B216" t="s">
         <v>811</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>812</v>
-      </c>
-      <c r="C216" t="s">
-        <v>813</v>
       </c>
       <c r="D216" t="s">
         <v>717</v>
       </c>
       <c r="E216" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F216" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G216" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H216" t="s">
         <v>661</v>
       </c>
       <c r="I216" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11092,10 +11103,10 @@
         <v>737</v>
       </c>
       <c r="B217" t="s">
+        <v>817</v>
+      </c>
+      <c r="C217" t="s">
         <v>818</v>
-      </c>
-      <c r="C217" t="s">
-        <v>819</v>
       </c>
       <c r="G217" t="s">
         <v>742</v>
@@ -11104,16 +11115,16 @@
         <v>661</v>
       </c>
       <c r="I217" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L217" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M217" t="s">
         <v>740</v>
       </c>
       <c r="N217" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11121,10 +11132,10 @@
         <v>627</v>
       </c>
       <c r="B218" t="s">
+        <v>820</v>
+      </c>
+      <c r="C218" t="s">
         <v>821</v>
-      </c>
-      <c r="C218" t="s">
-        <v>822</v>
       </c>
       <c r="G218" t="s">
         <v>742</v>
@@ -11133,18 +11144,18 @@
         <v>661</v>
       </c>
       <c r="I218" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="D219" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E219" t="s">
+        <v>822</v>
+      </c>
+      <c r="F219" t="s">
         <v>823</v>
-      </c>
-      <c r="E219" t="s">
-        <v>824</v>
-      </c>
-      <c r="F219" t="s">
-        <v>825</v>
       </c>
       <c r="G219" t="s">
         <v>659</v>
@@ -11158,13 +11169,13 @@
     </row>
     <row r="220" spans="1:14">
       <c r="D220" t="s">
+        <v>824</v>
+      </c>
+      <c r="E220" t="s">
+        <v>825</v>
+      </c>
+      <c r="F220" t="s">
         <v>826</v>
-      </c>
-      <c r="E220" t="s">
-        <v>827</v>
-      </c>
-      <c r="F220" t="s">
-        <v>828</v>
       </c>
       <c r="G220" t="s">
         <v>659</v>
@@ -11178,13 +11189,13 @@
     </row>
     <row r="221" spans="1:14">
       <c r="D221" t="s">
+        <v>827</v>
+      </c>
+      <c r="E221" t="s">
+        <v>828</v>
+      </c>
+      <c r="F221" t="s">
         <v>829</v>
-      </c>
-      <c r="E221" t="s">
-        <v>830</v>
-      </c>
-      <c r="F221" t="s">
-        <v>831</v>
       </c>
       <c r="G221" t="s">
         <v>659</v>
@@ -11204,7 +11215,7 @@
         <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G222" t="s">
         <v>657</v>
@@ -11224,19 +11235,19 @@
         <v>471</v>
       </c>
       <c r="F223" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G223" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H223" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I223" t="s">
         <v>696</v>
       </c>
       <c r="J223" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11247,7 +11258,7 @@
         <v>464</v>
       </c>
       <c r="F224" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G224" t="s">
         <v>659</v>
@@ -11261,22 +11272,22 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" t="s">
+        <v>837</v>
+      </c>
+      <c r="B225" t="s">
+        <v>838</v>
+      </c>
+      <c r="C225" t="s">
         <v>839</v>
       </c>
-      <c r="B225" t="s">
-        <v>840</v>
-      </c>
-      <c r="C225" t="s">
-        <v>841</v>
-      </c>
       <c r="D225" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E225" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F225" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G225" t="s">
         <v>659</v>
@@ -11285,18 +11296,18 @@
         <v>66</v>
       </c>
       <c r="I225" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" t="s">
+        <v>840</v>
+      </c>
+      <c r="B226" t="s">
+        <v>841</v>
+      </c>
+      <c r="C226" t="s">
         <v>842</v>
-      </c>
-      <c r="B226" t="s">
-        <v>843</v>
-      </c>
-      <c r="C226" t="s">
-        <v>844</v>
       </c>
       <c r="G226" t="s">
         <v>657</v>
@@ -11310,13 +11321,13 @@
     </row>
     <row r="227" spans="1:14">
       <c r="D227" t="s">
+        <v>843</v>
+      </c>
+      <c r="E227" t="s">
+        <v>844</v>
+      </c>
+      <c r="F227" t="s">
         <v>845</v>
-      </c>
-      <c r="E227" t="s">
-        <v>846</v>
-      </c>
-      <c r="F227" t="s">
-        <v>847</v>
       </c>
       <c r="G227" t="s">
         <v>659</v>
@@ -11333,10 +11344,10 @@
         <v>161</v>
       </c>
       <c r="E228" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F228" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G228" t="s">
         <v>659</v>
@@ -11353,10 +11364,10 @@
         <v>277</v>
       </c>
       <c r="E229" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F229" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G229" t="s">
         <v>659</v>
@@ -11373,10 +11384,10 @@
         <v>323</v>
       </c>
       <c r="E230" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F230" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G230" t="s">
         <v>657</v>
@@ -11396,7 +11407,7 @@
         <v>340</v>
       </c>
       <c r="F231" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G231" t="s">
         <v>659</v>
@@ -11416,7 +11427,7 @@
         <v>416</v>
       </c>
       <c r="F232" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G232" t="s">
         <v>659</v>
@@ -11433,10 +11444,10 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F233" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G233" t="s">
         <v>657</v>
@@ -11453,10 +11464,10 @@
         <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F234" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G234" t="s">
         <v>657</v>
@@ -11476,7 +11487,7 @@
         <v>429</v>
       </c>
       <c r="F235" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G235" t="s">
         <v>659</v>
@@ -11490,13 +11501,13 @@
     </row>
     <row r="236" spans="1:14">
       <c r="D236" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E236" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F236" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G236" t="s">
         <v>657</v>
@@ -11505,16 +11516,16 @@
         <v>662</v>
       </c>
       <c r="I236" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L236" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M236" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N236" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11522,10 +11533,10 @@
         <v>711</v>
       </c>
       <c r="E237" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F237" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G237" t="s">
         <v>657</v>
@@ -11542,10 +11553,10 @@
         <v>711</v>
       </c>
       <c r="E238" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F238" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G238" t="s">
         <v>657</v>
@@ -11562,10 +11573,10 @@
         <v>230</v>
       </c>
       <c r="B239" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C239" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G239" t="s">
         <v>742</v>
@@ -11574,18 +11585,18 @@
         <v>661</v>
       </c>
       <c r="I239" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B240" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C240" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G240" t="s">
         <v>657</v>
@@ -11605,7 +11616,7 @@
         <v>515</v>
       </c>
       <c r="F241" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G241" t="s">
         <v>659</v>
@@ -11622,10 +11633,10 @@
         <v>717</v>
       </c>
       <c r="E242" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F242" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G242" t="s">
         <v>657</v>
@@ -11642,13 +11653,13 @@
         <v>717</v>
       </c>
       <c r="E243" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F243" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G243" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H243" t="s">
         <v>661</v>
@@ -11662,10 +11673,10 @@
         <v>717</v>
       </c>
       <c r="E244" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F244" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G244" t="s">
         <v>657</v>
@@ -11679,13 +11690,13 @@
     </row>
     <row r="245" spans="1:17">
       <c r="D245" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E245" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F245" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G245" t="s">
         <v>657</v>
@@ -11699,13 +11710,13 @@
     </row>
     <row r="246" spans="1:17">
       <c r="D246" t="s">
+        <v>890</v>
+      </c>
+      <c r="E246" t="s">
+        <v>891</v>
+      </c>
+      <c r="F246" t="s">
         <v>892</v>
-      </c>
-      <c r="E246" t="s">
-        <v>893</v>
-      </c>
-      <c r="F246" t="s">
-        <v>894</v>
       </c>
       <c r="G246" t="s">
         <v>659</v>
@@ -11719,36 +11730,36 @@
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E247" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F247" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G247" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H247" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I247" t="s">
         <v>701</v>
       </c>
       <c r="J247" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="D248" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E248" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F248" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G248" t="s">
         <v>659</v>
@@ -11757,7 +11768,7 @@
         <v>66</v>
       </c>
       <c r="I248" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -11765,62 +11776,62 @@
         <v>673</v>
       </c>
       <c r="E249" t="s">
+        <v>929</v>
+      </c>
+      <c r="F249" t="s">
+        <v>930</v>
+      </c>
+      <c r="G249" t="s">
+        <v>926</v>
+      </c>
+      <c r="H249" t="s">
+        <v>932</v>
+      </c>
+      <c r="I249" t="s">
         <v>931</v>
-      </c>
-      <c r="F249" t="s">
-        <v>932</v>
-      </c>
-      <c r="G249" t="s">
-        <v>928</v>
-      </c>
-      <c r="H249" t="s">
-        <v>934</v>
-      </c>
-      <c r="I249" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="250" spans="1:17">
       <c r="D250" t="s">
+        <v>933</v>
+      </c>
+      <c r="E250" t="s">
+        <v>934</v>
+      </c>
+      <c r="F250" t="s">
         <v>935</v>
       </c>
-      <c r="E250" t="s">
-        <v>936</v>
-      </c>
-      <c r="F250" t="s">
-        <v>937</v>
-      </c>
       <c r="G250" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H250" t="s">
         <v>66</v>
       </c>
       <c r="I250" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="J250" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="251" spans="1:17" ht="16.5">
       <c r="D251" t="s">
-        <v>940</v>
+        <v>1014</v>
       </c>
       <c r="E251" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F251" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G251" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H251" t="s">
         <v>66</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -11834,13 +11845,13 @@
         <v>312</v>
       </c>
       <c r="D252" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E252" t="s">
         <v>313</v>
       </c>
       <c r="F252" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G252" t="s">
         <v>657</v>
@@ -11852,13 +11863,13 @@
         <v>682</v>
       </c>
       <c r="L252" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M252" t="s">
         <v>313</v>
       </c>
       <c r="N252" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="O252" t="s">
         <v>310</v>
@@ -11867,7 +11878,7 @@
         <v>313</v>
       </c>
       <c r="Q252" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="253" spans="1:17">
@@ -11875,13 +11886,13 @@
         <v>287</v>
       </c>
       <c r="E253" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F253" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G253" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H253" t="s">
         <v>66</v>
@@ -11915,16 +11926,16 @@
         <v>525</v>
       </c>
       <c r="E255" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F255" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G255" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H255" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I255" t="s">
         <v>682</v>
@@ -11938,10 +11949,10 @@
         <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G256" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H256" t="s">
         <v>66</v>
@@ -11955,10 +11966,10 @@
         <v>365</v>
       </c>
       <c r="E257" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F257" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G257" t="s">
         <v>657</v>
@@ -11978,10 +11989,10 @@
         <v>46</v>
       </c>
       <c r="E258" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F258" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G258" t="s">
         <v>659</v>
@@ -11998,13 +12009,13 @@
         <v>525</v>
       </c>
       <c r="E259" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F259" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G259" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H259" t="s">
         <v>66</v>
@@ -12015,13 +12026,13 @@
     </row>
     <row r="260" spans="1:10">
       <c r="D260" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E260" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F260" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G260" t="s">
         <v>659</v>
@@ -12035,16 +12046,16 @@
     </row>
     <row r="261" spans="1:10">
       <c r="D261" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E261" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F261" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G261" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
@@ -12053,7 +12064,7 @@
         <v>681</v>
       </c>
       <c r="J261" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -12061,13 +12072,13 @@
         <v>60</v>
       </c>
       <c r="E262" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F262" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="G262" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H262" t="s">
         <v>66</v>
@@ -12076,7 +12087,7 @@
         <v>685</v>
       </c>
       <c r="J262" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -12084,13 +12095,13 @@
         <v>115</v>
       </c>
       <c r="E263" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F263" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G263" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H263" t="s">
         <v>66</v>
@@ -12107,7 +12118,7 @@
         <v>751</v>
       </c>
       <c r="F264" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G264" t="s">
         <v>657</v>
@@ -12121,13 +12132,13 @@
     </row>
     <row r="265" spans="1:10">
       <c r="D265" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E265" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F265" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G265" t="s">
         <v>657</v>
@@ -12141,16 +12152,16 @@
     </row>
     <row r="266" spans="1:10">
       <c r="D266" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E266" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F266" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G266" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H266" t="s">
         <v>66</v>
@@ -12164,16 +12175,16 @@
         <v>570</v>
       </c>
       <c r="E267" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F267" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G267" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H267" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I267" t="s">
         <v>701</v>
@@ -12187,10 +12198,10 @@
         <v>230</v>
       </c>
       <c r="E268" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F268" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G268" t="s">
         <v>660</v>
@@ -12207,7 +12218,7 @@
         <v>361</v>
       </c>
       <c r="C269" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D269" t="s">
         <v>323</v>
@@ -12216,7 +12227,7 @@
         <v>361</v>
       </c>
       <c r="F269" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G269" t="s">
         <v>657</v>
@@ -12236,7 +12247,7 @@
         <v>79</v>
       </c>
       <c r="F270" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G270" t="s">
         <v>657</v>
@@ -12254,15 +12265,15 @@
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="88" priority="86"/>
     <cfRule type="duplicateValues" dxfId="87" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="83" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="66"/>
     <cfRule type="duplicateValues" dxfId="79" priority="76"/>
     <cfRule type="duplicateValues" dxfId="78" priority="78"/>
     <cfRule type="duplicateValues" dxfId="77" priority="80"/>
@@ -12293,17 +12304,17 @@
     <cfRule type="duplicateValues" dxfId="62" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="61" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F18 F268:F1048576 F20:F192 F211:F266">
     <cfRule type="duplicateValues" dxfId="50" priority="30"/>
@@ -12336,25 +12347,25 @@
   <conditionalFormatting sqref="F262 F265 F1:F18 F268:F1048576 F20:F192 F211:F260">
     <cfRule type="duplicateValues" dxfId="40" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263:G263">
-    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265 F1:F18 F268:F1048576 F20:F192 F211:F262">
-    <cfRule type="duplicateValues" dxfId="37" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F267">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263:G263">
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="34" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="84"/>
     <cfRule type="duplicateValues" dxfId="33" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J250:J256 J1:J248 J258:J1048576">
     <cfRule type="duplicateValues" dxfId="31" priority="61"/>
@@ -12363,12 +12374,12 @@
     <cfRule type="duplicateValues" dxfId="30" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
     <cfRule type="duplicateValues" dxfId="23" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
@@ -12377,32 +12388,32 @@
     <cfRule type="duplicateValues" dxfId="20" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N190:N191">
-    <cfRule type="duplicateValues" dxfId="19" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N236">
     <cfRule type="duplicateValues" dxfId="13" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
     <cfRule type="duplicateValues" dxfId="4" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBA560-C8F6-40A6-A046-8B21E783353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EBD379-3CFB-4F24-9DF5-98962F4707E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1062">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3232,6 +3232,33 @@
   <si>
     <t>方芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-4451H</t>
+  </si>
+  <si>
+    <t>SC60221-D-100</t>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-TR-Q</t>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
+  </si>
+  <si>
+    <t>V2302C</t>
+  </si>
+  <si>
+    <t>VE8602A5R</t>
+  </si>
+  <si>
+    <t>TRVE8602A5R-8602</t>
+  </si>
+  <si>
+    <t>VE8602AKR</t>
+  </si>
+  <si>
+    <t>VE8602AKR-8602</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3430,67 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="120">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4820,11 +4907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W272"/>
+  <dimension ref="A1:W276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12884,199 +12971,309 @@
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
+      <c r="D272" t="s">
+        <v>930</v>
+      </c>
+      <c r="E272" t="s">
+        <v>964</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G272" t="s">
+        <v>658</v>
+      </c>
+      <c r="H272" t="s">
+        <v>66</v>
+      </c>
+      <c r="I272" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="273" spans="4:9">
+      <c r="D273" t="s">
+        <v>569</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G273" t="s">
+        <v>919</v>
+      </c>
+      <c r="H273" t="s">
+        <v>920</v>
+      </c>
+      <c r="I273" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="274" spans="4:9">
+      <c r="D274" t="s">
+        <v>716</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G274" t="s">
+        <v>656</v>
+      </c>
+      <c r="H274" t="s">
+        <v>661</v>
+      </c>
+      <c r="I274" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="275" spans="4:9">
+      <c r="D275" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G275" t="s">
+        <v>923</v>
+      </c>
+      <c r="H275" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="276" spans="4:9">
+      <c r="D276" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G276" t="s">
+        <v>923</v>
+      </c>
+      <c r="H276" t="s">
+        <v>924</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W271" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="113" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="108" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="99" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="98" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="97" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="91" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="90" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="85" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="112"/>
     <cfRule type="duplicateValues" dxfId="83" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
-    <cfRule type="duplicateValues" dxfId="73" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="69" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="68" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="67" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="66" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F1048576 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18">
-    <cfRule type="duplicateValues" dxfId="64" priority="91"/>
+  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="70" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F1048576 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="87"/>
+  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="69" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F266:F1048576 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="61" priority="78"/>
+  <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="67" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="60" priority="72"/>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="66" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="65" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266:F1048576 F210:F234 F236:F264 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+  <conditionalFormatting sqref="F266:F271 F210:F234 F236:F264 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="62" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
-    <cfRule type="duplicateValues" dxfId="55" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="54" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
-    <cfRule type="duplicateValues" dxfId="51" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="50" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="42" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="37" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="17" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="10" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F272">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F272">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275:F276">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275:F276">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EBD379-3CFB-4F24-9DF5-98962F4707E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AE9246-891A-4356-86F1-3125F57BB327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$278</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1069">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2875,9 +2875,6 @@
     <t>SC9625VB-Q-CE-4XCR-9625L</t>
   </si>
   <si>
-    <t>NM.SC9625VB-CE-00CK</t>
-  </si>
-  <si>
     <t>NF.SC1445A2-713B</t>
   </si>
   <si>
@@ -3259,6 +3256,31 @@
   </si>
   <si>
     <t>VE8602AKR-8602</t>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5-1430QC5</t>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5</t>
+  </si>
+  <si>
+    <t>V2201D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624SP20B5</t>
+  </si>
+  <si>
+    <t>SC4624SP20B5-SC4624</t>
+  </si>
+  <si>
+    <t>NF.SC4624SP20B5-SC4624</t>
+  </si>
+  <si>
+    <t>NF.SC9625VB-CE-9625L</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40AK-4643</t>
   </si>
 </sst>
 </file>
@@ -3430,7 +3452,127 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4907,11 +5049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W276"/>
+  <dimension ref="A1:W279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4921,7 +5063,7 @@
     <col min="3" max="3" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="7.375" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
@@ -5161,7 +5303,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -5170,7 +5312,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -5285,7 +5427,7 @@
         <v>49</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5448,7 +5590,7 @@
         <v>679</v>
       </c>
       <c r="J13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5459,7 +5601,7 @@
         <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -5545,7 +5687,7 @@
         <v>84</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5679,7 +5821,7 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G19" t="s">
         <v>899</v>
@@ -5930,7 +6072,7 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6066,7 +6208,7 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -6376,7 +6518,7 @@
         <v>179</v>
       </c>
       <c r="Q39" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -6499,7 +6641,7 @@
         <v>664</v>
       </c>
       <c r="T42" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -6519,7 +6661,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G43" t="s">
         <v>898</v>
@@ -6551,7 +6693,7 @@
         <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D44" t="s">
         <v>160</v>
@@ -6636,22 +6778,22 @@
         <v>202</v>
       </c>
       <c r="L46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M46" t="s">
         <v>203</v>
       </c>
       <c r="N46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="P46" t="s">
         <v>203</v>
       </c>
       <c r="Q46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -6691,7 +6833,7 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D48" t="s">
         <v>205</v>
@@ -7241,7 +7383,7 @@
         <v>679</v>
       </c>
       <c r="J68" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7264,7 +7406,7 @@
         <v>679</v>
       </c>
       <c r="J69" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7603,16 +7745,16 @@
         <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D81" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E81" t="s">
+        <v>965</v>
+      </c>
+      <c r="F81" t="s">
         <v>966</v>
-      </c>
-      <c r="F81" t="s">
-        <v>967</v>
       </c>
       <c r="G81" t="s">
         <v>659</v>
@@ -7796,7 +7938,7 @@
         <v>661</v>
       </c>
       <c r="I86" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8000,7 +8142,7 @@
         <v>398</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8378,7 +8520,7 @@
         <v>382</v>
       </c>
       <c r="N104" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -8563,10 +8705,10 @@
         <v>389</v>
       </c>
       <c r="E111" t="s">
+        <v>946</v>
+      </c>
+      <c r="F111" t="s">
         <v>947</v>
-      </c>
-      <c r="F111" t="s">
-        <v>948</v>
       </c>
       <c r="G111" t="s">
         <v>656</v>
@@ -8642,7 +8784,7 @@
         <v>72</v>
       </c>
       <c r="N113" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -8729,7 +8871,7 @@
         <v>420</v>
       </c>
       <c r="N116" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -8992,16 +9134,16 @@
         <v>459</v>
       </c>
       <c r="G123" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H123" t="s">
         <v>1007</v>
-      </c>
-      <c r="H123" t="s">
-        <v>1008</v>
       </c>
       <c r="I123" t="s">
         <v>681</v>
       </c>
       <c r="J123" t="s">
-        <v>940</v>
+        <v>1067</v>
       </c>
       <c r="L123" t="s">
         <v>455</v>
@@ -9010,7 +9152,7 @@
         <v>456</v>
       </c>
       <c r="N123" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9024,16 +9166,16 @@
         <v>877</v>
       </c>
       <c r="G124" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H124" t="s">
         <v>1007</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1008</v>
       </c>
       <c r="I124" t="s">
         <v>681</v>
       </c>
       <c r="J124" t="s">
-        <v>940</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9047,16 +9189,16 @@
         <v>939</v>
       </c>
       <c r="G125" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H125" t="s">
         <v>1007</v>
-      </c>
-      <c r="H125" t="s">
-        <v>1008</v>
       </c>
       <c r="I125" t="s">
         <v>681</v>
       </c>
       <c r="J125" t="s">
-        <v>940</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9434,10 +9576,10 @@
         <v>506</v>
       </c>
       <c r="B137" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C137" t="s">
         <v>1040</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1041</v>
       </c>
       <c r="D137" t="s">
         <v>506</v>
@@ -9472,10 +9614,10 @@
         <v>506</v>
       </c>
       <c r="B138" t="s">
+        <v>998</v>
+      </c>
+      <c r="C138" t="s">
         <v>999</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1000</v>
       </c>
       <c r="D138" t="s">
         <v>506</v>
@@ -9510,10 +9652,10 @@
         <v>506</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>1042</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>1043</v>
       </c>
       <c r="D139" t="s">
         <v>506</v>
@@ -9543,7 +9685,7 @@
         <v>507</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -9581,10 +9723,10 @@
         <v>518</v>
       </c>
       <c r="M140" t="s">
+        <v>952</v>
+      </c>
+      <c r="N140" t="s">
         <v>953</v>
-      </c>
-      <c r="N140" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9819,7 +9961,7 @@
         <v>553</v>
       </c>
       <c r="F148" t="s">
-        <v>554</v>
+        <v>1068</v>
       </c>
       <c r="G148" t="s">
         <v>919</v>
@@ -9837,10 +9979,19 @@
         <v>524</v>
       </c>
       <c r="M148" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N148" t="s">
         <v>1038</v>
       </c>
-      <c r="N148" t="s">
-        <v>1039</v>
+      <c r="O148" t="s">
+        <v>524</v>
+      </c>
+      <c r="P148" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -9848,10 +9999,10 @@
         <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C149" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D149" t="s">
         <v>524</v>
@@ -9880,10 +10031,10 @@
         <v>524</v>
       </c>
       <c r="B150" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C150" t="s">
         <v>1035</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1036</v>
       </c>
       <c r="D150" t="s">
         <v>524</v>
@@ -10021,7 +10172,7 @@
         <v>717</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -10306,7 +10457,7 @@
         <v>287</v>
       </c>
       <c r="T162" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="U162" t="s">
         <v>621</v>
@@ -10559,7 +10710,7 @@
         <v>644</v>
       </c>
       <c r="C170" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D170" t="s">
         <v>477</v>
@@ -10918,7 +11069,7 @@
         <v>751</v>
       </c>
       <c r="D183" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E183" t="s">
         <v>752</v>
@@ -10942,12 +11093,12 @@
         <v>750</v>
       </c>
       <c r="N183" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="D184" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E184" t="s">
         <v>754</v>
@@ -10968,7 +11119,7 @@
         <v>759</v>
       </c>
       <c r="L184" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M184" t="s">
         <v>754</v>
@@ -11028,10 +11179,10 @@
         <v>760</v>
       </c>
       <c r="E187" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F187" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G187" t="s">
         <v>898</v>
@@ -11104,7 +11255,7 @@
         <v>777</v>
       </c>
       <c r="N189" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -11127,10 +11278,10 @@
         <v>787</v>
       </c>
       <c r="G190" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H190" t="s">
         <v>1051</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1052</v>
       </c>
       <c r="I190" t="s">
         <v>690</v>
@@ -11770,7 +11921,7 @@
         <v>739</v>
       </c>
       <c r="N216" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11795,7 +11946,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="D218" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E218" t="s">
         <v>820</v>
@@ -11970,10 +12121,10 @@
         <v>841</v>
       </c>
       <c r="B226" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C226" t="s">
         <v>1018</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1019</v>
       </c>
       <c r="D226" t="s">
         <v>841</v>
@@ -12082,7 +12233,7 @@
         <v>413</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D231" t="s">
         <v>407</v>
@@ -12186,10 +12337,10 @@
         <v>822</v>
       </c>
       <c r="M235" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N235" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12297,10 +12448,10 @@
         <v>808</v>
       </c>
       <c r="B241" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C241" t="s">
         <v>1046</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1047</v>
       </c>
       <c r="D241" t="s">
         <v>716</v>
@@ -12475,21 +12626,21 @@
         <v>932</v>
       </c>
       <c r="G249" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H249" t="s">
         <v>66</v>
       </c>
       <c r="I249" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J249" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E250" t="s">
         <v>935</v>
@@ -12498,7 +12649,7 @@
         <v>936</v>
       </c>
       <c r="G250" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H250" t="s">
         <v>66</v>
@@ -12524,7 +12675,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G251" t="s">
         <v>656</v>
@@ -12551,7 +12702,7 @@
         <v>312</v>
       </c>
       <c r="Q251" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -12559,13 +12710,13 @@
         <v>286</v>
       </c>
       <c r="E252" t="s">
+        <v>944</v>
+      </c>
+      <c r="F252" t="s">
         <v>945</v>
       </c>
-      <c r="F252" t="s">
-        <v>946</v>
-      </c>
       <c r="G252" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H252" t="s">
         <v>66</v>
@@ -12599,10 +12750,10 @@
         <v>524</v>
       </c>
       <c r="E254" t="s">
+        <v>948</v>
+      </c>
+      <c r="F254" t="s">
         <v>949</v>
-      </c>
-      <c r="F254" t="s">
-        <v>950</v>
       </c>
       <c r="G254" t="s">
         <v>919</v>
@@ -12622,10 +12773,10 @@
         <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G255" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H255" t="s">
         <v>66</v>
@@ -12639,10 +12790,10 @@
         <v>364</v>
       </c>
       <c r="E256" t="s">
+        <v>954</v>
+      </c>
+      <c r="F256" t="s">
         <v>955</v>
-      </c>
-      <c r="F256" t="s">
-        <v>956</v>
       </c>
       <c r="G256" t="s">
         <v>656</v>
@@ -12659,10 +12810,10 @@
         <v>46</v>
       </c>
       <c r="E257" t="s">
+        <v>958</v>
+      </c>
+      <c r="F257" t="s">
         <v>959</v>
-      </c>
-      <c r="F257" t="s">
-        <v>960</v>
       </c>
       <c r="G257" t="s">
         <v>658</v>
@@ -12679,13 +12830,13 @@
         <v>524</v>
       </c>
       <c r="E258" t="s">
+        <v>960</v>
+      </c>
+      <c r="F258" t="s">
         <v>961</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>962</v>
-      </c>
-      <c r="G258" t="s">
-        <v>963</v>
       </c>
       <c r="H258" t="s">
         <v>66</v>
@@ -12699,10 +12850,10 @@
         <v>930</v>
       </c>
       <c r="E259" t="s">
+        <v>963</v>
+      </c>
+      <c r="F259" t="s">
         <v>964</v>
-      </c>
-      <c r="F259" t="s">
-        <v>965</v>
       </c>
       <c r="G259" t="s">
         <v>658</v>
@@ -12719,13 +12870,13 @@
         <v>930</v>
       </c>
       <c r="E260" t="s">
+        <v>968</v>
+      </c>
+      <c r="F260" t="s">
         <v>969</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>970</v>
-      </c>
-      <c r="G260" t="s">
-        <v>971</v>
       </c>
       <c r="H260" t="s">
         <v>66</v>
@@ -12734,7 +12885,7 @@
         <v>680</v>
       </c>
       <c r="J260" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -12742,19 +12893,39 @@
         <v>115</v>
       </c>
       <c r="E261" t="s">
+        <v>981</v>
+      </c>
+      <c r="F261" t="s">
         <v>982</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>983</v>
-      </c>
-      <c r="G261" t="s">
-        <v>984</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
       </c>
       <c r="I261" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="D262" t="s">
+        <v>930</v>
+      </c>
+      <c r="E262" t="s">
+        <v>963</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G262" t="s">
+        <v>970</v>
+      </c>
+      <c r="H262" t="s">
+        <v>66</v>
+      </c>
+      <c r="I262" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -12762,10 +12933,10 @@
         <v>838</v>
       </c>
       <c r="E263" t="s">
+        <v>985</v>
+      </c>
+      <c r="F263" t="s">
         <v>986</v>
-      </c>
-      <c r="F263" t="s">
-        <v>987</v>
       </c>
       <c r="G263" t="s">
         <v>656</v>
@@ -12779,16 +12950,16 @@
     </row>
     <row r="264" spans="1:10">
       <c r="D264" t="s">
+        <v>987</v>
+      </c>
+      <c r="E264" t="s">
         <v>988</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>989</v>
       </c>
-      <c r="F264" t="s">
-        <v>990</v>
-      </c>
       <c r="G264" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H264" t="s">
         <v>66</v>
@@ -12825,10 +12996,10 @@
         <v>229</v>
       </c>
       <c r="E266" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F266" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G266" t="s">
         <v>659</v>
@@ -12845,7 +13016,7 @@
         <v>360</v>
       </c>
       <c r="C267" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D267" t="s">
         <v>322</v>
@@ -12854,7 +13025,7 @@
         <v>360</v>
       </c>
       <c r="F267" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G267" t="s">
         <v>656</v>
@@ -12883,7 +13054,7 @@
         <v>79</v>
       </c>
       <c r="F268" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G268" t="s">
         <v>656</v>
@@ -12900,22 +13071,22 @@
         <v>60</v>
       </c>
       <c r="B269" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C269" t="s">
         <v>1012</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1013</v>
       </c>
       <c r="D269" t="s">
         <v>60</v>
       </c>
       <c r="E269" t="s">
+        <v>975</v>
+      </c>
+      <c r="F269" t="s">
         <v>976</v>
       </c>
-      <c r="F269" t="s">
-        <v>977</v>
-      </c>
       <c r="G269" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H269" t="s">
         <v>66</v>
@@ -12924,7 +13095,7 @@
         <v>684</v>
       </c>
       <c r="J269" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -12932,19 +13103,19 @@
         <v>69</v>
       </c>
       <c r="B270" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C270" t="s">
         <v>1014</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1015</v>
       </c>
       <c r="D270" t="s">
         <v>69</v>
       </c>
       <c r="E270" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F270" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G270" t="s">
         <v>658</v>
@@ -12958,13 +13129,13 @@
     </row>
     <row r="271" spans="1:10">
       <c r="D271" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E271" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F271" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -12975,10 +13146,10 @@
         <v>930</v>
       </c>
       <c r="E272" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F272" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G272" t="s">
         <v>658</v>
@@ -12990,15 +13161,15 @@
         <v>687</v>
       </c>
     </row>
-    <row r="273" spans="4:9">
+    <row r="273" spans="4:10">
       <c r="D273" t="s">
         <v>569</v>
       </c>
       <c r="E273" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F273" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G273" t="s">
         <v>919</v>
@@ -13010,15 +13181,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="274" spans="4:9">
+    <row r="274" spans="4:10">
       <c r="D274" t="s">
         <v>716</v>
       </c>
       <c r="E274" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F274" t="s">
         <v>1055</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1056</v>
       </c>
       <c r="G274" t="s">
         <v>656</v>
@@ -13030,15 +13201,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="275" spans="4:9">
+    <row r="275" spans="4:10">
       <c r="D275" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E275" t="s">
         <v>1057</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>1058</v>
-      </c>
-      <c r="F275" t="s">
-        <v>1059</v>
       </c>
       <c r="G275" t="s">
         <v>923</v>
@@ -13047,15 +13218,15 @@
         <v>924</v>
       </c>
     </row>
-    <row r="276" spans="4:9">
+    <row r="276" spans="4:10">
       <c r="D276" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E276" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F276" t="s">
         <v>1060</v>
-      </c>
-      <c r="F276" t="s">
-        <v>1061</v>
       </c>
       <c r="G276" t="s">
         <v>923</v>
@@ -13064,216 +13235,287 @@
         <v>924</v>
       </c>
     </row>
+    <row r="277" spans="4:10">
+      <c r="D277" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G277" t="s">
+        <v>923</v>
+      </c>
+      <c r="H277" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="278" spans="4:10">
+      <c r="D278" t="s">
+        <v>587</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G278" t="s">
+        <v>919</v>
+      </c>
+      <c r="H278" t="s">
+        <v>920</v>
+      </c>
+      <c r="I278" t="s">
+        <v>702</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="279" spans="4:10">
+      <c r="D279" t="s">
+        <v>822</v>
+      </c>
+      <c r="E279" t="s">
+        <v>957</v>
+      </c>
+      <c r="F279" t="s">
+        <v>956</v>
+      </c>
+      <c r="G279" t="s">
+        <v>656</v>
+      </c>
+      <c r="H279" t="s">
+        <v>661</v>
+      </c>
+      <c r="I279" t="s">
+        <v>758</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W271" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="119" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="114" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="106" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="105" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="104" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="103" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="97" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="96" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="91" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="80" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F148">
+    <cfRule type="duplicateValues" dxfId="91" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
-    <cfRule type="duplicateValues" dxfId="79" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="75" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="74" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="73" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
+    <cfRule type="duplicateValues" dxfId="82" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="81" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F147 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F278 F149:F234 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="79" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="78" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="76" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F259 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="75" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F260 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="74" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F264">
+    <cfRule type="duplicateValues" dxfId="73" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
     <cfRule type="duplicateValues" dxfId="72" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
+  <conditionalFormatting sqref="F266:F271 F210:F234 F236:F261 F20:F147 F1:F5 F7:F18 F273 F277:F278 F263:F264 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="71" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="97"/>
+  <conditionalFormatting sqref="F272">
+    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="93"/>
+  <conditionalFormatting sqref="F274">
+    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F266:F271 F210:F234 F236:F264 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="65"/>
+  <conditionalFormatting sqref="F275:F276">
+    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
-    <cfRule type="duplicateValues" dxfId="61" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="60" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
-    <cfRule type="duplicateValues" dxfId="57" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="56" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="48" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="43" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="23" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q148">
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F274">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F274">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F275:F276">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F275:F276">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="F279">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DB3105-FBF0-4A90-86B5-75E698D1E1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE806434-ED2B-4C31-B282-3A424823A5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5052,8 +5052,8 @@
   <dimension ref="A1:W279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J273" sqref="J273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE806434-ED2B-4C31-B282-3A424823A5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE359EC-FB2D-4125-A82F-4174C7EE23BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1070">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2726,9 +2726,6 @@
     <t>SC9684TS-Q-DB-4XAR-9684</t>
   </si>
   <si>
-    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
-  </si>
-  <si>
     <t>NM.SC60104</t>
   </si>
   <si>
@@ -3281,6 +3278,12 @@
   </si>
   <si>
     <t>SC4643VB-P-Q-DE-40AK-4643</t>
+  </si>
+  <si>
+    <t>NF.SC9642TS-EC-Q-AH-9642</t>
+  </si>
+  <si>
+    <t>NF.SC9642TS-E-Q-AH-9642</t>
   </si>
 </sst>
 </file>
@@ -5052,8 +5055,8 @@
   <dimension ref="A1:W279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J273" sqref="J273"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5303,7 +5306,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -5312,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -5427,7 +5430,7 @@
         <v>49</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5488,7 +5491,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -5511,7 +5514,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -5590,7 +5593,7 @@
         <v>679</v>
       </c>
       <c r="J13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5601,7 +5604,7 @@
         <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -5687,7 +5690,7 @@
         <v>84</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5821,13 +5824,13 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G19" t="s">
+        <v>898</v>
+      </c>
+      <c r="H19" t="s">
         <v>899</v>
-      </c>
-      <c r="H19" t="s">
-        <v>900</v>
       </c>
       <c r="I19" t="s">
         <v>679</v>
@@ -5862,7 +5865,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G20" t="s">
         <v>658</v>
@@ -5894,7 +5897,7 @@
         <v>726</v>
       </c>
       <c r="G21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5984,7 +5987,7 @@
         <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -6072,7 +6075,7 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6208,7 +6211,7 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -6336,10 +6339,10 @@
         <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G35" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -6409,7 +6412,7 @@
         <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -6459,7 +6462,7 @@
         <v>177</v>
       </c>
       <c r="G38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -6491,7 +6494,7 @@
         <v>662</v>
       </c>
       <c r="G39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -6509,7 +6512,7 @@
         <v>181</v>
       </c>
       <c r="N39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O39" t="s">
         <v>160</v>
@@ -6518,7 +6521,7 @@
         <v>179</v>
       </c>
       <c r="Q39" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -6541,7 +6544,7 @@
         <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -6573,7 +6576,7 @@
         <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -6605,7 +6608,7 @@
         <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -6641,7 +6644,7 @@
         <v>664</v>
       </c>
       <c r="T42" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -6661,10 +6664,10 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G43" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -6693,7 +6696,7 @@
         <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D44" t="s">
         <v>160</v>
@@ -6725,7 +6728,7 @@
         <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6740,10 +6743,10 @@
         <v>196</v>
       </c>
       <c r="M45" t="s">
+        <v>932</v>
+      </c>
+      <c r="N45" t="s">
         <v>933</v>
-      </c>
-      <c r="N45" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6766,7 +6769,7 @@
         <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -6778,22 +6781,22 @@
         <v>202</v>
       </c>
       <c r="L46" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M46" t="s">
         <v>203</v>
       </c>
       <c r="N46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O46" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="P46" t="s">
         <v>203</v>
       </c>
       <c r="Q46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -6833,7 +6836,7 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D48" t="s">
         <v>205</v>
@@ -6842,7 +6845,7 @@
         <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G48" t="s">
         <v>658</v>
@@ -6900,10 +6903,10 @@
         <v>205</v>
       </c>
       <c r="E50" t="s">
+        <v>904</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>905</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>906</v>
       </c>
       <c r="G50" t="s">
         <v>659</v>
@@ -7031,7 +7034,7 @@
         <v>226</v>
       </c>
       <c r="F54" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G54" t="s">
         <v>658</v>
@@ -7141,7 +7144,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G58" t="s">
         <v>659</v>
@@ -7383,7 +7386,7 @@
         <v>679</v>
       </c>
       <c r="J68" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7406,7 +7409,7 @@
         <v>679</v>
       </c>
       <c r="J69" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7417,7 +7420,7 @@
         <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D70" t="s">
         <v>260</v>
@@ -7667,7 +7670,7 @@
         <v>285</v>
       </c>
       <c r="F78" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G78" t="s">
         <v>658</v>
@@ -7745,16 +7748,16 @@
         <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D81" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E81" t="s">
+        <v>964</v>
+      </c>
+      <c r="F81" t="s">
         <v>965</v>
-      </c>
-      <c r="F81" t="s">
-        <v>966</v>
       </c>
       <c r="G81" t="s">
         <v>659</v>
@@ -7830,7 +7833,7 @@
         <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G83" t="s">
         <v>658</v>
@@ -7938,7 +7941,7 @@
         <v>661</v>
       </c>
       <c r="I86" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8142,7 +8145,7 @@
         <v>398</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8194,7 +8197,7 @@
         <v>343</v>
       </c>
       <c r="F94" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G94" t="s">
         <v>656</v>
@@ -8287,7 +8290,7 @@
         <v>355</v>
       </c>
       <c r="F97" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G97" t="s">
         <v>656</v>
@@ -8520,7 +8523,7 @@
         <v>382</v>
       </c>
       <c r="N104" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -8705,10 +8708,10 @@
         <v>389</v>
       </c>
       <c r="E111" t="s">
+        <v>945</v>
+      </c>
+      <c r="F111" t="s">
         <v>946</v>
-      </c>
-      <c r="F111" t="s">
-        <v>947</v>
       </c>
       <c r="G111" t="s">
         <v>656</v>
@@ -8784,7 +8787,7 @@
         <v>72</v>
       </c>
       <c r="N113" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -8871,7 +8874,7 @@
         <v>420</v>
       </c>
       <c r="N116" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -8979,7 +8982,7 @@
         <v>441</v>
       </c>
       <c r="G119" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H119" t="s">
         <v>66</v>
@@ -9032,7 +9035,7 @@
         <v>657</v>
       </c>
       <c r="H120" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I120" t="s">
         <v>695</v>
@@ -9058,13 +9061,13 @@
         <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G121" t="s">
+        <v>898</v>
+      </c>
+      <c r="H121" t="s">
         <v>899</v>
-      </c>
-      <c r="H121" t="s">
-        <v>900</v>
       </c>
       <c r="I121" t="s">
         <v>695</v>
@@ -9134,16 +9137,16 @@
         <v>459</v>
       </c>
       <c r="G123" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H123" t="s">
         <v>1006</v>
-      </c>
-      <c r="H123" t="s">
-        <v>1007</v>
       </c>
       <c r="I123" t="s">
         <v>681</v>
       </c>
       <c r="J123" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L123" t="s">
         <v>455</v>
@@ -9152,7 +9155,7 @@
         <v>456</v>
       </c>
       <c r="N123" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9166,16 +9169,16 @@
         <v>877</v>
       </c>
       <c r="G124" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H124" t="s">
         <v>1006</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1007</v>
       </c>
       <c r="I124" t="s">
         <v>681</v>
       </c>
       <c r="J124" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9183,22 +9186,22 @@
         <v>455</v>
       </c>
       <c r="E125" t="s">
+        <v>937</v>
+      </c>
+      <c r="F125" t="s">
         <v>938</v>
       </c>
-      <c r="F125" t="s">
-        <v>939</v>
-      </c>
       <c r="G125" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H125" t="s">
         <v>1006</v>
-      </c>
-      <c r="H125" t="s">
-        <v>1007</v>
       </c>
       <c r="I125" t="s">
         <v>681</v>
       </c>
       <c r="J125" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9221,7 +9224,7 @@
         <v>464</v>
       </c>
       <c r="G126" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H126" t="s">
         <v>66</v>
@@ -9262,16 +9265,16 @@
         <v>471</v>
       </c>
       <c r="G127" t="s">
+        <v>898</v>
+      </c>
+      <c r="H127" t="s">
         <v>899</v>
-      </c>
-      <c r="H127" t="s">
-        <v>900</v>
       </c>
       <c r="I127" t="s">
         <v>695</v>
       </c>
       <c r="J127" t="s">
-        <v>891</v>
+        <v>1069</v>
       </c>
       <c r="L127" t="s">
         <v>467</v>
@@ -9280,7 +9283,7 @@
         <v>746</v>
       </c>
       <c r="N127" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9311,6 +9314,9 @@
       <c r="I128" t="s">
         <v>695</v>
       </c>
+      <c r="J128" t="s">
+        <v>1068</v>
+      </c>
       <c r="L128" t="s">
         <v>467</v>
       </c>
@@ -9341,10 +9347,10 @@
         <v>485</v>
       </c>
       <c r="G129" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H129" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I129" t="s">
         <v>681</v>
@@ -9373,10 +9379,10 @@
         <v>489</v>
       </c>
       <c r="G130" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H130" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I130" t="s">
         <v>681</v>
@@ -9405,10 +9411,10 @@
         <v>493</v>
       </c>
       <c r="G131" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H131" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I131" t="s">
         <v>681</v>
@@ -9437,10 +9443,10 @@
         <v>782</v>
       </c>
       <c r="G132" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H132" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I132" t="s">
         <v>681</v>
@@ -9498,10 +9504,10 @@
         <v>499</v>
       </c>
       <c r="G134" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H134" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I134" t="s">
         <v>681</v>
@@ -9559,10 +9565,10 @@
         <v>510</v>
       </c>
       <c r="G136" t="s">
+        <v>918</v>
+      </c>
+      <c r="H136" t="s">
         <v>919</v>
-      </c>
-      <c r="H136" t="s">
-        <v>920</v>
       </c>
       <c r="I136" t="s">
         <v>696</v>
@@ -9576,10 +9582,10 @@
         <v>506</v>
       </c>
       <c r="B137" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C137" t="s">
         <v>1039</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1040</v>
       </c>
       <c r="D137" t="s">
         <v>506</v>
@@ -9614,10 +9620,10 @@
         <v>506</v>
       </c>
       <c r="B138" t="s">
+        <v>997</v>
+      </c>
+      <c r="C138" t="s">
         <v>998</v>
-      </c>
-      <c r="C138" t="s">
-        <v>999</v>
       </c>
       <c r="D138" t="s">
         <v>506</v>
@@ -9652,10 +9658,10 @@
         <v>506</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>1041</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>1042</v>
       </c>
       <c r="D139" t="s">
         <v>506</v>
@@ -9667,10 +9673,10 @@
         <v>667</v>
       </c>
       <c r="G139" t="s">
+        <v>918</v>
+      </c>
+      <c r="H139" t="s">
         <v>919</v>
-      </c>
-      <c r="H139" t="s">
-        <v>920</v>
       </c>
       <c r="I139" t="s">
         <v>696</v>
@@ -9685,7 +9691,7 @@
         <v>507</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -9708,10 +9714,10 @@
         <v>522</v>
       </c>
       <c r="G140" t="s">
+        <v>918</v>
+      </c>
+      <c r="H140" t="s">
         <v>919</v>
-      </c>
-      <c r="H140" t="s">
-        <v>920</v>
       </c>
       <c r="I140" t="s">
         <v>696</v>
@@ -9723,10 +9729,10 @@
         <v>518</v>
       </c>
       <c r="M140" t="s">
+        <v>951</v>
+      </c>
+      <c r="N140" t="s">
         <v>952</v>
-      </c>
-      <c r="N140" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9868,10 +9874,10 @@
         <v>766</v>
       </c>
       <c r="G145" t="s">
+        <v>918</v>
+      </c>
+      <c r="H145" t="s">
         <v>919</v>
-      </c>
-      <c r="H145" t="s">
-        <v>920</v>
       </c>
       <c r="I145" t="s">
         <v>698</v>
@@ -9900,10 +9906,10 @@
         <v>545</v>
       </c>
       <c r="G146" t="s">
+        <v>918</v>
+      </c>
+      <c r="H146" t="s">
         <v>919</v>
-      </c>
-      <c r="H146" t="s">
-        <v>920</v>
       </c>
       <c r="I146" t="s">
         <v>698</v>
@@ -9932,10 +9938,10 @@
         <v>550</v>
       </c>
       <c r="G147" t="s">
+        <v>918</v>
+      </c>
+      <c r="H147" t="s">
         <v>919</v>
-      </c>
-      <c r="H147" t="s">
-        <v>920</v>
       </c>
       <c r="I147" t="s">
         <v>699</v>
@@ -9961,13 +9967,13 @@
         <v>553</v>
       </c>
       <c r="F148" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G148" t="s">
+        <v>918</v>
+      </c>
+      <c r="H148" t="s">
         <v>919</v>
-      </c>
-      <c r="H148" t="s">
-        <v>920</v>
       </c>
       <c r="I148" t="s">
         <v>699</v>
@@ -9979,10 +9985,10 @@
         <v>524</v>
       </c>
       <c r="M148" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N148" t="s">
         <v>1037</v>
-      </c>
-      <c r="N148" t="s">
-        <v>1038</v>
       </c>
       <c r="O148" t="s">
         <v>524</v>
@@ -9999,10 +10005,10 @@
         <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C149" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D149" t="s">
         <v>524</v>
@@ -10014,10 +10020,10 @@
         <v>557</v>
       </c>
       <c r="G149" t="s">
+        <v>918</v>
+      </c>
+      <c r="H149" t="s">
         <v>919</v>
-      </c>
-      <c r="H149" t="s">
-        <v>920</v>
       </c>
       <c r="I149" t="s">
         <v>699</v>
@@ -10031,10 +10037,10 @@
         <v>524</v>
       </c>
       <c r="B150" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C150" t="s">
         <v>1034</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1035</v>
       </c>
       <c r="D150" t="s">
         <v>524</v>
@@ -10046,10 +10052,10 @@
         <v>559</v>
       </c>
       <c r="G150" t="s">
+        <v>918</v>
+      </c>
+      <c r="H150" t="s">
         <v>919</v>
-      </c>
-      <c r="H150" t="s">
-        <v>920</v>
       </c>
       <c r="I150" t="s">
         <v>699</v>
@@ -10078,10 +10084,10 @@
         <v>564</v>
       </c>
       <c r="G151" t="s">
+        <v>918</v>
+      </c>
+      <c r="H151" t="s">
         <v>919</v>
-      </c>
-      <c r="H151" t="s">
-        <v>920</v>
       </c>
       <c r="I151" t="s">
         <v>699</v>
@@ -10172,7 +10178,7 @@
         <v>717</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -10305,10 +10311,10 @@
         <v>605</v>
       </c>
       <c r="G158" t="s">
+        <v>918</v>
+      </c>
+      <c r="H158" t="s">
         <v>919</v>
-      </c>
-      <c r="H158" t="s">
-        <v>920</v>
       </c>
       <c r="I158" t="s">
         <v>681</v>
@@ -10457,7 +10463,7 @@
         <v>287</v>
       </c>
       <c r="T162" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="U162" t="s">
         <v>621</v>
@@ -10699,7 +10705,7 @@
         <v>478</v>
       </c>
       <c r="Q169" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -10710,7 +10716,7 @@
         <v>644</v>
       </c>
       <c r="C170" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D170" t="s">
         <v>477</v>
@@ -10722,10 +10728,10 @@
         <v>642</v>
       </c>
       <c r="G170" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H170" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I170" t="s">
         <v>695</v>
@@ -10812,10 +10818,10 @@
         <v>654</v>
       </c>
       <c r="G173" t="s">
+        <v>918</v>
+      </c>
+      <c r="H173" t="s">
         <v>919</v>
-      </c>
-      <c r="H173" t="s">
-        <v>920</v>
       </c>
       <c r="I173" t="s">
         <v>681</v>
@@ -10835,10 +10841,10 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
+        <v>918</v>
+      </c>
+      <c r="H174" t="s">
         <v>919</v>
-      </c>
-      <c r="H174" t="s">
-        <v>920</v>
       </c>
       <c r="I174" t="s">
         <v>681</v>
@@ -10858,10 +10864,10 @@
         <v>671</v>
       </c>
       <c r="G175" t="s">
+        <v>922</v>
+      </c>
+      <c r="H175" t="s">
         <v>923</v>
-      </c>
-      <c r="H175" t="s">
-        <v>924</v>
       </c>
       <c r="I175" t="s">
         <v>691</v>
@@ -10878,10 +10884,10 @@
         <v>674</v>
       </c>
       <c r="G176" t="s">
+        <v>922</v>
+      </c>
+      <c r="H176" t="s">
         <v>923</v>
-      </c>
-      <c r="H176" t="s">
-        <v>924</v>
       </c>
       <c r="I176" t="s">
         <v>691</v>
@@ -10898,10 +10904,10 @@
         <v>677</v>
       </c>
       <c r="G177" t="s">
+        <v>922</v>
+      </c>
+      <c r="H177" t="s">
         <v>923</v>
-      </c>
-      <c r="H177" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -10979,7 +10985,7 @@
         <v>735</v>
       </c>
       <c r="F180" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G180" t="s">
         <v>659</v>
@@ -10997,7 +11003,7 @@
         <v>735</v>
       </c>
       <c r="N180" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -11069,7 +11075,7 @@
         <v>751</v>
       </c>
       <c r="D183" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E183" t="s">
         <v>752</v>
@@ -11093,12 +11099,12 @@
         <v>750</v>
       </c>
       <c r="N183" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="D184" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E184" t="s">
         <v>754</v>
@@ -11119,7 +11125,7 @@
         <v>759</v>
       </c>
       <c r="L184" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M184" t="s">
         <v>754</v>
@@ -11139,7 +11145,7 @@
         <v>762</v>
       </c>
       <c r="G185" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H185" t="s">
         <v>66</v>
@@ -11162,7 +11168,7 @@
         <v>764</v>
       </c>
       <c r="G186" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H186" t="s">
         <v>66</v>
@@ -11179,13 +11185,13 @@
         <v>760</v>
       </c>
       <c r="E187" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F187" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G187" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H187" t="s">
         <v>66</v>
@@ -11217,10 +11223,10 @@
         <v>771</v>
       </c>
       <c r="G188" t="s">
+        <v>918</v>
+      </c>
+      <c r="H188" t="s">
         <v>919</v>
-      </c>
-      <c r="H188" t="s">
-        <v>920</v>
       </c>
       <c r="I188" t="s">
         <v>681</v>
@@ -11255,7 +11261,7 @@
         <v>777</v>
       </c>
       <c r="N189" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -11278,10 +11284,10 @@
         <v>787</v>
       </c>
       <c r="G190" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H190" t="s">
         <v>1050</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1051</v>
       </c>
       <c r="I190" t="s">
         <v>690</v>
@@ -11327,10 +11333,10 @@
         <v>571</v>
       </c>
       <c r="G192" t="s">
+        <v>918</v>
+      </c>
+      <c r="H192" t="s">
         <v>919</v>
-      </c>
-      <c r="H192" t="s">
-        <v>920</v>
       </c>
       <c r="I192" t="s">
         <v>700</v>
@@ -11350,10 +11356,10 @@
         <v>578</v>
       </c>
       <c r="G193" t="s">
+        <v>918</v>
+      </c>
+      <c r="H193" t="s">
         <v>919</v>
-      </c>
-      <c r="H193" t="s">
-        <v>920</v>
       </c>
       <c r="I193" t="s">
         <v>700</v>
@@ -11373,10 +11379,10 @@
         <v>794</v>
       </c>
       <c r="G194" t="s">
+        <v>918</v>
+      </c>
+      <c r="H194" t="s">
         <v>919</v>
-      </c>
-      <c r="H194" t="s">
-        <v>920</v>
       </c>
       <c r="I194" t="s">
         <v>700</v>
@@ -11396,10 +11402,10 @@
         <v>795</v>
       </c>
       <c r="G195" t="s">
+        <v>918</v>
+      </c>
+      <c r="H195" t="s">
         <v>919</v>
-      </c>
-      <c r="H195" t="s">
-        <v>920</v>
       </c>
       <c r="I195" t="s">
         <v>700</v>
@@ -11419,10 +11425,10 @@
         <v>796</v>
       </c>
       <c r="G196" t="s">
+        <v>918</v>
+      </c>
+      <c r="H196" t="s">
         <v>919</v>
-      </c>
-      <c r="H196" t="s">
-        <v>920</v>
       </c>
       <c r="I196" t="s">
         <v>700</v>
@@ -11442,10 +11448,10 @@
         <v>797</v>
       </c>
       <c r="G197" t="s">
+        <v>918</v>
+      </c>
+      <c r="H197" t="s">
         <v>919</v>
-      </c>
-      <c r="H197" t="s">
-        <v>920</v>
       </c>
       <c r="I197" t="s">
         <v>700</v>
@@ -11465,10 +11471,10 @@
         <v>798</v>
       </c>
       <c r="G198" t="s">
+        <v>918</v>
+      </c>
+      <c r="H198" t="s">
         <v>919</v>
-      </c>
-      <c r="H198" t="s">
-        <v>920</v>
       </c>
       <c r="I198" t="s">
         <v>700</v>
@@ -11488,10 +11494,10 @@
         <v>573</v>
       </c>
       <c r="G199" t="s">
+        <v>918</v>
+      </c>
+      <c r="H199" t="s">
         <v>919</v>
-      </c>
-      <c r="H199" t="s">
-        <v>920</v>
       </c>
       <c r="I199" t="s">
         <v>700</v>
@@ -11511,10 +11517,10 @@
         <v>799</v>
       </c>
       <c r="G200" t="s">
+        <v>918</v>
+      </c>
+      <c r="H200" t="s">
         <v>919</v>
-      </c>
-      <c r="H200" t="s">
-        <v>920</v>
       </c>
       <c r="I200" t="s">
         <v>700</v>
@@ -11534,10 +11540,10 @@
         <v>579</v>
       </c>
       <c r="G201" t="s">
+        <v>918</v>
+      </c>
+      <c r="H201" t="s">
         <v>919</v>
-      </c>
-      <c r="H201" t="s">
-        <v>920</v>
       </c>
       <c r="I201" t="s">
         <v>700</v>
@@ -11557,10 +11563,10 @@
         <v>580</v>
       </c>
       <c r="G202" t="s">
+        <v>918</v>
+      </c>
+      <c r="H202" t="s">
         <v>919</v>
-      </c>
-      <c r="H202" t="s">
-        <v>920</v>
       </c>
       <c r="I202" t="s">
         <v>700</v>
@@ -11580,10 +11586,10 @@
         <v>581</v>
       </c>
       <c r="G203" t="s">
+        <v>918</v>
+      </c>
+      <c r="H203" t="s">
         <v>919</v>
-      </c>
-      <c r="H203" t="s">
-        <v>920</v>
       </c>
       <c r="I203" t="s">
         <v>700</v>
@@ -11603,10 +11609,10 @@
         <v>800</v>
       </c>
       <c r="G204" t="s">
+        <v>918</v>
+      </c>
+      <c r="H204" t="s">
         <v>919</v>
-      </c>
-      <c r="H204" t="s">
-        <v>920</v>
       </c>
       <c r="I204" t="s">
         <v>700</v>
@@ -11626,10 +11632,10 @@
         <v>801</v>
       </c>
       <c r="G205" t="s">
+        <v>918</v>
+      </c>
+      <c r="H205" t="s">
         <v>919</v>
-      </c>
-      <c r="H205" t="s">
-        <v>920</v>
       </c>
       <c r="I205" t="s">
         <v>700</v>
@@ -11649,10 +11655,10 @@
         <v>802</v>
       </c>
       <c r="G206" t="s">
+        <v>918</v>
+      </c>
+      <c r="H206" t="s">
         <v>919</v>
-      </c>
-      <c r="H206" t="s">
-        <v>920</v>
       </c>
       <c r="I206" t="s">
         <v>700</v>
@@ -11672,10 +11678,10 @@
         <v>793</v>
       </c>
       <c r="G207" t="s">
+        <v>918</v>
+      </c>
+      <c r="H207" t="s">
         <v>919</v>
-      </c>
-      <c r="H207" t="s">
-        <v>920</v>
       </c>
       <c r="I207" t="s">
         <v>700</v>
@@ -11695,10 +11701,10 @@
         <v>582</v>
       </c>
       <c r="G208" t="s">
+        <v>918</v>
+      </c>
+      <c r="H208" t="s">
         <v>919</v>
-      </c>
-      <c r="H208" t="s">
-        <v>920</v>
       </c>
       <c r="I208" t="s">
         <v>700</v>
@@ -11718,10 +11724,10 @@
         <v>583</v>
       </c>
       <c r="G209" t="s">
+        <v>918</v>
+      </c>
+      <c r="H209" t="s">
         <v>919</v>
-      </c>
-      <c r="H209" t="s">
-        <v>920</v>
       </c>
       <c r="I209" t="s">
         <v>700</v>
@@ -11750,10 +11756,10 @@
         <v>881</v>
       </c>
       <c r="G210" t="s">
+        <v>918</v>
+      </c>
+      <c r="H210" t="s">
         <v>919</v>
-      </c>
-      <c r="H210" t="s">
-        <v>920</v>
       </c>
       <c r="I210" t="s">
         <v>700</v>
@@ -11854,10 +11860,10 @@
         <v>806</v>
       </c>
       <c r="G214" t="s">
+        <v>918</v>
+      </c>
+      <c r="H214" t="s">
         <v>919</v>
-      </c>
-      <c r="H214" t="s">
-        <v>920</v>
       </c>
       <c r="I214" t="s">
         <v>690</v>
@@ -11921,7 +11927,7 @@
         <v>739</v>
       </c>
       <c r="N216" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11946,7 +11952,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="D218" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E218" t="s">
         <v>820</v>
@@ -12035,16 +12041,16 @@
         <v>829</v>
       </c>
       <c r="G222" t="s">
+        <v>898</v>
+      </c>
+      <c r="H222" t="s">
         <v>899</v>
-      </c>
-      <c r="H222" t="s">
-        <v>900</v>
       </c>
       <c r="I222" t="s">
         <v>695</v>
       </c>
       <c r="J222" t="s">
-        <v>891</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12121,10 +12127,10 @@
         <v>841</v>
       </c>
       <c r="B226" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C226" t="s">
         <v>1017</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1018</v>
       </c>
       <c r="D226" t="s">
         <v>841</v>
@@ -12233,7 +12239,7 @@
         <v>413</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D231" t="s">
         <v>407</v>
@@ -12337,10 +12343,10 @@
         <v>822</v>
       </c>
       <c r="M235" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N235" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12448,10 +12454,10 @@
         <v>808</v>
       </c>
       <c r="B241" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C241" t="s">
         <v>1045</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1046</v>
       </c>
       <c r="D241" t="s">
         <v>716</v>
@@ -12560,30 +12566,30 @@
         <v>834</v>
       </c>
       <c r="F246" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G246" t="s">
+        <v>918</v>
+      </c>
+      <c r="H246" t="s">
         <v>919</v>
-      </c>
-      <c r="H246" t="s">
-        <v>920</v>
       </c>
       <c r="I246" t="s">
         <v>700</v>
       </c>
       <c r="J246" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
+        <v>894</v>
+      </c>
+      <c r="E247" t="s">
         <v>895</v>
       </c>
-      <c r="E247" t="s">
-        <v>896</v>
-      </c>
       <c r="F247" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G247" t="s">
         <v>658</v>
@@ -12600,62 +12606,62 @@
         <v>672</v>
       </c>
       <c r="E248" t="s">
+        <v>925</v>
+      </c>
+      <c r="F248" t="s">
         <v>926</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
+        <v>922</v>
+      </c>
+      <c r="H248" t="s">
+        <v>928</v>
+      </c>
+      <c r="I248" t="s">
         <v>927</v>
-      </c>
-      <c r="G248" t="s">
-        <v>923</v>
-      </c>
-      <c r="H248" t="s">
-        <v>929</v>
-      </c>
-      <c r="I248" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="D249" t="s">
+        <v>929</v>
+      </c>
+      <c r="E249" t="s">
         <v>930</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>931</v>
       </c>
-      <c r="F249" t="s">
-        <v>932</v>
-      </c>
       <c r="G249" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H249" t="s">
         <v>66</v>
       </c>
       <c r="I249" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J249" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E250" t="s">
+        <v>934</v>
+      </c>
+      <c r="F250" t="s">
         <v>935</v>
       </c>
-      <c r="F250" t="s">
-        <v>936</v>
-      </c>
       <c r="G250" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H250" t="s">
         <v>66</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -12675,7 +12681,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G251" t="s">
         <v>656</v>
@@ -12693,7 +12699,7 @@
         <v>312</v>
       </c>
       <c r="N251" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O251" t="s">
         <v>309</v>
@@ -12702,7 +12708,7 @@
         <v>312</v>
       </c>
       <c r="Q251" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -12710,13 +12716,13 @@
         <v>286</v>
       </c>
       <c r="E252" t="s">
+        <v>943</v>
+      </c>
+      <c r="F252" t="s">
         <v>944</v>
       </c>
-      <c r="F252" t="s">
-        <v>945</v>
-      </c>
       <c r="G252" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H252" t="s">
         <v>66</v>
@@ -12750,16 +12756,16 @@
         <v>524</v>
       </c>
       <c r="E254" t="s">
+        <v>947</v>
+      </c>
+      <c r="F254" t="s">
         <v>948</v>
       </c>
-      <c r="F254" t="s">
-        <v>949</v>
-      </c>
       <c r="G254" t="s">
+        <v>918</v>
+      </c>
+      <c r="H254" t="s">
         <v>919</v>
-      </c>
-      <c r="H254" t="s">
-        <v>920</v>
       </c>
       <c r="I254" t="s">
         <v>681</v>
@@ -12773,10 +12779,10 @@
         <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G255" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H255" t="s">
         <v>66</v>
@@ -12790,10 +12796,10 @@
         <v>364</v>
       </c>
       <c r="E256" t="s">
+        <v>953</v>
+      </c>
+      <c r="F256" t="s">
         <v>954</v>
-      </c>
-      <c r="F256" t="s">
-        <v>955</v>
       </c>
       <c r="G256" t="s">
         <v>656</v>
@@ -12810,10 +12816,10 @@
         <v>46</v>
       </c>
       <c r="E257" t="s">
+        <v>957</v>
+      </c>
+      <c r="F257" t="s">
         <v>958</v>
-      </c>
-      <c r="F257" t="s">
-        <v>959</v>
       </c>
       <c r="G257" t="s">
         <v>658</v>
@@ -12830,13 +12836,13 @@
         <v>524</v>
       </c>
       <c r="E258" t="s">
+        <v>959</v>
+      </c>
+      <c r="F258" t="s">
         <v>960</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>961</v>
-      </c>
-      <c r="G258" t="s">
-        <v>962</v>
       </c>
       <c r="H258" t="s">
         <v>66</v>
@@ -12847,13 +12853,13 @@
     </row>
     <row r="259" spans="1:10">
       <c r="D259" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E259" t="s">
+        <v>962</v>
+      </c>
+      <c r="F259" t="s">
         <v>963</v>
-      </c>
-      <c r="F259" t="s">
-        <v>964</v>
       </c>
       <c r="G259" t="s">
         <v>658</v>
@@ -12867,16 +12873,16 @@
     </row>
     <row r="260" spans="1:10">
       <c r="D260" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E260" t="s">
+        <v>967</v>
+      </c>
+      <c r="F260" t="s">
         <v>968</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>969</v>
-      </c>
-      <c r="G260" t="s">
-        <v>970</v>
       </c>
       <c r="H260" t="s">
         <v>66</v>
@@ -12885,7 +12891,7 @@
         <v>680</v>
       </c>
       <c r="J260" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -12893,13 +12899,13 @@
         <v>115</v>
       </c>
       <c r="E261" t="s">
+        <v>980</v>
+      </c>
+      <c r="F261" t="s">
         <v>981</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>982</v>
-      </c>
-      <c r="G261" t="s">
-        <v>983</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
@@ -12910,16 +12916,16 @@
     </row>
     <row r="262" spans="1:10">
       <c r="D262" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E262" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F262" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G262" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H262" t="s">
         <v>66</v>
@@ -12933,10 +12939,10 @@
         <v>838</v>
       </c>
       <c r="E263" t="s">
+        <v>984</v>
+      </c>
+      <c r="F263" t="s">
         <v>985</v>
-      </c>
-      <c r="F263" t="s">
-        <v>986</v>
       </c>
       <c r="G263" t="s">
         <v>656</v>
@@ -12950,16 +12956,16 @@
     </row>
     <row r="264" spans="1:10">
       <c r="D264" t="s">
+        <v>986</v>
+      </c>
+      <c r="E264" t="s">
         <v>987</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>988</v>
       </c>
-      <c r="F264" t="s">
-        <v>989</v>
-      </c>
       <c r="G264" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H264" t="s">
         <v>66</v>
@@ -12979,10 +12985,10 @@
         <v>797</v>
       </c>
       <c r="G265" t="s">
+        <v>918</v>
+      </c>
+      <c r="H265" t="s">
         <v>919</v>
-      </c>
-      <c r="H265" t="s">
-        <v>920</v>
       </c>
       <c r="I265" t="s">
         <v>700</v>
@@ -12996,10 +13002,10 @@
         <v>229</v>
       </c>
       <c r="E266" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F266" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G266" t="s">
         <v>659</v>
@@ -13016,7 +13022,7 @@
         <v>360</v>
       </c>
       <c r="C267" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D267" t="s">
         <v>322</v>
@@ -13025,7 +13031,7 @@
         <v>360</v>
       </c>
       <c r="F267" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G267" t="s">
         <v>656</v>
@@ -13054,7 +13060,7 @@
         <v>79</v>
       </c>
       <c r="F268" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G268" t="s">
         <v>656</v>
@@ -13071,22 +13077,22 @@
         <v>60</v>
       </c>
       <c r="B269" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C269" t="s">
         <v>1011</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1012</v>
       </c>
       <c r="D269" t="s">
         <v>60</v>
       </c>
       <c r="E269" t="s">
+        <v>974</v>
+      </c>
+      <c r="F269" t="s">
         <v>975</v>
       </c>
-      <c r="F269" t="s">
-        <v>976</v>
-      </c>
       <c r="G269" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H269" t="s">
         <v>66</v>
@@ -13095,7 +13101,7 @@
         <v>684</v>
       </c>
       <c r="J269" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -13103,19 +13109,19 @@
         <v>69</v>
       </c>
       <c r="B270" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C270" t="s">
         <v>1013</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1014</v>
       </c>
       <c r="D270" t="s">
         <v>69</v>
       </c>
       <c r="E270" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F270" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G270" t="s">
         <v>658</v>
@@ -13129,13 +13135,13 @@
     </row>
     <row r="271" spans="1:10">
       <c r="D271" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E271" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F271" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -13143,13 +13149,13 @@
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
       <c r="D272" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E272" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F272" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G272" t="s">
         <v>658</v>
@@ -13166,16 +13172,16 @@
         <v>569</v>
       </c>
       <c r="E273" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F273" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G273" t="s">
+        <v>918</v>
+      </c>
+      <c r="H273" t="s">
         <v>919</v>
-      </c>
-      <c r="H273" t="s">
-        <v>920</v>
       </c>
       <c r="I273" t="s">
         <v>700</v>
@@ -13186,10 +13192,10 @@
         <v>716</v>
       </c>
       <c r="E274" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F274" t="s">
         <v>1054</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1055</v>
       </c>
       <c r="G274" t="s">
         <v>656</v>
@@ -13203,53 +13209,53 @@
     </row>
     <row r="275" spans="4:10">
       <c r="D275" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E275" t="s">
         <v>1056</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>1057</v>
       </c>
-      <c r="F275" t="s">
-        <v>1058</v>
-      </c>
       <c r="G275" t="s">
+        <v>922</v>
+      </c>
+      <c r="H275" t="s">
         <v>923</v>
-      </c>
-      <c r="H275" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="276" spans="4:10">
       <c r="D276" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E276" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F276" t="s">
         <v>1059</v>
       </c>
-      <c r="F276" t="s">
-        <v>1060</v>
-      </c>
       <c r="G276" t="s">
+        <v>922</v>
+      </c>
+      <c r="H276" t="s">
         <v>923</v>
-      </c>
-      <c r="H276" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="277" spans="4:10">
       <c r="D277" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E277" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F277" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G277" t="s">
+        <v>922</v>
+      </c>
+      <c r="H277" t="s">
         <v>923</v>
-      </c>
-      <c r="H277" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="278" spans="4:10">
@@ -13257,22 +13263,22 @@
         <v>587</v>
       </c>
       <c r="E278" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F278" t="s">
         <v>1064</v>
       </c>
-      <c r="F278" t="s">
-        <v>1065</v>
-      </c>
       <c r="G278" t="s">
+        <v>918</v>
+      </c>
+      <c r="H278" t="s">
         <v>919</v>
-      </c>
-      <c r="H278" t="s">
-        <v>920</v>
       </c>
       <c r="I278" t="s">
         <v>702</v>
       </c>
       <c r="J278" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="279" spans="4:10">
@@ -13280,10 +13286,10 @@
         <v>822</v>
       </c>
       <c r="E279" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F279" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G279" t="s">
         <v>656</v>
@@ -13299,21 +13305,21 @@
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="127" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="135"/>
     <cfRule type="duplicateValues" dxfId="131" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="139"/>
     <cfRule type="duplicateValues" dxfId="130" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="126" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="119"/>
     <cfRule type="duplicateValues" dxfId="124" priority="112"/>
     <cfRule type="duplicateValues" dxfId="123" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="121"/>
     <cfRule type="duplicateValues" dxfId="120" priority="124"/>
     <cfRule type="duplicateValues" dxfId="119" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
     <cfRule type="duplicateValues" dxfId="118" priority="55"/>
@@ -13325,50 +13331,50 @@
     <cfRule type="duplicateValues" dxfId="116" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
     <cfRule type="duplicateValues" dxfId="114" priority="70"/>
     <cfRule type="duplicateValues" dxfId="113" priority="71"/>
     <cfRule type="duplicateValues" dxfId="112" priority="72"/>
     <cfRule type="duplicateValues" dxfId="111" priority="73"/>
     <cfRule type="duplicateValues" dxfId="110" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="109" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="106" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="143"/>
     <cfRule type="duplicateValues" dxfId="108" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="93" priority="111"/>
     <cfRule type="duplicateValues" dxfId="103" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="125"/>
     <cfRule type="duplicateValues" dxfId="102" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="120"/>
     <cfRule type="duplicateValues" dxfId="98" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
     <cfRule type="duplicateValues" dxfId="92" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
+    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
     <cfRule type="duplicateValues" dxfId="91" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
     <cfRule type="duplicateValues" dxfId="89" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
     <cfRule type="duplicateValues" dxfId="87" priority="39"/>
     <cfRule type="duplicateValues" dxfId="86" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
     <cfRule type="duplicateValues" dxfId="85" priority="102"/>
@@ -13383,15 +13389,15 @@
     <cfRule type="duplicateValues" dxfId="82" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
     <cfRule type="duplicateValues" dxfId="81" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F147 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F278 F149:F234 F280:F1048576">
     <cfRule type="duplicateValues" dxfId="79" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
     <cfRule type="duplicateValues" dxfId="78" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
     <cfRule type="duplicateValues" dxfId="76" priority="97"/>
@@ -13412,33 +13418,33 @@
     <cfRule type="duplicateValues" dxfId="71" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
+    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
     <cfRule type="duplicateValues" dxfId="70" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274">
+    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
     <cfRule type="duplicateValues" dxfId="68" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F276">
+    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
     <cfRule type="duplicateValues" dxfId="66" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279">
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
     <cfRule type="duplicateValues" dxfId="64" priority="2"/>
     <cfRule type="duplicateValues" dxfId="63" priority="3"/>
     <cfRule type="duplicateValues" dxfId="62" priority="4"/>
     <cfRule type="duplicateValues" dxfId="61" priority="5"/>
     <cfRule type="duplicateValues" dxfId="60" priority="6"/>
     <cfRule type="duplicateValues" dxfId="59" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
     <cfRule type="duplicateValues" dxfId="57" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="54" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="131"/>
     <cfRule type="duplicateValues" dxfId="56" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
     <cfRule type="duplicateValues" dxfId="53" priority="109"/>
@@ -13447,13 +13453,13 @@
     <cfRule type="duplicateValues" dxfId="52" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
     <cfRule type="duplicateValues" dxfId="51" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="61"/>
     <cfRule type="duplicateValues" dxfId="47" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
     <cfRule type="duplicateValues" dxfId="44" priority="103"/>
@@ -13465,58 +13471,58 @@
     <cfRule type="duplicateValues" dxfId="40" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
+    <cfRule type="duplicateValues" dxfId="34" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="85"/>
     <cfRule type="duplicateValues" dxfId="39" priority="86"/>
     <cfRule type="duplicateValues" dxfId="38" priority="87"/>
     <cfRule type="duplicateValues" dxfId="37" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
     <cfRule type="duplicateValues" dxfId="33" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
     <cfRule type="duplicateValues" dxfId="30" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
     <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="29"/>
     <cfRule type="duplicateValues" dxfId="25" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
     <cfRule type="duplicateValues" dxfId="20" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="64"/>
     <cfRule type="duplicateValues" dxfId="19" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="68"/>
     <cfRule type="duplicateValues" dxfId="16" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
+    <cfRule type="duplicateValues" dxfId="9" priority="92"/>
     <cfRule type="duplicateValues" dxfId="12" priority="93"/>
     <cfRule type="duplicateValues" dxfId="11" priority="94"/>
     <cfRule type="duplicateValues" dxfId="10" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
     <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
     <cfRule type="duplicateValues" dxfId="6" priority="45"/>
     <cfRule type="duplicateValues" dxfId="5" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
     <cfRule type="duplicateValues" dxfId="2" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\818\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D180571B-DC08-413D-BB16-5AA69CBF2499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E91AF9-D87E-449F-944C-C214F4A77EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3843,3097 +3843,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="463">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="154">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8750,11 +5660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W281"/>
+  <dimension ref="A1:W296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17044,115 +13954,271 @@
       </c>
     </row>
     <row r="281" spans="4:10" s="8" customFormat="1"/>
+    <row r="282" spans="4:10" s="8" customFormat="1"/>
+    <row r="283" spans="4:10" s="8" customFormat="1"/>
+    <row r="284" spans="4:10" s="8" customFormat="1"/>
+    <row r="285" spans="4:10" s="8" customFormat="1"/>
+    <row r="286" spans="4:10" s="8" customFormat="1"/>
+    <row r="287" spans="4:10" s="8" customFormat="1"/>
+    <row r="288" spans="4:10" s="8" customFormat="1"/>
+    <row r="289" s="8" customFormat="1"/>
+    <row r="290" s="8" customFormat="1"/>
+    <row r="291" s="8" customFormat="1"/>
+    <row r="292" s="8" customFormat="1"/>
+    <row r="293" s="8" customFormat="1"/>
+    <row r="294" s="8" customFormat="1"/>
+    <row r="295" s="8" customFormat="1"/>
+    <row r="296" s="8" customFormat="1"/>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="153" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="148" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C5 C7:C1048576">
+    <cfRule type="duplicateValues" dxfId="140" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="duplicateValues" dxfId="139" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="duplicateValues" dxfId="138" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="duplicateValues" dxfId="137" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="131" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="130" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="125" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F8 F136:F1048576 F10:F134">
+    <cfRule type="duplicateValues" dxfId="114" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="duplicateValues" dxfId="113" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F148">
+    <cfRule type="duplicateValues" dxfId="112" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C1048576 C1:C5 C7:C186">
+    <cfRule type="duplicateValues" dxfId="110" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F235">
+    <cfRule type="duplicateValues" dxfId="109" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F246">
+    <cfRule type="duplicateValues" dxfId="106" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F257">
+    <cfRule type="duplicateValues" dxfId="105" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F258">
+    <cfRule type="duplicateValues" dxfId="104" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F260">
+    <cfRule type="duplicateValues" dxfId="103" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="102" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F134 C210:C1048576 F1:F5 C7:C186 F7:F8 F275:F276 F149:F234 F278:F1048576 F136:F147 F10:F18">
+    <cfRule type="duplicateValues" dxfId="100" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F278:F1048576 F136:F147 F10:F18">
+    <cfRule type="duplicateValues" dxfId="99" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F278:F1048576 F136:F147 F10:F18">
+    <cfRule type="duplicateValues" dxfId="97" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F278:F1048576 F136:F147 F10:F18">
+    <cfRule type="duplicateValues" dxfId="96" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F278:F1048576 F136:F147 F10:F18">
+    <cfRule type="duplicateValues" dxfId="95" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F264">
+    <cfRule type="duplicateValues" dxfId="94" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F134 F1:F5 F7:F8 F275:F276 F263:F271 F149:F191 F278:F1048576 F136:F147 F10:F18">
+    <cfRule type="duplicateValues" dxfId="93" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F272">
+    <cfRule type="duplicateValues" dxfId="92" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F273:F274">
+    <cfRule type="duplicateValues" dxfId="90" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F277">
+    <cfRule type="duplicateValues" dxfId="88" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F261:G261">
+    <cfRule type="duplicateValues" dxfId="81" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G279">
+    <cfRule type="duplicateValues" dxfId="80" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="79" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J128 J133 J135:J247">
+    <cfRule type="duplicateValues" dxfId="76" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="duplicateValues" dxfId="75" priority="161"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="68" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="60" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="53" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="50" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="48" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="42" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="35" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="28" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="21" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="14" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="10" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="8" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C03BEA0-74D3-4753-9A2A-A9AD7A869956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFACD3-DCB7-42A1-90EB-C232F67610CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3896,7 +3896,247 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
+  <dxfs count="177">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5706,8 +5946,8 @@
   <dimension ref="A1:W283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I287" sqref="I287"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8717,13 +8957,13 @@
         <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G90" t="s">
-        <v>599</v>
+        <v>997</v>
       </c>
       <c r="H90" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I90" t="s">
         <v>620</v>
@@ -8735,7 +8975,7 @@
         <v>325</v>
       </c>
       <c r="N90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8787,13 +9027,13 @@
         <v>334</v>
       </c>
       <c r="F92" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G92" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="H92" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I92" t="s">
         <v>620</v>
@@ -8805,7 +9045,7 @@
         <v>334</v>
       </c>
       <c r="N92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O92" s="8" t="s">
         <v>322</v>
@@ -14096,249 +14336,315 @@
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="152" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="147" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="139" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="138" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="137" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="136" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="130" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="129" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="124" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F8 F10:F134 F136:F1048576">
-    <cfRule type="duplicateValues" dxfId="113" priority="21"/>
+  <conditionalFormatting sqref="F1:F8 F10:F89 F136:F1048576 F93:F134 F91">
+    <cfRule type="duplicateValues" dxfId="137" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="112" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="111" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="109" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="161"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F134 F1:F5 F7:F8 F275:F276 F263:F271 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="108" priority="107"/>
+  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F89 F1:F5 F7:F8 F275:F276 F263:F271 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
+    <cfRule type="duplicateValues" dxfId="132" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="107" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="104" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="103" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="102" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="101" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="100" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="99" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="97" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="96" priority="120"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
+    <cfRule type="duplicateValues" dxfId="120" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="95" priority="118"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
+    <cfRule type="duplicateValues" dxfId="119" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F134 F1:F5 C7:C186 F7:F8 F275:F276 F149:F234 F136:F147 F10:F18 C210:C1048576 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="139"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F89 F1:F5 C7:C186 F7:F8 F275:F276 F149:F234 F136:F147 F10:F18 C210:C1048576 F278:F1048576 F93:F134 F91">
+    <cfRule type="duplicateValues" dxfId="118" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="126"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
+    <cfRule type="duplicateValues" dxfId="117" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="92" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="136"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
+    <cfRule type="duplicateValues" dxfId="116" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="90" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="88" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="86" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="79" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J1:J128 J133 J135:J247 J257:J1048576">
-    <cfRule type="duplicateValues" dxfId="76" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="75" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="74" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="58" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="51" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="46" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="40" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="33" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="26" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="19" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="12" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="8" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFACD3-DCB7-42A1-90EB-C232F67610CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A2A80-0FFD-41EA-9BF5-F5B541D94073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="1146">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3713,6 +3713,26 @@
   </si>
   <si>
     <t>SC4012SO-N-XE-90NR-4012</t>
+  </si>
+  <si>
+    <t>NF.SC69401DC-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>NF.SC69401HS-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>SC69401HS-Q-HD-4XTB-69401</t>
+  </si>
+  <si>
+    <t>赛扬%华天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-TB-Q</t>
   </si>
 </sst>
 </file>
@@ -5943,11 +5963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W283"/>
+  <dimension ref="A1:W284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11098,6 +11118,9 @@
       <c r="I153" t="s">
         <v>924</v>
       </c>
+      <c r="J153" t="s">
+        <v>1140</v>
+      </c>
       <c r="L153" t="s">
         <v>649</v>
       </c>
@@ -12845,6 +12868,9 @@
       <c r="I215" t="s">
         <v>1040</v>
       </c>
+      <c r="J215" t="s">
+        <v>1141</v>
+      </c>
       <c r="L215" t="s">
         <v>649</v>
       </c>
@@ -13422,6 +13448,9 @@
       <c r="I241" t="s">
         <v>924</v>
       </c>
+      <c r="J241" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="242" spans="1:17">
       <c r="D242" t="s">
@@ -14111,6 +14140,9 @@
       <c r="I272" t="s">
         <v>924</v>
       </c>
+      <c r="J272" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="273" spans="4:14">
       <c r="D273" t="s">
@@ -14330,27 +14362,47 @@
       </c>
       <c r="F283" t="s">
         <v>1139</v>
+      </c>
+    </row>
+    <row r="284" spans="4:14">
+      <c r="D284" t="s">
+        <v>649</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J284" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="176" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="192"/>
     <cfRule type="duplicateValues" dxfId="172" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="171" priority="177"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="177"/>
     <cfRule type="duplicateValues" dxfId="166" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
     <cfRule type="duplicateValues" dxfId="163" priority="108"/>
@@ -14362,12 +14414,12 @@
     <cfRule type="duplicateValues" dxfId="161" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="160" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="154" priority="186"/>
@@ -14375,22 +14427,22 @@
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="153" priority="191"/>
     <cfRule type="duplicateValues" dxfId="152" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="148" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="169"/>
     <cfRule type="duplicateValues" dxfId="144" priority="170"/>
     <cfRule type="duplicateValues" dxfId="143" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="176"/>
     <cfRule type="duplicateValues" dxfId="140" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F8 F10:F89 F136:F1048576 F93:F134 F91">
     <cfRule type="duplicateValues" dxfId="137" priority="45"/>
@@ -14429,8 +14481,8 @@
     <cfRule type="duplicateValues" dxfId="124" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="123" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
     <cfRule type="duplicateValues" dxfId="121" priority="133"/>
@@ -14452,21 +14504,21 @@
     <cfRule type="duplicateValues" dxfId="115" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="114" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="112" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="110" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="54"/>
     <cfRule type="duplicateValues" dxfId="109" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="57"/>
     <cfRule type="duplicateValues" dxfId="106" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
     <cfRule type="duplicateValues" dxfId="103" priority="175"/>
@@ -14480,171 +14532,135 @@
     <cfRule type="duplicateValues" dxfId="99" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="98" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="90" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="82" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
     <cfRule type="duplicateValues" dxfId="75" priority="156"/>
     <cfRule type="duplicateValues" dxfId="74" priority="157"/>
     <cfRule type="duplicateValues" dxfId="73" priority="158"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="64" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="56" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="24"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="70" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="64" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="57" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="50" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="43" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="36" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="32" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="30" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A2A80-0FFD-41EA-9BF5-F5B541D94073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CFFC60-6BA9-413F-ABBC-05F62E36943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$285</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="1153">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3163,10 +3163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA.SC4390S6-GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC4616UA-10.2NF-CD-90AK-4616</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3733,6 +3729,33 @@
   </si>
   <si>
     <t>SC69401HS-TB-Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-CE-00CK-9625</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+  </si>
+  <si>
+    <t>NA.SC9625VB-CE</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;浙江赛扬</t>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
   </si>
 </sst>
 </file>
@@ -3916,7 +3939,87 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="185">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5963,11 +6066,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W284"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="J310" sqref="J310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6066,7 +6170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6104,7 +6208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6142,7 +6246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -6171,7 +6275,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -6212,7 +6316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6241,7 +6345,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6279,7 +6383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6344,7 +6448,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -6364,7 +6468,7 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H9" t="s">
         <v>603</v>
@@ -6382,7 +6486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -6414,7 +6518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -6437,7 +6541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -6475,7 +6579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -6507,7 +6611,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6545,10 +6649,10 @@
         <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6613,7 +6717,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -6669,7 +6773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -6707,7 +6811,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -6736,7 +6840,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6777,7 +6881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -6806,7 +6910,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -6838,7 +6942,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -6867,7 +6971,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -6896,7 +7000,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -6928,7 +7032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -6966,7 +7070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -6980,16 +7084,16 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>841</v>
       </c>
       <c r="G26" t="s">
-        <v>600</v>
+        <v>1148</v>
       </c>
       <c r="H26" t="s">
-        <v>603</v>
+        <v>1149</v>
       </c>
       <c r="I26" t="s">
         <v>620</v>
@@ -7001,13 +7105,13 @@
         <v>123</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="N26" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -7036,7 +7140,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -7068,7 +7172,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -7100,7 +7204,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -7132,7 +7236,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -7164,7 +7268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -7193,7 +7297,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" hidden="1">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -7222,7 +7326,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -7251,7 +7355,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -7292,7 +7396,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -7321,7 +7425,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -7371,7 +7475,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -7403,7 +7507,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -7453,7 +7557,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" hidden="1">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -7485,7 +7589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -7517,7 +7621,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -7576,7 +7680,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -7617,7 +7721,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -7646,7 +7750,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -7678,7 +7782,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" hidden="1">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -7728,7 +7832,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" hidden="1">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -7757,7 +7861,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -7789,7 +7893,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -7818,7 +7922,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -7847,7 +7951,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -7879,7 +7983,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -7917,7 +8021,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -7946,7 +8050,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -7978,7 +8082,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -8010,7 +8114,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -8042,7 +8146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" hidden="1">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -8065,7 +8169,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" hidden="1">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -8088,7 +8192,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" hidden="1">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -8111,7 +8215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" hidden="1">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -8134,7 +8238,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" hidden="1">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -8157,7 +8261,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" hidden="1">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -8180,7 +8284,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" hidden="1">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -8203,7 +8307,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" hidden="1">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -8226,7 +8330,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -8249,7 +8353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -8272,7 +8376,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -8295,7 +8399,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -8318,7 +8422,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" hidden="1">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -8341,7 +8445,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -8370,7 +8474,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -8402,7 +8506,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -8434,7 +8538,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -8466,7 +8570,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -8498,7 +8602,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -8530,7 +8634,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -8553,7 +8657,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -8582,7 +8686,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -8611,7 +8715,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -8649,7 +8753,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -8669,7 +8773,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -8716,7 +8820,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" hidden="1">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -8745,7 +8849,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" hidden="1">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -8786,7 +8890,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -8815,7 +8919,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" hidden="1">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -8844,7 +8948,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" t="s">
         <v>643</v>
       </c>
@@ -8873,7 +8977,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -8902,7 +9006,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -8931,7 +9035,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -8960,7 +9064,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" hidden="1">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -8998,7 +9102,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -9030,7 +9134,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -9077,7 +9181,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" hidden="1">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -9109,7 +9213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -9138,7 +9242,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -9170,7 +9274,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -9202,7 +9306,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" hidden="1">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -9231,7 +9335,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" hidden="1">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -9263,7 +9367,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" hidden="1">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -9292,7 +9396,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" hidden="1">
       <c r="A100" t="s">
         <v>363</v>
       </c>
@@ -9330,7 +9434,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" hidden="1">
       <c r="A101" t="s">
         <v>363</v>
       </c>
@@ -9359,7 +9463,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" hidden="1">
       <c r="D102" t="s">
         <v>363</v>
       </c>
@@ -9388,7 +9492,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" hidden="1">
       <c r="A103" t="s">
         <v>363</v>
       </c>
@@ -9417,7 +9521,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" hidden="1">
       <c r="A104" t="s">
         <v>363</v>
       </c>
@@ -9455,7 +9559,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" hidden="1">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -9484,7 +9588,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" hidden="1">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -9519,10 +9623,10 @@
         <v>391</v>
       </c>
       <c r="N106" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" hidden="1">
       <c r="D107" t="s">
         <v>388</v>
       </c>
@@ -9542,7 +9646,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" hidden="1">
       <c r="A108" t="s">
         <v>388</v>
       </c>
@@ -9574,7 +9678,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" hidden="1">
       <c r="A109" t="s">
         <v>388</v>
       </c>
@@ -9603,7 +9707,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" hidden="1">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -9638,10 +9742,10 @@
         <v>343</v>
       </c>
       <c r="N110" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1">
       <c r="A111" t="s">
         <v>388</v>
       </c>
@@ -9676,10 +9780,10 @@
         <v>807</v>
       </c>
       <c r="N111" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -9708,7 +9812,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" hidden="1">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -9746,7 +9850,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" hidden="1">
       <c r="A114" t="s">
         <v>406</v>
       </c>
@@ -9775,7 +9879,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" hidden="1">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -9804,7 +9908,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" hidden="1">
       <c r="D116" t="s">
         <v>417</v>
       </c>
@@ -9833,7 +9937,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" hidden="1">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -9880,7 +9984,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" hidden="1">
       <c r="A118" t="s">
         <v>431</v>
       </c>
@@ -9918,7 +10022,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" hidden="1">
       <c r="A119" t="s">
         <v>436</v>
       </c>
@@ -9968,7 +10072,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" hidden="1">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -10009,7 +10113,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" hidden="1">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -10041,7 +10145,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" hidden="1">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -10073,7 +10177,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" hidden="1">
       <c r="A123" t="s">
         <v>454</v>
       </c>
@@ -10114,7 +10218,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" hidden="1">
       <c r="D124" t="s">
         <v>454</v>
       </c>
@@ -10137,7 +10241,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" hidden="1">
       <c r="D125" t="s">
         <v>454</v>
       </c>
@@ -10160,7 +10264,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" hidden="1">
       <c r="A126" t="s">
         <v>459</v>
       </c>
@@ -10201,7 +10305,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" hidden="1">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -10262,10 +10366,10 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="H128" t="s">
-        <v>603</v>
+        <v>1151</v>
       </c>
       <c r="I128" t="s">
         <v>636</v>
@@ -10283,7 +10387,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" hidden="1">
       <c r="A129" t="s">
         <v>479</v>
       </c>
@@ -10315,7 +10419,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" hidden="1">
       <c r="A130" t="s">
         <v>479</v>
       </c>
@@ -10347,7 +10451,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" hidden="1">
       <c r="A131" t="s">
         <v>479</v>
       </c>
@@ -10379,7 +10483,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" hidden="1">
       <c r="A132" t="s">
         <v>479</v>
       </c>
@@ -10411,7 +10515,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" hidden="1">
       <c r="A133" t="s">
         <v>479</v>
       </c>
@@ -10440,7 +10544,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" hidden="1">
       <c r="A134" t="s">
         <v>479</v>
       </c>
@@ -10472,7 +10576,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" hidden="1">
       <c r="A135" t="s">
         <v>479</v>
       </c>
@@ -10501,7 +10605,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" hidden="1">
       <c r="A136" t="s">
         <v>498</v>
       </c>
@@ -10533,7 +10637,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" hidden="1">
       <c r="A137" t="s">
         <v>498</v>
       </c>
@@ -10571,7 +10675,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" hidden="1">
       <c r="A138" t="s">
         <v>498</v>
       </c>
@@ -10609,7 +10713,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" hidden="1">
       <c r="A139" s="8" t="s">
         <v>498</v>
       </c>
@@ -10650,7 +10754,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" hidden="1">
       <c r="A140" t="s">
         <v>506</v>
       </c>
@@ -10691,7 +10795,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" hidden="1">
       <c r="A141" t="s">
         <v>510</v>
       </c>
@@ -10729,7 +10833,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" hidden="1">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -10761,7 +10865,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" hidden="1">
       <c r="A143" t="s">
         <v>510</v>
       </c>
@@ -10790,7 +10894,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" hidden="1">
       <c r="A144" t="s">
         <v>510</v>
       </c>
@@ -10819,7 +10923,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" hidden="1">
       <c r="D145" t="s">
         <v>510</v>
       </c>
@@ -10842,7 +10946,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" hidden="1">
       <c r="A146" t="s">
         <v>510</v>
       </c>
@@ -10874,7 +10978,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" hidden="1">
       <c r="A147" t="s">
         <v>510</v>
       </c>
@@ -10906,7 +11010,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" hidden="1">
       <c r="A148" t="s">
         <v>510</v>
       </c>
@@ -10956,7 +11060,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" hidden="1">
       <c r="A149" t="s">
         <v>510</v>
       </c>
@@ -10988,7 +11092,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" t="s">
         <v>510</v>
       </c>
@@ -11020,7 +11124,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" t="s">
         <v>510</v>
       </c>
@@ -11061,7 +11165,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" t="s">
         <v>510</v>
       </c>
@@ -11090,7 +11194,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" t="s">
         <v>649</v>
       </c>
@@ -11119,7 +11223,7 @@
         <v>924</v>
       </c>
       <c r="J153" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="L153" t="s">
         <v>649</v>
@@ -11140,7 +11244,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" t="s">
         <v>553</v>
       </c>
@@ -11169,7 +11273,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" hidden="1">
       <c r="A155" t="s">
         <v>553</v>
       </c>
@@ -11198,7 +11302,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" hidden="1">
       <c r="A156" t="s">
         <v>553</v>
       </c>
@@ -11227,15 +11331,15 @@
         <v>952</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" hidden="1">
       <c r="A157" t="s">
         <v>553</v>
       </c>
       <c r="B157" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C157" t="s">
         <v>1136</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1137</v>
       </c>
       <c r="D157" t="s">
         <v>553</v>
@@ -11247,7 +11351,7 @@
         <v>955</v>
       </c>
       <c r="G157" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H157" t="s">
         <v>918</v>
@@ -11259,7 +11363,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" hidden="1">
       <c r="A158" t="s">
         <v>553</v>
       </c>
@@ -11291,7 +11395,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" hidden="1">
       <c r="A159" t="s">
         <v>566</v>
       </c>
@@ -11320,7 +11424,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" t="s">
         <v>566</v>
       </c>
@@ -11349,7 +11453,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" hidden="1">
       <c r="A161" t="s">
         <v>573</v>
       </c>
@@ -11378,7 +11482,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" hidden="1">
       <c r="A162" t="s">
         <v>577</v>
       </c>
@@ -11443,7 +11547,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" hidden="1">
       <c r="A163" t="s">
         <v>581</v>
       </c>
@@ -11475,7 +11579,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" hidden="1">
       <c r="D164" t="s">
         <v>581</v>
       </c>
@@ -11498,7 +11602,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" hidden="1">
       <c r="A165" t="s">
         <v>581</v>
       </c>
@@ -11527,7 +11631,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" hidden="1">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -11559,7 +11663,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" hidden="1">
       <c r="A167" t="s">
         <v>581</v>
       </c>
@@ -11591,7 +11695,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" hidden="1">
       <c r="A168" t="s">
         <v>581</v>
       </c>
@@ -11629,7 +11733,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" hidden="1">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -11676,7 +11780,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" hidden="1">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -11714,7 +11818,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" hidden="1">
       <c r="A171" t="s">
         <v>476</v>
       </c>
@@ -11743,7 +11847,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" hidden="1">
       <c r="A172" t="s">
         <v>596</v>
       </c>
@@ -11775,7 +11879,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" hidden="1">
       <c r="D173" t="s">
         <v>596</v>
       </c>
@@ -11798,7 +11902,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" hidden="1">
       <c r="D174" t="s">
         <v>596</v>
       </c>
@@ -11821,7 +11925,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" hidden="1">
       <c r="A175" t="s">
         <v>610</v>
       </c>
@@ -11841,7 +11945,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" hidden="1">
       <c r="A176" t="s">
         <v>613</v>
       </c>
@@ -11861,7 +11965,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" hidden="1">
       <c r="A177" t="s">
         <v>616</v>
       </c>
@@ -11878,7 +11982,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" hidden="1">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -11907,7 +12011,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" hidden="1">
       <c r="A179" t="s">
         <v>566</v>
       </c>
@@ -11936,7 +12040,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" hidden="1">
       <c r="A180" t="s">
         <v>663</v>
       </c>
@@ -11974,7 +12078,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" hidden="1">
       <c r="A181" t="s">
         <v>667</v>
       </c>
@@ -12003,7 +12107,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" hidden="1">
       <c r="A182" t="s">
         <v>671</v>
       </c>
@@ -12032,7 +12136,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" hidden="1">
       <c r="A183" t="s">
         <v>677</v>
       </c>
@@ -12070,18 +12174,18 @@
         <v>829</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" hidden="1">
       <c r="D184" t="s">
-        <v>849</v>
+        <v>1152</v>
       </c>
       <c r="E184" t="s">
         <v>681</v>
       </c>
       <c r="F184" t="s">
-        <v>996</v>
+        <v>682</v>
       </c>
       <c r="G184" t="s">
-        <v>997</v>
+        <v>1126</v>
       </c>
       <c r="H184" t="s">
         <v>915</v>
@@ -12089,9 +12193,6 @@
       <c r="I184" t="s">
         <v>998</v>
       </c>
-      <c r="J184" t="s">
-        <v>999</v>
-      </c>
       <c r="L184" t="s">
         <v>849</v>
       </c>
@@ -12099,10 +12200,10 @@
         <v>681</v>
       </c>
       <c r="N184" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" hidden="1">
       <c r="D185" t="s">
         <v>684</v>
       </c>
@@ -12110,22 +12211,22 @@
         <v>685</v>
       </c>
       <c r="F185" t="s">
+        <v>999</v>
+      </c>
+      <c r="G185" t="s">
         <v>1000</v>
-      </c>
-      <c r="G185" t="s">
-        <v>1001</v>
       </c>
       <c r="H185" t="s">
         <v>923</v>
       </c>
       <c r="I185" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J185" t="s">
         <v>1002</v>
       </c>
-      <c r="J185" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+    </row>
+    <row r="186" spans="1:14" hidden="1">
       <c r="D186" t="s">
         <v>684</v>
       </c>
@@ -12133,22 +12234,22 @@
         <v>686</v>
       </c>
       <c r="F186" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G186" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H186" t="s">
         <v>923</v>
       </c>
       <c r="I186" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J186" t="s">
         <v>1002</v>
       </c>
-      <c r="J186" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+    </row>
+    <row r="187" spans="1:14" hidden="1">
       <c r="D187" t="s">
         <v>684</v>
       </c>
@@ -12156,22 +12257,22 @@
         <v>833</v>
       </c>
       <c r="F187" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G187" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H187" t="s">
         <v>923</v>
       </c>
       <c r="I187" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J187" t="s">
         <v>1002</v>
       </c>
-      <c r="J187" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+    </row>
+    <row r="188" spans="1:14" hidden="1">
       <c r="A188" t="s">
         <v>687</v>
       </c>
@@ -12188,7 +12289,7 @@
         <v>690</v>
       </c>
       <c r="F188" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G188" t="s">
         <v>917</v>
@@ -12200,10 +12301,10 @@
         <v>909</v>
       </c>
       <c r="J188" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" hidden="1">
       <c r="D189" t="s">
         <v>476</v>
       </c>
@@ -12211,7 +12312,7 @@
         <v>695</v>
       </c>
       <c r="F189" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G189" t="s">
         <v>922</v>
@@ -12232,7 +12333,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" hidden="1">
       <c r="A190" t="s">
         <v>699</v>
       </c>
@@ -12249,10 +12350,10 @@
         <v>702</v>
       </c>
       <c r="F190" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G190" t="s">
         <v>1009</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1010</v>
       </c>
       <c r="H190" t="s">
         <v>923</v>
@@ -12261,7 +12362,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" hidden="1">
       <c r="A191" t="s">
         <v>703</v>
       </c>
@@ -12278,7 +12379,7 @@
         <v>706</v>
       </c>
       <c r="F191" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G191" t="s">
         <v>922</v>
@@ -12290,7 +12391,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" hidden="1">
       <c r="D192" t="s">
         <v>540</v>
       </c>
@@ -12298,7 +12399,7 @@
         <v>541</v>
       </c>
       <c r="F192" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G192" t="s">
         <v>917</v>
@@ -12307,13 +12408,13 @@
         <v>918</v>
       </c>
       <c r="I192" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J192" t="s">
         <v>1013</v>
       </c>
-      <c r="J192" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="193" spans="4:10">
+    </row>
+    <row r="193" spans="4:10" hidden="1">
       <c r="D193" t="s">
         <v>540</v>
       </c>
@@ -12321,7 +12422,7 @@
         <v>546</v>
       </c>
       <c r="F193" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G193" t="s">
         <v>917</v>
@@ -12330,13 +12431,13 @@
         <v>918</v>
       </c>
       <c r="I193" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J193" t="s">
         <v>1013</v>
       </c>
-      <c r="J193" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="194" spans="4:10">
+    </row>
+    <row r="194" spans="4:10" hidden="1">
       <c r="D194" t="s">
         <v>540</v>
       </c>
@@ -12344,7 +12445,7 @@
         <v>708</v>
       </c>
       <c r="F194" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G194" t="s">
         <v>917</v>
@@ -12353,13 +12454,13 @@
         <v>918</v>
       </c>
       <c r="I194" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J194" t="s">
         <v>1013</v>
       </c>
-      <c r="J194" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="195" spans="4:10">
+    </row>
+    <row r="195" spans="4:10" hidden="1">
       <c r="D195" t="s">
         <v>540</v>
       </c>
@@ -12367,7 +12468,7 @@
         <v>709</v>
       </c>
       <c r="F195" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G195" t="s">
         <v>917</v>
@@ -12376,13 +12477,13 @@
         <v>918</v>
       </c>
       <c r="I195" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J195" t="s">
         <v>1013</v>
       </c>
-      <c r="J195" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="196" spans="4:10">
+    </row>
+    <row r="196" spans="4:10" hidden="1">
       <c r="D196" t="s">
         <v>540</v>
       </c>
@@ -12390,7 +12491,7 @@
         <v>710</v>
       </c>
       <c r="F196" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G196" t="s">
         <v>917</v>
@@ -12399,13 +12500,13 @@
         <v>918</v>
       </c>
       <c r="I196" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J196" t="s">
         <v>1013</v>
       </c>
-      <c r="J196" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="197" spans="4:10">
+    </row>
+    <row r="197" spans="4:10" hidden="1">
       <c r="D197" t="s">
         <v>540</v>
       </c>
@@ -12413,7 +12514,7 @@
         <v>711</v>
       </c>
       <c r="F197" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G197" t="s">
         <v>917</v>
@@ -12422,13 +12523,13 @@
         <v>918</v>
       </c>
       <c r="I197" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J197" t="s">
         <v>1013</v>
       </c>
-      <c r="J197" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="198" spans="4:10">
+    </row>
+    <row r="198" spans="4:10" hidden="1">
       <c r="D198" t="s">
         <v>540</v>
       </c>
@@ -12436,7 +12537,7 @@
         <v>712</v>
       </c>
       <c r="F198" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G198" t="s">
         <v>917</v>
@@ -12445,13 +12546,13 @@
         <v>918</v>
       </c>
       <c r="I198" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J198" t="s">
         <v>1013</v>
       </c>
-      <c r="J198" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="199" spans="4:10">
+    </row>
+    <row r="199" spans="4:10" hidden="1">
       <c r="D199" t="s">
         <v>540</v>
       </c>
@@ -12459,7 +12560,7 @@
         <v>542</v>
       </c>
       <c r="F199" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G199" t="s">
         <v>917</v>
@@ -12468,13 +12569,13 @@
         <v>918</v>
       </c>
       <c r="I199" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J199" t="s">
         <v>1013</v>
       </c>
-      <c r="J199" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="200" spans="4:10">
+    </row>
+    <row r="200" spans="4:10" hidden="1">
       <c r="D200" t="s">
         <v>540</v>
       </c>
@@ -12482,7 +12583,7 @@
         <v>713</v>
       </c>
       <c r="F200" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G200" t="s">
         <v>917</v>
@@ -12491,13 +12592,13 @@
         <v>918</v>
       </c>
       <c r="I200" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J200" t="s">
         <v>1013</v>
       </c>
-      <c r="J200" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="201" spans="4:10">
+    </row>
+    <row r="201" spans="4:10" hidden="1">
       <c r="D201" t="s">
         <v>540</v>
       </c>
@@ -12505,7 +12606,7 @@
         <v>547</v>
       </c>
       <c r="F201" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G201" t="s">
         <v>917</v>
@@ -12514,13 +12615,13 @@
         <v>918</v>
       </c>
       <c r="I201" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J201" t="s">
         <v>1013</v>
       </c>
-      <c r="J201" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="202" spans="4:10">
+    </row>
+    <row r="202" spans="4:10" hidden="1">
       <c r="D202" t="s">
         <v>540</v>
       </c>
@@ -12528,7 +12629,7 @@
         <v>548</v>
       </c>
       <c r="F202" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G202" t="s">
         <v>917</v>
@@ -12537,13 +12638,13 @@
         <v>918</v>
       </c>
       <c r="I202" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J202" t="s">
         <v>1013</v>
       </c>
-      <c r="J202" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="203" spans="4:10">
+    </row>
+    <row r="203" spans="4:10" hidden="1">
       <c r="D203" t="s">
         <v>540</v>
       </c>
@@ -12551,7 +12652,7 @@
         <v>549</v>
       </c>
       <c r="F203" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G203" t="s">
         <v>917</v>
@@ -12560,13 +12661,13 @@
         <v>918</v>
       </c>
       <c r="I203" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J203" t="s">
         <v>1013</v>
       </c>
-      <c r="J203" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="204" spans="4:10">
+    </row>
+    <row r="204" spans="4:10" hidden="1">
       <c r="D204" t="s">
         <v>540</v>
       </c>
@@ -12574,7 +12675,7 @@
         <v>714</v>
       </c>
       <c r="F204" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G204" t="s">
         <v>917</v>
@@ -12583,13 +12684,13 @@
         <v>918</v>
       </c>
       <c r="I204" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J204" t="s">
         <v>1013</v>
       </c>
-      <c r="J204" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="205" spans="4:10">
+    </row>
+    <row r="205" spans="4:10" hidden="1">
       <c r="D205" t="s">
         <v>540</v>
       </c>
@@ -12597,7 +12698,7 @@
         <v>715</v>
       </c>
       <c r="F205" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G205" t="s">
         <v>917</v>
@@ -12606,13 +12707,13 @@
         <v>918</v>
       </c>
       <c r="I205" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J205" t="s">
         <v>1013</v>
       </c>
-      <c r="J205" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="206" spans="4:10">
+    </row>
+    <row r="206" spans="4:10" hidden="1">
       <c r="D206" t="s">
         <v>540</v>
       </c>
@@ -12620,7 +12721,7 @@
         <v>716</v>
       </c>
       <c r="F206" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G206" t="s">
         <v>917</v>
@@ -12629,13 +12730,13 @@
         <v>918</v>
       </c>
       <c r="I206" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J206" t="s">
         <v>1013</v>
       </c>
-      <c r="J206" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="207" spans="4:10">
+    </row>
+    <row r="207" spans="4:10" hidden="1">
       <c r="D207" t="s">
         <v>540</v>
       </c>
@@ -12643,7 +12744,7 @@
         <v>707</v>
       </c>
       <c r="F207" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G207" t="s">
         <v>917</v>
@@ -12652,13 +12753,13 @@
         <v>918</v>
       </c>
       <c r="I207" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J207" t="s">
         <v>1013</v>
       </c>
-      <c r="J207" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="208" spans="4:10">
+    </row>
+    <row r="208" spans="4:10" hidden="1">
       <c r="D208" t="s">
         <v>540</v>
       </c>
@@ -12666,7 +12767,7 @@
         <v>550</v>
       </c>
       <c r="F208" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G208" t="s">
         <v>917</v>
@@ -12675,13 +12776,13 @@
         <v>918</v>
       </c>
       <c r="I208" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J208" t="s">
         <v>1013</v>
       </c>
-      <c r="J208" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+    </row>
+    <row r="209" spans="1:14" hidden="1">
       <c r="D209" t="s">
         <v>540</v>
       </c>
@@ -12689,7 +12790,7 @@
         <v>551</v>
       </c>
       <c r="F209" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G209" t="s">
         <v>917</v>
@@ -12698,13 +12799,13 @@
         <v>918</v>
       </c>
       <c r="I209" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J209" t="s">
         <v>1013</v>
       </c>
-      <c r="J209" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
+    </row>
+    <row r="210" spans="1:14" hidden="1">
       <c r="A210" t="s">
         <v>540</v>
       </c>
@@ -12721,7 +12822,7 @@
         <v>765</v>
       </c>
       <c r="F210" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G210" t="s">
         <v>917</v>
@@ -12730,13 +12831,13 @@
         <v>918</v>
       </c>
       <c r="I210" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J210" t="s">
         <v>1013</v>
       </c>
-      <c r="J210" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+    </row>
+    <row r="211" spans="1:14" hidden="1">
       <c r="A211" t="s">
         <v>540</v>
       </c>
@@ -12753,7 +12854,7 @@
         <v>545</v>
       </c>
       <c r="F211" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G211" t="s">
         <v>922</v>
@@ -12765,7 +12866,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" hidden="1">
       <c r="A212" t="s">
         <v>540</v>
       </c>
@@ -12782,7 +12883,7 @@
         <v>545</v>
       </c>
       <c r="F212" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G212" t="s">
         <v>922</v>
@@ -12794,7 +12895,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" hidden="1">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -12802,7 +12903,7 @@
         <v>717</v>
       </c>
       <c r="F213" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G213" t="s">
         <v>922</v>
@@ -12814,10 +12915,10 @@
         <v>970</v>
       </c>
       <c r="J213" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1">
       <c r="A214" t="s">
         <v>553</v>
       </c>
@@ -12837,10 +12938,10 @@
         <v>924</v>
       </c>
       <c r="J214" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1">
       <c r="A215" t="s">
         <v>720</v>
       </c>
@@ -12857,19 +12958,19 @@
         <v>900</v>
       </c>
       <c r="F215" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G215" t="s">
         <v>1038</v>
-      </c>
-      <c r="G215" t="s">
-        <v>1039</v>
       </c>
       <c r="H215" t="s">
         <v>915</v>
       </c>
       <c r="I215" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J215" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L215" t="s">
         <v>649</v>
@@ -12881,7 +12982,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" hidden="1">
       <c r="A216" t="s">
         <v>667</v>
       </c>
@@ -12898,7 +12999,7 @@
         <v>915</v>
       </c>
       <c r="I216" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L216" t="s">
         <v>725</v>
@@ -12910,7 +13011,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" hidden="1">
       <c r="A217" t="s">
         <v>581</v>
       </c>
@@ -12927,10 +13028,10 @@
         <v>915</v>
       </c>
       <c r="I217" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1">
       <c r="D218" t="s">
         <v>848</v>
       </c>
@@ -12938,7 +13039,7 @@
         <v>729</v>
       </c>
       <c r="F218" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G218" t="s">
         <v>922</v>
@@ -12950,7 +13051,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" hidden="1">
       <c r="D219" t="s">
         <v>730</v>
       </c>
@@ -12958,7 +13059,7 @@
         <v>731</v>
       </c>
       <c r="F219" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G219" t="s">
         <v>922</v>
@@ -12970,7 +13071,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" hidden="1">
       <c r="D220" t="s">
         <v>732</v>
       </c>
@@ -12978,7 +13079,7 @@
         <v>733</v>
       </c>
       <c r="F220" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G220" t="s">
         <v>922</v>
@@ -12990,7 +13091,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" hidden="1">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -13010,7 +13111,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" hidden="1">
       <c r="D222" t="s">
         <v>466</v>
       </c>
@@ -13018,10 +13119,10 @@
         <v>469</v>
       </c>
       <c r="F222" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G222" t="s">
         <v>1046</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1047</v>
       </c>
       <c r="H222" t="s">
         <v>908</v>
@@ -13030,10 +13131,10 @@
         <v>975</v>
       </c>
       <c r="J222" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1">
       <c r="D223" t="s">
         <v>459</v>
       </c>
@@ -13041,7 +13142,7 @@
         <v>462</v>
       </c>
       <c r="F223" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G223" t="s">
         <v>922</v>
@@ -13053,7 +13154,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" hidden="1">
       <c r="A224" t="s">
         <v>739</v>
       </c>
@@ -13070,7 +13171,7 @@
         <v>740</v>
       </c>
       <c r="F224" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G224" t="s">
         <v>922</v>
@@ -13079,10 +13180,10 @@
         <v>923</v>
       </c>
       <c r="I224" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" t="s">
         <v>742</v>
       </c>
@@ -13102,7 +13203,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" t="s">
         <v>745</v>
       </c>
@@ -13119,7 +13220,7 @@
         <v>746</v>
       </c>
       <c r="F226" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G226" t="s">
         <v>922</v>
@@ -13128,10 +13229,10 @@
         <v>923</v>
       </c>
       <c r="I226" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1">
       <c r="D227" t="s">
         <v>160</v>
       </c>
@@ -13139,7 +13240,7 @@
         <v>747</v>
       </c>
       <c r="F227" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G227" t="s">
         <v>922</v>
@@ -13151,7 +13252,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="D228" t="s">
         <v>276</v>
       </c>
@@ -13159,7 +13260,7 @@
         <v>748</v>
       </c>
       <c r="F228" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G228" t="s">
         <v>922</v>
@@ -13171,7 +13272,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="D229" t="s">
         <v>322</v>
       </c>
@@ -13179,7 +13280,7 @@
         <v>749</v>
       </c>
       <c r="F229" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G229" t="s">
         <v>912</v>
@@ -13191,7 +13292,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="D230" t="s">
         <v>322</v>
       </c>
@@ -13199,7 +13300,7 @@
         <v>339</v>
       </c>
       <c r="F230" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G230" t="s">
         <v>922</v>
@@ -13211,7 +13312,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="8" t="s">
         <v>406</v>
       </c>
@@ -13228,7 +13329,7 @@
         <v>414</v>
       </c>
       <c r="F231" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G231" t="s">
         <v>922</v>
@@ -13240,7 +13341,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -13248,7 +13349,7 @@
         <v>750</v>
       </c>
       <c r="F232" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G232" t="s">
         <v>912</v>
@@ -13257,10 +13358,10 @@
         <v>913</v>
       </c>
       <c r="I232" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -13268,7 +13369,7 @@
         <v>751</v>
       </c>
       <c r="F233" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G233" t="s">
         <v>912</v>
@@ -13280,7 +13381,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -13288,7 +13389,7 @@
         <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G234" t="s">
         <v>922</v>
@@ -13300,7 +13401,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="D235" t="s">
         <v>730</v>
       </c>
@@ -13308,7 +13409,7 @@
         <v>752</v>
       </c>
       <c r="F235" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G235" t="s">
         <v>912</v>
@@ -13320,7 +13421,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="D236" t="s">
         <v>643</v>
       </c>
@@ -13328,7 +13429,7 @@
         <v>753</v>
       </c>
       <c r="F236" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G236" t="s">
         <v>912</v>
@@ -13337,10 +13438,10 @@
         <v>913</v>
       </c>
       <c r="I236" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1">
       <c r="D237" t="s">
         <v>643</v>
       </c>
@@ -13348,7 +13449,7 @@
         <v>754</v>
       </c>
       <c r="F237" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G237" t="s">
         <v>912</v>
@@ -13357,10 +13458,10 @@
         <v>913</v>
       </c>
       <c r="I237" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -13377,10 +13478,10 @@
         <v>915</v>
       </c>
       <c r="I238" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" t="s">
         <v>684</v>
       </c>
@@ -13397,10 +13498,10 @@
         <v>913</v>
       </c>
       <c r="I239" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1">
       <c r="D240" t="s">
         <v>498</v>
       </c>
@@ -13408,7 +13509,7 @@
         <v>503</v>
       </c>
       <c r="F240" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G240" t="s">
         <v>922</v>
@@ -13420,7 +13521,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" hidden="1">
       <c r="A241" t="s">
         <v>720</v>
       </c>
@@ -13437,7 +13538,7 @@
         <v>759</v>
       </c>
       <c r="F241" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G241" t="s">
         <v>912</v>
@@ -13449,10 +13550,10 @@
         <v>924</v>
       </c>
       <c r="J241" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" hidden="1">
       <c r="D242" t="s">
         <v>649</v>
       </c>
@@ -13460,10 +13561,10 @@
         <v>760</v>
       </c>
       <c r="F242" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G242" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H242" t="s">
         <v>915</v>
@@ -13472,7 +13573,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" hidden="1">
       <c r="D243" t="s">
         <v>649</v>
       </c>
@@ -13480,10 +13581,10 @@
         <v>761</v>
       </c>
       <c r="F243" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G243" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H243" t="s">
         <v>915</v>
@@ -13492,7 +13593,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" hidden="1">
       <c r="D244" t="s">
         <v>692</v>
       </c>
@@ -13500,7 +13601,7 @@
         <v>762</v>
       </c>
       <c r="F244" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G244" t="s">
         <v>912</v>
@@ -13512,7 +13613,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" hidden="1">
       <c r="D245" t="s">
         <v>771</v>
       </c>
@@ -13520,7 +13621,7 @@
         <v>772</v>
       </c>
       <c r="F245" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G245" t="s">
         <v>922</v>
@@ -13532,7 +13633,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" hidden="1">
       <c r="D246" t="s">
         <v>737</v>
       </c>
@@ -13540,7 +13641,7 @@
         <v>738</v>
       </c>
       <c r="F246" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G246" t="s">
         <v>917</v>
@@ -13549,13 +13650,13 @@
         <v>918</v>
       </c>
       <c r="I246" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J246" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" hidden="1">
       <c r="D247" t="s">
         <v>773</v>
       </c>
@@ -13563,7 +13664,7 @@
         <v>774</v>
       </c>
       <c r="F247" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G247" t="s">
         <v>922</v>
@@ -13572,10 +13673,10 @@
         <v>923</v>
       </c>
       <c r="I247" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" hidden="1">
       <c r="D248" t="s">
         <v>613</v>
       </c>
@@ -13583,7 +13684,7 @@
         <v>797</v>
       </c>
       <c r="F248" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G248" t="s">
         <v>985</v>
@@ -13592,10 +13693,10 @@
         <v>986</v>
       </c>
       <c r="I248" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" hidden="1">
       <c r="D249" t="s">
         <v>798</v>
       </c>
@@ -13603,22 +13704,22 @@
         <v>799</v>
       </c>
       <c r="F249" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G249" t="s">
         <v>1077</v>
-      </c>
-      <c r="G249" t="s">
-        <v>1078</v>
       </c>
       <c r="H249" t="s">
         <v>923</v>
       </c>
       <c r="I249" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J249" t="s">
         <v>1079</v>
       </c>
-      <c r="J249" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" ht="16.5">
+    </row>
+    <row r="250" spans="1:17" ht="16.5" hidden="1">
       <c r="D250" t="s">
         <v>850</v>
       </c>
@@ -13626,10 +13727,10 @@
         <v>802</v>
       </c>
       <c r="F250" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G250" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H250" t="s">
         <v>923</v>
@@ -13638,10 +13739,10 @@
         <v>961</v>
       </c>
       <c r="J250" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" hidden="1">
       <c r="A251" t="s">
         <v>309</v>
       </c>
@@ -13658,7 +13759,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G251" t="s">
         <v>912</v>
@@ -13688,7 +13789,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" hidden="1">
       <c r="D252" t="s">
         <v>286</v>
       </c>
@@ -13696,10 +13797,10 @@
         <v>806</v>
       </c>
       <c r="F252" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G252" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H252" t="s">
         <v>923</v>
@@ -13708,7 +13809,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5">
+    <row r="253" spans="1:17" ht="16.5" hidden="1">
       <c r="D253" t="s">
         <v>388</v>
       </c>
@@ -13716,7 +13817,7 @@
         <v>355</v>
       </c>
       <c r="F253" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G253" t="s">
         <v>912</v>
@@ -13728,7 +13829,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" hidden="1">
       <c r="D254" t="s">
         <v>510</v>
       </c>
@@ -13736,7 +13837,7 @@
         <v>809</v>
       </c>
       <c r="F254" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G254" t="s">
         <v>917</v>
@@ -13748,7 +13849,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" hidden="1">
       <c r="D255" t="s">
         <v>476</v>
       </c>
@@ -13756,10 +13857,10 @@
         <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G255" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H255" t="s">
         <v>923</v>
@@ -13768,7 +13869,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" hidden="1">
       <c r="D256" t="s">
         <v>363</v>
       </c>
@@ -13776,7 +13877,7 @@
         <v>813</v>
       </c>
       <c r="F256" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G256" t="s">
         <v>912</v>
@@ -13788,7 +13889,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" hidden="1">
       <c r="D257" t="s">
         <v>46</v>
       </c>
@@ -13796,7 +13897,7 @@
         <v>815</v>
       </c>
       <c r="F257" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G257" t="s">
         <v>922</v>
@@ -13805,10 +13906,10 @@
         <v>923</v>
       </c>
       <c r="I257" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
       <c r="D258" t="s">
         <v>510</v>
       </c>
@@ -13816,10 +13917,10 @@
         <v>816</v>
       </c>
       <c r="F258" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G258" t="s">
         <v>1089</v>
-      </c>
-      <c r="G258" t="s">
-        <v>1090</v>
       </c>
       <c r="H258" t="s">
         <v>923</v>
@@ -13828,7 +13929,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" hidden="1">
       <c r="D259" t="s">
         <v>798</v>
       </c>
@@ -13836,7 +13937,7 @@
         <v>817</v>
       </c>
       <c r="F259" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G259" t="s">
         <v>922</v>
@@ -13845,10 +13946,10 @@
         <v>923</v>
       </c>
       <c r="I259" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
       <c r="D260" t="s">
         <v>798</v>
       </c>
@@ -13856,22 +13957,22 @@
         <v>821</v>
       </c>
       <c r="F260" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G260" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H260" t="s">
         <v>923</v>
       </c>
       <c r="I260" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J260" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="D261" t="s">
         <v>115</v>
       </c>
@@ -13879,19 +13980,19 @@
         <v>828</v>
       </c>
       <c r="F261" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G261" t="s">
         <v>1094</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1095</v>
       </c>
       <c r="H261" t="s">
         <v>923</v>
       </c>
       <c r="I261" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1">
       <c r="D262" t="s">
         <v>798</v>
       </c>
@@ -13899,22 +14000,22 @@
         <v>817</v>
       </c>
       <c r="F262" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G262" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H262" t="s">
         <v>923</v>
       </c>
       <c r="I262" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J262" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1">
       <c r="D263" t="s">
         <v>742</v>
       </c>
@@ -13922,7 +14023,7 @@
         <v>830</v>
       </c>
       <c r="F263" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G263" t="s">
         <v>912</v>
@@ -13934,7 +14035,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" hidden="1">
       <c r="D264" t="s">
         <v>831</v>
       </c>
@@ -13942,10 +14043,10 @@
         <v>832</v>
       </c>
       <c r="F264" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G264" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H264" t="s">
         <v>923</v>
@@ -13954,7 +14055,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" hidden="1">
       <c r="D265" t="s">
         <v>229</v>
       </c>
@@ -13962,7 +14063,7 @@
         <v>834</v>
       </c>
       <c r="F265" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G265" t="s">
         <v>963</v>
@@ -13971,7 +14072,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -13988,7 +14089,7 @@
         <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G266" t="s">
         <v>912</v>
@@ -14000,7 +14101,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" t="s">
         <v>417</v>
       </c>
@@ -14017,7 +14118,7 @@
         <v>79</v>
       </c>
       <c r="F267" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G267" t="s">
         <v>912</v>
@@ -14029,7 +14130,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -14046,22 +14147,22 @@
         <v>824</v>
       </c>
       <c r="F268" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G268" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H268" t="s">
         <v>923</v>
       </c>
       <c r="I268" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J268" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -14078,7 +14179,7 @@
         <v>855</v>
       </c>
       <c r="F269" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G269" t="s">
         <v>922</v>
@@ -14090,7 +14191,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" hidden="1">
       <c r="D270" t="s">
         <v>869</v>
       </c>
@@ -14098,10 +14199,10 @@
         <v>868</v>
       </c>
       <c r="F270" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" hidden="1">
       <c r="D271" t="s">
         <v>540</v>
       </c>
@@ -14109,7 +14210,7 @@
         <v>888</v>
       </c>
       <c r="F271" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G271" t="s">
         <v>917</v>
@@ -14118,10 +14219,10 @@
         <v>918</v>
       </c>
       <c r="I271" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1">
       <c r="D272" t="s">
         <v>649</v>
       </c>
@@ -14129,7 +14230,7 @@
         <v>889</v>
       </c>
       <c r="F272" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G272" t="s">
         <v>912</v>
@@ -14141,10 +14242,10 @@
         <v>924</v>
       </c>
       <c r="J272" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="273" spans="4:14">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="273" spans="4:14" hidden="1">
       <c r="D273" t="s">
         <v>890</v>
       </c>
@@ -14152,7 +14253,7 @@
         <v>891</v>
       </c>
       <c r="F273" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G273" t="s">
         <v>985</v>
@@ -14161,7 +14262,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="274" spans="4:14">
+    <row r="274" spans="4:14" hidden="1">
       <c r="D274" t="s">
         <v>890</v>
       </c>
@@ -14169,7 +14270,7 @@
         <v>892</v>
       </c>
       <c r="F274" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G274" t="s">
         <v>985</v>
@@ -14178,7 +14279,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="275" spans="4:14">
+    <row r="275" spans="4:14" hidden="1">
       <c r="D275" t="s">
         <v>894</v>
       </c>
@@ -14186,7 +14287,7 @@
         <v>893</v>
       </c>
       <c r="F275" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G275" t="s">
         <v>985</v>
@@ -14195,7 +14296,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="276" spans="4:14">
+    <row r="276" spans="4:14" hidden="1">
       <c r="D276" t="s">
         <v>553</v>
       </c>
@@ -14203,7 +14304,7 @@
         <v>895</v>
       </c>
       <c r="F276" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G276" t="s">
         <v>917</v>
@@ -14215,10 +14316,10 @@
         <v>952</v>
       </c>
       <c r="J276" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="277" spans="4:14">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="277" spans="4:14" hidden="1">
       <c r="D277" t="s">
         <v>730</v>
       </c>
@@ -14226,7 +14327,7 @@
         <v>814</v>
       </c>
       <c r="F277" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G277" t="s">
         <v>912</v>
@@ -14238,7 +14339,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="278" spans="4:14">
+    <row r="278" spans="4:14" hidden="1">
       <c r="D278" t="s">
         <v>123</v>
       </c>
@@ -14246,7 +14347,7 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G278" t="s">
         <v>912</v>
@@ -14255,10 +14356,10 @@
         <v>913</v>
       </c>
       <c r="I278" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="279" spans="4:14">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="279" spans="4:14" hidden="1">
       <c r="D279" t="s">
         <v>115</v>
       </c>
@@ -14266,22 +14367,22 @@
         <v>899</v>
       </c>
       <c r="F279" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G279" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H279" t="s">
         <v>923</v>
       </c>
       <c r="I279" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J279" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="280" spans="4:14">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="280" spans="4:14" hidden="1">
       <c r="D280" t="s">
         <v>196</v>
       </c>
@@ -14289,33 +14390,33 @@
         <v>197</v>
       </c>
       <c r="F280" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G280" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H280" t="s">
         <v>847</v>
       </c>
       <c r="I280" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J280" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="281" spans="4:14">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="281" spans="4:14" hidden="1">
       <c r="D281" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E281" t="s">
         <v>1123</v>
       </c>
-      <c r="E281" t="s">
-        <v>1124</v>
-      </c>
       <c r="F281" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G281" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H281" t="s">
         <v>915</v>
@@ -14324,27 +14425,27 @@
         <v>964</v>
       </c>
       <c r="L281" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M281" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N281" t="s">
         <v>1125</v>
       </c>
-      <c r="M281" t="s">
-        <v>1124</v>
-      </c>
-      <c r="N281" t="s">
+    </row>
+    <row r="282" spans="4:14" hidden="1">
+      <c r="D282" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G282" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="282" spans="4:14">
-      <c r="D282" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1127</v>
       </c>
       <c r="H282" t="s">
         <v>915</v>
@@ -14353,7 +14454,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="283" spans="4:14">
+    <row r="283" spans="4:14" hidden="1">
       <c r="D283" t="s">
         <v>831</v>
       </c>
@@ -14361,306 +14462,345 @@
         <v>832</v>
       </c>
       <c r="F283" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="284" spans="4:14">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="284" spans="4:14" hidden="1">
       <c r="D284" t="s">
         <v>649</v>
       </c>
       <c r="E284" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J284" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="285" spans="4:14" hidden="1">
+      <c r="D285" t="s">
+        <v>454</v>
+      </c>
+      <c r="E285" t="s">
+        <v>457</v>
+      </c>
+      <c r="F285" t="s">
         <v>1145</v>
       </c>
-      <c r="F284" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G284" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J284" t="s">
-        <v>1141</v>
+      <c r="G285" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H285" t="s">
+        <v>66</v>
+      </c>
+      <c r="I285" t="s">
+        <v>909</v>
+      </c>
+      <c r="J285" t="s">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W285" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="SC9642TS-EC-Q-AH-4XLR-9642"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="176" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="171" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="177"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="163" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="162" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="161" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="160" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="154" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="153" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="148" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F8 F10:F89 F136:F1048576 F93:F134 F91">
-    <cfRule type="duplicateValues" dxfId="137" priority="45"/>
+  <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F136:F1048576">
+    <cfRule type="duplicateValues" dxfId="145" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="136" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="135" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="133" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F89 F1:F5 F7:F8 F275:F276 F263:F271 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
-    <cfRule type="duplicateValues" dxfId="132" priority="131"/>
+  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="140" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="131" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="128" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="127" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="126" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="125" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="124" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="123" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="121" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
-    <cfRule type="duplicateValues" dxfId="120" priority="144"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="128" priority="152"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
-    <cfRule type="duplicateValues" dxfId="119" priority="142"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="127" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F89 F1:F5 C7:C186 F7:F8 F275:F276 F149:F234 F136:F147 F10:F18 C210:C1048576 F278:F1048576 F93:F134 F91">
-    <cfRule type="duplicateValues" dxfId="118" priority="163"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F1048576 F93:F134 F91 F27:F89 F149:F234">
+    <cfRule type="duplicateValues" dxfId="126" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
-    <cfRule type="duplicateValues" dxfId="117" priority="150"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="125" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F89 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576 F93:F134 F91">
-    <cfRule type="duplicateValues" dxfId="116" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="160"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="124" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="114" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="112" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="110" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="103" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J1:J128 J133 J135:J247 J257:J1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="99" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="98" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="90" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="82" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="75" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="64" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="56" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="48" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N184">
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="46" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="33" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="26" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="19" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="12" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="8" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF86530-82F9-4D49-B231-5524D50B6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF0419-BCE2-4837-846A-C8C0A4C48532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7507,8 +7507,8 @@
   <dimension ref="A1:W288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I316" sqref="I316"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F315" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7829,7 +7829,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1">
+    <row r="219" spans="1:17">
       <c r="D219" t="s">
         <v>728</v>
       </c>
@@ -16225,27 +16225,27 @@
   <autoFilter ref="A1:W288" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
     <filterColumn colId="5">
       <filters>
-        <filter val="SC2498UA-N-Q-DB-60CK-2498"/>
+        <filter val="SC2526VB-SD-DA-00AK-2526"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="313" priority="363"/>
-    <cfRule type="duplicateValues" dxfId="312" priority="370"/>
-    <cfRule type="duplicateValues" dxfId="311" priority="368"/>
-    <cfRule type="duplicateValues" dxfId="310" priority="366"/>
-    <cfRule type="duplicateValues" dxfId="309" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="370"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="308" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="359"/>
     <cfRule type="duplicateValues" dxfId="307" priority="353"/>
     <cfRule type="duplicateValues" dxfId="306" priority="355"/>
     <cfRule type="duplicateValues" dxfId="305" priority="357"/>
-    <cfRule type="duplicateValues" dxfId="304" priority="359"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="341"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="301" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
     <cfRule type="duplicateValues" dxfId="300" priority="284"/>
@@ -16258,9 +16258,9 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
     <cfRule type="duplicateValues" dxfId="297" priority="301"/>
-    <cfRule type="duplicateValues" dxfId="296" priority="300"/>
-    <cfRule type="duplicateValues" dxfId="295" priority="304"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="304"/>
     <cfRule type="duplicateValues" dxfId="293" priority="303"/>
     <cfRule type="duplicateValues" dxfId="292" priority="302"/>
   </conditionalFormatting>
@@ -16268,35 +16268,35 @@
     <cfRule type="duplicateValues" dxfId="291" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="290" priority="373"/>
-    <cfRule type="duplicateValues" dxfId="289" priority="372"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="371"/>
-    <cfRule type="duplicateValues" dxfId="287" priority="369"/>
-    <cfRule type="duplicateValues" dxfId="286" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="285" priority="356"/>
-    <cfRule type="duplicateValues" dxfId="284" priority="352"/>
-    <cfRule type="duplicateValues" dxfId="283" priority="349"/>
-    <cfRule type="duplicateValues" dxfId="282" priority="347"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="346"/>
-    <cfRule type="duplicateValues" dxfId="280" priority="344"/>
-    <cfRule type="duplicateValues" dxfId="279" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="347"/>
     <cfRule type="duplicateValues" dxfId="278" priority="340"/>
-    <cfRule type="duplicateValues" dxfId="277" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="349"/>
     <cfRule type="duplicateValues" dxfId="276" priority="354"/>
-    <cfRule type="duplicateValues" dxfId="275" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
     <cfRule type="duplicateValues" dxfId="274" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
     <cfRule type="duplicateValues" dxfId="273" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="272" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="271" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="136"/>
     <cfRule type="duplicateValues" dxfId="270" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="269" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="139"/>
     <cfRule type="duplicateValues" dxfId="267" priority="134"/>
     <cfRule type="duplicateValues" dxfId="266" priority="135"/>
   </conditionalFormatting>
@@ -16305,55 +16305,55 @@
     <cfRule type="duplicateValues" dxfId="264" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="duplicateValues" dxfId="263" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="262" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="260" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="132"/>
     <cfRule type="duplicateValues" dxfId="259" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="258" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="257" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="256" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="255" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175:F177">
-    <cfRule type="duplicateValues" dxfId="253" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="252" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182">
-    <cfRule type="duplicateValues" dxfId="251" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="56"/>
     <cfRule type="duplicateValues" dxfId="249" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="247" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="51"/>
     <cfRule type="duplicateValues" dxfId="246" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="244" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
     <cfRule type="duplicateValues" dxfId="243" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="242" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="240" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
     <cfRule type="duplicateValues" dxfId="239" priority="331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250">
-    <cfRule type="duplicateValues" dxfId="238" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="156"/>
     <cfRule type="duplicateValues" dxfId="237" priority="155"/>
     <cfRule type="duplicateValues" dxfId="236" priority="154"/>
     <cfRule type="duplicateValues" dxfId="235" priority="153"/>
     <cfRule type="duplicateValues" dxfId="234" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
     <cfRule type="duplicateValues" dxfId="228" priority="327"/>
@@ -16368,28 +16368,28 @@
     <cfRule type="duplicateValues" dxfId="225" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="224" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
     <cfRule type="duplicateValues" dxfId="222" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="221" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="219" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="217" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="216" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="231"/>
     <cfRule type="duplicateValues" dxfId="215" priority="232"/>
     <cfRule type="duplicateValues" dxfId="214" priority="233"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="235"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288:F1048576 F1:F8 F10:F25 F93:F134 F91 F27:F79 F251:F285 F136:F174 F183:F249 F81:F89 F178:F181">
     <cfRule type="duplicateValues" dxfId="210" priority="221"/>
@@ -16410,8 +16410,8 @@
     <cfRule type="duplicateValues" dxfId="205" priority="326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F79 F149:F174 F251:F256 F210:F234 F183:F191 F81:F89 F178:F181">
-    <cfRule type="duplicateValues" dxfId="204" priority="336"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F286:G286">
     <cfRule type="duplicateValues" dxfId="202" priority="150"/>
@@ -16423,23 +16423,23 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J212">
     <cfRule type="duplicateValues" dxfId="198" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="144"/>
     <cfRule type="duplicateValues" dxfId="193" priority="145"/>
     <cfRule type="duplicateValues" dxfId="192" priority="146"/>
     <cfRule type="duplicateValues" dxfId="191" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="190" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J133 J135:J182 J257:J1048576 J223:J247 J1:J128 J213:J221 J184:J211">
     <cfRule type="duplicateValues" dxfId="182" priority="338"/>
@@ -16448,245 +16448,235 @@
     <cfRule type="duplicateValues" dxfId="181" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="180" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="206"/>
     <cfRule type="duplicateValues" dxfId="179" priority="212"/>
     <cfRule type="duplicateValues" dxfId="178" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="172" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="218"/>
     <cfRule type="duplicateValues" dxfId="167" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="164" priority="288"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="289"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="291"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="285"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="157" priority="334"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="332"/>
     <cfRule type="duplicateValues" dxfId="156" priority="333"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N87">
-    <cfRule type="duplicateValues" dxfId="154" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="36"/>
     <cfRule type="duplicateValues" dxfId="150" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91">
-    <cfRule type="duplicateValues" dxfId="146" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="177"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="138" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N115">
     <cfRule type="duplicateValues" dxfId="130" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="121"/>
     <cfRule type="duplicateValues" dxfId="126" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N182">
-    <cfRule type="duplicateValues" dxfId="122" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="45"/>
     <cfRule type="duplicateValues" dxfId="119" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="47"/>
     <cfRule type="duplicateValues" dxfId="115" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="114" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184">
-    <cfRule type="duplicateValues" dxfId="112" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
     <cfRule type="duplicateValues" dxfId="104" priority="312"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="313"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="315"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="316"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="314"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="98" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
     <cfRule type="duplicateValues" dxfId="91" priority="91"/>
     <cfRule type="duplicateValues" dxfId="90" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N277">
     <cfRule type="duplicateValues" dxfId="87" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N278">
-    <cfRule type="duplicateValues" dxfId="79" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="29"/>
     <cfRule type="duplicateValues" dxfId="74" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="71" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="260"/>
     <cfRule type="duplicateValues" dxfId="65" priority="254"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="duplicateValues" dxfId="64" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="64" priority="295"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="293"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="298"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="297"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="294"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="57" priority="322"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="323"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="324"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83">
-    <cfRule type="duplicateValues" dxfId="53" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q113">
-    <cfRule type="duplicateValues" dxfId="45" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="37" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q215">
-    <cfRule type="duplicateValues" dxfId="35" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="27" priority="277"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="duplicateValues" dxfId="16" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="273"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4C4DE0-1747-4F7A-9E10-13C914AE5D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15536C-9B6A-48E2-841D-F18D5C72F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="1201">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3915,6 +3915,15 @@
   </si>
   <si>
     <t>NF.SC1645A2(STC2899AI)-601HL</t>
+  </si>
+  <si>
+    <t>49E-49E</t>
+  </si>
+  <si>
+    <t>49E</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-GC-00AR-2402</t>
   </si>
 </sst>
 </file>
@@ -7518,9 +7527,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J296" sqref="J296:J297"/>
+      <selection pane="bottomLeft" activeCell="Q297" sqref="Q297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9571,6 +9580,15 @@
       <c r="J55" t="s">
         <v>236</v>
       </c>
+      <c r="K55" t="s">
+        <v>228</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1198</v>
+      </c>
     </row>
     <row r="56" spans="1:17" hidden="1">
       <c r="A56" t="s">
@@ -10191,7 +10209,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="D79" t="s">
         <v>285</v>
       </c>
@@ -10229,7 +10247,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="D80" t="s">
         <v>285</v>
       </c>
@@ -10249,7 +10267,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>285</v>
       </c>
@@ -10295,8 +10313,17 @@
       <c r="Q81" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" hidden="1">
+      <c r="R81" t="s">
+        <v>817</v>
+      </c>
+      <c r="S81" t="s">
+        <v>286</v>
+      </c>
+      <c r="T81" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" hidden="1">
       <c r="A82" t="s">
         <v>285</v>
       </c>
@@ -10325,7 +10352,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1">
+    <row r="83" spans="1:20" hidden="1">
       <c r="A83" t="s">
         <v>285</v>
       </c>
@@ -10375,7 +10402,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1">
+    <row r="84" spans="1:20" hidden="1">
       <c r="A84" t="s">
         <v>298</v>
       </c>
@@ -10404,7 +10431,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:20" hidden="1">
       <c r="A85" t="s">
         <v>303</v>
       </c>
@@ -10433,7 +10460,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:20" hidden="1">
       <c r="A86" t="s">
         <v>641</v>
       </c>
@@ -10462,7 +10489,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1">
+    <row r="87" spans="1:20" hidden="1">
       <c r="A87" t="s">
         <v>308</v>
       </c>
@@ -10500,7 +10527,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1">
+    <row r="88" spans="1:20" hidden="1">
       <c r="A88" t="s">
         <v>308</v>
       </c>
@@ -10529,7 +10556,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:20" hidden="1">
       <c r="A89" t="s">
         <v>308</v>
       </c>
@@ -10558,7 +10585,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1">
+    <row r="90" spans="1:20" hidden="1">
       <c r="A90" t="s">
         <v>321</v>
       </c>
@@ -10596,7 +10623,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:20" hidden="1">
       <c r="A91" t="s">
         <v>321</v>
       </c>
@@ -10628,7 +10655,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1">
+    <row r="92" spans="1:20" hidden="1">
       <c r="A92" t="s">
         <v>321</v>
       </c>
@@ -10675,7 +10702,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1">
+    <row r="93" spans="1:20" hidden="1">
       <c r="A93" t="s">
         <v>321</v>
       </c>
@@ -10707,7 +10734,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1">
+    <row r="94" spans="1:20" hidden="1">
       <c r="A94" t="s">
         <v>321</v>
       </c>
@@ -10736,7 +10763,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1">
+    <row r="95" spans="1:20" hidden="1">
       <c r="A95" t="s">
         <v>321</v>
       </c>
@@ -10768,7 +10795,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1">
+    <row r="96" spans="1:20" hidden="1">
       <c r="A96" t="s">
         <v>321</v>
       </c>
@@ -10890,7 +10917,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" hidden="1">
       <c r="A100" t="s">
         <v>362</v>
       </c>
@@ -13012,7 +13039,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1">
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
         <v>575</v>
       </c>
@@ -13225,7 +13252,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1">
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
         <v>579</v>
       </c>
@@ -15474,7 +15501,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" hidden="1">
       <c r="D256" t="s">
         <v>362</v>
       </c>
@@ -16260,8 +16287,11 @@
   <autoFilter ref="A1:W289" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
     <filterColumn colId="5">
       <filters>
-        <filter val="SC2462SO-CJ-10CR-2462"/>
-        <filter val="SC2462SO-Q-CJ-10CR-2462"/>
+        <filter val="SC2402SO-N-Ag0.8-2402"/>
+        <filter val="SC2402SO-N-CJ-90NR-6571"/>
+        <filter val="SC2402SO-N-GA-00NR-2402"/>
+        <filter val="SC2402SO-N-GB-00NR-2402"/>
+        <filter val="SC2402SO-N-GC-00NR-2402"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFC7550-E826-41CD-83FF-050A33B2D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429352D-0E85-40AE-945F-F4BC228B45BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1238">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4022,6 +4022,26 @@
   </si>
   <si>
     <t>SYLM358DC-GC-90AR-NM</t>
+  </si>
+  <si>
+    <t>HC2303D</t>
+  </si>
+  <si>
+    <t>丁文强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHC2303C-BUMP-0</t>
+  </si>
+  <si>
+    <t>PHC2303D-BUMP-0</t>
+  </si>
+  <si>
+    <t>PHC2304C-BUMP-0</t>
   </si>
 </sst>
 </file>
@@ -7742,12 +7762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W298"/>
+  <dimension ref="A1:W302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H301" sqref="H301"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M305" sqref="M305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7846,7 +7865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7884,7 +7903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7951,7 +7970,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -7992,7 +8011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -8021,7 +8040,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -8068,7 +8087,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -8133,7 +8152,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -8180,7 +8199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -8212,7 +8231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -8235,7 +8254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -8273,7 +8292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -8305,7 +8324,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -8355,7 +8374,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -8420,7 +8439,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -8476,7 +8495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -8514,7 +8533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -8543,7 +8562,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -8584,7 +8603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -8613,7 +8632,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -8645,7 +8664,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -8674,7 +8693,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -8703,7 +8722,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -8735,7 +8754,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -8773,7 +8792,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -8814,7 +8833,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -8843,7 +8862,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -8875,7 +8894,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -8907,7 +8926,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -8939,7 +8958,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -8971,7 +8990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -9000,7 +9019,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -9029,7 +9048,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -9058,7 +9077,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -9099,7 +9118,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -9128,7 +9147,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -9178,7 +9197,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -9210,7 +9229,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -9260,7 +9279,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -9292,7 +9311,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -9324,7 +9343,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -9374,7 +9393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -9415,7 +9434,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -9444,7 +9463,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1">
+    <row r="45" spans="1:17">
       <c r="D45" t="s">
         <v>195</v>
       </c>
@@ -9476,7 +9495,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>195</v>
       </c>
@@ -9526,7 +9545,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -9555,7 +9574,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -9587,7 +9606,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -9616,7 +9635,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -9645,7 +9664,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -9677,7 +9696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -9715,7 +9734,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -9744,7 +9763,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -9776,7 +9795,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>228</v>
       </c>
@@ -9817,7 +9836,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -9849,7 +9868,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1">
+    <row r="57" spans="1:17">
       <c r="D57" t="s">
         <v>228</v>
       </c>
@@ -9872,7 +9891,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1">
+    <row r="58" spans="1:17">
       <c r="D58" t="s">
         <v>228</v>
       </c>
@@ -9895,7 +9914,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1">
+    <row r="59" spans="1:17">
       <c r="D59" t="s">
         <v>237</v>
       </c>
@@ -9918,7 +9937,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1">
+    <row r="60" spans="1:17">
       <c r="D60" t="s">
         <v>237</v>
       </c>
@@ -9941,7 +9960,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1">
+    <row r="61" spans="1:17">
       <c r="D61" t="s">
         <v>245</v>
       </c>
@@ -9964,7 +9983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1">
+    <row r="62" spans="1:17">
       <c r="D62" t="s">
         <v>245</v>
       </c>
@@ -9987,7 +10006,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1">
+    <row r="63" spans="1:17">
       <c r="D63" t="s">
         <v>245</v>
       </c>
@@ -10028,7 +10047,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1">
+    <row r="64" spans="1:17">
       <c r="D64" t="s">
         <v>245</v>
       </c>
@@ -10051,7 +10070,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="D65" t="s">
         <v>245</v>
       </c>
@@ -10074,7 +10093,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="D66" t="s">
         <v>245</v>
       </c>
@@ -10097,7 +10116,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="D67" t="s">
         <v>245</v>
       </c>
@@ -10120,7 +10139,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="D68" t="s">
         <v>245</v>
       </c>
@@ -10143,7 +10162,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="D69" t="s">
         <v>245</v>
       </c>
@@ -10166,7 +10185,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>257</v>
       </c>
@@ -10195,7 +10214,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -10227,7 +10246,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -10259,7 +10278,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -10291,7 +10310,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>261</v>
       </c>
@@ -10323,7 +10342,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>261</v>
       </c>
@@ -10355,7 +10374,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="D76" t="s">
         <v>261</v>
       </c>
@@ -10378,7 +10397,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>275</v>
       </c>
@@ -10436,7 +10455,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="D79" t="s">
         <v>285</v>
       </c>
@@ -10474,7 +10493,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="D80" t="s">
         <v>285</v>
       </c>
@@ -10494,7 +10513,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>285</v>
       </c>
@@ -10550,7 +10569,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>285</v>
       </c>
@@ -10579,7 +10598,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>285</v>
       </c>
@@ -10629,7 +10648,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>298</v>
       </c>
@@ -10658,7 +10677,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>303</v>
       </c>
@@ -10687,7 +10706,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>640</v>
       </c>
@@ -10716,7 +10735,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>308</v>
       </c>
@@ -10754,7 +10773,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>308</v>
       </c>
@@ -10783,7 +10802,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>308</v>
       </c>
@@ -10812,7 +10831,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>321</v>
       </c>
@@ -10850,7 +10869,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>321</v>
       </c>
@@ -10882,7 +10901,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>321</v>
       </c>
@@ -10929,7 +10948,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>321</v>
       </c>
@@ -10961,7 +10980,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>321</v>
       </c>
@@ -10990,7 +11009,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>321</v>
       </c>
@@ -11022,7 +11041,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>321</v>
       </c>
@@ -11054,7 +11073,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>321</v>
       </c>
@@ -11083,7 +11102,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>321</v>
       </c>
@@ -11115,7 +11134,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>321</v>
       </c>
@@ -11144,7 +11163,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>362</v>
       </c>
@@ -11182,7 +11201,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>362</v>
       </c>
@@ -11211,7 +11230,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1">
+    <row r="102" spans="1:14">
       <c r="D102" t="s">
         <v>362</v>
       </c>
@@ -11240,7 +11259,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>362</v>
       </c>
@@ -11269,7 +11288,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>362</v>
       </c>
@@ -11307,7 +11326,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>382</v>
       </c>
@@ -11336,7 +11355,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>387</v>
       </c>
@@ -11374,7 +11393,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1">
+    <row r="107" spans="1:14">
       <c r="D107" t="s">
         <v>387</v>
       </c>
@@ -11394,7 +11413,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>387</v>
       </c>
@@ -11426,7 +11445,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>387</v>
       </c>
@@ -11455,7 +11474,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>387</v>
       </c>
@@ -11493,7 +11512,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>387</v>
       </c>
@@ -11531,7 +11550,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>400</v>
       </c>
@@ -11560,7 +11579,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>405</v>
       </c>
@@ -11607,7 +11626,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>405</v>
       </c>
@@ -11636,7 +11655,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>405</v>
       </c>
@@ -11674,7 +11693,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1">
+    <row r="116" spans="1:20">
       <c r="D116" t="s">
         <v>415</v>
       </c>
@@ -11703,7 +11722,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>419</v>
       </c>
@@ -11750,7 +11769,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>429</v>
       </c>
@@ -11788,7 +11807,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>434</v>
       </c>
@@ -11847,7 +11866,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>441</v>
       </c>
@@ -11888,7 +11907,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1">
+    <row r="121" spans="1:20">
       <c r="D121" t="s">
         <v>441</v>
       </c>
@@ -11920,7 +11939,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>448</v>
       </c>
@@ -11952,7 +11971,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>452</v>
       </c>
@@ -11993,7 +12012,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1">
+    <row r="124" spans="1:20">
       <c r="D124" t="s">
         <v>452</v>
       </c>
@@ -12016,7 +12035,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1">
+    <row r="125" spans="1:20">
       <c r="D125" t="s">
         <v>452</v>
       </c>
@@ -12039,7 +12058,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>457</v>
       </c>
@@ -12080,7 +12099,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>464</v>
       </c>
@@ -12121,7 +12140,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>464</v>
       </c>
@@ -12162,7 +12181,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>477</v>
       </c>
@@ -12194,7 +12213,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>477</v>
       </c>
@@ -12226,7 +12245,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>477</v>
       </c>
@@ -12258,7 +12277,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>477</v>
       </c>
@@ -12290,7 +12309,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>477</v>
       </c>
@@ -12319,7 +12338,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>477</v>
       </c>
@@ -12351,7 +12370,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>477</v>
       </c>
@@ -12380,7 +12399,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>496</v>
       </c>
@@ -12412,7 +12431,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>496</v>
       </c>
@@ -12450,7 +12469,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>496</v>
       </c>
@@ -12488,7 +12507,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1">
+    <row r="139" spans="1:14">
       <c r="A139" s="8" t="s">
         <v>496</v>
       </c>
@@ -12529,7 +12548,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>504</v>
       </c>
@@ -12570,7 +12589,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>508</v>
       </c>
@@ -12608,7 +12627,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>508</v>
       </c>
@@ -12649,7 +12668,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>508</v>
       </c>
@@ -12678,7 +12697,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>508</v>
       </c>
@@ -12707,7 +12726,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="D145" t="s">
         <v>508</v>
       </c>
@@ -12730,7 +12749,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>508</v>
       </c>
@@ -12762,7 +12781,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>508</v>
       </c>
@@ -12794,7 +12813,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>508</v>
       </c>
@@ -12844,7 +12863,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1">
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>508</v>
       </c>
@@ -12876,7 +12895,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>508</v>
       </c>
@@ -12908,7 +12927,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1">
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>508</v>
       </c>
@@ -12949,7 +12968,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1">
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>508</v>
       </c>
@@ -12978,7 +12997,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1">
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>646</v>
       </c>
@@ -13028,7 +13047,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1">
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>551</v>
       </c>
@@ -13057,7 +13076,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1">
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>551</v>
       </c>
@@ -13086,7 +13105,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1">
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>551</v>
       </c>
@@ -13115,7 +13134,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>551</v>
       </c>
@@ -13147,7 +13166,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>551</v>
       </c>
@@ -13179,7 +13198,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>564</v>
       </c>
@@ -13208,7 +13227,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>564</v>
       </c>
@@ -13237,7 +13256,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1">
+    <row r="161" spans="1:23">
       <c r="A161" t="s">
         <v>571</v>
       </c>
@@ -13266,7 +13285,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1">
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
         <v>575</v>
       </c>
@@ -13331,7 +13350,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1">
+    <row r="163" spans="1:23">
       <c r="A163" t="s">
         <v>579</v>
       </c>
@@ -13363,7 +13382,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1">
+    <row r="164" spans="1:23">
       <c r="D164" t="s">
         <v>579</v>
       </c>
@@ -13386,7 +13405,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1">
+    <row r="165" spans="1:23">
       <c r="A165" t="s">
         <v>579</v>
       </c>
@@ -13415,7 +13434,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1">
+    <row r="166" spans="1:23">
       <c r="A166" t="s">
         <v>285</v>
       </c>
@@ -13447,7 +13466,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1">
+    <row r="167" spans="1:23">
       <c r="A167" t="s">
         <v>579</v>
       </c>
@@ -13479,7 +13498,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1">
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
         <v>579</v>
       </c>
@@ -13526,7 +13545,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1">
+    <row r="169" spans="1:23">
       <c r="A169" t="s">
         <v>474</v>
       </c>
@@ -13573,7 +13592,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1">
+    <row r="170" spans="1:23">
       <c r="A170" t="s">
         <v>474</v>
       </c>
@@ -13611,7 +13630,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1">
+    <row r="171" spans="1:23">
       <c r="A171" t="s">
         <v>474</v>
       </c>
@@ -13640,7 +13659,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1">
+    <row r="172" spans="1:23">
       <c r="A172" t="s">
         <v>593</v>
       </c>
@@ -13672,7 +13691,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1">
+    <row r="173" spans="1:23">
       <c r="D173" t="s">
         <v>593</v>
       </c>
@@ -13695,7 +13714,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1">
+    <row r="174" spans="1:23">
       <c r="D174" t="s">
         <v>593</v>
       </c>
@@ -13718,7 +13737,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1">
+    <row r="175" spans="1:23">
       <c r="D175" t="s">
         <v>607</v>
       </c>
@@ -13738,7 +13757,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1">
+    <row r="176" spans="1:23">
       <c r="D176" t="s">
         <v>610</v>
       </c>
@@ -13758,7 +13777,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1">
+    <row r="177" spans="1:17">
       <c r="D177" t="s">
         <v>613</v>
       </c>
@@ -13775,7 +13794,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1">
+    <row r="178" spans="1:17">
       <c r="D178" t="s">
         <v>321</v>
       </c>
@@ -13804,7 +13823,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1">
+    <row r="179" spans="1:17">
       <c r="A179" t="s">
         <v>564</v>
       </c>
@@ -13833,7 +13852,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1">
+    <row r="180" spans="1:17">
       <c r="A180" t="s">
         <v>660</v>
       </c>
@@ -13871,7 +13890,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1">
+    <row r="181" spans="1:17">
       <c r="A181" t="s">
         <v>664</v>
       </c>
@@ -13900,7 +13919,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1">
+    <row r="182" spans="1:17">
       <c r="A182" t="s">
         <v>668</v>
       </c>
@@ -13938,7 +13957,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1">
+    <row r="183" spans="1:17">
       <c r="A183" t="s">
         <v>674</v>
       </c>
@@ -13985,7 +14004,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1">
+    <row r="184" spans="1:17">
       <c r="D184" t="s">
         <v>1138</v>
       </c>
@@ -14014,7 +14033,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1">
+    <row r="185" spans="1:17">
       <c r="D185" t="s">
         <v>681</v>
       </c>
@@ -14037,7 +14056,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1">
+    <row r="186" spans="1:17">
       <c r="D186" t="s">
         <v>681</v>
       </c>
@@ -14060,7 +14079,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1">
+    <row r="187" spans="1:17">
       <c r="D187" t="s">
         <v>681</v>
       </c>
@@ -14083,7 +14102,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1">
+    <row r="188" spans="1:17">
       <c r="A188" t="s">
         <v>684</v>
       </c>
@@ -14115,7 +14134,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1">
+    <row r="189" spans="1:17">
       <c r="D189" t="s">
         <v>474</v>
       </c>
@@ -14144,7 +14163,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1">
+    <row r="190" spans="1:17">
       <c r="A190" t="s">
         <v>696</v>
       </c>
@@ -14173,7 +14192,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1">
+    <row r="191" spans="1:17">
       <c r="A191" t="s">
         <v>700</v>
       </c>
@@ -14202,7 +14221,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1">
+    <row r="192" spans="1:17">
       <c r="D192" t="s">
         <v>538</v>
       </c>
@@ -14225,7 +14244,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="193" spans="4:10" hidden="1">
+    <row r="193" spans="4:10">
       <c r="D193" t="s">
         <v>538</v>
       </c>
@@ -14248,7 +14267,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="194" spans="4:10" hidden="1">
+    <row r="194" spans="4:10">
       <c r="D194" t="s">
         <v>538</v>
       </c>
@@ -14271,7 +14290,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="195" spans="4:10" hidden="1">
+    <row r="195" spans="4:10">
       <c r="D195" t="s">
         <v>538</v>
       </c>
@@ -14294,7 +14313,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="196" spans="4:10" hidden="1">
+    <row r="196" spans="4:10">
       <c r="D196" t="s">
         <v>538</v>
       </c>
@@ -14317,7 +14336,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="197" spans="4:10" hidden="1">
+    <row r="197" spans="4:10">
       <c r="D197" t="s">
         <v>538</v>
       </c>
@@ -14340,7 +14359,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="198" spans="4:10" hidden="1">
+    <row r="198" spans="4:10">
       <c r="D198" t="s">
         <v>538</v>
       </c>
@@ -14363,7 +14382,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="199" spans="4:10" hidden="1">
+    <row r="199" spans="4:10">
       <c r="D199" t="s">
         <v>538</v>
       </c>
@@ -14386,7 +14405,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="200" spans="4:10" hidden="1">
+    <row r="200" spans="4:10">
       <c r="D200" t="s">
         <v>538</v>
       </c>
@@ -14409,7 +14428,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="201" spans="4:10" hidden="1">
+    <row r="201" spans="4:10">
       <c r="D201" t="s">
         <v>538</v>
       </c>
@@ -14432,7 +14451,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="202" spans="4:10" hidden="1">
+    <row r="202" spans="4:10">
       <c r="D202" t="s">
         <v>538</v>
       </c>
@@ -14455,7 +14474,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="203" spans="4:10" hidden="1">
+    <row r="203" spans="4:10">
       <c r="D203" t="s">
         <v>538</v>
       </c>
@@ -14478,7 +14497,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="204" spans="4:10" hidden="1">
+    <row r="204" spans="4:10">
       <c r="D204" t="s">
         <v>538</v>
       </c>
@@ -14501,7 +14520,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="205" spans="4:10" hidden="1">
+    <row r="205" spans="4:10">
       <c r="D205" t="s">
         <v>538</v>
       </c>
@@ -14524,7 +14543,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="206" spans="4:10" hidden="1">
+    <row r="206" spans="4:10">
       <c r="D206" t="s">
         <v>538</v>
       </c>
@@ -14547,7 +14566,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="207" spans="4:10" hidden="1">
+    <row r="207" spans="4:10">
       <c r="D207" t="s">
         <v>538</v>
       </c>
@@ -14570,7 +14589,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="208" spans="4:10" hidden="1">
+    <row r="208" spans="4:10">
       <c r="D208" t="s">
         <v>538</v>
       </c>
@@ -14593,7 +14612,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1">
+    <row r="209" spans="1:17">
       <c r="D209" t="s">
         <v>538</v>
       </c>
@@ -14616,7 +14635,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1">
+    <row r="210" spans="1:17">
       <c r="A210" t="s">
         <v>538</v>
       </c>
@@ -14648,7 +14667,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1">
+    <row r="211" spans="1:17">
       <c r="A211" t="s">
         <v>538</v>
       </c>
@@ -14686,7 +14705,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1">
+    <row r="212" spans="1:17">
       <c r="A212" t="s">
         <v>538</v>
       </c>
@@ -14727,7 +14746,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1">
+    <row r="213" spans="1:17">
       <c r="D213" t="s">
         <v>122</v>
       </c>
@@ -14750,7 +14769,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1">
+    <row r="214" spans="1:17">
       <c r="A214" t="s">
         <v>551</v>
       </c>
@@ -14773,7 +14792,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1">
+    <row r="215" spans="1:17">
       <c r="A215" t="s">
         <v>717</v>
       </c>
@@ -14820,7 +14839,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1">
+    <row r="216" spans="1:17">
       <c r="A216" t="s">
         <v>664</v>
       </c>
@@ -14849,7 +14868,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1">
+    <row r="217" spans="1:17">
       <c r="A217" t="s">
         <v>579</v>
       </c>
@@ -14869,7 +14888,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1">
+    <row r="218" spans="1:17">
       <c r="D218" t="s">
         <v>844</v>
       </c>
@@ -14889,7 +14908,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1">
+    <row r="219" spans="1:17">
       <c r="D219" t="s">
         <v>727</v>
       </c>
@@ -14909,7 +14928,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1">
+    <row r="220" spans="1:17">
       <c r="D220" t="s">
         <v>729</v>
       </c>
@@ -14929,7 +14948,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1">
+    <row r="221" spans="1:17">
       <c r="A221" t="s">
         <v>303</v>
       </c>
@@ -14949,7 +14968,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1">
+    <row r="222" spans="1:17">
       <c r="D222" t="s">
         <v>464</v>
       </c>
@@ -14972,7 +14991,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1">
+    <row r="223" spans="1:17">
       <c r="D223" t="s">
         <v>457</v>
       </c>
@@ -14992,7 +15011,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1">
+    <row r="224" spans="1:17">
       <c r="A224" t="s">
         <v>736</v>
       </c>
@@ -15021,7 +15040,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1">
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
         <v>739</v>
       </c>
@@ -15041,7 +15060,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1">
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
         <v>742</v>
       </c>
@@ -15070,7 +15089,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1">
+    <row r="227" spans="1:14">
       <c r="D227" t="s">
         <v>159</v>
       </c>
@@ -15090,7 +15109,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1">
+    <row r="228" spans="1:14">
       <c r="D228" t="s">
         <v>275</v>
       </c>
@@ -15110,7 +15129,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1">
+    <row r="229" spans="1:14">
       <c r="D229" t="s">
         <v>321</v>
       </c>
@@ -15130,7 +15149,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1">
+    <row r="230" spans="1:14">
       <c r="D230" t="s">
         <v>321</v>
       </c>
@@ -15150,7 +15169,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1">
+    <row r="231" spans="1:14">
       <c r="A231" s="8" t="s">
         <v>405</v>
       </c>
@@ -15179,7 +15198,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1">
+    <row r="232" spans="1:14">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -15199,7 +15218,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1">
+    <row r="233" spans="1:14">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -15219,7 +15238,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1">
+    <row r="234" spans="1:14">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -15239,7 +15258,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1">
+    <row r="235" spans="1:14">
       <c r="D235" t="s">
         <v>727</v>
       </c>
@@ -15268,7 +15287,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1">
+    <row r="236" spans="1:14">
       <c r="D236" t="s">
         <v>640</v>
       </c>
@@ -15288,7 +15307,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1">
+    <row r="237" spans="1:14">
       <c r="D237" t="s">
         <v>640</v>
       </c>
@@ -15308,7 +15327,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1">
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
         <v>228</v>
       </c>
@@ -15328,7 +15347,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1">
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
         <v>681</v>
       </c>
@@ -15348,7 +15367,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1">
+    <row r="240" spans="1:14">
       <c r="D240" t="s">
         <v>496</v>
       </c>
@@ -15368,7 +15387,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1">
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>717</v>
       </c>
@@ -15400,7 +15419,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1">
+    <row r="242" spans="1:17">
       <c r="D242" t="s">
         <v>646</v>
       </c>
@@ -15420,7 +15439,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1">
+    <row r="243" spans="1:17">
       <c r="D243" t="s">
         <v>646</v>
       </c>
@@ -15440,7 +15459,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1">
+    <row r="244" spans="1:17">
       <c r="D244" t="s">
         <v>689</v>
       </c>
@@ -15460,7 +15479,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1">
+    <row r="245" spans="1:17">
       <c r="D245" t="s">
         <v>767</v>
       </c>
@@ -15480,7 +15499,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1">
+    <row r="246" spans="1:17">
       <c r="D246" t="s">
         <v>734</v>
       </c>
@@ -15503,7 +15522,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1">
+    <row r="247" spans="1:17">
       <c r="D247" t="s">
         <v>769</v>
       </c>
@@ -15535,7 +15554,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1">
+    <row r="248" spans="1:17">
       <c r="D248" t="s">
         <v>610</v>
       </c>
@@ -15555,7 +15574,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1">
+    <row r="249" spans="1:17">
       <c r="D249" t="s">
         <v>794</v>
       </c>
@@ -15578,7 +15597,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="16.5" hidden="1">
+    <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
         <v>846</v>
       </c>
@@ -15610,7 +15629,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1">
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>308</v>
       </c>
@@ -15657,7 +15676,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1">
+    <row r="252" spans="1:17">
       <c r="D252" t="s">
         <v>285</v>
       </c>
@@ -15677,7 +15696,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5" hidden="1">
+    <row r="253" spans="1:17" ht="16.5">
       <c r="D253" t="s">
         <v>387</v>
       </c>
@@ -15697,7 +15716,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1">
+    <row r="254" spans="1:17">
       <c r="D254" t="s">
         <v>508</v>
       </c>
@@ -15717,7 +15736,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1">
+    <row r="255" spans="1:17">
       <c r="D255" t="s">
         <v>474</v>
       </c>
@@ -15737,7 +15756,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1">
+    <row r="256" spans="1:17">
       <c r="D256" t="s">
         <v>362</v>
       </c>
@@ -15757,7 +15776,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1">
+    <row r="257" spans="1:14">
       <c r="D257" t="s">
         <v>46</v>
       </c>
@@ -15777,7 +15796,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1">
+    <row r="258" spans="1:14">
       <c r="D258" t="s">
         <v>508</v>
       </c>
@@ -15797,7 +15816,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1">
+    <row r="259" spans="1:14">
       <c r="D259" t="s">
         <v>794</v>
       </c>
@@ -15817,7 +15836,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1">
+    <row r="260" spans="1:14">
       <c r="D260" t="s">
         <v>794</v>
       </c>
@@ -15840,7 +15859,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1">
+    <row r="261" spans="1:14">
       <c r="D261" t="s">
         <v>114</v>
       </c>
@@ -15860,7 +15879,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1">
+    <row r="262" spans="1:14">
       <c r="D262" t="s">
         <v>794</v>
       </c>
@@ -15883,7 +15902,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1">
+    <row r="263" spans="1:14">
       <c r="D263" t="s">
         <v>739</v>
       </c>
@@ -15903,7 +15922,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1">
+    <row r="264" spans="1:14">
       <c r="D264" t="s">
         <v>827</v>
       </c>
@@ -15923,7 +15942,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1">
+    <row r="265" spans="1:14">
       <c r="D265" t="s">
         <v>228</v>
       </c>
@@ -15940,7 +15959,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1">
+    <row r="266" spans="1:14">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -15972,7 +15991,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1">
+    <row r="267" spans="1:14">
       <c r="A267" t="s">
         <v>415</v>
       </c>
@@ -16010,7 +16029,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1">
+    <row r="268" spans="1:14">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -16042,7 +16061,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1">
+    <row r="269" spans="1:14">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -16071,7 +16090,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1">
+    <row r="270" spans="1:14">
       <c r="D270" t="s">
         <v>865</v>
       </c>
@@ -16082,7 +16101,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1">
+    <row r="271" spans="1:14">
       <c r="D271" t="s">
         <v>538</v>
       </c>
@@ -16102,7 +16121,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1">
+    <row r="272" spans="1:14">
       <c r="D272" t="s">
         <v>646</v>
       </c>
@@ -16125,7 +16144,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1">
+    <row r="273" spans="1:14">
       <c r="D273" t="s">
         <v>886</v>
       </c>
@@ -16142,7 +16161,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1">
+    <row r="274" spans="1:14">
       <c r="D274" t="s">
         <v>886</v>
       </c>
@@ -16159,7 +16178,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1">
+    <row r="275" spans="1:14">
       <c r="D275" t="s">
         <v>890</v>
       </c>
@@ -16176,7 +16195,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1">
+    <row r="276" spans="1:14">
       <c r="D276" t="s">
         <v>551</v>
       </c>
@@ -16199,7 +16218,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1">
+    <row r="277" spans="1:14">
       <c r="D277" t="s">
         <v>727</v>
       </c>
@@ -16228,7 +16247,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1">
+    <row r="278" spans="1:14">
       <c r="D278" t="s">
         <v>122</v>
       </c>
@@ -16257,7 +16276,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1">
+    <row r="279" spans="1:14">
       <c r="D279" t="s">
         <v>114</v>
       </c>
@@ -16280,7 +16299,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1">
+    <row r="280" spans="1:14">
       <c r="D280" t="s">
         <v>195</v>
       </c>
@@ -16303,7 +16322,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1">
+    <row r="281" spans="1:14">
       <c r="D281" t="s">
         <v>1110</v>
       </c>
@@ -16332,7 +16351,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1">
+    <row r="282" spans="1:14">
       <c r="D282" t="s">
         <v>1118</v>
       </c>
@@ -16352,7 +16371,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1">
+    <row r="283" spans="1:14">
       <c r="D283" t="s">
         <v>452</v>
       </c>
@@ -16375,7 +16394,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1">
+    <row r="284" spans="1:14">
       <c r="A284" t="s">
         <v>464</v>
       </c>
@@ -16404,7 +16423,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1">
+    <row r="285" spans="1:14">
       <c r="A285" t="s">
         <v>1146</v>
       </c>
@@ -16433,7 +16452,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1">
+    <row r="286" spans="1:14">
       <c r="D286" t="s">
         <v>159</v>
       </c>
@@ -16453,7 +16472,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1">
+    <row r="287" spans="1:14">
       <c r="A287" t="s">
         <v>60</v>
       </c>
@@ -16485,7 +16504,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1">
+    <row r="288" spans="1:14">
       <c r="D288" t="s">
         <v>159</v>
       </c>
@@ -16508,7 +16527,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1">
+    <row r="289" spans="1:14">
       <c r="D289" t="s">
         <v>405</v>
       </c>
@@ -16528,7 +16547,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1">
+    <row r="290" spans="1:14">
       <c r="D290" t="s">
         <v>664</v>
       </c>
@@ -16548,7 +16567,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1">
+    <row r="291" spans="1:14">
       <c r="D291" t="s">
         <v>551</v>
       </c>
@@ -16571,7 +16590,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1">
+    <row r="292" spans="1:14">
       <c r="D292" t="s">
         <v>1216</v>
       </c>
@@ -16603,7 +16622,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1">
+    <row r="293" spans="1:14">
       <c r="A293" t="s">
         <v>496</v>
       </c>
@@ -16632,7 +16651,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1">
+    <row r="294" spans="1:14">
       <c r="D294" t="s">
         <v>1220</v>
       </c>
@@ -16652,7 +16671,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1">
+    <row r="295" spans="1:14">
       <c r="D295" t="s">
         <v>1220</v>
       </c>
@@ -16672,7 +16691,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1">
+    <row r="296" spans="1:14">
       <c r="D296" t="s">
         <v>767</v>
       </c>
@@ -16692,7 +16711,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1">
+    <row r="297" spans="1:14">
       <c r="D297" t="s">
         <v>1229</v>
       </c>
@@ -16712,7 +16731,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1">
+    <row r="298" spans="1:14">
       <c r="D298" t="s">
         <v>1229</v>
       </c>
@@ -16732,14 +16751,112 @@
         <v>628</v>
       </c>
     </row>
+    <row r="299" spans="1:14">
+      <c r="D299" t="s">
+        <v>607</v>
+      </c>
+      <c r="E299" t="s">
+        <v>607</v>
+      </c>
+      <c r="F299" t="s">
+        <v>607</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L299" t="s">
+        <v>607</v>
+      </c>
+      <c r="M299" t="s">
+        <v>607</v>
+      </c>
+      <c r="N299" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="D300" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L300" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M300" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N300" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="D301" t="s">
+        <v>610</v>
+      </c>
+      <c r="E301" t="s">
+        <v>610</v>
+      </c>
+      <c r="F301" t="s">
+        <v>610</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L301" t="s">
+        <v>610</v>
+      </c>
+      <c r="M301" t="s">
+        <v>610</v>
+      </c>
+      <c r="N301" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="D302" t="s">
+        <v>613</v>
+      </c>
+      <c r="E302" t="s">
+        <v>613</v>
+      </c>
+      <c r="F302" t="s">
+        <v>613</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L302" t="s">
+        <v>613</v>
+      </c>
+      <c r="M302" t="s">
+        <v>613</v>
+      </c>
+      <c r="N302" t="s">
+        <v>615</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W298" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="SC2202UA-CE-00AK-2202"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W298" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="325" priority="380"/>
@@ -16798,7 +16915,7 @@
     <cfRule type="duplicateValues" dxfId="288" priority="357"/>
     <cfRule type="duplicateValues" dxfId="287" priority="359"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F291 F293:F294 E292 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F1:F291 F293:F294 E292 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="286" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
@@ -16905,25 +17022,25 @@
     <cfRule type="duplicateValues" dxfId="223" priority="247"/>
     <cfRule type="duplicateValues" dxfId="222" priority="248"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F1:F8 F10:F25 F93:F134 F91 F27:F79 F251:F284 F136:F174 F183:F249 F81:F89 F178:F181 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F1:F8 F10:F25 F93:F134 F91 F27:F79 F251:F284 F136:F174 F183:F249 F81:F89 F178:F181 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="221" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F261 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F261 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="220" priority="319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F259 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F259 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="219" priority="332"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F260 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F260 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="218" priority="330"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F284 F93:F134 F91 F251:F256 F183:F234 F27:F89 F149:F181 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F284 F93:F134 F91 F251:F256 F183:F234 F27:F89 F149:F181 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="217" priority="351"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F259 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F257 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F259 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F257 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="216" priority="338"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F256 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576">
+  <conditionalFormatting sqref="F287:F291 F293:F294 E292 F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F284 F93:F134 F91 F27:F79 F149:F174 F251:F256 F210:F234 F183:F191 F81:F89 F178:F181 G291 F296:F297 F299:F1048576 G299:G302">
     <cfRule type="duplicateValues" dxfId="215" priority="347"/>
     <cfRule type="duplicateValues" dxfId="214" priority="348"/>
   </conditionalFormatting>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429352D-0E85-40AE-945F-F4BC228B45BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABA05D-F2BF-46FE-AC9A-899DEEE09A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$298</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1238">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4225,7 +4225,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="326">
+  <dxfs count="328">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7762,11 +7782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W302"/>
+  <dimension ref="A1:W303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M305" sqref="M305"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11770,23 +11790,14 @@
       </c>
     </row>
     <row r="118" spans="1:20">
-      <c r="A118" t="s">
-        <v>429</v>
-      </c>
-      <c r="B118" t="s">
-        <v>430</v>
-      </c>
-      <c r="C118" t="s">
-        <v>431</v>
-      </c>
       <c r="D118" t="s">
         <v>429</v>
       </c>
       <c r="E118" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F118" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G118" t="s">
         <v>596</v>
@@ -11797,131 +11808,119 @@
       <c r="I118" t="s">
         <v>617</v>
       </c>
-      <c r="L118" t="s">
+    </row>
+    <row r="119" spans="1:20">
+      <c r="D119" t="s">
+        <v>429</v>
+      </c>
+      <c r="E119" t="s">
+        <v>432</v>
+      </c>
+      <c r="F119" t="s">
+        <v>433</v>
+      </c>
+      <c r="G119" t="s">
+        <v>596</v>
+      </c>
+      <c r="H119" t="s">
+        <v>601</v>
+      </c>
+      <c r="I119" t="s">
+        <v>617</v>
+      </c>
+      <c r="L119" t="s">
         <v>46</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M119" t="s">
         <v>432</v>
       </c>
-      <c r="N118" t="s">
+      <c r="N119" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20">
-      <c r="A119" t="s">
-        <v>434</v>
-      </c>
-      <c r="B119" t="s">
-        <v>435</v>
-      </c>
-      <c r="C119" t="s">
-        <v>436</v>
-      </c>
-      <c r="D119" t="s">
-        <v>434</v>
-      </c>
-      <c r="E119" t="s">
-        <v>437</v>
-      </c>
-      <c r="F119" t="s">
-        <v>438</v>
-      </c>
-      <c r="G119" t="s">
-        <v>772</v>
-      </c>
-      <c r="H119" t="s">
-        <v>66</v>
-      </c>
-      <c r="I119" t="s">
-        <v>623</v>
-      </c>
-      <c r="J119" t="s">
-        <v>440</v>
-      </c>
-      <c r="L119" t="s">
-        <v>434</v>
-      </c>
-      <c r="M119" t="s">
-        <v>437</v>
-      </c>
-      <c r="N119" t="s">
-        <v>439</v>
-      </c>
-      <c r="O119" t="s">
-        <v>46</v>
-      </c>
-      <c r="P119" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>635</v>
-      </c>
-      <c r="R119" t="s">
-        <v>46</v>
-      </c>
-      <c r="S119" t="s">
-        <v>437</v>
-      </c>
-      <c r="T119" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
+        <v>434</v>
+      </c>
+      <c r="B120" t="s">
+        <v>435</v>
+      </c>
+      <c r="C120" t="s">
+        <v>436</v>
+      </c>
+      <c r="D120" t="s">
+        <v>434</v>
+      </c>
+      <c r="E120" t="s">
+        <v>437</v>
+      </c>
+      <c r="F120" t="s">
+        <v>438</v>
+      </c>
+      <c r="G120" t="s">
+        <v>772</v>
+      </c>
+      <c r="H120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120" t="s">
+        <v>623</v>
+      </c>
+      <c r="J120" t="s">
+        <v>440</v>
+      </c>
+      <c r="L120" t="s">
+        <v>434</v>
+      </c>
+      <c r="M120" t="s">
+        <v>437</v>
+      </c>
+      <c r="N120" t="s">
+        <v>439</v>
+      </c>
+      <c r="O120" t="s">
+        <v>46</v>
+      </c>
+      <c r="P120" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>635</v>
+      </c>
+      <c r="R120" t="s">
+        <v>46</v>
+      </c>
+      <c r="S120" t="s">
+        <v>437</v>
+      </c>
+      <c r="T120" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" t="s">
         <v>441</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>442</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>443</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>1148</v>
-      </c>
-      <c r="E120" t="s">
-        <v>444</v>
-      </c>
-      <c r="F120" t="s">
-        <v>445</v>
-      </c>
-      <c r="G120" t="s">
-        <v>597</v>
-      </c>
-      <c r="H120" t="s">
-        <v>789</v>
-      </c>
-      <c r="I120" t="s">
-        <v>633</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1149</v>
-      </c>
-      <c r="L120" t="s">
-        <v>441</v>
-      </c>
-      <c r="M120" t="s">
-        <v>444</v>
-      </c>
-      <c r="N120" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20">
-      <c r="D121" t="s">
-        <v>441</v>
       </c>
       <c r="E121" t="s">
         <v>444</v>
       </c>
       <c r="F121" t="s">
-        <v>790</v>
+        <v>445</v>
       </c>
       <c r="G121" t="s">
-        <v>773</v>
+        <v>597</v>
       </c>
       <c r="H121" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="I121" t="s">
         <v>633</v>
@@ -11936,91 +11935,91 @@
         <v>444</v>
       </c>
       <c r="N121" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="D122" t="s">
+        <v>441</v>
+      </c>
+      <c r="E122" t="s">
+        <v>444</v>
+      </c>
+      <c r="F122" t="s">
+        <v>790</v>
+      </c>
+      <c r="G122" t="s">
+        <v>773</v>
+      </c>
+      <c r="H122" t="s">
+        <v>774</v>
+      </c>
+      <c r="I122" t="s">
+        <v>633</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L122" t="s">
+        <v>441</v>
+      </c>
+      <c r="M122" t="s">
+        <v>444</v>
+      </c>
+      <c r="N122" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20">
-      <c r="A122" t="s">
-        <v>448</v>
-      </c>
-      <c r="B122" t="s">
-        <v>449</v>
-      </c>
-      <c r="C122" t="s">
-        <v>450</v>
-      </c>
-      <c r="D122" t="s">
-        <v>689</v>
-      </c>
-      <c r="E122" t="s">
-        <v>690</v>
-      </c>
-      <c r="F122" t="s">
-        <v>691</v>
-      </c>
-      <c r="G122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H122" t="s">
-        <v>601</v>
-      </c>
-      <c r="I122" t="s">
-        <v>619</v>
-      </c>
-      <c r="J122" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B123" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C123" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D123" t="s">
-        <v>452</v>
+        <v>689</v>
       </c>
       <c r="E123" t="s">
-        <v>455</v>
+        <v>690</v>
       </c>
       <c r="F123" t="s">
-        <v>456</v>
+        <v>691</v>
       </c>
       <c r="G123" t="s">
-        <v>842</v>
+        <v>596</v>
       </c>
       <c r="H123" t="s">
-        <v>843</v>
+        <v>601</v>
       </c>
       <c r="I123" t="s">
         <v>619</v>
       </c>
       <c r="J123" t="s">
-        <v>1152</v>
-      </c>
-      <c r="L123" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124" t="s">
         <v>452</v>
       </c>
-      <c r="M123" t="s">
+      <c r="B124" t="s">
         <v>453</v>
       </c>
-      <c r="N123" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20">
+      <c r="C124" t="s">
+        <v>454</v>
+      </c>
       <c r="D124" t="s">
         <v>452</v>
       </c>
       <c r="E124" t="s">
-        <v>760</v>
+        <v>455</v>
       </c>
       <c r="F124" t="s">
-        <v>761</v>
+        <v>456</v>
       </c>
       <c r="G124" t="s">
         <v>842</v>
@@ -12033,6 +12032,15 @@
       </c>
       <c r="J124" t="s">
         <v>1152</v>
+      </c>
+      <c r="L124" t="s">
+        <v>452</v>
+      </c>
+      <c r="M124" t="s">
+        <v>453</v>
+      </c>
+      <c r="N124" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -12040,10 +12048,10 @@
         <v>452</v>
       </c>
       <c r="E125" t="s">
-        <v>799</v>
+        <v>760</v>
       </c>
       <c r="F125" t="s">
-        <v>800</v>
+        <v>761</v>
       </c>
       <c r="G125" t="s">
         <v>842</v>
@@ -12059,85 +12067,67 @@
       </c>
     </row>
     <row r="126" spans="1:20">
-      <c r="A126" t="s">
-        <v>457</v>
-      </c>
-      <c r="B126" t="s">
-        <v>458</v>
-      </c>
-      <c r="C126" t="s">
-        <v>459</v>
-      </c>
       <c r="D126" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E126" t="s">
-        <v>460</v>
+        <v>799</v>
       </c>
       <c r="F126" t="s">
-        <v>461</v>
+        <v>800</v>
       </c>
       <c r="G126" t="s">
-        <v>772</v>
+        <v>842</v>
       </c>
       <c r="H126" t="s">
-        <v>66</v>
+        <v>843</v>
       </c>
       <c r="I126" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="J126" t="s">
-        <v>463</v>
-      </c>
-      <c r="L126" t="s">
-        <v>457</v>
-      </c>
-      <c r="M126" t="s">
-        <v>460</v>
-      </c>
-      <c r="N126" t="s">
-        <v>462</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B127" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C127" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D127" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E127" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F127" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G127" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H127" t="s">
-        <v>774</v>
+        <v>66</v>
       </c>
       <c r="I127" t="s">
         <v>633</v>
       </c>
       <c r="J127" t="s">
-        <v>893</v>
+        <v>463</v>
       </c>
       <c r="L127" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M127" t="s">
-        <v>671</v>
+        <v>460</v>
       </c>
       <c r="N127" t="s">
-        <v>791</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -12145,72 +12135,81 @@
         <v>464</v>
       </c>
       <c r="B128" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C128" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D128" t="s">
         <v>464</v>
       </c>
       <c r="E128" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F128" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G128" t="s">
-        <v>1136</v>
+        <v>773</v>
       </c>
       <c r="H128" t="s">
-        <v>1137</v>
+        <v>774</v>
       </c>
       <c r="I128" t="s">
         <v>633</v>
       </c>
       <c r="J128" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L128" t="s">
         <v>464</v>
       </c>
       <c r="M128" t="s">
-        <v>469</v>
+        <v>671</v>
       </c>
       <c r="N128" t="s">
-        <v>471</v>
+        <v>791</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B129" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C129" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D129" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E129" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="F129" t="s">
-        <v>897</v>
+        <v>470</v>
       </c>
       <c r="G129" t="s">
-        <v>902</v>
+        <v>1136</v>
       </c>
       <c r="H129" t="s">
-        <v>903</v>
+        <v>1137</v>
       </c>
       <c r="I129" t="s">
-        <v>904</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>905</v>
+        <v>633</v>
+      </c>
+      <c r="J129" t="s">
+        <v>892</v>
+      </c>
+      <c r="L129" t="s">
+        <v>464</v>
+      </c>
+      <c r="M129" t="s">
+        <v>469</v>
+      </c>
+      <c r="N129" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -12218,19 +12217,19 @@
         <v>477</v>
       </c>
       <c r="B130" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C130" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D130" t="s">
         <v>477</v>
       </c>
       <c r="E130" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F130" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G130" t="s">
         <v>902</v>
@@ -12250,19 +12249,19 @@
         <v>477</v>
       </c>
       <c r="B131" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C131" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D131" t="s">
         <v>477</v>
       </c>
       <c r="E131" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F131" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G131" t="s">
         <v>902</v>
@@ -12282,19 +12281,19 @@
         <v>477</v>
       </c>
       <c r="B132" t="s">
-        <v>694</v>
+        <v>484</v>
       </c>
       <c r="C132" t="s">
-        <v>693</v>
+        <v>485</v>
       </c>
       <c r="D132" t="s">
         <v>477</v>
       </c>
       <c r="E132" t="s">
-        <v>695</v>
+        <v>486</v>
       </c>
       <c r="F132" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G132" t="s">
         <v>902</v>
@@ -12314,28 +12313,31 @@
         <v>477</v>
       </c>
       <c r="B133" t="s">
-        <v>487</v>
+        <v>694</v>
       </c>
       <c r="C133" t="s">
-        <v>488</v>
+        <v>693</v>
       </c>
       <c r="D133" t="s">
         <v>477</v>
       </c>
       <c r="E133" t="s">
-        <v>489</v>
+        <v>695</v>
       </c>
       <c r="F133" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G133" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="H133" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="I133" t="s">
         <v>904</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -12343,31 +12345,28 @@
         <v>477</v>
       </c>
       <c r="B134" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C134" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D134" t="s">
         <v>477</v>
       </c>
       <c r="E134" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F134" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="G134" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="H134" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="I134" t="s">
         <v>904</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -12375,60 +12374,60 @@
         <v>477</v>
       </c>
       <c r="B135" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C135" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D135" t="s">
         <v>477</v>
       </c>
       <c r="E135" t="s">
-        <v>491</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>905</v>
+        <v>490</v>
+      </c>
+      <c r="F135" t="s">
+        <v>901</v>
       </c>
       <c r="G135" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H135" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I135" t="s">
         <v>904</v>
       </c>
+      <c r="J135" s="9" t="s">
+        <v>905</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="B136" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C136" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D136" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="E136" t="s">
-        <v>499</v>
-      </c>
-      <c r="F136" t="s">
-        <v>911</v>
+        <v>491</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>905</v>
       </c>
       <c r="G136" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H136" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="I136" t="s">
-        <v>914</v>
-      </c>
-      <c r="J136" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -12436,37 +12435,31 @@
         <v>496</v>
       </c>
       <c r="B137" t="s">
-        <v>873</v>
+        <v>497</v>
       </c>
       <c r="C137" t="s">
-        <v>874</v>
+        <v>498</v>
       </c>
       <c r="D137" t="s">
         <v>496</v>
       </c>
       <c r="E137" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F137" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G137" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H137" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="I137" t="s">
-        <v>919</v>
-      </c>
-      <c r="L137" t="s">
-        <v>496</v>
-      </c>
-      <c r="M137" t="s">
-        <v>501</v>
-      </c>
-      <c r="N137" t="s">
-        <v>502</v>
+        <v>914</v>
+      </c>
+      <c r="J137" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -12474,19 +12467,19 @@
         <v>496</v>
       </c>
       <c r="B138" t="s">
-        <v>835</v>
+        <v>873</v>
       </c>
       <c r="C138" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="D138" t="s">
         <v>496</v>
       </c>
       <c r="E138" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F138" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G138" t="s">
         <v>917</v>
@@ -12504,18 +12497,18 @@
         <v>501</v>
       </c>
       <c r="N138" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="8" t="s">
+      <c r="A139" t="s">
         <v>496</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>876</v>
+      <c r="B139" t="s">
+        <v>835</v>
+      </c>
+      <c r="C139" t="s">
+        <v>836</v>
       </c>
       <c r="D139" t="s">
         <v>496</v>
@@ -12524,48 +12517,45 @@
         <v>501</v>
       </c>
       <c r="F139" t="s">
+        <v>920</v>
+      </c>
+      <c r="G139" t="s">
+        <v>917</v>
+      </c>
+      <c r="H139" t="s">
+        <v>918</v>
+      </c>
+      <c r="I139" t="s">
+        <v>919</v>
+      </c>
+      <c r="L139" t="s">
+        <v>496</v>
+      </c>
+      <c r="M139" t="s">
+        <v>501</v>
+      </c>
+      <c r="N139" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D140" t="s">
+        <v>496</v>
+      </c>
+      <c r="E140" t="s">
+        <v>501</v>
+      </c>
+      <c r="F140" t="s">
         <v>921</v>
-      </c>
-      <c r="G139" t="s">
-        <v>912</v>
-      </c>
-      <c r="H139" t="s">
-        <v>913</v>
-      </c>
-      <c r="I139" t="s">
-        <v>914</v>
-      </c>
-      <c r="J139" t="s">
-        <v>922</v>
-      </c>
-      <c r="L139" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="M139" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="N139" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" t="s">
-        <v>504</v>
-      </c>
-      <c r="B140" t="s">
-        <v>505</v>
-      </c>
-      <c r="C140" t="s">
-        <v>506</v>
-      </c>
-      <c r="D140" t="s">
-        <v>504</v>
-      </c>
-      <c r="E140" t="s">
-        <v>507</v>
-      </c>
-      <c r="F140" t="s">
-        <v>923</v>
       </c>
       <c r="G140" t="s">
         <v>912</v>
@@ -12577,54 +12567,57 @@
         <v>914</v>
       </c>
       <c r="J140" t="s">
-        <v>924</v>
-      </c>
-      <c r="L140" t="s">
-        <v>504</v>
-      </c>
-      <c r="M140" t="s">
-        <v>807</v>
-      </c>
-      <c r="N140" t="s">
-        <v>808</v>
+        <v>922</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="M140" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="N140" s="8" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B141" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C141" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D141" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E141" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F141" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G141" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H141" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="I141" t="s">
         <v>914</v>
       </c>
+      <c r="J141" t="s">
+        <v>924</v>
+      </c>
       <c r="L141" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M141" t="s">
-        <v>512</v>
+        <v>807</v>
       </c>
       <c r="N141" t="s">
-        <v>519</v>
+        <v>808</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -12632,19 +12625,19 @@
         <v>508</v>
       </c>
       <c r="B142" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C142" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D142" t="s">
         <v>508</v>
       </c>
       <c r="E142" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F142" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G142" t="s">
         <v>917</v>
@@ -12655,17 +12648,14 @@
       <c r="I142" t="s">
         <v>914</v>
       </c>
-      <c r="J142" t="s">
-        <v>927</v>
-      </c>
       <c r="L142" t="s">
         <v>508</v>
       </c>
       <c r="M142" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N142" t="s">
-        <v>1151</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -12673,10 +12663,10 @@
         <v>508</v>
       </c>
       <c r="B143" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C143" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D143" t="s">
         <v>508</v>
@@ -12685,16 +12675,28 @@
         <v>514</v>
       </c>
       <c r="F143" t="s">
+        <v>926</v>
+      </c>
+      <c r="G143" t="s">
+        <v>917</v>
+      </c>
+      <c r="H143" t="s">
+        <v>918</v>
+      </c>
+      <c r="I143" t="s">
+        <v>914</v>
+      </c>
+      <c r="J143" t="s">
         <v>927</v>
       </c>
-      <c r="G143" t="s">
-        <v>907</v>
-      </c>
-      <c r="H143" t="s">
-        <v>908</v>
-      </c>
-      <c r="I143" t="s">
-        <v>928</v>
+      <c r="L143" t="s">
+        <v>508</v>
+      </c>
+      <c r="M143" t="s">
+        <v>514</v>
+      </c>
+      <c r="N143" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -12702,63 +12704,60 @@
         <v>508</v>
       </c>
       <c r="B144" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C144" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D144" t="s">
         <v>508</v>
       </c>
       <c r="E144" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F144" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G144" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H144" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="I144" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="145" spans="1:17">
+      <c r="A145" t="s">
+        <v>508</v>
+      </c>
+      <c r="B145" t="s">
+        <v>509</v>
+      </c>
+      <c r="C145" t="s">
+        <v>510</v>
+      </c>
       <c r="D145" t="s">
         <v>508</v>
       </c>
       <c r="E145" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F145" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G145" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="H145" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="I145" t="s">
-        <v>931</v>
-      </c>
-      <c r="J145" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="146" spans="1:17">
-      <c r="A146" t="s">
-        <v>508</v>
-      </c>
-      <c r="B146" t="s">
-        <v>521</v>
-      </c>
-      <c r="C146" t="s">
-        <v>522</v>
-      </c>
       <c r="D146" t="s">
         <v>508</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>523</v>
       </c>
       <c r="F146" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G146" t="s">
         <v>912</v>
@@ -12786,19 +12785,19 @@
         <v>508</v>
       </c>
       <c r="B147" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C147" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D147" t="s">
         <v>508</v>
       </c>
       <c r="E147" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F147" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G147" t="s">
         <v>912</v>
@@ -12807,10 +12806,10 @@
         <v>913</v>
       </c>
       <c r="I147" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J147" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -12818,19 +12817,19 @@
         <v>508</v>
       </c>
       <c r="B148" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C148" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D148" t="s">
         <v>508</v>
       </c>
       <c r="E148" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F148" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G148" t="s">
         <v>912</v>
@@ -12842,25 +12841,7 @@
         <v>935</v>
       </c>
       <c r="J148" t="s">
-        <v>938</v>
-      </c>
-      <c r="L148" t="s">
-        <v>508</v>
-      </c>
-      <c r="M148" t="s">
-        <v>871</v>
-      </c>
-      <c r="N148" t="s">
-        <v>872</v>
-      </c>
-      <c r="O148" t="s">
-        <v>508</v>
-      </c>
-      <c r="P148" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>530</v>
+        <v>936</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -12868,19 +12849,19 @@
         <v>508</v>
       </c>
       <c r="B149" t="s">
-        <v>868</v>
+        <v>527</v>
       </c>
       <c r="C149" t="s">
-        <v>870</v>
+        <v>528</v>
       </c>
       <c r="D149" t="s">
         <v>508</v>
       </c>
       <c r="E149" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F149" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G149" t="s">
         <v>912</v>
@@ -12892,7 +12873,25 @@
         <v>935</v>
       </c>
       <c r="J149" t="s">
-        <v>940</v>
+        <v>938</v>
+      </c>
+      <c r="L149" t="s">
+        <v>508</v>
+      </c>
+      <c r="M149" t="s">
+        <v>871</v>
+      </c>
+      <c r="N149" t="s">
+        <v>872</v>
+      </c>
+      <c r="O149" t="s">
+        <v>508</v>
+      </c>
+      <c r="P149" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -12903,16 +12902,16 @@
         <v>868</v>
       </c>
       <c r="C150" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D150" t="s">
         <v>508</v>
       </c>
       <c r="E150" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F150" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G150" t="s">
         <v>912</v>
@@ -12932,19 +12931,19 @@
         <v>508</v>
       </c>
       <c r="B151" t="s">
-        <v>533</v>
+        <v>868</v>
       </c>
       <c r="C151" t="s">
-        <v>534</v>
+        <v>869</v>
       </c>
       <c r="D151" t="s">
         <v>508</v>
       </c>
       <c r="E151" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F151" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G151" t="s">
         <v>912</v>
@@ -12956,16 +12955,7 @@
         <v>935</v>
       </c>
       <c r="J151" t="s">
-        <v>943</v>
-      </c>
-      <c r="L151" t="s">
-        <v>508</v>
-      </c>
-      <c r="M151" t="s">
-        <v>533</v>
-      </c>
-      <c r="N151" t="s">
-        <v>535</v>
+        <v>940</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -12973,107 +12963,119 @@
         <v>508</v>
       </c>
       <c r="B152" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C152" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D152" t="s">
         <v>508</v>
       </c>
       <c r="E152" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="F152" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G152" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H152" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="I152" t="s">
-        <v>904</v>
+        <v>935</v>
+      </c>
+      <c r="J152" t="s">
+        <v>943</v>
+      </c>
+      <c r="L152" t="s">
+        <v>508</v>
+      </c>
+      <c r="M152" t="s">
+        <v>533</v>
+      </c>
+      <c r="N152" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" t="s">
-        <v>646</v>
+        <v>508</v>
       </c>
       <c r="B153" t="s">
-        <v>647</v>
+        <v>536</v>
       </c>
       <c r="C153" t="s">
-        <v>648</v>
+        <v>537</v>
       </c>
       <c r="D153" t="s">
-        <v>646</v>
+        <v>508</v>
       </c>
       <c r="E153" t="s">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="F153" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G153" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="H153" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="I153" t="s">
-        <v>919</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1126</v>
-      </c>
-      <c r="L153" t="s">
-        <v>646</v>
-      </c>
-      <c r="M153" t="s">
-        <v>649</v>
-      </c>
-      <c r="N153" t="s">
-        <v>688</v>
-      </c>
-      <c r="O153" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="P153" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q153" s="8" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
     </row>
     <row r="154" spans="1:17">
       <c r="A154" t="s">
-        <v>551</v>
+        <v>646</v>
       </c>
       <c r="B154" t="s">
-        <v>552</v>
+        <v>647</v>
       </c>
       <c r="C154" t="s">
-        <v>553</v>
+        <v>648</v>
       </c>
       <c r="D154" t="s">
-        <v>551</v>
+        <v>646</v>
       </c>
       <c r="E154" t="s">
-        <v>558</v>
+        <v>649</v>
       </c>
       <c r="F154" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G154" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H154" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="I154" t="s">
-        <v>947</v>
+        <v>919</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L154" t="s">
+        <v>646</v>
+      </c>
+      <c r="M154" t="s">
+        <v>649</v>
+      </c>
+      <c r="N154" t="s">
+        <v>688</v>
+      </c>
+      <c r="O154" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P154" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q154" s="8" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -13081,25 +13083,25 @@
         <v>551</v>
       </c>
       <c r="B155" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C155" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D155" t="s">
         <v>551</v>
       </c>
       <c r="E155" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F155" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G155" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="H155" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="I155" t="s">
         <v>947</v>
@@ -13110,25 +13112,25 @@
         <v>551</v>
       </c>
       <c r="B156" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C156" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D156" t="s">
         <v>551</v>
       </c>
       <c r="E156" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F156" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G156" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H156" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="I156" t="s">
         <v>947</v>
@@ -13139,10 +13141,10 @@
         <v>551</v>
       </c>
       <c r="B157" t="s">
-        <v>1123</v>
+        <v>556</v>
       </c>
       <c r="C157" t="s">
-        <v>1124</v>
+        <v>557</v>
       </c>
       <c r="D157" t="s">
         <v>551</v>
@@ -13151,19 +13153,16 @@
         <v>560</v>
       </c>
       <c r="F157" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G157" t="s">
-        <v>1125</v>
+        <v>917</v>
       </c>
       <c r="H157" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="I157" t="s">
-        <v>951</v>
-      </c>
-      <c r="J157" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="158" spans="1:17">
@@ -13171,60 +13170,63 @@
         <v>551</v>
       </c>
       <c r="B158" t="s">
-        <v>561</v>
+        <v>1123</v>
       </c>
       <c r="C158" t="s">
-        <v>562</v>
+        <v>1124</v>
       </c>
       <c r="D158" t="s">
         <v>551</v>
       </c>
       <c r="E158" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F158" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G158" t="s">
-        <v>912</v>
+        <v>1125</v>
       </c>
       <c r="H158" t="s">
         <v>913</v>
       </c>
       <c r="I158" t="s">
-        <v>904</v>
+        <v>951</v>
       </c>
       <c r="J158" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="B159" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C159" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D159" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E159" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F159" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G159" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H159" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="I159" t="s">
-        <v>956</v>
+        <v>904</v>
+      </c>
+      <c r="J159" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -13232,48 +13234,48 @@
         <v>564</v>
       </c>
       <c r="B160" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C160" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D160" t="s">
         <v>564</v>
       </c>
       <c r="E160" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F160" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G160" t="s">
-        <v>958</v>
+        <v>917</v>
       </c>
       <c r="H160" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="I160" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="161" spans="1:23">
       <c r="A161" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B161" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C161" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D161" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E161" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F161" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G161" t="s">
         <v>958</v>
@@ -13287,22 +13289,22 @@
     </row>
     <row r="162" spans="1:23">
       <c r="A162" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>572</v>
       </c>
       <c r="C162" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D162" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E162" t="s">
-        <v>286</v>
+        <v>574</v>
       </c>
       <c r="F162" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G162" t="s">
         <v>958</v>
@@ -13313,76 +13315,82 @@
       <c r="I162" t="s">
         <v>959</v>
       </c>
-      <c r="L162" t="s">
-        <v>575</v>
-      </c>
-      <c r="M162" t="s">
-        <v>286</v>
-      </c>
-      <c r="N162" t="s">
-        <v>577</v>
-      </c>
-      <c r="O162" t="s">
-        <v>575</v>
-      </c>
-      <c r="P162" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>578</v>
-      </c>
-      <c r="R162" t="s">
-        <v>575</v>
-      </c>
-      <c r="S162" t="s">
-        <v>286</v>
-      </c>
-      <c r="T162" t="s">
-        <v>838</v>
-      </c>
-      <c r="U162" t="s">
-        <v>575</v>
-      </c>
-      <c r="V162" t="s">
-        <v>290</v>
-      </c>
-      <c r="W162" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="163" spans="1:23">
       <c r="A163" t="s">
+        <v>575</v>
+      </c>
+      <c r="B163" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" t="s">
+        <v>576</v>
+      </c>
+      <c r="D163" t="s">
+        <v>575</v>
+      </c>
+      <c r="E163" t="s">
+        <v>286</v>
+      </c>
+      <c r="F163" t="s">
+        <v>961</v>
+      </c>
+      <c r="G163" t="s">
+        <v>958</v>
+      </c>
+      <c r="H163" t="s">
+        <v>910</v>
+      </c>
+      <c r="I163" t="s">
+        <v>959</v>
+      </c>
+      <c r="L163" t="s">
+        <v>575</v>
+      </c>
+      <c r="M163" t="s">
+        <v>286</v>
+      </c>
+      <c r="N163" t="s">
+        <v>577</v>
+      </c>
+      <c r="O163" t="s">
+        <v>575</v>
+      </c>
+      <c r="P163" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>578</v>
+      </c>
+      <c r="R163" t="s">
+        <v>575</v>
+      </c>
+      <c r="S163" t="s">
+        <v>286</v>
+      </c>
+      <c r="T163" t="s">
+        <v>838</v>
+      </c>
+      <c r="U163" t="s">
+        <v>575</v>
+      </c>
+      <c r="V163" t="s">
+        <v>290</v>
+      </c>
+      <c r="W163" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="A164" t="s">
         <v>579</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>580</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>581</v>
       </c>
-      <c r="D163" t="s">
-        <v>579</v>
-      </c>
-      <c r="E163" t="s">
-        <v>295</v>
-      </c>
-      <c r="F163" t="s">
-        <v>962</v>
-      </c>
-      <c r="G163" t="s">
-        <v>917</v>
-      </c>
-      <c r="H163" t="s">
-        <v>918</v>
-      </c>
-      <c r="I163" t="s">
-        <v>956</v>
-      </c>
-      <c r="J163" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23">
       <c r="D164" t="s">
         <v>579</v>
       </c>
@@ -13390,7 +13398,7 @@
         <v>295</v>
       </c>
       <c r="F164" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G164" t="s">
         <v>917</v>
@@ -13406,15 +13414,6 @@
       </c>
     </row>
     <row r="165" spans="1:23">
-      <c r="A165" t="s">
-        <v>579</v>
-      </c>
-      <c r="B165" t="s">
-        <v>295</v>
-      </c>
-      <c r="C165" t="s">
-        <v>583</v>
-      </c>
       <c r="D165" t="s">
         <v>579</v>
       </c>
@@ -13422,7 +13421,7 @@
         <v>295</v>
       </c>
       <c r="F165" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G165" t="s">
         <v>917</v>
@@ -13431,18 +13430,21 @@
         <v>918</v>
       </c>
       <c r="I165" t="s">
-        <v>965</v>
+        <v>956</v>
+      </c>
+      <c r="J165" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="166" spans="1:23">
       <c r="A166" t="s">
-        <v>285</v>
+        <v>579</v>
       </c>
       <c r="B166" t="s">
         <v>295</v>
       </c>
       <c r="C166" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="D166" t="s">
         <v>579</v>
@@ -13451,7 +13453,7 @@
         <v>295</v>
       </c>
       <c r="F166" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G166" t="s">
         <v>917</v>
@@ -13462,19 +13464,16 @@
       <c r="I166" t="s">
         <v>965</v>
       </c>
-      <c r="J166" t="s">
-        <v>963</v>
-      </c>
     </row>
     <row r="167" spans="1:23">
       <c r="A167" t="s">
-        <v>579</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
         <v>295</v>
       </c>
       <c r="C167" t="s">
-        <v>582</v>
+        <v>673</v>
       </c>
       <c r="D167" t="s">
         <v>579</v>
@@ -13483,7 +13482,7 @@
         <v>295</v>
       </c>
       <c r="F167" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G167" t="s">
         <v>917</v>
@@ -13503,93 +13502,78 @@
         <v>579</v>
       </c>
       <c r="B168" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C168" t="s">
-        <v>1198</v>
+        <v>582</v>
       </c>
       <c r="D168" t="s">
         <v>579</v>
       </c>
       <c r="E168" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F168" t="s">
-        <v>1199</v>
+        <v>967</v>
       </c>
       <c r="G168" t="s">
-        <v>1001</v>
+        <v>917</v>
       </c>
       <c r="H168" t="s">
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="I168" t="s">
-        <v>959</v>
-      </c>
-      <c r="L168" t="s">
-        <v>579</v>
-      </c>
-      <c r="M168" t="s">
-        <v>286</v>
-      </c>
-      <c r="N168" t="s">
-        <v>584</v>
-      </c>
-      <c r="O168" t="s">
-        <v>579</v>
-      </c>
-      <c r="P168" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>1200</v>
+        <v>965</v>
+      </c>
+      <c r="J168" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="169" spans="1:23">
       <c r="A169" t="s">
-        <v>474</v>
+        <v>579</v>
       </c>
       <c r="B169" t="s">
-        <v>585</v>
+        <v>290</v>
       </c>
       <c r="C169" t="s">
-        <v>586</v>
+        <v>1198</v>
       </c>
       <c r="D169" t="s">
-        <v>474</v>
+        <v>579</v>
       </c>
       <c r="E169" t="s">
-        <v>475</v>
+        <v>286</v>
       </c>
       <c r="F169" t="s">
-        <v>968</v>
+        <v>1199</v>
       </c>
       <c r="G169" t="s">
-        <v>917</v>
+        <v>1001</v>
       </c>
       <c r="H169" t="s">
-        <v>918</v>
+        <v>843</v>
       </c>
       <c r="I169" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="L169" t="s">
-        <v>474</v>
+        <v>579</v>
       </c>
       <c r="M169" t="s">
-        <v>475</v>
+        <v>286</v>
       </c>
       <c r="N169" t="s">
-        <v>476</v>
+        <v>584</v>
       </c>
       <c r="O169" t="s">
-        <v>474</v>
+        <v>579</v>
       </c>
       <c r="P169" t="s">
-        <v>475</v>
+        <v>286</v>
       </c>
       <c r="Q169" t="s">
-        <v>792</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13597,25 +13581,25 @@
         <v>474</v>
       </c>
       <c r="B170" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C170" t="s">
-        <v>883</v>
+        <v>586</v>
       </c>
       <c r="D170" t="s">
         <v>474</v>
       </c>
       <c r="E170" t="s">
-        <v>587</v>
+        <v>475</v>
       </c>
       <c r="F170" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G170" t="s">
-        <v>971</v>
+        <v>917</v>
       </c>
       <c r="H170" t="s">
-        <v>972</v>
+        <v>918</v>
       </c>
       <c r="I170" t="s">
         <v>969</v>
@@ -13624,10 +13608,19 @@
         <v>474</v>
       </c>
       <c r="M170" t="s">
-        <v>587</v>
+        <v>475</v>
       </c>
       <c r="N170" t="s">
-        <v>588</v>
+        <v>476</v>
+      </c>
+      <c r="O170" t="s">
+        <v>474</v>
+      </c>
+      <c r="P170" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13638,60 +13631,75 @@
         <v>589</v>
       </c>
       <c r="C171" t="s">
-        <v>590</v>
+        <v>883</v>
       </c>
       <c r="D171" t="s">
         <v>474</v>
       </c>
       <c r="E171" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F171" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G171" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H171" t="s">
-        <v>910</v>
+        <v>972</v>
       </c>
       <c r="I171" t="s">
         <v>969</v>
       </c>
+      <c r="L171" t="s">
+        <v>474</v>
+      </c>
+      <c r="M171" t="s">
+        <v>587</v>
+      </c>
+      <c r="N171" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="172" spans="1:23">
       <c r="A172" t="s">
+        <v>474</v>
+      </c>
+      <c r="B172" t="s">
+        <v>589</v>
+      </c>
+      <c r="C172" t="s">
+        <v>590</v>
+      </c>
+      <c r="D172" t="s">
+        <v>474</v>
+      </c>
+      <c r="E172" t="s">
+        <v>591</v>
+      </c>
+      <c r="F172" t="s">
+        <v>973</v>
+      </c>
+      <c r="G172" t="s">
+        <v>974</v>
+      </c>
+      <c r="H172" t="s">
+        <v>910</v>
+      </c>
+      <c r="I172" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
+      <c r="A173" t="s">
         <v>593</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>594</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>592</v>
       </c>
-      <c r="D172" t="s">
-        <v>593</v>
-      </c>
-      <c r="E172" t="s">
-        <v>595</v>
-      </c>
-      <c r="F172" t="s">
-        <v>975</v>
-      </c>
-      <c r="G172" t="s">
-        <v>907</v>
-      </c>
-      <c r="H172" t="s">
-        <v>908</v>
-      </c>
-      <c r="I172" t="s">
-        <v>904</v>
-      </c>
-      <c r="J172" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23">
       <c r="D173" t="s">
         <v>593</v>
       </c>
@@ -13699,13 +13707,13 @@
         <v>595</v>
       </c>
       <c r="F173" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G173" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="H173" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="I173" t="s">
         <v>904</v>
@@ -13722,7 +13730,7 @@
         <v>595</v>
       </c>
       <c r="F174" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G174" t="s">
         <v>912</v>
@@ -13739,33 +13747,36 @@
     </row>
     <row r="175" spans="1:23">
       <c r="D175" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E175" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="F175" t="s">
-        <v>609</v>
+        <v>978</v>
       </c>
       <c r="G175" t="s">
-        <v>979</v>
+        <v>912</v>
       </c>
       <c r="H175" t="s">
-        <v>980</v>
+        <v>913</v>
       </c>
       <c r="I175" t="s">
-        <v>629</v>
+        <v>904</v>
+      </c>
+      <c r="J175" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="176" spans="1:23">
       <c r="D176" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E176" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F176" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G176" t="s">
         <v>979</v>
@@ -13779,13 +13790,13 @@
     </row>
     <row r="177" spans="1:17">
       <c r="D177" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E177" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F177" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G177" t="s">
         <v>979</v>
@@ -13793,83 +13804,74 @@
       <c r="H177" t="s">
         <v>980</v>
       </c>
+      <c r="I177" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="178" spans="1:17">
       <c r="D178" t="s">
+        <v>613</v>
+      </c>
+      <c r="E178" t="s">
+        <v>614</v>
+      </c>
+      <c r="F178" t="s">
+        <v>615</v>
+      </c>
+      <c r="G178" t="s">
+        <v>979</v>
+      </c>
+      <c r="H178" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="D179" t="s">
         <v>321</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>346</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>981</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>917</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H179" t="s">
         <v>918</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I179" t="s">
         <v>982</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L179" t="s">
         <v>321</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M179" t="s">
         <v>346</v>
       </c>
-      <c r="N178" t="s">
+      <c r="N179" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17">
-      <c r="A179" t="s">
-        <v>564</v>
-      </c>
-      <c r="B179" t="s">
-        <v>657</v>
-      </c>
-      <c r="C179" t="s">
-        <v>658</v>
-      </c>
-      <c r="D179" t="s">
-        <v>564</v>
-      </c>
-      <c r="E179" t="s">
-        <v>659</v>
-      </c>
-      <c r="F179" t="s">
-        <v>983</v>
-      </c>
-      <c r="G179" t="s">
-        <v>958</v>
-      </c>
-      <c r="H179" t="s">
-        <v>910</v>
-      </c>
-      <c r="I179" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="180" spans="1:17">
       <c r="A180" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="B180" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C180" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D180" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="E180" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F180" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G180" t="s">
         <v>958</v>
@@ -13880,37 +13882,28 @@
       <c r="I180" t="s">
         <v>959</v>
       </c>
-      <c r="L180" t="s">
-        <v>660</v>
-      </c>
-      <c r="M180" t="s">
-        <v>663</v>
-      </c>
-      <c r="N180" t="s">
-        <v>771</v>
-      </c>
     </row>
     <row r="181" spans="1:17">
       <c r="A181" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B181" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C181" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D181" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E181" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F181" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G181" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
       <c r="H181" t="s">
         <v>910</v>
@@ -13918,142 +13911,157 @@
       <c r="I181" t="s">
         <v>959</v>
       </c>
+      <c r="L181" t="s">
+        <v>660</v>
+      </c>
+      <c r="M181" t="s">
+        <v>663</v>
+      </c>
+      <c r="N181" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="182" spans="1:17">
       <c r="A182" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B182" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C182" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D182" t="s">
         <v>667</v>
       </c>
       <c r="E182" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F182" t="s">
-        <v>1171</v>
+        <v>985</v>
       </c>
       <c r="G182" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="H182" t="s">
         <v>910</v>
       </c>
       <c r="I182" t="s">
-        <v>988</v>
-      </c>
-      <c r="L182" t="s">
-        <v>667</v>
-      </c>
-      <c r="M182" t="s">
-        <v>670</v>
-      </c>
-      <c r="N182" t="s">
-        <v>987</v>
+        <v>959</v>
       </c>
     </row>
     <row r="183" spans="1:17">
       <c r="A183" t="s">
+        <v>668</v>
+      </c>
+      <c r="B183" t="s">
+        <v>668</v>
+      </c>
+      <c r="C183" t="s">
+        <v>669</v>
+      </c>
+      <c r="D183" t="s">
+        <v>667</v>
+      </c>
+      <c r="E183" t="s">
+        <v>670</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G183" t="s">
+        <v>974</v>
+      </c>
+      <c r="H183" t="s">
+        <v>910</v>
+      </c>
+      <c r="I183" t="s">
+        <v>988</v>
+      </c>
+      <c r="L183" t="s">
+        <v>667</v>
+      </c>
+      <c r="M183" t="s">
+        <v>670</v>
+      </c>
+      <c r="N183" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" t="s">
         <v>674</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>675</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>676</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>844</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E184" t="s">
         <v>677</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>1183</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G184" t="s">
         <v>598</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H184" t="s">
         <v>66</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I184" t="s">
         <v>617</v>
       </c>
-      <c r="L183" t="s">
+      <c r="L184" t="s">
         <v>46</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M184" t="s">
         <v>675</v>
       </c>
-      <c r="N183" t="s">
+      <c r="N184" t="s">
         <v>825</v>
       </c>
-      <c r="O183" t="s">
+      <c r="O184" t="s">
         <v>46</v>
       </c>
-      <c r="P183" t="s">
+      <c r="P184" t="s">
         <v>677</v>
       </c>
-      <c r="Q183" t="s">
+      <c r="Q184" t="s">
         <v>1182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17">
-      <c r="D184" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E184" t="s">
-        <v>678</v>
-      </c>
-      <c r="F184" t="s">
-        <v>679</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H184" t="s">
-        <v>910</v>
-      </c>
-      <c r="I184" t="s">
-        <v>990</v>
-      </c>
-      <c r="L184" t="s">
-        <v>845</v>
-      </c>
-      <c r="M184" t="s">
-        <v>678</v>
-      </c>
-      <c r="N184" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="185" spans="1:17">
       <c r="D185" t="s">
-        <v>681</v>
+        <v>1138</v>
       </c>
       <c r="E185" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F185" t="s">
-        <v>991</v>
+        <v>679</v>
       </c>
       <c r="G185" t="s">
-        <v>992</v>
+        <v>1114</v>
       </c>
       <c r="H185" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="I185" t="s">
-        <v>993</v>
-      </c>
-      <c r="J185" t="s">
-        <v>994</v>
+        <v>990</v>
+      </c>
+      <c r="L185" t="s">
+        <v>845</v>
+      </c>
+      <c r="M185" t="s">
+        <v>678</v>
+      </c>
+      <c r="N185" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -14061,10 +14069,10 @@
         <v>681</v>
       </c>
       <c r="E186" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F186" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G186" t="s">
         <v>992</v>
@@ -14084,10 +14092,10 @@
         <v>681</v>
       </c>
       <c r="E187" t="s">
-        <v>829</v>
+        <v>683</v>
       </c>
       <c r="F187" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G187" t="s">
         <v>992</v>
@@ -14103,116 +14111,110 @@
       </c>
     </row>
     <row r="188" spans="1:17">
-      <c r="A188" t="s">
+      <c r="D188" t="s">
+        <v>681</v>
+      </c>
+      <c r="E188" t="s">
+        <v>829</v>
+      </c>
+      <c r="F188" t="s">
+        <v>996</v>
+      </c>
+      <c r="G188" t="s">
+        <v>992</v>
+      </c>
+      <c r="H188" t="s">
+        <v>918</v>
+      </c>
+      <c r="I188" t="s">
+        <v>993</v>
+      </c>
+      <c r="J188" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="A189" t="s">
         <v>684</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>685</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>686</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>684</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E189" t="s">
         <v>687</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F189" t="s">
         <v>997</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G189" t="s">
         <v>912</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H189" t="s">
         <v>913</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I189" t="s">
         <v>904</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J189" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
-      <c r="D189" t="s">
+    <row r="190" spans="1:17">
+      <c r="D190" t="s">
         <v>474</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E190" t="s">
         <v>692</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F190" t="s">
         <v>999</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G190" t="s">
         <v>1160</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H190" t="s">
         <v>903</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I190" t="s">
         <v>969</v>
       </c>
-      <c r="L189" t="s">
+      <c r="L190" t="s">
         <v>474</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M190" t="s">
         <v>692</v>
       </c>
-      <c r="N189" t="s">
+      <c r="N190" t="s">
         <v>823</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17">
-      <c r="A190" t="s">
-        <v>696</v>
-      </c>
-      <c r="B190" t="s">
-        <v>697</v>
-      </c>
-      <c r="C190" t="s">
-        <v>698</v>
-      </c>
-      <c r="D190" t="s">
-        <v>700</v>
-      </c>
-      <c r="E190" t="s">
-        <v>699</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H190" t="s">
-        <v>918</v>
-      </c>
-      <c r="I190" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:17">
       <c r="A191" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B191" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C191" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D191" t="s">
         <v>700</v>
       </c>
       <c r="E191" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F191" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G191" t="s">
-        <v>917</v>
+        <v>1001</v>
       </c>
       <c r="H191" t="s">
         <v>918</v>
@@ -14222,26 +14224,32 @@
       </c>
     </row>
     <row r="192" spans="1:17">
+      <c r="A192" t="s">
+        <v>700</v>
+      </c>
+      <c r="B192" t="s">
+        <v>701</v>
+      </c>
+      <c r="C192" t="s">
+        <v>702</v>
+      </c>
       <c r="D192" t="s">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="E192" t="s">
-        <v>539</v>
+        <v>703</v>
       </c>
       <c r="F192" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G192" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="H192" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="I192" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1005</v>
+        <v>919</v>
       </c>
     </row>
     <row r="193" spans="4:10">
@@ -14249,10 +14257,10 @@
         <v>538</v>
       </c>
       <c r="E193" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F193" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G193" t="s">
         <v>912</v>
@@ -14272,10 +14280,10 @@
         <v>538</v>
       </c>
       <c r="E194" t="s">
-        <v>705</v>
+        <v>544</v>
       </c>
       <c r="F194" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G194" t="s">
         <v>912</v>
@@ -14295,10 +14303,10 @@
         <v>538</v>
       </c>
       <c r="E195" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F195" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G195" t="s">
         <v>912</v>
@@ -14318,10 +14326,10 @@
         <v>538</v>
       </c>
       <c r="E196" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F196" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G196" t="s">
         <v>912</v>
@@ -14341,10 +14349,10 @@
         <v>538</v>
       </c>
       <c r="E197" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F197" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G197" t="s">
         <v>912</v>
@@ -14364,10 +14372,10 @@
         <v>538</v>
       </c>
       <c r="E198" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F198" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G198" t="s">
         <v>912</v>
@@ -14387,10 +14395,10 @@
         <v>538</v>
       </c>
       <c r="E199" t="s">
-        <v>540</v>
+        <v>709</v>
       </c>
       <c r="F199" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G199" t="s">
         <v>912</v>
@@ -14410,10 +14418,10 @@
         <v>538</v>
       </c>
       <c r="E200" t="s">
-        <v>710</v>
+        <v>540</v>
       </c>
       <c r="F200" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G200" t="s">
         <v>912</v>
@@ -14433,10 +14441,10 @@
         <v>538</v>
       </c>
       <c r="E201" t="s">
-        <v>545</v>
+        <v>710</v>
       </c>
       <c r="F201" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G201" t="s">
         <v>912</v>
@@ -14456,10 +14464,10 @@
         <v>538</v>
       </c>
       <c r="E202" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F202" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G202" t="s">
         <v>912</v>
@@ -14479,10 +14487,10 @@
         <v>538</v>
       </c>
       <c r="E203" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F203" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G203" t="s">
         <v>912</v>
@@ -14502,10 +14510,10 @@
         <v>538</v>
       </c>
       <c r="E204" t="s">
-        <v>711</v>
+        <v>547</v>
       </c>
       <c r="F204" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G204" t="s">
         <v>912</v>
@@ -14525,10 +14533,10 @@
         <v>538</v>
       </c>
       <c r="E205" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F205" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G205" t="s">
         <v>912</v>
@@ -14548,10 +14556,10 @@
         <v>538</v>
       </c>
       <c r="E206" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F206" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G206" t="s">
         <v>912</v>
@@ -14571,10 +14579,10 @@
         <v>538</v>
       </c>
       <c r="E207" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F207" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G207" t="s">
         <v>912</v>
@@ -14594,10 +14602,10 @@
         <v>538</v>
       </c>
       <c r="E208" t="s">
-        <v>548</v>
+        <v>704</v>
       </c>
       <c r="F208" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G208" t="s">
         <v>912</v>
@@ -14617,10 +14625,10 @@
         <v>538</v>
       </c>
       <c r="E209" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F209" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G209" t="s">
         <v>912</v>
@@ -14636,23 +14644,14 @@
       </c>
     </row>
     <row r="210" spans="1:17">
-      <c r="A210" t="s">
-        <v>538</v>
-      </c>
-      <c r="B210" t="s">
-        <v>732</v>
-      </c>
-      <c r="C210" t="s">
-        <v>733</v>
-      </c>
       <c r="D210" t="s">
         <v>538</v>
       </c>
       <c r="E210" t="s">
-        <v>762</v>
+        <v>549</v>
       </c>
       <c r="F210" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G210" t="s">
         <v>912</v>
@@ -14672,37 +14671,31 @@
         <v>538</v>
       </c>
       <c r="B211" t="s">
-        <v>541</v>
+        <v>732</v>
       </c>
       <c r="C211" t="s">
-        <v>542</v>
+        <v>733</v>
       </c>
       <c r="D211" t="s">
         <v>538</v>
       </c>
       <c r="E211" t="s">
-        <v>543</v>
+        <v>762</v>
       </c>
       <c r="F211" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G211" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H211" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="I211" t="s">
-        <v>919</v>
-      </c>
-      <c r="L211" t="s">
-        <v>538</v>
-      </c>
-      <c r="M211" t="s">
-        <v>543</v>
-      </c>
-      <c r="N211" t="s">
-        <v>1150</v>
+        <v>1004</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="212" spans="1:17">
@@ -14713,7 +14706,7 @@
         <v>541</v>
       </c>
       <c r="C212" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D212" t="s">
         <v>538</v>
@@ -14722,7 +14715,7 @@
         <v>543</v>
       </c>
       <c r="F212" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G212" t="s">
         <v>917</v>
@@ -14733,9 +14726,6 @@
       <c r="I212" t="s">
         <v>919</v>
       </c>
-      <c r="J212" t="s">
-        <v>1024</v>
-      </c>
       <c r="L212" t="s">
         <v>538</v>
       </c>
@@ -14743,18 +14733,27 @@
         <v>543</v>
       </c>
       <c r="N212" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="213" spans="1:17">
+      <c r="A213" t="s">
+        <v>538</v>
+      </c>
+      <c r="B213" t="s">
+        <v>541</v>
+      </c>
+      <c r="C213" t="s">
+        <v>550</v>
+      </c>
       <c r="D213" t="s">
-        <v>122</v>
+        <v>538</v>
       </c>
       <c r="E213" t="s">
-        <v>714</v>
+        <v>543</v>
       </c>
       <c r="F213" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G213" t="s">
         <v>917</v>
@@ -14763,120 +14762,123 @@
         <v>918</v>
       </c>
       <c r="I213" t="s">
+        <v>919</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L213" t="s">
+        <v>538</v>
+      </c>
+      <c r="M213" t="s">
+        <v>543</v>
+      </c>
+      <c r="N213" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="D214" t="s">
+        <v>122</v>
+      </c>
+      <c r="E214" t="s">
+        <v>714</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G214" t="s">
+        <v>917</v>
+      </c>
+      <c r="H214" t="s">
+        <v>918</v>
+      </c>
+      <c r="I214" t="s">
         <v>965</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J214" t="s">
         <v>1027</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17">
-      <c r="A214" t="s">
-        <v>551</v>
-      </c>
-      <c r="B214" t="s">
-        <v>715</v>
-      </c>
-      <c r="C214" t="s">
-        <v>716</v>
-      </c>
-      <c r="G214" t="s">
-        <v>912</v>
-      </c>
-      <c r="H214" t="s">
-        <v>913</v>
-      </c>
-      <c r="I214" t="s">
-        <v>919</v>
-      </c>
-      <c r="J214" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="215" spans="1:17">
       <c r="A215" t="s">
-        <v>717</v>
+        <v>551</v>
       </c>
       <c r="B215" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C215" t="s">
-        <v>719</v>
-      </c>
-      <c r="D215" t="s">
-        <v>646</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1128</v>
+        <v>716</v>
       </c>
       <c r="G215" t="s">
-        <v>1129</v>
+        <v>912</v>
       </c>
       <c r="H215" t="s">
-        <v>903</v>
+        <v>913</v>
+      </c>
+      <c r="I215" t="s">
+        <v>919</v>
       </c>
       <c r="J215" t="s">
-        <v>1127</v>
-      </c>
-      <c r="L215" t="s">
-        <v>646</v>
-      </c>
-      <c r="M215" t="s">
-        <v>718</v>
-      </c>
-      <c r="N215" t="s">
-        <v>720</v>
-      </c>
-      <c r="O215" t="s">
-        <v>646</v>
-      </c>
-      <c r="P215" t="s">
-        <v>895</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="216" spans="1:17">
       <c r="A216" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
       <c r="B216" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C216" t="s">
-        <v>723</v>
+        <v>719</v>
+      </c>
+      <c r="D216" t="s">
+        <v>646</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1128</v>
       </c>
       <c r="G216" t="s">
-        <v>986</v>
+        <v>1129</v>
       </c>
       <c r="H216" t="s">
-        <v>910</v>
-      </c>
-      <c r="I216" t="s">
-        <v>1031</v>
+        <v>903</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1127</v>
       </c>
       <c r="L216" t="s">
-        <v>722</v>
+        <v>646</v>
       </c>
       <c r="M216" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="N216" t="s">
-        <v>818</v>
+        <v>720</v>
+      </c>
+      <c r="O216" t="s">
+        <v>646</v>
+      </c>
+      <c r="P216" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
       <c r="B217" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C217" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G217" t="s">
         <v>986</v>
@@ -14885,38 +14887,47 @@
         <v>910</v>
       </c>
       <c r="I217" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L217" t="s">
+        <v>722</v>
+      </c>
+      <c r="M217" t="s">
+        <v>667</v>
+      </c>
+      <c r="N217" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="A218" t="s">
+        <v>579</v>
+      </c>
+      <c r="B218" t="s">
+        <v>724</v>
+      </c>
+      <c r="C218" t="s">
+        <v>725</v>
+      </c>
+      <c r="G218" t="s">
+        <v>986</v>
+      </c>
+      <c r="H218" t="s">
+        <v>910</v>
+      </c>
+      <c r="I218" t="s">
         <v>1032</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17">
-      <c r="D218" t="s">
-        <v>844</v>
-      </c>
-      <c r="E218" t="s">
-        <v>726</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G218" t="s">
-        <v>917</v>
-      </c>
-      <c r="H218" t="s">
-        <v>918</v>
-      </c>
-      <c r="I218" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="219" spans="1:17">
       <c r="D219" t="s">
-        <v>727</v>
+        <v>844</v>
       </c>
       <c r="E219" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F219" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G219" t="s">
         <v>917</v>
@@ -14925,18 +14936,18 @@
         <v>918</v>
       </c>
       <c r="I219" t="s">
-        <v>904</v>
+        <v>959</v>
       </c>
     </row>
     <row r="220" spans="1:17">
       <c r="D220" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E220" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F220" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G220" t="s">
         <v>917</v>
@@ -14945,90 +14956,81 @@
         <v>918</v>
       </c>
       <c r="I220" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="D221" t="s">
+        <v>729</v>
+      </c>
+      <c r="E221" t="s">
+        <v>730</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G221" t="s">
+        <v>917</v>
+      </c>
+      <c r="H221" t="s">
+        <v>918</v>
+      </c>
+      <c r="I221" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
-      <c r="A221" t="s">
+    <row r="222" spans="1:17">
+      <c r="A222" t="s">
         <v>303</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>304</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C222" t="s">
         <v>731</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G222" t="s">
         <v>907</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H222" t="s">
         <v>908</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I222" t="s">
         <v>904</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17">
-      <c r="D222" t="s">
-        <v>464</v>
-      </c>
-      <c r="E222" t="s">
-        <v>467</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H222" t="s">
-        <v>903</v>
-      </c>
-      <c r="I222" t="s">
-        <v>969</v>
-      </c>
-      <c r="J222" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="223" spans="1:17">
       <c r="D223" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E223" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F223" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G223" t="s">
-        <v>917</v>
+        <v>1037</v>
       </c>
       <c r="H223" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="I223" t="s">
         <v>969</v>
       </c>
+      <c r="J223" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="224" spans="1:17">
-      <c r="A224" t="s">
-        <v>736</v>
-      </c>
-      <c r="B224" t="s">
-        <v>737</v>
-      </c>
-      <c r="C224" t="s">
-        <v>738</v>
-      </c>
       <c r="D224" t="s">
-        <v>736</v>
+        <v>457</v>
       </c>
       <c r="E224" t="s">
-        <v>737</v>
+        <v>460</v>
       </c>
       <c r="F224" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G224" t="s">
         <v>917</v>
@@ -15037,67 +15039,76 @@
         <v>918</v>
       </c>
       <c r="I224" t="s">
-        <v>1040</v>
+        <v>969</v>
       </c>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B225" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C225" t="s">
-        <v>741</v>
+        <v>738</v>
+      </c>
+      <c r="D225" t="s">
+        <v>736</v>
+      </c>
+      <c r="E225" t="s">
+        <v>737</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1039</v>
       </c>
       <c r="G225" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="H225" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="I225" t="s">
-        <v>935</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" t="s">
+        <v>739</v>
+      </c>
+      <c r="B226" t="s">
+        <v>740</v>
+      </c>
+      <c r="C226" t="s">
+        <v>741</v>
+      </c>
+      <c r="G226" t="s">
+        <v>907</v>
+      </c>
+      <c r="H226" t="s">
+        <v>908</v>
+      </c>
+      <c r="I226" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" t="s">
         <v>742</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>852</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>853</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D227" t="s">
         <v>742</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E227" t="s">
         <v>743</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F227" t="s">
         <v>1041</v>
-      </c>
-      <c r="G226" t="s">
-        <v>917</v>
-      </c>
-      <c r="H226" t="s">
-        <v>918</v>
-      </c>
-      <c r="I226" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14">
-      <c r="D227" t="s">
-        <v>159</v>
-      </c>
-      <c r="E227" t="s">
-        <v>744</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1043</v>
       </c>
       <c r="G227" t="s">
         <v>917</v>
@@ -15106,18 +15117,18 @@
         <v>918</v>
       </c>
       <c r="I227" t="s">
-        <v>965</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="D228" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="E228" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F228" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G228" t="s">
         <v>917</v>
@@ -15126,24 +15137,24 @@
         <v>918</v>
       </c>
       <c r="I228" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
     </row>
     <row r="229" spans="1:14">
       <c r="D229" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="E229" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F229" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G229" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="H229" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="I229" t="s">
         <v>959</v>
@@ -15154,39 +15165,30 @@
         <v>321</v>
       </c>
       <c r="E230" t="s">
-        <v>338</v>
+        <v>746</v>
       </c>
       <c r="F230" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G230" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H230" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="I230" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>862</v>
-      </c>
       <c r="D231" t="s">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="E231" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="F231" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G231" t="s">
         <v>917</v>
@@ -15199,23 +15201,32 @@
       </c>
     </row>
     <row r="232" spans="1:14">
+      <c r="A232" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>862</v>
+      </c>
       <c r="D232" t="s">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="E232" t="s">
-        <v>747</v>
+        <v>413</v>
       </c>
       <c r="F232" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G232" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="H232" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="I232" t="s">
-        <v>1042</v>
+        <v>959</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -15223,10 +15234,10 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F233" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G233" t="s">
         <v>907</v>
@@ -15235,7 +15246,7 @@
         <v>908</v>
       </c>
       <c r="I233" t="s">
-        <v>959</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -15243,59 +15254,50 @@
         <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>425</v>
+        <v>748</v>
       </c>
       <c r="F234" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G234" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H234" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="I234" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="235" spans="1:14">
       <c r="D235" t="s">
-        <v>727</v>
+        <v>46</v>
       </c>
       <c r="E235" t="s">
-        <v>749</v>
+        <v>425</v>
       </c>
       <c r="F235" t="s">
-        <v>1174</v>
+        <v>1050</v>
       </c>
       <c r="G235" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="H235" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="I235" t="s">
-        <v>990</v>
-      </c>
-      <c r="L235" t="s">
-        <v>727</v>
-      </c>
-      <c r="M235" t="s">
-        <v>749</v>
-      </c>
-      <c r="N235" t="s">
-        <v>1051</v>
+        <v>965</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="D236" t="s">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="E236" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F236" t="s">
-        <v>1052</v>
+        <v>1174</v>
       </c>
       <c r="G236" t="s">
         <v>907</v>
@@ -15304,7 +15306,16 @@
         <v>908</v>
       </c>
       <c r="I236" t="s">
-        <v>1042</v>
+        <v>990</v>
+      </c>
+      <c r="L236" t="s">
+        <v>727</v>
+      </c>
+      <c r="M236" t="s">
+        <v>749</v>
+      </c>
+      <c r="N236" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -15312,10 +15323,10 @@
         <v>640</v>
       </c>
       <c r="E237" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F237" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G237" t="s">
         <v>907</v>
@@ -15328,115 +15339,115 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" t="s">
-        <v>228</v>
-      </c>
-      <c r="B238" t="s">
-        <v>752</v>
-      </c>
-      <c r="C238" t="s">
-        <v>753</v>
+      <c r="D238" t="s">
+        <v>640</v>
+      </c>
+      <c r="E238" t="s">
+        <v>751</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1053</v>
       </c>
       <c r="G238" t="s">
-        <v>986</v>
+        <v>907</v>
       </c>
       <c r="H238" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I238" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" t="s">
+        <v>228</v>
+      </c>
+      <c r="B239" t="s">
+        <v>752</v>
+      </c>
+      <c r="C239" t="s">
+        <v>753</v>
+      </c>
+      <c r="G239" t="s">
+        <v>986</v>
+      </c>
+      <c r="H239" t="s">
+        <v>910</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" t="s">
         <v>681</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>754</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>755</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G240" t="s">
         <v>907</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H240" t="s">
         <v>908</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I240" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
-      <c r="D240" t="s">
+    <row r="241" spans="1:17">
+      <c r="D241" t="s">
         <v>496</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E241" t="s">
         <v>501</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F241" t="s">
         <v>1055</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G241" t="s">
         <v>917</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H241" t="s">
         <v>918</v>
-      </c>
-      <c r="I240" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17">
-      <c r="A241" t="s">
-        <v>717</v>
-      </c>
-      <c r="B241" t="s">
-        <v>879</v>
-      </c>
-      <c r="C241" t="s">
-        <v>880</v>
-      </c>
-      <c r="D241" t="s">
-        <v>646</v>
-      </c>
-      <c r="E241" t="s">
-        <v>756</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G241" t="s">
-        <v>907</v>
-      </c>
-      <c r="H241" t="s">
-        <v>908</v>
       </c>
       <c r="I241" t="s">
         <v>919</v>
       </c>
-      <c r="J241" t="s">
-        <v>1126</v>
-      </c>
     </row>
     <row r="242" spans="1:17">
+      <c r="A242" t="s">
+        <v>717</v>
+      </c>
+      <c r="B242" t="s">
+        <v>879</v>
+      </c>
+      <c r="C242" t="s">
+        <v>880</v>
+      </c>
       <c r="D242" t="s">
         <v>646</v>
       </c>
       <c r="E242" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F242" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G242" t="s">
-        <v>1030</v>
+        <v>907</v>
       </c>
       <c r="H242" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I242" t="s">
         <v>919</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -15444,10 +15455,10 @@
         <v>646</v>
       </c>
       <c r="E243" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F243" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G243" t="s">
         <v>1030</v>
@@ -15461,379 +15472,379 @@
     </row>
     <row r="244" spans="1:17">
       <c r="D244" t="s">
-        <v>689</v>
+        <v>646</v>
       </c>
       <c r="E244" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F244" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G244" t="s">
-        <v>907</v>
+        <v>1030</v>
       </c>
       <c r="H244" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I244" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
     </row>
     <row r="245" spans="1:17">
       <c r="D245" t="s">
-        <v>767</v>
+        <v>689</v>
       </c>
       <c r="E245" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="F245" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G245" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H245" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="I245" t="s">
-        <v>969</v>
+        <v>904</v>
       </c>
     </row>
     <row r="246" spans="1:17">
       <c r="D246" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="E246" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="F246" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G246" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="H246" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="I246" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J246" t="s">
-        <v>1062</v>
+        <v>969</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
-        <v>769</v>
+        <v>734</v>
       </c>
       <c r="E247" t="s">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="F247" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G247" t="s">
         <v>912</v>
       </c>
       <c r="H247" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="I247" t="s">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="J247" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L247" t="s">
-        <v>769</v>
-      </c>
-      <c r="M247" t="s">
-        <v>770</v>
-      </c>
-      <c r="N247" t="s">
-        <v>1186</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="D248" t="s">
-        <v>610</v>
+        <v>769</v>
       </c>
       <c r="E248" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="F248" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G248" t="s">
-        <v>979</v>
+        <v>912</v>
       </c>
       <c r="H248" t="s">
-        <v>980</v>
+        <v>918</v>
       </c>
       <c r="I248" t="s">
-        <v>1065</v>
+        <v>1040</v>
+      </c>
+      <c r="J248" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L248" t="s">
+        <v>769</v>
+      </c>
+      <c r="M248" t="s">
+        <v>770</v>
+      </c>
+      <c r="N248" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="D249" t="s">
+        <v>610</v>
+      </c>
+      <c r="E249" t="s">
+        <v>793</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G249" t="s">
+        <v>979</v>
+      </c>
+      <c r="H249" t="s">
+        <v>980</v>
+      </c>
+      <c r="I249" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="D250" t="s">
         <v>794</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E250" t="s">
         <v>795</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F250" t="s">
         <v>1066</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G250" t="s">
         <v>1067</v>
-      </c>
-      <c r="H249" t="s">
-        <v>918</v>
-      </c>
-      <c r="I249" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J249" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" ht="16.5">
-      <c r="D250" t="s">
-        <v>846</v>
-      </c>
-      <c r="E250" t="s">
-        <v>798</v>
-      </c>
-      <c r="F250" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G250" t="s">
-        <v>1143</v>
       </c>
       <c r="H250" t="s">
         <v>918</v>
       </c>
-      <c r="I250" s="10" t="s">
+      <c r="I250" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" ht="16.5">
+      <c r="D251" t="s">
+        <v>846</v>
+      </c>
+      <c r="E251" t="s">
+        <v>798</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H251" t="s">
+        <v>918</v>
+      </c>
+      <c r="I251" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="J250" t="s">
+      <c r="J251" t="s">
         <v>1109</v>
       </c>
-      <c r="L250" t="s">
+      <c r="L251" t="s">
         <v>195</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M251" t="s">
         <v>798</v>
       </c>
-      <c r="N250" t="s">
+      <c r="N251" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
-      <c r="A251" t="s">
+    <row r="252" spans="1:17">
+      <c r="A252" t="s">
         <v>308</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>309</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C252" t="s">
         <v>310</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>727</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E252" t="s">
         <v>311</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F252" t="s">
         <v>1070</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G252" t="s">
         <v>907</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H252" t="s">
         <v>908</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I252" t="s">
         <v>904</v>
       </c>
-      <c r="L251" t="s">
+      <c r="L252" t="s">
         <v>727</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M252" t="s">
         <v>311</v>
       </c>
-      <c r="N251" t="s">
+      <c r="N252" t="s">
         <v>786</v>
       </c>
-      <c r="O251" t="s">
+      <c r="O252" t="s">
         <v>308</v>
       </c>
-      <c r="P251" t="s">
+      <c r="P252" t="s">
         <v>311</v>
       </c>
-      <c r="Q251" t="s">
+      <c r="Q252" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
-      <c r="D252" t="s">
+    <row r="253" spans="1:17">
+      <c r="D253" t="s">
         <v>285</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E253" t="s">
         <v>802</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F253" t="s">
         <v>1071</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G253" t="s">
         <v>1001</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H253" t="s">
         <v>918</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I253" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5">
-      <c r="D253" t="s">
+    <row r="254" spans="1:17" ht="16.5">
+      <c r="D254" t="s">
         <v>387</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E254" t="s">
         <v>354</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F254" t="s">
         <v>1072</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G254" t="s">
         <v>907</v>
       </c>
-      <c r="H253" t="s">
+      <c r="H254" t="s">
         <v>908</v>
       </c>
-      <c r="I253" s="10" t="s">
+      <c r="I254" s="10" t="s">
         <v>959</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17">
-      <c r="D254" t="s">
-        <v>508</v>
-      </c>
-      <c r="E254" t="s">
-        <v>805</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G254" t="s">
-        <v>912</v>
-      </c>
-      <c r="H254" t="s">
-        <v>913</v>
-      </c>
-      <c r="I254" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="255" spans="1:17">
       <c r="D255" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>805</v>
       </c>
       <c r="F255" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G255" t="s">
-        <v>1001</v>
+        <v>912</v>
       </c>
       <c r="H